--- a/uploads/2024-04-10T22:42:49.xlsx
+++ b/uploads/2024-04-10T22:42:49.xlsx
@@ -398,7994 +398,6746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F399"/>
+  <dimension ref="A1:E396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Título do trabalho</v>
+        <v>Palavra-chave 1</v>
       </c>
       <c r="B1" t="str">
-        <v>Palavra-chave 1</v>
+        <v>Palavra-chave 2</v>
       </c>
       <c r="C1" t="str">
-        <v>Palavra-chave 2</v>
+        <v>Palavra-chave 3</v>
       </c>
       <c r="D1" t="str">
-        <v>Palavra-chave 3</v>
+        <v>Palavra-chave 4</v>
       </c>
       <c r="E1" t="str">
-        <v>Palavra-chave 4</v>
-      </c>
-      <c r="F1" t="str">
         <v>Palavra-chave 5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>a relevancia do letramento digital no percurso do processo de ensino e apreizagem na pandemia: a realidade de minas gerais</v>
+        <v>tecnologia  da   informacao</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> letramento digital</v>
+        <v>informatica   em   enfermagem</v>
       </c>
       <c r="C2" t="str">
-        <v>ensino e apreizagem</v>
+        <v>grupos   de pesquisa</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve"> paemia</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>as metodologias de ensino e a autonomia do aluno na ead: estudo de caso no curso de administracao publica da universidade estadual de ponta grossa</v>
+        <v>avaliacao</v>
       </c>
       <c r="B3" t="str">
-        <v>metodologias ativas de apreizagem</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C3" t="str">
-        <v>administracao publica.</v>
+        <v>cultura digital</v>
       </c>
       <c r="D3" t="str">
-        <v>tdics</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>as redes sociais escolhidas por estudantes do ensino medio</v>
+        <v>perfect piano</v>
       </c>
       <c r="B4" t="str">
-        <v>redes sociais</v>
+        <v>tam tam mini</v>
       </c>
       <c r="C4" t="str">
-        <v xml:space="preserve"> estudantes do ensino medio</v>
+        <v>scratch</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> ingles</v>
+        <v>bbc microbit</v>
       </c>
       <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
+        <v>cifra melodica</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>as tecnologias hipertextuais e a apreizagem da leitura e da escrita na escola</v>
+        <v>educacao</v>
       </c>
       <c r="B5" t="str">
-        <v>escola</v>
+        <v>comunicacao</v>
       </c>
       <c r="C5" t="str">
-        <v>leitura</v>
+        <v>midias sociais</v>
       </c>
       <c r="D5" t="str">
-        <v>escrita</v>
+        <v>publicidade</v>
       </c>
       <c r="E5" t="str">
-        <v>tecnologias hipertextuais</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>a teoria da distancia transacional em discussao: ressignificao as perspectivas de tempo e espaco</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B6" t="str">
-        <v>distancia transacional</v>
+        <v>academicos</v>
       </c>
       <c r="C6" t="str">
-        <v>estrategias pedagogico-comunicacionais</v>
+        <v>pedagogia</v>
       </c>
       <c r="D6" t="str">
-        <v>univesp</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>ensino a distancia</v>
-      </c>
-      <c r="F6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>atividades praticas e ensino de biologia no ensino remoto emergencial</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B7" t="str">
-        <v>ensino remoto emergencia</v>
+        <v>tdic</v>
       </c>
       <c r="C7" t="str">
-        <v xml:space="preserve"> biologia: atividades praticas</v>
+        <v>paemia</v>
       </c>
       <c r="D7" t="str">
         <v/>
       </c>
       <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>atualizacao e aprimoramento do website de um grupo de pesquisa</v>
+        <v>cultura steam</v>
       </c>
       <c r="B8" t="str">
-        <v>tecnologia  da   informacao</v>
+        <v>mulheres nas ciencias</v>
       </c>
       <c r="C8" t="str">
-        <v>informatica   em   enfermagem</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>grupos   de pesquisa</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>avaliar para as apreizagens em contextos digitais: potencialidades e desafios no ambito de cursos de graduacao de engenharia</v>
+        <v>apreizagem</v>
       </c>
       <c r="B9" t="str">
-        <v>avaliacao</v>
+        <v>gamificacao</v>
       </c>
       <c r="C9" t="str">
-        <v>educacao hibrida</v>
+        <v>este de progresso</v>
       </c>
       <c r="D9" t="str">
-        <v>cultura digital</v>
+        <v>educacao medica</v>
       </c>
       <c r="E9" t="str">
-        <v>ensino de fisica</v>
-      </c>
-      <c r="F9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>bbc micro: bit, laptops e tablets: uma proposta metodologica hibrida para o ensino da linguagem musical nos anos iniciais do ensino fuamental</v>
+        <v>design educacional</v>
       </c>
       <c r="B10" t="str">
-        <v>perfect piano</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C10" t="str">
-        <v>tam tam mini</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D10" t="str">
-        <v>scratch</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="E10" t="str">
-        <v>bbc micro:bit</v>
-      </c>
-      <c r="F10" t="str">
-        <v>cifra melodica</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>como funciona a midia online: relato de um publicitario para alunos dos anos iniciais de historia e letras</v>
+        <v>ecologia da apreizagem</v>
       </c>
       <c r="B11" t="str">
-        <v>educacao</v>
+        <v>cultura digital</v>
       </c>
       <c r="C11" t="str">
-        <v>comunicacao</v>
+        <v>processos de apreizagem</v>
       </c>
       <c r="D11" t="str">
-        <v>midias sociais</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>publicidade</v>
-      </c>
-      <c r="F11" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>competencias digitais de academicos do curso de pedagogia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B12" t="str">
-        <v>competencias digitais</v>
+        <v>tecnologias</v>
       </c>
       <c r="C12" t="str">
-        <v>academicos</v>
+        <v>apreizagem</v>
       </c>
       <c r="D12" t="str">
-        <v>pedagogia</v>
+        <v>ensino</v>
       </c>
       <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v/>
+        <v>desafios</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>contribuicoes das tecnologias digitais na apreizagem da quimica organica durante o ensino remoto emergencial</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B13" t="str">
-        <v>ensino de quimica</v>
+        <v>podcast de ciencias</v>
       </c>
       <c r="C13" t="str">
-        <v>tdic</v>
+        <v>apreizagem</v>
       </c>
       <c r="D13" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>cultura steam4girls: trajetoria das jovens mulheres no ensino fuamental ii</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B14" t="str">
-        <v>cultura steam</v>
+        <v>formacao</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve"> mulheres nas ciencias</v>
+        <v>pedagogia</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>percepcao</v>
       </c>
       <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
+        <v>discente</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>desenvolvimento de aplicativo mobile para gamificacao do teste de progresso</v>
+        <v>educacao</v>
       </c>
       <c r="B15" t="str">
-        <v>apreizagem</v>
+        <v>tecnologia</v>
       </c>
       <c r="C15" t="str">
-        <v>gamificacao</v>
+        <v>digital</v>
       </c>
       <c r="D15" t="str">
-        <v>este de progresso</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>educacao medica</v>
-      </c>
-      <c r="F15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>diagnostico das midias, linguagens, metodologias e recursos educacionais mais aceitos entre alunos de cursos tecnicos ead concomitantes ao ensino medio do ifro</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B16" t="str">
-        <v>design educacional</v>
+        <v>pesquisa narrativa</v>
       </c>
       <c r="C16" t="str">
-        <v>educacao a distancia</v>
+        <v>egressos de pedagogia a distancia</v>
       </c>
       <c r="D16" t="str">
-        <v xml:space="preserve"> ensino hibrido</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>tecnologias educacionais</v>
-      </c>
-      <c r="F16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>ecologia da apreizagem e cultura digital: a transcendencia dos espacos instituidos na formacao no ensino superior</v>
+        <v>formacao  de professores</v>
       </c>
       <c r="B17" t="str">
-        <v>ecologia da apreizagem</v>
+        <v>ensino  remoto  emergencial</v>
       </c>
       <c r="C17" t="str">
-        <v>cultura digital</v>
+        <v>qualidade  na  educacaosuperior</v>
       </c>
       <c r="D17" t="str">
-        <v>processos de apreizagem</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ensino de programacao para estudantes de forma remota durante o isolamento social devido a paemia de covid-19</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B18" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="C18" t="str">
-        <v>tecnologias</v>
+        <v>humanizacao</v>
       </c>
       <c r="D18" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>ensino</v>
-      </c>
-      <c r="F18" t="str">
-        <v>desafios</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>ensino hibrido: temas atuais de ciencias</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B19" t="str">
-        <v>ensino hibrido</v>
+        <v>avaliacao de tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C19" t="str">
-        <v xml:space="preserve"> podcast de ciencias</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="D19" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>ensino remoto no curso de pedagogia: percepcoes dos discentes sobre a formacao</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="B20" t="str">
-        <v>ensino remoto</v>
+        <v>motivacao e engajamento</v>
       </c>
       <c r="C20" t="str">
-        <v>formacao</v>
+        <v>preizagem de leitura</v>
       </c>
       <c r="D20" t="str">
-        <v>pedagogia</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>percepcao</v>
-      </c>
-      <c r="F20" t="str">
-        <v xml:space="preserve"> discente</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>experimentacao de ferramentas digitais de autoria como recursos para educacao profissional: relato de experiencia</v>
+        <v>metaverso</v>
       </c>
       <c r="B21" t="str">
-        <v>educacao</v>
+        <v>ensino fuamental</v>
       </c>
       <c r="C21" t="str">
-        <v>tecnologia</v>
+        <v>ciencia humanas</v>
       </c>
       <c r="D21" t="str">
-        <v>digital</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>formacao de professores na educacao a distancia: as narrativas dos egressos do curso de pedagogia</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B22" t="str">
-        <v xml:space="preserve"> formacao de professores</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C22" t="str">
-        <v>pesquisa narrativa</v>
+        <v>alunos</v>
       </c>
       <c r="D22" t="str">
-        <v>egressos de pedagogia a distancia</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>formacao de professores no ensino remoto emergencial: desafios, limitacoes e possibilidades</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B23" t="str">
-        <v>formacao  de professores;</v>
+        <v>alfabetizacao cientifica</v>
       </c>
       <c r="C23" t="str">
-        <v>ensino  remoto  emergencial</v>
+        <v>ensino de geografia</v>
       </c>
       <c r="D23" t="str">
-        <v>qualidade  na  educacaosuperior</v>
+        <v>apreizagem baseada na resolucao de problemas</v>
       </c>
       <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
+        <v>web 20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>humanizacao das relacoes e dos espacos virtuais no ensino remoto: uma experiencia com estudantes de pedagogia</v>
+        <v>universidade</v>
       </c>
       <c r="B24" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>virtualidade</v>
       </c>
       <c r="C24" t="str">
-        <v>tdic</v>
+        <v>ensino</v>
       </c>
       <c r="D24" t="str">
-        <v>humanizacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>jogos didaticos eletronicos e funcoes executivas em escolares: reescritura de uma meta-avaliacao</v>
+        <v>gamificacao</v>
       </c>
       <c r="B25" t="str">
-        <v>meta-avaliacao</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="C25" t="str">
-        <v xml:space="preserve"> avaliacao de tecnologia da informacao e comunicacao</v>
+        <v>apreizagem de leitura</v>
       </c>
       <c r="D25" t="str">
-        <v>jogos eletronicos</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>marcas verbais e nao-verbais de motivacao e engajamento em atividade com objeto de leitura gamificado</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B26" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C26" t="str">
-        <v>motivacao e engajamento</v>
+        <v>ensino de biologia</v>
       </c>
       <c r="D26" t="str">
-        <v>preizagem de leitura</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>minecraft e organizacao espacial a partir da imigracao no brasil</v>
+        <v>tdics</v>
       </c>
       <c r="B27" t="str">
-        <v>metaverso</v>
+        <v>colegio de aplicacao</v>
       </c>
       <c r="C27" t="str">
-        <v>ensino fuamental</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D27" t="str">
-        <v>ciencia humanas</v>
+        <v>paemia</v>
       </c>
       <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>modelo pedagogico para construcao de competencias digitais de alunos na educacao a distancia</v>
+        <v>fracao  equivalente</v>
       </c>
       <c r="B28" t="str">
-        <v>competencias digitais</v>
+        <v>tecnologias</v>
       </c>
       <c r="C28" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D28" t="str">
-        <v>alunos</v>
+        <v>apreizagem</v>
       </c>
       <c r="E28" t="str">
-        <v>modelo pedagogico</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
+        <v>resolucao  de problemas</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>multiletramentos, web 2.0 e pbl: uma contribuicao ao processo de alfabetizacao cientifica em geografia</v>
+        <v>orientador educacional</v>
       </c>
       <c r="B29" t="str">
-        <v>multiletramentos</v>
+        <v>tecnologias</v>
       </c>
       <c r="C29" t="str">
-        <v>alfabetizacao cientifica</v>
+        <v>covid19</v>
       </c>
       <c r="D29" t="str">
-        <v>ensino de geografia</v>
+        <v/>
       </c>
       <c r="E29" t="str">
-        <v>apreizagem baseada na resolucao de problemas</v>
-      </c>
-      <c r="F29" t="str">
-        <v>web 2.0</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>nada sera como antes: a reinvencao do ensino superior na “era da virtualidade” – apontamentos a partir de constatacoes empiricas</v>
+        <v>orientacao educacional</v>
       </c>
       <c r="B30" t="str">
-        <v>universidade</v>
+        <v>tecnologias</v>
       </c>
       <c r="C30" t="str">
-        <v>virtualidade</v>
+        <v>paemia</v>
       </c>
       <c r="D30" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="F30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>objeto de leitura gamificado para alunos do 6º ano do ensino fuamental</v>
+        <v>educacao digital</v>
       </c>
       <c r="B31" t="str">
-        <v>gamificacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C31" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>paemia</v>
       </c>
       <c r="D31" t="str">
-        <v>apreizagem de leitura</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v/>
+        <v>ead</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>o ensino hibrido no ensino de biologia: demaas e propostas no seculo xxi -breve revisao bibliografica</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B32" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao e tecnologias</v>
       </c>
       <c r="C32" t="str">
-        <v>metodologias ativas</v>
+        <v>letramento digital</v>
       </c>
       <c r="D32" t="str">
-        <v>ensino de biologia</v>
+        <v/>
       </c>
       <c r="E32" t="str">
-        <v/>
-      </c>
-      <c r="F32" t="str">
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>o ensino remoto emergencial no colegio de aplicacao da universidade federal de roraima-desafios da educacao basica</v>
+        <v>ateimento   educacional   especializado</v>
       </c>
       <c r="B33" t="str">
-        <v>tdics</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C33" t="str">
-        <v>colegio de aplicacao</v>
+        <v>transtorno do espectro do autismo</v>
       </c>
       <c r="D33" t="str">
-        <v>ensino remoto emergencial</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="F33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>o professor de matematica e o estudo de fracao: enteendo a equivalencia para somar e subtrair</v>
+        <v>musica</v>
       </c>
       <c r="B34" t="str">
-        <v>fracao  equivalente</v>
+        <v>autorregulacao</v>
       </c>
       <c r="C34" t="str">
-        <v>tecnologias</v>
+        <v>apreizagem</v>
       </c>
       <c r="D34" t="str">
-        <v>ensino hibrido</v>
+        <v>estrategia</v>
       </c>
       <c r="E34" t="str">
-        <v>apreizagem</v>
-      </c>
-      <c r="F34" t="str">
-        <v>resolucao  de problemas</v>
+        <v>baa escolar</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>orientacao educacional: reinvencao em tempos de paemia</v>
+        <v>alimentos organicos</v>
       </c>
       <c r="B35" t="str">
-        <v>orientador educacional</v>
+        <v>eletiva</v>
       </c>
       <c r="C35" t="str">
-        <v>tecnologias</v>
+        <v>historia em quadrinhos</v>
       </c>
       <c r="D35" t="str">
-        <v>covid-19</v>
+        <v/>
       </c>
       <c r="E35" t="str">
-        <v/>
-      </c>
-      <c r="F35" t="str">
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>orientador educacional: alternativas em tempos de paemia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B36" t="str">
-        <v>orientacao educacional</v>
+        <v>tecnologia   digital de informacao e comunicacao tdic</v>
       </c>
       <c r="C36" t="str">
-        <v>tecnologias</v>
+        <v>apreizagem em matematica</v>
       </c>
       <c r="D36" t="str">
-        <v>paemia</v>
+        <v>educacao basica</v>
       </c>
       <c r="E36" t="str">
-        <v/>
-      </c>
-      <c r="F36" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>o desafio da educacao digital no contexto paemico: relatos da universidade estadual de ponta grossa</v>
+        <v>discente</v>
       </c>
       <c r="B37" t="str">
-        <v>educacao digital</v>
+        <v>ensino superior</v>
       </c>
       <c r="C37" t="str">
-        <v>tecnologia</v>
+        <v>protagonismo</v>
       </c>
       <c r="D37" t="str">
-        <v>paemia</v>
+        <v>tdics</v>
       </c>
       <c r="E37" t="str">
-        <v>ensino remoto;</v>
-      </c>
-      <c r="F37" t="str">
-        <v>ead</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>os desafios da escola para a promocao da inclusao digital: uma breve revisao de literatura</v>
+        <v>avaliacao</v>
       </c>
       <c r="B38" t="str">
-        <v>inclusao digital</v>
+        <v>educacao basica</v>
       </c>
       <c r="C38" t="str">
-        <v>educacao e tecnologias</v>
+        <v>saresp</v>
       </c>
       <c r="D38" t="str">
-        <v xml:space="preserve"> letramento digital</v>
+        <v>tdic</v>
       </c>
       <c r="E38" t="str">
-        <v/>
-      </c>
-      <c r="F38" t="str">
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>os desafios do ateimento educacional especializado (aee) em tempos de pandemia do covid-19, no municipio de uberlandia/mg</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B39" t="str">
-        <v>ateimento   educacional   especializado</v>
+        <v>revista digital</v>
       </c>
       <c r="C39" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>cultura digital</v>
       </c>
       <c r="D39" t="str">
-        <v>transtorno do espectro do autismo</v>
+        <v>protagonismo do estudante</v>
       </c>
       <c r="E39" t="str">
-        <v/>
-      </c>
-      <c r="F39" t="str">
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>o uso da internet na autorregulacao da apreizagem de instrumentos musicais: um estudo de caso</v>
+        <v>rubricas</v>
       </c>
       <c r="B40" t="str">
-        <v>musica</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="C40" t="str">
-        <v>autorregulacao</v>
+        <v>ensino superior em saude</v>
       </c>
       <c r="D40" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v>estrategia</v>
-      </c>
-      <c r="F40" t="str">
-        <v>baa escolar</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>o uso de historia em quadrinhos como recurso pedagogico para a sistematizacao dos conhecimentos no ensino hibrido</v>
+        <v>steam</v>
       </c>
       <c r="B41" t="str">
-        <v>alimentos organicos</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C41" t="str">
-        <v xml:space="preserve"> eletiva</v>
+        <v>ensino</v>
       </c>
       <c r="D41" t="str">
-        <v>historia em quadrinhos</v>
+        <v/>
       </c>
       <c r="E41" t="str">
-        <v/>
-      </c>
-      <c r="F41" t="str">
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>paemia e ensino remoto: a defasagem na aprendizagem de matematica no ensino medio</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B42" t="str">
-        <v>ensino remoto</v>
+        <v>educacao basica</v>
       </c>
       <c r="C42" t="str">
-        <v>tecnologia   digital de informacao e comunicacao (tdic)</v>
+        <v>artes visuais</v>
       </c>
       <c r="D42" t="str">
-        <v>apreizagem em matematica</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v xml:space="preserve"> educacao basica</v>
-      </c>
-      <c r="F42" t="str">
-        <v>covid-19</v>
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>protagonismo discente e as tdics: resiliencia em uma experiencia academica</v>
+        <v>tdic</v>
       </c>
       <c r="B43" t="str">
-        <v>discente</v>
+        <v>professores de ingles</v>
       </c>
       <c r="C43" t="str">
-        <v>ensino superior</v>
+        <v>apreizagem emingles</v>
       </c>
       <c r="D43" t="str">
-        <v>protagonismo</v>
+        <v>ufpa</v>
       </c>
       <c r="E43" t="str">
-        <v>tdics</v>
-      </c>
-      <c r="F43" t="str">
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>retorno as atividades presencias na rede estadual de sao paulo: desafios e perspectivas em tempos de pos-paemia</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B44" t="str">
-        <v>avaliacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C44" t="str">
-        <v>educacao basica</v>
+        <v>aulasnaopresenciais</v>
       </c>
       <c r="D44" t="str">
-        <v>saresp</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>tdic</v>
-      </c>
-      <c r="F44" t="str">
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>revista digital e o protagonismo do estudante: uma construcao critica, coletiva e criativa</v>
+        <v>precalculo</v>
       </c>
       <c r="B45" t="str">
-        <v>tecnologia educacional</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="C45" t="str">
-        <v>revista digital</v>
+        <v>transicao terciaria</v>
       </c>
       <c r="D45" t="str">
-        <v>cultura digital</v>
+        <v>covid19</v>
       </c>
       <c r="E45" t="str">
-        <v>protagonismo do estudante</v>
-      </c>
-      <c r="F45" t="str">
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>rubrica: uma ferramenta para a avaliacao formativa</v>
+        <v>surdez</v>
       </c>
       <c r="B46" t="str">
-        <v>rubricas</v>
+        <v>tecnologia</v>
       </c>
       <c r="C46" t="str">
-        <v>avaliacao formativa</v>
+        <v>inclusao</v>
       </c>
       <c r="D46" t="str">
-        <v>ensino superior em saude</v>
+        <v>acessibilidade</v>
       </c>
       <c r="E46" t="str">
-        <v/>
-      </c>
-      <c r="F46" t="str">
-        <v/>
+        <v>midiaeducacao</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>steam education: caracteristicas e reflexoes acerca de uma proposta educacional ativa e interdisciplinar</v>
+        <v>smartphone</v>
       </c>
       <c r="B47" t="str">
-        <v>steam</v>
+        <v>lingua inglesa li</v>
       </c>
       <c r="C47" t="str">
-        <v>metodologias ativas</v>
+        <v>educacao de jovens e adultos eja</v>
       </c>
       <c r="D47" t="str">
-        <v>ensino</v>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="E47" t="str">
-        <v/>
-      </c>
-      <c r="F47" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>tecnologias digitais em aulas de artes visuais da educacao basica sob a perspectiva de estudantes de pedagogia</v>
+        <v>educacao 40</v>
       </c>
       <c r="B48" t="str">
-        <v>tecnologias digitais</v>
+        <v>gamificacao</v>
       </c>
       <c r="C48" t="str">
-        <v>educacao basica</v>
+        <v>geracao alpha</v>
       </c>
       <c r="D48" t="str">
-        <v>artes visuais</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="E48" t="str">
-        <v/>
-      </c>
-      <c r="F48" t="str">
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>tecnologias digitais na apreizagem de lingua inglesa</v>
+        <v>ensino medio</v>
       </c>
       <c r="B49" t="str">
+        <v>avaliacao educacional</v>
+      </c>
+      <c r="C49" t="str">
+        <v>avaliacao formativa</v>
+      </c>
+      <c r="D49" t="str">
+        <v>ncc</v>
+      </c>
+      <c r="E49" t="str">
         <v>tdic</v>
-      </c>
-      <c r="C49" t="str">
-        <v xml:space="preserve"> professores de ingles</v>
-      </c>
-      <c r="D49" t="str">
-        <v xml:space="preserve"> apreizagem emingles</v>
-      </c>
-      <c r="E49" t="str">
-        <v>ufpa</v>
-      </c>
-      <c r="F49" t="str">
-        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>tdic e ensino remoto: nuances da educacao durante a paemia da covid-19</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="B50" t="str">
-        <v>ensino e apreizagem</v>
+        <v>centro de midias</v>
       </c>
       <c r="C50" t="str">
-        <v>tecnologia</v>
+        <v>amazonas</v>
       </c>
       <c r="D50" t="str">
-        <v xml:space="preserve"> aulasnaopresenciais</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v/>
-      </c>
-      <c r="F50" t="str">
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>um curso de pre-calculo em plataformas digitais na transicao para estudo universitario na area de ciencias exatas em tempos de paemia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B51" t="str">
-        <v>pre-calculo</v>
+        <v>praticas hibridas de ensino</v>
       </c>
       <c r="C51" t="str">
-        <v xml:space="preserve"> ensino a distancia</v>
+        <v>pospaemia</v>
       </c>
       <c r="D51" t="str">
-        <v>transicao terciaria</v>
+        <v/>
       </c>
       <c r="E51" t="str">
-        <v>covid-19</v>
-      </c>
-      <c r="F51" t="str">
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>acessibilidade, cidadania e educacao de surdos: reflexoes acerca dos recursos digitais em uma perspectiva da midia-educacao</v>
+        <v>tdics</v>
       </c>
       <c r="B52" t="str">
-        <v>surdez</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C52" t="str">
-        <v>tecnologia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D52" t="str">
-        <v>inclusao</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <v>acessibilidade</v>
-      </c>
-      <c r="F52" t="str">
-        <v xml:space="preserve"> midia-educacao</v>
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>a inclusao das tdic por meio da utilizacao de smartphone na apreizagem da lingua inglesa na educacao de jovens e adultos (eja) – ensino fundamental</v>
+        <v>ead</v>
       </c>
       <c r="B53" t="str">
-        <v>smartphone</v>
+        <v>educacao basica</v>
       </c>
       <c r="C53" t="str">
-        <v>lingua inglesa (li)</v>
+        <v>professores</v>
       </c>
       <c r="D53" t="str">
-        <v>educacao de jovens e adultos (eja)</v>
+        <v/>
       </c>
       <c r="E53" t="str">
-        <v>tecnologia digital de informacao e comunicacao (tdic)</v>
-      </c>
-      <c r="F53" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>a gamificacao do ensino e a implementacao dos jogos eletronicos como recuso pedagogico: uma possivel resposta as demaas da geracao alpha</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B54" t="str">
-        <v>educacao 4.0</v>
+        <v>sistema de informacao</v>
       </c>
       <c r="C54" t="str">
-        <v>gamificacao</v>
+        <v>seduc</v>
       </c>
       <c r="D54" t="str">
-        <v>geracao alpha</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v>jogos eletronicos</v>
-      </c>
-      <c r="F54" t="str">
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>a bncc, a avaliacao das apreizagens e as tecnologias digitais no ensino medio</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B55" t="str">
-        <v xml:space="preserve"> ensino medio</v>
+        <v>olimpiadas cientificas</v>
       </c>
       <c r="C55" t="str">
-        <v>avaliacao educacional</v>
+        <v>ensinode ciencias</v>
       </c>
       <c r="D55" t="str">
-        <v xml:space="preserve">avaliacao formativa. </v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>ncc.</v>
-      </c>
-      <c r="F55" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>a construcao de uma base teorica para os professores do centro de midias do amazonas</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B56" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>formacao docente</v>
       </c>
       <c r="C56" t="str">
-        <v>centro de midias</v>
+        <v>instituicao de ensino superior</v>
       </c>
       <c r="D56" t="str">
-        <v>amazonas</v>
+        <v/>
       </c>
       <c r="E56" t="str">
-        <v/>
-      </c>
-      <c r="F56" t="str">
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>a educacao no pos-paemia de covid 19: uma pratica hibrida? um relato de experiencia na rede estadual de educacao da bahia</v>
+        <v>professores iniciantes</v>
       </c>
       <c r="B57" t="str">
-        <v>ensino remoto</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C57" t="str">
-        <v>praticas hibridas de ensino</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D57" t="str">
-        <v>pos-paemia</v>
+        <v>conhecimento tecnologico e pedagogico do conteudo</v>
       </c>
       <c r="E57" t="str">
-        <v/>
-      </c>
-      <c r="F57" t="str">
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>a importancia da formacao continuada de professores sobre o uso de recursos tecnologicos no ensino presencial e hibrido</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B58" t="str">
-        <v>tdics</v>
+        <v>ensino remoto e ensino a distancia</v>
       </c>
       <c r="C58" t="str">
-        <v>formacao continuada de professores</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="D58" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E58" t="str">
-        <v/>
-      </c>
-      <c r="F58" t="str">
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>analise da concepcao de professores sobre as politicas publicas de inclusao da modalidade de ead na educacao basica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B59" t="str">
-        <v>ead</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="C59" t="str">
-        <v>educacao basica</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D59" t="str">
-        <v>professores</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v/>
-      </c>
-      <c r="F59" t="str">
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>analise do software sigeduca (sistema integrado de gestao educacional da seduc mt) na perspectiva do educador</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B60" t="str">
-        <v xml:space="preserve"> formacao de professores</v>
+        <v>narrativa</v>
       </c>
       <c r="C60" t="str">
-        <v xml:space="preserve"> sistema de informacao</v>
+        <v>curriculo de tecnologia</v>
       </c>
       <c r="D60" t="str">
-        <v>seduc</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v/>
-      </c>
-      <c r="F60" t="str">
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>a olimpiada brasileira de saude e meio ambiente e a formacao de professores: reflexoes sobre as oficinas pedagogicas e suas perspectivas</v>
+        <v>ensino</v>
       </c>
       <c r="B61" t="str">
-        <v>formacao de professores</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C61" t="str">
-        <v xml:space="preserve"> olimpiadas cientificas</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="D61" t="str">
-        <v xml:space="preserve"> ensinode ciencias</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E61" t="str">
-        <v/>
-      </c>
-      <c r="F61" t="str">
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>a percepcao dos docentes sobre a implementacao do ensino a distancia (ead) em angola: o caso da universidade agostinho neto</v>
+        <v>educacao escolar</v>
       </c>
       <c r="B62" t="str">
-        <v xml:space="preserve"> ensino a distancia</v>
+        <v>sala de aula virtual</v>
       </c>
       <c r="C62" t="str">
-        <v xml:space="preserve"> formacao docente</v>
+        <v>ensino remoto e ensino hibrido</v>
       </c>
       <c r="D62" t="str">
-        <v>instituicao de ensino superior</v>
+        <v/>
       </c>
       <c r="E62" t="str">
-        <v/>
-      </c>
-      <c r="F62" t="str">
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>apreizagem da docencia na pandemia: tecnologias no exercicio da profissao</v>
+        <v>educacao fisica</v>
       </c>
       <c r="B63" t="str">
-        <v>professores iniciantes</v>
+        <v>praticas corporais</v>
       </c>
       <c r="C63" t="str">
-        <v xml:space="preserve"> ensino remoto emergencial</v>
+        <v>presencial</v>
       </c>
       <c r="D63" t="str">
-        <v>formacao de professores</v>
+        <v>a distancia</v>
       </c>
       <c r="E63" t="str">
-        <v>conhecimento tecnologico e pedagogico do conteudo</v>
-      </c>
-      <c r="F63" t="str">
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>apreizagem de informatica em curso tecnico no ensino remoto emergencial</v>
+        <v>insurgencias</v>
       </c>
       <c r="B64" t="str">
         <v>ensino remoto emergencial</v>
       </c>
       <c r="C64" t="str">
-        <v>ensino remoto e ensino a distancia</v>
+        <v>docencia no ensino superior</v>
       </c>
       <c r="D64" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E64" t="str">
-        <v/>
-      </c>
-      <c r="F64" t="str">
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>apreizagem invertida aplicada a formacao continuada de professores: relato de uma experiencia</v>
+        <v>educacao</v>
       </c>
       <c r="B65" t="str">
-        <v>formacao de professores</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C65" t="str">
-        <v>apreizagem invertida</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D65" t="str">
-        <v>metodologias ativas</v>
+        <v/>
       </c>
       <c r="E65" t="str">
-        <v/>
-      </c>
-      <c r="F65" t="str">
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>a robotica livre “para bem criar passarinhos” e a discussao com o curriculo prescrito: oe colocar as asas da nossa alma?</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="B66" t="str">
-        <v>robotica educacional</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C66" t="str">
-        <v>narrativa</v>
+        <v>audiovisual</v>
       </c>
       <c r="D66" t="str">
-        <v>curriculo de tecnologia</v>
+        <v>educacao basica</v>
       </c>
       <c r="E66" t="str">
-        <v/>
-      </c>
-      <c r="F66" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>a sala de aula invertida: relato de uma pratica pedagogica de estagio no contexto paemico para a educacao disruptiva</v>
+        <v>microbiologia</v>
       </c>
       <c r="B67" t="str">
         <v>ensino</v>
       </c>
       <c r="C67" t="str">
-        <v xml:space="preserve"> metodologias ativas</v>
+        <v>tecnologia</v>
       </c>
       <c r="D67" t="str">
-        <v>pratica pedagogica</v>
+        <v>jogos</v>
       </c>
       <c r="E67" t="str">
-        <v>sala de aula invertida</v>
-      </c>
-      <c r="F67" t="str">
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>a sala de aula para alem dos muros: a metodologia do ensino hibrido reinventao o quadro e o giz.</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B68" t="str">
-        <v>educacao escolar</v>
+        <v>competencias digitais</v>
       </c>
       <c r="C68" t="str">
-        <v xml:space="preserve"> sala de aula virtual</v>
+        <v>educacao basica</v>
       </c>
       <c r="D68" t="str">
-        <v>ensino remoto e ensino hibrido</v>
+        <v>covid19</v>
       </c>
       <c r="E68" t="str">
-        <v/>
-      </c>
-      <c r="F68" t="str">
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>as praticas corporais no curso de educacao fisica presencial e a distancia</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B69" t="str">
-        <v>educacao fisica</v>
+        <v>professores</v>
       </c>
       <c r="C69" t="str">
-        <v>praticas corporais</v>
+        <v>selfie for teachers</v>
       </c>
       <c r="D69" t="str">
-        <v>presencial</v>
+        <v>educacao basica</v>
       </c>
       <c r="E69" t="str">
-        <v>a distancia</v>
-      </c>
-      <c r="F69" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>as representacoes de insurgencias em um curso de capacitacao docente para o ensino remoto</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B70" t="str">
-        <v>insurgencias</v>
+        <v>avaliacao</v>
       </c>
       <c r="C70" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D70" t="str">
-        <v>docencia no ensino superior</v>
+        <v/>
       </c>
       <c r="E70" t="str">
-        <v>educacao a distancia</v>
-      </c>
-      <c r="F70" t="str">
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>as vozes do ensino remoto abrio caminhos para o ensino hibrido</v>
+        <v>avaliacao de estagio</v>
       </c>
       <c r="B71" t="str">
-        <v>educacao</v>
+        <v>processo pedagogico</v>
       </c>
       <c r="C71" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D71" t="str">
-        <v>ensino hibrido</v>
+        <v/>
       </c>
       <c r="E71" t="str">
-        <v/>
-      </c>
-      <c r="F71" t="str">
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>a tecnologia e a pesquisa em formacao e acao nas escolas publicas do distrito federal</v>
+        <v>bitmoji</v>
       </c>
       <c r="B72" t="str">
-        <v>tecnologia digital.</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C72" t="str">
-        <v>formacao de professores.</v>
+        <v>praticas de ensino</v>
       </c>
       <c r="D72" t="str">
-        <v>audiovisual</v>
+        <v/>
       </c>
       <c r="E72" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F72" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>atitudes e medidas adequadas para prevencao de doencas provocadas por bacterias, virus e protozoarios: desenvolveo habitos saudaveis para resiliencia, equidade e sustentabilidade</v>
+        <v>processo avaliativo</v>
       </c>
       <c r="B73" t="str">
-        <v>microbiologia</v>
+        <v>engenharia</v>
       </c>
       <c r="C73" t="str">
-        <v>ensino</v>
+        <v>projeto integrador</v>
       </c>
       <c r="D73" t="str">
-        <v>tecnologia</v>
+        <v>paemia</v>
       </c>
       <c r="E73" t="str">
-        <v>jogos</v>
-      </c>
-      <c r="F73" t="str">
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>autoavaliacao das competencias digitais dos professores da educacao basica em tempos de paemia</v>
+        <v>google meet</v>
       </c>
       <c r="B74" t="str">
-        <v>formacao de professores</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="C74" t="str">
-        <v>competencias digitais</v>
+        <v>paemia</v>
       </c>
       <c r="D74" t="str">
-        <v>educacao basica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E74" t="str">
-        <v>covid-19</v>
-      </c>
-      <c r="F74" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>autorreflexao das competencias digitais para os professores da educacao basica: a proposta o modelo selfie for teachers</v>
+        <v>tdic</v>
       </c>
       <c r="B75" t="str">
-        <v>competencias digitais</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C75" t="str">
-        <v>professores</v>
+        <v>frequencia escolar</v>
       </c>
       <c r="D75" t="str">
-        <v>selfie for teachers</v>
+        <v>educacao basica</v>
       </c>
       <c r="E75" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F75" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>avaliacao de uma unidade curricular no ensino remoto emergencial (ere): o olhar discente do curso de pedagogia</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B76" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>recurso tecnologico</v>
       </c>
       <c r="C76" t="str">
-        <v>avaliacao</v>
+        <v>formacao continuada</v>
       </c>
       <c r="D76" t="str">
-        <v>curso de pedagogia</v>
+        <v/>
       </c>
       <c r="E76" t="str">
-        <v/>
-      </c>
-      <c r="F76" t="str">
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>avaliacao do programa de estagio em pedagogia na escola nacional de saude publica</v>
+        <v>apreizagem da docencia</v>
       </c>
       <c r="B77" t="str">
-        <v>avaliacao de estagio</v>
+        <v>professor iniciante</v>
       </c>
       <c r="C77" t="str">
-        <v>processo pedagogico</v>
+        <v>mentoria</v>
       </c>
       <c r="D77" t="str">
-        <v>tecnologias educacionais</v>
+        <v/>
       </c>
       <c r="E77" t="str">
-        <v/>
-      </c>
-      <c r="F77" t="str">
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>bitmoji em praticas de ensino: reflexoes criticas para o uso das tdics na educacao basica</v>
+        <v>revisao de literatura</v>
       </c>
       <c r="B78" t="str">
-        <v>bitmoji</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C78" t="str">
-        <v>ferramentas digitais</v>
+        <v>formacao de professor</v>
       </c>
       <c r="D78" t="str">
-        <v>praticas de ensino</v>
+        <v/>
       </c>
       <c r="E78" t="str">
-        <v/>
-      </c>
-      <c r="F78" t="str">
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>como avaliar em tempos de epidemia? o estudo de caso de sucesso do projeto integrador do curso de empreeedorismo e inovacao nas engenharias da primeira versao do curso - 2020-2021</v>
+        <v>cultura digital</v>
       </c>
       <c r="B79" t="str">
-        <v>processo avaliativo</v>
+        <v>educacao</v>
       </c>
       <c r="C79" t="str">
-        <v>engenharia</v>
+        <v>paemia</v>
       </c>
       <c r="D79" t="str">
-        <v xml:space="preserve"> projeto integrador</v>
+        <v>fazer pedagogico</v>
       </c>
       <c r="E79" t="str">
-        <v xml:space="preserve"> paemia</v>
-      </c>
-      <c r="F79" t="str">
-        <v/>
+        <v>educacao profissional</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>como docentes da rede publica municipal, estadual e federal utilizaram a sala de aula do google meet no ensino remoto?</v>
+        <v>comunicacao</v>
       </c>
       <c r="B80" t="str">
-        <v>google meet</v>
+        <v>cultura digital</v>
       </c>
       <c r="C80" t="str">
-        <v>relato de experiencia</v>
+        <v>educacao</v>
       </c>
       <c r="D80" t="str">
-        <v>paemia</v>
+        <v>tecnologia</v>
       </c>
       <c r="E80" t="str">
-        <v>ensino remoto</v>
-      </c>
-      <c r="F80" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>contratempo paemico e a participacao dos alunos no ensino remoto: a percepcao docente acerca da tematica</v>
+        <v>processos educativos hibridos</v>
       </c>
       <c r="B81" t="str">
-        <v>tdic</v>
+        <v>formacao docente</v>
       </c>
       <c r="C81" t="str">
-        <v>ensino remoto</v>
+        <v>avaliacao</v>
       </c>
       <c r="D81" t="str">
-        <v>frequencia escolar</v>
+        <v/>
       </c>
       <c r="E81" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F81" t="str">
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>compartilhamento de saberes e experiencias durante curso para o uso de recursos tecnologicos na educacao</v>
+        <v>discentesdocentes</v>
       </c>
       <c r="B82" t="str">
-        <v>tecnologia educacional</v>
+        <v>cibercultura</v>
       </c>
       <c r="C82" t="str">
-        <v>recurso tecnologico</v>
+        <v>paemia</v>
       </c>
       <c r="D82" t="str">
-        <v>formacao continuada</v>
+        <v>periferia</v>
       </c>
       <c r="E82" t="str">
-        <v/>
-      </c>
-      <c r="F82" t="str">
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>contribuicoes do programa hibrido de mentoria (phm) para a apreizagem da docencia de professoras iniciantes</v>
+        <v>pedagogia das competencias</v>
       </c>
       <c r="B83" t="str">
-        <v>apreizagem da docencia</v>
+        <v>formacao docente</v>
       </c>
       <c r="C83" t="str">
-        <v>professor iniciante</v>
+        <v>semiformacao</v>
       </c>
       <c r="D83" t="str">
-        <v>mentoria</v>
+        <v>racionalidade tecnologica instrumental</v>
       </c>
       <c r="E83" t="str">
-        <v/>
-      </c>
-      <c r="F83" t="str">
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>contribuicoes e desafios sobre as tecnologias educacionais da informacao e comunicacao (tdic) e a formacao docente: revisao de literatura</v>
+        <v>educacao</v>
       </c>
       <c r="B84" t="str">
-        <v xml:space="preserve"> revisao de literatura</v>
+        <v>docente</v>
       </c>
       <c r="C84" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologia</v>
       </c>
       <c r="D84" t="str">
-        <v>formacao de professor</v>
+        <v/>
       </c>
       <c r="E84" t="str">
-        <v/>
-      </c>
-      <c r="F84" t="str">
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>cultura digital, paemia e educacao: implicacoes para o fazer pedagogico na educacao profissional</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B85" t="str">
-        <v>cultura digital</v>
+        <v>atividades remotas</v>
       </c>
       <c r="C85" t="str">
-        <v>educacao</v>
+        <v>formacao academica</v>
       </c>
       <c r="D85" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E85" t="str">
-        <v>fazer pedagogico</v>
-      </c>
-      <c r="F85" t="str">
-        <v>educacao profissional</v>
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>cultura digital: resignificao metodologias de ensino</v>
+        <v>tecnologia de comunicacao</v>
       </c>
       <c r="B86" t="str">
-        <v>comunicacao</v>
+        <v>perguntas</v>
       </c>
       <c r="C86" t="str">
-        <v>cultura digital</v>
+        <v>apreizagem</v>
       </c>
       <c r="D86" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E86" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="F86" t="str">
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>da apreizagem ao processo: para uma reflexao critica sobre processos educativos hibridos no contexto da ensp/fiocruz</v>
+        <v>atividade colaborativa</v>
       </c>
       <c r="B87" t="str">
-        <v xml:space="preserve"> processos educativos hibridos</v>
+        <v>design de colaboracao</v>
       </c>
       <c r="C87" t="str">
-        <v xml:space="preserve"> formacao docente</v>
+        <v>abordagens do design</v>
       </c>
       <c r="D87" t="str">
-        <v>avaliacao</v>
+        <v>modelo addie</v>
       </c>
       <c r="E87" t="str">
-        <v/>
-      </c>
-      <c r="F87" t="str">
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>de docente a discente na cibercultura: experiencias de aprovacoes no mestrado em meio a paemia de covid-19</v>
+        <v>reescrita</v>
       </c>
       <c r="B88" t="str">
-        <v>discentesdocentes</v>
+        <v>docencia</v>
       </c>
       <c r="C88" t="str">
-        <v>cibercultura</v>
+        <v>anos finais do ensino fuamental</v>
       </c>
       <c r="D88" t="str">
-        <v>paemia</v>
+        <v>dissertativo argumentativo</v>
       </c>
       <c r="E88" t="str">
-        <v>periferia</v>
-      </c>
-      <c r="F88" t="str">
-        <v/>
+        <v>enem</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>(de)formacao por competencias: tensionamentos para uma (trans)formacao emancipatoria</v>
+        <v>jogo da onca</v>
       </c>
       <c r="B89" t="str">
-        <v>pedagogia das competencias</v>
+        <v>lei 11645</v>
       </c>
       <c r="C89" t="str">
-        <v>formacao docente</v>
+        <v>cultura iigena</v>
       </c>
       <c r="D89" t="str">
-        <v>semiformacao</v>
+        <v/>
       </c>
       <c r="E89" t="str">
-        <v>racionalidade tecnologica instrumental</v>
-      </c>
-      <c r="F89" t="str">
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>desafios na paemia: o uso de tecnologia de informacao e comunicacao na pratica docente</v>
+        <v>educacao 40 design educacional</v>
       </c>
       <c r="B90" t="str">
-        <v>educacao</v>
+        <v>modelo addie</v>
       </c>
       <c r="C90" t="str">
-        <v>docente</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="D90" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E90" t="str">
-        <v/>
-      </c>
-      <c r="F90" t="str">
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>desafios para a realizacao do estagio supervisionado no curso de ciencias biologicas do centro de ensino e apreizagem em rede da universidade estadual de goias frente a pandemia da covid-19</v>
+        <v>covid19</v>
       </c>
       <c r="B91" t="str">
-        <v>estagio supervisionado</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C91" t="str">
-        <v>atividades remotas</v>
+        <v>professores</v>
       </c>
       <c r="D91" t="str">
-        <v>formacao academica</v>
+        <v>experiencias</v>
       </c>
       <c r="E91" t="str">
-        <v/>
-      </c>
-      <c r="F91" t="str">
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>desafios, percepcoes e vivencias de uma docente na paemia: whatsapp como recurso tecnologico na graduacao</v>
+        <v>curriculo</v>
       </c>
       <c r="B92" t="str">
-        <v>tecnologia de comunicacao</v>
+        <v>design curricular</v>
       </c>
       <c r="C92" t="str">
-        <v>perguntas</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D92" t="str">
-        <v>apreizagem</v>
+        <v>bleedlearning</v>
       </c>
       <c r="E92" t="str">
-        <v/>
-      </c>
-      <c r="F92" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>design de colaboracao: como ampliar experiencia de atividades colaborativas em ambientes virtuais de apreizagem</v>
+        <v>capacitacao de professores</v>
       </c>
       <c r="B93" t="str">
-        <v>atividade colaborativa.</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C93" t="str">
-        <v>design de colaboracao</v>
+        <v>etsus</v>
       </c>
       <c r="D93" t="str">
-        <v>abordagens do design</v>
+        <v/>
       </c>
       <c r="E93" t="str">
-        <v>modelo addie</v>
-      </c>
-      <c r="F93" t="str">
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>dificuldades de apreizagem reveladas em textos e o enfrentamento docente diante dessas dificuldades</v>
+        <v>cultura escolarizante</v>
       </c>
       <c r="B94" t="str">
-        <v>reescrita</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C94" t="str">
-        <v>docencia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D94" t="str">
-        <v>anos finais do ensino fuamental</v>
+        <v/>
       </c>
       <c r="E94" t="str">
-        <v xml:space="preserve"> dissertativo- argumentativo</v>
-      </c>
-      <c r="F94" t="str">
-        <v>enem</v>
+        <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>diversao e diversidade com o aplicativo “jogo da onca”</v>
+        <v>ensino superior</v>
       </c>
       <c r="B95" t="str">
-        <v>jogo da onca</v>
+        <v>odontologia</v>
       </c>
       <c r="C95" t="str">
-        <v>lei 11.645</v>
+        <v>paemia</v>
       </c>
       <c r="D95" t="str">
-        <v>cultura iigena</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E95" t="str">
-        <v/>
-      </c>
-      <c r="F95" t="str">
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>docencia em tempos de educacao digital: o que podemos apreer com o designer educacional?</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B96" t="str">
-        <v>educacao 4.0. design educacional</v>
+        <v>tdic</v>
       </c>
       <c r="C96" t="str">
-        <v>modelo addie</v>
+        <v>aulas sincronas</v>
       </c>
       <c r="D96" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>ensino superior</v>
       </c>
       <c r="E96" t="str">
-        <v/>
-      </c>
-      <c r="F96" t="str">
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>docentes paraguayos ante los desafios de la ensenanza remota durante la paemia del covid-19</v>
+        <v>ensino para a criatividade</v>
       </c>
       <c r="B97" t="str">
-        <v>covid-19</v>
+        <v>internacionalidade</v>
       </c>
       <c r="C97" t="str">
-        <v>educacao a distancia</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D97" t="str">
-        <v>professores</v>
+        <v>pensamento criativo</v>
       </c>
       <c r="E97" t="str">
-        <v>experiencias</v>
-      </c>
-      <c r="F97" t="str">
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>educacao a distancia e bleed-learning: possibilidades e desafios na construcao de designs curriculares no contexto da cultura digital</v>
+        <v>reflexao</v>
       </c>
       <c r="B98" t="str">
-        <v>curriculo</v>
+        <v>epistemologia</v>
       </c>
       <c r="C98" t="str">
-        <v>design curricular</v>
+        <v>pratica docente</v>
       </c>
       <c r="D98" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E98" t="str">
-        <v>bleed-learning</v>
-      </c>
-      <c r="F98" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>educacao a distancia nas etsus: um olhar sobre a capacitacao pedagogica dos professores/tutores</v>
+        <v>ensino superior</v>
       </c>
       <c r="B99" t="str">
-        <v>capacitacao de professores</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C99" t="str">
-        <v xml:space="preserve">educacao a distancia; </v>
+        <v>formacao inicial</v>
       </c>
       <c r="D99" t="str">
-        <v>etsus</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E99" t="str">
-        <v/>
-      </c>
-      <c r="F99" t="str">
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>educacao e tecnologia: e o fator humano?</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B100" t="str">
-        <v>cultura escolarizante</v>
+        <v>covid19</v>
       </c>
       <c r="C100" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino online emergencial</v>
       </c>
       <c r="D100" t="str">
-        <v>metodologias ativas</v>
+        <v/>
       </c>
       <c r="E100" t="str">
-        <v/>
-      </c>
-      <c r="F100" t="str">
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>efeitos da paemia no ensino de odontologia: praticas pedagogicas mediadas por tecnologias digitais como forma de superacao dos desafios.</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B101" t="str">
+        <v>ferramentas digitais</v>
+      </c>
+      <c r="C101" t="str">
         <v>ensino superior</v>
       </c>
-      <c r="C101" t="str">
-        <v>odontologia</v>
-      </c>
       <c r="D101" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E101" t="str">
-        <v>educacao hibrida</v>
-      </c>
-      <c r="F101" t="str">
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>ensino hibrido e os desafios das aulas sincronas</v>
+        <v>museus virtuais</v>
       </c>
       <c r="B102" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C102" t="str">
-        <v>tdic</v>
+        <v>ensino de historia</v>
       </c>
       <c r="D102" t="str">
-        <v>aulas sincronas</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="E102" t="str">
-        <v>ensino superior</v>
-      </c>
-      <c r="F102" t="str">
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>ensino para a criatividade como pratica pedagogica no ambiente escolar.</v>
+        <v>ensino nao presencia</v>
       </c>
       <c r="B103" t="str">
-        <v>ensino para a criatividade</v>
+        <v>cursinho popular</v>
       </c>
       <c r="C103" t="str">
-        <v>internacionalidade</v>
+        <v>acesso ao ensino superior</v>
       </c>
       <c r="D103" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
       <c r="E103" t="str">
-        <v>pensamento criativo</v>
-      </c>
-      <c r="F103" t="str">
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>epistemologia reflexiva da pratica docente em tempos de ineditismo possivel</v>
+        <v>tpack</v>
       </c>
       <c r="B104" t="str">
-        <v>reflexao</v>
+        <v>docencia virtual</v>
       </c>
       <c r="C104" t="str">
-        <v>epistemologia</v>
+        <v>tdic</v>
       </c>
       <c r="D104" t="str">
-        <v>pratica docente</v>
+        <v>profissionalizacao docente</v>
       </c>
       <c r="E104" t="str">
-        <v/>
-      </c>
-      <c r="F104" t="str">
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>estagio de docencia em tempos de paemia – um relato de experiencia</v>
+        <v>design thinking</v>
       </c>
       <c r="B105" t="str">
-        <v>ensino superior</v>
+        <v>teacher training</v>
       </c>
       <c r="C105" t="str">
-        <v>ensino remoto</v>
+        <v>digital technologies</v>
       </c>
       <c r="D105" t="str">
-        <v>formacao inicial</v>
+        <v/>
       </c>
       <c r="E105" t="str">
-        <v>tecnologias digitais</v>
-      </c>
-      <c r="F105" t="str">
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>estagio supervisionado de cursos de licenciaturas no formato de ensino online emergencial no contexto da covid-19</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B106" t="str">
-        <v>estagio supervisionado</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="C106" t="str">
-        <v>covid-19</v>
+        <v>competencias digitais</v>
       </c>
       <c r="D106" t="str">
-        <v>ensino online emergencial</v>
+        <v/>
       </c>
       <c r="E106" t="str">
-        <v/>
-      </c>
-      <c r="F106" t="str">
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>estrategia para formacao continuada de professores que contribue para incorporacao de tecnologias de informacao e comunicacao na pratica pedagogica</v>
+        <v>figura</v>
       </c>
       <c r="B107" t="str">
-        <v>formacao continuada</v>
+        <v>figuras geometricas</v>
       </c>
       <c r="C107" t="str">
-        <v>ferramentas digitais</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
       <c r="D107" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E107" t="str">
-        <v/>
-      </c>
-      <c r="F107" t="str">
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>experiencia de estagio supervisionado em museus virtuais</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B108" t="str">
-        <v>museus virtuais</v>
+        <v>educacao ambiental</v>
       </c>
       <c r="C108" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao basica</v>
       </c>
       <c r="D108" t="str">
-        <v>ensino de historia</v>
+        <v>revisao sistematica</v>
       </c>
       <c r="E108" t="str">
-        <v>estagio supervisionado</v>
-      </c>
-      <c r="F108" t="str">
-        <v/>
+        <v>metodologias de ensino</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>experiencia formativa de ensino nao presencial no ambito do programa de apoio pre-universitario</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B109" t="str">
-        <v>ensino nao presencia</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C109" t="str">
-        <v>cursinho popular</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D109" t="str">
-        <v>acesso ao ensino superior</v>
+        <v>paemia</v>
       </c>
       <c r="E109" t="str">
-        <v/>
-      </c>
-      <c r="F109" t="str">
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>experiencias formativas e acoes realizadas durante o ensino remoto para promover a contrucao de conhecimentos tecnologicos e pedagogicos do conteudo</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B110" t="str">
-        <v>tpack</v>
+        <v>tdic</v>
       </c>
       <c r="C110" t="str">
-        <v xml:space="preserve"> docencia virtual</v>
+        <v>quimica</v>
       </c>
       <c r="D110" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
       <c r="E110" t="str">
-        <v>profissionalizacao docente</v>
-      </c>
-      <c r="F110" t="str">
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>design thinking e formacao de professores no uso das tecnologias digitais</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B111" t="str">
-        <v>design thinking</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C111" t="str">
-        <v>teacher training</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D111" t="str">
-        <v>digital technologies</v>
+        <v>pospaemia</v>
       </c>
       <c r="E111" t="str">
-        <v/>
-      </c>
-      <c r="F111" t="str">
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>ferramenta de avaliacao por rubrica no google classroom: desenvolveo competencias digitais por meio de uma oficina pedagogica para licenciandos em quimica</v>
+        <v>inovacao</v>
       </c>
       <c r="B112" t="str">
-        <v>avaliacao formativa</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C112" t="str">
-        <v>tecnologias educacionais</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D112" t="str">
-        <v>competencias digitais</v>
+        <v/>
       </c>
       <c r="E112" t="str">
-        <v/>
-      </c>
-      <c r="F112" t="str">
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>figuras, figuras geometricas planas e espaciais: uma investigacao acerca das concepcoes de futuros professores e professores que ensinam matematica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B113" t="str">
-        <v>figura</v>
+        <v>tpack</v>
       </c>
       <c r="C113" t="str">
-        <v>figuras geometricas</v>
+        <v>tdic</v>
       </c>
       <c r="D113" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>professor reflexivo</v>
       </c>
       <c r="E113" t="str">
-        <v/>
-      </c>
-      <c r="F113" t="str">
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>formacao continuada de professores em educacao ambiental: caminhos pedagogicos das atividades formativas online</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B114" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C114" t="str">
-        <v xml:space="preserve"> educacao ambiental</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D114" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E114" t="str">
-        <v>revisao sistematica</v>
-      </c>
-      <c r="F114" t="str">
-        <v xml:space="preserve"> metodologias de ensino</v>
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>formacao continuada de professores na educacao infantil: possibilidades e fragilidades em contexto de formacao remota</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="B115" t="str">
-        <v>educacao infantil</v>
+        <v>tecnologias da informacao e da comunicacao</v>
       </c>
       <c r="C115" t="str">
-        <v>formacao continuada</v>
+        <v>cursos  de licenciaturas</v>
       </c>
       <c r="D115" t="str">
-        <v>ensino remoto</v>
+        <v>percepcao discente</v>
       </c>
       <c r="E115" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="F115" t="str">
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>formacao de professores de quimica em tecnologias digitais da informacao e da comunicacao (tdic): desafios da contemporaneidade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B116" t="str">
-        <v>formacao de professores</v>
+        <v>pedagogia</v>
       </c>
       <c r="C116" t="str">
-        <v>tdic</v>
+        <v>juri simulado</v>
       </c>
       <c r="D116" t="str">
-        <v>quimica</v>
+        <v/>
       </c>
       <c r="E116" t="str">
-        <v/>
-      </c>
-      <c r="F116" t="str">
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>formacao de professores e tecnologias: uma revisao de literatura</v>
+        <v>digital literacy</v>
       </c>
       <c r="B117" t="str">
-        <v>formacao de professores</v>
+        <v>remote teaching</v>
       </c>
       <c r="C117" t="str">
-        <v>tecnologias digitais</v>
+        <v>dict</v>
       </c>
       <c r="D117" t="str">
-        <v>curso de pedagogia</v>
+        <v/>
       </c>
       <c r="E117" t="str">
-        <v>pos-paemia</v>
-      </c>
-      <c r="F117" t="str">
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>formacao de professores para a inovacao em educacao: dimensoes alem de aplicativos e dispositivos</v>
+        <v>formacao docente</v>
       </c>
       <c r="B118" t="str">
-        <v>inovacao</v>
+        <v>pratica docente</v>
       </c>
       <c r="C118" t="str">
-        <v xml:space="preserve"> tecnologias digitais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D118" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
       <c r="E118" t="str">
-        <v/>
-      </c>
-      <c r="F118" t="str">
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>formacao docente em tecnologias digitais de informacao e comunicacao: estudo de caso na educacao publica de barueri no contexto da paemia da covid-19</v>
+        <v>estilos de apreizagem</v>
       </c>
       <c r="B119" t="str">
-        <v>formacao de professores</v>
+        <v>modelo de kolb</v>
       </c>
       <c r="C119" t="str">
-        <v>tpack</v>
+        <v>aplicacao web</v>
       </c>
       <c r="D119" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
       <c r="E119" t="str">
-        <v xml:space="preserve"> professor reflexivo</v>
-      </c>
-      <c r="F119" t="str">
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>implantacao do ensino remoto emergencial: implicacoes para a educacao infantil.</v>
+        <v>tdics</v>
       </c>
       <c r="B120" t="str">
-        <v xml:space="preserve"> educacao infantil</v>
+        <v>formacao docente</v>
       </c>
       <c r="C120" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>praticapedagogicahibrida</v>
       </c>
       <c r="D120" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
       <c r="E120" t="str">
-        <v/>
-      </c>
-      <c r="F120" t="str">
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>inovacao e a integracao de tecnologias digitais na formacao docente inicial</v>
+        <v>engajamento</v>
       </c>
       <c r="B121" t="str">
-        <v>inovacao educacional</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C121" t="str">
-        <v xml:space="preserve"> tecnologias da informacao e da comunicacao.</v>
+        <v>formacao docente</v>
       </c>
       <c r="D121" t="str">
-        <v>cursos  de licenciaturas</v>
+        <v>mediacao docente diferenciada</v>
       </c>
       <c r="E121" t="str">
-        <v>percepcao discente</v>
-      </c>
-      <c r="F121" t="str">
-        <v/>
+        <v>apreizagem virtual</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>juri simulado na educacao a distancia: relato de experiencia no curso de pedagogia</v>
+        <v>metodologias ativas e criativas</v>
       </c>
       <c r="B122" t="str">
         <v>educacao a distancia</v>
       </c>
       <c r="C122" t="str">
-        <v>pedagogia</v>
+        <v>formacao pedagogica</v>
       </c>
       <c r="D122" t="str">
-        <v>juri simulado</v>
+        <v/>
       </c>
       <c r="E122" t="str">
-        <v/>
-      </c>
-      <c r="F122" t="str">
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>letramento digital no curso de pedagogia: extrato durante o estagio supervisionado remoto</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B123" t="str">
-        <v>digital literacy.</v>
+        <v>ensino superior</v>
       </c>
       <c r="C123" t="str">
-        <v>remote teaching</v>
+        <v>nsino remoto</v>
       </c>
       <c r="D123" t="str">
-        <v>dict</v>
+        <v>covid19</v>
       </c>
       <c r="E123" t="str">
-        <v/>
-      </c>
-      <c r="F123" t="str">
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>licenciaturas a distancia e pratica docente – o que nos dizem os professores?</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B124" t="str">
-        <v xml:space="preserve"> formacao docente</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C124" t="str">
-        <v>pratica docente</v>
+        <v>multiletramentos</v>
       </c>
       <c r="D124" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E124" t="str">
-        <v/>
-      </c>
-      <c r="F124" t="str">
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>l-style: uma ferramenta para identificar estilos de apreizagem no ensino superior</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="B125" t="str">
-        <v>estilos de apreizagem</v>
+        <v>sistema de recomeacao</v>
       </c>
       <c r="C125" t="str">
-        <v>modelo de kolb</v>
+        <v>producao textua</v>
       </c>
       <c r="D125" t="str">
-        <v>aplicacao web</v>
+        <v/>
       </c>
       <c r="E125" t="str">
-        <v/>
-      </c>
-      <c r="F125" t="str">
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>luz, camera, acao: tecnologias digitais no cotidiano do estudante</v>
+        <v>idosos</v>
       </c>
       <c r="B126" t="str">
-        <v>tdics</v>
+        <v>ensino coletivo de violao</v>
       </c>
       <c r="C126" t="str">
-        <v>formacao docente</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="D126" t="str">
-        <v>praticapedagogicahibrida</v>
+        <v/>
       </c>
       <c r="E126" t="str">
-        <v/>
-      </c>
-      <c r="F126" t="str">
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>mediacao docente diferenciada em ambiente virtual: em busca do engajamento perdido</v>
+        <v>narrativas digitais</v>
       </c>
       <c r="B127" t="str">
-        <v>engajamento</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C127" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D127" t="str">
         <v>formacao docente</v>
       </c>
       <c r="E127" t="str">
-        <v xml:space="preserve"> mediacao docente diferenciada</v>
-      </c>
-      <c r="F127" t="str">
-        <v>apreizagem virtual</v>
+        <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>metodologias ativas e criativas para aulas sincronas na ead: relato de experiencia de uma formacao pedagogica</v>
+        <v>competencia digital</v>
       </c>
       <c r="B128" t="str">
-        <v>metodologias ativas e criativas</v>
+        <v>tdic</v>
       </c>
       <c r="C128" t="str">
-        <v>educacao a distancia</v>
+        <v>digicompedu</v>
       </c>
       <c r="D128" t="str">
-        <v>formacao pedagogica</v>
+        <v>ensino superior tecnologico</v>
       </c>
       <c r="E128" t="str">
-        <v/>
-      </c>
-      <c r="F128" t="str">
         <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>metodos ativos para o ensino de estatistica durante a paemia covid-19: o diario semana de aprendizagem</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B129" t="str">
-        <v>metodologias ativas</v>
+        <v>covid19</v>
       </c>
       <c r="C129" t="str">
-        <v>ensino superior</v>
+        <v>professores de ciencias</v>
       </c>
       <c r="D129" t="str">
-        <v>nsino remoto,</v>
+        <v>adaptacao</v>
       </c>
       <c r="E129" t="str">
-        <v>covid-19</v>
-      </c>
-      <c r="F129" t="str">
         <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>modelo digital de formacao docente: promoveo praticas de multiletramentos e tecnologias digitais</v>
+        <v>pratica da leitura</v>
       </c>
       <c r="B130" t="str">
-        <v>formacao continuada</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C130" t="str">
-        <v>tecnologias digitais</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="D130" t="str">
-        <v>multiletramentos</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="E130" t="str">
-        <v/>
-      </c>
-      <c r="F130" t="str">
-        <v/>
+        <v>transposicao didatica</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>modelos pedagogicos baseados na recomeacao de conteudo para apoio a producao textual no ensino superior</v>
+        <v>atividade docente</v>
       </c>
       <c r="B131" t="str">
-        <v>modelo pedagogico</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C131" t="str">
-        <v>sistema de recomeacao</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="D131" t="str">
-        <v>producao textua</v>
+        <v>dramaticas de uso de si</v>
       </c>
       <c r="E131" t="str">
-        <v/>
-      </c>
-      <c r="F131" t="str">
         <v/>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>motivacao e autoeficacia no ensino online de violao para idosos</v>
+        <v>ensino de instrumentos de teclado</v>
       </c>
       <c r="B132" t="str">
-        <v>idosos</v>
+        <v>licenciatura em musica</v>
       </c>
       <c r="C132" t="str">
-        <v>ensino coletivo de violao</v>
+        <v>ensino nao presencial emergencial enpe</v>
       </c>
       <c r="D132" t="str">
-        <v>tecnologia digital</v>
+        <v>ambiente virtual de apreizagem ava</v>
       </c>
       <c r="E132" t="str">
-        <v/>
-      </c>
-      <c r="F132" t="str">
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>narrativas digitais como possibilidade de construcao de saberes na educacao a distancia: a nova arte de contar historias</v>
+        <v>paemia</v>
       </c>
       <c r="B133" t="str">
-        <v>narrativas digitais</v>
+        <v>estagio nao presencia</v>
       </c>
       <c r="C133" t="str">
-        <v>tecnologias digitais,</v>
+        <v>atuacao docente</v>
       </c>
       <c r="D133" t="str">
-        <v>educacao a distancia</v>
+        <v>experiencias formativas</v>
       </c>
       <c r="E133" t="str">
-        <v>formacao docente</v>
-      </c>
-      <c r="F133" t="str">
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>nivel de proficiencia digital docente a partir do quadro europeu de competencia digital para educadores</v>
+        <v>ensino</v>
       </c>
       <c r="B134" t="str">
-        <v>competencia digital.</v>
+        <v>objetos de apreizagem</v>
       </c>
       <c r="C134" t="str">
-        <v>tdic</v>
+        <v>professores</v>
       </c>
       <c r="D134" t="str">
-        <v>digicompedu</v>
+        <v/>
       </c>
       <c r="E134" t="str">
-        <v xml:space="preserve"> ensino superior tecnologico</v>
-      </c>
-      <c r="F134" t="str">
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>o ensino de fisica durante as aulas remotas</v>
+        <v>formacao docente</v>
       </c>
       <c r="B135" t="str">
+        <v>ensino musical escolar</v>
+      </c>
+      <c r="C135" t="str">
         <v>ensino remoto</v>
       </c>
-      <c r="C135" t="str">
-        <v>covid-19</v>
-      </c>
       <c r="D135" t="str">
-        <v>professores de ciencias</v>
+        <v>paemia de covid19</v>
       </c>
       <c r="E135" t="str">
-        <v>adaptacao</v>
-      </c>
-      <c r="F135" t="str">
         <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>o ensino hibrido como metodologia ativa para o reforco do ensino da leitura na educacao basica - fuamental ii e ensino medio</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B136" t="str">
-        <v>pratica da leitura</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C136" t="str">
-        <v xml:space="preserve"> ensino hibrido</v>
+        <v>uso das tdic</v>
       </c>
       <c r="D136" t="str">
-        <v xml:space="preserve"> metodologia ativa</v>
+        <v/>
       </c>
       <c r="E136" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
-      </c>
-      <c r="F136" t="str">
-        <v>transposicao didatica</v>
+        <v/>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>o ensino remoto emergencial dramaticas de uso de si do professor</v>
+        <v>tecnologia</v>
       </c>
       <c r="B137" t="str">
-        <v>atividade docente</v>
+        <v>pratica docente</v>
       </c>
       <c r="C137" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>nativos digitais</v>
       </c>
       <c r="D137" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v/>
       </c>
       <c r="E137" t="str">
-        <v>dramaticas de uso de si</v>
-      </c>
-      <c r="F137" t="str">
         <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>oferta de disciplinas de teclado na licenciatura em musica da ufscar durante a paemia de covid-19</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B138" t="str">
-        <v>ensino de instrumentos de teclado</v>
+        <v>normativas</v>
       </c>
       <c r="C138" t="str">
-        <v>licenciatura em musica</v>
+        <v>covid19</v>
       </c>
       <c r="D138" t="str">
-        <v>ensino nao presencial emergencial (enpe</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="E138" t="str">
-        <v>; ambiente virtual de apreizagem (ava)</v>
-      </c>
-      <c r="F138" t="str">
         <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>o estagio supervisonado no curso de pedagogia: desafios e possibilidades em contexto de paemia</v>
+        <v>tecnologia</v>
       </c>
       <c r="B139" t="str">
-        <v>paemia</v>
+        <v>educacao</v>
       </c>
       <c r="C139" t="str">
-        <v>estagio nao presencia</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D139" t="str">
-        <v xml:space="preserve"> atuacao docente</v>
+        <v/>
       </c>
       <c r="E139" t="str">
-        <v>experiencias formativas</v>
-      </c>
-      <c r="F139" t="str">
         <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>oficina para professores de criacao de objetos de apreizagem – relato de experiencia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B140" t="str">
-        <v>ensino</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C140" t="str">
-        <v>objetos de apreizagem</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="D140" t="str">
-        <v>professores</v>
+        <v/>
       </c>
       <c r="E140" t="str">
-        <v/>
-      </c>
-      <c r="F140" t="str">
         <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>oficinas “brincadeiras musicais”: a formacao docente em musica nos tempos de paemia</v>
+        <v>desenho didatico</v>
       </c>
       <c r="B141" t="str">
-        <v>formacao docente</v>
+        <v>iagacao online</v>
       </c>
       <c r="C141" t="str">
-        <v>ensino musical escolar</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D141" t="str">
-        <v>ensino remoto</v>
+        <v>pesquisaformacao</v>
       </c>
       <c r="E141" t="str">
-        <v>paemia de covid-19</v>
-      </c>
-      <c r="F141" t="str">
         <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>o percurso formativo dos professores da rede municipal de balsas para implantacao do ensino hibrido na educacao basica</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="B142" t="str">
-        <v xml:space="preserve"> educacao hibrida</v>
+        <v>professores</v>
       </c>
       <c r="C142" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologia</v>
       </c>
       <c r="D142" t="str">
-        <v>uso das tdic</v>
+        <v/>
       </c>
       <c r="E142" t="str">
-        <v/>
-      </c>
-      <c r="F142" t="str">
         <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>o uso de tecnologias por professores: estudo de caso em uma escola</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B143" t="str">
-        <v>tecnologia</v>
+        <v>planejamento</v>
       </c>
       <c r="C143" t="str">
-        <v xml:space="preserve"> pratica docente</v>
+        <v>pratica docente</v>
       </c>
       <c r="D143" t="str">
-        <v>nativos digitais</v>
+        <v/>
       </c>
       <c r="E143" t="str">
-        <v/>
-      </c>
-      <c r="F143" t="str">
         <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>os desafios da educacao infantil diante da paemia de covid-19 e do ensino remoto/hibrido</v>
+        <v>inovacao pedagogica</v>
       </c>
       <c r="B144" t="str">
-        <v>educacao infantil</v>
+        <v>plataformizacao</v>
       </c>
       <c r="C144" t="str">
-        <v>normativas</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D144" t="str">
-        <v>covid-19</v>
+        <v>paemia covid19</v>
       </c>
       <c r="E144" t="str">
-        <v xml:space="preserve"> ensino hibrido</v>
-      </c>
-      <c r="F144" t="str">
         <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>o trabalho docente mediado pelas tecnologias digitais na formacao inicial de professores: uma visao critica</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B145" t="str">
-        <v>tecnologia</v>
+        <v>fluencia tecnologicopedagogica</v>
       </c>
       <c r="C145" t="str">
-        <v>educacao</v>
+        <v>covid19</v>
       </c>
       <c r="D145" t="str">
-        <v>trabalho docente</v>
+        <v/>
       </c>
       <c r="E145" t="str">
-        <v/>
-      </c>
-      <c r="F145" t="str">
         <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>pensamento computacional na formacao de professores de ciencias do ensino fuamental</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B146" t="str">
-        <v>formacao de professores</v>
+        <v>presencas na ead</v>
       </c>
       <c r="C146" t="str">
-        <v>ensino de ciencias</v>
+        <v>portfolios de apreizagens</v>
       </c>
       <c r="D146" t="str">
-        <v xml:space="preserve"> pensamento computacional</v>
+        <v/>
       </c>
       <c r="E146" t="str">
-        <v/>
-      </c>
-      <c r="F146" t="str">
         <v/>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>pensao uma comunidade de dialogo, pratica e teorizacao acerca da experimentacao em ciencias com o auxilio dos rea, a partir dos diagramas rda</v>
+        <v>tdic</v>
       </c>
       <c r="B147" t="str">
-        <v>desenho didatico</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C147" t="str">
-        <v>iagacao online</v>
+        <v>argumentacao</v>
       </c>
       <c r="D147" t="str">
-        <v>praticas pedagogicas</v>
+        <v>interacoes discursivas</v>
       </c>
       <c r="E147" t="str">
-        <v>pesquisa-formacao</v>
-      </c>
-      <c r="F147" t="str">
         <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>percepcoes de professores do ensino fuamental sobre o uso das tecnologias de comunicacao e informacao (tics) durante a pandemia do coronavirus</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B148" t="str">
-        <v>ensino/apreizagem</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="C148" t="str">
-        <v>professores</v>
+        <v>conhecimentos pedagogicos e tecnologicos</v>
       </c>
       <c r="D148" t="str">
-        <v>tecnologia</v>
+        <v>uefined</v>
       </c>
       <c r="E148" t="str">
-        <v/>
-      </c>
-      <c r="F148" t="str">
         <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>(per)curso de formacao docente para atuar na ead</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B149" t="str">
-        <v>formacao de professores</v>
+        <v>programa residencia pedagogica</v>
       </c>
       <c r="C149" t="str">
-        <v>planejamento</v>
+        <v>tecnologias digitais de ensino</v>
       </c>
       <c r="D149" t="str">
-        <v>pratica docente</v>
+        <v/>
       </c>
       <c r="E149" t="str">
-        <v/>
-      </c>
-      <c r="F149" t="str">
         <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>plataformizacao docente: uma investigacao sobre o trabalho docente mediado pelas tecnologias na paemia covid-19</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B150" t="str">
-        <v xml:space="preserve"> inovacao pedagogica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C150" t="str">
-        <v>plataformizacao</v>
+        <v>educacao basica</v>
       </c>
       <c r="D150" t="str">
-        <v>trabalho docente</v>
+        <v/>
       </c>
       <c r="E150" t="str">
-        <v>paemia covid-19</v>
-      </c>
-      <c r="F150" t="str">
         <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>politicas publicas, cursos emergenciais de capacitacao e desenvolvimento de fluencia tecnologico-pedagogica (ftp): o caso de cachoeira do sul/rs</v>
+        <v>trabalho docente</v>
       </c>
       <c r="B151" t="str">
-        <v xml:space="preserve"> formacao continuada de professores</v>
+        <v>tecnologia</v>
       </c>
       <c r="C151" t="str">
-        <v>fluencia tecnologico-pedagogica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D151" t="str">
-        <v>covid-19</v>
+        <v>precarizacao do trabalho docente</v>
       </c>
       <c r="E151" t="str">
-        <v/>
-      </c>
-      <c r="F151" t="str">
         <v/>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>portfolios de apreizagem: um estudo a partir da presenca de estudantes e tutor na educacao a distancia</v>
+        <v>ensino</v>
       </c>
       <c r="B152" t="str">
-        <v>educacao a distancia</v>
+        <v>apreizagem</v>
       </c>
       <c r="C152" t="str">
-        <v>presencas na ead</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="D152" t="str">
-        <v>portfolios de apreizagens</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E152" t="str">
-        <v/>
-      </c>
-      <c r="F152" t="str">
         <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>praticas pedagogicas e as tecnologias digitais de informacao e comunicacao no ensino remoto emergencial: relato de experiencia de uma professora no ensino superior</v>
+        <v>ensino superior</v>
       </c>
       <c r="B153" t="str">
-        <v>tdic</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="C153" t="str">
-        <v xml:space="preserve"> praticas pedagogicas</v>
+        <v>ambiente virtual de apreizagem</v>
       </c>
       <c r="D153" t="str">
-        <v>argumentacao</v>
+        <v>percepcao de professores</v>
       </c>
       <c r="E153" t="str">
-        <v>interacoes discursivas</v>
-      </c>
-      <c r="F153" t="str">
-        <v/>
+        <v>percepcao de estudantes</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>programa de desenvolvimento de conhecimentos pedagogicos e tecnologicos de professores da educacao basica</v>
+        <v>covid19</v>
       </c>
       <c r="B154" t="str">
-        <v>formacao continuada de professores</v>
+        <v>curso online</v>
       </c>
       <c r="C154" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>educacao</v>
       </c>
       <c r="D154" t="str">
-        <v>conhecimentos pedagogicos e tecnologicos</v>
+        <v>sujeitos do campo</v>
       </c>
       <c r="E154" t="str">
-        <v>uefined</v>
-      </c>
-      <c r="F154" t="str">
         <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>programa residencia pedagogica: o uso das tecnologias digitais de ensino durante o periodo de aulas remotas pelos residentes de informatica do instituto federal do piaui-campus teresina zona sul</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B155" t="str">
-        <v>formacao de professores</v>
+        <v>wordwall</v>
       </c>
       <c r="C155" t="str">
-        <v>programa residencia pedagogica</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="D155" t="str">
-        <v>tecnologias digitais de ensino</v>
+        <v>percepcao docente</v>
       </c>
       <c r="E155" t="str">
-        <v/>
-      </c>
-      <c r="F155" t="str">
         <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>programa temas emergentes e ensino hibrido para educacao basica: acoes educacionais no contexto do ensino remoto emergencial</v>
+        <v>mediacao pedagogica</v>
       </c>
       <c r="B156" t="str">
-        <v>ensino hibrido</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="C156" t="str">
-        <v>formacao de professores</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D156" t="str">
-        <v>educacao basica</v>
+        <v>siemia</v>
       </c>
       <c r="E156" t="str">
-        <v/>
-      </c>
-      <c r="F156" t="str">
-        <v/>
+        <v>desenho universal para apreizagem</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>projeto de apoio a tecnologia e inovacao da rede educacao do estado de sao paulo: experiencias de professores a partir da docencia</v>
+        <v>ensino</v>
       </c>
       <c r="B157" t="str">
-        <v>trabalho docente</v>
+        <v>docente</v>
       </c>
       <c r="C157" t="str">
-        <v>tecnologia</v>
+        <v>tdic</v>
       </c>
       <c r="D157" t="str">
-        <v>formacao de professores</v>
+        <v>formacao</v>
       </c>
       <c r="E157" t="str">
-        <v>precarizacao do trabalho docente</v>
-      </c>
-      <c r="F157" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>propostas de apreizagem (sala de aula) invertida: um breve historico de “primeiras inversoes” a exemplos atuais</v>
+        <v>apreizagem mediada</v>
       </c>
       <c r="B158" t="str">
-        <v>ensino</v>
+        <v>formacao de professore</v>
       </c>
       <c r="C158" t="str">
-        <v>apreizagem</v>
+        <v>letramento digital</v>
       </c>
       <c r="D158" t="str">
-        <v>apreizagem invertida</v>
+        <v/>
       </c>
       <c r="E158" t="str">
-        <v>sala de aula invertida</v>
-      </c>
-      <c r="F158" t="str">
         <v/>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>protocolo para gestao de praticas pedagogicas em ambiente virtual de apreizagem (ava) na educacao superior</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="B159" t="str">
-        <v>ensino superior</v>
+        <v>educacao basica</v>
       </c>
       <c r="C159" t="str">
-        <v xml:space="preserve"> pratica pedagogica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D159" t="str">
-        <v>ambiente virtual de apreizagem.</v>
+        <v>residencia pedagogica</v>
       </c>
       <c r="E159" t="str">
-        <v>percepcao de professores</v>
-      </c>
-      <c r="F159" t="str">
-        <v xml:space="preserve"> percepcao de estudantes</v>
+        <v/>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>reflexoes interdisciplinares durante a paemia da covid-19: ciclo de palestras online educacao do campo em debate.</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B160" t="str">
-        <v>covid-19</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C160" t="str">
-        <v>curso online</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D160" t="str">
-        <v>educacao</v>
+        <v>formacao continuada de docentes</v>
       </c>
       <c r="E160" t="str">
-        <v>sujeitos do campo</v>
-      </c>
-      <c r="F160" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>reflexoes sobre jogos digitais no processo de ensino e apreizagem: wordwall e percepcao docente</v>
+        <v>docencia</v>
       </c>
       <c r="B161" t="str">
-        <v>jogos digitais</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C161" t="str">
-        <v>wordwall</v>
+        <v>gestao da sala de aula</v>
       </c>
       <c r="D161" t="str">
-        <v>ensino e apreizagem</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E161" t="str">
-        <v>percepcao docente</v>
-      </c>
-      <c r="F161" t="str">
-        <v/>
+        <v>ensino presencial</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>reflexoes sobre mediacao pedagogica, uso das tecnologias da informacao e comunicacao e a educacao inclusiva em tempos de siemia</v>
+        <v>competencias</v>
       </c>
       <c r="B162" t="str">
-        <v>mediacao pedagogica</v>
+        <v>jornada</v>
       </c>
       <c r="C162" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>ambiente remoto</v>
       </c>
       <c r="D162" t="str">
-        <v xml:space="preserve"> educacao inclusiva</v>
+        <v>tecnologias</v>
       </c>
       <c r="E162" t="str">
-        <v>siemia</v>
-      </c>
-      <c r="F162" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>reflexoes sobre o uso das tdic e a pratica dos docentes no ambito da paemia</v>
+        <v>pedagogia</v>
       </c>
       <c r="B163" t="str">
-        <v>ensino</v>
+        <v>letramento midiatico</v>
       </c>
       <c r="C163" t="str">
-        <v>docente</v>
+        <v>identidades</v>
       </c>
       <c r="D163" t="str">
-        <v>tdic</v>
+        <v>epresentacoes sociais</v>
       </c>
       <c r="E163" t="str">
-        <v>formacao</v>
-      </c>
-      <c r="F163" t="str">
-        <v>covid-19</v>
+        <v>curso online</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>reflexoes sobre os conceitos de vygotsky no seculo xxi: a formacao docente, o uso de ferramentas digitais e o sociointeracionismo nos espacos virtuais</v>
+        <v>tecnologias de informacao e comunicacao  tics</v>
       </c>
       <c r="B164" t="str">
-        <v>apreizagem mediada</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C164" t="str">
-        <v xml:space="preserve"> formacao de professore</v>
+        <v>docentes</v>
       </c>
       <c r="D164" t="str">
-        <v xml:space="preserve"> letramento digital</v>
+        <v>contabilidade</v>
       </c>
       <c r="E164" t="str">
-        <v/>
-      </c>
-      <c r="F164" t="str">
         <v/>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>relato de experiencia com tarefas de calculo mental no programa residencia pedagogica</v>
+        <v>tpack</v>
       </c>
       <c r="B165" t="str">
-        <v>praticas pedagogicas</v>
+        <v>formacao de professores de linguas</v>
       </c>
       <c r="C165" t="str">
-        <v>educacao basica</v>
+        <v>portugues como lingua adicional</v>
       </c>
       <c r="D165" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E165" t="str">
-        <v>residencia pedagogica</v>
-      </c>
-      <c r="F165" t="str">
         <v/>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>relato de experiencia da formacao para o uso do moodle pelos docentes de cursos presenciais: quebrao resistencias</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B166" t="str">
-        <v>educacao a distancia</v>
+        <v>planejamento didatico</v>
       </c>
       <c r="C166" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>desempenho academico</v>
       </c>
       <c r="D166" t="str">
-        <v xml:space="preserve"> plataforma moodle</v>
+        <v/>
       </c>
       <c r="E166" t="str">
-        <v>formacao continuada de docentes</v>
-      </c>
-      <c r="F166" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>retorno do ensino remoto emergencial para o presencial na educacao profissional e tecnologica</v>
+        <v>teletrabalho</v>
       </c>
       <c r="B167" t="str">
-        <v>docencia</v>
+        <v>jornada de trabalho</v>
       </c>
       <c r="C167" t="str">
-        <v>praticas pedagogicas</v>
+        <v>idademidia</v>
       </c>
       <c r="D167" t="str">
-        <v xml:space="preserve"> gestao da sala de aula</v>
+        <v>culturadigital</v>
       </c>
       <c r="E167" t="str">
-        <v>tecnologias digitais</v>
-      </c>
-      <c r="F167" t="str">
-        <v>ensino presencial</v>
+        <v/>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>reverberacoes do ambiente remoto: apropriacao das tecnologias e competencias desenvolvidas na jornada de apreizagem</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B168" t="str">
-        <v>competencias</v>
+        <v>tecnologia</v>
       </c>
       <c r="C168" t="str">
-        <v>jornada</v>
+        <v>professor</v>
       </c>
       <c r="D168" t="str">
-        <v xml:space="preserve"> ambiente remoto</v>
+        <v>educacao basica</v>
       </c>
       <c r="E168" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="F168" t="str">
         <v/>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>rodas de conversas sobre letramento midiatico: identidades e praticas docentes pelo olhar de um grupo de pedagogas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B169" t="str">
-        <v>pedagogia</v>
+        <v>avaliacao</v>
       </c>
       <c r="C169" t="str">
-        <v>letramento midiatico;</v>
+        <v>paemia</v>
       </c>
       <c r="D169" t="str">
-        <v>identidades</v>
+        <v/>
       </c>
       <c r="E169" t="str">
-        <v>epresentacoes sociais;</v>
-      </c>
-      <c r="F169" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>tecnologias de informacao e comunicacao – tic’s nas praticas educacionais: um estudo a partir da otica dos docentes de ciencias contabeis frente ao ensino remoto</v>
+        <v>docencia</v>
       </c>
       <c r="B170" t="str">
-        <v>tecnologias de informacao e comunicacao  (tic’s)</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="C170" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino superior</v>
       </c>
       <c r="D170" t="str">
-        <v>docentes</v>
+        <v>especializacao</v>
       </c>
       <c r="E170" t="str">
-        <v>contabilidade</v>
-      </c>
-      <c r="F170" t="str">
-        <v/>
+        <v>comunidades de pratica</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>tpack na formacao de professores de portugues como lingua adicional</v>
+        <v>ensino de linguas</v>
       </c>
       <c r="B171" t="str">
-        <v>tpack</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C171" t="str">
-        <v xml:space="preserve"> formacao de professores de linguas</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D171" t="str">
-        <v>portugues como lingua adicional</v>
+        <v/>
       </c>
       <c r="E171" t="str">
-        <v/>
-      </c>
-      <c r="F171" t="str">
         <v/>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>(trans)formacao pelo estagio supervisionado antes e durante o periodo paemico em um curso de licenciatura a distancia</v>
+        <v>calculadoras eletronicas</v>
       </c>
       <c r="B172" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C172" t="str">
-        <v>planejamento didatico</v>
+        <v>estudos cts</v>
       </c>
       <c r="D172" t="str">
-        <v xml:space="preserve"> desempenho academico</v>
+        <v>controversia controlada</v>
       </c>
       <c r="E172" t="str">
-        <v/>
-      </c>
-      <c r="F172" t="str">
-        <v/>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>transformacoes da jornada de trabalho em tempos de cultura digital: um olhar sobre a jornada da ansiedade</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="B173" t="str">
-        <v>teletrabalho</v>
+        <v>professor</v>
       </c>
       <c r="C173" t="str">
-        <v>jornada de trabalho</v>
+        <v>paemia</v>
       </c>
       <c r="D173" t="str">
-        <v>idademidia</v>
+        <v/>
       </c>
       <c r="E173" t="str">
-        <v>culturadigital</v>
-      </c>
-      <c r="F173" t="str">
         <v/>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>uma analise critica sobre o ensino remoto emergencial na educacao basica</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B174" t="str">
-        <v>ensino remoto</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C174" t="str">
-        <v>tecnologia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D174" t="str">
-        <v>professor</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="E174" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F174" t="str">
         <v/>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>uma analise dos metodos de avaliacao de apreizagem na metodologia remoto emergencial no curso de licenciatura em informatica ifpi – campus teresina zona sul</v>
+        <v>parasitologia</v>
       </c>
       <c r="B175" t="str">
-        <v xml:space="preserve"> ensino remoto</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="C175" t="str">
-        <v>avaliacao</v>
+        <v>instrumento de avaliacao</v>
       </c>
       <c r="D175" t="str">
-        <v>paemia</v>
+        <v>avaliacao de materiais didaticos online</v>
       </c>
       <c r="E175" t="str">
-        <v/>
-      </c>
-      <c r="F175" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>uma experiencia inovadora na formacao de professores para a educacao profissional e tecnologica no ifmt</v>
+        <v>docencia universitaria</v>
       </c>
       <c r="B176" t="str">
-        <v>docencia</v>
+        <v>inteligencia artificial</v>
       </c>
       <c r="C176" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>automacao</v>
       </c>
       <c r="D176" t="str">
-        <v xml:space="preserve"> ensino superior</v>
+        <v>educacao</v>
       </c>
       <c r="E176" t="str">
-        <v>especializacao</v>
-      </c>
-      <c r="F176" t="str">
-        <v>comunidades de pratica</v>
+        <v>algoritimo</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>uma rede de apoio a professores de lingua estrangeira: caracteristicas e organizacao</v>
+        <v>vulnerabilidades</v>
       </c>
       <c r="B177" t="str">
-        <v xml:space="preserve"> ensino de linguas</v>
+        <v>escolas paulistas</v>
       </c>
       <c r="C177" t="str">
-        <v xml:space="preserve"> formacao de professores</v>
+        <v>desigualdades socioeconomicas</v>
       </c>
       <c r="D177" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologias</v>
       </c>
       <c r="E177" t="str">
-        <v/>
-      </c>
-      <c r="F177" t="str">
         <v/>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>um debate simulado sobre o uso de calculadoras eletronicas nas aulas de matematica da educacao basica</v>
+        <v>adolescencia</v>
       </c>
       <c r="B178" t="str">
-        <v>calculadoras eletronicas</v>
+        <v>apreizagem por projeto</v>
       </c>
       <c r="C178" t="str">
-        <v>educacao matematica.</v>
+        <v>jogo psicoeducativo</v>
       </c>
       <c r="D178" t="str">
-        <v>estudos cts</v>
+        <v>psicologia</v>
       </c>
       <c r="E178" t="str">
-        <v>controversia controlada</v>
-      </c>
-      <c r="F178" t="str">
-        <v xml:space="preserve"> tecnologias digitais de informacao e comunicacao</v>
+        <v/>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>uso das tecnologias digitais da informacao e comunicacao no ensino fuamental durante a pandemia da covid-19</v>
+        <v>ensino  remoto</v>
       </c>
       <c r="B179" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>internet</v>
       </c>
       <c r="C179" t="str">
-        <v>professor</v>
+        <v>tecnologia</v>
       </c>
       <c r="D179" t="str">
-        <v>paemia</v>
+        <v>ferramentas do moodle</v>
       </c>
       <c r="E179" t="str">
-        <v/>
-      </c>
-      <c r="F179" t="str">
-        <v/>
+        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>uso de jogos digitais no ensino de matematica: um relato de experiencia da mostra de oficinas da lmat-ead/ufr</v>
+        <v>videoanalise</v>
       </c>
       <c r="B180" t="str">
-        <v>jogos digitais</v>
+        <v>tracker</v>
       </c>
       <c r="C180" t="str">
-        <v xml:space="preserve"> educacao matematica</v>
+        <v>experiencia virtual</v>
       </c>
       <c r="D180" t="str">
-        <v>formacao de professores</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E180" t="str">
-        <v>relato de experiencia</v>
-      </c>
-      <c r="F180" t="str">
         <v/>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>videos educacionais em parasitologia: proposta de um protocolo de avaliacao</v>
+        <v>moodle</v>
       </c>
       <c r="B181" t="str">
-        <v>parasitologia</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C181" t="str">
-        <v>materiais didaticos</v>
+        <v>educacao mediada por tecnologias digitais</v>
       </c>
       <c r="D181" t="str">
-        <v>instrumento de avaliacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E181" t="str">
-        <v xml:space="preserve"> avaliacao de materiais didaticos online</v>
-      </c>
-      <c r="F181" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>vieses codificados: apontamentos a partir da revisao sistematica sobre inteligencia artificial</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="B182" t="str">
-        <v xml:space="preserve"> docencia universitaria</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C182" t="str">
-        <v>inteligencia artificial</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D182" t="str">
-        <v>automacao</v>
+        <v>licenciatura</v>
       </c>
       <c r="E182" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="F182" t="str">
-        <v>algoritimo</v>
+        <v>paemia</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>vulnerabilidades nas escolas paulistas: desigualdades socioeconomicas e o uso das tdic</v>
+        <v>audiovisual</v>
       </c>
       <c r="B183" t="str">
-        <v>vulnerabilidades</v>
+        <v>educacao</v>
       </c>
       <c r="C183" t="str">
-        <v>escolas paulistas</v>
+        <v>tecnologia</v>
       </c>
       <c r="D183" t="str">
-        <v>desigualdades socioeconomicas</v>
+        <v/>
       </c>
       <c r="E183" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="F183" t="str">
         <v/>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>adolescencia e tecnologia: apreendo juntos</v>
+        <v>educacao matematica</v>
       </c>
       <c r="B184" t="str">
-        <v>adolescencia</v>
+        <v>genero</v>
       </c>
       <c r="C184" t="str">
-        <v>apreizagem por projeto</v>
+        <v>geometria</v>
       </c>
       <c r="D184" t="str">
-        <v>jogo psicoeducativo</v>
+        <v>representatividade</v>
       </c>
       <c r="E184" t="str">
-        <v>psicologia</v>
-      </c>
-      <c r="F184" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>a escolha e uso de material didatico digital por professores do ensino superior: a evolucao das tdic no ambiente virtual moodle ufsm</v>
+        <v>tecnologia</v>
       </c>
       <c r="B185" t="str">
-        <v>ensino  remoto</v>
+        <v>ateimento educacional especializado aee</v>
       </c>
       <c r="C185" t="str">
-        <v>internet</v>
+        <v>sala de recurso multifuncional</v>
       </c>
       <c r="D185" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E185" t="str">
-        <v>ferramentas do moodle</v>
-      </c>
-      <c r="F185" t="str">
-        <v xml:space="preserve"> materiais didaticos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>a experiencia de millikan: uso da videoanalise com o software livre tracker para o ensino remoto de fisica experimental em tempos de paemia</v>
+        <v>ensino</v>
       </c>
       <c r="B186" t="str">
-        <v>videoanalise</v>
+        <v>apreizagem</v>
       </c>
       <c r="C186" t="str">
-        <v>tracker</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D186" t="str">
-        <v>experiencia virtual</v>
+        <v>atlas</v>
       </c>
       <c r="E186" t="str">
-        <v>ensino de fisica</v>
-      </c>
-      <c r="F186" t="str">
-        <v/>
+        <v>quimica</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>ambiente virtual moodle integrao o pedagogico e o tecnologico: um modelo/template possivel</v>
+        <v>redes sociais</v>
       </c>
       <c r="B187" t="str">
-        <v>moodle</v>
+        <v>engajamento</v>
       </c>
       <c r="C187" t="str">
-        <v>sequencia didatica</v>
+        <v>apreizagem</v>
       </c>
       <c r="D187" t="str">
-        <v>educacao mediada por tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E187" t="str">
-        <v>educacao a distancia</v>
-      </c>
-      <c r="F187" t="str">
         <v/>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>analise das sequencias didaticas produzidas por estudantes de licenciatura em quimica durante a paemia</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B188" t="str">
-        <v>sequencia didatica</v>
+        <v>avaliacao de programas</v>
       </c>
       <c r="C188" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>tecnologias educacionaisdigitais</v>
       </c>
       <c r="D188" t="str">
-        <v>ensino de ciencias</v>
+        <v/>
       </c>
       <c r="E188" t="str">
-        <v>licenciatura</v>
-      </c>
-      <c r="F188" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>apontamentos sobre os recursos audiovisuais no contexto educacional: uma breve revisao de literatura</v>
+        <v>whatsapp</v>
       </c>
       <c r="B189" t="str">
-        <v>audiovisual</v>
+        <v>ensino</v>
       </c>
       <c r="C189" t="str">
-        <v>educacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="D189" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E189" t="str">
-        <v/>
-      </c>
-      <c r="F189" t="str">
         <v/>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>a representatividade e o uso de objetos digitais de apreizagem (oda): uma discussao na educacao matematica</v>
+        <v>blog</v>
       </c>
       <c r="B190" t="str">
-        <v>educacao matematica</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C190" t="str">
-        <v>genero</v>
+        <v>estrategia didatica</v>
       </c>
       <c r="D190" t="str">
-        <v>geometria</v>
+        <v>mediacao</v>
       </c>
       <c r="E190" t="str">
-        <v>representatividade</v>
-      </c>
-      <c r="F190" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>a robotica educacional um recurso pedagogico promissor no desenvolvimento de criancas com tea nas salas de recurso multifuncionais</v>
+        <v>design</v>
       </c>
       <c r="B191" t="str">
-        <v>tecnologia</v>
+        <v>qualificacao profissional</v>
       </c>
       <c r="C191" t="str">
-        <v>ateimento educacional especializado -aee</v>
+        <v>educacao ambienta</v>
       </c>
       <c r="D191" t="str">
-        <v>sala de recurso multifuncional</v>
+        <v/>
       </c>
       <c r="E191" t="str">
-        <v/>
-      </c>
-      <c r="F191" t="str">
         <v/>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>atlas digital de quimica: recurso interativo para qualificar os processos de ensino e de apreizagem em cursos superiores.</v>
+        <v>educacao</v>
       </c>
       <c r="B192" t="str">
-        <v>ensino</v>
+        <v>tecnologia</v>
       </c>
       <c r="C192" t="str">
-        <v>apreizagem</v>
+        <v>competencias midiaticas e em informacao</v>
       </c>
       <c r="D192" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E192" t="str">
-        <v>atlas</v>
-      </c>
-      <c r="F192" t="str">
-        <v>quimica</v>
+        <v/>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>avaliacao da participacao dos cursos de odontologia da regiao norte no oferecimento de conteudo educacional no youtube</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="B193" t="str">
-        <v>redes sociais</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C193" t="str">
-        <v>engajamento</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="D193" t="str">
-        <v>apreizagem</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="E193" t="str">
-        <v/>
-      </c>
-      <c r="F193" t="str">
         <v/>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>avaliacao de produto educacional matematico: um olhar meta-avaliador amparado em criterios fuamentais</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="B194" t="str">
-        <v>meta-avaliacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="C194" t="str">
-        <v>avaliacao de programas</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D194" t="str">
-        <v>tecnologias educacionaisdigitais</v>
+        <v/>
       </c>
       <c r="E194" t="str">
-        <v/>
-      </c>
-      <c r="F194" t="str">
         <v/>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>avaliao o whatsapp como interface pedagogica</v>
+        <v>educacao superior</v>
       </c>
       <c r="B195" t="str">
-        <v>whatsapp</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C195" t="str">
-        <v>ensino</v>
+        <v>cultura maker</v>
       </c>
       <c r="D195" t="str">
-        <v>apreizagem</v>
+        <v>podcast</v>
       </c>
       <c r="E195" t="str">
-        <v/>
-      </c>
-      <c r="F195" t="str">
         <v/>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>blog como estrategia didatica na mediacao da educacao hibrida</v>
+        <v>anormalidades craniofaciais</v>
       </c>
       <c r="B196" t="str">
-        <v>blog</v>
+        <v>curadoria de dados</v>
       </c>
       <c r="C196" t="str">
-        <v>educacao hibrida</v>
+        <v>rede social</v>
       </c>
       <c r="D196" t="str">
-        <v>estrategia didatica</v>
+        <v/>
       </c>
       <c r="E196" t="str">
-        <v>mediacao</v>
-      </c>
-      <c r="F196" t="str">
         <v/>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>capacitacao profissional e tecnologica com enfase na producao de conteudo para educacao ambiental por meio de parceria entre universidade e organizacao social</v>
+        <v>gamificacao</v>
       </c>
       <c r="B197" t="str">
-        <v>design</v>
+        <v>metodologias de ensino</v>
       </c>
       <c r="C197" t="str">
-        <v xml:space="preserve"> qualificacao profissional</v>
+        <v>jogo</v>
       </c>
       <c r="D197" t="str">
-        <v>educacao ambienta</v>
+        <v>ciencias ambientais</v>
       </c>
       <c r="E197" t="str">
-        <v/>
-      </c>
-      <c r="F197" t="str">
         <v/>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>competencia midiatica e competencia em informacao na formacao continuada de professores: um estudo sobre a influencia da cibercultura na carreira docente do seculo 21.</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B198" t="str">
-        <v>educacao</v>
+        <v>material  didatico digital</v>
       </c>
       <c r="C198" t="str">
-        <v>tecnologia</v>
+        <v>jogo eletronico</v>
       </c>
       <c r="D198" t="str">
-        <v>competencias midiaticas e em informacao</v>
+        <v>lixo toxico</v>
       </c>
       <c r="E198" t="str">
-        <v/>
-      </c>
-      <c r="F198" t="str">
-        <v/>
+        <v>tabela periodica</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>concepcao e producao de materiais educacionais digitais na e para formacao de professores</v>
+        <v>direitos autorais</v>
       </c>
       <c r="B199" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>internet</v>
       </c>
       <c r="C199" t="str">
-        <v>formacao continuada</v>
+        <v>plagio</v>
       </c>
       <c r="D199" t="str">
-        <v>recursos educacionais</v>
+        <v>material didatico</v>
       </c>
       <c r="E199" t="str">
-        <v xml:space="preserve"> ferramentas digitais</v>
-      </c>
-      <c r="F199" t="str">
-        <v/>
+        <v>trabalho academico</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>cria cecierj: curso de reforco para inclusao e apoio como estrategia para permanencia de alunos no ensino superior</v>
+        <v>material didatico</v>
       </c>
       <c r="B200" t="str">
-        <v xml:space="preserve"> evasao no ensino superior</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="C200" t="str">
-        <v>apreizagem</v>
+        <v>ensino  remoto emergencial</v>
       </c>
       <c r="D200" t="str">
-        <v>plataforma moodle</v>
+        <v>compartilhamento</v>
       </c>
       <c r="E200" t="str">
-        <v/>
-      </c>
-      <c r="F200" t="str">
-        <v/>
+        <v>estrategia pedagogica</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>cultura maker no ensino superior: a producao de podcasts educativos como instrumento pedagogico mediador de apreizagens significativas</v>
+        <v>raple</v>
       </c>
       <c r="B201" t="str">
-        <v>educacao superior</v>
+        <v>repositorios</v>
       </c>
       <c r="C201" t="str">
-        <v>apreizagem ativa</v>
+        <v>planos de aula</v>
       </c>
       <c r="D201" t="str">
-        <v>cultura maker</v>
+        <v/>
       </c>
       <c r="E201" t="str">
-        <v>podcast</v>
-      </c>
-      <c r="F201" t="str">
         <v/>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>curadoria hospitalar em tempos de redes sociais: aproximao todos que quiserem no aprender saber e ensinar sobre as anomalias craniofaciais</v>
+        <v>wifi</v>
       </c>
       <c r="B202" t="str">
-        <v>anormalidades craniofaciais</v>
+        <v>iot</v>
       </c>
       <c r="C202" t="str">
-        <v>curadoria de dados</v>
+        <v>internet das coisas</v>
       </c>
       <c r="D202" t="str">
-        <v>rede social</v>
+        <v/>
       </c>
       <c r="E202" t="str">
-        <v/>
-      </c>
-      <c r="F202" t="str">
         <v/>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>desenvolvimento de um jogo em rpg maker para gamificacao no ensino de ciencias ambientais</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B203" t="str">
-        <v>gamificacao</v>
+        <v>posgraduacao</v>
       </c>
       <c r="C203" t="str">
-        <v>metodologias de ensino;</v>
+        <v>covid19</v>
       </c>
       <c r="D203" t="str">
-        <v>jogo</v>
+        <v>bleed learning</v>
       </c>
       <c r="E203" t="str">
-        <v>ciencias ambientais</v>
-      </c>
-      <c r="F203" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>desenvolvimento do aplicativo guru da quimica – os elementos quimicos e o lixo toxico</v>
+        <v>enriquecimento curricular online</v>
       </c>
       <c r="B204" t="str">
-        <v>ensino de quimica</v>
+        <v>aplicativo para celular</v>
       </c>
       <c r="C204" t="str">
-        <v>material  didatico digital,</v>
+        <v>personalizacao do ensino</v>
       </c>
       <c r="D204" t="str">
-        <v>jogo eletronico</v>
+        <v/>
       </c>
       <c r="E204" t="str">
-        <v>lixo toxico</v>
-      </c>
-      <c r="F204" t="str">
-        <v>tabela periodica</v>
+        <v/>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>direitos autorais no contexto de aulas remotas – um olhar sobre o uso das ferramentas antiplagio</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B205" t="str">
-        <v xml:space="preserve"> direitos autorais</v>
+        <v>tecnologia</v>
       </c>
       <c r="C205" t="str">
-        <v>internet</v>
+        <v>saude</v>
       </c>
       <c r="D205" t="str">
-        <v>plagio</v>
+        <v>educacao online</v>
       </c>
       <c r="E205" t="str">
-        <v xml:space="preserve"> material didatico</v>
-      </c>
-      <c r="F205" t="str">
-        <v>trabalho academico</v>
+        <v>territorialidade</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>e agora, professores? o que fazer com o material didatico produzido no ensino remoto emergencial</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B206" t="str">
-        <v>material didatico</v>
+        <v>formacao docente</v>
       </c>
       <c r="C206" t="str">
-        <v>recursos educacionais;</v>
+        <v>tdic</v>
       </c>
       <c r="D206" t="str">
-        <v>ensino  remoto emergencial</v>
+        <v/>
       </c>
       <c r="E206" t="str">
-        <v>compartilhamento</v>
-      </c>
-      <c r="F206" t="str">
-        <v xml:space="preserve"> estrategia pedagogica</v>
+        <v/>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>ensino-apreizagem de linguas estrangeiras e materiais digitais: raple e planos de aula de ingles</v>
+        <v>gamificacao</v>
       </c>
       <c r="B207" t="str">
-        <v>raple</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C207" t="str">
-        <v>repositorios</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D207" t="str">
-        <v>planos de aula</v>
+        <v/>
       </c>
       <c r="E207" t="str">
-        <v/>
-      </c>
-      <c r="F207" t="str">
         <v/>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>ensino da internet das coisas para estudantes de curso tecnico em periodo de paemia: o projeto iot4u</v>
+        <v>historia da matematica</v>
       </c>
       <c r="B208" t="str">
-        <v>wifi</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C208" t="str">
-        <v>iot</v>
+        <v>minicurso</v>
       </c>
       <c r="D208" t="str">
-        <v>internet das coisas</v>
+        <v/>
       </c>
       <c r="E208" t="str">
-        <v/>
-      </c>
-      <c r="F208" t="str">
         <v/>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>ensino remoto emergencial: uso de metodologias ativas e recursos virtuais numa disciplina de pos-graduacao</v>
+        <v>educacao em saude</v>
       </c>
       <c r="B209" t="str">
-        <v>metodologias ativas</v>
+        <v>jogos serios</v>
       </c>
       <c r="C209" t="str">
-        <v>pos-graduacao</v>
+        <v>emergencia</v>
       </c>
       <c r="D209" t="str">
-        <v>covid-19</v>
+        <v>cardiologia</v>
       </c>
       <c r="E209" t="str">
-        <v>bleed learning</v>
-      </c>
-      <c r="F209" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>enriquecimento curricular para toda a escola mediado por aplicativo on-line</v>
+        <v>interatividade</v>
       </c>
       <c r="B210" t="str">
-        <v>enriquecimento curricular on-line</v>
+        <v>tecnologia</v>
       </c>
       <c r="C210" t="str">
-        <v>aplicativo para celular</v>
+        <v>youtube</v>
       </c>
       <c r="D210" t="str">
-        <v>personalizacao do ensino</v>
+        <v>mediacao</v>
       </c>
       <c r="E210" t="str">
-        <v/>
-      </c>
-      <c r="F210" t="str">
         <v/>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>ferramenta online de elaboracao de tcc em curso de especializacao em saude iigena</v>
+        <v>colonialismo digital</v>
       </c>
       <c r="B211" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao online</v>
       </c>
       <c r="C211" t="str">
-        <v>tecnologia</v>
+        <v>letramentos</v>
       </c>
       <c r="D211" t="str">
-        <v>saude</v>
+        <v>ensin osuperior</v>
       </c>
       <c r="E211" t="str">
-        <v>educacao on-line</v>
-      </c>
-      <c r="F211" t="str">
-        <v>territorialidade</v>
+        <v>decolonialidade digital</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>formacao docente no ensino remoto emergencial: possibilidades para aulas sincronas e assincronas</v>
+        <v>jogo</v>
       </c>
       <c r="B212" t="str">
-        <v xml:space="preserve"> ensino remoto emergencial.</v>
+        <v>ensino</v>
       </c>
       <c r="C212" t="str">
-        <v>formacao docente.</v>
+        <v>apreizagem</v>
       </c>
       <c r="D212" t="str">
-        <v>tdic</v>
+        <v>digital</v>
       </c>
       <c r="E212" t="str">
-        <v/>
-      </c>
-      <c r="F212" t="str">
-        <v/>
+        <v>ambiente virtual</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>gamificacao no contexto do ensino fuamental ii: uso da ferramenta classcraft como recurso didatico no ensino de ciencias</v>
+        <v>laboratorios remotos</v>
       </c>
       <c r="B213" t="str">
-        <v>gamificacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C213" t="str">
-        <v>ensino de ciencias</v>
+        <v>divulgacao ciefica</v>
       </c>
       <c r="D213" t="str">
-        <v xml:space="preserve"> metodologias ativas</v>
+        <v/>
       </c>
       <c r="E213" t="str">
-        <v/>
-      </c>
-      <c r="F213" t="str">
         <v/>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>historia das equacoes de 2° grau e das funcoes quadraticas: uma experiencia de ensino remoto na educacao basica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B214" t="str">
-        <v>historia da matematica</v>
+        <v>trilhas de apreizagem</v>
       </c>
       <c r="C214" t="str">
-        <v>sequencia didatica</v>
+        <v>autoria</v>
       </c>
       <c r="D214" t="str">
-        <v>minicurso</v>
+        <v/>
       </c>
       <c r="E214" t="str">
-        <v/>
-      </c>
-      <c r="F214" t="str">
         <v/>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>identificacao e avaliacao da dor toracica: capacitacao da equipe profissional na modalidade a distancia</v>
+        <v>tutor</v>
       </c>
       <c r="B215" t="str">
-        <v xml:space="preserve"> educacao em saude</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C215" t="str">
-        <v>jogos serios</v>
+        <v>paemia da covid19</v>
       </c>
       <c r="D215" t="str">
-        <v>emergencia</v>
+        <v/>
       </c>
       <c r="E215" t="str">
-        <v>cardiologia</v>
-      </c>
-      <c r="F215" t="str">
         <v/>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>interatividade e apreizagem no youtube: um olhar para o canal altamente- oe-udv</v>
+        <v>educacao</v>
       </c>
       <c r="B216" t="str">
-        <v>interatividade</v>
+        <v>comunicacao</v>
       </c>
       <c r="C216" t="str">
-        <v>tecnologia</v>
+        <v>audiovisual</v>
       </c>
       <c r="D216" t="str">
-        <v>youtube</v>
+        <v>roteiro</v>
       </c>
       <c r="E216" t="str">
-        <v>mediacao</v>
-      </c>
-      <c r="F216" t="str">
         <v/>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>investigao os processos de colonialismo e decolonialidade digital no ensino online / remoto na educacao universitaria</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B217" t="str">
-        <v>colonialismo digital</v>
+        <v>disciplinas regulares</v>
       </c>
       <c r="C217" t="str">
-        <v>educacao online</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D217" t="str">
-        <v>letramentos</v>
+        <v>presencialidade</v>
       </c>
       <c r="E217" t="str">
-        <v>ensin osuperior</v>
-      </c>
-      <c r="F217" t="str">
-        <v>decolonialidade digital</v>
+        <v/>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>jogo digital de neurofisiologia: possivel estrategia facilitadora para o ensino e apreizagem no ensino superior em saude</v>
+        <v>ambiente virtual</v>
       </c>
       <c r="B218" t="str">
-        <v>jogo</v>
+        <v>moodle</v>
       </c>
       <c r="C218" t="str">
-        <v>ensino</v>
+        <v>educacao basica</v>
       </c>
       <c r="D218" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E218" t="str">
-        <v>digital</v>
-      </c>
-      <c r="F218" t="str">
-        <v>ambiente virtual</v>
+        <v/>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>laboratorios de acesso remoto como ferramentas para a pesquisa e esnino presencial e a distancia</v>
+        <v>bleed learning</v>
       </c>
       <c r="B219" t="str">
-        <v>laboratorios remotos</v>
+        <v>soft skills</v>
       </c>
       <c r="C219" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao gerencial</v>
       </c>
       <c r="D219" t="str">
-        <v>divulgacao ciefica</v>
+        <v/>
       </c>
       <c r="E219" t="str">
-        <v/>
-      </c>
-      <c r="F219" t="str">
         <v/>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>liberdade e preliminares emancipatorias na ead</v>
+        <v>docencia</v>
       </c>
       <c r="B220" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao digital</v>
       </c>
       <c r="C220" t="str">
-        <v>trilhas de apreizagem</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D220" t="str">
-        <v>autoria</v>
+        <v>uneb</v>
       </c>
       <c r="E220" t="str">
-        <v/>
-      </c>
-      <c r="F220" t="str">
         <v/>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>mediacao pedagogica em cursos a distancia: a tutoria no pos-paemia</v>
+        <v>design  instrucional</v>
       </c>
       <c r="B221" t="str">
-        <v>tutor</v>
+        <v>formacao  de  professores</v>
       </c>
       <c r="C221" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino  superior</v>
       </c>
       <c r="D221" t="str">
-        <v>paemia da covid-19</v>
+        <v>ensino  a  distancia  e digital</v>
       </c>
       <c r="E221" t="str">
-        <v/>
-      </c>
-      <c r="F221" t="str">
-        <v/>
+        <v>microcredenciais</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>mediacoes comunicacionais: uma proposta metodologica para a acao docente em audiovisual</v>
+        <v>acentuacao grafica</v>
       </c>
       <c r="B222" t="str">
-        <v>educacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="C222" t="str">
-        <v>comunicacao</v>
+        <v>dificuldades</v>
       </c>
       <c r="D222" t="str">
-        <v>audiovisual</v>
+        <v>motivacao</v>
       </c>
       <c r="E222" t="str">
-        <v>roteiro</v>
-      </c>
-      <c r="F222" t="str">
-        <v/>
+        <v>metodologia ativa kahoot recursos digitais</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>metodologias ativas e presencialidade em educacao a distancia: estudo da disciplina leitura e producao de textos</v>
+        <v>avaliacao inovadora</v>
       </c>
       <c r="B223" t="str">
-        <v>educacao a distancia</v>
+        <v>software de avaliacao qualitativa</v>
       </c>
       <c r="C223" t="str">
-        <v>disciplinas regulares</v>
+        <v>feedback de avaliacao</v>
       </c>
       <c r="D223" t="str">
-        <v>metodologias ativas</v>
+        <v>percurso de apreizagem personalizada</v>
       </c>
       <c r="E223" t="str">
-        <v>presencialidade</v>
-      </c>
-      <c r="F223" t="str">
         <v/>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>moodle como apoio na educacao basica: a fase de desenvolvimento e implementacao da plataforma</v>
+        <v>mooc</v>
       </c>
       <c r="B224" t="str">
-        <v>ambiente virtual</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="C224" t="str">
-        <v>moodle</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D224" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E224" t="str">
-        <v/>
-      </c>
-      <c r="F224" t="str">
         <v/>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>o bleed learning na educacao gerencial e o desenvolvimento de competencias</v>
+        <v>kahoot</v>
       </c>
       <c r="B225" t="str">
-        <v>bleed learning,</v>
+        <v>paemia</v>
       </c>
       <c r="C225" t="str">
-        <v>soft skills</v>
+        <v>covid19</v>
       </c>
       <c r="D225" t="str">
-        <v>educacao gerencial</v>
+        <v>motivacao</v>
       </c>
       <c r="E225" t="str">
-        <v/>
-      </c>
-      <c r="F225" t="str">
         <v/>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>o desafio docente em uma universidade publica para superacao da paemia no ensino remoto: uma analise do “nos por nos”: compartilhando saberes e experiencias do ensino remoto</v>
+        <v>ensino medio</v>
       </c>
       <c r="B226" t="str">
-        <v>docencia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C226" t="str">
-        <v>educacao digital</v>
+        <v>generos digitais</v>
       </c>
       <c r="D226" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>lingua portuguesa</v>
       </c>
       <c r="E226" t="str">
-        <v>uneb</v>
-      </c>
-      <c r="F226" t="str">
         <v/>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>o design instrucional de modulos de formacao na universidade aberta de portugal</v>
+        <v>alfabetizacao</v>
       </c>
       <c r="B227" t="str">
-        <v xml:space="preserve"> design  instrucional</v>
+        <v>letramento</v>
       </c>
       <c r="C227" t="str">
-        <v>formacao  de  professores</v>
+        <v>autismo</v>
       </c>
       <c r="D227" t="str">
-        <v>ensino  superior,</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="E227" t="str">
-        <v>ensino  a  distancia  e digital</v>
-      </c>
-      <c r="F227" t="str">
-        <v>microcredenciais</v>
+        <v/>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>o desinteresse dos alunos na materia de acentuacao grafica na lingua portuguesa</v>
+        <v>moodle</v>
       </c>
       <c r="B228" t="str">
-        <v>acentuacao grafica</v>
+        <v>efl</v>
       </c>
       <c r="C228" t="str">
-        <v>apreizagem</v>
+        <v>textbook</v>
       </c>
       <c r="D228" t="str">
-        <v>dificuldades</v>
+        <v/>
       </c>
       <c r="E228" t="str">
-        <v>motivacao</v>
-      </c>
-      <c r="F228" t="str">
-        <v>metodologia ativa; kahoot; recursos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>o feedback personalizado por meio de software de avaliacao de atividades qualitativas</v>
+        <v>evasao</v>
       </c>
       <c r="B229" t="str">
-        <v>avaliacao inovadora</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C229" t="str">
-        <v>software de avaliacao qualitativa</v>
+        <v>ferramenta de software</v>
       </c>
       <c r="D229" t="str">
-        <v>feedback de avaliacao</v>
+        <v/>
       </c>
       <c r="E229" t="str">
-        <v>percurso de apreizagem personalizada</v>
-      </c>
-      <c r="F229" t="str">
         <v/>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>oficinas de cursos mooc como proposta de sala de aula invertida em tempos de ensino remoto</v>
+        <v>materiais</v>
       </c>
       <c r="B230" t="str">
-        <v>mooc</v>
+        <v>atividades</v>
       </c>
       <c r="C230" t="str">
-        <v>sala de aula invertida</v>
+        <v>midias</v>
       </c>
       <c r="D230" t="str">
-        <v>tecnologias educacionais</v>
+        <v>ead</v>
       </c>
       <c r="E230" t="str">
-        <v/>
-      </c>
-      <c r="F230" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>o uso da gamificacao em tempos de paemia: concepcoes de docentes sobre o uso do kahoot como instrumento efetivo para motivacao e aprendizagem dos alunos.</v>
+        <v>revisao de escopo</v>
       </c>
       <c r="B231" t="str">
-        <v>kahoot</v>
+        <v>jogos digitais</v>
       </c>
       <c r="C231" t="str">
+        <v>midias</v>
+      </c>
+      <c r="D231" t="str">
         <v>paemia</v>
       </c>
-      <c r="D231" t="str">
-        <v>covid-19</v>
-      </c>
       <c r="E231" t="str">
-        <v xml:space="preserve">motivacao </v>
-      </c>
-      <c r="F231" t="str">
-        <v/>
+        <v>praticas pedagogicas</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>o uso do genero digital meme em aulas de lingua portuguesa durante a paemia do coronavirus</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="B232" t="str">
-        <v>ensino medio</v>
+        <v>educacao infantil</v>
       </c>
       <c r="C232" t="str">
-        <v xml:space="preserve"> ensino remoto emergencial</v>
+        <v>scratchjr</v>
       </c>
       <c r="D232" t="str">
-        <v xml:space="preserve"> generos digitais</v>
+        <v/>
       </c>
       <c r="E232" t="str">
-        <v xml:space="preserve"> lingua portuguesa</v>
-      </c>
-      <c r="F232" t="str">
         <v/>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>o uso do graphogame brasil no processo de alfabetizacao e letramento de criancas com autismo</v>
+        <v>multimodalidade</v>
       </c>
       <c r="B233" t="str">
-        <v>alfabetizacao</v>
+        <v>videos com conteudo matematico</v>
       </c>
       <c r="C233" t="str">
-        <v>letramento</v>
+        <v>livro didatico</v>
       </c>
       <c r="D233" t="str">
-        <v>autismo</v>
+        <v/>
       </c>
       <c r="E233" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
-      </c>
-      <c r="F233" t="str">
         <v/>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>perspectivas de um grupo de estudantes do ensino medio sobre o uso de livro didatico e moodle em aulas de ingles face-a-face antes da paemia</v>
+        <v>leitura</v>
       </c>
       <c r="B234" t="str">
-        <v>moodle</v>
+        <v>escrita</v>
       </c>
       <c r="C234" t="str">
-        <v>efl</v>
+        <v>habilidades matematicas</v>
       </c>
       <c r="D234" t="str">
-        <v>textbook</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E234" t="str">
-        <v/>
-      </c>
-      <c r="F234" t="str">
         <v/>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>plataforma inteligente para analise e combate a evasao na educacao a distancia</v>
+        <v>planejamento na ead</v>
       </c>
       <c r="B235" t="str">
-        <v>evasao</v>
+        <v>estrategias pedagogicas</v>
       </c>
       <c r="C235" t="str">
-        <v xml:space="preserve"> educacao a distancia</v>
+        <v>moodle no ensino presencial</v>
       </c>
       <c r="D235" t="str">
-        <v xml:space="preserve"> ferramenta de software</v>
+        <v/>
       </c>
       <c r="E235" t="str">
-        <v/>
-      </c>
-      <c r="F235" t="str">
         <v/>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>praticas camilianas: um estudo de caso de disciplina hibrida do centro universitario sao camilo</v>
+        <v>realidade aumentada</v>
       </c>
       <c r="B236" t="str">
-        <v>materiais</v>
+        <v>geografia</v>
       </c>
       <c r="C236" t="str">
-        <v>atividades</v>
+        <v>educacao</v>
       </c>
       <c r="D236" t="str">
-        <v>midias</v>
+        <v/>
       </c>
       <c r="E236" t="str">
-        <v>ead</v>
-      </c>
-      <c r="F236" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>praticas pedagogicas com jogos digitais na educacao no periodo da paemia da covid-19: uma revisao de escopo</v>
+        <v>ensino</v>
       </c>
       <c r="B237" t="str">
-        <v>revisao de escopo</v>
+        <v>apreizagem</v>
       </c>
       <c r="C237" t="str">
-        <v>jogos digitais</v>
+        <v>ferramentas</v>
       </c>
       <c r="D237" t="str">
-        <v>midias</v>
+        <v>programacao</v>
       </c>
       <c r="E237" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="F237" t="str">
-        <v>praticas pedagogicas</v>
+        <v>educacao basica</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>potencialidades e desafios da linguagem de programacao para educacao infantil scratchjr</v>
+        <v>ila</v>
       </c>
       <c r="B238" t="str">
-        <v>pensamento computacional</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C238" t="str">
-        <v>educacao infantil</v>
+        <v>diretrizes</v>
       </c>
       <c r="D238" t="str">
-        <v>scratchjr</v>
+        <v>ead</v>
       </c>
       <c r="E238" t="str">
-        <v/>
-      </c>
-      <c r="F238" t="str">
         <v/>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>producao de videos com conteudo matematico: transposicao didatica de problemas do livro para o video</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="B239" t="str">
-        <v>multimodalidade</v>
+        <v>ciencia fisica</v>
       </c>
       <c r="C239" t="str">
-        <v>videos com conteudo matematico</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D239" t="str">
-        <v>livro didatico</v>
+        <v>tecnologia no ensino</v>
       </c>
       <c r="E239" t="str">
-        <v/>
-      </c>
-      <c r="F239" t="str">
-        <v/>
+        <v>podcast de ciencias</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>projeto didatico a sacola viajante: os cantinhos da sala de aula em casa</v>
+        <v>kahoot</v>
       </c>
       <c r="B240" t="str">
-        <v>leitura</v>
+        <v>gamificacao</v>
       </c>
       <c r="C240" t="str">
-        <v>escrita</v>
+        <v>jogos digitais</v>
       </c>
       <c r="D240" t="str">
-        <v>habilidades matematicas</v>
+        <v/>
       </c>
       <c r="E240" t="str">
-        <v>ensino remoto</v>
-      </c>
-      <c r="F240" t="str">
         <v/>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>proposta de um curso para qualificacao docente sobre a utilizacao da plataforma moodle junto as estrategias pedagogicas de diferentes cursos presenciais de uma ies do sul do brasil</v>
+        <v>biodiesel</v>
       </c>
       <c r="B241" t="str">
-        <v>planejamento na ead</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="C241" t="str">
-        <v>estrategias pedagogicas</v>
+        <v>eja</v>
       </c>
       <c r="D241" t="str">
-        <v>moodle no ensino presencial</v>
+        <v>games</v>
       </c>
       <c r="E241" t="str">
-        <v/>
-      </c>
-      <c r="F241" t="str">
-        <v/>
+        <v>phet</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>realidade aumentada no ensino de geografia: panorama muial</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B242" t="str">
-        <v xml:space="preserve"> realidade aumentada</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C242" t="str">
-        <v>geografia</v>
+        <v>oficinas</v>
       </c>
       <c r="D242" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E242" t="str">
-        <v/>
-      </c>
-      <c r="F242" t="str">
         <v/>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>recursos e ferramentas para apoio ao processo de ensino e apreizagem de programacao de computadores na educacao basica: um panorama brasileiro</v>
+        <v>maker</v>
       </c>
       <c r="B243" t="str">
-        <v>ensino</v>
+        <v>robotica</v>
       </c>
       <c r="C243" t="str">
-        <v>apreizagem</v>
+        <v>criatividade</v>
       </c>
       <c r="D243" t="str">
-        <v>ferramentas</v>
+        <v>educacao</v>
       </c>
       <c r="E243" t="str">
-        <v>programacao</v>
-      </c>
-      <c r="F243" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>redesign de atividades em um curso de extensao em lingua inglesa a distancia: o caso english e-3d</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B244" t="str">
-        <v>ila</v>
+        <v>fake news</v>
       </c>
       <c r="C244" t="str">
-        <v xml:space="preserve"> material didatico digital</v>
+        <v>vacina</v>
       </c>
       <c r="D244" t="str">
-        <v>diretrizes</v>
+        <v>educacao midiatica</v>
       </c>
       <c r="E244" t="str">
-        <v>ead</v>
-      </c>
-      <c r="F244" t="str">
-        <v/>
+        <v>ensino fuamental</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>relato de experiencia: divulgacao cientifica na escola publica em tempo paemia</v>
+        <v>metodologiaativa</v>
       </c>
       <c r="B245" t="str">
-        <v>ensino de fisica</v>
+        <v>processosdeensinoe apreizagem</v>
       </c>
       <c r="C245" t="str">
-        <v>ciencia fisica</v>
+        <v>trabalho em equipe</v>
       </c>
       <c r="D245" t="str">
-        <v xml:space="preserve"> ensino remoto</v>
+        <v>team based learning</v>
       </c>
       <c r="E245" t="str">
-        <v xml:space="preserve"> tecnologia no ensino</v>
-      </c>
-      <c r="F245" t="str">
-        <v xml:space="preserve"> podcast de ciencias</v>
+        <v/>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>relato de experiencia do uso da ferramenta kahoot! nas aulas de um curso tecnico em informatica em tempos de paemia</v>
+        <v>educacao</v>
       </c>
       <c r="B246" t="str">
-        <v>kahoot</v>
+        <v>tecnologia</v>
       </c>
       <c r="C246" t="str">
-        <v>gamificacao</v>
+        <v>producoes filmicas</v>
       </c>
       <c r="D246" t="str">
-        <v>jogos digitais</v>
+        <v/>
       </c>
       <c r="E246" t="str">
-        <v/>
-      </c>
-      <c r="F246" t="str">
         <v/>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>relato de experiencia na eja: utilizacao de game e simulador no ensino de quimica relacionado a producao de biocombustiveis</v>
+        <v>technology</v>
       </c>
       <c r="B247" t="str">
-        <v>biodiesel</v>
+        <v>education</v>
       </c>
       <c r="C247" t="str">
-        <v xml:space="preserve"> ensino de quimica</v>
+        <v>deaf</v>
       </c>
       <c r="D247" t="str">
-        <v>eja</v>
+        <v/>
       </c>
       <c r="E247" t="str">
-        <v>games</v>
-      </c>
-      <c r="F247" t="str">
-        <v>phet</v>
+        <v/>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>robotica em foco: estudo de caso de uma acao de apreizagem ativa no retorno as aulas presenciais pos-pandemia covid-19</v>
+        <v>psicologia  social</v>
       </c>
       <c r="B248" t="str">
-        <v>robotica educacional</v>
+        <v>recursos  didaticos  audiovisuais</v>
       </c>
       <c r="C248" t="str">
-        <v>apreizagem ativa</v>
+        <v>video  educacional</v>
       </c>
       <c r="D248" t="str">
-        <v>oficinas</v>
+        <v>educacao  a distancia</v>
       </c>
       <c r="E248" t="str">
-        <v/>
-      </c>
-      <c r="F248" t="str">
         <v/>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>robotica sustentavel</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B249" t="str">
-        <v>maker</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="C249" t="str">
-        <v>robotica</v>
+        <v>escolas do campo</v>
       </c>
       <c r="D249" t="str">
-        <v>criatividade</v>
+        <v/>
       </c>
       <c r="E249" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="F249" t="str">
         <v/>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>sequencia didatica sobre vacinas e fake news como instrumento para educacao midiatica no ensino de ciencias.</v>
+        <v>portal educativo</v>
       </c>
       <c r="B250" t="str">
-        <v>ensino de ciencias</v>
+        <v>teste  de usabilidade</v>
       </c>
       <c r="C250" t="str">
-        <v xml:space="preserve"> fake news</v>
+        <v>ensino medio</v>
       </c>
       <c r="D250" t="str">
-        <v>vacina</v>
+        <v/>
       </c>
       <c r="E250" t="str">
-        <v>educacao midiatica</v>
-      </c>
-      <c r="F250" t="str">
-        <v xml:space="preserve"> ensino fuamental</v>
+        <v/>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>tbl active: software para apoio a metodologia ativa team based learning</v>
+        <v>design thinking</v>
       </c>
       <c r="B251" t="str">
-        <v>metodologiaativa</v>
+        <v>apreizagem</v>
       </c>
       <c r="C251" t="str">
-        <v>processosdeensinoe apreizagem</v>
+        <v>algoritmos</v>
       </c>
       <c r="D251" t="str">
-        <v xml:space="preserve"> trabalho em equipe</v>
+        <v>nocode</v>
       </c>
       <c r="E251" t="str">
-        <v>team based learning</v>
-      </c>
-      <c r="F251" t="str">
         <v/>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>tecnologia aliada a educacao: o uso de narrativas filmicas para compreensao do muo do trabalho no ensino medio</v>
+        <v>apreizagem baseada em projetos</v>
       </c>
       <c r="B252" t="str">
-        <v>educacao</v>
+        <v>scrum</v>
       </c>
       <c r="C252" t="str">
-        <v>tecnologia</v>
+        <v>multidisciplinalidade e tecnologias emergentes</v>
       </c>
       <c r="D252" t="str">
-        <v>producoes filmicas</v>
+        <v/>
       </c>
       <c r="E252" t="str">
-        <v/>
-      </c>
-      <c r="F252" t="str">
         <v/>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>tecnologias digitais na educacao de surdos</v>
+        <v>whatsapp</v>
       </c>
       <c r="B253" t="str">
-        <v>technology</v>
+        <v>estado da arte</v>
       </c>
       <c r="C253" t="str">
-        <v>education</v>
+        <v>tdic</v>
       </c>
       <c r="D253" t="str">
-        <v>deaf</v>
+        <v>ferramenta pedagogica</v>
       </c>
       <c r="E253" t="str">
-        <v/>
-      </c>
-      <c r="F253" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>temas contemporaneos em psicologia social: recursos audiovisuais no apoio a apreizagem</v>
+        <v>cenarios de apreizagem interativos</v>
       </c>
       <c r="B254" t="str">
-        <v>psicologia  social</v>
+        <v>cia</v>
       </c>
       <c r="C254" t="str">
-        <v>recursos  didaticos  audiovisuais</v>
+        <v>interacoes</v>
       </c>
       <c r="D254" t="str">
-        <v>video  educacional</v>
+        <v>entropia</v>
       </c>
       <c r="E254" t="str">
-        <v>educacao  a distancia</v>
-      </c>
-      <c r="F254" t="str">
-        <v/>
+        <v>aula virtual</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>temas emergentes, educacao do campo e rede basica de ensino</v>
+        <v>tdic</v>
       </c>
       <c r="B255" t="str">
-        <v xml:space="preserve"> ensino hibrido</v>
+        <v>ensino</v>
       </c>
       <c r="C255" t="str">
-        <v xml:space="preserve"> ensino-apreizagem</v>
+        <v>climatologia</v>
       </c>
       <c r="D255" t="str">
-        <v>escolas do campo</v>
+        <v/>
       </c>
       <c r="E255" t="str">
-        <v/>
-      </c>
-      <c r="F255" t="str">
         <v/>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>teste de usabilidade do portal educativo alem da biologia</v>
+        <v>gamificacao</v>
       </c>
       <c r="B256" t="str">
-        <v>portal educativo</v>
+        <v>ensino</v>
       </c>
       <c r="C256" t="str">
-        <v>teste  de usabilidade</v>
+        <v>eletricidade</v>
       </c>
       <c r="D256" t="str">
-        <v>ensino medio</v>
+        <v>palavrascruzadas</v>
       </c>
       <c r="E256" t="str">
-        <v/>
-      </c>
-      <c r="F256" t="str">
         <v/>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>thinking algoritmos: ouvio e prototipando</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B257" t="str">
-        <v xml:space="preserve"> design thinking</v>
+        <v>lingua inglesa</v>
       </c>
       <c r="C257" t="str">
-        <v>apreizagem</v>
+        <v>curso e3d</v>
       </c>
       <c r="D257" t="str">
-        <v>algoritmos</v>
+        <v>recursos multimodais</v>
       </c>
       <c r="E257" t="str">
-        <v xml:space="preserve"> no-code</v>
-      </c>
-      <c r="F257" t="str">
         <v/>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>uma abordagem pratica envolveo metodologias ativas de ensino aprendizagem e trabalhos colaborativos</v>
+        <v>ensino de botanica</v>
       </c>
       <c r="B258" t="str">
-        <v>apreizagem baseada em projetos</v>
+        <v>tic</v>
       </c>
       <c r="C258" t="str">
-        <v>scrum</v>
+        <v>botanica e tecnologia</v>
       </c>
       <c r="D258" t="str">
-        <v>multidisciplinalidade e tecnologias emergentes</v>
+        <v>morfologia vegetal</v>
       </c>
       <c r="E258" t="str">
-        <v/>
-      </c>
-      <c r="F258" t="str">
         <v/>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>um estado da arte sobre o whatsapp como ferramenta para o uso pedagogico</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B259" t="str">
-        <v>whatsapp</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C259" t="str">
-        <v>estado da arte</v>
+        <v>metodologia do ensino</v>
       </c>
       <c r="D259" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
       <c r="E259" t="str">
-        <v>ferramenta pedagogica</v>
-      </c>
-      <c r="F259" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>uma abordagem sistemica para interacoes na sala de aula virtual</v>
+        <v>plataformas   interativas</v>
       </c>
       <c r="B260" t="str">
-        <v xml:space="preserve"> cenarios de apreizagem interativos</v>
+        <v>tecnologias   digitais   da informacao   e   comunicacao</v>
       </c>
       <c r="C260" t="str">
-        <v>cia</v>
+        <v>edpuzzle</v>
       </c>
       <c r="D260" t="str">
-        <v>interacoes</v>
+        <v>mentimeter</v>
       </c>
       <c r="E260" t="str">
-        <v>entropia</v>
-      </c>
-      <c r="F260" t="str">
-        <v>aula virtual</v>
+        <v/>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>uso das tecnologias da informacao e comunicacao (tdic) como recursos pedagogicos para o ensino de climatologia: estudo de caso na regiao metropolitana de fortaleza/ce</v>
+        <v>enfermagem</v>
       </c>
       <c r="B261" t="str">
-        <v>tdic</v>
+        <v>covid19</v>
       </c>
       <c r="C261" t="str">
-        <v>ensino</v>
+        <v>tecnologia de informacao</v>
       </c>
       <c r="D261" t="str">
-        <v>climatologia</v>
+        <v/>
       </c>
       <c r="E261" t="str">
-        <v/>
-      </c>
-      <c r="F261" t="str">
         <v/>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>uso de palavras cruzadas no ensino de fisica na educacao basica</v>
+        <v>educacao  a  distancia</v>
       </c>
       <c r="B262" t="str">
-        <v>gamificacao</v>
+        <v>institucionalizacao  da  educacao  a  distancia</v>
       </c>
       <c r="C262" t="str">
-        <v>ensino</v>
+        <v>politicas institucionais de educacao a distancia</v>
       </c>
       <c r="D262" t="str">
-        <v>eletricidade</v>
+        <v>politicas publicas</v>
       </c>
       <c r="E262" t="str">
-        <v>palavras-cruzadas</v>
-      </c>
-      <c r="F262" t="str">
         <v/>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>uso de recursos multimodais na adaptacao de um curso de ingles para adolescentes na modalidade ead</v>
+        <v>avaliacao in loco virtual</v>
       </c>
       <c r="B263" t="str">
-        <v>ensino a distancia</v>
+        <v>sinaes</v>
       </c>
       <c r="C263" t="str">
-        <v>lingua inglesa</v>
+        <v>legislacao</v>
       </c>
       <c r="D263" t="str">
-        <v>curso e-3d</v>
+        <v>paemiada covid 19</v>
       </c>
       <c r="E263" t="str">
-        <v>recursos multimodais</v>
-      </c>
-      <c r="F263" t="str">
         <v/>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>uso de tecnologias da informacao e comunicacao (tic) e metodologias ativas para o ensino de morfologia vegetal no ensino medio</v>
+        <v>teoria critica</v>
       </c>
       <c r="B264" t="str">
-        <v xml:space="preserve"> ensino de botanica</v>
+        <v>neoliberalismo</v>
       </c>
       <c r="C264" t="str">
-        <v>tic</v>
+        <v>plataformizacao</v>
       </c>
       <c r="D264" t="str">
-        <v>botanica e tecnologia</v>
+        <v>educacao</v>
       </c>
       <c r="E264" t="str">
-        <v>morfologia vegetal</v>
-      </c>
-      <c r="F264" t="str">
         <v/>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>uso do padlet para discutir a semiotica de peirce: experiencia no estagio docente do mestrado em ensino e formacao de professores</v>
+        <v>gestao escolar</v>
       </c>
       <c r="B265" t="str">
-        <v>ensino de quimica</v>
+        <v>demaas sociais</v>
       </c>
       <c r="C265" t="str">
-        <v xml:space="preserve"> ensino remoto emergencial</v>
+        <v>tecnologias</v>
       </c>
       <c r="D265" t="str">
-        <v>metodologia do ensino</v>
+        <v>formacao integral</v>
       </c>
       <c r="E265" t="str">
-        <v/>
-      </c>
-      <c r="F265" t="str">
         <v/>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>utilizacao de plataformas interativas na educacao: uma proposta de solucao para interacao assincrona com obtencao de resultado global em tempo real</v>
+        <v>educacao  a  distancia</v>
       </c>
       <c r="B266" t="str">
-        <v>plataformas   interativas</v>
+        <v>regiao  centrooeste</v>
       </c>
       <c r="C266" t="str">
-        <v>tecnologias   digitais   da informacao   e   comunicacao</v>
+        <v>matriculasna  educacao  superior  a distancia</v>
       </c>
       <c r="D266" t="str">
-        <v>edpuzzle</v>
+        <v/>
       </c>
       <c r="E266" t="str">
-        <v>mentimeter</v>
-      </c>
-      <c r="F266" t="str">
         <v/>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>utilizacao das tecnologias da comunicacao e informacao durante o ensino remoto em uma instituicao federal de ensino: relato de experiencia</v>
+        <v>educacao adistancia</v>
       </c>
       <c r="B267" t="str">
-        <v>enfermagem</v>
+        <v>proformacao</v>
       </c>
       <c r="C267" t="str">
-        <v xml:space="preserve"> covid-19</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D267" t="str">
-        <v xml:space="preserve"> tecnologia de informacao</v>
+        <v>educacao basica</v>
       </c>
       <c r="E267" t="str">
-        <v/>
-      </c>
-      <c r="F267" t="str">
         <v/>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>a agea da educacao a distancia publica: desafios dos processos de formulacao de politicas institucionais para a modalidade no interior da rede federal de minas gerais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B268" t="str">
-        <v>educacao  a  distancia</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C268" t="str">
-        <v xml:space="preserve">institucionalizacao  da  educacao  a  distancia </v>
+        <v>iissociabilidade entre ensino</v>
       </c>
       <c r="D268" t="str">
-        <v>politicas institucionais de educacao a distancia</v>
+        <v>pesquisa e extensao</v>
       </c>
       <c r="E268" t="str">
-        <v>politicas publicas</v>
-      </c>
-      <c r="F268" t="str">
         <v/>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>a avaliacao externa in loco virtual: aprimoramento da avaliacao em tempos da covid-19</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="B269" t="str">
-        <v>avaliacao in loco virtual</v>
+        <v>design centrado no usuario</v>
       </c>
       <c r="C269" t="str">
-        <v>sinaes</v>
+        <v>servico de apoio pedagogico</v>
       </c>
       <c r="D269" t="str">
-        <v>legislacao</v>
+        <v/>
       </c>
       <c r="E269" t="str">
-        <v>paemiada covid 19</v>
-      </c>
-      <c r="F269" t="str">
         <v/>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>a educacao e a barbarie dos dados: reflexoes teorico-criticas sobre a plataformizacao do ensino no brasil</v>
+        <v>educacao presencial</v>
       </c>
       <c r="B270" t="str">
-        <v xml:space="preserve"> teoria critica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C270" t="str">
-        <v>neoliberalismo</v>
+        <v>desempenho</v>
       </c>
       <c r="D270" t="str">
-        <v>plataformizacao</v>
+        <v/>
       </c>
       <c r="E270" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="F270" t="str">
         <v/>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>a escola e as demaas sociais externas: aliando a gestao escolar, as tecnologias e a participacao ativa dos alunos</v>
+        <v>evasao na educacao superior</v>
       </c>
       <c r="B271" t="str">
-        <v>gestao escolar</v>
+        <v>paemia covid19</v>
       </c>
       <c r="C271" t="str">
-        <v>demaas sociais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D271" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E271" t="str">
-        <v xml:space="preserve"> formacao integral</v>
-      </c>
-      <c r="F271" t="str">
         <v/>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>a estruturacao das matriculas na educacao superior a distancia na regiao centro-oeste do brasil</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B272" t="str">
-        <v>educacao  a  distancia</v>
+        <v>ensino superior</v>
       </c>
       <c r="C272" t="str">
-        <v>regiao  centro-oeste</v>
+        <v>egressos</v>
       </c>
       <c r="D272" t="str">
-        <v>matriculasna  educacao  superior  a distancia</v>
+        <v>polo uab</v>
       </c>
       <c r="E272" t="str">
-        <v/>
-      </c>
-      <c r="F272" t="str">
         <v/>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>a formacao de professores, o proformacao e a educacao a distancia em 2000</v>
+        <v>biblioteca  digital</v>
       </c>
       <c r="B273" t="str">
-        <v>educacao adistancia</v>
+        <v>bibliografia  basica  e  complementar</v>
       </c>
       <c r="C273" t="str">
-        <v>proformacao</v>
+        <v>formacao  e desenvolvimento de acervo</v>
       </c>
       <c r="D273" t="str">
-        <v xml:space="preserve"> formacao de professores</v>
+        <v/>
       </c>
       <c r="E273" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F273" t="str">
         <v/>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>a iissociabilidade entre ensino, pesquisa e extensao e sua relacao com a institucionalizacao da ead nas universidades federais brasileiras</v>
+        <v>historico   da   educacao   a   distancia</v>
       </c>
       <c r="B274" t="str">
-        <v>educacao a distancia</v>
+        <v>institucionalizacao   da   ead</v>
       </c>
       <c r="C274" t="str">
-        <v>institucionalizacao</v>
+        <v>educacao profissional a distancia</v>
       </c>
       <c r="D274" t="str">
-        <v>iissociabilidade entre ensino</v>
+        <v/>
       </c>
       <c r="E274" t="str">
-        <v>pesquisa e extensao</v>
-      </c>
-      <c r="F274" t="str">
         <v/>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>ambientes virtuais de apreizagem na gestao de projetos pedagogicos integradores: o caso de lagoa do sino</v>
+        <v>capitalismo de vigilancia</v>
       </c>
       <c r="B275" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C275" t="str">
-        <v>design centrado no usuario</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D275" t="str">
-        <v>servico de apoio pedagogico</v>
+        <v/>
       </c>
       <c r="E275" t="str">
-        <v/>
-      </c>
-      <c r="F275" t="str">
         <v/>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>analise do desempenho de alunos da educacao a distancia e da educacao presencial: um estudo sobre o curso de pedagogia</v>
+        <v>paemia</v>
       </c>
       <c r="B276" t="str">
-        <v>educacao presencial</v>
+        <v>distanciamento social</v>
       </c>
       <c r="C276" t="str">
-        <v>educacao a distancia</v>
+        <v>gestao escolar</v>
       </c>
       <c r="D276" t="str">
-        <v>desempenho</v>
+        <v>tecnologias</v>
       </c>
       <c r="E276" t="str">
-        <v/>
-      </c>
-      <c r="F276" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>a percepcao de coordenadores de cursos de graduacao e de gestores institucionais sobre o impacto da paemia por covid 19 na evasao de alunos de graduacao na modalidade ead</v>
+        <v>educacao corporativa</v>
       </c>
       <c r="B277" t="str">
-        <v>evasao na educacao superior</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C277" t="str">
-        <v>paemia covid-19</v>
+        <v>marinha do brasil</v>
       </c>
       <c r="D277" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E277" t="str">
-        <v/>
-      </c>
-      <c r="F277" t="str">
         <v/>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>as praticas de trabalho de egressos/as da uab na ead, no polo uab/cameta na regiao tocantina (pa)</v>
+        <v>mercado de trabalho</v>
       </c>
       <c r="B278" t="str">
-        <v>educacao a distancia</v>
+        <v>pratica profissional</v>
       </c>
       <c r="C278" t="str">
-        <v>ensino superior</v>
+        <v>seguranca no trabalho</v>
       </c>
       <c r="D278" t="str">
-        <v>egressos</v>
+        <v>vocacao regional</v>
       </c>
       <c r="E278" t="str">
-        <v>polo uab</v>
-      </c>
-      <c r="F278" t="str">
         <v/>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>biblioteca digital: selecao e aquisicao da plataforma minha biblioteca na ufrpe</v>
+        <v>ensino basico</v>
       </c>
       <c r="B279" t="str">
-        <v>biblioteca  digital</v>
+        <v>ensino remotoemergencia</v>
       </c>
       <c r="C279" t="str">
-        <v>bibliografia  basica  e  complementar</v>
+        <v>covid19</v>
       </c>
       <c r="D279" t="str">
-        <v>formacao  e desenvolvimento de acervo</v>
+        <v>tic</v>
       </c>
       <c r="E279" t="str">
-        <v/>
-      </c>
-      <c r="F279" t="str">
         <v/>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>breve historico da educacao a distancia no brasil: do ensino por correspoencia aos movimentos em direcao a institucionalizacao da modalidade nas instituicoes publicas de ensino</v>
+        <v>formacao de profissionais da educacao</v>
       </c>
       <c r="B280" t="str">
-        <v>historico   da   educacao   a   distancia</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C280" t="str">
-        <v xml:space="preserve">institucionalizacao   da   ead </v>
+        <v>tdic</v>
       </c>
       <c r="D280" t="str">
-        <v>educacao profissional a distancia</v>
+        <v/>
       </c>
       <c r="E280" t="str">
-        <v/>
-      </c>
-      <c r="F280" t="str">
         <v/>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>capitalismo de vigilancia e as tecnologias digitais no ensino remoto emergencial</v>
+        <v>gestao educacional</v>
       </c>
       <c r="B281" t="str">
-        <v>capitalismo de vigilancia</v>
+        <v>ead</v>
       </c>
       <c r="C281" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao e tecnologia</v>
       </c>
       <c r="D281" t="str">
-        <v>ensino remoto</v>
+        <v>atuacao profissional</v>
       </c>
       <c r="E281" t="str">
-        <v/>
-      </c>
-      <c r="F281" t="str">
         <v/>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>desafios da gestao na escola publica na cultura digital: retratos da paemia</v>
+        <v>gestao democratica</v>
       </c>
       <c r="B282" t="str">
-        <v>paemia</v>
+        <v>eleicao para diretora</v>
       </c>
       <c r="C282" t="str">
-        <v xml:space="preserve"> distanciamento social</v>
+        <v>lei complementar n 1096</v>
       </c>
       <c r="D282" t="str">
-        <v>gestao escolar</v>
+        <v/>
       </c>
       <c r="E282" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="F282" t="str">
-        <v xml:space="preserve">ensino apreizagem </v>
+        <v/>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>educacao corporativa no ambiente militar: o uso do ensino a distancia como ferramenta para formacao continuada de marinheiros</v>
+        <v>gestao na educacao</v>
       </c>
       <c r="B283" t="str">
-        <v>educacao corporativa</v>
+        <v>planejamento estrategico</v>
       </c>
       <c r="C283" t="str">
-        <v>formacao continuada</v>
+        <v>instituicao de ensino</v>
       </c>
       <c r="D283" t="str">
-        <v>marinha do brasil</v>
+        <v/>
       </c>
       <c r="E283" t="str">
-        <v/>
-      </c>
-      <c r="F283" t="str">
         <v/>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>educacao profissional tecnica de nivel medio: desafios para os projetos pedagogicos de cursos hibridos em seguranca do trabalho</v>
+        <v>googledrive</v>
       </c>
       <c r="B284" t="str">
-        <v>mercado de trabalho</v>
+        <v>organizacao pedagogica</v>
       </c>
       <c r="C284" t="str">
-        <v>pratica profissional</v>
+        <v>educacao basica</v>
       </c>
       <c r="D284" t="str">
-        <v>seguranca no trabalho</v>
+        <v>sistema municipal publico de ensino</v>
       </c>
       <c r="E284" t="str">
-        <v>vocacao regional</v>
-      </c>
-      <c r="F284" t="str">
-        <v/>
+        <v>gestao educacional</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>ensino remoto emergencial e o acesso as tecnologias de informacao e comunicacao nos estados brasileiros</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B285" t="str">
-        <v xml:space="preserve"> ensino basico</v>
+        <v>educacao superior</v>
       </c>
       <c r="C285" t="str">
-        <v>ensino remotoemergencia</v>
+        <v>inclusao digital</v>
       </c>
       <c r="D285" t="str">
-        <v>covid-19</v>
+        <v/>
       </c>
       <c r="E285" t="str">
-        <v>tic</v>
-      </c>
-      <c r="F285" t="str">
         <v/>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>experiencias formativas do centro de formacao de profissionais da secretaria estadual de educacao do espirito santo com uso das tdic's</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B286" t="str">
-        <v>formacao de profissionais da educacao</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C286" t="str">
-        <v>formacao continuada</v>
+        <v>bibliometria</v>
       </c>
       <c r="D286" t="str">
-        <v>tdic</v>
+        <v>universidade aberta do brasil</v>
       </c>
       <c r="E286" t="str">
-        <v/>
-      </c>
-      <c r="F286" t="str">
         <v/>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>gestao da educacao a distancia: competencias necessarias e desafios existentes na atuacao profissional com educacao e tecnologias</v>
+        <v>educacao maker</v>
       </c>
       <c r="B287" t="str">
-        <v>gestao educacional</v>
+        <v>prototipagem</v>
       </c>
       <c r="C287" t="str">
-        <v>ead</v>
+        <v>ensino superior</v>
       </c>
       <c r="D287" t="str">
-        <v xml:space="preserve"> educacao e tecnologia</v>
+        <v/>
       </c>
       <c r="E287" t="str">
-        <v xml:space="preserve"> atuacao profissional</v>
-      </c>
-      <c r="F287" t="str">
         <v/>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>gestao democratica: importancia e influencia no processo de eleicao para direcao escolar do municipio de maringa</v>
+        <v>politica de assistencia estudantil</v>
       </c>
       <c r="B288" t="str">
-        <v>gestao democratica</v>
+        <v>direito a educacao</v>
       </c>
       <c r="C288" t="str">
-        <v xml:space="preserve"> eleicao para diretor(a)</v>
+        <v>modelo de formacao</v>
       </c>
       <c r="D288" t="str">
-        <v>lei complementar nº 1.096</v>
+        <v/>
       </c>
       <c r="E288" t="str">
-        <v/>
-      </c>
-      <c r="F288" t="str">
         <v/>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>gestao na educacao com aplicacao do planejamento estrategico</v>
+        <v>tecnologia</v>
       </c>
       <c r="B289" t="str">
-        <v>gestao na educacao</v>
+        <v>educacao</v>
       </c>
       <c r="C289" t="str">
-        <v xml:space="preserve"> planejamento estrategico</v>
+        <v>trabalho</v>
       </c>
       <c r="D289" t="str">
-        <v xml:space="preserve"> instituicao de ensino</v>
+        <v>napp academy</v>
       </c>
       <c r="E289" t="str">
-        <v/>
-      </c>
-      <c r="F289" t="str">
-        <v/>
+        <v>carencia</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>google drive: usos e contributos na qualificacao dos processos educativos</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="B290" t="str">
-        <v>googledrive</v>
+        <v>tecnologia de informacao e comunicacao</v>
       </c>
       <c r="C290" t="str">
-        <v>organizacao pedagogica</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D290" t="str">
-        <v xml:space="preserve">educacao basica </v>
+        <v>praticaspedagogicas</v>
       </c>
       <c r="E290" t="str">
-        <v>sistema municipal publico de ensino</v>
-      </c>
-      <c r="F290" t="str">
-        <v xml:space="preserve"> gestao educacional</v>
+        <v/>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>inclusao digital na ufsm: reflexoes sobre as acoes oportunizadas pela assistencia estudantil</v>
+        <v>permanencia</v>
       </c>
       <c r="B291" t="str">
-        <v>politicas publicas</v>
+        <v>ensino superior</v>
       </c>
       <c r="C291" t="str">
-        <v xml:space="preserve"> educacao superior</v>
+        <v>tecnologia</v>
       </c>
       <c r="D291" t="str">
-        <v>inclusao digital</v>
+        <v>gestao</v>
       </c>
       <c r="E291" t="str">
-        <v/>
-      </c>
-      <c r="F291" t="str">
         <v/>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>institucionalizacao da educacao a distancia como objeto de pesquisa: uma analise a partir de teses em educacao</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B292" t="str">
-        <v xml:space="preserve">educacao a distancia </v>
+        <v>educacao superior</v>
       </c>
       <c r="C292" t="str">
-        <v>institucionalizacao</v>
+        <v>gestao de processo</v>
       </c>
       <c r="D292" t="str">
-        <v>bibliometria</v>
+        <v>inclusao digital</v>
       </c>
       <c r="E292" t="str">
-        <v>universidade aberta do brasil</v>
-      </c>
-      <c r="F292" t="str">
         <v/>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>lab ifmaker: concepcoes institucionais de uma politica publica a ser implementada na rede federal de educacao profissional e tecnologica</v>
+        <v>aluno com deficiencia</v>
       </c>
       <c r="B293" t="str">
-        <v>educacao maker</v>
+        <v>ensino superior</v>
       </c>
       <c r="C293" t="str">
-        <v>prototipagem</v>
+        <v>inclusao</v>
       </c>
       <c r="D293" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E293" t="str">
-        <v/>
-      </c>
-      <c r="F293" t="str">
         <v/>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>modelo de formacao (modfor): uma proposta de acao para a politica de assistencia estudantil do instituto federal de educacao, ciencia e tecnologia de sao paulo</v>
+        <v>educacao  a  distancia</v>
       </c>
       <c r="B294" t="str">
-        <v xml:space="preserve"> politica de assistencia estudantil</v>
+        <v>estrategia  de  retencao  educacional</v>
       </c>
       <c r="C294" t="str">
-        <v>direito a educacao</v>
+        <v>evasao  no  ensino superior</v>
       </c>
       <c r="D294" t="str">
-        <v>modelo de formacao</v>
+        <v>fatores criticos de sucesso</v>
       </c>
       <c r="E294" t="str">
-        <v/>
-      </c>
-      <c r="F294" t="str">
         <v/>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>napp academy: programa de incentivo a educacao tecnologica – um estudo de caso</v>
+        <v>novo ensino medio</v>
       </c>
       <c r="B295" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias</v>
       </c>
       <c r="C295" t="str">
-        <v>educacao</v>
+        <v>profissao docente</v>
       </c>
       <c r="D295" t="str">
-        <v>trabalho</v>
+        <v/>
       </c>
       <c r="E295" t="str">
-        <v>napp academy</v>
-      </c>
-      <c r="F295" t="str">
-        <v>carencia</v>
+        <v/>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>o ensino remoto emergencial na educacao profissional e tecnologica: o caso do if sudeste mg</v>
+        <v>educacao   a   distancia</v>
       </c>
       <c r="B296" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>institucionalizacao   da   ead</v>
       </c>
       <c r="C296" t="str">
-        <v>tecnologia de informacao e comunicacao</v>
+        <v>rede   federal   de   educacao profissional e tecnologica</v>
       </c>
       <c r="D296" t="str">
-        <v>ensino hibrido</v>
+        <v>conif</v>
       </c>
       <c r="E296" t="str">
-        <v>praticas-pedagogicas</v>
-      </c>
-      <c r="F296" t="str">
         <v/>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>o modelo da comunidade de inquiricao como apoio na permanencia academica em cursos superiores mediados por tecnologia</v>
+        <v>sistema publico municipal</v>
       </c>
       <c r="B297" t="str">
-        <v>permanencia</v>
+        <v>tdic</v>
       </c>
       <c r="C297" t="str">
-        <v>ensino superior</v>
+        <v>equidade</v>
       </c>
       <c r="D297" t="str">
-        <v>tecnologia</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="E297" t="str">
-        <v>gestao</v>
-      </c>
-      <c r="F297" t="str">
         <v/>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>o processo eletronico nacional e sua potencialidade para as acoes da assistencia estudantil na ufsm</v>
+        <v>tecnologia e educacao</v>
       </c>
       <c r="B298" t="str">
-        <v>politicas publicas</v>
+        <v>legislacao educacional</v>
       </c>
       <c r="C298" t="str">
-        <v>educacao superior</v>
+        <v>tecnologias digitais no ensino</v>
       </c>
       <c r="D298" t="str">
-        <v>gestao de processo</v>
+        <v/>
       </c>
       <c r="E298" t="str">
-        <v xml:space="preserve"> inclusao digital</v>
-      </c>
-      <c r="F298" t="str">
         <v/>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>perfil dos alunos com deficiencia ingressantes nos cursos de graduacao em uma instituicao de ensino superior e sua trajetoria academica: uma analise de dados</v>
+        <v>plano  de  intervencao</v>
       </c>
       <c r="B299" t="str">
-        <v>aluno com deficiencia;</v>
+        <v>base  nacional  comum  curricular  e  parametros curriculares nacionais</v>
       </c>
       <c r="C299" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
       </c>
       <c r="D299" t="str">
-        <v>inclusao</v>
+        <v>ensino medio</v>
       </c>
       <c r="E299" t="str">
-        <v/>
-      </c>
-      <c r="F299" t="str">
-        <v/>
+        <v>gestao educacional integrada</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>permanencia e evasao na educacao a distancia: identificacao de fatores criticos de sucesso</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B300" t="str">
-        <v>educacao  a  distancia</v>
+        <v>retorno presencial</v>
       </c>
       <c r="C300" t="str">
-        <v xml:space="preserve"> estrategia  de  retencao  educacional</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D300" t="str">
-        <v>evasao  no  ensino superior</v>
+        <v/>
       </c>
       <c r="E300" t="str">
-        <v>fatores criticos de sucesso</v>
-      </c>
-      <c r="F300" t="str">
         <v/>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>reflexoes sobre a disciplina de tecnologia e inovacao no novo ensino medio: o que aponta os documentos oficiais em minas gerais?</v>
+        <v>educacao</v>
       </c>
       <c r="B301" t="str">
-        <v xml:space="preserve"> novo ensino medio</v>
+        <v>tecnologia</v>
       </c>
       <c r="C301" t="str">
-        <v>tecnologias</v>
+        <v>pensamento critico</v>
       </c>
       <c r="D301" t="str">
-        <v>profissao docente</v>
+        <v>revisao narrativa</v>
       </c>
       <c r="E301" t="str">
-        <v/>
-      </c>
-      <c r="F301" t="str">
-        <v/>
+        <v>neil selwyn</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>retrato da institucionalizacao da ead na rede ept - 2021</v>
+        <v>algebra nos anos iniciais</v>
       </c>
       <c r="B302" t="str">
-        <v>educacao   a   distancia</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C302" t="str">
-        <v xml:space="preserve"> institucionalizacao   da   ead</v>
+        <v>tics</v>
       </c>
       <c r="D302" t="str">
-        <v>rede   federal   de   educacao profissional e tecnologica</v>
+        <v/>
       </c>
       <c r="E302" t="str">
-        <v>conif</v>
-      </c>
-      <c r="F302" t="str">
         <v/>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>sistema publico municipal e tdic: a falta de equidade na educacao revelada em tempo paemico</v>
+        <v>formacao inicial de professores</v>
       </c>
       <c r="B303" t="str">
-        <v>sistema publico municipal;</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="C303" t="str">
-        <v>tdic</v>
+        <v>tecnologiaseducacionais</v>
       </c>
       <c r="D303" t="str">
-        <v>equidade</v>
+        <v/>
       </c>
       <c r="E303" t="str">
-        <v>politicas educacionais</v>
-      </c>
-      <c r="F303" t="str">
         <v/>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>tecnologias digitais na rotina escolar e as diretrizes do estado: entre convergencias e divergencias</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B304" t="str">
-        <v xml:space="preserve"> tecnologia e educacao</v>
+        <v>feedback</v>
       </c>
       <c r="C304" t="str">
-        <v>legislacao educacional</v>
+        <v>regulacao</v>
       </c>
       <c r="D304" t="str">
-        <v>tecnologias digitais no ensino</v>
+        <v>autorregulacao</v>
       </c>
       <c r="E304" t="str">
-        <v/>
-      </c>
-      <c r="F304" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>uma proposta sob a optica da gestao educacional para a superacao de lacunas de apreizagem de ingressantes no ensino medio mediada por tecnologias digitais de informacao e comunicacao</v>
+        <v>ensino de fisicaciencias</v>
       </c>
       <c r="B305" t="str">
-        <v>plano  de  intervencao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C305" t="str">
-        <v>base  nacional  comum  curricular  e  parametros curriculares nacionais</v>
+        <v>paemia</v>
       </c>
       <c r="D305" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="E305" t="str">
-        <v>ensino medio</v>
-      </c>
-      <c r="F305" t="str">
-        <v xml:space="preserve"> gestao educacional integrada</v>
+        <v/>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>utilizacao das tecnologias digitais por professores no pos-paemia: experiencia de uma rede de ensino municipal</v>
+        <v>processo de ensino e apreizagem</v>
       </c>
       <c r="B306" t="str">
-        <v xml:space="preserve"> ensino remoto emergencial</v>
+        <v>cultura digital</v>
       </c>
       <c r="C306" t="str">
-        <v>retorno presencial</v>
+        <v>educacao superior</v>
       </c>
       <c r="D306" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologia</v>
       </c>
       <c r="E306" t="str">
-        <v/>
-      </c>
-      <c r="F306" t="str">
         <v/>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>abordagem teorica e critica em educacao e tecnologia: uma revisao narrativa em desenvolvimento</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B307" t="str">
-        <v>educacao</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="C307" t="str">
-        <v>tecnologia</v>
+        <v>politicas publicas</v>
       </c>
       <c r="D307" t="str">
-        <v xml:space="preserve"> pensamento critico</v>
+        <v>educacao basica</v>
       </c>
       <c r="E307" t="str">
-        <v>revisao narrativa</v>
-      </c>
-      <c r="F307" t="str">
-        <v>neil selwyn</v>
+        <v/>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>acoes mediadoras de desenvolvimento do pensamento teorico em uma formacao continuada remota e sincrona de professores do ensino fuamental i</v>
+        <v>transdisciplinaridade</v>
       </c>
       <c r="B308" t="str">
-        <v>algebra nos anos iniciais</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C308" t="str">
-        <v>formacao continuada de professores;</v>
+        <v>multidisciplinaridade</v>
       </c>
       <c r="D308" t="str">
-        <v>tics</v>
+        <v>transversalidade</v>
       </c>
       <c r="E308" t="str">
-        <v/>
-      </c>
-      <c r="F308" t="str">
-        <v/>
+        <v>ensino basico</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>a formacao inicial do professor de fisica e o uso das tecnologias educacionais: o que apontam os trabalhos publicados nos eventos da area</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B309" t="str">
-        <v>formacao inicial de professores</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C309" t="str">
-        <v xml:space="preserve"> ensino de fisica</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D309" t="str">
-        <v xml:space="preserve"> tecnologiaseducacionais</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="E309" t="str">
-        <v/>
-      </c>
-      <c r="F309" t="str">
         <v/>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>avaliacao formativa na educacao a distancia: um modelo conceitual baseado no tripe feedback, regulacao e autoregulacao</v>
+        <v>paemia</v>
       </c>
       <c r="B310" t="str">
-        <v>avaliacao formativa</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C310" t="str">
-        <v>feedback</v>
+        <v>educacao remota</v>
       </c>
       <c r="D310" t="str">
-        <v>regulacao</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="E310" t="str">
-        <v>autorregulacao</v>
-      </c>
-      <c r="F310" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>caracterizacao de pesquisas sobre ensino remoto durante a paemia de covid 19: desafios e possibilidades docentes para o ensino de fisica</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B311" t="str">
-        <v xml:space="preserve"> ensino de fisica/ciencias</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C311" t="str">
-        <v>ensino remoto</v>
+        <v>brasil</v>
       </c>
       <c r="D311" t="str">
-        <v>paemia</v>
+        <v>portugal</v>
       </c>
       <c r="E311" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="F311" t="str">
         <v/>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>contribuicoes das metodologias ativas para o ensino superior: revisitao a sala de aula invertida e aprendizagem colaborativa por projetos</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B312" t="str">
-        <v>processo de ensino e apreizagem</v>
+        <v>metodologias</v>
       </c>
       <c r="C312" t="str">
-        <v>cultura digital</v>
+        <v>tecnologias</v>
       </c>
       <c r="D312" t="str">
-        <v>educacao superior</v>
+        <v/>
       </c>
       <c r="E312" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="F312" t="str">
         <v/>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>educacao conectada e inovacao mediada por tecnologias educacionais</v>
+        <v>sociologia da ciencia</v>
       </c>
       <c r="B313" t="str">
-        <v>tecnologia educacional</v>
+        <v>cientometria</v>
       </c>
       <c r="C313" t="str">
-        <v>inovacao educacional</v>
+        <v>educacao</v>
       </c>
       <c r="D313" t="str">
-        <v>politicas publicas</v>
+        <v>formacao de professores</v>
       </c>
       <c r="E313" t="str">
-        <v>educacao basica</v>
-      </c>
-      <c r="F313" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>educacao e tecnologias com interdisciplinaridade, multidisciplinaridade, transdisciplinaridade e a transversalidade em acao</v>
+        <v>identidade docente</v>
       </c>
       <c r="B314" t="str">
-        <v>transdisciplinaridade</v>
+        <v>formacao docente</v>
       </c>
       <c r="C314" t="str">
-        <v>interdisciplinaridade</v>
+        <v>licenciatura  em  educacao  a distancia</v>
       </c>
       <c r="D314" t="str">
-        <v>multidisciplinaridade</v>
+        <v/>
       </c>
       <c r="E314" t="str">
-        <v>transversalidade</v>
-      </c>
-      <c r="F314" t="str">
-        <v>ensino basico</v>
+        <v/>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>educacao hibrida: desafios e experiencia em uma instituicao de ensino superior</v>
+        <v>anais do eneq</v>
       </c>
       <c r="B315" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao quimica</v>
       </c>
       <c r="C315" t="str">
-        <v>metodologias ativas</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D315" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E315" t="str">
-        <v>ensino-apreizagem</v>
-      </c>
-      <c r="F315" t="str">
         <v/>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>educacao hibrida: apenas uma transicao do ensino remoto para o ensino presencial?</v>
+        <v>ensino superior</v>
       </c>
       <c r="B316" t="str">
-        <v>paemia</v>
+        <v>ensino superior</v>
       </c>
       <c r="C316" t="str">
-        <v>educacao hibrida</v>
+        <v>bleed learning</v>
       </c>
       <c r="D316" t="str">
-        <v>educacao remota</v>
+        <v>bleed learning</v>
       </c>
       <c r="E316" t="str">
-        <v>tecnologias na educacao</v>
-      </c>
-      <c r="F316" t="str">
         <v/>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>educacao hibrida como teencia historica: analise das realidades brasileira e portuguesa</v>
+        <v>paulo freir</v>
       </c>
       <c r="B317" t="str">
-        <v>educacao hibrida</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C317" t="str">
-        <v>educacao a distancia</v>
+        <v>tdic</v>
       </c>
       <c r="D317" t="str">
-        <v>brasil</v>
+        <v>educacao a distanci</v>
       </c>
       <c r="E317" t="str">
-        <v>portugal</v>
-      </c>
-      <c r="F317" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>ensino hibrido: uma analise de artigos produzidos no periodo de 2019-2021</v>
+        <v>conhecimento</v>
       </c>
       <c r="B318" t="str">
-        <v xml:space="preserve"> ensino hibrido</v>
+        <v>metodologia</v>
       </c>
       <c r="C318" t="str">
-        <v>metodologias</v>
+        <v>pesquisa</v>
       </c>
       <c r="D318" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E318" t="str">
-        <v/>
-      </c>
-      <c r="F318" t="str">
         <v/>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>formacao de professores e tecnologias digitais de informacao e comunicacao: medicoes de capital cientifico na hierarquia social dos objetos</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="B319" t="str">
-        <v>sociologia da ciencia</v>
+        <v>pesquisador</v>
       </c>
       <c r="C319" t="str">
-        <v>cientometria</v>
+        <v>stricto sensu</v>
       </c>
       <c r="D319" t="str">
-        <v>educacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E319" t="str">
-        <v>formacao de professores</v>
-      </c>
-      <c r="F319" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>formacao docente na modalidade educacao a distancia (ead): motivacoes e dificuldades</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B320" t="str">
-        <v>identidade docente</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C320" t="str">
-        <v>formacao docente</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D320" t="str">
-        <v xml:space="preserve"> licenciatura  em  educacao  a distancia</v>
+        <v/>
       </c>
       <c r="E320" t="str">
-        <v/>
-      </c>
-      <c r="F320" t="str">
         <v/>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>incidencia da utilizacao das tecnologias na educacao quimica: discussoes com base nos anais do eneq (2014-2020)</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B321" t="str">
-        <v>anais do eneq</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C321" t="str">
-        <v xml:space="preserve"> educacao quimica</v>
+        <v>ensino    superior</v>
       </c>
       <c r="D321" t="str">
-        <v>tecnologias digitais</v>
+        <v>transformacao    digital</v>
       </c>
       <c r="E321" t="str">
-        <v/>
-      </c>
-      <c r="F321" t="str">
-        <v/>
+        <v>subjetividade</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>mesclar, combinar, inovar: revisao sistematica de literatura sobre hibridizacao no ensinosuperiora partir de publicacoes iexadas na base de dados scielo(2017-2021)</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B322" t="str">
-        <v>ensino superior</v>
+        <v>tecnologia</v>
       </c>
       <c r="C322" t="str">
-        <v>ensino superior</v>
+        <v>ctsctsa</v>
       </c>
       <c r="D322" t="str">
-        <v xml:space="preserve"> bleed learning</v>
+        <v/>
       </c>
       <c r="E322" t="str">
-        <v xml:space="preserve"> bleed learning</v>
-      </c>
-      <c r="F322" t="str">
         <v/>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>paulo freire e tecnologias digitais: revisao sistematica de literatura no portal de periodicos da capes (1995-2022)</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B323" t="str">
-        <v>paulo freir</v>
+        <v>tdic</v>
       </c>
       <c r="C323" t="str">
-        <v xml:space="preserve"> tecnologias digitais</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="D323" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
       <c r="E323" t="str">
-        <v xml:space="preserve"> educacao a distanci</v>
-      </c>
-      <c r="F323" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>pesquisa em movimento espiral: questionao os modos de produzir conhecimento</v>
+        <v>defensoria publica do estado tocantins</v>
       </c>
       <c r="B324" t="str">
-        <v>conhecimento</v>
+        <v>youtube</v>
       </c>
       <c r="C324" t="str">
-        <v>metodologia</v>
+        <v>capacitacao</v>
       </c>
       <c r="D324" t="str">
-        <v>pesquisa</v>
+        <v/>
       </c>
       <c r="E324" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F324" t="str">
         <v/>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>politica educacional stricto sensu a distancia: apontamentos iniciais e a formacao do pesquisador</v>
+        <v>arquivo pessoal</v>
       </c>
       <c r="B325" t="str">
-        <v>politicas educacionais</v>
+        <v>arquivo epistolar</v>
       </c>
       <c r="C325" t="str">
-        <v>pesquisador</v>
+        <v>acervo literario</v>
       </c>
       <c r="D325" t="str">
-        <v>stricto sensu</v>
+        <v/>
       </c>
       <c r="E325" t="str">
-        <v>educacao a distancia</v>
-      </c>
-      <c r="F325" t="str">
         <v/>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>possibilidade de oferecimento de carga horaria ead em cursos presenciais, como alternativa para o desenvolvimento do ensino hibrido no ensino superior</v>
+        <v>radio</v>
       </c>
       <c r="B326" t="str">
-        <v>ensino hibrido</v>
+        <v>musica</v>
       </c>
       <c r="C326" t="str">
-        <v>metodologias ativas</v>
+        <v>educacao e midiana paemia</v>
       </c>
       <c r="D326" t="str">
-        <v>metodologias ativas</v>
+        <v/>
       </c>
       <c r="E326" t="str">
-        <v/>
-      </c>
-      <c r="F326" t="str">
         <v/>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>professores e estudantes no contexto digital: um estudo das experiencias subjetivas</v>
+        <v>linguagem cinematografica</v>
       </c>
       <c r="B327" t="str">
-        <v>ensino remoto</v>
+        <v>ludicidade</v>
       </c>
       <c r="C327" t="str">
-        <v>ensino hibrido</v>
+        <v>biologia</v>
       </c>
       <c r="D327" t="str">
-        <v xml:space="preserve"> ensino    superior</v>
+        <v/>
       </c>
       <c r="E327" t="str">
-        <v>transformacao    digital</v>
-      </c>
-      <c r="F327" t="str">
-        <v>subjetividade</v>
+        <v/>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>sentidos de tecnologia em artigos sob abordagem cts/ctsa</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B328" t="str">
-        <v xml:space="preserve"> ensino de ciencias</v>
+        <v>museus virtuais</v>
       </c>
       <c r="C328" t="str">
-        <v>tecnologia</v>
+        <v>tdcis</v>
       </c>
       <c r="D328" t="str">
-        <v>cts/ctsa</v>
+        <v>ensino apreizagem</v>
       </c>
       <c r="E328" t="str">
-        <v/>
-      </c>
-      <c r="F328" t="str">
         <v/>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>tecnologias digitais de informacao e comunicacao aplicadas ao ensino</v>
+        <v>oficina</v>
       </c>
       <c r="B329" t="str">
-        <v xml:space="preserve"> educacao a distancia</v>
+        <v>partilha do sensivel</v>
       </c>
       <c r="C329" t="str">
-        <v>tdic</v>
+        <v>escrita criativa</v>
       </c>
       <c r="D329" t="str">
-        <v>tecnologias na educacao</v>
+        <v>fotografia</v>
       </c>
       <c r="E329" t="str">
-        <v/>
-      </c>
-      <c r="F329" t="str">
-        <v/>
+        <v>apropriacao</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>youtube como forma de potencializar as capacitacoes de membros e servidores na defensoria publica do estado do tocantins</v>
+        <v>arte musical</v>
       </c>
       <c r="B330" t="str">
-        <v>defensoria publica do estado tocantins</v>
+        <v>cultura e saberes</v>
       </c>
       <c r="C330" t="str">
-        <v>youtube</v>
+        <v>infancia</v>
       </c>
       <c r="D330" t="str">
-        <v>capacitacao</v>
+        <v/>
       </c>
       <c r="E330" t="str">
-        <v/>
-      </c>
-      <c r="F330" t="str">
         <v/>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>afeto no fazer literario: os mineiros paulo mees campos, fernando sabino, helio pellegrino e otto lara resende em registros memorialisticos</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B331" t="str">
-        <v>arquivo pessoal</v>
+        <v>design para experiencia</v>
       </c>
       <c r="C331" t="str">
-        <v>arquivo epistolar</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="D331" t="str">
-        <v>acervo literario</v>
+        <v>docencia</v>
       </c>
       <c r="E331" t="str">
-        <v/>
-      </c>
-      <c r="F331" t="str">
         <v/>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>letra e musica</v>
+        <v>acessibilidade digital</v>
       </c>
       <c r="B332" t="str">
-        <v>radio</v>
+        <v>inclusao</v>
       </c>
       <c r="C332" t="str">
-        <v>musica</v>
+        <v>surdo</v>
       </c>
       <c r="D332" t="str">
-        <v>educacao e midiana paemia</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="E332" t="str">
-        <v/>
-      </c>
-      <c r="F332" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>luz, camera e cinema com ciencia</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="B333" t="str">
-        <v>linguagem cinematografica</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C333" t="str">
-        <v>ludicidade</v>
+        <v>ere</v>
       </c>
       <c r="D333" t="str">
-        <v>biologia</v>
+        <v>napnee</v>
       </c>
       <c r="E333" t="str">
-        <v/>
-      </c>
-      <c r="F333" t="str">
         <v/>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>museu virtual: pratica docente e as potencialidades do uso de tecnologias digitais para o desenvolvimento de competencias e habilidades relacionadas a base nacional comum curricular (bncc)</v>
+        <v>inclusao</v>
       </c>
       <c r="B334" t="str">
-        <v>tecnologias digitais</v>
+        <v>autismo</v>
       </c>
       <c r="C334" t="str">
-        <v xml:space="preserve"> museus virtuais</v>
+        <v>teacch</v>
       </c>
       <c r="D334" t="str">
-        <v>tdcis</v>
+        <v>abcautismo</v>
       </c>
       <c r="E334" t="str">
-        <v xml:space="preserve"> ensino apreizagem</v>
-      </c>
-      <c r="F334" t="str">
         <v/>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>oficinas de criacao no formato online durante o isolamento social: (re)encontros com o sensivel</v>
+        <v>apreizagem</v>
       </c>
       <c r="B335" t="str">
-        <v>oficina</v>
+        <v>deficiencia</v>
       </c>
       <c r="C335" t="str">
-        <v xml:space="preserve"> partilha do sensivel</v>
+        <v>educacao superior</v>
       </c>
       <c r="D335" t="str">
-        <v>escrita criativa</v>
+        <v>inclusao</v>
       </c>
       <c r="E335" t="str">
-        <v>fotografia</v>
-      </c>
-      <c r="F335" t="str">
-        <v>apropriacao</v>
+        <v/>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>recursos visuais e interface entre musica e demais artes, o que a crianca tem a dizer sobre o assunto?</v>
+        <v>tdic</v>
       </c>
       <c r="B336" t="str">
-        <v xml:space="preserve"> arte musical</v>
+        <v>educacao especia</v>
       </c>
       <c r="C336" t="str">
-        <v>cultura e saberes</v>
+        <v>linguagem escrita</v>
       </c>
       <c r="D336" t="str">
-        <v>infancia</v>
+        <v/>
       </c>
       <c r="E336" t="str">
-        <v/>
-      </c>
-      <c r="F336" t="str">
         <v/>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>acessibilidade da informacao em conteudos educacionais nas experiencias de apreizagem – ruidos e recomendacoes</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B337" t="str">
-        <v>acessibilidade</v>
+        <v>inclusaode alunos com deficiencia</v>
       </c>
       <c r="C337" t="str">
-        <v xml:space="preserve"> design para experiencia</v>
+        <v>ensino superior</v>
       </c>
       <c r="D337" t="str">
-        <v xml:space="preserve"> pessoa com deficiencia</v>
+        <v/>
       </c>
       <c r="E337" t="str">
-        <v>docencia</v>
-      </c>
-      <c r="F337" t="str">
         <v/>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>acessibilidade digital e interacao para a inclusao de aluno surdo na educacao a distancia</v>
+        <v>deficiencia intelectual</v>
       </c>
       <c r="B338" t="str">
-        <v>acessibilidade digital.</v>
+        <v>guia digital</v>
       </c>
       <c r="C338" t="str">
-        <v xml:space="preserve">inclusao </v>
+        <v>avaliacao</v>
       </c>
       <c r="D338" t="str">
-        <v>surdo</v>
+        <v/>
       </c>
       <c r="E338" t="str">
-        <v>pessoa com deficiencia</v>
-      </c>
-      <c r="F338" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>a educacao inclusiva mediada por tecnologias digitais durante o ensino remoto emergencial</v>
+        <v>alunos   com   deficiencias</v>
       </c>
       <c r="B339" t="str">
-        <v xml:space="preserve"> educacao inclusiva</v>
+        <v>apreizagem</v>
       </c>
       <c r="C339" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao   inclusiva</v>
       </c>
       <c r="D339" t="str">
-        <v>ere</v>
+        <v>metodologia</v>
       </c>
       <c r="E339" t="str">
-        <v>napnee</v>
-      </c>
-      <c r="F339" t="str">
         <v/>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>a inclusao da crianca autista em processo de alfabetizacao: possibilidades de um aplicativo baseado no modelo teacch</v>
+        <v>movimento devia</v>
       </c>
       <c r="B340" t="str">
-        <v>inclusao</v>
+        <v>arte surda</v>
       </c>
       <c r="C340" t="str">
-        <v>autismo</v>
+        <v>extensaoead</v>
       </c>
       <c r="D340" t="str">
-        <v>teacch</v>
+        <v>moocs acessiveis em libras</v>
       </c>
       <c r="E340" t="str">
-        <v>abcautismo</v>
-      </c>
-      <c r="F340" t="str">
-        <v/>
+        <v>lingua brasileira de sinais</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>a jornada de matheus – conviveo com o autismo na universidade</v>
+        <v>material digital acessivel</v>
       </c>
       <c r="B341" t="str">
-        <v>apreizagem</v>
+        <v>educacao digital inclusiva</v>
       </c>
       <c r="C341" t="str">
-        <v>deficiencia</v>
+        <v>inclusao no ensino superior</v>
       </c>
       <c r="D341" t="str">
-        <v xml:space="preserve"> educacao superior</v>
+        <v/>
       </c>
       <c r="E341" t="str">
-        <v>inclusao</v>
-      </c>
-      <c r="F341" t="str">
         <v/>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>as tdic na educacao especial como mediador do desenvolvimento sociocultural de alunos com deficiencia intelectual</v>
+        <v>educacao especial</v>
       </c>
       <c r="B342" t="str">
-        <v>tdic</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C342" t="str">
-        <v>. educacao especia</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D342" t="str">
-        <v>linguagem escrita</v>
+        <v/>
       </c>
       <c r="E342" t="str">
-        <v/>
-      </c>
-      <c r="F342" t="str">
         <v/>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>avaliacao da acessibilidade dos sitios eletronicos de instituicoes de ensino superior</v>
+        <v>educacao</v>
       </c>
       <c r="B343" t="str">
-        <v>acessibilidade</v>
+        <v>inclusao</v>
       </c>
       <c r="C343" t="str">
-        <v xml:space="preserve"> inclusaode alunos com deficiencia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D343" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E343" t="str">
-        <v/>
-      </c>
-      <c r="F343" t="str">
         <v/>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>avaliacao de estudantes com deficiencia intelectual: a proposta de um guia educacional digital para orientacoes de professores</v>
+        <v>autismo</v>
       </c>
       <c r="B344" t="str">
-        <v xml:space="preserve">  deficiencia intelectual</v>
+        <v>modelo social de deficiencia</v>
       </c>
       <c r="C344" t="str">
-        <v xml:space="preserve"> guia digital</v>
+        <v>interatividade na educacao</v>
       </c>
       <c r="D344" t="str">
-        <v>avaliacao</v>
+        <v/>
       </c>
       <c r="E344" t="str">
-        <v/>
-      </c>
-      <c r="F344" t="str">
         <v/>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>desenho universal aplicado a apreizagem e a escolarizacao de alunos com deficiencias</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B345" t="str">
-        <v>alunos   com   deficiencias</v>
+        <v>educacao especial</v>
       </c>
       <c r="C345" t="str">
-        <v>apreizagem</v>
+        <v>inclusao</v>
       </c>
       <c r="D345" t="str">
-        <v>educacao   inclusiva</v>
+        <v>covid19</v>
       </c>
       <c r="E345" t="str">
-        <v>metodologia</v>
-      </c>
-      <c r="F345" t="str">
         <v/>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>educacao de surdos em tempos de paemia: possibilidades metodologicas para a construcao de mooc’s acessiveis em libras.</v>
+        <v>tecnologias   digitais   da   informacao e   da   comunicacao</v>
       </c>
       <c r="B346" t="str">
-        <v>movimento de’via</v>
+        <v>tdics</v>
       </c>
       <c r="C346" t="str">
-        <v>arte surda</v>
+        <v>acessibilidade</v>
       </c>
       <c r="D346" t="str">
-        <v>extensaoead</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E346" t="str">
-        <v>mooc’s acessiveis em libras</v>
-      </c>
-      <c r="F346" t="str">
-        <v>lingua brasileira de sinais</v>
+        <v/>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>estrategias e praticas para producao de materiais digitais acessiveis</v>
+        <v>ensino de libras</v>
       </c>
       <c r="B347" t="str">
-        <v xml:space="preserve"> material digital acessivel</v>
+        <v>objetos digitais de apreizagem</v>
       </c>
       <c r="C347" t="str">
-        <v>educacao digital inclusiva</v>
+        <v>professores em formacao</v>
       </c>
       <c r="D347" t="str">
-        <v>inclusao no ensino superior</v>
+        <v/>
       </c>
       <c r="E347" t="str">
-        <v/>
-      </c>
-      <c r="F347" t="str">
         <v/>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>formacao online sobre tecnologia assistiva direcionada a inclusao escolar: parcerias entre a universidade e redes municipais de educacao</v>
+        <v>sinalario</v>
       </c>
       <c r="B348" t="str">
-        <v>educacao especial</v>
+        <v>libras</v>
       </c>
       <c r="C348" t="str">
-        <v>formacao de professores</v>
+        <v>robotica</v>
       </c>
       <c r="D348" t="str">
-        <v>tecnologia assistiva</v>
+        <v>inclusao</v>
       </c>
       <c r="E348" t="str">
-        <v/>
-      </c>
-      <c r="F348" t="str">
         <v/>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>implementacao do ensino hibrido e da sala de aula invertida sob a perspectiva da formacao de alunos com deficiencia</v>
+        <v>historia em quadrinho</v>
       </c>
       <c r="B349" t="str">
-        <v>educacao</v>
+        <v>reglete</v>
       </c>
       <c r="C349" t="str">
-        <v>inclusao</v>
+        <v>braille</v>
       </c>
       <c r="D349" t="str">
-        <v>ensino hibrido.</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="E349" t="str">
-        <v/>
-      </c>
-      <c r="F349" t="str">
-        <v/>
+        <v>modelo atomico</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>interatividade e sua contribuicao no contexto de escolarizacao de estudantes autistas</v>
+        <v>ensino superior</v>
       </c>
       <c r="B350" t="str">
-        <v>autismo</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="C350" t="str">
-        <v>modelo social de deficiencia</v>
+        <v>desenho universal para apreizagem</v>
       </c>
       <c r="D350" t="str">
-        <v>interatividade na educacao.</v>
+        <v/>
       </c>
       <c r="E350" t="str">
-        <v/>
-      </c>
-      <c r="F350" t="str">
         <v/>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>o desafio dos professores com o publico-alvo da educacao especial no ensino remoto emergencial: resultados preliminares</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B351" t="str">
-        <v>ensino remoto</v>
+        <v>inclusao de alunos com deficiencia</v>
       </c>
       <c r="C351" t="str">
-        <v>educacao especial</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D351" t="str">
-        <v>inclusao</v>
+        <v/>
       </c>
       <c r="E351" t="str">
-        <v>covid-19</v>
-      </c>
-      <c r="F351" t="str">
         <v/>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>politica de acessibilidade na universidade do estado da bahia: uma analise na modalidade de educacao a distancia</v>
+        <v>inclusao</v>
       </c>
       <c r="B352" t="str">
-        <v>tecnologias   digitais   da   informacao e   da   comunicacao</v>
+        <v>libras</v>
       </c>
       <c r="C352" t="str">
-        <v>tdics</v>
+        <v>quimica</v>
       </c>
       <c r="D352" t="str">
-        <v>acessibilidade</v>
+        <v>tabela  periodica</v>
       </c>
       <c r="E352" t="str">
-        <v>educacao a distancia</v>
-      </c>
-      <c r="F352" t="str">
-        <v/>
+        <v>tecnologia  digitais</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>producao de objetos digitais de apreizagem para o ensino de libras na formacao docente</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="B353" t="str">
-        <v>ensino de libras</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="C353" t="str">
-        <v>objetos digitais de apreizagem.</v>
+        <v>biologia</v>
       </c>
       <c r="D353" t="str">
-        <v>professores em formacao.</v>
+        <v>ead</v>
       </c>
       <c r="E353" t="str">
-        <v/>
-      </c>
-      <c r="F353" t="str">
         <v/>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>producao de sinalario de robotica como pratica inclusiva</v>
+        <v>vigilancia  digital  controversia  cientifica</v>
       </c>
       <c r="B354" t="str">
-        <v>sinalario</v>
+        <v>ducacao  nao  presencial  de  emergencia</v>
       </c>
       <c r="C354" t="str">
-        <v>libras</v>
+        <v>ciencia</v>
       </c>
       <c r="D354" t="str">
-        <v>robotica</v>
+        <v>tecnologia e sociedade cts</v>
       </c>
       <c r="E354" t="str">
-        <v>inclusao</v>
-      </c>
-      <c r="F354" t="str">
         <v/>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>proposta de escrita e criacao de personagens de hq com a utilizacao de uma reglete positiva</v>
+        <v>ensino superior militar</v>
       </c>
       <c r="B355" t="str">
-        <v>historia em quadrinho</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C355" t="str">
-        <v>reglete</v>
+        <v>escola naval</v>
       </c>
       <c r="D355" t="str">
-        <v>braille</v>
+        <v>paemia covid19</v>
       </c>
       <c r="E355" t="str">
-        <v>educacao inclusiva</v>
-      </c>
-      <c r="F355" t="str">
-        <v>modelo atomico</v>
+        <v/>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>tecnologia assistiva e desenho universal para apreizagem: caminhos em busca da acessibilidade e inclusao educacional no seculo xxi.</v>
+        <v>cartapessoal</v>
       </c>
       <c r="B356" t="str">
-        <v>ensino superior</v>
+        <v>leitura</v>
       </c>
       <c r="C356" t="str">
-        <v>tecnologia assistiva</v>
+        <v>escrita</v>
       </c>
       <c r="D356" t="str">
-        <v>desenho universal para apreizagem.</v>
+        <v>ensino fuamental i</v>
       </c>
       <c r="E356" t="str">
-        <v/>
-      </c>
-      <c r="F356" t="str">
-        <v/>
+        <v>letramento</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>tecnologias digitais nos processos de ensino apreizagem e inclusao de alunos com deficiencia</v>
+        <v>apreizagem</v>
       </c>
       <c r="B357" t="str">
-        <v>tecnologias digitais</v>
+        <v>quarta revolucao iustrial</v>
       </c>
       <c r="C357" t="str">
-        <v xml:space="preserve"> inclusao de alunos com deficiencia.</v>
+        <v>afetividade</v>
       </c>
       <c r="D357" t="str">
-        <v>tecnologia assistiva</v>
+        <v>humanidade</v>
       </c>
       <c r="E357" t="str">
-        <v/>
-      </c>
-      <c r="F357" t="str">
         <v/>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>tecnologias digitais para o ensino de quimica na lingua brasileira de sinais: mapeamento investigativo e analise de dados da producao cientifica nacional</v>
+        <v>inclusao  digital</v>
       </c>
       <c r="B358" t="str">
-        <v>inclusao</v>
+        <v>ambientes  virtuais  de  apreizagem  ava</v>
       </c>
       <c r="C358" t="str">
-        <v>libras</v>
+        <v>resiliencia</v>
       </c>
       <c r="D358" t="str">
-        <v>quimica</v>
+        <v>equidade</v>
       </c>
       <c r="E358" t="str">
-        <v xml:space="preserve">  tabela  periodica</v>
-      </c>
-      <c r="F358" t="str">
-        <v xml:space="preserve"> tecnologia  digitais</v>
+        <v>offline</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>a curricularizacao da extensao na formacao de professores de biologia da universidade estadual de santa cruz</v>
+        <v>lesson study</v>
       </c>
       <c r="B359" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>autoeficacia</v>
       </c>
       <c r="C359" t="str">
-        <v>curricularizacao da extensao,</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="D359" t="str">
-        <v>biologia</v>
+        <v>apreizagem colaborativa</v>
       </c>
       <c r="E359" t="str">
-        <v>ead</v>
-      </c>
-      <c r="F359" t="str">
-        <v/>
+        <v>revisao sistematica da literatura</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>a educacao nao presencial de emergencia e a gratuidade de servicos oferecidos pelas big techs: um estudo introdutorio por meio de um vies controversial</v>
+        <v>pibid</v>
       </c>
       <c r="B360" t="str">
-        <v xml:space="preserve">vigilancia  digital.  controversia  cientifica. </v>
+        <v>formacao de professores</v>
       </c>
       <c r="C360" t="str">
-        <v>ducacao  nao  presencial  de  emergencia.</v>
+        <v>ciencias biologicas</v>
       </c>
       <c r="D360" t="str">
-        <v>ciencia</v>
+        <v/>
       </c>
       <c r="E360" t="str">
-        <v>tecnologia e sociedade (cts)</v>
-      </c>
-      <c r="F360" t="str">
         <v/>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>a escola naval brasileira e a paemia covid-19: um olhar no ensino remoto emergencial</v>
+        <v>danca e tecnologia</v>
       </c>
       <c r="B361" t="str">
-        <v>ensino superior militar.</v>
+        <v>ambiencia de interacao digital</v>
       </c>
       <c r="C361" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>arte interativa digital</v>
       </c>
       <c r="D361" t="str">
-        <v>escola naval</v>
+        <v>produsage</v>
       </c>
       <c r="E361" t="str">
-        <v>paemia covid-19</v>
-      </c>
-      <c r="F361" t="str">
         <v/>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>a escrita de cartas pessoais nos anos iniciais como forma de interacao na paemia de covid 19</v>
+        <v>desenvolvimento cognitivo</v>
       </c>
       <c r="B362" t="str">
-        <v>cartapessoal</v>
+        <v>cognicao numerica</v>
       </c>
       <c r="C362" t="str">
-        <v>leitura</v>
+        <v>senso numerico</v>
       </c>
       <c r="D362" t="str">
-        <v>escrita</v>
+        <v/>
       </c>
       <c r="E362" t="str">
-        <v>ensino fuamental i</v>
-      </c>
-      <c r="F362" t="str">
-        <v>letramento</v>
+        <v/>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>afetividade e apreizagem no contexto da quarta revolucao industrial</v>
+        <v>direitos humanos</v>
       </c>
       <c r="B363" t="str">
-        <v>apreizagem</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C363" t="str">
-        <v>quarta revolucao iustrial</v>
+        <v>utilizacao de midias</v>
       </c>
       <c r="D363" t="str">
-        <v>afetividade</v>
+        <v>ensino critico</v>
       </c>
       <c r="E363" t="str">
-        <v>humanidade</v>
-      </c>
-      <c r="F363" t="str">
         <v/>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>ambientes virtuais de apreizagem em cenarios offline</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B364" t="str">
-        <v>inclusao  digital</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="C364" t="str">
-        <v>ambientes  virtuais  de  apreizagem  (ava)</v>
+        <v>graduacao em pedagogia ead</v>
       </c>
       <c r="D364" t="str">
-        <v>resiliencia</v>
+        <v/>
       </c>
       <c r="E364" t="str">
-        <v>equidade</v>
-      </c>
-      <c r="F364" t="str">
-        <v>offline</v>
+        <v/>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>a relacao entre o lesson study e a autoeficacia para o desenvolvimento do ensino e da apreizagem: uma revisao sistematica da literatura</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B365" t="str">
-        <v>lesson study</v>
+        <v>ensino superior</v>
       </c>
       <c r="C365" t="str">
-        <v>autoeficacia</v>
+        <v>construcao identitaria</v>
       </c>
       <c r="D365" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v/>
       </c>
       <c r="E365" t="str">
-        <v xml:space="preserve"> apreizagem colaborativa</v>
-      </c>
-      <c r="F365" t="str">
-        <v xml:space="preserve"> revisao sistematica da literatura</v>
+        <v/>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>contribuicoes do programa de iniciacao a docencia (pibid) na formacao inicial de professores nas modalidades presencial e remota</v>
+        <v>agentes comunitarios de saude</v>
       </c>
       <c r="B366" t="str">
-        <v>pibid</v>
+        <v>anormalidades congenitas</v>
       </c>
       <c r="C366" t="str">
-        <v xml:space="preserve"> formacao de professores</v>
+        <v>capacitacao em servico</v>
       </c>
       <c r="D366" t="str">
-        <v>ciencias biologicas</v>
+        <v>saude da familia</v>
       </c>
       <c r="E366" t="str">
-        <v/>
-      </c>
-      <c r="F366" t="str">
         <v/>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>core0game: desenvolvimento de ambiencias de interacao digital na pratica artistica e apreizagem coreografica</v>
+        <v>netativismo</v>
       </c>
       <c r="B367" t="str">
-        <v>danca e tecnologia</v>
+        <v>processos formativos</v>
       </c>
       <c r="C367" t="str">
-        <v>ambiencia de interacao digital</v>
+        <v>empoderamento freireano</v>
       </c>
       <c r="D367" t="str">
-        <v>arte interativa digital</v>
+        <v/>
       </c>
       <c r="E367" t="str">
-        <v>produsage</v>
-      </c>
-      <c r="F367" t="str">
         <v/>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>desenvolvimento da cognicao numerica em bebes</v>
+        <v>inovacao</v>
       </c>
       <c r="B368" t="str">
-        <v>desenvolvimento cognitivo</v>
+        <v>robotica educativa</v>
       </c>
       <c r="C368" t="str">
-        <v>cognicao numerica</v>
+        <v>apreizagem</v>
       </c>
       <c r="D368" t="str">
-        <v>senso numerico</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E368" t="str">
-        <v/>
-      </c>
-      <c r="F368" t="str">
         <v/>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>direitos fuamentais no seculo xxi, desafios da educacao e da politica</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B369" t="str">
-        <v>direitos humanos</v>
+        <v>design para a educacao</v>
       </c>
       <c r="C369" t="str">
-        <v>interdisciplinaridade</v>
+        <v>capacitacao</v>
       </c>
       <c r="D369" t="str">
-        <v>utilizacao de midias</v>
+        <v>ludificacao</v>
       </c>
       <c r="E369" t="str">
-        <v xml:space="preserve"> ensino critico</v>
-      </c>
-      <c r="F369" t="str">
-        <v/>
+        <v>gamificacao</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>ensino e apreizagem da lingua portuguesa: um relato de experiencia</v>
+        <v>educacao   a   distancia   centrode   educacao   aberta   e   a   distancia</v>
       </c>
       <c r="B370" t="str">
-        <v>educacao a distancia</v>
+        <v>programa universidade aberta do brasil</v>
       </c>
       <c r="C370" t="str">
-        <v>ensino e apreizagem</v>
+        <v>ensino superior</v>
       </c>
       <c r="D370" t="str">
-        <v>graduacao em pedagogia ead</v>
+        <v/>
       </c>
       <c r="E370" t="str">
-        <v/>
-      </c>
-      <c r="F370" t="str">
         <v/>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>entre jogos institucionais de poder: o processo de constituicao identitaria dos atores sociais que compoem a modalidade da educacao a distancia da universidade estadual de goias (ueg) no centro de ensino e apreizagem em rede (cear)</v>
+        <v>educacao tradicional</v>
       </c>
       <c r="B371" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C371" t="str">
-        <v>ensino superior</v>
+        <v>retomada da apreizagem</v>
       </c>
       <c r="D371" t="str">
-        <v>construcao identitaria</v>
+        <v/>
       </c>
       <c r="E371" t="str">
-        <v/>
-      </c>
-      <c r="F371" t="str">
         <v/>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>estrategia de capacitacao para agentes comunitarios de saude nas anomalias craniofaciais</v>
+        <v>letramento digital</v>
       </c>
       <c r="B372" t="str">
-        <v>agentes comunitarios de saude</v>
+        <v>letramento</v>
       </c>
       <c r="C372" t="str">
-        <v>anormalidades congenitas</v>
+        <v>educacao</v>
       </c>
       <c r="D372" t="str">
-        <v>capacitacao em servico</v>
+        <v>cultura digital</v>
       </c>
       <c r="E372" t="str">
-        <v xml:space="preserve">saude da familia </v>
-      </c>
-      <c r="F372" t="str">
         <v/>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>estudo teorico-conceitual: ativismo e os processos formativos em rede</v>
+        <v>violencia</v>
       </c>
       <c r="B373" t="str">
-        <v>net-ativismo</v>
+        <v>notificacao</v>
       </c>
       <c r="C373" t="str">
-        <v>processos formativos</v>
+        <v>estudantes de medicina</v>
       </c>
       <c r="D373" t="str">
-        <v>empoderamento freireano</v>
+        <v/>
       </c>
       <c r="E373" t="str">
-        <v/>
-      </c>
-      <c r="F373" t="str">
         <v/>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>experiencias e reflexoes de uma equipe de competicao de robotica durante a paemia da covid-19</v>
+        <v>cursos abertos</v>
       </c>
       <c r="B374" t="str">
-        <v>inovacao</v>
+        <v>educacao digital</v>
       </c>
       <c r="C374" t="str">
-        <v>robotica educativa</v>
+        <v>ods</v>
       </c>
       <c r="D374" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E374" t="str">
-        <v>tecnologias digitais</v>
-      </c>
-      <c r="F374" t="str">
         <v/>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>gestao de design sistemica para o desenvolvimento de produtos ludificados e gamificados: capacitacao de educadores, adolescentes e jovens da irmaade do divino espirito santo</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B375" t="str">
-        <v>ensino e apreizagem</v>
+        <v>ecnologias digitais da informacao e comunicacao  tdic</v>
       </c>
       <c r="C375" t="str">
-        <v>design para a educacao</v>
+        <v>ensino remoto emergencial ere</v>
       </c>
       <c r="D375" t="str">
-        <v>capacitacao</v>
+        <v/>
       </c>
       <c r="E375" t="str">
-        <v>ludificacao</v>
-      </c>
-      <c r="F375" t="str">
-        <v>gamificacao</v>
+        <v/>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>historia e memoria do centro de educacao aberta e a distancia da universidade federal do piaui (cead/ufpi): contribuicoes para a expansao e a democratizacao da educacao superior no piaui</v>
+        <v>mapeamento</v>
       </c>
       <c r="B376" t="str">
-        <v>educacao   a   distancia.   centrode   educacao   aberta   e   a   distancia</v>
+        <v>cursos online</v>
       </c>
       <c r="C376" t="str">
-        <v>programa universidade aberta do brasil.</v>
+        <v>equipe</v>
       </c>
       <c r="D376" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E376" t="str">
-        <v/>
-      </c>
-      <c r="F376" t="str">
         <v/>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>impactos do ensino tradicional durante a retomada das aulas presenciais</v>
+        <v>pedagogia empresarial</v>
       </c>
       <c r="B377" t="str">
-        <v xml:space="preserve"> educacao tradicional.</v>
+        <v>pedagogo empresarial</v>
       </c>
       <c r="C377" t="str">
-        <v>ensino remoto</v>
+        <v>treinamento e desenvolvimento</v>
       </c>
       <c r="D377" t="str">
-        <v>retomada da apreizagem</v>
+        <v/>
       </c>
       <c r="E377" t="str">
-        <v/>
-      </c>
-      <c r="F377" t="str">
         <v/>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>letramento, educacao e cultura digital: uma breve revisao bibliografica</v>
+        <v>educacao superior</v>
       </c>
       <c r="B378" t="str">
-        <v>letramento digital</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C378" t="str">
-        <v>letramento</v>
+        <v>covid19</v>
       </c>
       <c r="D378" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E378" t="str">
-        <v>cultura digital</v>
-      </c>
-      <c r="F378" t="str">
         <v/>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>maus-tratos e outras formas de violencia na formacao medica: da caracterizacao a denuncia</v>
+        <v>educacao musical online</v>
       </c>
       <c r="B379" t="str">
-        <v>violencia</v>
+        <v>pratica de conjunto online</v>
       </c>
       <c r="C379" t="str">
-        <v>notificacao</v>
+        <v>musica e sustentabilidade</v>
       </c>
       <c r="D379" t="str">
-        <v>estudantes de medicina</v>
+        <v/>
       </c>
       <c r="E379" t="str">
-        <v/>
-      </c>
-      <c r="F379" t="str">
         <v/>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>moocs e os objetivos de desenvolvimento sustentavel: uma experiencia para a apreizagem ao longo da vida</v>
+        <v>psicoterapia online</v>
       </c>
       <c r="B380" t="str">
-        <v xml:space="preserve"> cursos abertos</v>
+        <v>alianca e vinculo terapeuticos</v>
       </c>
       <c r="C380" t="str">
-        <v>educacao digital</v>
+        <v>ateimento online</v>
       </c>
       <c r="D380" t="str">
-        <v>ods</v>
+        <v>covid19</v>
       </c>
       <c r="E380" t="str">
-        <v/>
-      </c>
-      <c r="F380" t="str">
         <v/>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>multiletramentos e usos das tdic no ensino remoto emergencial</v>
+        <v>formacao profissional em saude</v>
       </c>
       <c r="B381" t="str">
-        <v>multiletramentos</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C381" t="str">
-        <v>ecnologias digitais da informacao e comunicacao - tdic</v>
+        <v>sistema unico de saude</v>
       </c>
       <c r="D381" t="str">
-        <v>ensino remoto emergencial -ere</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="E381" t="str">
-        <v/>
-      </c>
-      <c r="F381" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>o clima organizacional em um projeto de educacao a distancia: um olhar da psicologia</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="B382" t="str">
-        <v>mapeamento</v>
+        <v>cultura maker</v>
       </c>
       <c r="C382" t="str">
-        <v>cursos online</v>
+        <v>fanzines</v>
       </c>
       <c r="D382" t="str">
-        <v>equipe</v>
+        <v>educacao</v>
       </c>
       <c r="E382" t="str">
-        <v/>
-      </c>
-      <c r="F382" t="str">
         <v/>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>o papel do pedagogo empresarial no treinamento e desenvolvimento de equipes</v>
+        <v>residencia tecnic</v>
       </c>
       <c r="B383" t="str">
-        <v>pedagogia empresarial</v>
+        <v>inovacao</v>
       </c>
       <c r="C383" t="str">
-        <v>pedagogo empresarial</v>
+        <v>transformacao digital</v>
       </c>
       <c r="D383" t="str">
-        <v xml:space="preserve"> treinamento e desenvolvimento</v>
+        <v>egov</v>
       </c>
       <c r="E383" t="str">
-        <v/>
-      </c>
-      <c r="F383" t="str">
-        <v/>
+        <v>design instrucional</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>paemia e a disrupcao na educacao superior na fisioterapia: onde estamos e para onde vamos?</v>
+        <v>cancer</v>
       </c>
       <c r="B384" t="str">
-        <v>educacao superior</v>
+        <v>game</v>
       </c>
       <c r="C384" t="str">
-        <v xml:space="preserve"> tecnologia da informacao e comunicacao,</v>
+        <v>sexualidade</v>
       </c>
       <c r="D384" t="str">
-        <v>covid-19</v>
+        <v/>
       </c>
       <c r="E384" t="str">
-        <v/>
-      </c>
-      <c r="F384" t="str">
         <v/>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>pratica de conjunto online e discussoes de sustentabilidade no ensino de musica para estudantes de nivel superior</v>
+        <v>educacao</v>
       </c>
       <c r="B385" t="str">
-        <v xml:space="preserve"> educacao musical online</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C385" t="str">
-        <v>pratica de conjunto online</v>
+        <v>curriculo</v>
       </c>
       <c r="D385" t="str">
-        <v xml:space="preserve"> musica e sustentabilidade</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E385" t="str">
-        <v/>
-      </c>
-      <c r="F385" t="str">
         <v/>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>psicoterapia online: formas de ateimento, vantagens e desvantagens em tempos de covid-19- reflexoes para docentes e discentes de psicologia</v>
+        <v>curriculo subjetivo</v>
       </c>
       <c r="B386" t="str">
-        <v>psicoterapia online</v>
+        <v>paradigma da apreizagem</v>
       </c>
       <c r="C386" t="str">
-        <v>alianca e vinculo terapeuticos</v>
+        <v>tutorias</v>
       </c>
       <c r="D386" t="str">
-        <v>ateimento online</v>
+        <v/>
       </c>
       <c r="E386" t="str">
-        <v>covid-19</v>
-      </c>
-      <c r="F386" t="str">
         <v/>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>reflexoes sobre o desenvolvimento de cursos a distancia em saude: a experiencia da cdead/ensp</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B387" t="str">
-        <v>formacao profissional em saude</v>
+        <v>inclusao digital</v>
       </c>
       <c r="C387" t="str">
-        <v>educacao a distancia</v>
+        <v>ead</v>
       </c>
       <c r="D387" t="str">
-        <v>sistema unico de saude</v>
+        <v>inovacao</v>
       </c>
       <c r="E387" t="str">
-        <v xml:space="preserve"> materiais didaticos</v>
-      </c>
-      <c r="F387" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>relato de experiencia: cultura maker - construcao de fanzines nas aulas de historia</v>
+        <v>ensino superior</v>
       </c>
       <c r="B388" t="str">
-        <v xml:space="preserve"> metodologia ativa</v>
+        <v>universidades publicas</v>
       </c>
       <c r="C388" t="str">
-        <v>cultura maker</v>
+        <v>pospaemia</v>
       </c>
       <c r="D388" t="str">
-        <v>fanzines</v>
+        <v>resiliencia organizacional</v>
       </c>
       <c r="E388" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="F388" t="str">
         <v/>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>residencia tecnica multiarea: um projeto pedagogico em inovacao, transformacao digital e e-gov</v>
+        <v>memoria</v>
       </c>
       <c r="B389" t="str">
-        <v xml:space="preserve"> residencia tecnic</v>
+        <v>tdic</v>
       </c>
       <c r="C389" t="str">
-        <v>inovacao</v>
+        <v>neurociencia</v>
       </c>
       <c r="D389" t="str">
-        <v>transformacao digital</v>
+        <v>apreizagem</v>
       </c>
       <c r="E389" t="str">
-        <v xml:space="preserve"> e-gov</v>
-      </c>
-      <c r="F389" t="str">
-        <v>design instrucional</v>
+        <v/>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>sobre cancer e sexualidade na adolescencia</v>
+        <v>ensino medio</v>
       </c>
       <c r="B390" t="str">
-        <v>cancer</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C390" t="str">
-        <v>game</v>
+        <v>desigualdade educacional</v>
       </c>
       <c r="D390" t="str">
-        <v>sexualidade</v>
+        <v>cultura digital</v>
       </c>
       <c r="E390" t="str">
-        <v/>
-      </c>
-      <c r="F390" t="str">
         <v/>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>tecnologias digitais na educacao, curriculo e hibridizacao: (des)enteimentos</v>
+        <v>caracteristica</v>
       </c>
       <c r="B391" t="str">
-        <v>educacao</v>
+        <v>estudante</v>
       </c>
       <c r="C391" t="str">
-        <v>tecnologias digitais</v>
+        <v>licenciatura</v>
       </c>
       <c r="D391" t="str">
-        <v>curriculo</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="E391" t="str">
-        <v>educacao hibrida</v>
-      </c>
-      <c r="F391" t="str">
         <v/>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>tutorias no campus: experienciao a tutoria a partir do curriculo subjetivo</v>
+        <v>ensino superior</v>
       </c>
       <c r="B392" t="str">
-        <v xml:space="preserve"> curriculo subjetivo</v>
+        <v>trilha de apreizagem</v>
       </c>
       <c r="C392" t="str">
-        <v>paradigma da apreizagem</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="D392" t="str">
-        <v>tutorias</v>
+        <v>feedback</v>
       </c>
       <c r="E392" t="str">
-        <v/>
-      </c>
-      <c r="F392" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>uma proposta hibrida e sustentavel para projetos de inclusao social: inovacao decorrente dos tempos paemicos</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B393" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C393" t="str">
-        <v>inclusao digital</v>
+        <v>educacao infantil</v>
       </c>
       <c r="D393" t="str">
-        <v>ead</v>
+        <v>tecnologias</v>
       </c>
       <c r="E393" t="str">
-        <v>inovacao</v>
-      </c>
-      <c r="F393" t="str">
         <v/>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>visoes de futuro sobre a universidade publica brasileira no pos-paemia: repensando o seu papel na sociedade</v>
+        <v>metodologias ativas de apreizagem</v>
       </c>
       <c r="B394" t="str">
-        <v>ensino superior</v>
+        <v>administracao publica</v>
       </c>
       <c r="C394" t="str">
-        <v xml:space="preserve"> universidades publicas</v>
+        <v>tdics</v>
       </c>
       <c r="D394" t="str">
-        <v xml:space="preserve"> pos-paemia</v>
+        <v/>
       </c>
       <c r="E394" t="str">
-        <v>resiliencia organizacional</v>
-      </c>
-      <c r="F394" t="str">
         <v/>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>amemoria sensorial e as mudancascerebraiscom a utilizacao da tdicpara a apreizagemescolar</v>
+        <v>escola</v>
       </c>
       <c r="B395" t="str">
-        <v>memoria.</v>
+        <v>leitura</v>
       </c>
       <c r="C395" t="str">
-        <v>tdic</v>
+        <v>escrita</v>
       </c>
       <c r="D395" t="str">
-        <v>neurociencia</v>
+        <v>tecnologias hipertextuais</v>
       </c>
       <c r="E395" t="str">
-        <v>apreizagem</v>
-      </c>
-      <c r="F395" t="str">
         <v/>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>analise de desigualdades educacionais e sociais no contexto paemico e de cultura digital: decorrencias do ensino remoto para jovens do ensino medio publico</v>
+        <v>ensino remoto emergencia</v>
       </c>
       <c r="B396" t="str">
-        <v>ensino medio</v>
+        <v>biologia atividades praticas</v>
       </c>
       <c r="C396" t="str">
-        <v xml:space="preserve">ensino remoto </v>
+        <v/>
       </c>
       <c r="D396" t="str">
-        <v>desigualdade educacional</v>
+        <v/>
       </c>
       <c r="E396" t="str">
-        <v>cultura digital</v>
-      </c>
-      <c r="F396" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="str">
-        <v>1analise do perfil discente ingressante em 2021.1na ead da ufrn</v>
-      </c>
-      <c r="B397" t="str">
-        <v>caracteristica</v>
-      </c>
-      <c r="C397" t="str">
-        <v>estudante</v>
-      </c>
-      <c r="D397" t="str">
-        <v>licenciatura</v>
-      </c>
-      <c r="E397" t="str">
-        <v>ensino e apreizagem</v>
-      </c>
-      <c r="F397" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="str">
-        <v>apreizados do ensino remoto emergencial e o retorno ao presencial: flexibilizacao e autonomia na formacao de professores</v>
-      </c>
-      <c r="B398" t="str">
-        <v>ensino superior</v>
-      </c>
-      <c r="C398" t="str">
-        <v>trilha de apreizagem</v>
-      </c>
-      <c r="D398" t="str">
-        <v>sala de aula invertida</v>
-      </c>
-      <c r="E398" t="str">
-        <v>feedback</v>
-      </c>
-      <c r="F398" t="str">
-        <v>formacao de professores</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="str">
-        <v>a realizacao do estagio supervisionado na educacao infantil mediado por tecnologias: o desafio de ensinar e de apreer no contexto do ensino remoto emergencial</v>
-      </c>
-      <c r="B399" t="str">
-        <v>estagio supervisionado</v>
-      </c>
-      <c r="C399" t="str">
-        <v>ensino remoto emergencial</v>
-      </c>
-      <c r="D399" t="str">
-        <v>educacao infantil</v>
-      </c>
-      <c r="E399" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="F399" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F399"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E396"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/2024-04-10T22:42:49.xlsx
+++ b/uploads/2024-04-10T22:42:49.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,33 +422,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>tecnologia  da   informacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B2" t="str">
-        <v>informatica   em   enfermagem</v>
+        <v>formacao</v>
       </c>
       <c r="C2" t="str">
-        <v>grupos   de pesquisa</v>
+        <v>pedagogia</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>percepcao</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>discente</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>avaliacao</v>
+        <v>educacao</v>
       </c>
       <c r="B3" t="str">
-        <v>educacao hibrida</v>
+        <v>tecnologia</v>
       </c>
       <c r="C3" t="str">
-        <v>cultura digital</v>
+        <v>digital</v>
       </c>
       <c r="D3" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -456,47 +456,47 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>perfect piano</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B4" t="str">
-        <v>tam tam mini</v>
+        <v>pesquisa narrativa</v>
       </c>
       <c r="C4" t="str">
-        <v>scratch</v>
+        <v>egressos de pedagogia a distancia</v>
       </c>
       <c r="D4" t="str">
-        <v>bbc microbit</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>cifra melodica</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>educacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B5" t="str">
-        <v>comunicacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C5" t="str">
-        <v>midias sociais</v>
+        <v>qualidade na educacao superior</v>
       </c>
       <c r="D5" t="str">
-        <v>publicidade</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>competencias digitais</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B6" t="str">
-        <v>academicos</v>
+        <v>tdic</v>
       </c>
       <c r="C6" t="str">
-        <v>pedagogia</v>
+        <v>humanizacao</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -507,13 +507,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ensino de quimica</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B7" t="str">
-        <v>tdic</v>
+        <v>avaliacao de tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C7" t="str">
-        <v>paemia</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="D7" t="str">
         <v/>
@@ -524,13 +524,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>cultura steam</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="B8" t="str">
-        <v>mulheres nas ciencias</v>
+        <v>motivacao e engajamento</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>preizagem de leitura</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -541,16 +541,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>apreizagem</v>
+        <v>metaverso</v>
       </c>
       <c r="B9" t="str">
-        <v>gamificacao</v>
+        <v>ensino fuamental</v>
       </c>
       <c r="C9" t="str">
-        <v>este de progresso</v>
+        <v>ciencia humanas</v>
       </c>
       <c r="D9" t="str">
-        <v>educacao medica</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -558,16 +558,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>design educacional</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B10" t="str">
         <v>educacao a distancia</v>
       </c>
       <c r="C10" t="str">
-        <v>ensino hibrido</v>
+        <v>alunos</v>
       </c>
       <c r="D10" t="str">
-        <v>tecnologias educacionais</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -575,47 +575,47 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ecologia da apreizagem</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B11" t="str">
-        <v>cultura digital</v>
+        <v>alfabetizacao cientifica</v>
       </c>
       <c r="C11" t="str">
-        <v>processos de apreizagem</v>
+        <v>ensino de geografia</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>apreizagem baseada na resolucao de problemas</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>web 20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>ensino remoto</v>
+        <v>universidade</v>
       </c>
       <c r="B12" t="str">
-        <v>tecnologias</v>
+        <v>virtualidade</v>
       </c>
       <c r="C12" t="str">
-        <v>apreizagem</v>
+        <v>ensino</v>
       </c>
       <c r="D12" t="str">
-        <v>ensino</v>
+        <v>tecnologia</v>
       </c>
       <c r="E12" t="str">
-        <v>desafios</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>ensino hibrido</v>
+        <v>gamificacao</v>
       </c>
       <c r="B13" t="str">
-        <v>podcast de ciencias</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="C13" t="str">
-        <v>apreizagem</v>
+        <v>apreizagem de leitura</v>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -626,33 +626,33 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>ensino remoto</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B14" t="str">
-        <v>formacao</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C14" t="str">
-        <v>pedagogia</v>
+        <v>ensino de biologia</v>
       </c>
       <c r="D14" t="str">
-        <v>percepcao</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>discente</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>educacao</v>
+        <v>tdics</v>
       </c>
       <c r="B15" t="str">
-        <v>tecnologia</v>
+        <v>colegio de aplicacao</v>
       </c>
       <c r="C15" t="str">
-        <v>digital</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -660,30 +660,30 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>formacao de professores</v>
+        <v>fracao equivalente</v>
       </c>
       <c r="B16" t="str">
-        <v>pesquisa narrativa</v>
+        <v>tecnologias</v>
       </c>
       <c r="C16" t="str">
-        <v>egressos de pedagogia a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>resolucao de problemas</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>formacao  de professores</v>
+        <v>orientador educacional</v>
       </c>
       <c r="B17" t="str">
-        <v>ensino  remoto  emergencial</v>
+        <v>tecnologias</v>
       </c>
       <c r="C17" t="str">
-        <v>qualidade  na  educacaosuperior</v>
+        <v>covid19</v>
       </c>
       <c r="D17" t="str">
         <v/>
@@ -694,13 +694,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>orientacao educacional</v>
       </c>
       <c r="B18" t="str">
-        <v>tdic</v>
+        <v>tecnologias</v>
       </c>
       <c r="C18" t="str">
-        <v>humanizacao</v>
+        <v>paemia</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -711,30 +711,30 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>metaavaliacao</v>
+        <v>educacao digital</v>
       </c>
       <c r="B19" t="str">
-        <v>avaliacao de tecnologia da informacao e comunicacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C19" t="str">
-        <v>jogos eletronicos</v>
+        <v>paemia</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>ead</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B20" t="str">
-        <v>motivacao e engajamento</v>
+        <v>educacao e tecnologias</v>
       </c>
       <c r="C20" t="str">
-        <v>preizagem de leitura</v>
+        <v>letramento digital</v>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -745,13 +745,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>metaverso</v>
+        <v>ateimento educacional especializado</v>
       </c>
       <c r="B21" t="str">
-        <v>ensino fuamental</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C21" t="str">
-        <v>ciencia humanas</v>
+        <v>transtorno do espectro do autismo</v>
       </c>
       <c r="D21" t="str">
         <v/>
@@ -762,67 +762,67 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>competencias digitais</v>
+        <v>musica</v>
       </c>
       <c r="B22" t="str">
-        <v>educacao a distancia</v>
+        <v>autorregulacao</v>
       </c>
       <c r="C22" t="str">
-        <v>alunos</v>
+        <v>apreizagem</v>
       </c>
       <c r="D22" t="str">
-        <v>modelo pedagogico</v>
+        <v>estrategia</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>baa escolar</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>multiletramentos</v>
+        <v>alimentos organicos</v>
       </c>
       <c r="B23" t="str">
-        <v>alfabetizacao cientifica</v>
+        <v>eletiva</v>
       </c>
       <c r="C23" t="str">
-        <v>ensino de geografia</v>
+        <v>historia em quadrinhos</v>
       </c>
       <c r="D23" t="str">
-        <v>apreizagem baseada na resolucao de problemas</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>web 20</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>universidade</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B24" t="str">
-        <v>virtualidade</v>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="C24" t="str">
-        <v>ensino</v>
+        <v>apreizagem em matematica</v>
       </c>
       <c r="D24" t="str">
-        <v>tecnologia</v>
+        <v>educacao basica</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>gamificacao</v>
+        <v>discente</v>
       </c>
       <c r="B25" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>ensino superior</v>
       </c>
       <c r="C25" t="str">
-        <v>apreizagem de leitura</v>
+        <v>protagonismo</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>tdics</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -830,16 +830,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>ensino hibrido</v>
+        <v>avaliacao</v>
       </c>
       <c r="B26" t="str">
-        <v>metodologias ativas</v>
+        <v>educacao basica</v>
       </c>
       <c r="C26" t="str">
-        <v>ensino de biologia</v>
+        <v>saresp</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
       <c r="E26" t="str">
         <v/>
@@ -847,16 +847,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>tdics</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B27" t="str">
-        <v>colegio de aplicacao</v>
+        <v>revista digital</v>
       </c>
       <c r="C27" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>cultura digital</v>
       </c>
       <c r="D27" t="str">
-        <v>paemia</v>
+        <v>protagonismo do estudante</v>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -864,30 +864,30 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>fracao  equivalente</v>
+        <v>rubricas</v>
       </c>
       <c r="B28" t="str">
-        <v>tecnologias</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="C28" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino superior em saude</v>
       </c>
       <c r="D28" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>resolucao  de problemas</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>orientador educacional</v>
+        <v>steam</v>
       </c>
       <c r="B29" t="str">
-        <v>tecnologias</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C29" t="str">
-        <v>covid19</v>
+        <v>ensino</v>
       </c>
       <c r="D29" t="str">
         <v/>
@@ -898,13 +898,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>orientacao educacional</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B30" t="str">
-        <v>tecnologias</v>
+        <v>educacao basica</v>
       </c>
       <c r="C30" t="str">
-        <v>paemia</v>
+        <v>artes visuais</v>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -915,30 +915,30 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>educacao digital</v>
+        <v>tdic</v>
       </c>
       <c r="B31" t="str">
-        <v>tecnologia</v>
+        <v>professores de ingles</v>
       </c>
       <c r="C31" t="str">
-        <v>paemia</v>
+        <v>apreizagem emingles</v>
       </c>
       <c r="D31" t="str">
-        <v>ensino remoto</v>
+        <v>ufpa</v>
       </c>
       <c r="E31" t="str">
-        <v>ead</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>inclusao digital</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B32" t="str">
-        <v>educacao e tecnologias</v>
+        <v>tecnologia</v>
       </c>
       <c r="C32" t="str">
-        <v>letramento digital</v>
+        <v>aulasnaopresenciais</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -949,16 +949,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>ateimento   educacional   especializado</v>
+        <v>precalculo</v>
       </c>
       <c r="B33" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="C33" t="str">
-        <v>transtorno do espectro do autismo</v>
+        <v>transicao terciaria</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -966,84 +966,84 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>musica</v>
+        <v>surdez</v>
       </c>
       <c r="B34" t="str">
-        <v>autorregulacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C34" t="str">
-        <v>apreizagem</v>
+        <v>inclusao</v>
       </c>
       <c r="D34" t="str">
-        <v>estrategia</v>
+        <v>acessibilidade</v>
       </c>
       <c r="E34" t="str">
-        <v>baa escolar</v>
+        <v>midiaeducacao</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>alimentos organicos</v>
+        <v>smartphone</v>
       </c>
       <c r="B35" t="str">
-        <v>eletiva</v>
+        <v>lingua inglesa li</v>
       </c>
       <c r="C35" t="str">
-        <v>historia em quadrinhos</v>
+        <v>educacao de jovens e adultos eja</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>ensino remoto</v>
+        <v>educacao 40</v>
       </c>
       <c r="B36" t="str">
-        <v>tecnologia   digital de informacao e comunicacao tdic</v>
+        <v>gamificacao</v>
       </c>
       <c r="C36" t="str">
-        <v>apreizagem em matematica</v>
+        <v>geracao alpha</v>
       </c>
       <c r="D36" t="str">
-        <v>educacao basica</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="E36" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>discente</v>
+        <v>ensino medio</v>
       </c>
       <c r="B37" t="str">
-        <v>ensino superior</v>
+        <v>avaliacao educacional</v>
       </c>
       <c r="C37" t="str">
-        <v>protagonismo</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="D37" t="str">
-        <v>tdics</v>
+        <v>ncc</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>avaliacao</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="B38" t="str">
-        <v>educacao basica</v>
+        <v>centro de midias</v>
       </c>
       <c r="C38" t="str">
-        <v>saresp</v>
+        <v>amazonas</v>
       </c>
       <c r="D38" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>tecnologia educacional</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B39" t="str">
-        <v>revista digital</v>
+        <v>praticas hibridas de ensino</v>
       </c>
       <c r="C39" t="str">
-        <v>cultura digital</v>
+        <v>pospaemia</v>
       </c>
       <c r="D39" t="str">
-        <v>protagonismo do estudante</v>
+        <v/>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>rubricas</v>
+        <v>tdics</v>
       </c>
       <c r="B40" t="str">
-        <v>avaliacao formativa</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C40" t="str">
-        <v>ensino superior em saude</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D40" t="str">
         <v/>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>steam</v>
+        <v>ead</v>
       </c>
       <c r="B41" t="str">
-        <v>metodologias ativas</v>
+        <v>educacao basica</v>
       </c>
       <c r="C41" t="str">
-        <v>ensino</v>
+        <v>professores</v>
       </c>
       <c r="D41" t="str">
         <v/>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>tecnologias digitais</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B42" t="str">
-        <v>educacao basica</v>
+        <v>sistema de informacao</v>
       </c>
       <c r="C42" t="str">
-        <v>artes visuais</v>
+        <v>seduc</v>
       </c>
       <c r="D42" t="str">
         <v/>
@@ -1119,16 +1119,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>tdic</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B43" t="str">
-        <v>professores de ingles</v>
+        <v>olimpiadas cientificas</v>
       </c>
       <c r="C43" t="str">
-        <v>apreizagem emingles</v>
+        <v>ensinode ciencias</v>
       </c>
       <c r="D43" t="str">
-        <v>ufpa</v>
+        <v/>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -1136,13 +1136,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ensino e apreizagem</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B44" t="str">
-        <v>tecnologia</v>
+        <v>formacao docente</v>
       </c>
       <c r="C44" t="str">
-        <v>aulasnaopresenciais</v>
+        <v>instituicao de ensino superior</v>
       </c>
       <c r="D44" t="str">
         <v/>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>precalculo</v>
+        <v>professores iniciantes</v>
       </c>
       <c r="B45" t="str">
-        <v>ensino a distancia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C45" t="str">
-        <v>transicao terciaria</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D45" t="str">
-        <v>covid19</v>
+        <v>conhecimento tecnologico e pedagogico do conteudo</v>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -1170,50 +1170,50 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>surdez</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B46" t="str">
-        <v>tecnologia</v>
+        <v>ensino remoto e ensino a distancia</v>
       </c>
       <c r="C46" t="str">
-        <v>inclusao</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="D46" t="str">
-        <v>acessibilidade</v>
+        <v/>
       </c>
       <c r="E46" t="str">
-        <v>midiaeducacao</v>
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>smartphone</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B47" t="str">
-        <v>lingua inglesa li</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="C47" t="str">
-        <v>educacao de jovens e adultos eja</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D47" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>educacao 40</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B48" t="str">
-        <v>gamificacao</v>
+        <v>narrativa</v>
       </c>
       <c r="C48" t="str">
-        <v>geracao alpha</v>
+        <v>curriculo de tecnologia</v>
       </c>
       <c r="D48" t="str">
-        <v>jogos eletronicos</v>
+        <v/>
       </c>
       <c r="E48" t="str">
         <v/>
@@ -1221,30 +1221,30 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>ensino medio</v>
+        <v>ensino</v>
       </c>
       <c r="B49" t="str">
-        <v>avaliacao educacional</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C49" t="str">
-        <v>avaliacao formativa</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="D49" t="str">
-        <v>ncc</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E49" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>educacao escolar</v>
       </c>
       <c r="B50" t="str">
-        <v>centro de midias</v>
+        <v>sala de aula virtual</v>
       </c>
       <c r="C50" t="str">
-        <v>amazonas</v>
+        <v>ensino remoto e ensino hibrido</v>
       </c>
       <c r="D50" t="str">
         <v/>
@@ -1255,16 +1255,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>ensino remoto</v>
+        <v>educacao fisica</v>
       </c>
       <c r="B51" t="str">
-        <v>praticas hibridas de ensino</v>
+        <v>praticas corporais</v>
       </c>
       <c r="C51" t="str">
-        <v>pospaemia</v>
+        <v>presencial</v>
       </c>
       <c r="D51" t="str">
-        <v/>
+        <v>a distancia</v>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>tdics</v>
+        <v>insurgencias</v>
       </c>
       <c r="B52" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C52" t="str">
-        <v>ensino remoto</v>
+        <v>docencia no ensino superior</v>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E52" t="str">
         <v/>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>ead</v>
+        <v>educacao</v>
       </c>
       <c r="B53" t="str">
-        <v>educacao basica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C53" t="str">
-        <v>professores</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D53" t="str">
         <v/>
@@ -1306,33 +1306,33 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
+        <v>tecnologia digital</v>
+      </c>
+      <c r="B54" t="str">
         <v>formacao de professores</v>
       </c>
-      <c r="B54" t="str">
-        <v>sistema de informacao</v>
-      </c>
       <c r="C54" t="str">
-        <v>seduc</v>
+        <v>audiovisual</v>
       </c>
       <c r="D54" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E54" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>formacao de professores</v>
+        <v>microbiologia</v>
       </c>
       <c r="B55" t="str">
-        <v>olimpiadas cientificas</v>
+        <v>ensino</v>
       </c>
       <c r="C55" t="str">
-        <v>ensinode ciencias</v>
+        <v>tecnologia</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>jogos</v>
       </c>
       <c r="E55" t="str">
         <v/>
@@ -1340,16 +1340,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>ensino a distancia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B56" t="str">
-        <v>formacao docente</v>
+        <v>competencias digitais</v>
       </c>
       <c r="C56" t="str">
-        <v>instituicao de ensino superior</v>
+        <v>educacao basica</v>
       </c>
       <c r="D56" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E56" t="str">
         <v/>
@@ -1357,19 +1357,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>professores iniciantes</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B57" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>professores</v>
       </c>
       <c r="C57" t="str">
-        <v>formacao de professores</v>
+        <v>selfie for teachers</v>
       </c>
       <c r="D57" t="str">
-        <v>conhecimento tecnologico e pedagogico do conteudo</v>
+        <v>educacao basica</v>
       </c>
       <c r="E57" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="58">
@@ -1377,10 +1377,10 @@
         <v>ensino remoto emergencial</v>
       </c>
       <c r="B58" t="str">
-        <v>ensino remoto e ensino a distancia</v>
+        <v>avaliacao</v>
       </c>
       <c r="C58" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D58" t="str">
         <v/>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>formacao de professores</v>
+        <v>avaliacao de estagio</v>
       </c>
       <c r="B59" t="str">
-        <v>apreizagem invertida</v>
+        <v>processo pedagogico</v>
       </c>
       <c r="C59" t="str">
-        <v>metodologias ativas</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D59" t="str">
         <v/>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>robotica educacional</v>
+        <v>bitmoji</v>
       </c>
       <c r="B60" t="str">
-        <v>narrativa</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C60" t="str">
-        <v>curriculo de tecnologia</v>
+        <v>praticas de ensino</v>
       </c>
       <c r="D60" t="str">
         <v/>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>ensino</v>
+        <v>processo avaliativo</v>
       </c>
       <c r="B61" t="str">
-        <v>metodologias ativas</v>
+        <v>engenharia</v>
       </c>
       <c r="C61" t="str">
-        <v>pratica pedagogica</v>
+        <v>projeto integrador</v>
       </c>
       <c r="D61" t="str">
-        <v>sala de aula invertida</v>
+        <v>paemia</v>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -1442,33 +1442,33 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>educacao escolar</v>
+        <v>google meet</v>
       </c>
       <c r="B62" t="str">
-        <v>sala de aula virtual</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="C62" t="str">
-        <v>ensino remoto e ensino hibrido</v>
+        <v>paemia</v>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E62" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>educacao fisica</v>
+        <v>tdic</v>
       </c>
       <c r="B63" t="str">
-        <v>praticas corporais</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C63" t="str">
-        <v>presencial</v>
+        <v>frequencia escolar</v>
       </c>
       <c r="D63" t="str">
-        <v>a distancia</v>
+        <v>educacao basica</v>
       </c>
       <c r="E63" t="str">
         <v/>
@@ -1476,16 +1476,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>insurgencias</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B64" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>recurso tecnologico</v>
       </c>
       <c r="C64" t="str">
-        <v>docencia no ensino superior</v>
+        <v>formacao continuada</v>
       </c>
       <c r="D64" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E64" t="str">
         <v/>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>educacao</v>
+        <v>apreizagem da docencia</v>
       </c>
       <c r="B65" t="str">
-        <v>ensino remoto</v>
+        <v>professor iniciante</v>
       </c>
       <c r="C65" t="str">
-        <v>ensino hibrido</v>
+        <v>mentoria</v>
       </c>
       <c r="D65" t="str">
         <v/>
@@ -1510,50 +1510,50 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>tecnologia digital</v>
+        <v>revisao de literatura</v>
       </c>
       <c r="B66" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C66" t="str">
-        <v>audiovisual</v>
+        <v>formacao de professor</v>
       </c>
       <c r="D66" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E66" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>microbiologia</v>
+        <v>cultura digital</v>
       </c>
       <c r="B67" t="str">
-        <v>ensino</v>
+        <v>educacao</v>
       </c>
       <c r="C67" t="str">
-        <v>tecnologia</v>
+        <v>paemia</v>
       </c>
       <c r="D67" t="str">
-        <v>jogos</v>
+        <v>fazer pedagogico</v>
       </c>
       <c r="E67" t="str">
-        <v/>
+        <v>educacao profissional</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>formacao de professores</v>
+        <v>comunicacao</v>
       </c>
       <c r="B68" t="str">
-        <v>competencias digitais</v>
+        <v>cultura digital</v>
       </c>
       <c r="C68" t="str">
-        <v>educacao basica</v>
+        <v>educacao</v>
       </c>
       <c r="D68" t="str">
-        <v>covid19</v>
+        <v>tecnologia</v>
       </c>
       <c r="E68" t="str">
         <v/>
@@ -1561,33 +1561,33 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>competencias digitais</v>
+        <v>processos educativos hibridos</v>
       </c>
       <c r="B69" t="str">
-        <v>professores</v>
+        <v>formacao docente</v>
       </c>
       <c r="C69" t="str">
-        <v>selfie for teachers</v>
+        <v>avaliacao</v>
       </c>
       <c r="D69" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>discentesdocentes</v>
       </c>
       <c r="B70" t="str">
-        <v>avaliacao</v>
+        <v>cibercultura</v>
       </c>
       <c r="C70" t="str">
-        <v>curso de pedagogia</v>
+        <v>paemia</v>
       </c>
       <c r="D70" t="str">
-        <v/>
+        <v>periferia</v>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>avaliacao de estagio</v>
+        <v>pedagogia das competencias</v>
       </c>
       <c r="B71" t="str">
-        <v>processo pedagogico</v>
+        <v>formacao docente</v>
       </c>
       <c r="C71" t="str">
-        <v>tecnologias educacionais</v>
+        <v>semiformacao</v>
       </c>
       <c r="D71" t="str">
-        <v/>
+        <v>racionalidade tecnologica instrumental</v>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>bitmoji</v>
+        <v>educacao</v>
       </c>
       <c r="B72" t="str">
-        <v>ferramentas digitais</v>
+        <v>docente</v>
       </c>
       <c r="C72" t="str">
-        <v>praticas de ensino</v>
+        <v>tecnologia</v>
       </c>
       <c r="D72" t="str">
         <v/>
@@ -1629,16 +1629,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>processo avaliativo</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B73" t="str">
-        <v>engenharia</v>
+        <v>atividades remotas</v>
       </c>
       <c r="C73" t="str">
-        <v>projeto integrador</v>
+        <v>formacao academica</v>
       </c>
       <c r="D73" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E73" t="str">
         <v/>
@@ -1646,33 +1646,33 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>google meet</v>
+        <v>tecnologia de comunicacao</v>
       </c>
       <c r="B74" t="str">
-        <v>relato de experiencia</v>
+        <v>perguntas</v>
       </c>
       <c r="C74" t="str">
-        <v>paemia</v>
+        <v>apreizagem</v>
       </c>
       <c r="D74" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E74" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>tdic</v>
+        <v>atividade colaborativa</v>
       </c>
       <c r="B75" t="str">
-        <v>ensino remoto</v>
+        <v>design de colaboracao</v>
       </c>
       <c r="C75" t="str">
-        <v>frequencia escolar</v>
+        <v>abordagens do design</v>
       </c>
       <c r="D75" t="str">
-        <v>educacao basica</v>
+        <v>modelo addie</v>
       </c>
       <c r="E75" t="str">
         <v/>
@@ -1680,30 +1680,30 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>tecnologia educacional</v>
+        <v>reescrita</v>
       </c>
       <c r="B76" t="str">
-        <v>recurso tecnologico</v>
+        <v>docencia</v>
       </c>
       <c r="C76" t="str">
-        <v>formacao continuada</v>
+        <v>anos finais do ensino fuamental</v>
       </c>
       <c r="D76" t="str">
-        <v/>
+        <v>dissertativo argumentativo</v>
       </c>
       <c r="E76" t="str">
-        <v/>
+        <v>enem</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>apreizagem da docencia</v>
+        <v>jogo da onca</v>
       </c>
       <c r="B77" t="str">
-        <v>professor iniciante</v>
+        <v>lei 11645</v>
       </c>
       <c r="C77" t="str">
-        <v>mentoria</v>
+        <v>cultura iigena</v>
       </c>
       <c r="D77" t="str">
         <v/>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>revisao de literatura</v>
+        <v>educacao 40 design educacional</v>
       </c>
       <c r="B78" t="str">
-        <v>tecnologias digitais</v>
+        <v>modelo addie</v>
       </c>
       <c r="C78" t="str">
-        <v>formacao de professor</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="D78" t="str">
         <v/>
@@ -1731,47 +1731,47 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>cultura digital</v>
+        <v>covid19</v>
       </c>
       <c r="B79" t="str">
-        <v>educacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C79" t="str">
-        <v>paemia</v>
+        <v>professores</v>
       </c>
       <c r="D79" t="str">
-        <v>fazer pedagogico</v>
+        <v>experiencias</v>
       </c>
       <c r="E79" t="str">
-        <v>educacao profissional</v>
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>comunicacao</v>
+        <v>curriculo</v>
       </c>
       <c r="B80" t="str">
+        <v>design curricular</v>
+      </c>
+      <c r="C80" t="str">
+        <v>educacao a distancia</v>
+      </c>
+      <c r="D80" t="str">
+        <v>bleedlearning</v>
+      </c>
+      <c r="E80" t="str">
         <v>cultura digital</v>
-      </c>
-      <c r="C80" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="D80" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="E80" t="str">
-        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>processos educativos hibridos</v>
+        <v>capacitacao de professores</v>
       </c>
       <c r="B81" t="str">
-        <v>formacao docente</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C81" t="str">
-        <v>avaliacao</v>
+        <v>etsus</v>
       </c>
       <c r="D81" t="str">
         <v/>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>discentesdocentes</v>
+        <v>cultura escolarizante</v>
       </c>
       <c r="B82" t="str">
-        <v>cibercultura</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C82" t="str">
-        <v>paemia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D82" t="str">
-        <v>periferia</v>
+        <v/>
       </c>
       <c r="E82" t="str">
         <v/>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>pedagogia das competencias</v>
+        <v>ensino superior</v>
       </c>
       <c r="B83" t="str">
-        <v>formacao docente</v>
+        <v>odontologia</v>
       </c>
       <c r="C83" t="str">
-        <v>semiformacao</v>
+        <v>paemia</v>
       </c>
       <c r="D83" t="str">
-        <v>racionalidade tecnologica instrumental</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E83" t="str">
         <v/>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>educacao</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B84" t="str">
-        <v>docente</v>
+        <v>tdic</v>
       </c>
       <c r="C84" t="str">
-        <v>tecnologia</v>
+        <v>aulas sincronas</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
       <c r="E84" t="str">
         <v/>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>estagio supervisionado</v>
+        <v>ensino para a criatividade</v>
       </c>
       <c r="B85" t="str">
-        <v>atividades remotas</v>
+        <v>internacionalidade</v>
       </c>
       <c r="C85" t="str">
-        <v>formacao academica</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D85" t="str">
-        <v/>
+        <v>pensamento criativo</v>
       </c>
       <c r="E85" t="str">
         <v/>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>tecnologia de comunicacao</v>
+        <v>reflexao</v>
       </c>
       <c r="B86" t="str">
-        <v>perguntas</v>
+        <v>epistemologia</v>
       </c>
       <c r="C86" t="str">
-        <v>apreizagem</v>
+        <v>pratica docente</v>
       </c>
       <c r="D86" t="str">
         <v/>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>atividade colaborativa</v>
+        <v>ensino superior</v>
       </c>
       <c r="B87" t="str">
-        <v>design de colaboracao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C87" t="str">
-        <v>abordagens do design</v>
+        <v>formacao inicial</v>
       </c>
       <c r="D87" t="str">
-        <v>modelo addie</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E87" t="str">
         <v/>
@@ -1884,30 +1884,30 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>reescrita</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B88" t="str">
-        <v>docencia</v>
+        <v>covid19</v>
       </c>
       <c r="C88" t="str">
-        <v>anos finais do ensino fuamental</v>
+        <v>ensino online emergencial</v>
       </c>
       <c r="D88" t="str">
-        <v>dissertativo argumentativo</v>
+        <v/>
       </c>
       <c r="E88" t="str">
-        <v>enem</v>
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>jogo da onca</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B89" t="str">
-        <v>lei 11645</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C89" t="str">
-        <v>cultura iigena</v>
+        <v>ensino superior</v>
       </c>
       <c r="D89" t="str">
         <v/>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>educacao 40 design educacional</v>
+        <v>museus virtuais</v>
       </c>
       <c r="B90" t="str">
-        <v>modelo addie</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C90" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>ensino de historia</v>
       </c>
       <c r="D90" t="str">
-        <v/>
+        <v>estagio supervisionado</v>
       </c>
       <c r="E90" t="str">
         <v/>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>covid19</v>
+        <v>ensino nao presencia</v>
       </c>
       <c r="B91" t="str">
-        <v>educacao a distancia</v>
+        <v>cursinho popular</v>
       </c>
       <c r="C91" t="str">
-        <v>professores</v>
+        <v>acesso ao ensino superior</v>
       </c>
       <c r="D91" t="str">
-        <v>experiencias</v>
+        <v/>
       </c>
       <c r="E91" t="str">
         <v/>
@@ -1952,30 +1952,30 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>curriculo</v>
+        <v>tpack</v>
       </c>
       <c r="B92" t="str">
-        <v>design curricular</v>
+        <v>docencia virtual</v>
       </c>
       <c r="C92" t="str">
-        <v>educacao a distancia</v>
+        <v>tdic</v>
       </c>
       <c r="D92" t="str">
-        <v>bleedlearning</v>
+        <v>profissionalizacao docente</v>
       </c>
       <c r="E92" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>capacitacao de professores</v>
+        <v>design thinking</v>
       </c>
       <c r="B93" t="str">
-        <v>educacao a distancia</v>
+        <v>teacher training</v>
       </c>
       <c r="C93" t="str">
-        <v>etsus</v>
+        <v>digital technologies</v>
       </c>
       <c r="D93" t="str">
         <v/>
@@ -1986,13 +1986,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>cultura escolarizante</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B94" t="str">
-        <v>ensino hibrido</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="C94" t="str">
-        <v>metodologias ativas</v>
+        <v>competencias digitais</v>
       </c>
       <c r="D94" t="str">
         <v/>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>ensino superior</v>
+        <v>figura</v>
       </c>
       <c r="B95" t="str">
-        <v>odontologia</v>
+        <v>figuras geometricas</v>
       </c>
       <c r="C95" t="str">
-        <v>paemia</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
       <c r="D95" t="str">
-        <v>educacao hibrida</v>
+        <v/>
       </c>
       <c r="E95" t="str">
         <v/>
@@ -2020,33 +2020,33 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>ensino hibrido</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B96" t="str">
-        <v>tdic</v>
+        <v>educacao ambiental</v>
       </c>
       <c r="C96" t="str">
-        <v>aulas sincronas</v>
+        <v>educacao basica</v>
       </c>
       <c r="D96" t="str">
-        <v>ensino superior</v>
+        <v>revisao sistematica</v>
       </c>
       <c r="E96" t="str">
-        <v/>
+        <v>metodologias de ensino</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>ensino para a criatividade</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B97" t="str">
-        <v>internacionalidade</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C97" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D97" t="str">
-        <v>pensamento criativo</v>
+        <v>paemia</v>
       </c>
       <c r="E97" t="str">
         <v/>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>reflexao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B98" t="str">
-        <v>epistemologia</v>
+        <v>tdic</v>
       </c>
       <c r="C98" t="str">
-        <v>pratica docente</v>
+        <v>quimica</v>
       </c>
       <c r="D98" t="str">
         <v/>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ensino superior</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B99" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C99" t="str">
-        <v>formacao inicial</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D99" t="str">
-        <v>tecnologias digitais</v>
+        <v>pospaemia</v>
       </c>
       <c r="E99" t="str">
         <v/>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>estagio supervisionado</v>
+        <v>inovacao</v>
       </c>
       <c r="B100" t="str">
-        <v>covid19</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C100" t="str">
-        <v>ensino online emergencial</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D100" t="str">
         <v/>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>formacao continuada</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B101" t="str">
-        <v>ferramentas digitais</v>
+        <v>tpack</v>
       </c>
       <c r="C101" t="str">
-        <v>ensino superior</v>
+        <v>tdic</v>
       </c>
       <c r="D101" t="str">
-        <v/>
+        <v>professor reflexivo</v>
       </c>
       <c r="E101" t="str">
         <v/>
@@ -2122,16 +2122,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>museus virtuais</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B102" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C102" t="str">
-        <v>ensino de historia</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D102" t="str">
-        <v>estagio supervisionado</v>
+        <v/>
       </c>
       <c r="E102" t="str">
         <v/>
@@ -2139,16 +2139,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>ensino nao presencia</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="B103" t="str">
-        <v>cursinho popular</v>
+        <v>tecnologias da informacao e da comunicacao</v>
       </c>
       <c r="C103" t="str">
-        <v>acesso ao ensino superior</v>
+        <v>cursos de licenciaturas</v>
       </c>
       <c r="D103" t="str">
-        <v/>
+        <v>percepcao discente</v>
       </c>
       <c r="E103" t="str">
         <v/>
@@ -2156,16 +2156,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>tpack</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B104" t="str">
-        <v>docencia virtual</v>
+        <v>pedagogia</v>
       </c>
       <c r="C104" t="str">
-        <v>tdic</v>
+        <v>juri simulado</v>
       </c>
       <c r="D104" t="str">
-        <v>profissionalizacao docente</v>
+        <v/>
       </c>
       <c r="E104" t="str">
         <v/>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>design thinking</v>
+        <v>digital literacy</v>
       </c>
       <c r="B105" t="str">
-        <v>teacher training</v>
+        <v>remote teaching</v>
       </c>
       <c r="C105" t="str">
-        <v>digital technologies</v>
+        <v>dict</v>
       </c>
       <c r="D105" t="str">
         <v/>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>avaliacao formativa</v>
+        <v>formacao docente</v>
       </c>
       <c r="B106" t="str">
-        <v>tecnologias educacionais</v>
+        <v>pratica docente</v>
       </c>
       <c r="C106" t="str">
-        <v>competencias digitais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D106" t="str">
         <v/>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>figura</v>
+        <v>estilos de apreizagem</v>
       </c>
       <c r="B107" t="str">
-        <v>figuras geometricas</v>
+        <v>modelo de kolb</v>
       </c>
       <c r="C107" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>aplicacao web</v>
       </c>
       <c r="D107" t="str">
         <v/>
@@ -2224,47 +2224,47 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>formacao continuada de professores</v>
+        <v>tdics</v>
       </c>
       <c r="B108" t="str">
-        <v>educacao ambiental</v>
+        <v>formacao docente</v>
       </c>
       <c r="C108" t="str">
-        <v>educacao basica</v>
+        <v>praticapedagogicahibrida</v>
       </c>
       <c r="D108" t="str">
-        <v>revisao sistematica</v>
+        <v/>
       </c>
       <c r="E108" t="str">
-        <v>metodologias de ensino</v>
+        <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>educacao infantil</v>
+        <v>engajamento</v>
       </c>
       <c r="B109" t="str">
-        <v>formacao continuada</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C109" t="str">
-        <v>ensino remoto</v>
+        <v>formacao docente</v>
       </c>
       <c r="D109" t="str">
-        <v>paemia</v>
+        <v>mediacao docente diferenciada</v>
       </c>
       <c r="E109" t="str">
-        <v/>
+        <v>apreizagem virtual</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>formacao de professores</v>
+        <v>metodologias ativas e criativas</v>
       </c>
       <c r="B110" t="str">
-        <v>tdic</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C110" t="str">
-        <v>quimica</v>
+        <v>formacao pedagogica</v>
       </c>
       <c r="D110" t="str">
         <v/>
@@ -2275,16 +2275,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>formacao de professores</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B111" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino superior</v>
       </c>
       <c r="C111" t="str">
-        <v>curso de pedagogia</v>
+        <v>nsino remoto</v>
       </c>
       <c r="D111" t="str">
-        <v>pospaemia</v>
+        <v>covid19</v>
       </c>
       <c r="E111" t="str">
         <v/>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>inovacao</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B112" t="str">
         <v>tecnologias digitais</v>
       </c>
       <c r="C112" t="str">
-        <v>formacao de professores</v>
+        <v>multiletramentos</v>
       </c>
       <c r="D112" t="str">
         <v/>
@@ -2309,16 +2309,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>formacao de professores</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="B113" t="str">
-        <v>tpack</v>
+        <v>sistema de recomeacao</v>
       </c>
       <c r="C113" t="str">
-        <v>tdic</v>
+        <v>producao textua</v>
       </c>
       <c r="D113" t="str">
-        <v>professor reflexivo</v>
+        <v/>
       </c>
       <c r="E113" t="str">
         <v/>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>educacao infantil</v>
+        <v>idosos</v>
       </c>
       <c r="B114" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino coletivo de violao</v>
       </c>
       <c r="C114" t="str">
-        <v>praticas pedagogicas</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="D114" t="str">
         <v/>
@@ -2343,16 +2343,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>inovacao educacional</v>
+        <v>narrativas digitais</v>
       </c>
       <c r="B115" t="str">
-        <v>tecnologias da informacao e da comunicacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C115" t="str">
-        <v>cursos  de licenciaturas</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D115" t="str">
-        <v>percepcao discente</v>
+        <v>formacao docente</v>
       </c>
       <c r="E115" t="str">
         <v/>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>educacao a distancia</v>
+        <v>competencia digital</v>
       </c>
       <c r="B116" t="str">
-        <v>pedagogia</v>
+        <v>tdic</v>
       </c>
       <c r="C116" t="str">
-        <v>juri simulado</v>
+        <v>digicompedu</v>
       </c>
       <c r="D116" t="str">
-        <v/>
+        <v>ensino superior tecnologico</v>
       </c>
       <c r="E116" t="str">
         <v/>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>digital literacy</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B117" t="str">
-        <v>remote teaching</v>
+        <v>covid19</v>
       </c>
       <c r="C117" t="str">
-        <v>dict</v>
+        <v>professores de ciencias</v>
       </c>
       <c r="D117" t="str">
-        <v/>
+        <v>adaptacao</v>
       </c>
       <c r="E117" t="str">
         <v/>
@@ -2394,33 +2394,33 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>formacao docente</v>
+        <v>pratica da leitura</v>
       </c>
       <c r="B118" t="str">
-        <v>pratica docente</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C118" t="str">
-        <v>tecnologias digitais</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="D118" t="str">
-        <v/>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="E118" t="str">
-        <v/>
+        <v>transposicao didatica</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>estilos de apreizagem</v>
+        <v>atividade docente</v>
       </c>
       <c r="B119" t="str">
-        <v>modelo de kolb</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C119" t="str">
-        <v>aplicacao web</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="D119" t="str">
-        <v/>
+        <v>dramaticas de uso de si</v>
       </c>
       <c r="E119" t="str">
         <v/>
@@ -2428,16 +2428,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>tdics</v>
+        <v>ensino de instrumentos de teclado</v>
       </c>
       <c r="B120" t="str">
-        <v>formacao docente</v>
+        <v>licenciatura em musica</v>
       </c>
       <c r="C120" t="str">
-        <v>praticapedagogicahibrida</v>
+        <v>ensino nao presencial emergencial enpe</v>
       </c>
       <c r="D120" t="str">
-        <v/>
+        <v>ambiente virtual de apreizagem ava</v>
       </c>
       <c r="E120" t="str">
         <v/>
@@ -2445,30 +2445,30 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>engajamento</v>
+        <v>paemia</v>
       </c>
       <c r="B121" t="str">
-        <v>ensino hibrido</v>
+        <v>estagio nao presencia</v>
       </c>
       <c r="C121" t="str">
-        <v>formacao docente</v>
+        <v>atuacao docente</v>
       </c>
       <c r="D121" t="str">
-        <v>mediacao docente diferenciada</v>
+        <v>experiencias formativas</v>
       </c>
       <c r="E121" t="str">
-        <v>apreizagem virtual</v>
+        <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>metodologias ativas e criativas</v>
+        <v>ensino</v>
       </c>
       <c r="B122" t="str">
-        <v>educacao a distancia</v>
+        <v>objetos de apreizagem</v>
       </c>
       <c r="C122" t="str">
-        <v>formacao pedagogica</v>
+        <v>professores</v>
       </c>
       <c r="D122" t="str">
         <v/>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>metodologias ativas</v>
+        <v>formacao docente</v>
       </c>
       <c r="B123" t="str">
-        <v>ensino superior</v>
+        <v>ensino musical escolar</v>
       </c>
       <c r="C123" t="str">
-        <v>nsino remoto</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D123" t="str">
-        <v>covid19</v>
+        <v>paemia de covid19</v>
       </c>
       <c r="E123" t="str">
         <v/>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>formacao continuada</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B124" t="str">
-        <v>tecnologias digitais</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C124" t="str">
-        <v>multiletramentos</v>
+        <v>uso das tdic</v>
       </c>
       <c r="D124" t="str">
         <v/>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>modelo pedagogico</v>
+        <v>tecnologia</v>
       </c>
       <c r="B125" t="str">
-        <v>sistema de recomeacao</v>
+        <v>pratica docente</v>
       </c>
       <c r="C125" t="str">
-        <v>producao textua</v>
+        <v>nativos digitais</v>
       </c>
       <c r="D125" t="str">
         <v/>
@@ -2530,16 +2530,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>idosos</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B126" t="str">
-        <v>ensino coletivo de violao</v>
+        <v>normativas</v>
       </c>
       <c r="C126" t="str">
-        <v>tecnologia digital</v>
+        <v>covid19</v>
       </c>
       <c r="D126" t="str">
-        <v/>
+        <v>ensino hibrido</v>
       </c>
       <c r="E126" t="str">
         <v/>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>narrativas digitais</v>
+        <v>tecnologia</v>
       </c>
       <c r="B127" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao</v>
       </c>
       <c r="C127" t="str">
-        <v>educacao a distancia</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D127" t="str">
-        <v>formacao docente</v>
+        <v/>
       </c>
       <c r="E127" t="str">
         <v/>
@@ -2564,16 +2564,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>competencia digital</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B128" t="str">
-        <v>tdic</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C128" t="str">
-        <v>digicompedu</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="D128" t="str">
-        <v>ensino superior tecnologico</v>
+        <v/>
       </c>
       <c r="E128" t="str">
         <v/>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>ensino remoto</v>
+        <v>desenho didatico</v>
       </c>
       <c r="B129" t="str">
-        <v>covid19</v>
+        <v>iagacao online</v>
       </c>
       <c r="C129" t="str">
-        <v>professores de ciencias</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D129" t="str">
-        <v>adaptacao</v>
+        <v>pesquisaformacao</v>
       </c>
       <c r="E129" t="str">
         <v/>
@@ -2598,33 +2598,33 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>pratica da leitura</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="B130" t="str">
-        <v>ensino hibrido</v>
+        <v>professores</v>
       </c>
       <c r="C130" t="str">
-        <v>metodologia ativa</v>
+        <v>tecnologia</v>
       </c>
       <c r="D130" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v/>
       </c>
       <c r="E130" t="str">
-        <v>transposicao didatica</v>
+        <v/>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>atividade docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B131" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>planejamento</v>
       </c>
       <c r="C131" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>pratica docente</v>
       </c>
       <c r="D131" t="str">
-        <v>dramaticas de uso de si</v>
+        <v/>
       </c>
       <c r="E131" t="str">
         <v/>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>ensino de instrumentos de teclado</v>
+        <v>inovacao pedagogica</v>
       </c>
       <c r="B132" t="str">
-        <v>licenciatura em musica</v>
+        <v>plataformizacao</v>
       </c>
       <c r="C132" t="str">
-        <v>ensino nao presencial emergencial enpe</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D132" t="str">
-        <v>ambiente virtual de apreizagem ava</v>
+        <v>paemia covid19</v>
       </c>
       <c r="E132" t="str">
         <v/>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>paemia</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B133" t="str">
-        <v>estagio nao presencia</v>
+        <v>fluencia tecnologicopedagogica</v>
       </c>
       <c r="C133" t="str">
-        <v>atuacao docente</v>
+        <v>covid19</v>
       </c>
       <c r="D133" t="str">
-        <v>experiencias formativas</v>
+        <v/>
       </c>
       <c r="E133" t="str">
         <v/>
@@ -2666,13 +2666,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>ensino</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B134" t="str">
-        <v>objetos de apreizagem</v>
+        <v>presencas na ead</v>
       </c>
       <c r="C134" t="str">
-        <v>professores</v>
+        <v>portfolios de apreizagens</v>
       </c>
       <c r="D134" t="str">
         <v/>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>formacao docente</v>
+        <v>tdic</v>
       </c>
       <c r="B135" t="str">
-        <v>ensino musical escolar</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C135" t="str">
-        <v>ensino remoto</v>
+        <v>argumentacao</v>
       </c>
       <c r="D135" t="str">
-        <v>paemia de covid19</v>
+        <v>interacoes discursivas</v>
       </c>
       <c r="E135" t="str">
         <v/>
@@ -2700,16 +2700,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>educacao hibrida</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B136" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="C136" t="str">
-        <v>uso das tdic</v>
+        <v>conhecimentos pedagogicos e tecnologicos</v>
       </c>
       <c r="D136" t="str">
-        <v/>
+        <v>uefined</v>
       </c>
       <c r="E136" t="str">
         <v/>
@@ -2717,13 +2717,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>tecnologia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B137" t="str">
-        <v>pratica docente</v>
+        <v>programa residencia pedagogica</v>
       </c>
       <c r="C137" t="str">
-        <v>nativos digitais</v>
+        <v>tecnologias digitais de ensino</v>
       </c>
       <c r="D137" t="str">
         <v/>
@@ -2734,16 +2734,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>educacao infantil</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B138" t="str">
-        <v>normativas</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C138" t="str">
-        <v>covid19</v>
+        <v>educacao basica</v>
       </c>
       <c r="D138" t="str">
-        <v>ensino hibrido</v>
+        <v/>
       </c>
       <c r="E138" t="str">
         <v/>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
+        <v>trabalho docente</v>
+      </c>
+      <c r="B139" t="str">
         <v>tecnologia</v>
       </c>
-      <c r="B139" t="str">
-        <v>educacao</v>
-      </c>
       <c r="C139" t="str">
-        <v>trabalho docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D139" t="str">
-        <v/>
+        <v>precarizacao do trabalho docente</v>
       </c>
       <c r="E139" t="str">
         <v/>
@@ -2768,16 +2768,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>formacao de professores</v>
+        <v>ensino</v>
       </c>
       <c r="B140" t="str">
-        <v>ensino de ciencias</v>
+        <v>apreizagem</v>
       </c>
       <c r="C140" t="str">
-        <v>pensamento computacional</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="D140" t="str">
-        <v/>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E140" t="str">
         <v/>
@@ -2785,33 +2785,33 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>desenho didatico</v>
+        <v>ensino superior</v>
       </c>
       <c r="B141" t="str">
-        <v>iagacao online</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="C141" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ambiente virtual de apreizagem</v>
       </c>
       <c r="D141" t="str">
-        <v>pesquisaformacao</v>
+        <v>percepcao de professores</v>
       </c>
       <c r="E141" t="str">
-        <v/>
+        <v>percepcao de estudantes</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>ensinoapreizagem</v>
+        <v>covid19</v>
       </c>
       <c r="B142" t="str">
-        <v>professores</v>
+        <v>curso online</v>
       </c>
       <c r="C142" t="str">
-        <v>tecnologia</v>
+        <v>educacao</v>
       </c>
       <c r="D142" t="str">
-        <v/>
+        <v>sujeitos do campo</v>
       </c>
       <c r="E142" t="str">
         <v/>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>formacao de professores</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B143" t="str">
-        <v>planejamento</v>
+        <v>wordwall</v>
       </c>
       <c r="C143" t="str">
-        <v>pratica docente</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="D143" t="str">
-        <v/>
+        <v>percepcao docente</v>
       </c>
       <c r="E143" t="str">
         <v/>
@@ -2836,47 +2836,47 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>inovacao pedagogica</v>
+        <v>mediacao pedagogica</v>
       </c>
       <c r="B144" t="str">
-        <v>plataformizacao</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="C144" t="str">
-        <v>trabalho docente</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D144" t="str">
-        <v>paemia covid19</v>
+        <v>siemia</v>
       </c>
       <c r="E144" t="str">
-        <v/>
+        <v>desenho universal para apreizagem</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino</v>
       </c>
       <c r="B145" t="str">
-        <v>fluencia tecnologicopedagogica</v>
+        <v>docente</v>
       </c>
       <c r="C145" t="str">
+        <v>tdic</v>
+      </c>
+      <c r="D145" t="str">
+        <v>formacao</v>
+      </c>
+      <c r="E145" t="str">
         <v>covid19</v>
-      </c>
-      <c r="D145" t="str">
-        <v/>
-      </c>
-      <c r="E145" t="str">
-        <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>educacao a distancia</v>
+        <v>apreizagem mediada</v>
       </c>
       <c r="B146" t="str">
-        <v>presencas na ead</v>
+        <v>formacao de professore</v>
       </c>
       <c r="C146" t="str">
-        <v>portfolios de apreizagens</v>
+        <v>letramento digital</v>
       </c>
       <c r="D146" t="str">
         <v/>
@@ -2887,16 +2887,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>tdic</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="B147" t="str">
-        <v>praticas pedagogicas</v>
+        <v>educacao basica</v>
       </c>
       <c r="C147" t="str">
-        <v>argumentacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D147" t="str">
-        <v>interacoes discursivas</v>
+        <v>residencia pedagogica</v>
       </c>
       <c r="E147" t="str">
         <v/>
@@ -2904,50 +2904,50 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>formacao continuada de professores</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B148" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C148" t="str">
-        <v>conhecimentos pedagogicos e tecnologicos</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D148" t="str">
-        <v>uefined</v>
+        <v>formacao continuada de docentes</v>
       </c>
       <c r="E148" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>formacao de professores</v>
+        <v>docencia</v>
       </c>
       <c r="B149" t="str">
-        <v>programa residencia pedagogica</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C149" t="str">
-        <v>tecnologias digitais de ensino</v>
+        <v>gestao da sala de aula</v>
       </c>
       <c r="D149" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E149" t="str">
-        <v/>
+        <v>ensino presencial</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>ensino hibrido</v>
+        <v>competencias</v>
       </c>
       <c r="B150" t="str">
-        <v>formacao de professores</v>
+        <v>jornada</v>
       </c>
       <c r="C150" t="str">
-        <v>educacao basica</v>
+        <v>ambiente remoto</v>
       </c>
       <c r="D150" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E150" t="str">
         <v/>
@@ -2955,33 +2955,33 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>trabalho docente</v>
+        <v>pedagogia</v>
       </c>
       <c r="B151" t="str">
-        <v>tecnologia</v>
+        <v>letramento midiatico</v>
       </c>
       <c r="C151" t="str">
-        <v>formacao de professores</v>
+        <v>identidades</v>
       </c>
       <c r="D151" t="str">
-        <v>precarizacao do trabalho docente</v>
+        <v>epresentacoes sociais</v>
       </c>
       <c r="E151" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>ensino</v>
+        <v>tecnologias de informacao e comunicacao tics</v>
       </c>
       <c r="B152" t="str">
-        <v>apreizagem</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C152" t="str">
-        <v>apreizagem invertida</v>
+        <v>docentes</v>
       </c>
       <c r="D152" t="str">
-        <v>sala de aula invertida</v>
+        <v>contabilidade</v>
       </c>
       <c r="E152" t="str">
         <v/>
@@ -2989,33 +2989,33 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>ensino superior</v>
+        <v>tpack</v>
       </c>
       <c r="B153" t="str">
-        <v>pratica pedagogica</v>
+        <v>formacao de professores de linguas</v>
       </c>
       <c r="C153" t="str">
-        <v>ambiente virtual de apreizagem</v>
+        <v>portugues como lingua adicional</v>
       </c>
       <c r="D153" t="str">
-        <v>percepcao de professores</v>
+        <v/>
       </c>
       <c r="E153" t="str">
-        <v>percepcao de estudantes</v>
+        <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>covid19</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B154" t="str">
-        <v>curso online</v>
+        <v>planejamento didatico</v>
       </c>
       <c r="C154" t="str">
-        <v>educacao</v>
+        <v>desempenho academico</v>
       </c>
       <c r="D154" t="str">
-        <v>sujeitos do campo</v>
+        <v/>
       </c>
       <c r="E154" t="str">
         <v/>
@@ -3023,16 +3023,16 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>jogos digitais</v>
+        <v>teletrabalho</v>
       </c>
       <c r="B155" t="str">
-        <v>wordwall</v>
+        <v>jornada de trabalho</v>
       </c>
       <c r="C155" t="str">
-        <v>ensino e apreizagem</v>
+        <v>idademidia</v>
       </c>
       <c r="D155" t="str">
-        <v>percepcao docente</v>
+        <v>culturadigital</v>
       </c>
       <c r="E155" t="str">
         <v/>
@@ -3040,67 +3040,67 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>mediacao pedagogica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B156" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C156" t="str">
-        <v>educacao inclusiva</v>
+        <v>professor</v>
       </c>
       <c r="D156" t="str">
-        <v>siemia</v>
+        <v>educacao basica</v>
       </c>
       <c r="E156" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>ensino</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B157" t="str">
-        <v>docente</v>
+        <v>avaliacao</v>
       </c>
       <c r="C157" t="str">
-        <v>tdic</v>
+        <v>paemia</v>
       </c>
       <c r="D157" t="str">
-        <v>formacao</v>
+        <v/>
       </c>
       <c r="E157" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>apreizagem mediada</v>
+        <v>docencia</v>
       </c>
       <c r="B158" t="str">
-        <v>formacao de professore</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="C158" t="str">
-        <v>letramento digital</v>
+        <v>ensino superior</v>
       </c>
       <c r="D158" t="str">
-        <v/>
+        <v>especializacao</v>
       </c>
       <c r="E158" t="str">
-        <v/>
+        <v>comunidades de pratica</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino de linguas</v>
       </c>
       <c r="B159" t="str">
-        <v>educacao basica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C159" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D159" t="str">
-        <v>residencia pedagogica</v>
+        <v/>
       </c>
       <c r="E159" t="str">
         <v/>
@@ -3108,50 +3108,50 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>educacao a distancia</v>
+        <v>calculadoras eletronicas</v>
       </c>
       <c r="B160" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C160" t="str">
-        <v>plataforma moodle</v>
+        <v>estudos cts</v>
       </c>
       <c r="D160" t="str">
-        <v>formacao continuada de docentes</v>
+        <v>controversia controlada</v>
       </c>
       <c r="E160" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>docencia</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="B161" t="str">
-        <v>praticas pedagogicas</v>
+        <v>professor</v>
       </c>
       <c r="C161" t="str">
-        <v>gestao da sala de aula</v>
+        <v>paemia</v>
       </c>
       <c r="D161" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E161" t="str">
-        <v>ensino presencial</v>
+        <v/>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>competencias</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B162" t="str">
-        <v>jornada</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C162" t="str">
-        <v>ambiente remoto</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D162" t="str">
-        <v>tecnologias</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="E162" t="str">
         <v/>
@@ -3159,50 +3159,50 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>pedagogia</v>
+        <v>parasitologia</v>
       </c>
       <c r="B163" t="str">
-        <v>letramento midiatico</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="C163" t="str">
-        <v>identidades</v>
+        <v>instrumento de avaliacao</v>
       </c>
       <c r="D163" t="str">
-        <v>epresentacoes sociais</v>
+        <v>avaliacao de materiais didaticos online</v>
       </c>
       <c r="E163" t="str">
-        <v>curso online</v>
+        <v>ensino</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>tecnologias de informacao e comunicacao  tics</v>
+        <v>docencia universitaria</v>
       </c>
       <c r="B164" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>inteligencia artificial</v>
       </c>
       <c r="C164" t="str">
-        <v>docentes</v>
+        <v>automacao</v>
       </c>
       <c r="D164" t="str">
-        <v>contabilidade</v>
+        <v>educacao</v>
       </c>
       <c r="E164" t="str">
-        <v/>
+        <v>algoritimo</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>tpack</v>
+        <v>vulnerabilidades</v>
       </c>
       <c r="B165" t="str">
-        <v>formacao de professores de linguas</v>
+        <v>escolas paulistas</v>
       </c>
       <c r="C165" t="str">
-        <v>portugues como lingua adicional</v>
+        <v>desigualdades socioeconomicas</v>
       </c>
       <c r="D165" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E165" t="str">
         <v/>
@@ -3210,16 +3210,16 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>adolescencia</v>
       </c>
       <c r="B166" t="str">
-        <v>planejamento didatico</v>
+        <v>apreizagem por projeto</v>
       </c>
       <c r="C166" t="str">
-        <v>desempenho academico</v>
+        <v>jogo psicoeducativo</v>
       </c>
       <c r="D166" t="str">
-        <v/>
+        <v>psicologia</v>
       </c>
       <c r="E166" t="str">
         <v/>
@@ -3227,33 +3227,33 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>teletrabalho</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B167" t="str">
-        <v>jornada de trabalho</v>
+        <v>internet</v>
       </c>
       <c r="C167" t="str">
-        <v>idademidia</v>
+        <v>tecnologia</v>
       </c>
       <c r="D167" t="str">
-        <v>culturadigital</v>
+        <v>ferramentas do moodle</v>
       </c>
       <c r="E167" t="str">
-        <v/>
+        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>ensino remoto</v>
+        <v>videoanalise</v>
       </c>
       <c r="B168" t="str">
-        <v>tecnologia</v>
+        <v>tracker</v>
       </c>
       <c r="C168" t="str">
-        <v>professor</v>
+        <v>experiencia virtual</v>
       </c>
       <c r="D168" t="str">
-        <v>educacao basica</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E168" t="str">
         <v/>
@@ -3261,16 +3261,16 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>ensino remoto</v>
+        <v>moodle</v>
       </c>
       <c r="B169" t="str">
-        <v>avaliacao</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C169" t="str">
-        <v>paemia</v>
+        <v>educacao mediada por tecnologias digitais</v>
       </c>
       <c r="D169" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E169" t="str">
         <v/>
@@ -3278,30 +3278,30 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>docencia</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="B170" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C170" t="str">
-        <v>ensino superior</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D170" t="str">
-        <v>especializacao</v>
+        <v>licenciatura</v>
       </c>
       <c r="E170" t="str">
-        <v>comunidades de pratica</v>
+        <v>paemia</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>ensino de linguas</v>
+        <v>audiovisual</v>
       </c>
       <c r="B171" t="str">
-        <v>formacao de professores</v>
+        <v>educacao</v>
       </c>
       <c r="C171" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologia</v>
       </c>
       <c r="D171" t="str">
         <v/>
@@ -3312,30 +3312,30 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>calculadoras eletronicas</v>
+        <v>educacao matematica</v>
       </c>
       <c r="B172" t="str">
-        <v>educacao matematica</v>
+        <v>genero</v>
       </c>
       <c r="C172" t="str">
-        <v>estudos cts</v>
+        <v>geometria</v>
       </c>
       <c r="D172" t="str">
-        <v>controversia controlada</v>
+        <v>representatividade</v>
       </c>
       <c r="E172" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>tecnologia</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="B173" t="str">
-        <v>professor</v>
+        <v>ateimento educacional especializado aee</v>
       </c>
       <c r="C173" t="str">
-        <v>paemia</v>
+        <v>sala de recurso multifuncional</v>
       </c>
       <c r="D173" t="str">
         <v/>
@@ -3346,67 +3346,67 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>jogos digitais</v>
+        <v>ensino</v>
       </c>
       <c r="B174" t="str">
-        <v>educacao matematica</v>
+        <v>apreizagem</v>
       </c>
       <c r="C174" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D174" t="str">
-        <v>relato de experiencia</v>
+        <v>atlas</v>
       </c>
       <c r="E174" t="str">
-        <v/>
+        <v>quimica</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>parasitologia</v>
+        <v>redes sociais</v>
       </c>
       <c r="B175" t="str">
-        <v>materiais didaticos</v>
+        <v>engajamento</v>
       </c>
       <c r="C175" t="str">
-        <v>instrumento de avaliacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="D175" t="str">
-        <v>avaliacao de materiais didaticos online</v>
+        <v/>
       </c>
       <c r="E175" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>docencia universitaria</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B176" t="str">
-        <v>inteligencia artificial</v>
+        <v>avaliacao de programas</v>
       </c>
       <c r="C176" t="str">
-        <v>automacao</v>
+        <v>tecnologias educacionaisdigitais</v>
       </c>
       <c r="D176" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E176" t="str">
-        <v>algoritimo</v>
+        <v/>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>vulnerabilidades</v>
+        <v>whatsapp</v>
       </c>
       <c r="B177" t="str">
-        <v>escolas paulistas</v>
+        <v>ensino</v>
       </c>
       <c r="C177" t="str">
-        <v>desigualdades socioeconomicas</v>
+        <v>apreizagem</v>
       </c>
       <c r="D177" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E177" t="str">
         <v/>
@@ -3414,16 +3414,16 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>adolescencia</v>
+        <v>blog</v>
       </c>
       <c r="B178" t="str">
-        <v>apreizagem por projeto</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C178" t="str">
-        <v>jogo psicoeducativo</v>
+        <v>estrategia didatica</v>
       </c>
       <c r="D178" t="str">
-        <v>psicologia</v>
+        <v>mediacao</v>
       </c>
       <c r="E178" t="str">
         <v/>
@@ -3431,33 +3431,33 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>ensino  remoto</v>
+        <v>design</v>
       </c>
       <c r="B179" t="str">
-        <v>internet</v>
+        <v>qualificacao profissional</v>
       </c>
       <c r="C179" t="str">
-        <v>tecnologia</v>
+        <v>educacao ambienta</v>
       </c>
       <c r="D179" t="str">
-        <v>ferramentas do moodle</v>
+        <v/>
       </c>
       <c r="E179" t="str">
-        <v>materiais didaticos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>videoanalise</v>
+        <v>educacao</v>
       </c>
       <c r="B180" t="str">
-        <v>tracker</v>
+        <v>tecnologia</v>
       </c>
       <c r="C180" t="str">
-        <v>experiencia virtual</v>
+        <v>competencias midiaticas e em informacao</v>
       </c>
       <c r="D180" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E180" t="str">
         <v/>
@@ -3465,16 +3465,16 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>moodle</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="B181" t="str">
-        <v>sequencia didatica</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C181" t="str">
-        <v>educacao mediada por tecnologias digitais</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="D181" t="str">
-        <v>educacao a distancia</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="E181" t="str">
         <v/>
@@ -3482,33 +3482,33 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>sequencia didatica</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="B182" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="C182" t="str">
-        <v>ensino de ciencias</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D182" t="str">
-        <v>licenciatura</v>
+        <v/>
       </c>
       <c r="E182" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>audiovisual</v>
+        <v>educacao superior</v>
       </c>
       <c r="B183" t="str">
-        <v>educacao</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C183" t="str">
-        <v>tecnologia</v>
+        <v>cultura maker</v>
       </c>
       <c r="D183" t="str">
-        <v/>
+        <v>podcast</v>
       </c>
       <c r="E183" t="str">
         <v/>
@@ -3516,33 +3516,33 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>educacao matematica</v>
+        <v>anormalidades craniofaciais</v>
       </c>
       <c r="B184" t="str">
-        <v>genero</v>
+        <v>curadoria de dados</v>
       </c>
       <c r="C184" t="str">
-        <v>geometria</v>
+        <v>rede social</v>
       </c>
       <c r="D184" t="str">
-        <v>representatividade</v>
+        <v/>
       </c>
       <c r="E184" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>tecnologia</v>
+        <v>gamificacao</v>
       </c>
       <c r="B185" t="str">
-        <v>ateimento educacional especializado aee</v>
+        <v>metodologias de ensino</v>
       </c>
       <c r="C185" t="str">
-        <v>sala de recurso multifuncional</v>
+        <v>jogo</v>
       </c>
       <c r="D185" t="str">
-        <v/>
+        <v>ciencias ambientais</v>
       </c>
       <c r="E185" t="str">
         <v/>
@@ -3550,64 +3550,64 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>ensino</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B186" t="str">
-        <v>apreizagem</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C186" t="str">
-        <v>tecnologias digitais</v>
+        <v>jogo eletronico</v>
       </c>
       <c r="D186" t="str">
-        <v>atlas</v>
+        <v>lixo toxico</v>
       </c>
       <c r="E186" t="str">
-        <v>quimica</v>
+        <v>tabela periodica</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>redes sociais</v>
+        <v>direitos autorais</v>
       </c>
       <c r="B187" t="str">
-        <v>engajamento</v>
+        <v>internet</v>
       </c>
       <c r="C187" t="str">
-        <v>apreizagem</v>
+        <v>plagio</v>
       </c>
       <c r="D187" t="str">
-        <v/>
+        <v>material didatico</v>
       </c>
       <c r="E187" t="str">
-        <v/>
+        <v>trabalho academico</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>metaavaliacao</v>
+        <v>material didatico</v>
       </c>
       <c r="B188" t="str">
-        <v>avaliacao de programas</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="C188" t="str">
-        <v>tecnologias educacionaisdigitais</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D188" t="str">
-        <v/>
+        <v>compartilhamento</v>
       </c>
       <c r="E188" t="str">
-        <v/>
+        <v>estrategia pedagogica</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>whatsapp</v>
+        <v>raple</v>
       </c>
       <c r="B189" t="str">
-        <v>ensino</v>
+        <v>repositorios</v>
       </c>
       <c r="C189" t="str">
-        <v>apreizagem</v>
+        <v>planos de aula</v>
       </c>
       <c r="D189" t="str">
         <v/>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>blog</v>
+        <v>wifi</v>
       </c>
       <c r="B190" t="str">
-        <v>educacao hibrida</v>
+        <v>iot</v>
       </c>
       <c r="C190" t="str">
-        <v>estrategia didatica</v>
+        <v>internet das coisas</v>
       </c>
       <c r="D190" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E190" t="str">
         <v/>
@@ -3635,30 +3635,30 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>design</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B191" t="str">
-        <v>qualificacao profissional</v>
+        <v>posgraduacao</v>
       </c>
       <c r="C191" t="str">
-        <v>educacao ambienta</v>
+        <v>covid19</v>
       </c>
       <c r="D191" t="str">
-        <v/>
+        <v>bleed learning</v>
       </c>
       <c r="E191" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>educacao</v>
+        <v>enriquecimento curricular online</v>
       </c>
       <c r="B192" t="str">
-        <v>tecnologia</v>
+        <v>aplicativo para celular</v>
       </c>
       <c r="C192" t="str">
-        <v>competencias midiaticas e em informacao</v>
+        <v>personalizacao do ensino</v>
       </c>
       <c r="D192" t="str">
         <v/>
@@ -3669,30 +3669,30 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B193" t="str">
-        <v>formacao continuada</v>
+        <v>tecnologia</v>
       </c>
       <c r="C193" t="str">
-        <v>recursos educacionais</v>
+        <v>saude</v>
       </c>
       <c r="D193" t="str">
-        <v>ferramentas digitais</v>
+        <v>educacao online</v>
       </c>
       <c r="E193" t="str">
-        <v/>
+        <v>territorialidade</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>evasao no ensino superior</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B194" t="str">
-        <v>apreizagem</v>
+        <v>formacao docente</v>
       </c>
       <c r="C194" t="str">
-        <v>plataforma moodle</v>
+        <v>tdic</v>
       </c>
       <c r="D194" t="str">
         <v/>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>educacao superior</v>
+        <v>gamificacao</v>
       </c>
       <c r="B195" t="str">
-        <v>apreizagem ativa</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C195" t="str">
-        <v>cultura maker</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D195" t="str">
-        <v>podcast</v>
+        <v/>
       </c>
       <c r="E195" t="str">
         <v/>
@@ -3720,13 +3720,13 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>anormalidades craniofaciais</v>
+        <v>historia da matematica</v>
       </c>
       <c r="B196" t="str">
-        <v>curadoria de dados</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C196" t="str">
-        <v>rede social</v>
+        <v>minicurso</v>
       </c>
       <c r="D196" t="str">
         <v/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>gamificacao</v>
+        <v>educacao em saude</v>
       </c>
       <c r="B197" t="str">
-        <v>metodologias de ensino</v>
+        <v>jogos serios</v>
       </c>
       <c r="C197" t="str">
-        <v>jogo</v>
+        <v>emergencia</v>
       </c>
       <c r="D197" t="str">
-        <v>ciencias ambientais</v>
+        <v>cardiologia</v>
       </c>
       <c r="E197" t="str">
         <v/>
@@ -3754,64 +3754,64 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>ensino de quimica</v>
+        <v>interatividade</v>
       </c>
       <c r="B198" t="str">
-        <v>material  didatico digital</v>
+        <v>tecnologia</v>
       </c>
       <c r="C198" t="str">
-        <v>jogo eletronico</v>
+        <v>youtube</v>
       </c>
       <c r="D198" t="str">
-        <v>lixo toxico</v>
+        <v>mediacao</v>
       </c>
       <c r="E198" t="str">
-        <v>tabela periodica</v>
+        <v/>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>direitos autorais</v>
+        <v>colonialismo digital</v>
       </c>
       <c r="B199" t="str">
-        <v>internet</v>
+        <v>educacao online</v>
       </c>
       <c r="C199" t="str">
-        <v>plagio</v>
+        <v>letramentos</v>
       </c>
       <c r="D199" t="str">
-        <v>material didatico</v>
+        <v>ensin osuperior</v>
       </c>
       <c r="E199" t="str">
-        <v>trabalho academico</v>
+        <v>decolonialidade digital</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>material didatico</v>
+        <v>jogo</v>
       </c>
       <c r="B200" t="str">
-        <v>recursos educacionais</v>
+        <v>ensino</v>
       </c>
       <c r="C200" t="str">
-        <v>ensino  remoto emergencial</v>
+        <v>apreizagem</v>
       </c>
       <c r="D200" t="str">
-        <v>compartilhamento</v>
+        <v>digital</v>
       </c>
       <c r="E200" t="str">
-        <v>estrategia pedagogica</v>
+        <v>ambiente virtual</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>raple</v>
+        <v>laboratorios remotos</v>
       </c>
       <c r="B201" t="str">
-        <v>repositorios</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C201" t="str">
-        <v>planos de aula</v>
+        <v>divulgacao ciefica</v>
       </c>
       <c r="D201" t="str">
         <v/>
@@ -3822,13 +3822,13 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>wifi</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B202" t="str">
-        <v>iot</v>
+        <v>trilhas de apreizagem</v>
       </c>
       <c r="C202" t="str">
-        <v>internet das coisas</v>
+        <v>autoria</v>
       </c>
       <c r="D202" t="str">
         <v/>
@@ -3839,33 +3839,33 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>metodologias ativas</v>
+        <v>tutor</v>
       </c>
       <c r="B203" t="str">
-        <v>posgraduacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C203" t="str">
-        <v>covid19</v>
+        <v>paemia da covid19</v>
       </c>
       <c r="D203" t="str">
-        <v>bleed learning</v>
+        <v/>
       </c>
       <c r="E203" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>enriquecimento curricular online</v>
+        <v>educacao</v>
       </c>
       <c r="B204" t="str">
-        <v>aplicativo para celular</v>
+        <v>comunicacao</v>
       </c>
       <c r="C204" t="str">
-        <v>personalizacao do ensino</v>
+        <v>audiovisual</v>
       </c>
       <c r="D204" t="str">
-        <v/>
+        <v>roteiro</v>
       </c>
       <c r="E204" t="str">
         <v/>
@@ -3876,27 +3876,27 @@
         <v>educacao a distancia</v>
       </c>
       <c r="B205" t="str">
-        <v>tecnologia</v>
+        <v>disciplinas regulares</v>
       </c>
       <c r="C205" t="str">
-        <v>saude</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D205" t="str">
-        <v>educacao online</v>
+        <v>presencialidade</v>
       </c>
       <c r="E205" t="str">
-        <v>territorialidade</v>
+        <v/>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ambiente virtual</v>
       </c>
       <c r="B206" t="str">
-        <v>formacao docente</v>
+        <v>moodle</v>
       </c>
       <c r="C206" t="str">
-        <v>tdic</v>
+        <v>educacao basica</v>
       </c>
       <c r="D206" t="str">
         <v/>
@@ -3907,13 +3907,13 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>gamificacao</v>
+        <v>bleed learning</v>
       </c>
       <c r="B207" t="str">
-        <v>ensino de ciencias</v>
+        <v>soft skills</v>
       </c>
       <c r="C207" t="str">
-        <v>metodologias ativas</v>
+        <v>educacao gerencial</v>
       </c>
       <c r="D207" t="str">
         <v/>
@@ -3924,16 +3924,16 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>historia da matematica</v>
+        <v>docencia</v>
       </c>
       <c r="B208" t="str">
-        <v>sequencia didatica</v>
+        <v>educacao digital</v>
       </c>
       <c r="C208" t="str">
-        <v>minicurso</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D208" t="str">
-        <v/>
+        <v>uneb</v>
       </c>
       <c r="E208" t="str">
         <v/>
@@ -3941,84 +3941,84 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>educacao em saude</v>
+        <v>design instrucional</v>
       </c>
       <c r="B209" t="str">
-        <v>jogos serios</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C209" t="str">
-        <v>emergencia</v>
+        <v>ensino superior</v>
       </c>
       <c r="D209" t="str">
-        <v>cardiologia</v>
+        <v>ensino a distancia e digital</v>
       </c>
       <c r="E209" t="str">
-        <v/>
+        <v>microcredenciais</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>interatividade</v>
+        <v>acentuacao grafica</v>
       </c>
       <c r="B210" t="str">
-        <v>tecnologia</v>
+        <v>apreizagem</v>
       </c>
       <c r="C210" t="str">
-        <v>youtube</v>
+        <v>dificuldades</v>
       </c>
       <c r="D210" t="str">
-        <v>mediacao</v>
+        <v>motivacao</v>
       </c>
       <c r="E210" t="str">
-        <v/>
+        <v>metodologia ativa kahoot recursos digitais</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>colonialismo digital</v>
+        <v>avaliacao inovadora</v>
       </c>
       <c r="B211" t="str">
-        <v>educacao online</v>
+        <v>software de avaliacao qualitativa</v>
       </c>
       <c r="C211" t="str">
-        <v>letramentos</v>
+        <v>feedback de avaliacao</v>
       </c>
       <c r="D211" t="str">
-        <v>ensin osuperior</v>
+        <v>percurso de apreizagem personalizada</v>
       </c>
       <c r="E211" t="str">
-        <v>decolonialidade digital</v>
+        <v/>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>jogo</v>
+        <v>mooc</v>
       </c>
       <c r="B212" t="str">
-        <v>ensino</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="C212" t="str">
-        <v>apreizagem</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D212" t="str">
-        <v>digital</v>
+        <v/>
       </c>
       <c r="E212" t="str">
-        <v>ambiente virtual</v>
+        <v/>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>laboratorios remotos</v>
+        <v>kahoot</v>
       </c>
       <c r="B213" t="str">
-        <v>educacao a distancia</v>
+        <v>paemia</v>
       </c>
       <c r="C213" t="str">
-        <v>divulgacao ciefica</v>
+        <v>covid19</v>
       </c>
       <c r="D213" t="str">
-        <v/>
+        <v>motivacao</v>
       </c>
       <c r="E213" t="str">
         <v/>
@@ -4026,16 +4026,16 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino medio</v>
       </c>
       <c r="B214" t="str">
-        <v>trilhas de apreizagem</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C214" t="str">
-        <v>autoria</v>
+        <v>generos digitais</v>
       </c>
       <c r="D214" t="str">
-        <v/>
+        <v>lingua portuguesa</v>
       </c>
       <c r="E214" t="str">
         <v/>
@@ -4043,16 +4043,16 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>tutor</v>
+        <v>alfabetizacao</v>
       </c>
       <c r="B215" t="str">
-        <v>educacao a distancia</v>
+        <v>letramento</v>
       </c>
       <c r="C215" t="str">
-        <v>paemia da covid19</v>
+        <v>autismo</v>
       </c>
       <c r="D215" t="str">
-        <v/>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="E215" t="str">
         <v/>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>educacao</v>
+        <v>moodle</v>
       </c>
       <c r="B216" t="str">
-        <v>comunicacao</v>
+        <v>efl</v>
       </c>
       <c r="C216" t="str">
-        <v>audiovisual</v>
+        <v>textbook</v>
       </c>
       <c r="D216" t="str">
-        <v>roteiro</v>
+        <v/>
       </c>
       <c r="E216" t="str">
         <v/>
@@ -4077,16 +4077,16 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
+        <v>evasao</v>
+      </c>
+      <c r="B217" t="str">
         <v>educacao a distancia</v>
       </c>
-      <c r="B217" t="str">
-        <v>disciplinas regulares</v>
-      </c>
       <c r="C217" t="str">
-        <v>metodologias ativas</v>
+        <v>ferramenta de software</v>
       </c>
       <c r="D217" t="str">
-        <v>presencialidade</v>
+        <v/>
       </c>
       <c r="E217" t="str">
         <v/>
@@ -4094,50 +4094,50 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>ambiente virtual</v>
+        <v>materiais</v>
       </c>
       <c r="B218" t="str">
-        <v>moodle</v>
+        <v>atividades</v>
       </c>
       <c r="C218" t="str">
-        <v>educacao basica</v>
+        <v>midias</v>
       </c>
       <c r="D218" t="str">
-        <v/>
+        <v>ead</v>
       </c>
       <c r="E218" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>bleed learning</v>
+        <v>revisao de escopo</v>
       </c>
       <c r="B219" t="str">
-        <v>soft skills</v>
+        <v>jogos digitais</v>
       </c>
       <c r="C219" t="str">
-        <v>educacao gerencial</v>
+        <v>midias</v>
       </c>
       <c r="D219" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E219" t="str">
-        <v/>
+        <v>praticas pedagogicas</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>docencia</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="B220" t="str">
-        <v>educacao digital</v>
+        <v>educacao infantil</v>
       </c>
       <c r="C220" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>scratchjr</v>
       </c>
       <c r="D220" t="str">
-        <v>uneb</v>
+        <v/>
       </c>
       <c r="E220" t="str">
         <v/>
@@ -4145,50 +4145,50 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>design  instrucional</v>
+        <v>multimodalidade</v>
       </c>
       <c r="B221" t="str">
-        <v>formacao  de  professores</v>
+        <v>videos com conteudo matematico</v>
       </c>
       <c r="C221" t="str">
-        <v>ensino  superior</v>
+        <v>livro didatico</v>
       </c>
       <c r="D221" t="str">
-        <v>ensino  a  distancia  e digital</v>
+        <v/>
       </c>
       <c r="E221" t="str">
-        <v>microcredenciais</v>
+        <v/>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>acentuacao grafica</v>
+        <v>leitura</v>
       </c>
       <c r="B222" t="str">
-        <v>apreizagem</v>
+        <v>escrita</v>
       </c>
       <c r="C222" t="str">
-        <v>dificuldades</v>
+        <v>habilidades matematicas</v>
       </c>
       <c r="D222" t="str">
-        <v>motivacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E222" t="str">
-        <v>metodologia ativa kahoot recursos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>avaliacao inovadora</v>
+        <v>planejamento na ead</v>
       </c>
       <c r="B223" t="str">
-        <v>software de avaliacao qualitativa</v>
+        <v>estrategias pedagogicas</v>
       </c>
       <c r="C223" t="str">
-        <v>feedback de avaliacao</v>
+        <v>moodle no ensino presencial</v>
       </c>
       <c r="D223" t="str">
-        <v>percurso de apreizagem personalizada</v>
+        <v/>
       </c>
       <c r="E223" t="str">
         <v/>
@@ -4196,13 +4196,13 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>mooc</v>
+        <v>realidade aumentada</v>
       </c>
       <c r="B224" t="str">
-        <v>sala de aula invertida</v>
+        <v>geografia</v>
       </c>
       <c r="C224" t="str">
-        <v>tecnologias educacionais</v>
+        <v>educacao</v>
       </c>
       <c r="D224" t="str">
         <v/>
@@ -4213,33 +4213,33 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>kahoot</v>
+        <v>ensino</v>
       </c>
       <c r="B225" t="str">
-        <v>paemia</v>
+        <v>apreizagem</v>
       </c>
       <c r="C225" t="str">
-        <v>covid19</v>
+        <v>ferramentas</v>
       </c>
       <c r="D225" t="str">
-        <v>motivacao</v>
+        <v>programacao</v>
       </c>
       <c r="E225" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>ensino medio</v>
+        <v>ila</v>
       </c>
       <c r="B226" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C226" t="str">
-        <v>generos digitais</v>
+        <v>diretrizes</v>
       </c>
       <c r="D226" t="str">
-        <v>lingua portuguesa</v>
+        <v>ead</v>
       </c>
       <c r="E226" t="str">
         <v/>
@@ -4247,30 +4247,30 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>alfabetizacao</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="B227" t="str">
-        <v>letramento</v>
+        <v>ciencia fisica</v>
       </c>
       <c r="C227" t="str">
-        <v>autismo</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D227" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>tecnologia no ensino</v>
       </c>
       <c r="E227" t="str">
-        <v/>
+        <v>podcast de ciencias</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>moodle</v>
+        <v>kahoot</v>
       </c>
       <c r="B228" t="str">
-        <v>efl</v>
+        <v>gamificacao</v>
       </c>
       <c r="C228" t="str">
-        <v>textbook</v>
+        <v>jogos digitais</v>
       </c>
       <c r="D228" t="str">
         <v/>
@@ -4281,84 +4281,84 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>evasao</v>
+        <v>biodiesel</v>
       </c>
       <c r="B229" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="C229" t="str">
-        <v>ferramenta de software</v>
+        <v>eja</v>
       </c>
       <c r="D229" t="str">
-        <v/>
+        <v>games</v>
       </c>
       <c r="E229" t="str">
-        <v/>
+        <v>phet</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>materiais</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B230" t="str">
-        <v>atividades</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C230" t="str">
-        <v>midias</v>
+        <v>oficinas</v>
       </c>
       <c r="D230" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E230" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>revisao de escopo</v>
+        <v>maker</v>
       </c>
       <c r="B231" t="str">
-        <v>jogos digitais</v>
+        <v>robotica</v>
       </c>
       <c r="C231" t="str">
-        <v>midias</v>
+        <v>criatividade</v>
       </c>
       <c r="D231" t="str">
-        <v>paemia</v>
+        <v>educacao</v>
       </c>
       <c r="E231" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>pensamento computacional</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B232" t="str">
-        <v>educacao infantil</v>
+        <v>fake news</v>
       </c>
       <c r="C232" t="str">
-        <v>scratchjr</v>
+        <v>vacina</v>
       </c>
       <c r="D232" t="str">
-        <v/>
+        <v>educacao midiatica</v>
       </c>
       <c r="E232" t="str">
-        <v/>
+        <v>ensino fuamental</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>multimodalidade</v>
+        <v>metodologiaativa</v>
       </c>
       <c r="B233" t="str">
-        <v>videos com conteudo matematico</v>
+        <v>processosdeensinoe apreizagem</v>
       </c>
       <c r="C233" t="str">
-        <v>livro didatico</v>
+        <v>trabalho em equipe</v>
       </c>
       <c r="D233" t="str">
-        <v/>
+        <v>team based learning</v>
       </c>
       <c r="E233" t="str">
         <v/>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>leitura</v>
+        <v>educacao</v>
       </c>
       <c r="B234" t="str">
-        <v>escrita</v>
+        <v>tecnologia</v>
       </c>
       <c r="C234" t="str">
-        <v>habilidades matematicas</v>
+        <v>producoes filmicas</v>
       </c>
       <c r="D234" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E234" t="str">
         <v/>
@@ -4383,13 +4383,13 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>planejamento na ead</v>
+        <v>technology</v>
       </c>
       <c r="B235" t="str">
-        <v>estrategias pedagogicas</v>
+        <v>education</v>
       </c>
       <c r="C235" t="str">
-        <v>moodle no ensino presencial</v>
+        <v>deaf</v>
       </c>
       <c r="D235" t="str">
         <v/>
@@ -4400,16 +4400,16 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>realidade aumentada</v>
+        <v>psicologia social</v>
       </c>
       <c r="B236" t="str">
-        <v>geografia</v>
+        <v>recursos didaticos audiovisuais</v>
       </c>
       <c r="C236" t="str">
-        <v>educacao</v>
+        <v>video educacional</v>
       </c>
       <c r="D236" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E236" t="str">
         <v/>
@@ -4417,33 +4417,33 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>ensino</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B237" t="str">
-        <v>apreizagem</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="C237" t="str">
-        <v>ferramentas</v>
+        <v>escolas do campo</v>
       </c>
       <c r="D237" t="str">
-        <v>programacao</v>
+        <v/>
       </c>
       <c r="E237" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>ila</v>
+        <v>portal educativo</v>
       </c>
       <c r="B238" t="str">
-        <v>material didatico digital</v>
+        <v>teste de usabilidade</v>
       </c>
       <c r="C238" t="str">
-        <v>diretrizes</v>
+        <v>ensino medio</v>
       </c>
       <c r="D238" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E238" t="str">
         <v/>
@@ -4451,30 +4451,30 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>ensino de fisica</v>
+        <v>design thinking</v>
       </c>
       <c r="B239" t="str">
-        <v>ciencia fisica</v>
+        <v>apreizagem</v>
       </c>
       <c r="C239" t="str">
-        <v>ensino remoto</v>
+        <v>algoritmos</v>
       </c>
       <c r="D239" t="str">
-        <v>tecnologia no ensino</v>
+        <v>nocode</v>
       </c>
       <c r="E239" t="str">
-        <v>podcast de ciencias</v>
+        <v/>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>kahoot</v>
+        <v>apreizagem baseada em projetos</v>
       </c>
       <c r="B240" t="str">
-        <v>gamificacao</v>
+        <v>scrum</v>
       </c>
       <c r="C240" t="str">
-        <v>jogos digitais</v>
+        <v>multidisciplinalidade e tecnologias emergentes</v>
       </c>
       <c r="D240" t="str">
         <v/>
@@ -4485,50 +4485,50 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>biodiesel</v>
+        <v>whatsapp</v>
       </c>
       <c r="B241" t="str">
-        <v>ensino de quimica</v>
+        <v>estado da arte</v>
       </c>
       <c r="C241" t="str">
-        <v>eja</v>
+        <v>tdic</v>
       </c>
       <c r="D241" t="str">
-        <v>games</v>
+        <v>ferramenta pedagogica</v>
       </c>
       <c r="E241" t="str">
-        <v>phet</v>
+        <v>ensino</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>robotica educacional</v>
+        <v>cenarios de apreizagem interativos</v>
       </c>
       <c r="B242" t="str">
-        <v>apreizagem ativa</v>
+        <v>cia</v>
       </c>
       <c r="C242" t="str">
-        <v>oficinas</v>
+        <v>interacoes</v>
       </c>
       <c r="D242" t="str">
-        <v/>
+        <v>entropia</v>
       </c>
       <c r="E242" t="str">
-        <v/>
+        <v>aula virtual</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>maker</v>
+        <v>tdic</v>
       </c>
       <c r="B243" t="str">
-        <v>robotica</v>
+        <v>ensino</v>
       </c>
       <c r="C243" t="str">
-        <v>criatividade</v>
+        <v>climatologia</v>
       </c>
       <c r="D243" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E243" t="str">
         <v/>
@@ -4536,33 +4536,33 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>ensino de ciencias</v>
+        <v>gamificacao</v>
       </c>
       <c r="B244" t="str">
-        <v>fake news</v>
+        <v>ensino</v>
       </c>
       <c r="C244" t="str">
-        <v>vacina</v>
+        <v>eletricidade</v>
       </c>
       <c r="D244" t="str">
-        <v>educacao midiatica</v>
+        <v>palavrascruzadas</v>
       </c>
       <c r="E244" t="str">
-        <v>ensino fuamental</v>
+        <v/>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>metodologiaativa</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B245" t="str">
-        <v>processosdeensinoe apreizagem</v>
+        <v>lingua inglesa</v>
       </c>
       <c r="C245" t="str">
-        <v>trabalho em equipe</v>
+        <v>curso e3d</v>
       </c>
       <c r="D245" t="str">
-        <v>team based learning</v>
+        <v>recursos multimodais</v>
       </c>
       <c r="E245" t="str">
         <v/>
@@ -4570,16 +4570,16 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>educacao</v>
+        <v>ensino de botanica</v>
       </c>
       <c r="B246" t="str">
-        <v>tecnologia</v>
+        <v>tic</v>
       </c>
       <c r="C246" t="str">
-        <v>producoes filmicas</v>
+        <v>botanica e tecnologia</v>
       </c>
       <c r="D246" t="str">
-        <v/>
+        <v>morfologia vegetal</v>
       </c>
       <c r="E246" t="str">
         <v/>
@@ -4587,13 +4587,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>technology</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B247" t="str">
-        <v>education</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C247" t="str">
-        <v>deaf</v>
+        <v>metodologia do ensino</v>
       </c>
       <c r="D247" t="str">
         <v/>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>psicologia  social</v>
+        <v>plataformas interativas</v>
       </c>
       <c r="B248" t="str">
-        <v>recursos  didaticos  audiovisuais</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C248" t="str">
-        <v>video  educacional</v>
+        <v>edpuzzle</v>
       </c>
       <c r="D248" t="str">
-        <v>educacao  a distancia</v>
+        <v>mentimeter</v>
       </c>
       <c r="E248" t="str">
         <v/>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>ensino hibrido</v>
+        <v>enfermagem</v>
       </c>
       <c r="B249" t="str">
-        <v>ensinoapreizagem</v>
+        <v>covid19</v>
       </c>
       <c r="C249" t="str">
-        <v>escolas do campo</v>
+        <v>tecnologia de informacao</v>
       </c>
       <c r="D249" t="str">
         <v/>
@@ -4638,16 +4638,16 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>portal educativo</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B250" t="str">
-        <v>teste  de usabilidade</v>
+        <v>institucionalizacao da educacao a distancia</v>
       </c>
       <c r="C250" t="str">
-        <v>ensino medio</v>
+        <v>politicas institucionais de educacao a distancia</v>
       </c>
       <c r="D250" t="str">
-        <v/>
+        <v>politicas publicas</v>
       </c>
       <c r="E250" t="str">
         <v/>
@@ -4655,16 +4655,16 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>design thinking</v>
+        <v>avaliacao in loco virtual</v>
       </c>
       <c r="B251" t="str">
-        <v>apreizagem</v>
+        <v>sinaes</v>
       </c>
       <c r="C251" t="str">
-        <v>algoritmos</v>
+        <v>legislacao</v>
       </c>
       <c r="D251" t="str">
-        <v>nocode</v>
+        <v>paemiada covid 19</v>
       </c>
       <c r="E251" t="str">
         <v/>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>apreizagem baseada em projetos</v>
+        <v>teoria critica</v>
       </c>
       <c r="B252" t="str">
-        <v>scrum</v>
+        <v>neoliberalismo</v>
       </c>
       <c r="C252" t="str">
-        <v>multidisciplinalidade e tecnologias emergentes</v>
+        <v>plataformizacao</v>
       </c>
       <c r="D252" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E252" t="str">
         <v/>
@@ -4689,50 +4689,50 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>whatsapp</v>
+        <v>gestao escolar</v>
       </c>
       <c r="B253" t="str">
-        <v>estado da arte</v>
+        <v>demaas sociais</v>
       </c>
       <c r="C253" t="str">
-        <v>tdic</v>
+        <v>tecnologias</v>
       </c>
       <c r="D253" t="str">
-        <v>ferramenta pedagogica</v>
+        <v>formacao integral</v>
       </c>
       <c r="E253" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>cenarios de apreizagem interativos</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B254" t="str">
-        <v>cia</v>
+        <v>regiao centrooeste</v>
       </c>
       <c r="C254" t="str">
-        <v>interacoes</v>
+        <v>matriculasna educacao superior a distancia</v>
       </c>
       <c r="D254" t="str">
-        <v>entropia</v>
+        <v/>
       </c>
       <c r="E254" t="str">
-        <v>aula virtual</v>
+        <v/>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>tdic</v>
+        <v>educacao adistancia</v>
       </c>
       <c r="B255" t="str">
-        <v>ensino</v>
+        <v>proformacao</v>
       </c>
       <c r="C255" t="str">
-        <v>climatologia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D255" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E255" t="str">
         <v/>
@@ -4740,16 +4740,16 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>gamificacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B256" t="str">
-        <v>ensino</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C256" t="str">
-        <v>eletricidade</v>
+        <v>iissociabilidade entre ensino</v>
       </c>
       <c r="D256" t="str">
-        <v>palavrascruzadas</v>
+        <v>pesquisa e extensao</v>
       </c>
       <c r="E256" t="str">
         <v/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>ensino a distancia</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="B257" t="str">
-        <v>lingua inglesa</v>
+        <v>design centrado no usuario</v>
       </c>
       <c r="C257" t="str">
-        <v>curso e3d</v>
+        <v>servico de apoio pedagogico</v>
       </c>
       <c r="D257" t="str">
-        <v>recursos multimodais</v>
+        <v/>
       </c>
       <c r="E257" t="str">
         <v/>
@@ -4774,16 +4774,16 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>ensino de botanica</v>
+        <v>educacao presencial</v>
       </c>
       <c r="B258" t="str">
-        <v>tic</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C258" t="str">
-        <v>botanica e tecnologia</v>
+        <v>desempenho</v>
       </c>
       <c r="D258" t="str">
-        <v>morfologia vegetal</v>
+        <v/>
       </c>
       <c r="E258" t="str">
         <v/>
@@ -4791,13 +4791,13 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>ensino de quimica</v>
+        <v>evasao na educacao superior</v>
       </c>
       <c r="B259" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>paemia covid19</v>
       </c>
       <c r="C259" t="str">
-        <v>metodologia do ensino</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D259" t="str">
         <v/>
@@ -4808,16 +4808,16 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>plataformas   interativas</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B260" t="str">
-        <v>tecnologias   digitais   da informacao   e   comunicacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C260" t="str">
-        <v>edpuzzle</v>
+        <v>egressos</v>
       </c>
       <c r="D260" t="str">
-        <v>mentimeter</v>
+        <v>polo uab</v>
       </c>
       <c r="E260" t="str">
         <v/>
@@ -4825,13 +4825,13 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>enfermagem</v>
+        <v>biblioteca digital</v>
       </c>
       <c r="B261" t="str">
-        <v>covid19</v>
+        <v>bibliografia basica e complementar</v>
       </c>
       <c r="C261" t="str">
-        <v>tecnologia de informacao</v>
+        <v>formacao e desenvolvimento de acervo</v>
       </c>
       <c r="D261" t="str">
         <v/>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>educacao  a  distancia</v>
+        <v>historico da educacao a distancia</v>
       </c>
       <c r="B262" t="str">
-        <v>institucionalizacao  da  educacao  a  distancia</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C262" t="str">
-        <v>politicas institucionais de educacao a distancia</v>
+        <v>educacao profissional a distancia</v>
       </c>
       <c r="D262" t="str">
-        <v>politicas publicas</v>
+        <v/>
       </c>
       <c r="E262" t="str">
         <v/>
@@ -4859,16 +4859,16 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>avaliacao in loco virtual</v>
+        <v>capitalismo de vigilancia</v>
       </c>
       <c r="B263" t="str">
-        <v>sinaes</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C263" t="str">
-        <v>legislacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D263" t="str">
-        <v>paemiada covid 19</v>
+        <v/>
       </c>
       <c r="E263" t="str">
         <v/>
@@ -4876,33 +4876,33 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>teoria critica</v>
+        <v>paemia</v>
       </c>
       <c r="B264" t="str">
-        <v>neoliberalismo</v>
+        <v>distanciamento social</v>
       </c>
       <c r="C264" t="str">
-        <v>plataformizacao</v>
+        <v>gestao escolar</v>
       </c>
       <c r="D264" t="str">
-        <v>educacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="E264" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>gestao escolar</v>
+        <v>educacao corporativa</v>
       </c>
       <c r="B265" t="str">
-        <v>demaas sociais</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C265" t="str">
-        <v>tecnologias</v>
+        <v>marinha do brasil</v>
       </c>
       <c r="D265" t="str">
-        <v>formacao integral</v>
+        <v/>
       </c>
       <c r="E265" t="str">
         <v/>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>educacao  a  distancia</v>
+        <v>mercado de trabalho</v>
       </c>
       <c r="B266" t="str">
-        <v>regiao  centrooeste</v>
+        <v>pratica profissional</v>
       </c>
       <c r="C266" t="str">
-        <v>matriculasna  educacao  superior  a distancia</v>
+        <v>seguranca no trabalho</v>
       </c>
       <c r="D266" t="str">
-        <v/>
+        <v>vocacao regional</v>
       </c>
       <c r="E266" t="str">
         <v/>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>educacao adistancia</v>
+        <v>ensino basico</v>
       </c>
       <c r="B267" t="str">
-        <v>proformacao</v>
+        <v>ensino remotoemergencia</v>
       </c>
       <c r="C267" t="str">
-        <v>formacao de professores</v>
+        <v>covid19</v>
       </c>
       <c r="D267" t="str">
-        <v>educacao basica</v>
+        <v>tic</v>
       </c>
       <c r="E267" t="str">
         <v/>
@@ -4944,16 +4944,16 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>educacao a distancia</v>
+        <v>formacao de profissionais da educacao</v>
       </c>
       <c r="B268" t="str">
-        <v>institucionalizacao</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C268" t="str">
-        <v>iissociabilidade entre ensino</v>
+        <v>tdic</v>
       </c>
       <c r="D268" t="str">
-        <v>pesquisa e extensao</v>
+        <v/>
       </c>
       <c r="E268" t="str">
         <v/>
@@ -4961,16 +4961,16 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>gestao educacional</v>
       </c>
       <c r="B269" t="str">
-        <v>design centrado no usuario</v>
+        <v>ead</v>
       </c>
       <c r="C269" t="str">
-        <v>servico de apoio pedagogico</v>
+        <v>educacao e tecnologia</v>
       </c>
       <c r="D269" t="str">
-        <v/>
+        <v>atuacao profissional</v>
       </c>
       <c r="E269" t="str">
         <v/>
@@ -4978,13 +4978,13 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>educacao presencial</v>
+        <v>gestao democratica</v>
       </c>
       <c r="B270" t="str">
-        <v>educacao a distancia</v>
+        <v>eleicao para diretora</v>
       </c>
       <c r="C270" t="str">
-        <v>desempenho</v>
+        <v>lei complementar n 1096</v>
       </c>
       <c r="D270" t="str">
         <v/>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>evasao na educacao superior</v>
+        <v>gestao na educacao</v>
       </c>
       <c r="B271" t="str">
-        <v>paemia covid19</v>
+        <v>planejamento estrategico</v>
       </c>
       <c r="C271" t="str">
-        <v>educacao a distancia</v>
+        <v>instituicao de ensino</v>
       </c>
       <c r="D271" t="str">
         <v/>
@@ -5012,30 +5012,30 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>educacao a distancia</v>
+        <v>googledrive</v>
       </c>
       <c r="B272" t="str">
-        <v>ensino superior</v>
+        <v>organizacao pedagogica</v>
       </c>
       <c r="C272" t="str">
-        <v>egressos</v>
+        <v>educacao basica</v>
       </c>
       <c r="D272" t="str">
-        <v>polo uab</v>
+        <v>sistema municipal publico de ensino</v>
       </c>
       <c r="E272" t="str">
-        <v/>
+        <v>gestao educacional</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>biblioteca  digital</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B273" t="str">
-        <v>bibliografia  basica  e  complementar</v>
+        <v>educacao superior</v>
       </c>
       <c r="C273" t="str">
-        <v>formacao  e desenvolvimento de acervo</v>
+        <v>inclusao digital</v>
       </c>
       <c r="D273" t="str">
         <v/>
@@ -5046,16 +5046,16 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>historico   da   educacao   a   distancia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B274" t="str">
-        <v>institucionalizacao   da   ead</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C274" t="str">
-        <v>educacao profissional a distancia</v>
+        <v>bibliometria</v>
       </c>
       <c r="D274" t="str">
-        <v/>
+        <v>universidade aberta do brasil</v>
       </c>
       <c r="E274" t="str">
         <v/>
@@ -5063,13 +5063,13 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>capitalismo de vigilancia</v>
+        <v>educacao maker</v>
       </c>
       <c r="B275" t="str">
-        <v>tecnologias digitais</v>
+        <v>prototipagem</v>
       </c>
       <c r="C275" t="str">
-        <v>ensino remoto</v>
+        <v>ensino superior</v>
       </c>
       <c r="D275" t="str">
         <v/>
@@ -5080,50 +5080,50 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>paemia</v>
+        <v>politica de assistencia estudantil</v>
       </c>
       <c r="B276" t="str">
-        <v>distanciamento social</v>
+        <v>direito a educacao</v>
       </c>
       <c r="C276" t="str">
-        <v>gestao escolar</v>
+        <v>modelo de formacao</v>
       </c>
       <c r="D276" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E276" t="str">
-        <v>ensino apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>educacao corporativa</v>
+        <v>tecnologia</v>
       </c>
       <c r="B277" t="str">
-        <v>formacao continuada</v>
+        <v>educacao</v>
       </c>
       <c r="C277" t="str">
-        <v>marinha do brasil</v>
+        <v>trabalho</v>
       </c>
       <c r="D277" t="str">
-        <v/>
+        <v>napp academy</v>
       </c>
       <c r="E277" t="str">
-        <v/>
+        <v>carencia</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>mercado de trabalho</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="B278" t="str">
-        <v>pratica profissional</v>
+        <v>tecnologia de informacao e comunicacao</v>
       </c>
       <c r="C278" t="str">
-        <v>seguranca no trabalho</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D278" t="str">
-        <v>vocacao regional</v>
+        <v>praticaspedagogicas</v>
       </c>
       <c r="E278" t="str">
         <v/>
@@ -5131,16 +5131,16 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>ensino basico</v>
+        <v>permanencia</v>
       </c>
       <c r="B279" t="str">
-        <v>ensino remotoemergencia</v>
+        <v>ensino superior</v>
       </c>
       <c r="C279" t="str">
-        <v>covid19</v>
+        <v>tecnologia</v>
       </c>
       <c r="D279" t="str">
-        <v>tic</v>
+        <v>gestao</v>
       </c>
       <c r="E279" t="str">
         <v/>
@@ -5148,16 +5148,16 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>formacao de profissionais da educacao</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B280" t="str">
-        <v>formacao continuada</v>
+        <v>educacao superior</v>
       </c>
       <c r="C280" t="str">
-        <v>tdic</v>
+        <v>gestao de processo</v>
       </c>
       <c r="D280" t="str">
-        <v/>
+        <v>inclusao digital</v>
       </c>
       <c r="E280" t="str">
         <v/>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>gestao educacional</v>
+        <v>aluno com deficiencia</v>
       </c>
       <c r="B281" t="str">
-        <v>ead</v>
+        <v>ensino superior</v>
       </c>
       <c r="C281" t="str">
-        <v>educacao e tecnologia</v>
+        <v>inclusao</v>
       </c>
       <c r="D281" t="str">
-        <v>atuacao profissional</v>
+        <v/>
       </c>
       <c r="E281" t="str">
         <v/>
@@ -5182,16 +5182,16 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>gestao democratica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B282" t="str">
-        <v>eleicao para diretora</v>
+        <v>estrategia de retencao educacional</v>
       </c>
       <c r="C282" t="str">
-        <v>lei complementar n 1096</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="D282" t="str">
-        <v/>
+        <v>fatores criticos de sucesso</v>
       </c>
       <c r="E282" t="str">
         <v/>
@@ -5199,13 +5199,13 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>gestao na educacao</v>
+        <v>novo ensino medio</v>
       </c>
       <c r="B283" t="str">
-        <v>planejamento estrategico</v>
+        <v>tecnologias</v>
       </c>
       <c r="C283" t="str">
-        <v>instituicao de ensino</v>
+        <v>profissao docente</v>
       </c>
       <c r="D283" t="str">
         <v/>
@@ -5216,33 +5216,33 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>googledrive</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B284" t="str">
-        <v>organizacao pedagogica</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C284" t="str">
-        <v>educacao basica</v>
+        <v>rede federal de educacao profissional e tecnologica</v>
       </c>
       <c r="D284" t="str">
-        <v>sistema municipal publico de ensino</v>
+        <v>conif</v>
       </c>
       <c r="E284" t="str">
-        <v>gestao educacional</v>
+        <v/>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>politicas publicas</v>
+        <v>sistema publico municipal</v>
       </c>
       <c r="B285" t="str">
-        <v>educacao superior</v>
+        <v>tdic</v>
       </c>
       <c r="C285" t="str">
-        <v>inclusao digital</v>
+        <v>equidade</v>
       </c>
       <c r="D285" t="str">
-        <v/>
+        <v>politicas educacionais</v>
       </c>
       <c r="E285" t="str">
         <v/>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologia e educacao</v>
       </c>
       <c r="B286" t="str">
-        <v>institucionalizacao</v>
+        <v>legislacao educacional</v>
       </c>
       <c r="C286" t="str">
-        <v>bibliometria</v>
+        <v>tecnologias digitais no ensino</v>
       </c>
       <c r="D286" t="str">
-        <v>universidade aberta do brasil</v>
+        <v/>
       </c>
       <c r="E286" t="str">
         <v/>
@@ -5267,30 +5267,30 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>educacao maker</v>
+        <v>plano de intervencao</v>
       </c>
       <c r="B287" t="str">
-        <v>prototipagem</v>
+        <v>base nacional comum curricular e parametros curriculares nacionais</v>
       </c>
       <c r="C287" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
       </c>
       <c r="D287" t="str">
-        <v/>
+        <v>ensino medio</v>
       </c>
       <c r="E287" t="str">
-        <v/>
+        <v>gestao educacional integrada</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>politica de assistencia estudantil</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B288" t="str">
-        <v>direito a educacao</v>
+        <v>retorno presencial</v>
       </c>
       <c r="C288" t="str">
-        <v>modelo de formacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D288" t="str">
         <v/>
@@ -5301,33 +5301,33 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
+        <v>educacao</v>
+      </c>
+      <c r="B289" t="str">
         <v>tecnologia</v>
       </c>
-      <c r="B289" t="str">
-        <v>educacao</v>
-      </c>
       <c r="C289" t="str">
-        <v>trabalho</v>
+        <v>pensamento critico</v>
       </c>
       <c r="D289" t="str">
-        <v>napp academy</v>
+        <v>revisao narrativa</v>
       </c>
       <c r="E289" t="str">
-        <v>carencia</v>
+        <v>neil selwyn</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>algebra nos anos iniciais</v>
       </c>
       <c r="B290" t="str">
-        <v>tecnologia de informacao e comunicacao</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C290" t="str">
-        <v>ensino hibrido</v>
+        <v>tics</v>
       </c>
       <c r="D290" t="str">
-        <v>praticaspedagogicas</v>
+        <v/>
       </c>
       <c r="E290" t="str">
         <v/>
@@ -5335,16 +5335,16 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>permanencia</v>
+        <v>formacao inicial de professores</v>
       </c>
       <c r="B291" t="str">
-        <v>ensino superior</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="C291" t="str">
-        <v>tecnologia</v>
+        <v>tecnologiaseducacionais</v>
       </c>
       <c r="D291" t="str">
-        <v>gestao</v>
+        <v/>
       </c>
       <c r="E291" t="str">
         <v/>
@@ -5352,33 +5352,33 @@
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>politicas publicas</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B292" t="str">
-        <v>educacao superior</v>
+        <v>feedback</v>
       </c>
       <c r="C292" t="str">
-        <v>gestao de processo</v>
+        <v>regulacao</v>
       </c>
       <c r="D292" t="str">
-        <v>inclusao digital</v>
+        <v>autorregulacao</v>
       </c>
       <c r="E292" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>aluno com deficiencia</v>
+        <v>ensino de fisicaciencias</v>
       </c>
       <c r="B293" t="str">
-        <v>ensino superior</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C293" t="str">
-        <v>inclusao</v>
+        <v>paemia</v>
       </c>
       <c r="D293" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E293" t="str">
         <v/>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>educacao  a  distancia</v>
+        <v>processo de ensino e apreizagem</v>
       </c>
       <c r="B294" t="str">
-        <v>estrategia  de  retencao  educacional</v>
+        <v>cultura digital</v>
       </c>
       <c r="C294" t="str">
-        <v>evasao  no  ensino superior</v>
+        <v>educacao superior</v>
       </c>
       <c r="D294" t="str">
-        <v>fatores criticos de sucesso</v>
+        <v>tecnologia</v>
       </c>
       <c r="E294" t="str">
         <v/>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>novo ensino medio</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B295" t="str">
-        <v>tecnologias</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="C295" t="str">
-        <v>profissao docente</v>
+        <v>politicas publicas</v>
       </c>
       <c r="D295" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E295" t="str">
         <v/>
@@ -5420,33 +5420,33 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>educacao   a   distancia</v>
+        <v>transdisciplinaridade</v>
       </c>
       <c r="B296" t="str">
-        <v>institucionalizacao   da   ead</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C296" t="str">
-        <v>rede   federal   de   educacao profissional e tecnologica</v>
+        <v>multidisciplinaridade</v>
       </c>
       <c r="D296" t="str">
-        <v>conif</v>
+        <v>transversalidade</v>
       </c>
       <c r="E296" t="str">
-        <v/>
+        <v>ensino basico</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>sistema publico municipal</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B297" t="str">
-        <v>tdic</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C297" t="str">
-        <v>equidade</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D297" t="str">
-        <v>politicas educacionais</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="E297" t="str">
         <v/>
@@ -5454,16 +5454,16 @@
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>tecnologia e educacao</v>
+        <v>paemia</v>
       </c>
       <c r="B298" t="str">
-        <v>legislacao educacional</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C298" t="str">
-        <v>tecnologias digitais no ensino</v>
+        <v>educacao remota</v>
       </c>
       <c r="D298" t="str">
-        <v/>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="E298" t="str">
         <v/>
@@ -5471,30 +5471,30 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>plano  de  intervencao</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B299" t="str">
-        <v>base  nacional  comum  curricular  e  parametros curriculares nacionais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C299" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
+        <v>brasil</v>
       </c>
       <c r="D299" t="str">
-        <v>ensino medio</v>
+        <v>portugal</v>
       </c>
       <c r="E299" t="str">
-        <v>gestao educacional integrada</v>
+        <v/>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B300" t="str">
-        <v>retorno presencial</v>
+        <v>metodologias</v>
       </c>
       <c r="C300" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologias</v>
       </c>
       <c r="D300" t="str">
         <v/>
@@ -5505,30 +5505,30 @@
     </row>
     <row r="301">
       <c r="A301" t="str">
+        <v>sociologia da ciencia</v>
+      </c>
+      <c r="B301" t="str">
+        <v>cientometria</v>
+      </c>
+      <c r="C301" t="str">
         <v>educacao</v>
       </c>
-      <c r="B301" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="C301" t="str">
-        <v>pensamento critico</v>
-      </c>
       <c r="D301" t="str">
-        <v>revisao narrativa</v>
+        <v>formacao de professores</v>
       </c>
       <c r="E301" t="str">
-        <v>neil selwyn</v>
+        <v>tecnologias digitais</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>algebra nos anos iniciais</v>
+        <v>identidade docente</v>
       </c>
       <c r="B302" t="str">
-        <v>formacao continuada de professores</v>
+        <v>formacao docente</v>
       </c>
       <c r="C302" t="str">
-        <v>tics</v>
+        <v>licenciatura em educacao a distancia</v>
       </c>
       <c r="D302" t="str">
         <v/>
@@ -5539,13 +5539,13 @@
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>formacao inicial de professores</v>
+        <v>anais do eneq</v>
       </c>
       <c r="B303" t="str">
-        <v>ensino de fisica</v>
+        <v>educacao quimica</v>
       </c>
       <c r="C303" t="str">
-        <v>tecnologiaseducacionais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D303" t="str">
         <v/>
@@ -5556,50 +5556,50 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>avaliacao formativa</v>
+        <v>ensino superior</v>
       </c>
       <c r="B304" t="str">
-        <v>feedback</v>
+        <v>ensino superior</v>
       </c>
       <c r="C304" t="str">
-        <v>regulacao</v>
+        <v>bleed learning</v>
       </c>
       <c r="D304" t="str">
-        <v>autorregulacao</v>
+        <v>bleed learning</v>
       </c>
       <c r="E304" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>ensino de fisicaciencias</v>
+        <v>paulo freir</v>
       </c>
       <c r="B305" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C305" t="str">
-        <v>paemia</v>
+        <v>tdic</v>
       </c>
       <c r="D305" t="str">
-        <v>tecnologias</v>
+        <v>educacao a distanci</v>
       </c>
       <c r="E305" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>processo de ensino e apreizagem</v>
+        <v>conhecimento</v>
       </c>
       <c r="B306" t="str">
-        <v>cultura digital</v>
+        <v>metodologia</v>
       </c>
       <c r="C306" t="str">
-        <v>educacao superior</v>
+        <v>pesquisa</v>
       </c>
       <c r="D306" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E306" t="str">
         <v/>
@@ -5607,16 +5607,16 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>tecnologia educacional</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="B307" t="str">
-        <v>inovacao educacional</v>
+        <v>pesquisador</v>
       </c>
       <c r="C307" t="str">
-        <v>politicas publicas</v>
+        <v>stricto sensu</v>
       </c>
       <c r="D307" t="str">
-        <v>educacao basica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E307" t="str">
         <v/>
@@ -5624,50 +5624,50 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>transdisciplinaridade</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B308" t="str">
-        <v>interdisciplinaridade</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C308" t="str">
-        <v>multidisciplinaridade</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D308" t="str">
-        <v>transversalidade</v>
+        <v/>
       </c>
       <c r="E308" t="str">
-        <v>ensino basico</v>
+        <v/>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
+        <v>ensino remoto</v>
+      </c>
+      <c r="B309" t="str">
         <v>ensino hibrido</v>
       </c>
-      <c r="B309" t="str">
-        <v>metodologias ativas</v>
-      </c>
       <c r="C309" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino superior</v>
       </c>
       <c r="D309" t="str">
-        <v>ensinoapreizagem</v>
+        <v>transformacao digital</v>
       </c>
       <c r="E309" t="str">
-        <v/>
+        <v>subjetividade</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>paemia</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B310" t="str">
-        <v>educacao hibrida</v>
+        <v>tecnologia</v>
       </c>
       <c r="C310" t="str">
-        <v>educacao remota</v>
+        <v>ctsctsa</v>
       </c>
       <c r="D310" t="str">
-        <v>tecnologias na educacao</v>
+        <v/>
       </c>
       <c r="E310" t="str">
         <v/>
@@ -5675,16 +5675,16 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>educacao hibrida</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B311" t="str">
-        <v>educacao a distancia</v>
+        <v>tdic</v>
       </c>
       <c r="C311" t="str">
-        <v>brasil</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="D311" t="str">
-        <v>portugal</v>
+        <v/>
       </c>
       <c r="E311" t="str">
         <v/>
@@ -5692,13 +5692,13 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>ensino hibrido</v>
+        <v>defensoria publica do estado tocantins</v>
       </c>
       <c r="B312" t="str">
-        <v>metodologias</v>
+        <v>youtube</v>
       </c>
       <c r="C312" t="str">
-        <v>tecnologias</v>
+        <v>capacitacao</v>
       </c>
       <c r="D312" t="str">
         <v/>
@@ -5709,30 +5709,30 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>sociologia da ciencia</v>
+        <v>arquivo pessoal</v>
       </c>
       <c r="B313" t="str">
-        <v>cientometria</v>
+        <v>arquivo epistolar</v>
       </c>
       <c r="C313" t="str">
-        <v>educacao</v>
+        <v>acervo literario</v>
       </c>
       <c r="D313" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
       <c r="E313" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>identidade docente</v>
+        <v>radio</v>
       </c>
       <c r="B314" t="str">
-        <v>formacao docente</v>
+        <v>musica</v>
       </c>
       <c r="C314" t="str">
-        <v>licenciatura  em  educacao  a distancia</v>
+        <v>educacao e midiana paemia</v>
       </c>
       <c r="D314" t="str">
         <v/>
@@ -5743,13 +5743,13 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>anais do eneq</v>
+        <v>linguagem cinematografica</v>
       </c>
       <c r="B315" t="str">
-        <v>educacao quimica</v>
+        <v>ludicidade</v>
       </c>
       <c r="C315" t="str">
-        <v>tecnologias digitais</v>
+        <v>biologia</v>
       </c>
       <c r="D315" t="str">
         <v/>
@@ -5760,16 +5760,16 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B316" t="str">
-        <v>ensino superior</v>
+        <v>museus virtuais</v>
       </c>
       <c r="C316" t="str">
-        <v>bleed learning</v>
+        <v>tdcis</v>
       </c>
       <c r="D316" t="str">
-        <v>bleed learning</v>
+        <v>ensino apreizagem</v>
       </c>
       <c r="E316" t="str">
         <v/>
@@ -5777,30 +5777,30 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>paulo freir</v>
+        <v>oficina</v>
       </c>
       <c r="B317" t="str">
-        <v>tecnologias digitais</v>
+        <v>partilha do sensivel</v>
       </c>
       <c r="C317" t="str">
-        <v>tdic</v>
+        <v>escrita criativa</v>
       </c>
       <c r="D317" t="str">
-        <v>educacao a distanci</v>
+        <v>fotografia</v>
       </c>
       <c r="E317" t="str">
-        <v>cultura digital</v>
+        <v>apropriacao</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>conhecimento</v>
+        <v>arte musical</v>
       </c>
       <c r="B318" t="str">
-        <v>metodologia</v>
+        <v>cultura e saberes</v>
       </c>
       <c r="C318" t="str">
-        <v>pesquisa</v>
+        <v>infancia</v>
       </c>
       <c r="D318" t="str">
         <v/>
@@ -5811,16 +5811,16 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>politicas educacionais</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B319" t="str">
-        <v>pesquisador</v>
+        <v>design para experiencia</v>
       </c>
       <c r="C319" t="str">
-        <v>stricto sensu</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="D319" t="str">
-        <v>educacao a distancia</v>
+        <v>docencia</v>
       </c>
       <c r="E319" t="str">
         <v/>
@@ -5828,50 +5828,50 @@
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>ensino hibrido</v>
+        <v>acessibilidade digital</v>
       </c>
       <c r="B320" t="str">
-        <v>metodologias ativas</v>
+        <v>inclusao</v>
       </c>
       <c r="C320" t="str">
-        <v>metodologias ativas</v>
+        <v>surdo</v>
       </c>
       <c r="D320" t="str">
-        <v/>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="E320" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>ensino remoto</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="B321" t="str">
-        <v>ensino hibrido</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C321" t="str">
-        <v>ensino    superior</v>
+        <v>ere</v>
       </c>
       <c r="D321" t="str">
-        <v>transformacao    digital</v>
+        <v>napnee</v>
       </c>
       <c r="E321" t="str">
-        <v>subjetividade</v>
+        <v/>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>ensino de ciencias</v>
+        <v>inclusao</v>
       </c>
       <c r="B322" t="str">
-        <v>tecnologia</v>
+        <v>autismo</v>
       </c>
       <c r="C322" t="str">
-        <v>ctsctsa</v>
+        <v>teacch</v>
       </c>
       <c r="D322" t="str">
-        <v/>
+        <v>abcautismo</v>
       </c>
       <c r="E322" t="str">
         <v/>
@@ -5879,16 +5879,16 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>educacao a distancia</v>
+        <v>apreizagem</v>
       </c>
       <c r="B323" t="str">
-        <v>tdic</v>
+        <v>deficiencia</v>
       </c>
       <c r="C323" t="str">
-        <v>tecnologias na educacao</v>
+        <v>educacao superior</v>
       </c>
       <c r="D323" t="str">
-        <v/>
+        <v>inclusao</v>
       </c>
       <c r="E323" t="str">
         <v/>
@@ -5896,13 +5896,13 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>defensoria publica do estado tocantins</v>
+        <v>tdic</v>
       </c>
       <c r="B324" t="str">
-        <v>youtube</v>
+        <v>educacao especia</v>
       </c>
       <c r="C324" t="str">
-        <v>capacitacao</v>
+        <v>linguagem escrita</v>
       </c>
       <c r="D324" t="str">
         <v/>
@@ -5913,13 +5913,13 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>arquivo pessoal</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B325" t="str">
-        <v>arquivo epistolar</v>
+        <v>inclusaode alunos com deficiencia</v>
       </c>
       <c r="C325" t="str">
-        <v>acervo literario</v>
+        <v>ensino superior</v>
       </c>
       <c r="D325" t="str">
         <v/>
@@ -5930,13 +5930,13 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>radio</v>
+        <v>deficiencia intelectual</v>
       </c>
       <c r="B326" t="str">
-        <v>musica</v>
+        <v>guia digital</v>
       </c>
       <c r="C326" t="str">
-        <v>educacao e midiana paemia</v>
+        <v>avaliacao</v>
       </c>
       <c r="D326" t="str">
         <v/>
@@ -5947,16 +5947,16 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>linguagem cinematografica</v>
+        <v>alunos com deficiencias</v>
       </c>
       <c r="B327" t="str">
-        <v>ludicidade</v>
+        <v>apreizagem</v>
       </c>
       <c r="C327" t="str">
-        <v>biologia</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D327" t="str">
-        <v/>
+        <v>metodologia</v>
       </c>
       <c r="E327" t="str">
         <v/>
@@ -5964,47 +5964,47 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>tecnologias digitais</v>
+        <v>movimento devia</v>
       </c>
       <c r="B328" t="str">
-        <v>museus virtuais</v>
+        <v>arte surda</v>
       </c>
       <c r="C328" t="str">
-        <v>tdcis</v>
+        <v>extensaoead</v>
       </c>
       <c r="D328" t="str">
-        <v>ensino apreizagem</v>
+        <v>moocs acessiveis em libras</v>
       </c>
       <c r="E328" t="str">
-        <v/>
+        <v>lingua brasileira de sinais</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>oficina</v>
+        <v>material digital acessivel</v>
       </c>
       <c r="B329" t="str">
-        <v>partilha do sensivel</v>
+        <v>educacao digital inclusiva</v>
       </c>
       <c r="C329" t="str">
-        <v>escrita criativa</v>
+        <v>inclusao no ensino superior</v>
       </c>
       <c r="D329" t="str">
-        <v>fotografia</v>
+        <v/>
       </c>
       <c r="E329" t="str">
-        <v>apropriacao</v>
+        <v/>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>arte musical</v>
+        <v>educacao especial</v>
       </c>
       <c r="B330" t="str">
-        <v>cultura e saberes</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C330" t="str">
-        <v>infancia</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D330" t="str">
         <v/>
@@ -6015,16 +6015,16 @@
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>acessibilidade</v>
+        <v>educacao</v>
       </c>
       <c r="B331" t="str">
-        <v>design para experiencia</v>
+        <v>inclusao</v>
       </c>
       <c r="C331" t="str">
-        <v>pessoa com deficiencia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D331" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
       <c r="E331" t="str">
         <v/>
@@ -6032,33 +6032,33 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>acessibilidade digital</v>
+        <v>autismo</v>
       </c>
       <c r="B332" t="str">
-        <v>inclusao</v>
+        <v>modelo social de deficiencia</v>
       </c>
       <c r="C332" t="str">
-        <v>surdo</v>
+        <v>interatividade na educacao</v>
       </c>
       <c r="D332" t="str">
-        <v>pessoa com deficiencia</v>
+        <v/>
       </c>
       <c r="E332" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>educacao inclusiva</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B333" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao especial</v>
       </c>
       <c r="C333" t="str">
-        <v>ere</v>
+        <v>inclusao</v>
       </c>
       <c r="D333" t="str">
-        <v>napnee</v>
+        <v>covid19</v>
       </c>
       <c r="E333" t="str">
         <v/>
@@ -6066,16 +6066,16 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>inclusao</v>
+        <v>tecnologias digitais da informacao e da comunicacao</v>
       </c>
       <c r="B334" t="str">
-        <v>autismo</v>
+        <v>tdics</v>
       </c>
       <c r="C334" t="str">
-        <v>teacch</v>
+        <v>acessibilidade</v>
       </c>
       <c r="D334" t="str">
-        <v>abcautismo</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E334" t="str">
         <v/>
@@ -6083,16 +6083,16 @@
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>apreizagem</v>
+        <v>ensino de libras</v>
       </c>
       <c r="B335" t="str">
-        <v>deficiencia</v>
+        <v>objetos digitais de apreizagem</v>
       </c>
       <c r="C335" t="str">
-        <v>educacao superior</v>
+        <v>professores em formacao</v>
       </c>
       <c r="D335" t="str">
-        <v>inclusao</v>
+        <v/>
       </c>
       <c r="E335" t="str">
         <v/>
@@ -6100,16 +6100,16 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>tdic</v>
+        <v>sinalario</v>
       </c>
       <c r="B336" t="str">
-        <v>educacao especia</v>
+        <v>libras</v>
       </c>
       <c r="C336" t="str">
-        <v>linguagem escrita</v>
+        <v>robotica</v>
       </c>
       <c r="D336" t="str">
-        <v/>
+        <v>inclusao</v>
       </c>
       <c r="E336" t="str">
         <v/>
@@ -6117,30 +6117,30 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>acessibilidade</v>
+        <v>historia em quadrinho</v>
       </c>
       <c r="B337" t="str">
-        <v>inclusaode alunos com deficiencia</v>
+        <v>reglete</v>
       </c>
       <c r="C337" t="str">
-        <v>ensino superior</v>
+        <v>braille</v>
       </c>
       <c r="D337" t="str">
-        <v/>
+        <v>educacao inclusiva</v>
       </c>
       <c r="E337" t="str">
-        <v/>
+        <v>modelo atomico</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>deficiencia intelectual</v>
+        <v>ensino superior</v>
       </c>
       <c r="B338" t="str">
-        <v>guia digital</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="C338" t="str">
-        <v>avaliacao</v>
+        <v>desenho universal para apreizagem</v>
       </c>
       <c r="D338" t="str">
         <v/>
@@ -6151,16 +6151,16 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>alunos   com   deficiencias</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B339" t="str">
-        <v>apreizagem</v>
+        <v>inclusao de alunos com deficiencia</v>
       </c>
       <c r="C339" t="str">
-        <v>educacao   inclusiva</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D339" t="str">
-        <v>metodologia</v>
+        <v/>
       </c>
       <c r="E339" t="str">
         <v/>
@@ -6168,33 +6168,33 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>movimento devia</v>
+        <v>inclusao</v>
       </c>
       <c r="B340" t="str">
-        <v>arte surda</v>
+        <v>libras</v>
       </c>
       <c r="C340" t="str">
-        <v>extensaoead</v>
+        <v>quimica</v>
       </c>
       <c r="D340" t="str">
-        <v>moocs acessiveis em libras</v>
+        <v>tabela periodica</v>
       </c>
       <c r="E340" t="str">
-        <v>lingua brasileira de sinais</v>
+        <v>tecnologia digitais</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>material digital acessivel</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="B341" t="str">
-        <v>educacao digital inclusiva</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="C341" t="str">
-        <v>inclusao no ensino superior</v>
+        <v>biologia</v>
       </c>
       <c r="D341" t="str">
-        <v/>
+        <v>ead</v>
       </c>
       <c r="E341" t="str">
         <v/>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>educacao especial</v>
+        <v>vigilancia digital controversia cientifica</v>
       </c>
       <c r="B342" t="str">
-        <v>formacao de professores</v>
+        <v>ducacao nao presencial de emergencia</v>
       </c>
       <c r="C342" t="str">
-        <v>tecnologia assistiva</v>
+        <v>ciencia</v>
       </c>
       <c r="D342" t="str">
-        <v/>
+        <v>tecnologia e sociedade cts</v>
       </c>
       <c r="E342" t="str">
         <v/>
@@ -6219,16 +6219,16 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>educacao</v>
+        <v>ensino superior militar</v>
       </c>
       <c r="B343" t="str">
-        <v>inclusao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C343" t="str">
-        <v>ensino hibrido</v>
+        <v>escola naval</v>
       </c>
       <c r="D343" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E343" t="str">
         <v/>
@@ -6236,33 +6236,33 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>autismo</v>
+        <v>cartapessoal</v>
       </c>
       <c r="B344" t="str">
-        <v>modelo social de deficiencia</v>
+        <v>leitura</v>
       </c>
       <c r="C344" t="str">
-        <v>interatividade na educacao</v>
+        <v>escrita</v>
       </c>
       <c r="D344" t="str">
-        <v/>
+        <v>ensino fuamental i</v>
       </c>
       <c r="E344" t="str">
-        <v/>
+        <v>letramento</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>ensino remoto</v>
+        <v>apreizagem</v>
       </c>
       <c r="B345" t="str">
-        <v>educacao especial</v>
+        <v>quarta revolucao iustrial</v>
       </c>
       <c r="C345" t="str">
-        <v>inclusao</v>
+        <v>afetividade</v>
       </c>
       <c r="D345" t="str">
-        <v>covid19</v>
+        <v>humanidade</v>
       </c>
       <c r="E345" t="str">
         <v/>
@@ -6270,50 +6270,50 @@
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>tecnologias   digitais   da   informacao e   da   comunicacao</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B346" t="str">
-        <v>tdics</v>
+        <v>ambientes virtuais de apreizagem ava</v>
       </c>
       <c r="C346" t="str">
-        <v>acessibilidade</v>
+        <v>resiliencia</v>
       </c>
       <c r="D346" t="str">
-        <v>educacao a distancia</v>
+        <v>equidade</v>
       </c>
       <c r="E346" t="str">
-        <v/>
+        <v>offline</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>ensino de libras</v>
+        <v>lesson study</v>
       </c>
       <c r="B347" t="str">
-        <v>objetos digitais de apreizagem</v>
+        <v>autoeficacia</v>
       </c>
       <c r="C347" t="str">
-        <v>professores em formacao</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="D347" t="str">
-        <v/>
+        <v>apreizagem colaborativa</v>
       </c>
       <c r="E347" t="str">
-        <v/>
+        <v>revisao sistematica da literatura</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>sinalario</v>
+        <v>pibid</v>
       </c>
       <c r="B348" t="str">
-        <v>libras</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C348" t="str">
-        <v>robotica</v>
+        <v>ciencias biologicas</v>
       </c>
       <c r="D348" t="str">
-        <v>inclusao</v>
+        <v/>
       </c>
       <c r="E348" t="str">
         <v/>
@@ -6321,30 +6321,30 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>historia em quadrinho</v>
+        <v>danca e tecnologia</v>
       </c>
       <c r="B349" t="str">
-        <v>reglete</v>
+        <v>ambiencia de interacao digital</v>
       </c>
       <c r="C349" t="str">
-        <v>braille</v>
+        <v>arte interativa digital</v>
       </c>
       <c r="D349" t="str">
-        <v>educacao inclusiva</v>
+        <v>produsage</v>
       </c>
       <c r="E349" t="str">
-        <v>modelo atomico</v>
+        <v/>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>ensino superior</v>
+        <v>desenvolvimento cognitivo</v>
       </c>
       <c r="B350" t="str">
-        <v>tecnologia assistiva</v>
+        <v>cognicao numerica</v>
       </c>
       <c r="C350" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>senso numerico</v>
       </c>
       <c r="D350" t="str">
         <v/>
@@ -6355,16 +6355,16 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>tecnologias digitais</v>
+        <v>direitos humanos</v>
       </c>
       <c r="B351" t="str">
-        <v>inclusao de alunos com deficiencia</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C351" t="str">
-        <v>tecnologia assistiva</v>
+        <v>utilizacao de midias</v>
       </c>
       <c r="D351" t="str">
-        <v/>
+        <v>ensino critico</v>
       </c>
       <c r="E351" t="str">
         <v/>
@@ -6372,33 +6372,33 @@
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>inclusao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B352" t="str">
-        <v>libras</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="C352" t="str">
-        <v>quimica</v>
+        <v>graduacao em pedagogia ead</v>
       </c>
       <c r="D352" t="str">
-        <v>tabela  periodica</v>
+        <v/>
       </c>
       <c r="E352" t="str">
-        <v>tecnologia  digitais</v>
+        <v/>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B353" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C353" t="str">
-        <v>biologia</v>
+        <v>construcao identitaria</v>
       </c>
       <c r="D353" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E353" t="str">
         <v/>
@@ -6406,16 +6406,16 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>vigilancia  digital  controversia  cientifica</v>
+        <v>agentes comunitarios de saude</v>
       </c>
       <c r="B354" t="str">
-        <v>ducacao  nao  presencial  de  emergencia</v>
+        <v>anormalidades congenitas</v>
       </c>
       <c r="C354" t="str">
-        <v>ciencia</v>
+        <v>capacitacao em servico</v>
       </c>
       <c r="D354" t="str">
-        <v>tecnologia e sociedade cts</v>
+        <v>saude da familia</v>
       </c>
       <c r="E354" t="str">
         <v/>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>ensino superior militar</v>
+        <v>netativismo</v>
       </c>
       <c r="B355" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>processos formativos</v>
       </c>
       <c r="C355" t="str">
-        <v>escola naval</v>
+        <v>empoderamento freireano</v>
       </c>
       <c r="D355" t="str">
-        <v>paemia covid19</v>
+        <v/>
       </c>
       <c r="E355" t="str">
         <v/>
@@ -6440,84 +6440,84 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>cartapessoal</v>
+        <v>inovacao</v>
       </c>
       <c r="B356" t="str">
-        <v>leitura</v>
+        <v>robotica educativa</v>
       </c>
       <c r="C356" t="str">
-        <v>escrita</v>
+        <v>apreizagem</v>
       </c>
       <c r="D356" t="str">
-        <v>ensino fuamental i</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E356" t="str">
-        <v>letramento</v>
+        <v/>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>apreizagem</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B357" t="str">
-        <v>quarta revolucao iustrial</v>
+        <v>design para a educacao</v>
       </c>
       <c r="C357" t="str">
-        <v>afetividade</v>
+        <v>capacitacao</v>
       </c>
       <c r="D357" t="str">
-        <v>humanidade</v>
+        <v>ludificacao</v>
       </c>
       <c r="E357" t="str">
-        <v/>
+        <v>gamificacao</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>inclusao  digital</v>
+        <v>educacao a distancia centrode educacao aberta e a distancia</v>
       </c>
       <c r="B358" t="str">
-        <v>ambientes  virtuais  de  apreizagem  ava</v>
+        <v>programa universidade aberta do brasil</v>
       </c>
       <c r="C358" t="str">
-        <v>resiliencia</v>
+        <v>ensino superior</v>
       </c>
       <c r="D358" t="str">
-        <v>equidade</v>
+        <v/>
       </c>
       <c r="E358" t="str">
-        <v>offline</v>
+        <v/>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>lesson study</v>
+        <v>educacao tradicional</v>
       </c>
       <c r="B359" t="str">
-        <v>autoeficacia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C359" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>retomada da apreizagem</v>
       </c>
       <c r="D359" t="str">
-        <v>apreizagem colaborativa</v>
+        <v/>
       </c>
       <c r="E359" t="str">
-        <v>revisao sistematica da literatura</v>
+        <v/>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>pibid</v>
+        <v>letramento digital</v>
       </c>
       <c r="B360" t="str">
-        <v>formacao de professores</v>
+        <v>letramento</v>
       </c>
       <c r="C360" t="str">
-        <v>ciencias biologicas</v>
+        <v>educacao</v>
       </c>
       <c r="D360" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
       <c r="E360" t="str">
         <v/>
@@ -6525,16 +6525,16 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>danca e tecnologia</v>
+        <v>violencia</v>
       </c>
       <c r="B361" t="str">
-        <v>ambiencia de interacao digital</v>
+        <v>notificacao</v>
       </c>
       <c r="C361" t="str">
-        <v>arte interativa digital</v>
+        <v>estudantes de medicina</v>
       </c>
       <c r="D361" t="str">
-        <v>produsage</v>
+        <v/>
       </c>
       <c r="E361" t="str">
         <v/>
@@ -6542,13 +6542,13 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>desenvolvimento cognitivo</v>
+        <v>cursos abertos</v>
       </c>
       <c r="B362" t="str">
-        <v>cognicao numerica</v>
+        <v>educacao digital</v>
       </c>
       <c r="C362" t="str">
-        <v>senso numerico</v>
+        <v>ods</v>
       </c>
       <c r="D362" t="str">
         <v/>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>direitos humanos</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B363" t="str">
-        <v>interdisciplinaridade</v>
+        <v>ecnologias digitais da informacao e comunicacao tdic</v>
       </c>
       <c r="C363" t="str">
-        <v>utilizacao de midias</v>
+        <v>ensino remoto emergencial ere</v>
       </c>
       <c r="D363" t="str">
-        <v>ensino critico</v>
+        <v/>
       </c>
       <c r="E363" t="str">
         <v/>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>educacao a distancia</v>
+        <v>mapeamento</v>
       </c>
       <c r="B364" t="str">
-        <v>ensino e apreizagem</v>
+        <v>cursos online</v>
       </c>
       <c r="C364" t="str">
-        <v>graduacao em pedagogia ead</v>
+        <v>equipe</v>
       </c>
       <c r="D364" t="str">
         <v/>
@@ -6593,13 +6593,13 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>educacao a distancia</v>
+        <v>pedagogia empresarial</v>
       </c>
       <c r="B365" t="str">
-        <v>ensino superior</v>
+        <v>pedagogo empresarial</v>
       </c>
       <c r="C365" t="str">
-        <v>construcao identitaria</v>
+        <v>treinamento e desenvolvimento</v>
       </c>
       <c r="D365" t="str">
         <v/>
@@ -6610,16 +6610,16 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>agentes comunitarios de saude</v>
+        <v>educacao superior</v>
       </c>
       <c r="B366" t="str">
-        <v>anormalidades congenitas</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C366" t="str">
-        <v>capacitacao em servico</v>
+        <v>covid19</v>
       </c>
       <c r="D366" t="str">
-        <v>saude da familia</v>
+        <v/>
       </c>
       <c r="E366" t="str">
         <v/>
@@ -6627,13 +6627,13 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>netativismo</v>
+        <v>educacao musical online</v>
       </c>
       <c r="B367" t="str">
-        <v>processos formativos</v>
+        <v>pratica de conjunto online</v>
       </c>
       <c r="C367" t="str">
-        <v>empoderamento freireano</v>
+        <v>musica e sustentabilidade</v>
       </c>
       <c r="D367" t="str">
         <v/>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>inovacao</v>
+        <v>psicoterapia online</v>
       </c>
       <c r="B368" t="str">
-        <v>robotica educativa</v>
+        <v>alianca e vinculo terapeuticos</v>
       </c>
       <c r="C368" t="str">
-        <v>apreizagem</v>
+        <v>ateimento online</v>
       </c>
       <c r="D368" t="str">
-        <v>tecnologias digitais</v>
+        <v>covid19</v>
       </c>
       <c r="E368" t="str">
         <v/>
@@ -6661,33 +6661,33 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>ensino e apreizagem</v>
+        <v>formacao profissional em saude</v>
       </c>
       <c r="B369" t="str">
-        <v>design para a educacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C369" t="str">
-        <v>capacitacao</v>
+        <v>sistema unico de saude</v>
       </c>
       <c r="D369" t="str">
-        <v>ludificacao</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="E369" t="str">
-        <v>gamificacao</v>
+        <v>docencia</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>educacao   a   distancia   centrode   educacao   aberta   e   a   distancia</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="B370" t="str">
-        <v>programa universidade aberta do brasil</v>
+        <v>cultura maker</v>
       </c>
       <c r="C370" t="str">
-        <v>ensino superior</v>
+        <v>fanzines</v>
       </c>
       <c r="D370" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E370" t="str">
         <v/>
@@ -6695,33 +6695,33 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>educacao tradicional</v>
+        <v>residencia tecnic</v>
       </c>
       <c r="B371" t="str">
-        <v>ensino remoto</v>
+        <v>inovacao</v>
       </c>
       <c r="C371" t="str">
-        <v>retomada da apreizagem</v>
+        <v>transformacao digital</v>
       </c>
       <c r="D371" t="str">
-        <v/>
+        <v>egov</v>
       </c>
       <c r="E371" t="str">
-        <v/>
+        <v>design instrucional</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>letramento digital</v>
+        <v>cancer</v>
       </c>
       <c r="B372" t="str">
-        <v>letramento</v>
+        <v>game</v>
       </c>
       <c r="C372" t="str">
-        <v>educacao</v>
+        <v>sexualidade</v>
       </c>
       <c r="D372" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
       <c r="E372" t="str">
         <v/>
@@ -6729,16 +6729,16 @@
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>violencia</v>
+        <v>educacao</v>
       </c>
       <c r="B373" t="str">
-        <v>notificacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C373" t="str">
-        <v>estudantes de medicina</v>
+        <v>curriculo</v>
       </c>
       <c r="D373" t="str">
-        <v/>
+        <v>educacao hibrida</v>
       </c>
       <c r="E373" t="str">
         <v/>
@@ -6746,13 +6746,13 @@
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>cursos abertos</v>
+        <v>curriculo subjetivo</v>
       </c>
       <c r="B374" t="str">
-        <v>educacao digital</v>
+        <v>paradigma da apreizagem</v>
       </c>
       <c r="C374" t="str">
-        <v>ods</v>
+        <v>tutorias</v>
       </c>
       <c r="D374" t="str">
         <v/>
@@ -6763,16 +6763,16 @@
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>multiletramentos</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B375" t="str">
-        <v>ecnologias digitais da informacao e comunicacao  tdic</v>
+        <v>inclusao digital</v>
       </c>
       <c r="C375" t="str">
-        <v>ensino remoto emergencial ere</v>
+        <v>ead</v>
       </c>
       <c r="D375" t="str">
-        <v/>
+        <v>inovacao</v>
       </c>
       <c r="E375" t="str">
         <v/>
@@ -6780,16 +6780,16 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>mapeamento</v>
+        <v>ensino superior</v>
       </c>
       <c r="B376" t="str">
-        <v>cursos online</v>
+        <v>universidades publicas</v>
       </c>
       <c r="C376" t="str">
-        <v>equipe</v>
+        <v>pospaemia</v>
       </c>
       <c r="D376" t="str">
-        <v/>
+        <v>resiliencia organizacional</v>
       </c>
       <c r="E376" t="str">
         <v/>
@@ -6797,16 +6797,16 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>pedagogia empresarial</v>
+        <v>memoria</v>
       </c>
       <c r="B377" t="str">
-        <v>pedagogo empresarial</v>
+        <v>tdic</v>
       </c>
       <c r="C377" t="str">
-        <v>treinamento e desenvolvimento</v>
+        <v>neurociencia</v>
       </c>
       <c r="D377" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
       <c r="E377" t="str">
         <v/>
@@ -6814,16 +6814,16 @@
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>educacao superior</v>
+        <v>ensino medio</v>
       </c>
       <c r="B378" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C378" t="str">
-        <v>covid19</v>
+        <v>desigualdade educacional</v>
       </c>
       <c r="D378" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
       <c r="E378" t="str">
         <v/>
@@ -6831,16 +6831,16 @@
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>educacao musical online</v>
+        <v>caracteristica</v>
       </c>
       <c r="B379" t="str">
-        <v>pratica de conjunto online</v>
+        <v>estudante</v>
       </c>
       <c r="C379" t="str">
-        <v>musica e sustentabilidade</v>
+        <v>licenciatura</v>
       </c>
       <c r="D379" t="str">
-        <v/>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="E379" t="str">
         <v/>
@@ -6848,50 +6848,50 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>psicoterapia online</v>
+        <v>ensino superior</v>
       </c>
       <c r="B380" t="str">
-        <v>alianca e vinculo terapeuticos</v>
+        <v>trilha de apreizagem</v>
       </c>
       <c r="C380" t="str">
-        <v>ateimento online</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="D380" t="str">
-        <v>covid19</v>
+        <v>feedback</v>
       </c>
       <c r="E380" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>formacao profissional em saude</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B381" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C381" t="str">
-        <v>sistema unico de saude</v>
+        <v>educacao infantil</v>
       </c>
       <c r="D381" t="str">
-        <v>materiais didaticos</v>
+        <v>tecnologias</v>
       </c>
       <c r="E381" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>metodologia ativa</v>
+        <v>metodologias ativas de apreizagem</v>
       </c>
       <c r="B382" t="str">
-        <v>cultura maker</v>
+        <v>administracao publica</v>
       </c>
       <c r="C382" t="str">
-        <v>fanzines</v>
+        <v>tdics</v>
       </c>
       <c r="D382" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E382" t="str">
         <v/>
@@ -6899,30 +6899,30 @@
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>residencia tecnic</v>
+        <v>escola</v>
       </c>
       <c r="B383" t="str">
-        <v>inovacao</v>
+        <v>leitura</v>
       </c>
       <c r="C383" t="str">
-        <v>transformacao digital</v>
+        <v>escrita</v>
       </c>
       <c r="D383" t="str">
-        <v>egov</v>
+        <v>tecnologias hipertextuais</v>
       </c>
       <c r="E383" t="str">
-        <v>design instrucional</v>
+        <v/>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>cancer</v>
+        <v>ensino remoto emergencia</v>
       </c>
       <c r="B384" t="str">
-        <v>game</v>
+        <v>biologia atividades praticas</v>
       </c>
       <c r="C384" t="str">
-        <v>sexualidade</v>
+        <v/>
       </c>
       <c r="D384" t="str">
         <v/>
@@ -6933,16 +6933,16 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>educacao</v>
+        <v>avaliacao</v>
       </c>
       <c r="B385" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C385" t="str">
-        <v>curriculo</v>
+        <v>cultura digital</v>
       </c>
       <c r="D385" t="str">
-        <v>educacao hibrida</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E385" t="str">
         <v/>
@@ -6950,33 +6950,33 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>curriculo subjetivo</v>
+        <v>educacao</v>
       </c>
       <c r="B386" t="str">
-        <v>paradigma da apreizagem</v>
+        <v>comunicacao</v>
       </c>
       <c r="C386" t="str">
-        <v>tutorias</v>
+        <v>midias sociais</v>
       </c>
       <c r="D386" t="str">
-        <v/>
+        <v>publicidade</v>
       </c>
       <c r="E386" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B387" t="str">
-        <v>inclusao digital</v>
+        <v>tdic</v>
       </c>
       <c r="C387" t="str">
-        <v>ead</v>
+        <v>paemia</v>
       </c>
       <c r="D387" t="str">
-        <v>inovacao</v>
+        <v/>
       </c>
       <c r="E387" t="str">
         <v/>
@@ -6984,16 +6984,16 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>ensino superior</v>
+        <v>apreizagem</v>
       </c>
       <c r="B388" t="str">
-        <v>universidades publicas</v>
+        <v>gamificacao</v>
       </c>
       <c r="C388" t="str">
-        <v>pospaemia</v>
+        <v>este de progresso</v>
       </c>
       <c r="D388" t="str">
-        <v>resiliencia organizacional</v>
+        <v>educacao medica</v>
       </c>
       <c r="E388" t="str">
         <v/>
@@ -7001,16 +7001,16 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>memoria</v>
+        <v>ecologia da apreizagem</v>
       </c>
       <c r="B389" t="str">
-        <v>tdic</v>
+        <v>cultura digital</v>
       </c>
       <c r="C389" t="str">
-        <v>neurociencia</v>
+        <v>processos de apreizagem</v>
       </c>
       <c r="D389" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E389" t="str">
         <v/>
@@ -7018,126 +7018,24 @@
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>ensino medio</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B390" t="str">
-        <v>ensino remoto</v>
+        <v>podcast de ciencias</v>
       </c>
       <c r="C390" t="str">
-        <v>desigualdade educacional</v>
+        <v>apreizagem</v>
       </c>
       <c r="D390" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
       <c r="E390" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="str">
-        <v>caracteristica</v>
-      </c>
-      <c r="B391" t="str">
-        <v>estudante</v>
-      </c>
-      <c r="C391" t="str">
-        <v>licenciatura</v>
-      </c>
-      <c r="D391" t="str">
-        <v>ensino e apreizagem</v>
-      </c>
-      <c r="E391" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="str">
-        <v>ensino superior</v>
-      </c>
-      <c r="B392" t="str">
-        <v>trilha de apreizagem</v>
-      </c>
-      <c r="C392" t="str">
-        <v>sala de aula invertida</v>
-      </c>
-      <c r="D392" t="str">
-        <v>feedback</v>
-      </c>
-      <c r="E392" t="str">
-        <v>formacao de professores</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="str">
-        <v>estagio supervisionado</v>
-      </c>
-      <c r="B393" t="str">
-        <v>ensino remoto emergencial</v>
-      </c>
-      <c r="C393" t="str">
-        <v>educacao infantil</v>
-      </c>
-      <c r="D393" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="E393" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="str">
-        <v>metodologias ativas de apreizagem</v>
-      </c>
-      <c r="B394" t="str">
-        <v>administracao publica</v>
-      </c>
-      <c r="C394" t="str">
-        <v>tdics</v>
-      </c>
-      <c r="D394" t="str">
-        <v/>
-      </c>
-      <c r="E394" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="str">
-        <v>escola</v>
-      </c>
-      <c r="B395" t="str">
-        <v>leitura</v>
-      </c>
-      <c r="C395" t="str">
-        <v>escrita</v>
-      </c>
-      <c r="D395" t="str">
-        <v>tecnologias hipertextuais</v>
-      </c>
-      <c r="E395" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="str">
-        <v>ensino remoto emergencia</v>
-      </c>
-      <c r="B396" t="str">
-        <v>biologia atividades praticas</v>
-      </c>
-      <c r="C396" t="str">
-        <v/>
-      </c>
-      <c r="D396" t="str">
-        <v/>
-      </c>
-      <c r="E396" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E396"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E390"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/2024-04-10T22:42:49.xlsx
+++ b/uploads/2024-04-10T22:42:49.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,30 +422,30 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ensino remoto</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B2" t="str">
-        <v>formacao</v>
+        <v>educacao e tecnologias</v>
       </c>
       <c r="C2" t="str">
-        <v>pedagogia</v>
+        <v>letramento digital</v>
       </c>
       <c r="D2" t="str">
-        <v>percepcao</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>discente</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>educacao</v>
+        <v>ateimento educacional especializado</v>
       </c>
       <c r="B3" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C3" t="str">
-        <v>digital</v>
+        <v>transtorno do espectro do autismo</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -456,30 +456,30 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>formacao de professores</v>
+        <v>musica</v>
       </c>
       <c r="B4" t="str">
-        <v>pesquisa narrativa</v>
+        <v>autorregulacao</v>
       </c>
       <c r="C4" t="str">
-        <v>egressos de pedagogia a distancia</v>
+        <v>apreizagem</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>estrategia</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>baa escolar</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>formacao de professores</v>
+        <v>alimentos organicos</v>
       </c>
       <c r="B5" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>eletiva</v>
       </c>
       <c r="C5" t="str">
-        <v>qualidade na educacao superior</v>
+        <v>historia em quadrinhos</v>
       </c>
       <c r="D5" t="str">
         <v/>
@@ -490,33 +490,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B6" t="str">
-        <v>tdic</v>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="C6" t="str">
-        <v>humanizacao</v>
+        <v>apreizagem em matematica</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>metaavaliacao</v>
+        <v>discente</v>
       </c>
       <c r="B7" t="str">
-        <v>avaliacao de tecnologia da informacao e comunicacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C7" t="str">
-        <v>jogos eletronicos</v>
+        <v>protagonismo</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>tdics</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -524,16 +524,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>avaliacao</v>
       </c>
       <c r="B8" t="str">
-        <v>motivacao e engajamento</v>
+        <v>educacao basica</v>
       </c>
       <c r="C8" t="str">
-        <v>preizagem de leitura</v>
+        <v>saresp</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -541,16 +541,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>metaverso</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B9" t="str">
-        <v>ensino fuamental</v>
+        <v>revista digital</v>
       </c>
       <c r="C9" t="str">
-        <v>ciencia humanas</v>
+        <v>cultura digital</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>protagonismo do estudante</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -558,16 +558,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>competencias digitais</v>
+        <v>rubricas</v>
       </c>
       <c r="B10" t="str">
-        <v>educacao a distancia</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="C10" t="str">
-        <v>alunos</v>
+        <v>ensino superior em saude</v>
       </c>
       <c r="D10" t="str">
-        <v>modelo pedagogico</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -575,33 +575,33 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>multiletramentos</v>
+        <v>steam</v>
       </c>
       <c r="B11" t="str">
-        <v>alfabetizacao cientifica</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C11" t="str">
-        <v>ensino de geografia</v>
+        <v>ensino</v>
       </c>
       <c r="D11" t="str">
-        <v>apreizagem baseada na resolucao de problemas</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>web 20</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>universidade</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B12" t="str">
-        <v>virtualidade</v>
+        <v>educacao basica</v>
       </c>
       <c r="C12" t="str">
-        <v>ensino</v>
+        <v>artes visuais</v>
       </c>
       <c r="D12" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -609,16 +609,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>gamificacao</v>
+        <v>tdic</v>
       </c>
       <c r="B13" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>professores de ingles</v>
       </c>
       <c r="C13" t="str">
-        <v>apreizagem de leitura</v>
+        <v>apreizagem emingles</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>ufpa</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -626,13 +626,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B14" t="str">
-        <v>metodologias ativas</v>
+        <v>tecnologia</v>
       </c>
       <c r="C14" t="str">
-        <v>ensino de biologia</v>
+        <v>aulasnaopresenciais</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -643,16 +643,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>tdics</v>
+        <v>precalculo</v>
       </c>
       <c r="B15" t="str">
-        <v>colegio de aplicacao</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="C15" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>transicao terciaria</v>
       </c>
       <c r="D15" t="str">
-        <v>paemia</v>
+        <v>covid19</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -660,50 +660,50 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>fracao equivalente</v>
+        <v>surdez</v>
       </c>
       <c r="B16" t="str">
-        <v>tecnologias</v>
+        <v>tecnologia</v>
       </c>
       <c r="C16" t="str">
-        <v>ensino hibrido</v>
+        <v>inclusao</v>
       </c>
       <c r="D16" t="str">
-        <v>apreizagem</v>
+        <v>acessibilidade</v>
       </c>
       <c r="E16" t="str">
-        <v>resolucao de problemas</v>
+        <v>midiaeducacao</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>orientador educacional</v>
+        <v>smartphone</v>
       </c>
       <c r="B17" t="str">
-        <v>tecnologias</v>
+        <v>lingua inglesa li</v>
       </c>
       <c r="C17" t="str">
-        <v>covid19</v>
+        <v>educacao de jovens e adultos eja</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>orientacao educacional</v>
+        <v>educacao 40</v>
       </c>
       <c r="B18" t="str">
-        <v>tecnologias</v>
+        <v>gamificacao</v>
       </c>
       <c r="C18" t="str">
-        <v>paemia</v>
+        <v>geracao alpha</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>jogos eletronicos</v>
       </c>
       <c r="E18" t="str">
         <v/>
@@ -711,30 +711,30 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>educacao digital</v>
+        <v>ensino medio</v>
       </c>
       <c r="B19" t="str">
-        <v>tecnologia</v>
+        <v>avaliacao educacional</v>
       </c>
       <c r="C19" t="str">
-        <v>paemia</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="D19" t="str">
-        <v>ensino remoto</v>
+        <v>ncc</v>
       </c>
       <c r="E19" t="str">
-        <v>ead</v>
+        <v>tdic</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>inclusao digital</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="B20" t="str">
-        <v>educacao e tecnologias</v>
+        <v>centro de midias</v>
       </c>
       <c r="C20" t="str">
-        <v>letramento digital</v>
+        <v>amazonas</v>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -745,13 +745,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>ateimento educacional especializado</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B21" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>praticas hibridas de ensino</v>
       </c>
       <c r="C21" t="str">
-        <v>transtorno do espectro do autismo</v>
+        <v>pospaemia</v>
       </c>
       <c r="D21" t="str">
         <v/>
@@ -762,30 +762,30 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>musica</v>
+        <v>tdics</v>
       </c>
       <c r="B22" t="str">
-        <v>autorregulacao</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C22" t="str">
-        <v>apreizagem</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D22" t="str">
-        <v>estrategia</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>baa escolar</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>alimentos organicos</v>
+        <v>ead</v>
       </c>
       <c r="B23" t="str">
-        <v>eletiva</v>
+        <v>educacao basica</v>
       </c>
       <c r="C23" t="str">
-        <v>historia em quadrinhos</v>
+        <v>professores</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -796,33 +796,33 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>ensino remoto</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B24" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v>sistema de informacao</v>
       </c>
       <c r="C24" t="str">
-        <v>apreizagem em matematica</v>
+        <v>seduc</v>
       </c>
       <c r="D24" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>discente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B25" t="str">
-        <v>ensino superior</v>
+        <v>olimpiadas cientificas</v>
       </c>
       <c r="C25" t="str">
-        <v>protagonismo</v>
+        <v>ensinode ciencias</v>
       </c>
       <c r="D25" t="str">
-        <v>tdics</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -830,16 +830,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>avaliacao</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B26" t="str">
-        <v>educacao basica</v>
+        <v>formacao docente</v>
       </c>
       <c r="C26" t="str">
-        <v>saresp</v>
+        <v>instituicao de ensino superior</v>
       </c>
       <c r="D26" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
       <c r="E26" t="str">
         <v/>
@@ -847,16 +847,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>tecnologia educacional</v>
+        <v>professores iniciantes</v>
       </c>
       <c r="B27" t="str">
-        <v>revista digital</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C27" t="str">
-        <v>cultura digital</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D27" t="str">
-        <v>protagonismo do estudante</v>
+        <v>conhecimento tecnologico e pedagogico do conteudo</v>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -864,13 +864,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>rubricas</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B28" t="str">
-        <v>avaliacao formativa</v>
+        <v>ensino remoto e ensino a distancia</v>
       </c>
       <c r="C28" t="str">
-        <v>ensino superior em saude</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -881,13 +881,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>steam</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B29" t="str">
+        <v>apreizagem invertida</v>
+      </c>
+      <c r="C29" t="str">
         <v>metodologias ativas</v>
-      </c>
-      <c r="C29" t="str">
-        <v>ensino</v>
       </c>
       <c r="D29" t="str">
         <v/>
@@ -898,13 +898,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>tecnologias digitais</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B30" t="str">
-        <v>educacao basica</v>
+        <v>narrativa</v>
       </c>
       <c r="C30" t="str">
-        <v>artes visuais</v>
+        <v>curriculo de tecnologia</v>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -915,16 +915,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>tdic</v>
+        <v>ensino</v>
       </c>
       <c r="B31" t="str">
-        <v>professores de ingles</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C31" t="str">
-        <v>apreizagem emingles</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="D31" t="str">
-        <v>ufpa</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -932,13 +932,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>ensino e apreizagem</v>
+        <v>educacao escolar</v>
       </c>
       <c r="B32" t="str">
-        <v>tecnologia</v>
+        <v>sala de aula virtual</v>
       </c>
       <c r="C32" t="str">
-        <v>aulasnaopresenciais</v>
+        <v>ensino remoto e ensino hibrido</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -949,16 +949,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>precalculo</v>
+        <v>educacao fisica</v>
       </c>
       <c r="B33" t="str">
-        <v>ensino a distancia</v>
+        <v>praticas corporais</v>
       </c>
       <c r="C33" t="str">
-        <v>transicao terciaria</v>
+        <v>presencial</v>
       </c>
       <c r="D33" t="str">
-        <v>covid19</v>
+        <v>a distancia</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -966,84 +966,84 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>surdez</v>
+        <v>insurgencias</v>
       </c>
       <c r="B34" t="str">
-        <v>tecnologia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C34" t="str">
-        <v>inclusao</v>
+        <v>docencia no ensino superior</v>
       </c>
       <c r="D34" t="str">
-        <v>acessibilidade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E34" t="str">
-        <v>midiaeducacao</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>smartphone</v>
+        <v>educacao</v>
       </c>
       <c r="B35" t="str">
-        <v>lingua inglesa li</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C35" t="str">
-        <v>educacao de jovens e adultos eja</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D35" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v/>
       </c>
       <c r="E35" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>educacao 40</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="B36" t="str">
-        <v>gamificacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C36" t="str">
-        <v>geracao alpha</v>
+        <v>audiovisual</v>
       </c>
       <c r="D36" t="str">
-        <v>jogos eletronicos</v>
+        <v>educacao basica</v>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ensino medio</v>
+        <v>microbiologia</v>
       </c>
       <c r="B37" t="str">
-        <v>avaliacao educacional</v>
+        <v>ensino</v>
       </c>
       <c r="C37" t="str">
-        <v>avaliacao formativa</v>
+        <v>tecnologia</v>
       </c>
       <c r="D37" t="str">
-        <v>ncc</v>
+        <v>jogos</v>
       </c>
       <c r="E37" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B38" t="str">
-        <v>centro de midias</v>
+        <v>competencias digitais</v>
       </c>
       <c r="C38" t="str">
-        <v>amazonas</v>
+        <v>educacao basica</v>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1051,30 +1051,30 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>ensino remoto</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B39" t="str">
-        <v>praticas hibridas de ensino</v>
+        <v>professores</v>
       </c>
       <c r="C39" t="str">
-        <v>pospaemia</v>
+        <v>selfie for teachers</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>tdics</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B40" t="str">
-        <v>formacao continuada de professores</v>
+        <v>avaliacao</v>
       </c>
       <c r="C40" t="str">
-        <v>ensino remoto</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D40" t="str">
         <v/>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>ead</v>
+        <v>avaliacao de estagio</v>
       </c>
       <c r="B41" t="str">
-        <v>educacao basica</v>
+        <v>processo pedagogico</v>
       </c>
       <c r="C41" t="str">
-        <v>professores</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D41" t="str">
         <v/>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>formacao de professores</v>
+        <v>bitmoji</v>
       </c>
       <c r="B42" t="str">
-        <v>sistema de informacao</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C42" t="str">
-        <v>seduc</v>
+        <v>praticas de ensino</v>
       </c>
       <c r="D42" t="str">
         <v/>
@@ -1119,16 +1119,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>formacao de professores</v>
+        <v>processo avaliativo</v>
       </c>
       <c r="B43" t="str">
-        <v>olimpiadas cientificas</v>
+        <v>engenharia</v>
       </c>
       <c r="C43" t="str">
-        <v>ensinode ciencias</v>
+        <v>projeto integrador</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -1136,33 +1136,33 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ensino a distancia</v>
+        <v>google meet</v>
       </c>
       <c r="B44" t="str">
-        <v>formacao docente</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="C44" t="str">
-        <v>instituicao de ensino superior</v>
+        <v>paemia</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>professores iniciantes</v>
+        <v>tdic</v>
       </c>
       <c r="B45" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C45" t="str">
-        <v>formacao de professores</v>
+        <v>frequencia escolar</v>
       </c>
       <c r="D45" t="str">
-        <v>conhecimento tecnologico e pedagogico do conteudo</v>
+        <v>educacao basica</v>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B46" t="str">
-        <v>ensino remoto e ensino a distancia</v>
+        <v>recurso tecnologico</v>
       </c>
       <c r="C46" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>formacao continuada</v>
       </c>
       <c r="D46" t="str">
         <v/>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>formacao de professores</v>
+        <v>apreizagem da docencia</v>
       </c>
       <c r="B47" t="str">
-        <v>apreizagem invertida</v>
+        <v>professor iniciante</v>
       </c>
       <c r="C47" t="str">
-        <v>metodologias ativas</v>
+        <v>mentoria</v>
       </c>
       <c r="D47" t="str">
         <v/>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>robotica educacional</v>
+        <v>revisao de literatura</v>
       </c>
       <c r="B48" t="str">
-        <v>narrativa</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C48" t="str">
-        <v>curriculo de tecnologia</v>
+        <v>formacao de professor</v>
       </c>
       <c r="D48" t="str">
         <v/>
@@ -1221,33 +1221,33 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>ensino</v>
+        <v>cultura digital</v>
       </c>
       <c r="B49" t="str">
-        <v>metodologias ativas</v>
+        <v>educacao</v>
       </c>
       <c r="C49" t="str">
-        <v>pratica pedagogica</v>
+        <v>paemia</v>
       </c>
       <c r="D49" t="str">
-        <v>sala de aula invertida</v>
+        <v>fazer pedagogico</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>educacao profissional</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>educacao escolar</v>
+        <v>comunicacao</v>
       </c>
       <c r="B50" t="str">
-        <v>sala de aula virtual</v>
+        <v>cultura digital</v>
       </c>
       <c r="C50" t="str">
-        <v>ensino remoto e ensino hibrido</v>
+        <v>educacao</v>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
       <c r="E50" t="str">
         <v/>
@@ -1255,16 +1255,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>educacao fisica</v>
+        <v>processos educativos hibridos</v>
       </c>
       <c r="B51" t="str">
-        <v>praticas corporais</v>
+        <v>formacao docente</v>
       </c>
       <c r="C51" t="str">
-        <v>presencial</v>
+        <v>avaliacao</v>
       </c>
       <c r="D51" t="str">
-        <v>a distancia</v>
+        <v/>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>insurgencias</v>
+        <v>discentesdocentes</v>
       </c>
       <c r="B52" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>cibercultura</v>
       </c>
       <c r="C52" t="str">
-        <v>docencia no ensino superior</v>
+        <v>paemia</v>
       </c>
       <c r="D52" t="str">
-        <v>educacao a distancia</v>
+        <v>periferia</v>
       </c>
       <c r="E52" t="str">
         <v/>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>educacao</v>
+        <v>pedagogia das competencias</v>
       </c>
       <c r="B53" t="str">
-        <v>ensino remoto</v>
+        <v>formacao docente</v>
       </c>
       <c r="C53" t="str">
-        <v>ensino hibrido</v>
+        <v>semiformacao</v>
       </c>
       <c r="D53" t="str">
-        <v/>
+        <v>racionalidade tecnologica instrumental</v>
       </c>
       <c r="E53" t="str">
         <v/>
@@ -1306,33 +1306,33 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>tecnologia digital</v>
+        <v>educacao</v>
       </c>
       <c r="B54" t="str">
-        <v>formacao de professores</v>
+        <v>docente</v>
       </c>
       <c r="C54" t="str">
-        <v>audiovisual</v>
+        <v>tecnologia</v>
       </c>
       <c r="D54" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>microbiologia</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B55" t="str">
-        <v>ensino</v>
+        <v>atividades remotas</v>
       </c>
       <c r="C55" t="str">
-        <v>tecnologia</v>
+        <v>formacao academica</v>
       </c>
       <c r="D55" t="str">
-        <v>jogos</v>
+        <v/>
       </c>
       <c r="E55" t="str">
         <v/>
@@ -1340,16 +1340,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologia de comunicacao</v>
       </c>
       <c r="B56" t="str">
-        <v>competencias digitais</v>
+        <v>perguntas</v>
       </c>
       <c r="C56" t="str">
-        <v>educacao basica</v>
+        <v>apreizagem</v>
       </c>
       <c r="D56" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E56" t="str">
         <v/>
@@ -1357,47 +1357,47 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>competencias digitais</v>
+        <v>atividade colaborativa</v>
       </c>
       <c r="B57" t="str">
-        <v>professores</v>
+        <v>design de colaboracao</v>
       </c>
       <c r="C57" t="str">
-        <v>selfie for teachers</v>
+        <v>abordagens do design</v>
       </c>
       <c r="D57" t="str">
-        <v>educacao basica</v>
+        <v>modelo addie</v>
       </c>
       <c r="E57" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>reescrita</v>
       </c>
       <c r="B58" t="str">
-        <v>avaliacao</v>
+        <v>docencia</v>
       </c>
       <c r="C58" t="str">
-        <v>curso de pedagogia</v>
+        <v>anos finais do ensino fuamental</v>
       </c>
       <c r="D58" t="str">
-        <v/>
+        <v>dissertativo argumentativo</v>
       </c>
       <c r="E58" t="str">
-        <v/>
+        <v>enem</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>avaliacao de estagio</v>
+        <v>jogo da onca</v>
       </c>
       <c r="B59" t="str">
-        <v>processo pedagogico</v>
+        <v>lei 11645</v>
       </c>
       <c r="C59" t="str">
-        <v>tecnologias educacionais</v>
+        <v>cultura iigena</v>
       </c>
       <c r="D59" t="str">
         <v/>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>bitmoji</v>
+        <v>educacao 40 design educacional</v>
       </c>
       <c r="B60" t="str">
-        <v>ferramentas digitais</v>
+        <v>modelo addie</v>
       </c>
       <c r="C60" t="str">
-        <v>praticas de ensino</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="D60" t="str">
         <v/>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>processo avaliativo</v>
+        <v>covid19</v>
       </c>
       <c r="B61" t="str">
-        <v>engenharia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C61" t="str">
-        <v>projeto integrador</v>
+        <v>professores</v>
       </c>
       <c r="D61" t="str">
-        <v>paemia</v>
+        <v>experiencias</v>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -1442,33 +1442,33 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>google meet</v>
+        <v>curriculo</v>
       </c>
       <c r="B62" t="str">
-        <v>relato de experiencia</v>
+        <v>design curricular</v>
       </c>
       <c r="C62" t="str">
-        <v>paemia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D62" t="str">
-        <v>ensino remoto</v>
+        <v>bleedlearning</v>
       </c>
       <c r="E62" t="str">
-        <v>docencia</v>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>tdic</v>
+        <v>capacitacao de professores</v>
       </c>
       <c r="B63" t="str">
-        <v>ensino remoto</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C63" t="str">
-        <v>frequencia escolar</v>
+        <v>etsus</v>
       </c>
       <c r="D63" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E63" t="str">
         <v/>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>tecnologia educacional</v>
+        <v>cultura escolarizante</v>
       </c>
       <c r="B64" t="str">
-        <v>recurso tecnologico</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C64" t="str">
-        <v>formacao continuada</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D64" t="str">
         <v/>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>apreizagem da docencia</v>
+        <v>ensino superior</v>
       </c>
       <c r="B65" t="str">
-        <v>professor iniciante</v>
+        <v>odontologia</v>
       </c>
       <c r="C65" t="str">
-        <v>mentoria</v>
+        <v>paemia</v>
       </c>
       <c r="D65" t="str">
-        <v/>
+        <v>educacao hibrida</v>
       </c>
       <c r="E65" t="str">
         <v/>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>revisao de literatura</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B66" t="str">
-        <v>tecnologias digitais</v>
+        <v>tdic</v>
       </c>
       <c r="C66" t="str">
-        <v>formacao de professor</v>
+        <v>aulas sincronas</v>
       </c>
       <c r="D66" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
       <c r="E66" t="str">
         <v/>
@@ -1527,33 +1527,33 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>cultura digital</v>
+        <v>ensino para a criatividade</v>
       </c>
       <c r="B67" t="str">
-        <v>educacao</v>
+        <v>internacionalidade</v>
       </c>
       <c r="C67" t="str">
-        <v>paemia</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D67" t="str">
-        <v>fazer pedagogico</v>
+        <v>pensamento criativo</v>
       </c>
       <c r="E67" t="str">
-        <v>educacao profissional</v>
+        <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>comunicacao</v>
+        <v>reflexao</v>
       </c>
       <c r="B68" t="str">
-        <v>cultura digital</v>
+        <v>epistemologia</v>
       </c>
       <c r="C68" t="str">
-        <v>educacao</v>
+        <v>pratica docente</v>
       </c>
       <c r="D68" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E68" t="str">
         <v/>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>processos educativos hibridos</v>
+        <v>ensino superior</v>
       </c>
       <c r="B69" t="str">
-        <v>formacao docente</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C69" t="str">
-        <v>avaliacao</v>
+        <v>formacao inicial</v>
       </c>
       <c r="D69" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E69" t="str">
         <v/>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>discentesdocentes</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B70" t="str">
-        <v>cibercultura</v>
+        <v>covid19</v>
       </c>
       <c r="C70" t="str">
-        <v>paemia</v>
+        <v>ensino online emergencial</v>
       </c>
       <c r="D70" t="str">
-        <v>periferia</v>
+        <v/>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>pedagogia das competencias</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B71" t="str">
-        <v>formacao docente</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C71" t="str">
-        <v>semiformacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="D71" t="str">
-        <v>racionalidade tecnologica instrumental</v>
+        <v/>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>educacao</v>
+        <v>museus virtuais</v>
       </c>
       <c r="B72" t="str">
-        <v>docente</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C72" t="str">
-        <v>tecnologia</v>
+        <v>ensino de historia</v>
       </c>
       <c r="D72" t="str">
-        <v/>
+        <v>estagio supervisionado</v>
       </c>
       <c r="E72" t="str">
         <v/>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>estagio supervisionado</v>
+        <v>ensino nao presencia</v>
       </c>
       <c r="B73" t="str">
-        <v>atividades remotas</v>
+        <v>cursinho popular</v>
       </c>
       <c r="C73" t="str">
-        <v>formacao academica</v>
+        <v>acesso ao ensino superior</v>
       </c>
       <c r="D73" t="str">
         <v/>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>tecnologia de comunicacao</v>
+        <v>tpack</v>
       </c>
       <c r="B74" t="str">
-        <v>perguntas</v>
+        <v>docencia virtual</v>
       </c>
       <c r="C74" t="str">
-        <v>apreizagem</v>
+        <v>tdic</v>
       </c>
       <c r="D74" t="str">
-        <v/>
+        <v>profissionalizacao docente</v>
       </c>
       <c r="E74" t="str">
         <v/>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>atividade colaborativa</v>
+        <v>design thinking</v>
       </c>
       <c r="B75" t="str">
-        <v>design de colaboracao</v>
+        <v>teacher training</v>
       </c>
       <c r="C75" t="str">
-        <v>abordagens do design</v>
+        <v>digital technologies</v>
       </c>
       <c r="D75" t="str">
-        <v>modelo addie</v>
+        <v/>
       </c>
       <c r="E75" t="str">
         <v/>
@@ -1680,30 +1680,30 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>reescrita</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B76" t="str">
-        <v>docencia</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="C76" t="str">
-        <v>anos finais do ensino fuamental</v>
+        <v>competencias digitais</v>
       </c>
       <c r="D76" t="str">
-        <v>dissertativo argumentativo</v>
+        <v/>
       </c>
       <c r="E76" t="str">
-        <v>enem</v>
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>jogo da onca</v>
+        <v>figura</v>
       </c>
       <c r="B77" t="str">
-        <v>lei 11645</v>
+        <v>figuras geometricas</v>
       </c>
       <c r="C77" t="str">
-        <v>cultura iigena</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
       <c r="D77" t="str">
         <v/>
@@ -1714,33 +1714,33 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>educacao 40 design educacional</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B78" t="str">
-        <v>modelo addie</v>
+        <v>educacao ambiental</v>
       </c>
       <c r="C78" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>educacao basica</v>
       </c>
       <c r="D78" t="str">
-        <v/>
+        <v>revisao sistematica</v>
       </c>
       <c r="E78" t="str">
-        <v/>
+        <v>metodologias de ensino</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>covid19</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B79" t="str">
-        <v>educacao a distancia</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C79" t="str">
-        <v>professores</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D79" t="str">
-        <v>experiencias</v>
+        <v>paemia</v>
       </c>
       <c r="E79" t="str">
         <v/>
@@ -1748,33 +1748,33 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>curriculo</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B80" t="str">
-        <v>design curricular</v>
+        <v>tdic</v>
       </c>
       <c r="C80" t="str">
-        <v>educacao a distancia</v>
+        <v>quimica</v>
       </c>
       <c r="D80" t="str">
-        <v>bleedlearning</v>
+        <v/>
       </c>
       <c r="E80" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>capacitacao de professores</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B81" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C81" t="str">
-        <v>etsus</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D81" t="str">
-        <v/>
+        <v>pospaemia</v>
       </c>
       <c r="E81" t="str">
         <v/>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>cultura escolarizante</v>
+        <v>inovacao</v>
       </c>
       <c r="B82" t="str">
-        <v>ensino hibrido</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C82" t="str">
-        <v>metodologias ativas</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D82" t="str">
         <v/>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>ensino superior</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B83" t="str">
-        <v>odontologia</v>
+        <v>tpack</v>
       </c>
       <c r="C83" t="str">
-        <v>paemia</v>
+        <v>tdic</v>
       </c>
       <c r="D83" t="str">
-        <v>educacao hibrida</v>
+        <v>professor reflexivo</v>
       </c>
       <c r="E83" t="str">
         <v/>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B84" t="str">
-        <v>tdic</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C84" t="str">
-        <v>aulas sincronas</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D84" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E84" t="str">
         <v/>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>ensino para a criatividade</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="B85" t="str">
-        <v>internacionalidade</v>
+        <v>tecnologias da informacao e da comunicacao</v>
       </c>
       <c r="C85" t="str">
-        <v>praticas pedagogicas</v>
+        <v>cursos de licenciaturas</v>
       </c>
       <c r="D85" t="str">
-        <v>pensamento criativo</v>
+        <v>percepcao discente</v>
       </c>
       <c r="E85" t="str">
         <v/>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>reflexao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B86" t="str">
-        <v>epistemologia</v>
+        <v>pedagogia</v>
       </c>
       <c r="C86" t="str">
-        <v>pratica docente</v>
+        <v>juri simulado</v>
       </c>
       <c r="D86" t="str">
         <v/>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>ensino superior</v>
+        <v>digital literacy</v>
       </c>
       <c r="B87" t="str">
-        <v>ensino remoto</v>
+        <v>remote teaching</v>
       </c>
       <c r="C87" t="str">
-        <v>formacao inicial</v>
+        <v>dict</v>
       </c>
       <c r="D87" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E87" t="str">
         <v/>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>estagio supervisionado</v>
+        <v>formacao docente</v>
       </c>
       <c r="B88" t="str">
-        <v>covid19</v>
+        <v>pratica docente</v>
       </c>
       <c r="C88" t="str">
-        <v>ensino online emergencial</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D88" t="str">
         <v/>
@@ -1901,13 +1901,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>formacao continuada</v>
+        <v>estilos de apreizagem</v>
       </c>
       <c r="B89" t="str">
-        <v>ferramentas digitais</v>
+        <v>modelo de kolb</v>
       </c>
       <c r="C89" t="str">
-        <v>ensino superior</v>
+        <v>aplicacao web</v>
       </c>
       <c r="D89" t="str">
         <v/>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>museus virtuais</v>
+        <v>tdics</v>
       </c>
       <c r="B90" t="str">
-        <v>educacao a distancia</v>
+        <v>formacao docente</v>
       </c>
       <c r="C90" t="str">
-        <v>ensino de historia</v>
+        <v>praticapedagogicahibrida</v>
       </c>
       <c r="D90" t="str">
-        <v>estagio supervisionado</v>
+        <v/>
       </c>
       <c r="E90" t="str">
         <v/>
@@ -1935,33 +1935,33 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>ensino nao presencia</v>
+        <v>engajamento</v>
       </c>
       <c r="B91" t="str">
-        <v>cursinho popular</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C91" t="str">
-        <v>acesso ao ensino superior</v>
+        <v>formacao docente</v>
       </c>
       <c r="D91" t="str">
-        <v/>
+        <v>mediacao docente diferenciada</v>
       </c>
       <c r="E91" t="str">
-        <v/>
+        <v>apreizagem virtual</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>tpack</v>
+        <v>metodologias ativas e criativas</v>
       </c>
       <c r="B92" t="str">
-        <v>docencia virtual</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C92" t="str">
-        <v>tdic</v>
+        <v>formacao pedagogica</v>
       </c>
       <c r="D92" t="str">
-        <v>profissionalizacao docente</v>
+        <v/>
       </c>
       <c r="E92" t="str">
         <v/>
@@ -1969,16 +1969,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>design thinking</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B93" t="str">
-        <v>teacher training</v>
+        <v>ensino superior</v>
       </c>
       <c r="C93" t="str">
-        <v>digital technologies</v>
+        <v>nsino remoto</v>
       </c>
       <c r="D93" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E93" t="str">
         <v/>
@@ -1986,13 +1986,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>avaliacao formativa</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B94" t="str">
-        <v>tecnologias educacionais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C94" t="str">
-        <v>competencias digitais</v>
+        <v>multiletramentos</v>
       </c>
       <c r="D94" t="str">
         <v/>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>figura</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="B95" t="str">
-        <v>figuras geometricas</v>
+        <v>sistema de recomeacao</v>
       </c>
       <c r="C95" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>producao textua</v>
       </c>
       <c r="D95" t="str">
         <v/>
@@ -2020,33 +2020,33 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>formacao continuada de professores</v>
+        <v>idosos</v>
       </c>
       <c r="B96" t="str">
-        <v>educacao ambiental</v>
+        <v>ensino coletivo de violao</v>
       </c>
       <c r="C96" t="str">
-        <v>educacao basica</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="D96" t="str">
-        <v>revisao sistematica</v>
+        <v/>
       </c>
       <c r="E96" t="str">
-        <v>metodologias de ensino</v>
+        <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>educacao infantil</v>
+        <v>narrativas digitais</v>
       </c>
       <c r="B97" t="str">
-        <v>formacao continuada</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C97" t="str">
-        <v>ensino remoto</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D97" t="str">
-        <v>paemia</v>
+        <v>formacao docente</v>
       </c>
       <c r="E97" t="str">
         <v/>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>formacao de professores</v>
+        <v>competencia digital</v>
       </c>
       <c r="B98" t="str">
         <v>tdic</v>
       </c>
       <c r="C98" t="str">
-        <v>quimica</v>
+        <v>digicompedu</v>
       </c>
       <c r="D98" t="str">
-        <v/>
+        <v>ensino superior tecnologico</v>
       </c>
       <c r="E98" t="str">
         <v/>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>formacao de professores</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B99" t="str">
-        <v>tecnologias digitais</v>
+        <v>covid19</v>
       </c>
       <c r="C99" t="str">
-        <v>curso de pedagogia</v>
+        <v>professores de ciencias</v>
       </c>
       <c r="D99" t="str">
-        <v>pospaemia</v>
+        <v>adaptacao</v>
       </c>
       <c r="E99" t="str">
         <v/>
@@ -2088,33 +2088,33 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>inovacao</v>
+        <v>pratica da leitura</v>
       </c>
       <c r="B100" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C100" t="str">
-        <v>formacao de professores</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="D100" t="str">
-        <v/>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="E100" t="str">
-        <v/>
+        <v>transposicao didatica</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>formacao de professores</v>
+        <v>atividade docente</v>
       </c>
       <c r="B101" t="str">
-        <v>tpack</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C101" t="str">
-        <v>tdic</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="D101" t="str">
-        <v>professor reflexivo</v>
+        <v>dramaticas de uso de si</v>
       </c>
       <c r="E101" t="str">
         <v/>
@@ -2122,16 +2122,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>educacao infantil</v>
+        <v>ensino de instrumentos de teclado</v>
       </c>
       <c r="B102" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>licenciatura em musica</v>
       </c>
       <c r="C102" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino nao presencial emergencial enpe</v>
       </c>
       <c r="D102" t="str">
-        <v/>
+        <v>ambiente virtual de apreizagem ava</v>
       </c>
       <c r="E102" t="str">
         <v/>
@@ -2139,16 +2139,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>inovacao educacional</v>
+        <v>paemia</v>
       </c>
       <c r="B103" t="str">
-        <v>tecnologias da informacao e da comunicacao</v>
+        <v>estagio nao presencia</v>
       </c>
       <c r="C103" t="str">
-        <v>cursos de licenciaturas</v>
+        <v>atuacao docente</v>
       </c>
       <c r="D103" t="str">
-        <v>percepcao discente</v>
+        <v>experiencias formativas</v>
       </c>
       <c r="E103" t="str">
         <v/>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino</v>
       </c>
       <c r="B104" t="str">
-        <v>pedagogia</v>
+        <v>objetos de apreizagem</v>
       </c>
       <c r="C104" t="str">
-        <v>juri simulado</v>
+        <v>professores</v>
       </c>
       <c r="D104" t="str">
         <v/>
@@ -2173,16 +2173,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>digital literacy</v>
+        <v>formacao docente</v>
       </c>
       <c r="B105" t="str">
-        <v>remote teaching</v>
+        <v>ensino musical escolar</v>
       </c>
       <c r="C105" t="str">
-        <v>dict</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D105" t="str">
-        <v/>
+        <v>paemia de covid19</v>
       </c>
       <c r="E105" t="str">
         <v/>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>formacao docente</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B106" t="str">
-        <v>pratica docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C106" t="str">
-        <v>tecnologias digitais</v>
+        <v>uso das tdic</v>
       </c>
       <c r="D106" t="str">
         <v/>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>estilos de apreizagem</v>
+        <v>tecnologia</v>
       </c>
       <c r="B107" t="str">
-        <v>modelo de kolb</v>
+        <v>pratica docente</v>
       </c>
       <c r="C107" t="str">
-        <v>aplicacao web</v>
+        <v>nativos digitais</v>
       </c>
       <c r="D107" t="str">
         <v/>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>tdics</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B108" t="str">
-        <v>formacao docente</v>
+        <v>normativas</v>
       </c>
       <c r="C108" t="str">
-        <v>praticapedagogicahibrida</v>
+        <v>covid19</v>
       </c>
       <c r="D108" t="str">
-        <v/>
+        <v>ensino hibrido</v>
       </c>
       <c r="E108" t="str">
         <v/>
@@ -2241,30 +2241,30 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>engajamento</v>
+        <v>tecnologia</v>
       </c>
       <c r="B109" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao</v>
       </c>
       <c r="C109" t="str">
-        <v>formacao docente</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D109" t="str">
-        <v>mediacao docente diferenciada</v>
+        <v/>
       </c>
       <c r="E109" t="str">
-        <v>apreizagem virtual</v>
+        <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>metodologias ativas e criativas</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B110" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C110" t="str">
-        <v>formacao pedagogica</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="D110" t="str">
         <v/>
@@ -2275,16 +2275,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>metodologias ativas</v>
+        <v>desenho didatico</v>
       </c>
       <c r="B111" t="str">
-        <v>ensino superior</v>
+        <v>iagacao online</v>
       </c>
       <c r="C111" t="str">
-        <v>nsino remoto</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D111" t="str">
-        <v>covid19</v>
+        <v>pesquisaformacao</v>
       </c>
       <c r="E111" t="str">
         <v/>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>formacao continuada</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="B112" t="str">
-        <v>tecnologias digitais</v>
+        <v>professores</v>
       </c>
       <c r="C112" t="str">
-        <v>multiletramentos</v>
+        <v>tecnologia</v>
       </c>
       <c r="D112" t="str">
         <v/>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>modelo pedagogico</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B113" t="str">
-        <v>sistema de recomeacao</v>
+        <v>planejamento</v>
       </c>
       <c r="C113" t="str">
-        <v>producao textua</v>
+        <v>pratica docente</v>
       </c>
       <c r="D113" t="str">
         <v/>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>idosos</v>
+        <v>inovacao pedagogica</v>
       </c>
       <c r="B114" t="str">
-        <v>ensino coletivo de violao</v>
+        <v>plataformizacao</v>
       </c>
       <c r="C114" t="str">
-        <v>tecnologia digital</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D114" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E114" t="str">
         <v/>
@@ -2343,16 +2343,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>narrativas digitais</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B115" t="str">
-        <v>tecnologias digitais</v>
+        <v>fluencia tecnologicopedagogica</v>
       </c>
       <c r="C115" t="str">
-        <v>educacao a distancia</v>
+        <v>covid19</v>
       </c>
       <c r="D115" t="str">
-        <v>formacao docente</v>
+        <v/>
       </c>
       <c r="E115" t="str">
         <v/>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>competencia digital</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B116" t="str">
-        <v>tdic</v>
+        <v>presencas na ead</v>
       </c>
       <c r="C116" t="str">
-        <v>digicompedu</v>
+        <v>portfolios de apreizagens</v>
       </c>
       <c r="D116" t="str">
-        <v>ensino superior tecnologico</v>
+        <v/>
       </c>
       <c r="E116" t="str">
         <v/>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="B117" t="str">
-        <v>covid19</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C117" t="str">
-        <v>professores de ciencias</v>
+        <v>argumentacao</v>
       </c>
       <c r="D117" t="str">
-        <v>adaptacao</v>
+        <v>interacoes discursivas</v>
       </c>
       <c r="E117" t="str">
         <v/>
@@ -2394,33 +2394,33 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>pratica da leitura</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B118" t="str">
-        <v>ensino hibrido</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="C118" t="str">
-        <v>metodologia ativa</v>
+        <v>conhecimentos pedagogicos e tecnologicos</v>
       </c>
       <c r="D118" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>uefined</v>
       </c>
       <c r="E118" t="str">
-        <v>transposicao didatica</v>
+        <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>atividade docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B119" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>programa residencia pedagogica</v>
       </c>
       <c r="C119" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>tecnologias digitais de ensino</v>
       </c>
       <c r="D119" t="str">
-        <v>dramaticas de uso de si</v>
+        <v/>
       </c>
       <c r="E119" t="str">
         <v/>
@@ -2428,16 +2428,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>ensino de instrumentos de teclado</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B120" t="str">
-        <v>licenciatura em musica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C120" t="str">
-        <v>ensino nao presencial emergencial enpe</v>
+        <v>educacao basica</v>
       </c>
       <c r="D120" t="str">
-        <v>ambiente virtual de apreizagem ava</v>
+        <v/>
       </c>
       <c r="E120" t="str">
         <v/>
@@ -2445,16 +2445,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>paemia</v>
+        <v>trabalho docente</v>
       </c>
       <c r="B121" t="str">
-        <v>estagio nao presencia</v>
+        <v>tecnologia</v>
       </c>
       <c r="C121" t="str">
-        <v>atuacao docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D121" t="str">
-        <v>experiencias formativas</v>
+        <v>precarizacao do trabalho docente</v>
       </c>
       <c r="E121" t="str">
         <v/>
@@ -2465,13 +2465,13 @@
         <v>ensino</v>
       </c>
       <c r="B122" t="str">
-        <v>objetos de apreizagem</v>
+        <v>apreizagem</v>
       </c>
       <c r="C122" t="str">
-        <v>professores</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="D122" t="str">
-        <v/>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E122" t="str">
         <v/>
@@ -2479,33 +2479,33 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>formacao docente</v>
+        <v>ensino superior</v>
       </c>
       <c r="B123" t="str">
-        <v>ensino musical escolar</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="C123" t="str">
-        <v>ensino remoto</v>
+        <v>ambiente virtual de apreizagem</v>
       </c>
       <c r="D123" t="str">
-        <v>paemia de covid19</v>
+        <v>percepcao de professores</v>
       </c>
       <c r="E123" t="str">
-        <v/>
+        <v>percepcao de estudantes</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>educacao hibrida</v>
+        <v>covid19</v>
       </c>
       <c r="B124" t="str">
-        <v>formacao de professores</v>
+        <v>curso online</v>
       </c>
       <c r="C124" t="str">
-        <v>uso das tdic</v>
+        <v>educacao</v>
       </c>
       <c r="D124" t="str">
-        <v/>
+        <v>sujeitos do campo</v>
       </c>
       <c r="E124" t="str">
         <v/>
@@ -2513,16 +2513,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>tecnologia</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B125" t="str">
-        <v>pratica docente</v>
+        <v>wordwall</v>
       </c>
       <c r="C125" t="str">
-        <v>nativos digitais</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="D125" t="str">
-        <v/>
+        <v>percepcao docente</v>
       </c>
       <c r="E125" t="str">
         <v/>
@@ -2530,47 +2530,47 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>educacao infantil</v>
+        <v>mediacao pedagogica</v>
       </c>
       <c r="B126" t="str">
-        <v>normativas</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="C126" t="str">
-        <v>covid19</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D126" t="str">
-        <v>ensino hibrido</v>
+        <v>siemia</v>
       </c>
       <c r="E126" t="str">
-        <v/>
+        <v>desenho universal para apreizagem</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>tecnologia</v>
+        <v>ensino</v>
       </c>
       <c r="B127" t="str">
-        <v>educacao</v>
+        <v>docente</v>
       </c>
       <c r="C127" t="str">
-        <v>trabalho docente</v>
+        <v>tdic</v>
       </c>
       <c r="D127" t="str">
-        <v/>
+        <v>formacao</v>
       </c>
       <c r="E127" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>formacao de professores</v>
+        <v>apreizagem mediada</v>
       </c>
       <c r="B128" t="str">
-        <v>ensino de ciencias</v>
+        <v>formacao de professore</v>
       </c>
       <c r="C128" t="str">
-        <v>pensamento computacional</v>
+        <v>letramento digital</v>
       </c>
       <c r="D128" t="str">
         <v/>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>desenho didatico</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="B129" t="str">
-        <v>iagacao online</v>
+        <v>educacao basica</v>
       </c>
       <c r="C129" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D129" t="str">
-        <v>pesquisaformacao</v>
+        <v>residencia pedagogica</v>
       </c>
       <c r="E129" t="str">
         <v/>
@@ -2598,50 +2598,50 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>ensinoapreizagem</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B130" t="str">
-        <v>professores</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C130" t="str">
-        <v>tecnologia</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D130" t="str">
-        <v/>
+        <v>formacao continuada de docentes</v>
       </c>
       <c r="E130" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>formacao de professores</v>
+        <v>docencia</v>
       </c>
       <c r="B131" t="str">
-        <v>planejamento</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C131" t="str">
-        <v>pratica docente</v>
+        <v>gestao da sala de aula</v>
       </c>
       <c r="D131" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E131" t="str">
-        <v/>
+        <v>ensino presencial</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>inovacao pedagogica</v>
+        <v>competencias</v>
       </c>
       <c r="B132" t="str">
-        <v>plataformizacao</v>
+        <v>jornada</v>
       </c>
       <c r="C132" t="str">
-        <v>trabalho docente</v>
+        <v>ambiente remoto</v>
       </c>
       <c r="D132" t="str">
-        <v>paemia covid19</v>
+        <v>tecnologias</v>
       </c>
       <c r="E132" t="str">
         <v/>
@@ -2649,33 +2649,33 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>formacao continuada de professores</v>
+        <v>pedagogia</v>
       </c>
       <c r="B133" t="str">
-        <v>fluencia tecnologicopedagogica</v>
+        <v>letramento midiatico</v>
       </c>
       <c r="C133" t="str">
-        <v>covid19</v>
+        <v>identidades</v>
       </c>
       <c r="D133" t="str">
-        <v/>
+        <v>epresentacoes sociais</v>
       </c>
       <c r="E133" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias de informacao e comunicacao tics</v>
       </c>
       <c r="B134" t="str">
-        <v>presencas na ead</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C134" t="str">
-        <v>portfolios de apreizagens</v>
+        <v>docentes</v>
       </c>
       <c r="D134" t="str">
-        <v/>
+        <v>contabilidade</v>
       </c>
       <c r="E134" t="str">
         <v/>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>tdic</v>
+        <v>tpack</v>
       </c>
       <c r="B135" t="str">
-        <v>praticas pedagogicas</v>
+        <v>formacao de professores de linguas</v>
       </c>
       <c r="C135" t="str">
-        <v>argumentacao</v>
+        <v>portugues como lingua adicional</v>
       </c>
       <c r="D135" t="str">
-        <v>interacoes discursivas</v>
+        <v/>
       </c>
       <c r="E135" t="str">
         <v/>
@@ -2700,16 +2700,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B136" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>planejamento didatico</v>
       </c>
       <c r="C136" t="str">
-        <v>conhecimentos pedagogicos e tecnologicos</v>
+        <v>desempenho academico</v>
       </c>
       <c r="D136" t="str">
-        <v>uefined</v>
+        <v/>
       </c>
       <c r="E136" t="str">
         <v/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>formacao de professores</v>
+        <v>teletrabalho</v>
       </c>
       <c r="B137" t="str">
-        <v>programa residencia pedagogica</v>
+        <v>jornada de trabalho</v>
       </c>
       <c r="C137" t="str">
-        <v>tecnologias digitais de ensino</v>
+        <v>idademidia</v>
       </c>
       <c r="D137" t="str">
-        <v/>
+        <v>culturadigital</v>
       </c>
       <c r="E137" t="str">
         <v/>
@@ -2734,16 +2734,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B138" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologia</v>
       </c>
       <c r="C138" t="str">
+        <v>professor</v>
+      </c>
+      <c r="D138" t="str">
         <v>educacao basica</v>
-      </c>
-      <c r="D138" t="str">
-        <v/>
       </c>
       <c r="E138" t="str">
         <v/>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>trabalho docente</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B139" t="str">
-        <v>tecnologia</v>
+        <v>avaliacao</v>
       </c>
       <c r="C139" t="str">
-        <v>formacao de professores</v>
+        <v>paemia</v>
       </c>
       <c r="D139" t="str">
-        <v>precarizacao do trabalho docente</v>
+        <v/>
       </c>
       <c r="E139" t="str">
         <v/>
@@ -2768,67 +2768,67 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>ensino</v>
+        <v>docencia</v>
       </c>
       <c r="B140" t="str">
-        <v>apreizagem</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="C140" t="str">
-        <v>apreizagem invertida</v>
+        <v>ensino superior</v>
       </c>
       <c r="D140" t="str">
-        <v>sala de aula invertida</v>
+        <v>especializacao</v>
       </c>
       <c r="E140" t="str">
-        <v/>
+        <v>comunidades de pratica</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>ensino superior</v>
+        <v>ensino de linguas</v>
       </c>
       <c r="B141" t="str">
-        <v>pratica pedagogica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C141" t="str">
-        <v>ambiente virtual de apreizagem</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D141" t="str">
-        <v>percepcao de professores</v>
+        <v/>
       </c>
       <c r="E141" t="str">
-        <v>percepcao de estudantes</v>
+        <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>covid19</v>
+        <v>calculadoras eletronicas</v>
       </c>
       <c r="B142" t="str">
-        <v>curso online</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C142" t="str">
-        <v>educacao</v>
+        <v>estudos cts</v>
       </c>
       <c r="D142" t="str">
-        <v>sujeitos do campo</v>
+        <v>controversia controlada</v>
       </c>
       <c r="E142" t="str">
-        <v/>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>jogos digitais</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="B143" t="str">
-        <v>wordwall</v>
+        <v>professor</v>
       </c>
       <c r="C143" t="str">
-        <v>ensino e apreizagem</v>
+        <v>paemia</v>
       </c>
       <c r="D143" t="str">
-        <v>percepcao docente</v>
+        <v/>
       </c>
       <c r="E143" t="str">
         <v/>
@@ -2836,67 +2836,67 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>mediacao pedagogica</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B144" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C144" t="str">
-        <v>educacao inclusiva</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D144" t="str">
-        <v>siemia</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="E144" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
+        <v>parasitologia</v>
+      </c>
+      <c r="B145" t="str">
+        <v>materiais didaticos</v>
+      </c>
+      <c r="C145" t="str">
+        <v>instrumento de avaliacao</v>
+      </c>
+      <c r="D145" t="str">
+        <v>avaliacao de materiais didaticos online</v>
+      </c>
+      <c r="E145" t="str">
         <v>ensino</v>
-      </c>
-      <c r="B145" t="str">
-        <v>docente</v>
-      </c>
-      <c r="C145" t="str">
-        <v>tdic</v>
-      </c>
-      <c r="D145" t="str">
-        <v>formacao</v>
-      </c>
-      <c r="E145" t="str">
-        <v>covid19</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>apreizagem mediada</v>
+        <v>docencia universitaria</v>
       </c>
       <c r="B146" t="str">
-        <v>formacao de professore</v>
+        <v>inteligencia artificial</v>
       </c>
       <c r="C146" t="str">
-        <v>letramento digital</v>
+        <v>automacao</v>
       </c>
       <c r="D146" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E146" t="str">
-        <v/>
+        <v>algoritimo</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>praticas pedagogicas</v>
+        <v>vulnerabilidades</v>
       </c>
       <c r="B147" t="str">
-        <v>educacao basica</v>
+        <v>escolas paulistas</v>
       </c>
       <c r="C147" t="str">
-        <v>ensino remoto</v>
+        <v>desigualdades socioeconomicas</v>
       </c>
       <c r="D147" t="str">
-        <v>residencia pedagogica</v>
+        <v>tecnologias</v>
       </c>
       <c r="E147" t="str">
         <v/>
@@ -2904,50 +2904,50 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>educacao a distancia</v>
+        <v>adolescencia</v>
       </c>
       <c r="B148" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>apreizagem por projeto</v>
       </c>
       <c r="C148" t="str">
-        <v>plataforma moodle</v>
+        <v>jogo psicoeducativo</v>
       </c>
       <c r="D148" t="str">
-        <v>formacao continuada de docentes</v>
+        <v>psicologia</v>
       </c>
       <c r="E148" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>docencia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B149" t="str">
-        <v>praticas pedagogicas</v>
+        <v>internet</v>
       </c>
       <c r="C149" t="str">
-        <v>gestao da sala de aula</v>
+        <v>tecnologia</v>
       </c>
       <c r="D149" t="str">
-        <v>tecnologias digitais</v>
+        <v>ferramentas do moodle</v>
       </c>
       <c r="E149" t="str">
-        <v>ensino presencial</v>
+        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>competencias</v>
+        <v>videoanalise</v>
       </c>
       <c r="B150" t="str">
-        <v>jornada</v>
+        <v>tracker</v>
       </c>
       <c r="C150" t="str">
-        <v>ambiente remoto</v>
+        <v>experiencia virtual</v>
       </c>
       <c r="D150" t="str">
-        <v>tecnologias</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E150" t="str">
         <v/>
@@ -2955,47 +2955,47 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>pedagogia</v>
+        <v>moodle</v>
       </c>
       <c r="B151" t="str">
-        <v>letramento midiatico</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C151" t="str">
-        <v>identidades</v>
+        <v>educacao mediada por tecnologias digitais</v>
       </c>
       <c r="D151" t="str">
-        <v>epresentacoes sociais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E151" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>tecnologias de informacao e comunicacao tics</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="B152" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C152" t="str">
-        <v>docentes</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D152" t="str">
-        <v>contabilidade</v>
+        <v>licenciatura</v>
       </c>
       <c r="E152" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>tpack</v>
+        <v>audiovisual</v>
       </c>
       <c r="B153" t="str">
-        <v>formacao de professores de linguas</v>
+        <v>educacao</v>
       </c>
       <c r="C153" t="str">
-        <v>portugues como lingua adicional</v>
+        <v>tecnologia</v>
       </c>
       <c r="D153" t="str">
         <v/>
@@ -3006,33 +3006,33 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>educacao matematica</v>
       </c>
       <c r="B154" t="str">
-        <v>planejamento didatico</v>
+        <v>genero</v>
       </c>
       <c r="C154" t="str">
-        <v>desempenho academico</v>
+        <v>geometria</v>
       </c>
       <c r="D154" t="str">
-        <v/>
+        <v>representatividade</v>
       </c>
       <c r="E154" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>teletrabalho</v>
+        <v>tecnologia</v>
       </c>
       <c r="B155" t="str">
-        <v>jornada de trabalho</v>
+        <v>ateimento educacional especializado aee</v>
       </c>
       <c r="C155" t="str">
-        <v>idademidia</v>
+        <v>sala de recurso multifuncional</v>
       </c>
       <c r="D155" t="str">
-        <v>culturadigital</v>
+        <v/>
       </c>
       <c r="E155" t="str">
         <v/>
@@ -3040,30 +3040,30 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>ensino remoto</v>
+        <v>ensino</v>
       </c>
       <c r="B156" t="str">
-        <v>tecnologia</v>
+        <v>apreizagem</v>
       </c>
       <c r="C156" t="str">
-        <v>professor</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D156" t="str">
-        <v>educacao basica</v>
+        <v>atlas</v>
       </c>
       <c r="E156" t="str">
-        <v/>
+        <v>quimica</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>ensino remoto</v>
+        <v>redes sociais</v>
       </c>
       <c r="B157" t="str">
-        <v>avaliacao</v>
+        <v>engajamento</v>
       </c>
       <c r="C157" t="str">
-        <v>paemia</v>
+        <v>apreizagem</v>
       </c>
       <c r="D157" t="str">
         <v/>
@@ -3074,30 +3074,30 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>docencia</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B158" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>avaliacao de programas</v>
       </c>
       <c r="C158" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias educacionaisdigitais</v>
       </c>
       <c r="D158" t="str">
-        <v>especializacao</v>
+        <v/>
       </c>
       <c r="E158" t="str">
-        <v>comunidades de pratica</v>
+        <v/>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>ensino de linguas</v>
+        <v>whatsapp</v>
       </c>
       <c r="B159" t="str">
-        <v>formacao de professores</v>
+        <v>ensino</v>
       </c>
       <c r="C159" t="str">
-        <v>tecnologias digitais</v>
+        <v>apreizagem</v>
       </c>
       <c r="D159" t="str">
         <v/>
@@ -3108,30 +3108,30 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>calculadoras eletronicas</v>
+        <v>blog</v>
       </c>
       <c r="B160" t="str">
-        <v>educacao matematica</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C160" t="str">
-        <v>estudos cts</v>
+        <v>estrategia didatica</v>
       </c>
       <c r="D160" t="str">
-        <v>controversia controlada</v>
+        <v>mediacao</v>
       </c>
       <c r="E160" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>design</v>
       </c>
       <c r="B161" t="str">
-        <v>professor</v>
+        <v>qualificacao profissional</v>
       </c>
       <c r="C161" t="str">
-        <v>paemia</v>
+        <v>educacao ambienta</v>
       </c>
       <c r="D161" t="str">
         <v/>
@@ -3142,16 +3142,16 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>jogos digitais</v>
+        <v>educacao</v>
       </c>
       <c r="B162" t="str">
-        <v>educacao matematica</v>
+        <v>tecnologia</v>
       </c>
       <c r="C162" t="str">
-        <v>formacao de professores</v>
+        <v>competencias midiaticas e em informacao</v>
       </c>
       <c r="D162" t="str">
-        <v>relato de experiencia</v>
+        <v/>
       </c>
       <c r="E162" t="str">
         <v/>
@@ -3159,50 +3159,50 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>parasitologia</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="B163" t="str">
-        <v>materiais didaticos</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C163" t="str">
-        <v>instrumento de avaliacao</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="D163" t="str">
-        <v>avaliacao de materiais didaticos online</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="E163" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>docencia universitaria</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="B164" t="str">
-        <v>inteligencia artificial</v>
+        <v>apreizagem</v>
       </c>
       <c r="C164" t="str">
-        <v>automacao</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D164" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E164" t="str">
-        <v>algoritimo</v>
+        <v/>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>vulnerabilidades</v>
+        <v>educacao superior</v>
       </c>
       <c r="B165" t="str">
-        <v>escolas paulistas</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C165" t="str">
-        <v>desigualdades socioeconomicas</v>
+        <v>cultura maker</v>
       </c>
       <c r="D165" t="str">
-        <v>tecnologias</v>
+        <v>podcast</v>
       </c>
       <c r="E165" t="str">
         <v/>
@@ -3210,16 +3210,16 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>adolescencia</v>
+        <v>anormalidades craniofaciais</v>
       </c>
       <c r="B166" t="str">
-        <v>apreizagem por projeto</v>
+        <v>curadoria de dados</v>
       </c>
       <c r="C166" t="str">
-        <v>jogo psicoeducativo</v>
+        <v>rede social</v>
       </c>
       <c r="D166" t="str">
-        <v>psicologia</v>
+        <v/>
       </c>
       <c r="E166" t="str">
         <v/>
@@ -3227,81 +3227,81 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>ensino remoto</v>
+        <v>gamificacao</v>
       </c>
       <c r="B167" t="str">
-        <v>internet</v>
+        <v>metodologias de ensino</v>
       </c>
       <c r="C167" t="str">
-        <v>tecnologia</v>
+        <v>jogo</v>
       </c>
       <c r="D167" t="str">
-        <v>ferramentas do moodle</v>
+        <v>ciencias ambientais</v>
       </c>
       <c r="E167" t="str">
-        <v>materiais didaticos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>videoanalise</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B168" t="str">
-        <v>tracker</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C168" t="str">
-        <v>experiencia virtual</v>
+        <v>jogo eletronico</v>
       </c>
       <c r="D168" t="str">
-        <v>ensino de fisica</v>
+        <v>lixo toxico</v>
       </c>
       <c r="E168" t="str">
-        <v/>
+        <v>tabela periodica</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>moodle</v>
+        <v>direitos autorais</v>
       </c>
       <c r="B169" t="str">
-        <v>sequencia didatica</v>
+        <v>internet</v>
       </c>
       <c r="C169" t="str">
-        <v>educacao mediada por tecnologias digitais</v>
+        <v>plagio</v>
       </c>
       <c r="D169" t="str">
-        <v>educacao a distancia</v>
+        <v>material didatico</v>
       </c>
       <c r="E169" t="str">
-        <v/>
+        <v>trabalho academico</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>sequencia didatica</v>
+        <v>material didatico</v>
       </c>
       <c r="B170" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="C170" t="str">
-        <v>ensino de ciencias</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D170" t="str">
-        <v>licenciatura</v>
+        <v>compartilhamento</v>
       </c>
       <c r="E170" t="str">
-        <v>paemia</v>
+        <v>estrategia pedagogica</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audiovisual</v>
+        <v>raple</v>
       </c>
       <c r="B171" t="str">
-        <v>educacao</v>
+        <v>repositorios</v>
       </c>
       <c r="C171" t="str">
-        <v>tecnologia</v>
+        <v>planos de aula</v>
       </c>
       <c r="D171" t="str">
         <v/>
@@ -3312,81 +3312,81 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>educacao matematica</v>
+        <v>wifi</v>
       </c>
       <c r="B172" t="str">
-        <v>genero</v>
+        <v>iot</v>
       </c>
       <c r="C172" t="str">
-        <v>geometria</v>
+        <v>internet das coisas</v>
       </c>
       <c r="D172" t="str">
-        <v>representatividade</v>
+        <v/>
       </c>
       <c r="E172" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>tecnologia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B173" t="str">
-        <v>ateimento educacional especializado aee</v>
+        <v>posgraduacao</v>
       </c>
       <c r="C173" t="str">
-        <v>sala de recurso multifuncional</v>
+        <v>covid19</v>
       </c>
       <c r="D173" t="str">
-        <v/>
+        <v>bleed learning</v>
       </c>
       <c r="E173" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>ensino</v>
+        <v>enriquecimento curricular online</v>
       </c>
       <c r="B174" t="str">
-        <v>apreizagem</v>
+        <v>aplicativo para celular</v>
       </c>
       <c r="C174" t="str">
-        <v>tecnologias digitais</v>
+        <v>personalizacao do ensino</v>
       </c>
       <c r="D174" t="str">
-        <v>atlas</v>
+        <v/>
       </c>
       <c r="E174" t="str">
-        <v>quimica</v>
+        <v/>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>redes sociais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B175" t="str">
-        <v>engajamento</v>
+        <v>tecnologia</v>
       </c>
       <c r="C175" t="str">
-        <v>apreizagem</v>
+        <v>saude</v>
       </c>
       <c r="D175" t="str">
-        <v/>
+        <v>educacao online</v>
       </c>
       <c r="E175" t="str">
-        <v/>
+        <v>territorialidade</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>metaavaliacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B176" t="str">
-        <v>avaliacao de programas</v>
+        <v>formacao docente</v>
       </c>
       <c r="C176" t="str">
-        <v>tecnologias educacionaisdigitais</v>
+        <v>tdic</v>
       </c>
       <c r="D176" t="str">
         <v/>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>whatsapp</v>
+        <v>gamificacao</v>
       </c>
       <c r="B177" t="str">
-        <v>ensino</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C177" t="str">
-        <v>apreizagem</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D177" t="str">
         <v/>
@@ -3414,16 +3414,16 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>blog</v>
+        <v>historia da matematica</v>
       </c>
       <c r="B178" t="str">
-        <v>educacao hibrida</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C178" t="str">
-        <v>estrategia didatica</v>
+        <v>minicurso</v>
       </c>
       <c r="D178" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E178" t="str">
         <v/>
@@ -3431,16 +3431,16 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>design</v>
+        <v>educacao em saude</v>
       </c>
       <c r="B179" t="str">
-        <v>qualificacao profissional</v>
+        <v>jogos serios</v>
       </c>
       <c r="C179" t="str">
-        <v>educacao ambienta</v>
+        <v>emergencia</v>
       </c>
       <c r="D179" t="str">
-        <v/>
+        <v>cardiologia</v>
       </c>
       <c r="E179" t="str">
         <v/>
@@ -3448,16 +3448,16 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>educacao</v>
+        <v>interatividade</v>
       </c>
       <c r="B180" t="str">
         <v>tecnologia</v>
       </c>
       <c r="C180" t="str">
-        <v>competencias midiaticas e em informacao</v>
+        <v>youtube</v>
       </c>
       <c r="D180" t="str">
-        <v/>
+        <v>mediacao</v>
       </c>
       <c r="E180" t="str">
         <v/>
@@ -3465,50 +3465,50 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>colonialismo digital</v>
       </c>
       <c r="B181" t="str">
-        <v>formacao continuada</v>
+        <v>educacao online</v>
       </c>
       <c r="C181" t="str">
-        <v>recursos educacionais</v>
+        <v>letramentos</v>
       </c>
       <c r="D181" t="str">
-        <v>ferramentas digitais</v>
+        <v>ensin osuperior</v>
       </c>
       <c r="E181" t="str">
-        <v/>
+        <v>decolonialidade digital</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>evasao no ensino superior</v>
+        <v>jogo</v>
       </c>
       <c r="B182" t="str">
+        <v>ensino</v>
+      </c>
+      <c r="C182" t="str">
         <v>apreizagem</v>
       </c>
-      <c r="C182" t="str">
-        <v>plataforma moodle</v>
-      </c>
       <c r="D182" t="str">
-        <v/>
+        <v>digital</v>
       </c>
       <c r="E182" t="str">
-        <v/>
+        <v>ambiente virtual</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>educacao superior</v>
+        <v>laboratorios remotos</v>
       </c>
       <c r="B183" t="str">
-        <v>apreizagem ativa</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C183" t="str">
-        <v>cultura maker</v>
+        <v>divulgacao ciefica</v>
       </c>
       <c r="D183" t="str">
-        <v>podcast</v>
+        <v/>
       </c>
       <c r="E183" t="str">
         <v/>
@@ -3516,13 +3516,13 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>anormalidades craniofaciais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B184" t="str">
-        <v>curadoria de dados</v>
+        <v>trilhas de apreizagem</v>
       </c>
       <c r="C184" t="str">
-        <v>rede social</v>
+        <v>autoria</v>
       </c>
       <c r="D184" t="str">
         <v/>
@@ -3533,16 +3533,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>gamificacao</v>
+        <v>tutor</v>
       </c>
       <c r="B185" t="str">
-        <v>metodologias de ensino</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C185" t="str">
-        <v>jogo</v>
+        <v>paemia da covid19</v>
       </c>
       <c r="D185" t="str">
-        <v>ciencias ambientais</v>
+        <v/>
       </c>
       <c r="E185" t="str">
         <v/>
@@ -3550,64 +3550,64 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>ensino de quimica</v>
+        <v>educacao</v>
       </c>
       <c r="B186" t="str">
-        <v>material didatico digital</v>
+        <v>comunicacao</v>
       </c>
       <c r="C186" t="str">
-        <v>jogo eletronico</v>
+        <v>audiovisual</v>
       </c>
       <c r="D186" t="str">
-        <v>lixo toxico</v>
+        <v>roteiro</v>
       </c>
       <c r="E186" t="str">
-        <v>tabela periodica</v>
+        <v/>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>direitos autorais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B187" t="str">
-        <v>internet</v>
+        <v>disciplinas regulares</v>
       </c>
       <c r="C187" t="str">
-        <v>plagio</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D187" t="str">
-        <v>material didatico</v>
+        <v>presencialidade</v>
       </c>
       <c r="E187" t="str">
-        <v>trabalho academico</v>
+        <v/>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>material didatico</v>
+        <v>ambiente virtual</v>
       </c>
       <c r="B188" t="str">
-        <v>recursos educacionais</v>
+        <v>moodle</v>
       </c>
       <c r="C188" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>educacao basica</v>
       </c>
       <c r="D188" t="str">
-        <v>compartilhamento</v>
+        <v/>
       </c>
       <c r="E188" t="str">
-        <v>estrategia pedagogica</v>
+        <v/>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>raple</v>
+        <v>bleed learning</v>
       </c>
       <c r="B189" t="str">
-        <v>repositorios</v>
+        <v>soft skills</v>
       </c>
       <c r="C189" t="str">
-        <v>planos de aula</v>
+        <v>educacao gerencial</v>
       </c>
       <c r="D189" t="str">
         <v/>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>wifi</v>
+        <v>docencia</v>
       </c>
       <c r="B190" t="str">
-        <v>iot</v>
+        <v>educacao digital</v>
       </c>
       <c r="C190" t="str">
-        <v>internet das coisas</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D190" t="str">
-        <v/>
+        <v>uneb</v>
       </c>
       <c r="E190" t="str">
         <v/>
@@ -3635,64 +3635,64 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>metodologias ativas</v>
+        <v>design instrucional</v>
       </c>
       <c r="B191" t="str">
-        <v>posgraduacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C191" t="str">
-        <v>covid19</v>
+        <v>ensino superior</v>
       </c>
       <c r="D191" t="str">
-        <v>bleed learning</v>
+        <v>ensino a distancia e digital</v>
       </c>
       <c r="E191" t="str">
-        <v>ensino</v>
+        <v>microcredenciais</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>enriquecimento curricular online</v>
+        <v>acentuacao grafica</v>
       </c>
       <c r="B192" t="str">
-        <v>aplicativo para celular</v>
+        <v>apreizagem</v>
       </c>
       <c r="C192" t="str">
-        <v>personalizacao do ensino</v>
+        <v>dificuldades</v>
       </c>
       <c r="D192" t="str">
-        <v/>
+        <v>motivacao</v>
       </c>
       <c r="E192" t="str">
-        <v/>
+        <v>metodologia ativa kahoot recursos digitais</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>educacao a distancia</v>
+        <v>avaliacao inovadora</v>
       </c>
       <c r="B193" t="str">
-        <v>tecnologia</v>
+        <v>software de avaliacao qualitativa</v>
       </c>
       <c r="C193" t="str">
-        <v>saude</v>
+        <v>feedback de avaliacao</v>
       </c>
       <c r="D193" t="str">
-        <v>educacao online</v>
+        <v>percurso de apreizagem personalizada</v>
       </c>
       <c r="E193" t="str">
-        <v>territorialidade</v>
+        <v/>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>mooc</v>
       </c>
       <c r="B194" t="str">
-        <v>formacao docente</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="C194" t="str">
-        <v>tdic</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D194" t="str">
         <v/>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>gamificacao</v>
+        <v>kahoot</v>
       </c>
       <c r="B195" t="str">
-        <v>ensino de ciencias</v>
+        <v>paemia</v>
       </c>
       <c r="C195" t="str">
-        <v>metodologias ativas</v>
+        <v>covid19</v>
       </c>
       <c r="D195" t="str">
-        <v/>
+        <v>motivacao</v>
       </c>
       <c r="E195" t="str">
         <v/>
@@ -3720,16 +3720,16 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>historia da matematica</v>
+        <v>ensino medio</v>
       </c>
       <c r="B196" t="str">
-        <v>sequencia didatica</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C196" t="str">
-        <v>minicurso</v>
+        <v>generos digitais</v>
       </c>
       <c r="D196" t="str">
-        <v/>
+        <v>lingua portuguesa</v>
       </c>
       <c r="E196" t="str">
         <v/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>educacao em saude</v>
+        <v>alfabetizacao</v>
       </c>
       <c r="B197" t="str">
-        <v>jogos serios</v>
+        <v>letramento</v>
       </c>
       <c r="C197" t="str">
-        <v>emergencia</v>
+        <v>autismo</v>
       </c>
       <c r="D197" t="str">
-        <v>cardiologia</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="E197" t="str">
         <v/>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>interatividade</v>
+        <v>moodle</v>
       </c>
       <c r="B198" t="str">
-        <v>tecnologia</v>
+        <v>efl</v>
       </c>
       <c r="C198" t="str">
-        <v>youtube</v>
+        <v>textbook</v>
       </c>
       <c r="D198" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E198" t="str">
         <v/>
@@ -3771,64 +3771,64 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>colonialismo digital</v>
+        <v>evasao</v>
       </c>
       <c r="B199" t="str">
-        <v>educacao online</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C199" t="str">
-        <v>letramentos</v>
+        <v>ferramenta de software</v>
       </c>
       <c r="D199" t="str">
-        <v>ensin osuperior</v>
+        <v/>
       </c>
       <c r="E199" t="str">
-        <v>decolonialidade digital</v>
+        <v/>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>jogo</v>
+        <v>materiais</v>
       </c>
       <c r="B200" t="str">
-        <v>ensino</v>
+        <v>atividades</v>
       </c>
       <c r="C200" t="str">
-        <v>apreizagem</v>
+        <v>midias</v>
       </c>
       <c r="D200" t="str">
-        <v>digital</v>
+        <v>ead</v>
       </c>
       <c r="E200" t="str">
-        <v>ambiente virtual</v>
+        <v>curso online</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>laboratorios remotos</v>
+        <v>revisao de escopo</v>
       </c>
       <c r="B201" t="str">
-        <v>educacao a distancia</v>
+        <v>jogos digitais</v>
       </c>
       <c r="C201" t="str">
-        <v>divulgacao ciefica</v>
+        <v>midias</v>
       </c>
       <c r="D201" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E201" t="str">
-        <v/>
+        <v>praticas pedagogicas</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>educacao a distancia</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="B202" t="str">
-        <v>trilhas de apreizagem</v>
+        <v>educacao infantil</v>
       </c>
       <c r="C202" t="str">
-        <v>autoria</v>
+        <v>scratchjr</v>
       </c>
       <c r="D202" t="str">
         <v/>
@@ -3839,13 +3839,13 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>tutor</v>
+        <v>multimodalidade</v>
       </c>
       <c r="B203" t="str">
-        <v>educacao a distancia</v>
+        <v>videos com conteudo matematico</v>
       </c>
       <c r="C203" t="str">
-        <v>paemia da covid19</v>
+        <v>livro didatico</v>
       </c>
       <c r="D203" t="str">
         <v/>
@@ -3856,16 +3856,16 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>educacao</v>
+        <v>leitura</v>
       </c>
       <c r="B204" t="str">
-        <v>comunicacao</v>
+        <v>escrita</v>
       </c>
       <c r="C204" t="str">
-        <v>audiovisual</v>
+        <v>habilidades matematicas</v>
       </c>
       <c r="D204" t="str">
-        <v>roteiro</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E204" t="str">
         <v/>
@@ -3873,16 +3873,16 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>educacao a distancia</v>
+        <v>planejamento na ead</v>
       </c>
       <c r="B205" t="str">
-        <v>disciplinas regulares</v>
+        <v>estrategias pedagogicas</v>
       </c>
       <c r="C205" t="str">
-        <v>metodologias ativas</v>
+        <v>moodle no ensino presencial</v>
       </c>
       <c r="D205" t="str">
-        <v>presencialidade</v>
+        <v/>
       </c>
       <c r="E205" t="str">
         <v/>
@@ -3890,13 +3890,13 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>ambiente virtual</v>
+        <v>realidade aumentada</v>
       </c>
       <c r="B206" t="str">
-        <v>moodle</v>
+        <v>geografia</v>
       </c>
       <c r="C206" t="str">
-        <v>educacao basica</v>
+        <v>educacao</v>
       </c>
       <c r="D206" t="str">
         <v/>
@@ -3907,33 +3907,33 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>bleed learning</v>
+        <v>ensino</v>
       </c>
       <c r="B207" t="str">
-        <v>soft skills</v>
+        <v>apreizagem</v>
       </c>
       <c r="C207" t="str">
-        <v>educacao gerencial</v>
+        <v>ferramentas</v>
       </c>
       <c r="D207" t="str">
-        <v/>
+        <v>programacao</v>
       </c>
       <c r="E207" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>docencia</v>
+        <v>ila</v>
       </c>
       <c r="B208" t="str">
-        <v>educacao digital</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C208" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>diretrizes</v>
       </c>
       <c r="D208" t="str">
-        <v>uneb</v>
+        <v>ead</v>
       </c>
       <c r="E208" t="str">
         <v/>
@@ -3941,64 +3941,64 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>design instrucional</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="B209" t="str">
-        <v>formacao de professores</v>
+        <v>ciencia fisica</v>
       </c>
       <c r="C209" t="str">
-        <v>ensino superior</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D209" t="str">
-        <v>ensino a distancia e digital</v>
+        <v>tecnologia no ensino</v>
       </c>
       <c r="E209" t="str">
-        <v>microcredenciais</v>
+        <v>podcast de ciencias</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>acentuacao grafica</v>
+        <v>kahoot</v>
       </c>
       <c r="B210" t="str">
-        <v>apreizagem</v>
+        <v>gamificacao</v>
       </c>
       <c r="C210" t="str">
-        <v>dificuldades</v>
+        <v>jogos digitais</v>
       </c>
       <c r="D210" t="str">
-        <v>motivacao</v>
+        <v/>
       </c>
       <c r="E210" t="str">
-        <v>metodologia ativa kahoot recursos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>avaliacao inovadora</v>
+        <v>biodiesel</v>
       </c>
       <c r="B211" t="str">
-        <v>software de avaliacao qualitativa</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="C211" t="str">
-        <v>feedback de avaliacao</v>
+        <v>eja</v>
       </c>
       <c r="D211" t="str">
-        <v>percurso de apreizagem personalizada</v>
+        <v>games</v>
       </c>
       <c r="E211" t="str">
-        <v/>
+        <v>phet</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>mooc</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B212" t="str">
-        <v>sala de aula invertida</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C212" t="str">
-        <v>tecnologias educacionais</v>
+        <v>oficinas</v>
       </c>
       <c r="D212" t="str">
         <v/>
@@ -4009,16 +4009,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>kahoot</v>
+        <v>maker</v>
       </c>
       <c r="B213" t="str">
-        <v>paemia</v>
+        <v>robotica</v>
       </c>
       <c r="C213" t="str">
-        <v>covid19</v>
+        <v>criatividade</v>
       </c>
       <c r="D213" t="str">
-        <v>motivacao</v>
+        <v>educacao</v>
       </c>
       <c r="E213" t="str">
         <v/>
@@ -4026,33 +4026,33 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>ensino medio</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B214" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>fake news</v>
       </c>
       <c r="C214" t="str">
-        <v>generos digitais</v>
+        <v>vacina</v>
       </c>
       <c r="D214" t="str">
-        <v>lingua portuguesa</v>
+        <v>educacao midiatica</v>
       </c>
       <c r="E214" t="str">
-        <v/>
+        <v>ensino fuamental</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>alfabetizacao</v>
+        <v>metodologiaativa</v>
       </c>
       <c r="B215" t="str">
-        <v>letramento</v>
+        <v>processosdeensinoe apreizagem</v>
       </c>
       <c r="C215" t="str">
-        <v>autismo</v>
+        <v>trabalho em equipe</v>
       </c>
       <c r="D215" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>team based learning</v>
       </c>
       <c r="E215" t="str">
         <v/>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>moodle</v>
+        <v>educacao</v>
       </c>
       <c r="B216" t="str">
-        <v>efl</v>
+        <v>tecnologia</v>
       </c>
       <c r="C216" t="str">
-        <v>textbook</v>
+        <v>producoes filmicas</v>
       </c>
       <c r="D216" t="str">
         <v/>
@@ -4077,13 +4077,13 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>evasao</v>
+        <v>technology</v>
       </c>
       <c r="B217" t="str">
-        <v>educacao a distancia</v>
+        <v>education</v>
       </c>
       <c r="C217" t="str">
-        <v>ferramenta de software</v>
+        <v>deaf</v>
       </c>
       <c r="D217" t="str">
         <v/>
@@ -4094,47 +4094,47 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>materiais</v>
+        <v>psicologia social</v>
       </c>
       <c r="B218" t="str">
-        <v>atividades</v>
+        <v>recursos didaticos audiovisuais</v>
       </c>
       <c r="C218" t="str">
-        <v>midias</v>
+        <v>video educacional</v>
       </c>
       <c r="D218" t="str">
-        <v>ead</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E218" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>revisao de escopo</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B219" t="str">
-        <v>jogos digitais</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="C219" t="str">
-        <v>midias</v>
+        <v>escolas do campo</v>
       </c>
       <c r="D219" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E219" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>pensamento computacional</v>
+        <v>portal educativo</v>
       </c>
       <c r="B220" t="str">
-        <v>educacao infantil</v>
+        <v>teste de usabilidade</v>
       </c>
       <c r="C220" t="str">
-        <v>scratchjr</v>
+        <v>ensino medio</v>
       </c>
       <c r="D220" t="str">
         <v/>
@@ -4145,16 +4145,16 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>multimodalidade</v>
+        <v>design thinking</v>
       </c>
       <c r="B221" t="str">
-        <v>videos com conteudo matematico</v>
+        <v>apreizagem</v>
       </c>
       <c r="C221" t="str">
-        <v>livro didatico</v>
+        <v>algoritmos</v>
       </c>
       <c r="D221" t="str">
-        <v/>
+        <v>nocode</v>
       </c>
       <c r="E221" t="str">
         <v/>
@@ -4162,16 +4162,16 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>leitura</v>
+        <v>apreizagem baseada em projetos</v>
       </c>
       <c r="B222" t="str">
-        <v>escrita</v>
+        <v>scrum</v>
       </c>
       <c r="C222" t="str">
-        <v>habilidades matematicas</v>
+        <v>multidisciplinalidade e tecnologias emergentes</v>
       </c>
       <c r="D222" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E222" t="str">
         <v/>
@@ -4179,67 +4179,67 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>planejamento na ead</v>
+        <v>whatsapp</v>
       </c>
       <c r="B223" t="str">
-        <v>estrategias pedagogicas</v>
+        <v>estado da arte</v>
       </c>
       <c r="C223" t="str">
-        <v>moodle no ensino presencial</v>
+        <v>tdic</v>
       </c>
       <c r="D223" t="str">
-        <v/>
+        <v>ferramenta pedagogica</v>
       </c>
       <c r="E223" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>realidade aumentada</v>
+        <v>cenarios de apreizagem interativos</v>
       </c>
       <c r="B224" t="str">
-        <v>geografia</v>
+        <v>cia</v>
       </c>
       <c r="C224" t="str">
-        <v>educacao</v>
+        <v>interacoes</v>
       </c>
       <c r="D224" t="str">
-        <v/>
+        <v>entropia</v>
       </c>
       <c r="E224" t="str">
-        <v/>
+        <v>aula virtual</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
+        <v>tdic</v>
+      </c>
+      <c r="B225" t="str">
         <v>ensino</v>
       </c>
-      <c r="B225" t="str">
-        <v>apreizagem</v>
-      </c>
       <c r="C225" t="str">
-        <v>ferramentas</v>
+        <v>climatologia</v>
       </c>
       <c r="D225" t="str">
-        <v>programacao</v>
+        <v/>
       </c>
       <c r="E225" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>ila</v>
+        <v>gamificacao</v>
       </c>
       <c r="B226" t="str">
-        <v>material didatico digital</v>
+        <v>ensino</v>
       </c>
       <c r="C226" t="str">
-        <v>diretrizes</v>
+        <v>eletricidade</v>
       </c>
       <c r="D226" t="str">
-        <v>ead</v>
+        <v>palavrascruzadas</v>
       </c>
       <c r="E226" t="str">
         <v/>
@@ -4247,33 +4247,33 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>ensino de fisica</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B227" t="str">
-        <v>ciencia fisica</v>
+        <v>lingua inglesa</v>
       </c>
       <c r="C227" t="str">
-        <v>ensino remoto</v>
+        <v>curso e3d</v>
       </c>
       <c r="D227" t="str">
-        <v>tecnologia no ensino</v>
+        <v>recursos multimodais</v>
       </c>
       <c r="E227" t="str">
-        <v>podcast de ciencias</v>
+        <v/>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>kahoot</v>
+        <v>ensino de botanica</v>
       </c>
       <c r="B228" t="str">
-        <v>gamificacao</v>
+        <v>tic</v>
       </c>
       <c r="C228" t="str">
-        <v>jogos digitais</v>
+        <v>botanica e tecnologia</v>
       </c>
       <c r="D228" t="str">
-        <v/>
+        <v>morfologia vegetal</v>
       </c>
       <c r="E228" t="str">
         <v/>
@@ -4281,33 +4281,33 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>biodiesel</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B229" t="str">
-        <v>ensino de quimica</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C229" t="str">
-        <v>eja</v>
+        <v>metodologia do ensino</v>
       </c>
       <c r="D229" t="str">
-        <v>games</v>
+        <v/>
       </c>
       <c r="E229" t="str">
-        <v>phet</v>
+        <v/>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>robotica educacional</v>
+        <v>plataformas interativas</v>
       </c>
       <c r="B230" t="str">
-        <v>apreizagem ativa</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C230" t="str">
-        <v>oficinas</v>
+        <v>edpuzzle</v>
       </c>
       <c r="D230" t="str">
-        <v/>
+        <v>mentimeter</v>
       </c>
       <c r="E230" t="str">
         <v/>
@@ -4315,16 +4315,16 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>maker</v>
+        <v>enfermagem</v>
       </c>
       <c r="B231" t="str">
-        <v>robotica</v>
+        <v>covid19</v>
       </c>
       <c r="C231" t="str">
-        <v>criatividade</v>
+        <v>tecnologia de informacao</v>
       </c>
       <c r="D231" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E231" t="str">
         <v/>
@@ -4332,33 +4332,33 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>ensino de ciencias</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B232" t="str">
-        <v>fake news</v>
+        <v>institucionalizacao da educacao a distancia</v>
       </c>
       <c r="C232" t="str">
-        <v>vacina</v>
+        <v>politicas institucionais de educacao a distancia</v>
       </c>
       <c r="D232" t="str">
-        <v>educacao midiatica</v>
+        <v>politicas publicas</v>
       </c>
       <c r="E232" t="str">
-        <v>ensino fuamental</v>
+        <v/>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>metodologiaativa</v>
+        <v>avaliacao in loco virtual</v>
       </c>
       <c r="B233" t="str">
-        <v>processosdeensinoe apreizagem</v>
+        <v>sinaes</v>
       </c>
       <c r="C233" t="str">
-        <v>trabalho em equipe</v>
+        <v>legislacao</v>
       </c>
       <c r="D233" t="str">
-        <v>team based learning</v>
+        <v>paemiada covid 19</v>
       </c>
       <c r="E233" t="str">
         <v/>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
+        <v>teoria critica</v>
+      </c>
+      <c r="B234" t="str">
+        <v>neoliberalismo</v>
+      </c>
+      <c r="C234" t="str">
+        <v>plataformizacao</v>
+      </c>
+      <c r="D234" t="str">
         <v>educacao</v>
-      </c>
-      <c r="B234" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="C234" t="str">
-        <v>producoes filmicas</v>
-      </c>
-      <c r="D234" t="str">
-        <v/>
       </c>
       <c r="E234" t="str">
         <v/>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>technology</v>
+        <v>gestao escolar</v>
       </c>
       <c r="B235" t="str">
-        <v>education</v>
+        <v>demaas sociais</v>
       </c>
       <c r="C235" t="str">
-        <v>deaf</v>
+        <v>tecnologias</v>
       </c>
       <c r="D235" t="str">
-        <v/>
+        <v>formacao integral</v>
       </c>
       <c r="E235" t="str">
         <v/>
@@ -4400,16 +4400,16 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>psicologia social</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B236" t="str">
-        <v>recursos didaticos audiovisuais</v>
+        <v>regiao centrooeste</v>
       </c>
       <c r="C236" t="str">
-        <v>video educacional</v>
+        <v>matriculasna educacao superior a distancia</v>
       </c>
       <c r="D236" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E236" t="str">
         <v/>
@@ -4417,16 +4417,16 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao adistancia</v>
       </c>
       <c r="B237" t="str">
-        <v>ensinoapreizagem</v>
+        <v>proformacao</v>
       </c>
       <c r="C237" t="str">
-        <v>escolas do campo</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D237" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E237" t="str">
         <v/>
@@ -4434,16 +4434,16 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>portal educativo</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B238" t="str">
-        <v>teste de usabilidade</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C238" t="str">
-        <v>ensino medio</v>
+        <v>iissociabilidade entre ensino</v>
       </c>
       <c r="D238" t="str">
-        <v/>
+        <v>pesquisa e extensao</v>
       </c>
       <c r="E238" t="str">
         <v/>
@@ -4451,16 +4451,16 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>design thinking</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="B239" t="str">
-        <v>apreizagem</v>
+        <v>design centrado no usuario</v>
       </c>
       <c r="C239" t="str">
-        <v>algoritmos</v>
+        <v>servico de apoio pedagogico</v>
       </c>
       <c r="D239" t="str">
-        <v>nocode</v>
+        <v/>
       </c>
       <c r="E239" t="str">
         <v/>
@@ -4468,13 +4468,13 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>apreizagem baseada em projetos</v>
+        <v>educacao presencial</v>
       </c>
       <c r="B240" t="str">
-        <v>scrum</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C240" t="str">
-        <v>multidisciplinalidade e tecnologias emergentes</v>
+        <v>desempenho</v>
       </c>
       <c r="D240" t="str">
         <v/>
@@ -4485,47 +4485,47 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>whatsapp</v>
+        <v>evasao na educacao superior</v>
       </c>
       <c r="B241" t="str">
-        <v>estado da arte</v>
+        <v>paemia covid19</v>
       </c>
       <c r="C241" t="str">
-        <v>tdic</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D241" t="str">
-        <v>ferramenta pedagogica</v>
+        <v/>
       </c>
       <c r="E241" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>cenarios de apreizagem interativos</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B242" t="str">
-        <v>cia</v>
+        <v>ensino superior</v>
       </c>
       <c r="C242" t="str">
-        <v>interacoes</v>
+        <v>egressos</v>
       </c>
       <c r="D242" t="str">
-        <v>entropia</v>
+        <v>polo uab</v>
       </c>
       <c r="E242" t="str">
-        <v>aula virtual</v>
+        <v/>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>tdic</v>
+        <v>biblioteca digital</v>
       </c>
       <c r="B243" t="str">
-        <v>ensino</v>
+        <v>bibliografia basica e complementar</v>
       </c>
       <c r="C243" t="str">
-        <v>climatologia</v>
+        <v>formacao e desenvolvimento de acervo</v>
       </c>
       <c r="D243" t="str">
         <v/>
@@ -4536,16 +4536,16 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>gamificacao</v>
+        <v>historico da educacao a distancia</v>
       </c>
       <c r="B244" t="str">
-        <v>ensino</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C244" t="str">
-        <v>eletricidade</v>
+        <v>educacao profissional a distancia</v>
       </c>
       <c r="D244" t="str">
-        <v>palavrascruzadas</v>
+        <v/>
       </c>
       <c r="E244" t="str">
         <v/>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>ensino a distancia</v>
+        <v>capitalismo de vigilancia</v>
       </c>
       <c r="B245" t="str">
-        <v>lingua inglesa</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C245" t="str">
-        <v>curso e3d</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D245" t="str">
-        <v>recursos multimodais</v>
+        <v/>
       </c>
       <c r="E245" t="str">
         <v/>
@@ -4570,30 +4570,30 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>ensino de botanica</v>
+        <v>paemia</v>
       </c>
       <c r="B246" t="str">
-        <v>tic</v>
+        <v>distanciamento social</v>
       </c>
       <c r="C246" t="str">
-        <v>botanica e tecnologia</v>
+        <v>gestao escolar</v>
       </c>
       <c r="D246" t="str">
-        <v>morfologia vegetal</v>
+        <v>tecnologias</v>
       </c>
       <c r="E246" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>ensino de quimica</v>
+        <v>educacao corporativa</v>
       </c>
       <c r="B247" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C247" t="str">
-        <v>metodologia do ensino</v>
+        <v>marinha do brasil</v>
       </c>
       <c r="D247" t="str">
         <v/>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>plataformas interativas</v>
+        <v>mercado de trabalho</v>
       </c>
       <c r="B248" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>pratica profissional</v>
       </c>
       <c r="C248" t="str">
-        <v>edpuzzle</v>
+        <v>seguranca no trabalho</v>
       </c>
       <c r="D248" t="str">
-        <v>mentimeter</v>
+        <v>vocacao regional</v>
       </c>
       <c r="E248" t="str">
         <v/>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>enfermagem</v>
+        <v>ensino basico</v>
       </c>
       <c r="B249" t="str">
+        <v>ensino remotoemergencia</v>
+      </c>
+      <c r="C249" t="str">
         <v>covid19</v>
       </c>
-      <c r="C249" t="str">
-        <v>tecnologia de informacao</v>
-      </c>
       <c r="D249" t="str">
-        <v/>
+        <v>tic</v>
       </c>
       <c r="E249" t="str">
         <v/>
@@ -4638,16 +4638,16 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>educacao a distancia</v>
+        <v>formacao de profissionais da educacao</v>
       </c>
       <c r="B250" t="str">
-        <v>institucionalizacao da educacao a distancia</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C250" t="str">
-        <v>politicas institucionais de educacao a distancia</v>
+        <v>tdic</v>
       </c>
       <c r="D250" t="str">
-        <v>politicas publicas</v>
+        <v/>
       </c>
       <c r="E250" t="str">
         <v/>
@@ -4655,16 +4655,16 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>avaliacao in loco virtual</v>
+        <v>gestao educacional</v>
       </c>
       <c r="B251" t="str">
-        <v>sinaes</v>
+        <v>ead</v>
       </c>
       <c r="C251" t="str">
-        <v>legislacao</v>
+        <v>educacao e tecnologia</v>
       </c>
       <c r="D251" t="str">
-        <v>paemiada covid 19</v>
+        <v>atuacao profissional</v>
       </c>
       <c r="E251" t="str">
         <v/>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>teoria critica</v>
+        <v>gestao democratica</v>
       </c>
       <c r="B252" t="str">
-        <v>neoliberalismo</v>
+        <v>eleicao para diretora</v>
       </c>
       <c r="C252" t="str">
-        <v>plataformizacao</v>
+        <v>lei complementar n 1096</v>
       </c>
       <c r="D252" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E252" t="str">
         <v/>
@@ -4689,16 +4689,16 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>gestao escolar</v>
+        <v>gestao na educacao</v>
       </c>
       <c r="B253" t="str">
-        <v>demaas sociais</v>
+        <v>planejamento estrategico</v>
       </c>
       <c r="C253" t="str">
-        <v>tecnologias</v>
+        <v>instituicao de ensino</v>
       </c>
       <c r="D253" t="str">
-        <v>formacao integral</v>
+        <v/>
       </c>
       <c r="E253" t="str">
         <v/>
@@ -4706,33 +4706,33 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>educacao a distancia</v>
+        <v>googledrive</v>
       </c>
       <c r="B254" t="str">
-        <v>regiao centrooeste</v>
+        <v>organizacao pedagogica</v>
       </c>
       <c r="C254" t="str">
-        <v>matriculasna educacao superior a distancia</v>
+        <v>educacao basica</v>
       </c>
       <c r="D254" t="str">
-        <v/>
+        <v>sistema municipal publico de ensino</v>
       </c>
       <c r="E254" t="str">
-        <v/>
+        <v>gestao educacional</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>educacao adistancia</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B255" t="str">
-        <v>proformacao</v>
+        <v>educacao superior</v>
       </c>
       <c r="C255" t="str">
-        <v>formacao de professores</v>
+        <v>inclusao digital</v>
       </c>
       <c r="D255" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E255" t="str">
         <v/>
@@ -4746,10 +4746,10 @@
         <v>institucionalizacao</v>
       </c>
       <c r="C256" t="str">
-        <v>iissociabilidade entre ensino</v>
+        <v>bibliometria</v>
       </c>
       <c r="D256" t="str">
-        <v>pesquisa e extensao</v>
+        <v>universidade aberta do brasil</v>
       </c>
       <c r="E256" t="str">
         <v/>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>educacao maker</v>
       </c>
       <c r="B257" t="str">
-        <v>design centrado no usuario</v>
+        <v>prototipagem</v>
       </c>
       <c r="C257" t="str">
-        <v>servico de apoio pedagogico</v>
+        <v>ensino superior</v>
       </c>
       <c r="D257" t="str">
         <v/>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>educacao presencial</v>
+        <v>politica de assistencia estudantil</v>
       </c>
       <c r="B258" t="str">
-        <v>educacao a distancia</v>
+        <v>direito a educacao</v>
       </c>
       <c r="C258" t="str">
-        <v>desempenho</v>
+        <v>modelo de formacao</v>
       </c>
       <c r="D258" t="str">
         <v/>
@@ -4791,33 +4791,33 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>evasao na educacao superior</v>
+        <v>tecnologia</v>
       </c>
       <c r="B259" t="str">
-        <v>paemia covid19</v>
+        <v>educacao</v>
       </c>
       <c r="C259" t="str">
-        <v>educacao a distancia</v>
+        <v>trabalho</v>
       </c>
       <c r="D259" t="str">
-        <v/>
+        <v>napp academy</v>
       </c>
       <c r="E259" t="str">
-        <v/>
+        <v>carencia</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="B260" t="str">
-        <v>ensino superior</v>
+        <v>tecnologia de informacao e comunicacao</v>
       </c>
       <c r="C260" t="str">
-        <v>egressos</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D260" t="str">
-        <v>polo uab</v>
+        <v>praticaspedagogicas</v>
       </c>
       <c r="E260" t="str">
         <v/>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>biblioteca digital</v>
+        <v>permanencia</v>
       </c>
       <c r="B261" t="str">
-        <v>bibliografia basica e complementar</v>
+        <v>ensino superior</v>
       </c>
       <c r="C261" t="str">
-        <v>formacao e desenvolvimento de acervo</v>
+        <v>tecnologia</v>
       </c>
       <c r="D261" t="str">
-        <v/>
+        <v>gestao</v>
       </c>
       <c r="E261" t="str">
         <v/>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>historico da educacao a distancia</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B262" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>educacao superior</v>
       </c>
       <c r="C262" t="str">
-        <v>educacao profissional a distancia</v>
+        <v>gestao de processo</v>
       </c>
       <c r="D262" t="str">
-        <v/>
+        <v>inclusao digital</v>
       </c>
       <c r="E262" t="str">
         <v/>
@@ -4859,13 +4859,13 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>capitalismo de vigilancia</v>
+        <v>aluno com deficiencia</v>
       </c>
       <c r="B263" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino superior</v>
       </c>
       <c r="C263" t="str">
-        <v>ensino remoto</v>
+        <v>inclusao</v>
       </c>
       <c r="D263" t="str">
         <v/>
@@ -4876,30 +4876,30 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>paemia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B264" t="str">
-        <v>distanciamento social</v>
+        <v>estrategia de retencao educacional</v>
       </c>
       <c r="C264" t="str">
-        <v>gestao escolar</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="D264" t="str">
-        <v>tecnologias</v>
+        <v>fatores criticos de sucesso</v>
       </c>
       <c r="E264" t="str">
-        <v>ensino apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>educacao corporativa</v>
+        <v>novo ensino medio</v>
       </c>
       <c r="B265" t="str">
-        <v>formacao continuada</v>
+        <v>tecnologias</v>
       </c>
       <c r="C265" t="str">
-        <v>marinha do brasil</v>
+        <v>profissao docente</v>
       </c>
       <c r="D265" t="str">
         <v/>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>mercado de trabalho</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B266" t="str">
-        <v>pratica profissional</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C266" t="str">
-        <v>seguranca no trabalho</v>
+        <v>rede federal de educacao profissional e tecnologica</v>
       </c>
       <c r="D266" t="str">
-        <v>vocacao regional</v>
+        <v>conif</v>
       </c>
       <c r="E266" t="str">
         <v/>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>ensino basico</v>
+        <v>sistema publico municipal</v>
       </c>
       <c r="B267" t="str">
-        <v>ensino remotoemergencia</v>
+        <v>tdic</v>
       </c>
       <c r="C267" t="str">
-        <v>covid19</v>
+        <v>equidade</v>
       </c>
       <c r="D267" t="str">
-        <v>tic</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="E267" t="str">
         <v/>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>formacao de profissionais da educacao</v>
+        <v>tecnologia e educacao</v>
       </c>
       <c r="B268" t="str">
-        <v>formacao continuada</v>
+        <v>legislacao educacional</v>
       </c>
       <c r="C268" t="str">
-        <v>tdic</v>
+        <v>tecnologias digitais no ensino</v>
       </c>
       <c r="D268" t="str">
         <v/>
@@ -4961,30 +4961,30 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>gestao educacional</v>
+        <v>plano de intervencao</v>
       </c>
       <c r="B269" t="str">
-        <v>ead</v>
+        <v>base nacional comum curricular e parametros curriculares nacionais</v>
       </c>
       <c r="C269" t="str">
-        <v>educacao e tecnologia</v>
+        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
       </c>
       <c r="D269" t="str">
-        <v>atuacao profissional</v>
+        <v>ensino medio</v>
       </c>
       <c r="E269" t="str">
-        <v/>
+        <v>gestao educacional integrada</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>gestao democratica</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B270" t="str">
-        <v>eleicao para diretora</v>
+        <v>retorno presencial</v>
       </c>
       <c r="C270" t="str">
-        <v>lei complementar n 1096</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D270" t="str">
         <v/>
@@ -4995,47 +4995,47 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>gestao na educacao</v>
+        <v>educacao</v>
       </c>
       <c r="B271" t="str">
-        <v>planejamento estrategico</v>
+        <v>tecnologia</v>
       </c>
       <c r="C271" t="str">
-        <v>instituicao de ensino</v>
+        <v>pensamento critico</v>
       </c>
       <c r="D271" t="str">
-        <v/>
+        <v>revisao narrativa</v>
       </c>
       <c r="E271" t="str">
-        <v/>
+        <v>neil selwyn</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>googledrive</v>
+        <v>algebra nos anos iniciais</v>
       </c>
       <c r="B272" t="str">
-        <v>organizacao pedagogica</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C272" t="str">
-        <v>educacao basica</v>
+        <v>tics</v>
       </c>
       <c r="D272" t="str">
-        <v>sistema municipal publico de ensino</v>
+        <v/>
       </c>
       <c r="E272" t="str">
-        <v>gestao educacional</v>
+        <v/>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>politicas publicas</v>
+        <v>formacao inicial de professores</v>
       </c>
       <c r="B273" t="str">
-        <v>educacao superior</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="C273" t="str">
-        <v>inclusao digital</v>
+        <v>tecnologiaseducacionais</v>
       </c>
       <c r="D273" t="str">
         <v/>
@@ -5046,33 +5046,33 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
+        <v>avaliacao formativa</v>
+      </c>
+      <c r="B274" t="str">
+        <v>feedback</v>
+      </c>
+      <c r="C274" t="str">
+        <v>regulacao</v>
+      </c>
+      <c r="D274" t="str">
+        <v>autorregulacao</v>
+      </c>
+      <c r="E274" t="str">
         <v>educacao a distancia</v>
-      </c>
-      <c r="B274" t="str">
-        <v>institucionalizacao</v>
-      </c>
-      <c r="C274" t="str">
-        <v>bibliometria</v>
-      </c>
-      <c r="D274" t="str">
-        <v>universidade aberta do brasil</v>
-      </c>
-      <c r="E274" t="str">
-        <v/>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>educacao maker</v>
+        <v>ensino de fisicaciencias</v>
       </c>
       <c r="B275" t="str">
-        <v>prototipagem</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C275" t="str">
-        <v>ensino superior</v>
+        <v>paemia</v>
       </c>
       <c r="D275" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E275" t="str">
         <v/>
@@ -5080,16 +5080,16 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>politica de assistencia estudantil</v>
+        <v>processo de ensino e apreizagem</v>
       </c>
       <c r="B276" t="str">
-        <v>direito a educacao</v>
+        <v>cultura digital</v>
       </c>
       <c r="C276" t="str">
-        <v>modelo de formacao</v>
+        <v>educacao superior</v>
       </c>
       <c r="D276" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
       <c r="E276" t="str">
         <v/>
@@ -5097,50 +5097,50 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>tecnologia</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B277" t="str">
-        <v>educacao</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="C277" t="str">
-        <v>trabalho</v>
+        <v>politicas publicas</v>
       </c>
       <c r="D277" t="str">
-        <v>napp academy</v>
+        <v>educacao basica</v>
       </c>
       <c r="E277" t="str">
-        <v>carencia</v>
+        <v/>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>transdisciplinaridade</v>
       </c>
       <c r="B278" t="str">
-        <v>tecnologia de informacao e comunicacao</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C278" t="str">
-        <v>ensino hibrido</v>
+        <v>multidisciplinaridade</v>
       </c>
       <c r="D278" t="str">
-        <v>praticaspedagogicas</v>
+        <v>transversalidade</v>
       </c>
       <c r="E278" t="str">
-        <v/>
+        <v>ensino basico</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>permanencia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B279" t="str">
-        <v>ensino superior</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C279" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D279" t="str">
-        <v>gestao</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="E279" t="str">
         <v/>
@@ -5148,16 +5148,16 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>politicas publicas</v>
+        <v>paemia</v>
       </c>
       <c r="B280" t="str">
-        <v>educacao superior</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C280" t="str">
-        <v>gestao de processo</v>
+        <v>educacao remota</v>
       </c>
       <c r="D280" t="str">
-        <v>inclusao digital</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="E280" t="str">
         <v/>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>aluno com deficiencia</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B281" t="str">
-        <v>ensino superior</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C281" t="str">
-        <v>inclusao</v>
+        <v>brasil</v>
       </c>
       <c r="D281" t="str">
-        <v/>
+        <v>portugal</v>
       </c>
       <c r="E281" t="str">
         <v/>
@@ -5182,16 +5182,16 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B282" t="str">
-        <v>estrategia de retencao educacional</v>
+        <v>metodologias</v>
       </c>
       <c r="C282" t="str">
-        <v>evasao no ensino superior</v>
+        <v>tecnologias</v>
       </c>
       <c r="D282" t="str">
-        <v>fatores criticos de sucesso</v>
+        <v/>
       </c>
       <c r="E282" t="str">
         <v/>
@@ -5199,33 +5199,33 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>novo ensino medio</v>
+        <v>sociologia da ciencia</v>
       </c>
       <c r="B283" t="str">
-        <v>tecnologias</v>
+        <v>cientometria</v>
       </c>
       <c r="C283" t="str">
-        <v>profissao docente</v>
+        <v>educacao</v>
       </c>
       <c r="D283" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
       <c r="E283" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>educacao a distancia</v>
+        <v>identidade docente</v>
       </c>
       <c r="B284" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>formacao docente</v>
       </c>
       <c r="C284" t="str">
-        <v>rede federal de educacao profissional e tecnologica</v>
+        <v>licenciatura em educacao a distancia</v>
       </c>
       <c r="D284" t="str">
-        <v>conif</v>
+        <v/>
       </c>
       <c r="E284" t="str">
         <v/>
@@ -5233,16 +5233,16 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>sistema publico municipal</v>
+        <v>anais do eneq</v>
       </c>
       <c r="B285" t="str">
-        <v>tdic</v>
+        <v>educacao quimica</v>
       </c>
       <c r="C285" t="str">
-        <v>equidade</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D285" t="str">
-        <v>politicas educacionais</v>
+        <v/>
       </c>
       <c r="E285" t="str">
         <v/>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>tecnologia e educacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="B286" t="str">
-        <v>legislacao educacional</v>
+        <v>ensino superior</v>
       </c>
       <c r="C286" t="str">
-        <v>tecnologias digitais no ensino</v>
+        <v>bleed learning</v>
       </c>
       <c r="D286" t="str">
-        <v/>
+        <v>bleed learning</v>
       </c>
       <c r="E286" t="str">
         <v/>
@@ -5267,30 +5267,30 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>plano de intervencao</v>
+        <v>paulo freir</v>
       </c>
       <c r="B287" t="str">
-        <v>base nacional comum curricular e parametros curriculares nacionais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C287" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
+        <v>tdic</v>
       </c>
       <c r="D287" t="str">
-        <v>ensino medio</v>
+        <v>educacao a distanci</v>
       </c>
       <c r="E287" t="str">
-        <v>gestao educacional integrada</v>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>conhecimento</v>
       </c>
       <c r="B288" t="str">
-        <v>retorno presencial</v>
+        <v>metodologia</v>
       </c>
       <c r="C288" t="str">
-        <v>tecnologias digitais</v>
+        <v>pesquisa</v>
       </c>
       <c r="D288" t="str">
         <v/>
@@ -5301,30 +5301,30 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>educacao</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="B289" t="str">
-        <v>tecnologia</v>
+        <v>pesquisador</v>
       </c>
       <c r="C289" t="str">
-        <v>pensamento critico</v>
+        <v>stricto sensu</v>
       </c>
       <c r="D289" t="str">
-        <v>revisao narrativa</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E289" t="str">
-        <v>neil selwyn</v>
+        <v/>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>algebra nos anos iniciais</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B290" t="str">
-        <v>formacao continuada de professores</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C290" t="str">
-        <v>tics</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D290" t="str">
         <v/>
@@ -5335,50 +5335,50 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>formacao inicial de professores</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B291" t="str">
-        <v>ensino de fisica</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C291" t="str">
-        <v>tecnologiaseducacionais</v>
+        <v>ensino superior</v>
       </c>
       <c r="D291" t="str">
-        <v/>
+        <v>transformacao digital</v>
       </c>
       <c r="E291" t="str">
-        <v/>
+        <v>subjetividade</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>avaliacao formativa</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B292" t="str">
-        <v>feedback</v>
+        <v>tecnologia</v>
       </c>
       <c r="C292" t="str">
-        <v>regulacao</v>
+        <v>ctsctsa</v>
       </c>
       <c r="D292" t="str">
-        <v>autorregulacao</v>
+        <v/>
       </c>
       <c r="E292" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>ensino de fisicaciencias</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B293" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="C293" t="str">
-        <v>paemia</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="D293" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E293" t="str">
         <v/>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>processo de ensino e apreizagem</v>
+        <v>defensoria publica do estado tocantins</v>
       </c>
       <c r="B294" t="str">
-        <v>cultura digital</v>
+        <v>youtube</v>
       </c>
       <c r="C294" t="str">
-        <v>educacao superior</v>
+        <v>capacitacao</v>
       </c>
       <c r="D294" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E294" t="str">
         <v/>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>tecnologia educacional</v>
+        <v>arquivo pessoal</v>
       </c>
       <c r="B295" t="str">
-        <v>inovacao educacional</v>
+        <v>arquivo epistolar</v>
       </c>
       <c r="C295" t="str">
-        <v>politicas publicas</v>
+        <v>acervo literario</v>
       </c>
       <c r="D295" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E295" t="str">
         <v/>
@@ -5420,33 +5420,33 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>transdisciplinaridade</v>
+        <v>radio</v>
       </c>
       <c r="B296" t="str">
-        <v>interdisciplinaridade</v>
+        <v>musica</v>
       </c>
       <c r="C296" t="str">
-        <v>multidisciplinaridade</v>
+        <v>educacao e midiana paemia</v>
       </c>
       <c r="D296" t="str">
-        <v>transversalidade</v>
+        <v/>
       </c>
       <c r="E296" t="str">
-        <v>ensino basico</v>
+        <v/>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>ensino hibrido</v>
+        <v>linguagem cinematografica</v>
       </c>
       <c r="B297" t="str">
-        <v>metodologias ativas</v>
+        <v>ludicidade</v>
       </c>
       <c r="C297" t="str">
-        <v>tecnologias digitais</v>
+        <v>biologia</v>
       </c>
       <c r="D297" t="str">
-        <v>ensinoapreizagem</v>
+        <v/>
       </c>
       <c r="E297" t="str">
         <v/>
@@ -5454,16 +5454,16 @@
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>paemia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B298" t="str">
-        <v>educacao hibrida</v>
+        <v>museus virtuais</v>
       </c>
       <c r="C298" t="str">
-        <v>educacao remota</v>
+        <v>tdcis</v>
       </c>
       <c r="D298" t="str">
-        <v>tecnologias na educacao</v>
+        <v>ensino apreizagem</v>
       </c>
       <c r="E298" t="str">
         <v/>
@@ -5471,30 +5471,30 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>educacao hibrida</v>
+        <v>oficina</v>
       </c>
       <c r="B299" t="str">
-        <v>educacao a distancia</v>
+        <v>partilha do sensivel</v>
       </c>
       <c r="C299" t="str">
-        <v>brasil</v>
+        <v>escrita criativa</v>
       </c>
       <c r="D299" t="str">
-        <v>portugal</v>
+        <v>fotografia</v>
       </c>
       <c r="E299" t="str">
-        <v/>
+        <v>apropriacao</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>ensino hibrido</v>
+        <v>arte musical</v>
       </c>
       <c r="B300" t="str">
-        <v>metodologias</v>
+        <v>cultura e saberes</v>
       </c>
       <c r="C300" t="str">
-        <v>tecnologias</v>
+        <v>infancia</v>
       </c>
       <c r="D300" t="str">
         <v/>
@@ -5505,50 +5505,50 @@
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>sociologia da ciencia</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B301" t="str">
-        <v>cientometria</v>
+        <v>design para experiencia</v>
       </c>
       <c r="C301" t="str">
-        <v>educacao</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="D301" t="str">
-        <v>formacao de professores</v>
+        <v>docencia</v>
       </c>
       <c r="E301" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>identidade docente</v>
+        <v>acessibilidade digital</v>
       </c>
       <c r="B302" t="str">
-        <v>formacao docente</v>
+        <v>inclusao</v>
       </c>
       <c r="C302" t="str">
-        <v>licenciatura em educacao a distancia</v>
+        <v>surdo</v>
       </c>
       <c r="D302" t="str">
-        <v/>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="E302" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>anais do eneq</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="B303" t="str">
-        <v>educacao quimica</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C303" t="str">
-        <v>tecnologias digitais</v>
+        <v>ere</v>
       </c>
       <c r="D303" t="str">
-        <v/>
+        <v>napnee</v>
       </c>
       <c r="E303" t="str">
         <v/>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>ensino superior</v>
+        <v>inclusao</v>
       </c>
       <c r="B304" t="str">
-        <v>ensino superior</v>
+        <v>autismo</v>
       </c>
       <c r="C304" t="str">
-        <v>bleed learning</v>
+        <v>teacch</v>
       </c>
       <c r="D304" t="str">
-        <v>bleed learning</v>
+        <v>abcautismo</v>
       </c>
       <c r="E304" t="str">
         <v/>
@@ -5573,30 +5573,30 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>paulo freir</v>
+        <v>apreizagem</v>
       </c>
       <c r="B305" t="str">
-        <v>tecnologias digitais</v>
+        <v>deficiencia</v>
       </c>
       <c r="C305" t="str">
-        <v>tdic</v>
+        <v>educacao superior</v>
       </c>
       <c r="D305" t="str">
-        <v>educacao a distanci</v>
+        <v>inclusao</v>
       </c>
       <c r="E305" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>conhecimento</v>
+        <v>tdic</v>
       </c>
       <c r="B306" t="str">
-        <v>metodologia</v>
+        <v>educacao especia</v>
       </c>
       <c r="C306" t="str">
-        <v>pesquisa</v>
+        <v>linguagem escrita</v>
       </c>
       <c r="D306" t="str">
         <v/>
@@ -5607,16 +5607,16 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>politicas educacionais</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B307" t="str">
-        <v>pesquisador</v>
+        <v>inclusaode alunos com deficiencia</v>
       </c>
       <c r="C307" t="str">
-        <v>stricto sensu</v>
+        <v>ensino superior</v>
       </c>
       <c r="D307" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E307" t="str">
         <v/>
@@ -5624,13 +5624,13 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>ensino hibrido</v>
+        <v>deficiencia intelectual</v>
       </c>
       <c r="B308" t="str">
-        <v>metodologias ativas</v>
+        <v>guia digital</v>
       </c>
       <c r="C308" t="str">
-        <v>metodologias ativas</v>
+        <v>avaliacao</v>
       </c>
       <c r="D308" t="str">
         <v/>
@@ -5641,47 +5641,47 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>ensino remoto</v>
+        <v>alunos com deficiencias</v>
       </c>
       <c r="B309" t="str">
-        <v>ensino hibrido</v>
+        <v>apreizagem</v>
       </c>
       <c r="C309" t="str">
-        <v>ensino superior</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D309" t="str">
-        <v>transformacao digital</v>
+        <v>metodologia</v>
       </c>
       <c r="E309" t="str">
-        <v>subjetividade</v>
+        <v/>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>ensino de ciencias</v>
+        <v>movimento devia</v>
       </c>
       <c r="B310" t="str">
-        <v>tecnologia</v>
+        <v>arte surda</v>
       </c>
       <c r="C310" t="str">
-        <v>ctsctsa</v>
+        <v>extensaoead</v>
       </c>
       <c r="D310" t="str">
-        <v/>
+        <v>moocs acessiveis em libras</v>
       </c>
       <c r="E310" t="str">
-        <v/>
+        <v>lingua brasileira de sinais</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>educacao a distancia</v>
+        <v>material digital acessivel</v>
       </c>
       <c r="B311" t="str">
-        <v>tdic</v>
+        <v>educacao digital inclusiva</v>
       </c>
       <c r="C311" t="str">
-        <v>tecnologias na educacao</v>
+        <v>inclusao no ensino superior</v>
       </c>
       <c r="D311" t="str">
         <v/>
@@ -5692,13 +5692,13 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>defensoria publica do estado tocantins</v>
+        <v>educacao especial</v>
       </c>
       <c r="B312" t="str">
-        <v>youtube</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C312" t="str">
-        <v>capacitacao</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D312" t="str">
         <v/>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>arquivo pessoal</v>
+        <v>educacao</v>
       </c>
       <c r="B313" t="str">
-        <v>arquivo epistolar</v>
+        <v>inclusao</v>
       </c>
       <c r="C313" t="str">
-        <v>acervo literario</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D313" t="str">
         <v/>
@@ -5726,13 +5726,13 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>radio</v>
+        <v>autismo</v>
       </c>
       <c r="B314" t="str">
-        <v>musica</v>
+        <v>modelo social de deficiencia</v>
       </c>
       <c r="C314" t="str">
-        <v>educacao e midiana paemia</v>
+        <v>interatividade na educacao</v>
       </c>
       <c r="D314" t="str">
         <v/>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>linguagem cinematografica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B315" t="str">
-        <v>ludicidade</v>
+        <v>educacao especial</v>
       </c>
       <c r="C315" t="str">
-        <v>biologia</v>
+        <v>inclusao</v>
       </c>
       <c r="D315" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E315" t="str">
         <v/>
@@ -5760,16 +5760,16 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologias digitais da informacao e da comunicacao</v>
       </c>
       <c r="B316" t="str">
-        <v>museus virtuais</v>
+        <v>tdics</v>
       </c>
       <c r="C316" t="str">
-        <v>tdcis</v>
+        <v>acessibilidade</v>
       </c>
       <c r="D316" t="str">
-        <v>ensino apreizagem</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E316" t="str">
         <v/>
@@ -5777,33 +5777,33 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>oficina</v>
+        <v>ensino de libras</v>
       </c>
       <c r="B317" t="str">
-        <v>partilha do sensivel</v>
+        <v>objetos digitais de apreizagem</v>
       </c>
       <c r="C317" t="str">
-        <v>escrita criativa</v>
+        <v>professores em formacao</v>
       </c>
       <c r="D317" t="str">
-        <v>fotografia</v>
+        <v/>
       </c>
       <c r="E317" t="str">
-        <v>apropriacao</v>
+        <v/>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>arte musical</v>
+        <v>sinalario</v>
       </c>
       <c r="B318" t="str">
-        <v>cultura e saberes</v>
+        <v>libras</v>
       </c>
       <c r="C318" t="str">
-        <v>infancia</v>
+        <v>robotica</v>
       </c>
       <c r="D318" t="str">
-        <v/>
+        <v>inclusao</v>
       </c>
       <c r="E318" t="str">
         <v/>
@@ -5811,50 +5811,50 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>acessibilidade</v>
+        <v>historia em quadrinho</v>
       </c>
       <c r="B319" t="str">
-        <v>design para experiencia</v>
+        <v>reglete</v>
       </c>
       <c r="C319" t="str">
-        <v>pessoa com deficiencia</v>
+        <v>braille</v>
       </c>
       <c r="D319" t="str">
-        <v>docencia</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="E319" t="str">
-        <v/>
+        <v>modelo atomico</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>acessibilidade digital</v>
+        <v>ensino superior</v>
       </c>
       <c r="B320" t="str">
-        <v>inclusao</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="C320" t="str">
-        <v>surdo</v>
+        <v>desenho universal para apreizagem</v>
       </c>
       <c r="D320" t="str">
-        <v>pessoa com deficiencia</v>
+        <v/>
       </c>
       <c r="E320" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>educacao inclusiva</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B321" t="str">
-        <v>tecnologias digitais</v>
+        <v>inclusao de alunos com deficiencia</v>
       </c>
       <c r="C321" t="str">
-        <v>ere</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D321" t="str">
-        <v>napnee</v>
+        <v/>
       </c>
       <c r="E321" t="str">
         <v/>
@@ -5865,30 +5865,30 @@
         <v>inclusao</v>
       </c>
       <c r="B322" t="str">
-        <v>autismo</v>
+        <v>libras</v>
       </c>
       <c r="C322" t="str">
-        <v>teacch</v>
+        <v>quimica</v>
       </c>
       <c r="D322" t="str">
-        <v>abcautismo</v>
+        <v>tabela periodica</v>
       </c>
       <c r="E322" t="str">
-        <v/>
+        <v>tecnologia digitais</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>apreizagem</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="B323" t="str">
-        <v>deficiencia</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="C323" t="str">
-        <v>educacao superior</v>
+        <v>biologia</v>
       </c>
       <c r="D323" t="str">
-        <v>inclusao</v>
+        <v>ead</v>
       </c>
       <c r="E323" t="str">
         <v/>
@@ -5896,16 +5896,16 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>tdic</v>
+        <v>vigilancia digital controversia cientifica</v>
       </c>
       <c r="B324" t="str">
-        <v>educacao especia</v>
+        <v>ducacao nao presencial de emergencia</v>
       </c>
       <c r="C324" t="str">
-        <v>linguagem escrita</v>
+        <v>ciencia</v>
       </c>
       <c r="D324" t="str">
-        <v/>
+        <v>tecnologia e sociedade cts</v>
       </c>
       <c r="E324" t="str">
         <v/>
@@ -5913,16 +5913,16 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>acessibilidade</v>
+        <v>ensino superior militar</v>
       </c>
       <c r="B325" t="str">
-        <v>inclusaode alunos com deficiencia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C325" t="str">
-        <v>ensino superior</v>
+        <v>escola naval</v>
       </c>
       <c r="D325" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E325" t="str">
         <v/>
@@ -5930,33 +5930,33 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>deficiencia intelectual</v>
+        <v>cartapessoal</v>
       </c>
       <c r="B326" t="str">
-        <v>guia digital</v>
+        <v>leitura</v>
       </c>
       <c r="C326" t="str">
-        <v>avaliacao</v>
+        <v>escrita</v>
       </c>
       <c r="D326" t="str">
-        <v/>
+        <v>ensino fuamental i</v>
       </c>
       <c r="E326" t="str">
-        <v/>
+        <v>letramento</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>alunos com deficiencias</v>
+        <v>apreizagem</v>
       </c>
       <c r="B327" t="str">
-        <v>apreizagem</v>
+        <v>quarta revolucao iustrial</v>
       </c>
       <c r="C327" t="str">
-        <v>educacao inclusiva</v>
+        <v>afetividade</v>
       </c>
       <c r="D327" t="str">
-        <v>metodologia</v>
+        <v>humanidade</v>
       </c>
       <c r="E327" t="str">
         <v/>
@@ -5964,47 +5964,47 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>movimento devia</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B328" t="str">
-        <v>arte surda</v>
+        <v>ambientes virtuais de apreizagem ava</v>
       </c>
       <c r="C328" t="str">
-        <v>extensaoead</v>
+        <v>resiliencia</v>
       </c>
       <c r="D328" t="str">
-        <v>moocs acessiveis em libras</v>
+        <v>equidade</v>
       </c>
       <c r="E328" t="str">
-        <v>lingua brasileira de sinais</v>
+        <v>offline</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>material digital acessivel</v>
+        <v>lesson study</v>
       </c>
       <c r="B329" t="str">
-        <v>educacao digital inclusiva</v>
+        <v>autoeficacia</v>
       </c>
       <c r="C329" t="str">
-        <v>inclusao no ensino superior</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="D329" t="str">
-        <v/>
+        <v>apreizagem colaborativa</v>
       </c>
       <c r="E329" t="str">
-        <v/>
+        <v>revisao sistematica da literatura</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>educacao especial</v>
+        <v>pibid</v>
       </c>
       <c r="B330" t="str">
         <v>formacao de professores</v>
       </c>
       <c r="C330" t="str">
-        <v>tecnologia assistiva</v>
+        <v>ciencias biologicas</v>
       </c>
       <c r="D330" t="str">
         <v/>
@@ -6015,16 +6015,16 @@
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>educacao</v>
+        <v>danca e tecnologia</v>
       </c>
       <c r="B331" t="str">
-        <v>inclusao</v>
+        <v>ambiencia de interacao digital</v>
       </c>
       <c r="C331" t="str">
-        <v>ensino hibrido</v>
+        <v>arte interativa digital</v>
       </c>
       <c r="D331" t="str">
-        <v/>
+        <v>produsage</v>
       </c>
       <c r="E331" t="str">
         <v/>
@@ -6032,13 +6032,13 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>autismo</v>
+        <v>desenvolvimento cognitivo</v>
       </c>
       <c r="B332" t="str">
-        <v>modelo social de deficiencia</v>
+        <v>cognicao numerica</v>
       </c>
       <c r="C332" t="str">
-        <v>interatividade na educacao</v>
+        <v>senso numerico</v>
       </c>
       <c r="D332" t="str">
         <v/>
@@ -6049,16 +6049,16 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>ensino remoto</v>
+        <v>direitos humanos</v>
       </c>
       <c r="B333" t="str">
-        <v>educacao especial</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C333" t="str">
-        <v>inclusao</v>
+        <v>utilizacao de midias</v>
       </c>
       <c r="D333" t="str">
-        <v>covid19</v>
+        <v>ensino critico</v>
       </c>
       <c r="E333" t="str">
         <v/>
@@ -6066,16 +6066,16 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B334" t="str">
-        <v>tdics</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="C334" t="str">
-        <v>acessibilidade</v>
+        <v>graduacao em pedagogia ead</v>
       </c>
       <c r="D334" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E334" t="str">
         <v/>
@@ -6083,13 +6083,13 @@
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>ensino de libras</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B335" t="str">
-        <v>objetos digitais de apreizagem</v>
+        <v>ensino superior</v>
       </c>
       <c r="C335" t="str">
-        <v>professores em formacao</v>
+        <v>construcao identitaria</v>
       </c>
       <c r="D335" t="str">
         <v/>
@@ -6100,16 +6100,16 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>sinalario</v>
+        <v>agentes comunitarios de saude</v>
       </c>
       <c r="B336" t="str">
-        <v>libras</v>
+        <v>anormalidades congenitas</v>
       </c>
       <c r="C336" t="str">
-        <v>robotica</v>
+        <v>capacitacao em servico</v>
       </c>
       <c r="D336" t="str">
-        <v>inclusao</v>
+        <v>saude da familia</v>
       </c>
       <c r="E336" t="str">
         <v/>
@@ -6117,33 +6117,33 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>historia em quadrinho</v>
+        <v>netativismo</v>
       </c>
       <c r="B337" t="str">
-        <v>reglete</v>
+        <v>processos formativos</v>
       </c>
       <c r="C337" t="str">
-        <v>braille</v>
+        <v>empoderamento freireano</v>
       </c>
       <c r="D337" t="str">
-        <v>educacao inclusiva</v>
+        <v/>
       </c>
       <c r="E337" t="str">
-        <v>modelo atomico</v>
+        <v/>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>ensino superior</v>
+        <v>inovacao</v>
       </c>
       <c r="B338" t="str">
-        <v>tecnologia assistiva</v>
+        <v>robotica educativa</v>
       </c>
       <c r="C338" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>apreizagem</v>
       </c>
       <c r="D338" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E338" t="str">
         <v/>
@@ -6151,50 +6151,50 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B339" t="str">
-        <v>inclusao de alunos com deficiencia</v>
+        <v>design para a educacao</v>
       </c>
       <c r="C339" t="str">
-        <v>tecnologia assistiva</v>
+        <v>capacitacao</v>
       </c>
       <c r="D339" t="str">
-        <v/>
+        <v>ludificacao</v>
       </c>
       <c r="E339" t="str">
-        <v/>
+        <v>gamificacao</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>inclusao</v>
+        <v>educacao a distancia centrode educacao aberta e a distancia</v>
       </c>
       <c r="B340" t="str">
-        <v>libras</v>
+        <v>programa universidade aberta do brasil</v>
       </c>
       <c r="C340" t="str">
-        <v>quimica</v>
+        <v>ensino superior</v>
       </c>
       <c r="D340" t="str">
-        <v>tabela periodica</v>
+        <v/>
       </c>
       <c r="E340" t="str">
-        <v>tecnologia digitais</v>
+        <v/>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>educacao tradicional</v>
       </c>
       <c r="B341" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C341" t="str">
-        <v>biologia</v>
+        <v>retomada da apreizagem</v>
       </c>
       <c r="D341" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E341" t="str">
         <v/>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>vigilancia digital controversia cientifica</v>
+        <v>letramento digital</v>
       </c>
       <c r="B342" t="str">
-        <v>ducacao nao presencial de emergencia</v>
+        <v>letramento</v>
       </c>
       <c r="C342" t="str">
-        <v>ciencia</v>
+        <v>educacao</v>
       </c>
       <c r="D342" t="str">
-        <v>tecnologia e sociedade cts</v>
+        <v>cultura digital</v>
       </c>
       <c r="E342" t="str">
         <v/>
@@ -6219,16 +6219,16 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>ensino superior militar</v>
+        <v>violencia</v>
       </c>
       <c r="B343" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>notificacao</v>
       </c>
       <c r="C343" t="str">
-        <v>escola naval</v>
+        <v>estudantes de medicina</v>
       </c>
       <c r="D343" t="str">
-        <v>paemia covid19</v>
+        <v/>
       </c>
       <c r="E343" t="str">
         <v/>
@@ -6236,33 +6236,33 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>cartapessoal</v>
+        <v>cursos abertos</v>
       </c>
       <c r="B344" t="str">
-        <v>leitura</v>
+        <v>educacao digital</v>
       </c>
       <c r="C344" t="str">
-        <v>escrita</v>
+        <v>ods</v>
       </c>
       <c r="D344" t="str">
-        <v>ensino fuamental i</v>
+        <v/>
       </c>
       <c r="E344" t="str">
-        <v>letramento</v>
+        <v/>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>apreizagem</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B345" t="str">
-        <v>quarta revolucao iustrial</v>
+        <v>ecnologias digitais da informacao e comunicacao tdic</v>
       </c>
       <c r="C345" t="str">
-        <v>afetividade</v>
+        <v>ensino remoto emergencial ere</v>
       </c>
       <c r="D345" t="str">
-        <v>humanidade</v>
+        <v/>
       </c>
       <c r="E345" t="str">
         <v/>
@@ -6270,47 +6270,47 @@
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>inclusao digital</v>
+        <v>mapeamento</v>
       </c>
       <c r="B346" t="str">
-        <v>ambientes virtuais de apreizagem ava</v>
+        <v>cursos online</v>
       </c>
       <c r="C346" t="str">
-        <v>resiliencia</v>
+        <v>equipe</v>
       </c>
       <c r="D346" t="str">
-        <v>equidade</v>
+        <v/>
       </c>
       <c r="E346" t="str">
-        <v>offline</v>
+        <v/>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>lesson study</v>
+        <v>pedagogia empresarial</v>
       </c>
       <c r="B347" t="str">
-        <v>autoeficacia</v>
+        <v>pedagogo empresarial</v>
       </c>
       <c r="C347" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>treinamento e desenvolvimento</v>
       </c>
       <c r="D347" t="str">
-        <v>apreizagem colaborativa</v>
+        <v/>
       </c>
       <c r="E347" t="str">
-        <v>revisao sistematica da literatura</v>
+        <v/>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>pibid</v>
+        <v>educacao superior</v>
       </c>
       <c r="B348" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C348" t="str">
-        <v>ciencias biologicas</v>
+        <v>covid19</v>
       </c>
       <c r="D348" t="str">
         <v/>
@@ -6321,16 +6321,16 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>danca e tecnologia</v>
+        <v>educacao musical online</v>
       </c>
       <c r="B349" t="str">
-        <v>ambiencia de interacao digital</v>
+        <v>pratica de conjunto online</v>
       </c>
       <c r="C349" t="str">
-        <v>arte interativa digital</v>
+        <v>musica e sustentabilidade</v>
       </c>
       <c r="D349" t="str">
-        <v>produsage</v>
+        <v/>
       </c>
       <c r="E349" t="str">
         <v/>
@@ -6338,16 +6338,16 @@
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>desenvolvimento cognitivo</v>
+        <v>psicoterapia online</v>
       </c>
       <c r="B350" t="str">
-        <v>cognicao numerica</v>
+        <v>alianca e vinculo terapeuticos</v>
       </c>
       <c r="C350" t="str">
-        <v>senso numerico</v>
+        <v>ateimento online</v>
       </c>
       <c r="D350" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E350" t="str">
         <v/>
@@ -6355,33 +6355,33 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>direitos humanos</v>
+        <v>formacao profissional em saude</v>
       </c>
       <c r="B351" t="str">
-        <v>interdisciplinaridade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C351" t="str">
-        <v>utilizacao de midias</v>
+        <v>sistema unico de saude</v>
       </c>
       <c r="D351" t="str">
-        <v>ensino critico</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="E351" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>educacao a distancia</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="B352" t="str">
-        <v>ensino e apreizagem</v>
+        <v>cultura maker</v>
       </c>
       <c r="C352" t="str">
-        <v>graduacao em pedagogia ead</v>
+        <v>fanzines</v>
       </c>
       <c r="D352" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E352" t="str">
         <v/>
@@ -6389,33 +6389,33 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>educacao a distancia</v>
+        <v>residencia tecnic</v>
       </c>
       <c r="B353" t="str">
-        <v>ensino superior</v>
+        <v>inovacao</v>
       </c>
       <c r="C353" t="str">
-        <v>construcao identitaria</v>
+        <v>transformacao digital</v>
       </c>
       <c r="D353" t="str">
-        <v/>
+        <v>egov</v>
       </c>
       <c r="E353" t="str">
-        <v/>
+        <v>design instrucional</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>agentes comunitarios de saude</v>
+        <v>cancer</v>
       </c>
       <c r="B354" t="str">
-        <v>anormalidades congenitas</v>
+        <v>game</v>
       </c>
       <c r="C354" t="str">
-        <v>capacitacao em servico</v>
+        <v>sexualidade</v>
       </c>
       <c r="D354" t="str">
-        <v>saude da familia</v>
+        <v/>
       </c>
       <c r="E354" t="str">
         <v/>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>netativismo</v>
+        <v>educacao</v>
       </c>
       <c r="B355" t="str">
-        <v>processos formativos</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C355" t="str">
-        <v>empoderamento freireano</v>
+        <v>curriculo</v>
       </c>
       <c r="D355" t="str">
-        <v/>
+        <v>educacao hibrida</v>
       </c>
       <c r="E355" t="str">
         <v/>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>inovacao</v>
+        <v>curriculo subjetivo</v>
       </c>
       <c r="B356" t="str">
-        <v>robotica educativa</v>
+        <v>paradigma da apreizagem</v>
       </c>
       <c r="C356" t="str">
-        <v>apreizagem</v>
+        <v>tutorias</v>
       </c>
       <c r="D356" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E356" t="str">
         <v/>
@@ -6457,33 +6457,33 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>ensino e apreizagem</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B357" t="str">
-        <v>design para a educacao</v>
+        <v>inclusao digital</v>
       </c>
       <c r="C357" t="str">
-        <v>capacitacao</v>
+        <v>ead</v>
       </c>
       <c r="D357" t="str">
-        <v>ludificacao</v>
+        <v>inovacao</v>
       </c>
       <c r="E357" t="str">
-        <v>gamificacao</v>
+        <v/>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>educacao a distancia centrode educacao aberta e a distancia</v>
+        <v>ensino superior</v>
       </c>
       <c r="B358" t="str">
-        <v>programa universidade aberta do brasil</v>
+        <v>universidades publicas</v>
       </c>
       <c r="C358" t="str">
-        <v>ensino superior</v>
+        <v>pospaemia</v>
       </c>
       <c r="D358" t="str">
-        <v/>
+        <v>resiliencia organizacional</v>
       </c>
       <c r="E358" t="str">
         <v/>
@@ -6491,16 +6491,16 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>educacao tradicional</v>
+        <v>memoria</v>
       </c>
       <c r="B359" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="C359" t="str">
-        <v>retomada da apreizagem</v>
+        <v>neurociencia</v>
       </c>
       <c r="D359" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
       <c r="E359" t="str">
         <v/>
@@ -6508,13 +6508,13 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>letramento digital</v>
+        <v>ensino medio</v>
       </c>
       <c r="B360" t="str">
-        <v>letramento</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C360" t="str">
-        <v>educacao</v>
+        <v>desigualdade educacional</v>
       </c>
       <c r="D360" t="str">
         <v>cultura digital</v>
@@ -6525,16 +6525,16 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>violencia</v>
+        <v>caracteristica</v>
       </c>
       <c r="B361" t="str">
-        <v>notificacao</v>
+        <v>estudante</v>
       </c>
       <c r="C361" t="str">
-        <v>estudantes de medicina</v>
+        <v>licenciatura</v>
       </c>
       <c r="D361" t="str">
-        <v/>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="E361" t="str">
         <v/>
@@ -6542,33 +6542,33 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>cursos abertos</v>
+        <v>ensino superior</v>
       </c>
       <c r="B362" t="str">
-        <v>educacao digital</v>
+        <v>trilha de apreizagem</v>
       </c>
       <c r="C362" t="str">
-        <v>ods</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="D362" t="str">
-        <v/>
+        <v>feedback</v>
       </c>
       <c r="E362" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>multiletramentos</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B363" t="str">
-        <v>ecnologias digitais da informacao e comunicacao tdic</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C363" t="str">
-        <v>ensino remoto emergencial ere</v>
+        <v>educacao infantil</v>
       </c>
       <c r="D363" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E363" t="str">
         <v/>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>mapeamento</v>
+        <v>metodologias ativas de apreizagem</v>
       </c>
       <c r="B364" t="str">
-        <v>cursos online</v>
+        <v>administracao publica</v>
       </c>
       <c r="C364" t="str">
-        <v>equipe</v>
+        <v>tdics</v>
       </c>
       <c r="D364" t="str">
         <v/>
@@ -6593,16 +6593,16 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>pedagogia empresarial</v>
+        <v>escola</v>
       </c>
       <c r="B365" t="str">
-        <v>pedagogo empresarial</v>
+        <v>leitura</v>
       </c>
       <c r="C365" t="str">
-        <v>treinamento e desenvolvimento</v>
+        <v>escrita</v>
       </c>
       <c r="D365" t="str">
-        <v/>
+        <v>tecnologias hipertextuais</v>
       </c>
       <c r="E365" t="str">
         <v/>
@@ -6610,13 +6610,13 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>educacao superior</v>
+        <v>ensino remoto emergencia</v>
       </c>
       <c r="B366" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>biologia atividades praticas</v>
       </c>
       <c r="C366" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="D366" t="str">
         <v/>
@@ -6627,16 +6627,16 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>educacao musical online</v>
+        <v>avaliacao</v>
       </c>
       <c r="B367" t="str">
-        <v>pratica de conjunto online</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C367" t="str">
-        <v>musica e sustentabilidade</v>
+        <v>cultura digital</v>
       </c>
       <c r="D367" t="str">
-        <v/>
+        <v>ensino de fisica</v>
       </c>
       <c r="E367" t="str">
         <v/>
@@ -6644,50 +6644,50 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>psicoterapia online</v>
+        <v>educacao</v>
       </c>
       <c r="B368" t="str">
-        <v>alianca e vinculo terapeuticos</v>
+        <v>comunicacao</v>
       </c>
       <c r="C368" t="str">
-        <v>ateimento online</v>
+        <v>midias sociais</v>
       </c>
       <c r="D368" t="str">
-        <v>covid19</v>
+        <v>publicidade</v>
       </c>
       <c r="E368" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>formacao profissional em saude</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B369" t="str">
-        <v>educacao a distancia</v>
+        <v>tdic</v>
       </c>
       <c r="C369" t="str">
-        <v>sistema unico de saude</v>
+        <v>paemia</v>
       </c>
       <c r="D369" t="str">
-        <v>materiais didaticos</v>
+        <v/>
       </c>
       <c r="E369" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>metodologia ativa</v>
+        <v>apreizagem</v>
       </c>
       <c r="B370" t="str">
-        <v>cultura maker</v>
+        <v>gamificacao</v>
       </c>
       <c r="C370" t="str">
-        <v>fanzines</v>
+        <v>este de progresso</v>
       </c>
       <c r="D370" t="str">
-        <v>educacao</v>
+        <v>educacao medica</v>
       </c>
       <c r="E370" t="str">
         <v/>
@@ -6695,30 +6695,30 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>residencia tecnic</v>
+        <v>ecologia da apreizagem</v>
       </c>
       <c r="B371" t="str">
-        <v>inovacao</v>
+        <v>cultura digital</v>
       </c>
       <c r="C371" t="str">
-        <v>transformacao digital</v>
+        <v>processos de apreizagem</v>
       </c>
       <c r="D371" t="str">
-        <v>egov</v>
+        <v/>
       </c>
       <c r="E371" t="str">
-        <v>design instrucional</v>
+        <v/>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>cancer</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B372" t="str">
-        <v>game</v>
+        <v>podcast de ciencias</v>
       </c>
       <c r="C372" t="str">
-        <v>sexualidade</v>
+        <v>apreizagem</v>
       </c>
       <c r="D372" t="str">
         <v/>
@@ -6732,13 +6732,13 @@
         <v>educacao</v>
       </c>
       <c r="B373" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologia</v>
       </c>
       <c r="C373" t="str">
-        <v>curriculo</v>
+        <v>digital</v>
       </c>
       <c r="D373" t="str">
-        <v>educacao hibrida</v>
+        <v/>
       </c>
       <c r="E373" t="str">
         <v/>
@@ -6746,13 +6746,13 @@
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>curriculo subjetivo</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B374" t="str">
-        <v>paradigma da apreizagem</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C374" t="str">
-        <v>tutorias</v>
+        <v>qualidade na educacao superior</v>
       </c>
       <c r="D374" t="str">
         <v/>
@@ -6763,16 +6763,16 @@
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>ensino hibrido</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B375" t="str">
-        <v>inclusao digital</v>
+        <v>avaliacao de tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C375" t="str">
-        <v>ead</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="D375" t="str">
-        <v>inovacao</v>
+        <v/>
       </c>
       <c r="E375" t="str">
         <v/>
@@ -6780,16 +6780,16 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>ensino superior</v>
+        <v>metaverso</v>
       </c>
       <c r="B376" t="str">
-        <v>universidades publicas</v>
+        <v>ensino fuamental</v>
       </c>
       <c r="C376" t="str">
-        <v>pospaemia</v>
+        <v>ciencia humanas</v>
       </c>
       <c r="D376" t="str">
-        <v>resiliencia organizacional</v>
+        <v/>
       </c>
       <c r="E376" t="str">
         <v/>
@@ -6797,33 +6797,33 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>memoria</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B377" t="str">
-        <v>tdic</v>
+        <v>alfabetizacao cientifica</v>
       </c>
       <c r="C377" t="str">
-        <v>neurociencia</v>
+        <v>ensino de geografia</v>
       </c>
       <c r="D377" t="str">
-        <v>apreizagem</v>
+        <v>apreizagem baseada na resolucao de problemas</v>
       </c>
       <c r="E377" t="str">
-        <v/>
+        <v>web 20</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>ensino medio</v>
+        <v>gamificacao</v>
       </c>
       <c r="B378" t="str">
-        <v>ensino remoto</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="C378" t="str">
-        <v>desigualdade educacional</v>
+        <v>apreizagem de leitura</v>
       </c>
       <c r="D378" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
       <c r="E378" t="str">
         <v/>
@@ -6831,16 +6831,16 @@
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>caracteristica</v>
+        <v>tdics</v>
       </c>
       <c r="B379" t="str">
-        <v>estudante</v>
+        <v>colegio de aplicacao</v>
       </c>
       <c r="C379" t="str">
-        <v>licenciatura</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D379" t="str">
-        <v>ensino e apreizagem</v>
+        <v>paemia</v>
       </c>
       <c r="E379" t="str">
         <v/>
@@ -6848,194 +6848,41 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>ensino superior</v>
+        <v>orientador educacional</v>
       </c>
       <c r="B380" t="str">
-        <v>trilha de apreizagem</v>
+        <v>tecnologias</v>
       </c>
       <c r="C380" t="str">
-        <v>sala de aula invertida</v>
+        <v>covid19</v>
       </c>
       <c r="D380" t="str">
-        <v>feedback</v>
+        <v/>
       </c>
       <c r="E380" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>estagio supervisionado</v>
+        <v>educacao digital</v>
       </c>
       <c r="B381" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologia</v>
       </c>
       <c r="C381" t="str">
-        <v>educacao infantil</v>
+        <v>paemia</v>
       </c>
       <c r="D381" t="str">
-        <v>tecnologias</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E381" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="str">
-        <v>metodologias ativas de apreizagem</v>
-      </c>
-      <c r="B382" t="str">
-        <v>administracao publica</v>
-      </c>
-      <c r="C382" t="str">
-        <v>tdics</v>
-      </c>
-      <c r="D382" t="str">
-        <v/>
-      </c>
-      <c r="E382" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="str">
-        <v>escola</v>
-      </c>
-      <c r="B383" t="str">
-        <v>leitura</v>
-      </c>
-      <c r="C383" t="str">
-        <v>escrita</v>
-      </c>
-      <c r="D383" t="str">
-        <v>tecnologias hipertextuais</v>
-      </c>
-      <c r="E383" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="str">
-        <v>ensino remoto emergencia</v>
-      </c>
-      <c r="B384" t="str">
-        <v>biologia atividades praticas</v>
-      </c>
-      <c r="C384" t="str">
-        <v/>
-      </c>
-      <c r="D384" t="str">
-        <v/>
-      </c>
-      <c r="E384" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="str">
-        <v>avaliacao</v>
-      </c>
-      <c r="B385" t="str">
-        <v>educacao hibrida</v>
-      </c>
-      <c r="C385" t="str">
-        <v>cultura digital</v>
-      </c>
-      <c r="D385" t="str">
-        <v>ensino de fisica</v>
-      </c>
-      <c r="E385" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="B386" t="str">
-        <v>comunicacao</v>
-      </c>
-      <c r="C386" t="str">
-        <v>midias sociais</v>
-      </c>
-      <c r="D386" t="str">
-        <v>publicidade</v>
-      </c>
-      <c r="E386" t="str">
-        <v>tecnologias</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="str">
-        <v>ensino de quimica</v>
-      </c>
-      <c r="B387" t="str">
-        <v>tdic</v>
-      </c>
-      <c r="C387" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="D387" t="str">
-        <v/>
-      </c>
-      <c r="E387" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="str">
-        <v>apreizagem</v>
-      </c>
-      <c r="B388" t="str">
-        <v>gamificacao</v>
-      </c>
-      <c r="C388" t="str">
-        <v>este de progresso</v>
-      </c>
-      <c r="D388" t="str">
-        <v>educacao medica</v>
-      </c>
-      <c r="E388" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="str">
-        <v>ecologia da apreizagem</v>
-      </c>
-      <c r="B389" t="str">
-        <v>cultura digital</v>
-      </c>
-      <c r="C389" t="str">
-        <v>processos de apreizagem</v>
-      </c>
-      <c r="D389" t="str">
-        <v/>
-      </c>
-      <c r="E389" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="str">
-        <v>ensino hibrido</v>
-      </c>
-      <c r="B390" t="str">
-        <v>podcast de ciencias</v>
-      </c>
-      <c r="C390" t="str">
-        <v>apreizagem</v>
-      </c>
-      <c r="D390" t="str">
-        <v/>
-      </c>
-      <c r="E390" t="str">
-        <v/>
+        <v>ead</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E390"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E381"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/2024-04-10T22:42:49.xlsx
+++ b/uploads/2024-04-10T22:42:49.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,13 +422,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>inclusao digital</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B2" t="str">
-        <v>educacao e tecnologias</v>
+        <v>narrativa</v>
       </c>
       <c r="C2" t="str">
-        <v>letramento digital</v>
+        <v>curriculo de tecnologia</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -439,16 +439,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ateimento educacional especializado</v>
+        <v>ensino</v>
       </c>
       <c r="B3" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C3" t="str">
-        <v>transtorno do espectro do autismo</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -456,33 +456,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>musica</v>
+        <v>educacao escolar</v>
       </c>
       <c r="B4" t="str">
-        <v>autorregulacao</v>
+        <v>sala de aula virtual</v>
       </c>
       <c r="C4" t="str">
-        <v>apreizagem</v>
+        <v>ensino remoto e ensino hibrido</v>
       </c>
       <c r="D4" t="str">
-        <v>estrategia</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>baa escolar</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>alimentos organicos</v>
+        <v>educacao fisica</v>
       </c>
       <c r="B5" t="str">
-        <v>eletiva</v>
+        <v>praticas corporais</v>
       </c>
       <c r="C5" t="str">
-        <v>historia em quadrinhos</v>
+        <v>presencial</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>a distancia</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -490,33 +490,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>ensino remoto</v>
+        <v>insurgencias</v>
       </c>
       <c r="B6" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C6" t="str">
-        <v>apreizagem em matematica</v>
+        <v>docencia no ensino superior</v>
       </c>
       <c r="D6" t="str">
-        <v>educacao basica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E6" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>discente</v>
+        <v>educacao</v>
       </c>
       <c r="B7" t="str">
-        <v>ensino superior</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C7" t="str">
-        <v>protagonismo</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D7" t="str">
-        <v>tdics</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -524,33 +524,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>avaliacao</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="B8" t="str">
+        <v>formacao de professores</v>
+      </c>
+      <c r="C8" t="str">
+        <v>audiovisual</v>
+      </c>
+      <c r="D8" t="str">
         <v>educacao basica</v>
       </c>
-      <c r="C8" t="str">
-        <v>saresp</v>
-      </c>
-      <c r="D8" t="str">
-        <v>tdic</v>
-      </c>
       <c r="E8" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>tecnologia educacional</v>
+        <v>microbiologia</v>
       </c>
       <c r="B9" t="str">
-        <v>revista digital</v>
+        <v>ensino</v>
       </c>
       <c r="C9" t="str">
-        <v>cultura digital</v>
+        <v>tecnologia</v>
       </c>
       <c r="D9" t="str">
-        <v>protagonismo do estudante</v>
+        <v>jogos</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -558,16 +558,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>rubricas</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B10" t="str">
-        <v>avaliacao formativa</v>
+        <v>competencias digitais</v>
       </c>
       <c r="C10" t="str">
-        <v>ensino superior em saude</v>
+        <v>educacao basica</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -575,30 +575,30 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>steam</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B11" t="str">
-        <v>metodologias ativas</v>
+        <v>professores</v>
       </c>
       <c r="C11" t="str">
-        <v>ensino</v>
+        <v>selfie for teachers</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B12" t="str">
-        <v>educacao basica</v>
+        <v>avaliacao</v>
       </c>
       <c r="C12" t="str">
-        <v>artes visuais</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -609,16 +609,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>tdic</v>
+        <v>avaliacao de estagio</v>
       </c>
       <c r="B13" t="str">
-        <v>professores de ingles</v>
+        <v>processo pedagogico</v>
       </c>
       <c r="C13" t="str">
-        <v>apreizagem emingles</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D13" t="str">
-        <v>ufpa</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -626,13 +626,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>ensino e apreizagem</v>
+        <v>bitmoji</v>
       </c>
       <c r="B14" t="str">
-        <v>tecnologia</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C14" t="str">
-        <v>aulasnaopresenciais</v>
+        <v>praticas de ensino</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -643,16 +643,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>precalculo</v>
+        <v>processo avaliativo</v>
       </c>
       <c r="B15" t="str">
-        <v>ensino a distancia</v>
+        <v>engenharia</v>
       </c>
       <c r="C15" t="str">
-        <v>transicao terciaria</v>
+        <v>projeto integrador</v>
       </c>
       <c r="D15" t="str">
-        <v>covid19</v>
+        <v>paemia</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -660,50 +660,50 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>surdez</v>
+        <v>google meet</v>
       </c>
       <c r="B16" t="str">
-        <v>tecnologia</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="C16" t="str">
-        <v>inclusao</v>
+        <v>paemia</v>
       </c>
       <c r="D16" t="str">
-        <v>acessibilidade</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E16" t="str">
-        <v>midiaeducacao</v>
+        <v>docencia</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>smartphone</v>
+        <v>tdic</v>
       </c>
       <c r="B17" t="str">
-        <v>lingua inglesa li</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C17" t="str">
-        <v>educacao de jovens e adultos eja</v>
+        <v>frequencia escolar</v>
       </c>
       <c r="D17" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v>educacao basica</v>
       </c>
       <c r="E17" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>educacao 40</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B18" t="str">
-        <v>gamificacao</v>
+        <v>recurso tecnologico</v>
       </c>
       <c r="C18" t="str">
-        <v>geracao alpha</v>
+        <v>formacao continuada</v>
       </c>
       <c r="D18" t="str">
-        <v>jogos eletronicos</v>
+        <v/>
       </c>
       <c r="E18" t="str">
         <v/>
@@ -711,30 +711,30 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>ensino medio</v>
+        <v>apreizagem da docencia</v>
       </c>
       <c r="B19" t="str">
-        <v>avaliacao educacional</v>
+        <v>professor iniciante</v>
       </c>
       <c r="C19" t="str">
-        <v>avaliacao formativa</v>
+        <v>mentoria</v>
       </c>
       <c r="D19" t="str">
-        <v>ncc</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>revisao de literatura</v>
       </c>
       <c r="B20" t="str">
-        <v>centro de midias</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C20" t="str">
-        <v>amazonas</v>
+        <v>formacao de professor</v>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -745,33 +745,33 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>ensino remoto</v>
+        <v>cultura digital</v>
       </c>
       <c r="B21" t="str">
-        <v>praticas hibridas de ensino</v>
+        <v>educacao</v>
       </c>
       <c r="C21" t="str">
-        <v>pospaemia</v>
+        <v>paemia</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>fazer pedagogico</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>educacao profissional</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>tdics</v>
+        <v>comunicacao</v>
       </c>
       <c r="B22" t="str">
-        <v>formacao continuada de professores</v>
+        <v>cultura digital</v>
       </c>
       <c r="C22" t="str">
-        <v>ensino remoto</v>
+        <v>educacao</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -779,13 +779,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>ead</v>
+        <v>processos educativos hibridos</v>
       </c>
       <c r="B23" t="str">
-        <v>educacao basica</v>
+        <v>formacao docente</v>
       </c>
       <c r="C23" t="str">
-        <v>professores</v>
+        <v>avaliacao</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -796,16 +796,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>formacao de professores</v>
+        <v>discentesdocentes</v>
       </c>
       <c r="B24" t="str">
-        <v>sistema de informacao</v>
+        <v>cibercultura</v>
       </c>
       <c r="C24" t="str">
-        <v>seduc</v>
+        <v>paemia</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>periferia</v>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -813,16 +813,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>formacao de professores</v>
+        <v>pedagogia das competencias</v>
       </c>
       <c r="B25" t="str">
-        <v>olimpiadas cientificas</v>
+        <v>formacao docente</v>
       </c>
       <c r="C25" t="str">
-        <v>ensinode ciencias</v>
+        <v>semiformacao</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>racionalidade tecnologica instrumental</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -830,13 +830,13 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>ensino a distancia</v>
+        <v>educacao</v>
       </c>
       <c r="B26" t="str">
-        <v>formacao docente</v>
+        <v>docente</v>
       </c>
       <c r="C26" t="str">
-        <v>instituicao de ensino superior</v>
+        <v>tecnologia</v>
       </c>
       <c r="D26" t="str">
         <v/>
@@ -847,16 +847,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>professores iniciantes</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B27" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>atividades remotas</v>
       </c>
       <c r="C27" t="str">
-        <v>formacao de professores</v>
+        <v>formacao academica</v>
       </c>
       <c r="D27" t="str">
-        <v>conhecimento tecnologico e pedagogico do conteudo</v>
+        <v/>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -864,13 +864,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologia de comunicacao</v>
       </c>
       <c r="B28" t="str">
-        <v>ensino remoto e ensino a distancia</v>
+        <v>perguntas</v>
       </c>
       <c r="C28" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -881,16 +881,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>formacao de professores</v>
+        <v>atividade colaborativa</v>
       </c>
       <c r="B29" t="str">
-        <v>apreizagem invertida</v>
+        <v>design de colaboracao</v>
       </c>
       <c r="C29" t="str">
-        <v>metodologias ativas</v>
+        <v>abordagens do design</v>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>modelo addie</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -898,33 +898,33 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>robotica educacional</v>
+        <v>reescrita</v>
       </c>
       <c r="B30" t="str">
-        <v>narrativa</v>
+        <v>docencia</v>
       </c>
       <c r="C30" t="str">
-        <v>curriculo de tecnologia</v>
+        <v>anos finais do ensino fuamental</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>dissertativo argumentativo</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>enem</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>ensino</v>
+        <v>jogo da onca</v>
       </c>
       <c r="B31" t="str">
-        <v>metodologias ativas</v>
+        <v>lei 11645</v>
       </c>
       <c r="C31" t="str">
-        <v>pratica pedagogica</v>
+        <v>cultura iigena</v>
       </c>
       <c r="D31" t="str">
-        <v>sala de aula invertida</v>
+        <v/>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -932,13 +932,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>educacao escolar</v>
+        <v>educacao 40 design educacional</v>
       </c>
       <c r="B32" t="str">
-        <v>sala de aula virtual</v>
+        <v>modelo addie</v>
       </c>
       <c r="C32" t="str">
-        <v>ensino remoto e ensino hibrido</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -949,16 +949,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>educacao fisica</v>
+        <v>covid19</v>
       </c>
       <c r="B33" t="str">
-        <v>praticas corporais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C33" t="str">
-        <v>presencial</v>
+        <v>professores</v>
       </c>
       <c r="D33" t="str">
-        <v>a distancia</v>
+        <v>experiencias</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -966,30 +966,30 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>insurgencias</v>
+        <v>curriculo</v>
       </c>
       <c r="B34" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>design curricular</v>
       </c>
       <c r="C34" t="str">
-        <v>docencia no ensino superior</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D34" t="str">
-        <v>educacao a distancia</v>
+        <v>bleedlearning</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>educacao</v>
+        <v>capacitacao de professores</v>
       </c>
       <c r="B35" t="str">
-        <v>ensino remoto</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C35" t="str">
-        <v>ensino hibrido</v>
+        <v>etsus</v>
       </c>
       <c r="D35" t="str">
         <v/>
@@ -1000,33 +1000,33 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>tecnologia digital</v>
+        <v>cultura escolarizante</v>
       </c>
       <c r="B36" t="str">
-        <v>formacao de professores</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C36" t="str">
-        <v>audiovisual</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D36" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>microbiologia</v>
+        <v>ensino superior</v>
       </c>
       <c r="B37" t="str">
-        <v>ensino</v>
+        <v>odontologia</v>
       </c>
       <c r="C37" t="str">
-        <v>tecnologia</v>
+        <v>paemia</v>
       </c>
       <c r="D37" t="str">
-        <v>jogos</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>formacao de professores</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B38" t="str">
-        <v>competencias digitais</v>
+        <v>tdic</v>
       </c>
       <c r="C38" t="str">
-        <v>educacao basica</v>
+        <v>aulas sincronas</v>
       </c>
       <c r="D38" t="str">
-        <v>covid19</v>
+        <v>ensino superior</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1051,30 +1051,30 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>competencias digitais</v>
+        <v>ensino para a criatividade</v>
       </c>
       <c r="B39" t="str">
-        <v>professores</v>
+        <v>internacionalidade</v>
       </c>
       <c r="C39" t="str">
-        <v>selfie for teachers</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D39" t="str">
-        <v>educacao basica</v>
+        <v>pensamento criativo</v>
       </c>
       <c r="E39" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>reflexao</v>
       </c>
       <c r="B40" t="str">
-        <v>avaliacao</v>
+        <v>epistemologia</v>
       </c>
       <c r="C40" t="str">
-        <v>curso de pedagogia</v>
+        <v>pratica docente</v>
       </c>
       <c r="D40" t="str">
         <v/>
@@ -1085,16 +1085,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>avaliacao de estagio</v>
+        <v>ensino superior</v>
       </c>
       <c r="B41" t="str">
-        <v>processo pedagogico</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C41" t="str">
-        <v>tecnologias educacionais</v>
+        <v>formacao inicial</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E41" t="str">
         <v/>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>bitmoji</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B42" t="str">
-        <v>ferramentas digitais</v>
+        <v>covid19</v>
       </c>
       <c r="C42" t="str">
-        <v>praticas de ensino</v>
+        <v>ensino online emergencial</v>
       </c>
       <c r="D42" t="str">
         <v/>
@@ -1119,16 +1119,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>processo avaliativo</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B43" t="str">
-        <v>engenharia</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C43" t="str">
-        <v>projeto integrador</v>
+        <v>ensino superior</v>
       </c>
       <c r="D43" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -1136,33 +1136,33 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>google meet</v>
+        <v>museus virtuais</v>
       </c>
       <c r="B44" t="str">
-        <v>relato de experiencia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C44" t="str">
-        <v>paemia</v>
+        <v>ensino de historia</v>
       </c>
       <c r="D44" t="str">
-        <v>ensino remoto</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="E44" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>tdic</v>
+        <v>ensino nao presencia</v>
       </c>
       <c r="B45" t="str">
-        <v>ensino remoto</v>
+        <v>cursinho popular</v>
       </c>
       <c r="C45" t="str">
-        <v>frequencia escolar</v>
+        <v>acesso ao ensino superior</v>
       </c>
       <c r="D45" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>tecnologia educacional</v>
+        <v>tpack</v>
       </c>
       <c r="B46" t="str">
-        <v>recurso tecnologico</v>
+        <v>docencia virtual</v>
       </c>
       <c r="C46" t="str">
-        <v>formacao continuada</v>
+        <v>tdic</v>
       </c>
       <c r="D46" t="str">
-        <v/>
+        <v>profissionalizacao docente</v>
       </c>
       <c r="E46" t="str">
         <v/>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>apreizagem da docencia</v>
+        <v>design thinking</v>
       </c>
       <c r="B47" t="str">
-        <v>professor iniciante</v>
+        <v>teacher training</v>
       </c>
       <c r="C47" t="str">
-        <v>mentoria</v>
+        <v>digital technologies</v>
       </c>
       <c r="D47" t="str">
         <v/>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>revisao de literatura</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B48" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="C48" t="str">
-        <v>formacao de professor</v>
+        <v>competencias digitais</v>
       </c>
       <c r="D48" t="str">
         <v/>
@@ -1221,50 +1221,50 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>cultura digital</v>
+        <v>figura</v>
       </c>
       <c r="B49" t="str">
-        <v>educacao</v>
+        <v>figuras geometricas</v>
       </c>
       <c r="C49" t="str">
-        <v>paemia</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
       <c r="D49" t="str">
-        <v>fazer pedagogico</v>
+        <v/>
       </c>
       <c r="E49" t="str">
-        <v>educacao profissional</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>comunicacao</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B50" t="str">
-        <v>cultura digital</v>
+        <v>educacao ambiental</v>
       </c>
       <c r="C50" t="str">
-        <v>educacao</v>
+        <v>educacao basica</v>
       </c>
       <c r="D50" t="str">
-        <v>tecnologia</v>
+        <v>revisao sistematica</v>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>metodologias de ensino</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>processos educativos hibridos</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B51" t="str">
-        <v>formacao docente</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C51" t="str">
-        <v>avaliacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D51" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>discentesdocentes</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B52" t="str">
-        <v>cibercultura</v>
+        <v>tdic</v>
       </c>
       <c r="C52" t="str">
-        <v>paemia</v>
+        <v>quimica</v>
       </c>
       <c r="D52" t="str">
-        <v>periferia</v>
+        <v/>
       </c>
       <c r="E52" t="str">
         <v/>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>pedagogia das competencias</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B53" t="str">
-        <v>formacao docente</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C53" t="str">
-        <v>semiformacao</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D53" t="str">
-        <v>racionalidade tecnologica instrumental</v>
+        <v>pospaemia</v>
       </c>
       <c r="E53" t="str">
         <v/>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>educacao</v>
+        <v>inovacao</v>
       </c>
       <c r="B54" t="str">
-        <v>docente</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C54" t="str">
-        <v>tecnologia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D54" t="str">
         <v/>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>estagio supervisionado</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B55" t="str">
-        <v>atividades remotas</v>
+        <v>tpack</v>
       </c>
       <c r="C55" t="str">
-        <v>formacao academica</v>
+        <v>tdic</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>professor reflexivo</v>
       </c>
       <c r="E55" t="str">
         <v/>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>tecnologia de comunicacao</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B56" t="str">
-        <v>perguntas</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C56" t="str">
-        <v>apreizagem</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D56" t="str">
         <v/>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>atividade colaborativa</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="B57" t="str">
-        <v>design de colaboracao</v>
+        <v>tecnologias da informacao e da comunicacao</v>
       </c>
       <c r="C57" t="str">
-        <v>abordagens do design</v>
+        <v>cursos de licenciaturas</v>
       </c>
       <c r="D57" t="str">
-        <v>modelo addie</v>
+        <v>percepcao discente</v>
       </c>
       <c r="E57" t="str">
         <v/>
@@ -1374,30 +1374,30 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>reescrita</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B58" t="str">
-        <v>docencia</v>
+        <v>pedagogia</v>
       </c>
       <c r="C58" t="str">
-        <v>anos finais do ensino fuamental</v>
+        <v>juri simulado</v>
       </c>
       <c r="D58" t="str">
-        <v>dissertativo argumentativo</v>
+        <v/>
       </c>
       <c r="E58" t="str">
-        <v>enem</v>
+        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>jogo da onca</v>
+        <v>digital literacy</v>
       </c>
       <c r="B59" t="str">
-        <v>lei 11645</v>
+        <v>remote teaching</v>
       </c>
       <c r="C59" t="str">
-        <v>cultura iigena</v>
+        <v>dict</v>
       </c>
       <c r="D59" t="str">
         <v/>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>educacao 40 design educacional</v>
+        <v>formacao docente</v>
       </c>
       <c r="B60" t="str">
-        <v>modelo addie</v>
+        <v>pratica docente</v>
       </c>
       <c r="C60" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D60" t="str">
         <v/>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>covid19</v>
+        <v>estilos de apreizagem</v>
       </c>
       <c r="B61" t="str">
-        <v>educacao a distancia</v>
+        <v>modelo de kolb</v>
       </c>
       <c r="C61" t="str">
-        <v>professores</v>
+        <v>aplicacao web</v>
       </c>
       <c r="D61" t="str">
-        <v>experiencias</v>
+        <v/>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -1442,47 +1442,47 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>curriculo</v>
+        <v>tdics</v>
       </c>
       <c r="B62" t="str">
-        <v>design curricular</v>
+        <v>formacao docente</v>
       </c>
       <c r="C62" t="str">
-        <v>educacao a distancia</v>
+        <v>praticapedagogicahibrida</v>
       </c>
       <c r="D62" t="str">
-        <v>bleedlearning</v>
+        <v/>
       </c>
       <c r="E62" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>capacitacao de professores</v>
+        <v>engajamento</v>
       </c>
       <c r="B63" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C63" t="str">
-        <v>etsus</v>
+        <v>formacao docente</v>
       </c>
       <c r="D63" t="str">
-        <v/>
+        <v>mediacao docente diferenciada</v>
       </c>
       <c r="E63" t="str">
-        <v/>
+        <v>apreizagem virtual</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>cultura escolarizante</v>
+        <v>metodologias ativas e criativas</v>
       </c>
       <c r="B64" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C64" t="str">
-        <v>metodologias ativas</v>
+        <v>formacao pedagogica</v>
       </c>
       <c r="D64" t="str">
         <v/>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
+        <v>metodologias ativas</v>
+      </c>
+      <c r="B65" t="str">
         <v>ensino superior</v>
       </c>
-      <c r="B65" t="str">
-        <v>odontologia</v>
-      </c>
       <c r="C65" t="str">
-        <v>paemia</v>
+        <v>nsino remoto</v>
       </c>
       <c r="D65" t="str">
-        <v>educacao hibrida</v>
+        <v>covid19</v>
       </c>
       <c r="E65" t="str">
         <v/>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>ensino hibrido</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B66" t="str">
-        <v>tdic</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C66" t="str">
-        <v>aulas sincronas</v>
+        <v>multiletramentos</v>
       </c>
       <c r="D66" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E66" t="str">
         <v/>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>ensino para a criatividade</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="B67" t="str">
-        <v>internacionalidade</v>
+        <v>sistema de recomeacao</v>
       </c>
       <c r="C67" t="str">
-        <v>praticas pedagogicas</v>
+        <v>producao textua</v>
       </c>
       <c r="D67" t="str">
-        <v>pensamento criativo</v>
+        <v/>
       </c>
       <c r="E67" t="str">
         <v/>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>reflexao</v>
+        <v>idosos</v>
       </c>
       <c r="B68" t="str">
-        <v>epistemologia</v>
+        <v>ensino coletivo de violao</v>
       </c>
       <c r="C68" t="str">
-        <v>pratica docente</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="D68" t="str">
         <v/>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>ensino superior</v>
+        <v>narrativas digitais</v>
       </c>
       <c r="B69" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C69" t="str">
-        <v>formacao inicial</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D69" t="str">
-        <v>tecnologias digitais</v>
+        <v>formacao docente</v>
       </c>
       <c r="E69" t="str">
         <v/>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>estagio supervisionado</v>
+        <v>competencia digital</v>
       </c>
       <c r="B70" t="str">
-        <v>covid19</v>
+        <v>tdic</v>
       </c>
       <c r="C70" t="str">
-        <v>ensino online emergencial</v>
+        <v>digicompedu</v>
       </c>
       <c r="D70" t="str">
-        <v/>
+        <v>ensino superior tecnologico</v>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>formacao continuada</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B71" t="str">
-        <v>ferramentas digitais</v>
+        <v>covid19</v>
       </c>
       <c r="C71" t="str">
-        <v>ensino superior</v>
+        <v>professores de ciencias</v>
       </c>
       <c r="D71" t="str">
-        <v/>
+        <v>adaptacao</v>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -1612,33 +1612,33 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>museus virtuais</v>
+        <v>pratica da leitura</v>
       </c>
       <c r="B72" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C72" t="str">
-        <v>ensino de historia</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="D72" t="str">
-        <v>estagio supervisionado</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="E72" t="str">
-        <v/>
+        <v>transposicao didatica</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>ensino nao presencia</v>
+        <v>atividade docente</v>
       </c>
       <c r="B73" t="str">
-        <v>cursinho popular</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C73" t="str">
-        <v>acesso ao ensino superior</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="D73" t="str">
-        <v/>
+        <v>dramaticas de uso de si</v>
       </c>
       <c r="E73" t="str">
         <v/>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>tpack</v>
+        <v>ensino de instrumentos de teclado</v>
       </c>
       <c r="B74" t="str">
-        <v>docencia virtual</v>
+        <v>licenciatura em musica</v>
       </c>
       <c r="C74" t="str">
-        <v>tdic</v>
+        <v>ensino nao presencial emergencial enpe</v>
       </c>
       <c r="D74" t="str">
-        <v>profissionalizacao docente</v>
+        <v>ambiente virtual de apreizagem ava</v>
       </c>
       <c r="E74" t="str">
         <v/>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>design thinking</v>
+        <v>paemia</v>
       </c>
       <c r="B75" t="str">
-        <v>teacher training</v>
+        <v>estagio nao presencia</v>
       </c>
       <c r="C75" t="str">
-        <v>digital technologies</v>
+        <v>atuacao docente</v>
       </c>
       <c r="D75" t="str">
-        <v/>
+        <v>experiencias formativas</v>
       </c>
       <c r="E75" t="str">
         <v/>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>avaliacao formativa</v>
+        <v>ensino</v>
       </c>
       <c r="B76" t="str">
-        <v>tecnologias educacionais</v>
+        <v>objetos de apreizagem</v>
       </c>
       <c r="C76" t="str">
-        <v>competencias digitais</v>
+        <v>professores</v>
       </c>
       <c r="D76" t="str">
         <v/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>figura</v>
+        <v>formacao docente</v>
       </c>
       <c r="B77" t="str">
-        <v>figuras geometricas</v>
+        <v>ensino musical escolar</v>
       </c>
       <c r="C77" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D77" t="str">
-        <v/>
+        <v>paemia de covid19</v>
       </c>
       <c r="E77" t="str">
         <v/>
@@ -1714,33 +1714,33 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>formacao continuada de professores</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B78" t="str">
-        <v>educacao ambiental</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C78" t="str">
-        <v>educacao basica</v>
+        <v>uso das tdic</v>
       </c>
       <c r="D78" t="str">
-        <v>revisao sistematica</v>
+        <v/>
       </c>
       <c r="E78" t="str">
-        <v>metodologias de ensino</v>
+        <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>educacao infantil</v>
+        <v>tecnologia</v>
       </c>
       <c r="B79" t="str">
-        <v>formacao continuada</v>
+        <v>pratica docente</v>
       </c>
       <c r="C79" t="str">
-        <v>ensino remoto</v>
+        <v>nativos digitais</v>
       </c>
       <c r="D79" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E79" t="str">
         <v/>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>formacao de professores</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B80" t="str">
-        <v>tdic</v>
+        <v>normativas</v>
       </c>
       <c r="C80" t="str">
-        <v>quimica</v>
+        <v>covid19</v>
       </c>
       <c r="D80" t="str">
-        <v/>
+        <v>ensino hibrido</v>
       </c>
       <c r="E80" t="str">
         <v/>
@@ -1765,16 +1765,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologia</v>
       </c>
       <c r="B81" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao</v>
       </c>
       <c r="C81" t="str">
-        <v>curso de pedagogia</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D81" t="str">
-        <v>pospaemia</v>
+        <v/>
       </c>
       <c r="E81" t="str">
         <v/>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>inovacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B82" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C82" t="str">
-        <v>formacao de professores</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="D82" t="str">
         <v/>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>formacao de professores</v>
+        <v>desenho didatico</v>
       </c>
       <c r="B83" t="str">
-        <v>tpack</v>
+        <v>iagacao online</v>
       </c>
       <c r="C83" t="str">
-        <v>tdic</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D83" t="str">
-        <v>professor reflexivo</v>
+        <v>pesquisaformacao</v>
       </c>
       <c r="E83" t="str">
         <v/>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>educacao infantil</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="B84" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>professores</v>
       </c>
       <c r="C84" t="str">
-        <v>praticas pedagogicas</v>
+        <v>tecnologia</v>
       </c>
       <c r="D84" t="str">
         <v/>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>inovacao educacional</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B85" t="str">
-        <v>tecnologias da informacao e da comunicacao</v>
+        <v>planejamento</v>
       </c>
       <c r="C85" t="str">
-        <v>cursos de licenciaturas</v>
+        <v>pratica docente</v>
       </c>
       <c r="D85" t="str">
-        <v>percepcao discente</v>
+        <v/>
       </c>
       <c r="E85" t="str">
         <v/>
@@ -1850,16 +1850,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>educacao a distancia</v>
+        <v>inovacao pedagogica</v>
       </c>
       <c r="B86" t="str">
-        <v>pedagogia</v>
+        <v>plataformizacao</v>
       </c>
       <c r="C86" t="str">
-        <v>juri simulado</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D86" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E86" t="str">
         <v/>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>digital literacy</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B87" t="str">
-        <v>remote teaching</v>
+        <v>fluencia tecnologicopedagogica</v>
       </c>
       <c r="C87" t="str">
-        <v>dict</v>
+        <v>covid19</v>
       </c>
       <c r="D87" t="str">
         <v/>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>formacao docente</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B88" t="str">
-        <v>pratica docente</v>
+        <v>presencas na ead</v>
       </c>
       <c r="C88" t="str">
-        <v>tecnologias digitais</v>
+        <v>portfolios de apreizagens</v>
       </c>
       <c r="D88" t="str">
         <v/>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>estilos de apreizagem</v>
+        <v>tdic</v>
       </c>
       <c r="B89" t="str">
-        <v>modelo de kolb</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C89" t="str">
-        <v>aplicacao web</v>
+        <v>argumentacao</v>
       </c>
       <c r="D89" t="str">
-        <v/>
+        <v>interacoes discursivas</v>
       </c>
       <c r="E89" t="str">
         <v/>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>tdics</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B90" t="str">
-        <v>formacao docente</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="C90" t="str">
-        <v>praticapedagogicahibrida</v>
+        <v>conhecimentos pedagogicos e tecnologicos</v>
       </c>
       <c r="D90" t="str">
-        <v/>
+        <v>uefined</v>
       </c>
       <c r="E90" t="str">
         <v/>
@@ -1935,30 +1935,30 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>engajamento</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B91" t="str">
-        <v>ensino hibrido</v>
+        <v>programa residencia pedagogica</v>
       </c>
       <c r="C91" t="str">
-        <v>formacao docente</v>
+        <v>tecnologias digitais de ensino</v>
       </c>
       <c r="D91" t="str">
-        <v>mediacao docente diferenciada</v>
+        <v/>
       </c>
       <c r="E91" t="str">
-        <v>apreizagem virtual</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>metodologias ativas e criativas</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B92" t="str">
-        <v>educacao a distancia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C92" t="str">
-        <v>formacao pedagogica</v>
+        <v>educacao basica</v>
       </c>
       <c r="D92" t="str">
         <v/>
@@ -1969,16 +1969,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>metodologias ativas</v>
+        <v>trabalho docente</v>
       </c>
       <c r="B93" t="str">
-        <v>ensino superior</v>
+        <v>tecnologia</v>
       </c>
       <c r="C93" t="str">
-        <v>nsino remoto</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D93" t="str">
-        <v>covid19</v>
+        <v>precarizacao do trabalho docente</v>
       </c>
       <c r="E93" t="str">
         <v/>
@@ -1986,16 +1986,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>formacao continuada</v>
+        <v>ensino</v>
       </c>
       <c r="B94" t="str">
-        <v>tecnologias digitais</v>
+        <v>apreizagem</v>
       </c>
       <c r="C94" t="str">
-        <v>multiletramentos</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="D94" t="str">
-        <v/>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E94" t="str">
         <v/>
@@ -2003,33 +2003,33 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>modelo pedagogico</v>
+        <v>ensino superior</v>
       </c>
       <c r="B95" t="str">
-        <v>sistema de recomeacao</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="C95" t="str">
-        <v>producao textua</v>
+        <v>ambiente virtual de apreizagem</v>
       </c>
       <c r="D95" t="str">
-        <v/>
+        <v>percepcao de professores</v>
       </c>
       <c r="E95" t="str">
-        <v/>
+        <v>percepcao de estudantes</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>idosos</v>
+        <v>covid19</v>
       </c>
       <c r="B96" t="str">
-        <v>ensino coletivo de violao</v>
+        <v>curso online</v>
       </c>
       <c r="C96" t="str">
-        <v>tecnologia digital</v>
+        <v>educacao</v>
       </c>
       <c r="D96" t="str">
-        <v/>
+        <v>sujeitos do campo</v>
       </c>
       <c r="E96" t="str">
         <v/>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>narrativas digitais</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B97" t="str">
-        <v>tecnologias digitais</v>
+        <v>wordwall</v>
       </c>
       <c r="C97" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="D97" t="str">
-        <v>formacao docente</v>
+        <v>percepcao docente</v>
       </c>
       <c r="E97" t="str">
         <v/>
@@ -2054,67 +2054,67 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>competencia digital</v>
+        <v>mediacao pedagogica</v>
       </c>
       <c r="B98" t="str">
-        <v>tdic</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="C98" t="str">
-        <v>digicompedu</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D98" t="str">
-        <v>ensino superior tecnologico</v>
+        <v>siemia</v>
       </c>
       <c r="E98" t="str">
-        <v/>
+        <v>desenho universal para apreizagem</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ensino remoto</v>
+        <v>ensino</v>
       </c>
       <c r="B99" t="str">
+        <v>docente</v>
+      </c>
+      <c r="C99" t="str">
+        <v>tdic</v>
+      </c>
+      <c r="D99" t="str">
+        <v>formacao</v>
+      </c>
+      <c r="E99" t="str">
         <v>covid19</v>
-      </c>
-      <c r="C99" t="str">
-        <v>professores de ciencias</v>
-      </c>
-      <c r="D99" t="str">
-        <v>adaptacao</v>
-      </c>
-      <c r="E99" t="str">
-        <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>pratica da leitura</v>
+        <v>apreizagem mediada</v>
       </c>
       <c r="B100" t="str">
-        <v>ensino hibrido</v>
+        <v>formacao de professore</v>
       </c>
       <c r="C100" t="str">
-        <v>metodologia ativa</v>
+        <v>letramento digital</v>
       </c>
       <c r="D100" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v/>
       </c>
       <c r="E100" t="str">
-        <v>transposicao didatica</v>
+        <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>atividade docente</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="B101" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>educacao basica</v>
       </c>
       <c r="C101" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D101" t="str">
-        <v>dramaticas de uso de si</v>
+        <v>residencia pedagogica</v>
       </c>
       <c r="E101" t="str">
         <v/>
@@ -2122,50 +2122,50 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>ensino de instrumentos de teclado</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B102" t="str">
-        <v>licenciatura em musica</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C102" t="str">
-        <v>ensino nao presencial emergencial enpe</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D102" t="str">
-        <v>ambiente virtual de apreizagem ava</v>
+        <v>formacao continuada de docentes</v>
       </c>
       <c r="E102" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>paemia</v>
+        <v>docencia</v>
       </c>
       <c r="B103" t="str">
-        <v>estagio nao presencia</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C103" t="str">
-        <v>atuacao docente</v>
+        <v>gestao da sala de aula</v>
       </c>
       <c r="D103" t="str">
-        <v>experiencias formativas</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E103" t="str">
-        <v/>
+        <v>ensino presencial</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>ensino</v>
+        <v>competencias</v>
       </c>
       <c r="B104" t="str">
-        <v>objetos de apreizagem</v>
+        <v>jornada</v>
       </c>
       <c r="C104" t="str">
-        <v>professores</v>
+        <v>ambiente remoto</v>
       </c>
       <c r="D104" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E104" t="str">
         <v/>
@@ -2173,33 +2173,33 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>formacao docente</v>
+        <v>pedagogia</v>
       </c>
       <c r="B105" t="str">
-        <v>ensino musical escolar</v>
+        <v>letramento midiatico</v>
       </c>
       <c r="C105" t="str">
-        <v>ensino remoto</v>
+        <v>identidades</v>
       </c>
       <c r="D105" t="str">
-        <v>paemia de covid19</v>
+        <v>epresentacoes sociais</v>
       </c>
       <c r="E105" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>educacao hibrida</v>
+        <v>tecnologias de informacao e comunicacao tics</v>
       </c>
       <c r="B106" t="str">
-        <v>formacao de professores</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C106" t="str">
-        <v>uso das tdic</v>
+        <v>docentes</v>
       </c>
       <c r="D106" t="str">
-        <v/>
+        <v>contabilidade</v>
       </c>
       <c r="E106" t="str">
         <v/>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>tecnologia</v>
+        <v>tpack</v>
       </c>
       <c r="B107" t="str">
-        <v>pratica docente</v>
+        <v>formacao de professores de linguas</v>
       </c>
       <c r="C107" t="str">
-        <v>nativos digitais</v>
+        <v>portugues como lingua adicional</v>
       </c>
       <c r="D107" t="str">
         <v/>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>educacao infantil</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B108" t="str">
-        <v>normativas</v>
+        <v>planejamento didatico</v>
       </c>
       <c r="C108" t="str">
-        <v>covid19</v>
+        <v>desempenho academico</v>
       </c>
       <c r="D108" t="str">
-        <v>ensino hibrido</v>
+        <v/>
       </c>
       <c r="E108" t="str">
         <v/>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>tecnologia</v>
+        <v>teletrabalho</v>
       </c>
       <c r="B109" t="str">
-        <v>educacao</v>
+        <v>jornada de trabalho</v>
       </c>
       <c r="C109" t="str">
-        <v>trabalho docente</v>
+        <v>idademidia</v>
       </c>
       <c r="D109" t="str">
-        <v/>
+        <v>culturadigital</v>
       </c>
       <c r="E109" t="str">
         <v/>
@@ -2258,16 +2258,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>formacao de professores</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B110" t="str">
-        <v>ensino de ciencias</v>
+        <v>tecnologia</v>
       </c>
       <c r="C110" t="str">
-        <v>pensamento computacional</v>
+        <v>professor</v>
       </c>
       <c r="D110" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E110" t="str">
         <v/>
@@ -2275,16 +2275,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>desenho didatico</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B111" t="str">
-        <v>iagacao online</v>
+        <v>avaliacao</v>
       </c>
       <c r="C111" t="str">
-        <v>praticas pedagogicas</v>
+        <v>paemia</v>
       </c>
       <c r="D111" t="str">
-        <v>pesquisaformacao</v>
+        <v/>
       </c>
       <c r="E111" t="str">
         <v/>
@@ -2292,30 +2292,30 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>ensinoapreizagem</v>
+        <v>docencia</v>
       </c>
       <c r="B112" t="str">
-        <v>professores</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="C112" t="str">
-        <v>tecnologia</v>
+        <v>ensino superior</v>
       </c>
       <c r="D112" t="str">
-        <v/>
+        <v>especializacao</v>
       </c>
       <c r="E112" t="str">
-        <v/>
+        <v>comunidades de pratica</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
+        <v>ensino de linguas</v>
+      </c>
+      <c r="B113" t="str">
         <v>formacao de professores</v>
       </c>
-      <c r="B113" t="str">
-        <v>planejamento</v>
-      </c>
       <c r="C113" t="str">
-        <v>pratica docente</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D113" t="str">
         <v/>
@@ -2326,30 +2326,30 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>inovacao pedagogica</v>
+        <v>calculadoras eletronicas</v>
       </c>
       <c r="B114" t="str">
-        <v>plataformizacao</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C114" t="str">
-        <v>trabalho docente</v>
+        <v>estudos cts</v>
       </c>
       <c r="D114" t="str">
-        <v>paemia covid19</v>
+        <v>controversia controlada</v>
       </c>
       <c r="E114" t="str">
-        <v/>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>formacao continuada de professores</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="B115" t="str">
-        <v>fluencia tecnologicopedagogica</v>
+        <v>professor</v>
       </c>
       <c r="C115" t="str">
-        <v>covid19</v>
+        <v>paemia</v>
       </c>
       <c r="D115" t="str">
         <v/>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>educacao a distancia</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B116" t="str">
-        <v>presencas na ead</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C116" t="str">
-        <v>portfolios de apreizagens</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D116" t="str">
-        <v/>
+        <v>relato de experiencia</v>
       </c>
       <c r="E116" t="str">
         <v/>
@@ -2377,50 +2377,50 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>tdic</v>
+        <v>parasitologia</v>
       </c>
       <c r="B117" t="str">
-        <v>praticas pedagogicas</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="C117" t="str">
-        <v>argumentacao</v>
+        <v>instrumento de avaliacao</v>
       </c>
       <c r="D117" t="str">
-        <v>interacoes discursivas</v>
+        <v>avaliacao de materiais didaticos online</v>
       </c>
       <c r="E117" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>formacao continuada de professores</v>
+        <v>docencia universitaria</v>
       </c>
       <c r="B118" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>inteligencia artificial</v>
       </c>
       <c r="C118" t="str">
-        <v>conhecimentos pedagogicos e tecnologicos</v>
+        <v>automacao</v>
       </c>
       <c r="D118" t="str">
-        <v>uefined</v>
+        <v>educacao</v>
       </c>
       <c r="E118" t="str">
-        <v/>
+        <v>algoritimo</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>formacao de professores</v>
+        <v>vulnerabilidades</v>
       </c>
       <c r="B119" t="str">
-        <v>programa residencia pedagogica</v>
+        <v>escolas paulistas</v>
       </c>
       <c r="C119" t="str">
-        <v>tecnologias digitais de ensino</v>
+        <v>desigualdades socioeconomicas</v>
       </c>
       <c r="D119" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E119" t="str">
         <v/>
@@ -2428,16 +2428,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>ensino hibrido</v>
+        <v>adolescencia</v>
       </c>
       <c r="B120" t="str">
-        <v>formacao de professores</v>
+        <v>apreizagem por projeto</v>
       </c>
       <c r="C120" t="str">
-        <v>educacao basica</v>
+        <v>jogo psicoeducativo</v>
       </c>
       <c r="D120" t="str">
-        <v/>
+        <v>psicologia</v>
       </c>
       <c r="E120" t="str">
         <v/>
@@ -2445,33 +2445,33 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>trabalho docente</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B121" t="str">
+        <v>internet</v>
+      </c>
+      <c r="C121" t="str">
         <v>tecnologia</v>
       </c>
-      <c r="C121" t="str">
-        <v>formacao de professores</v>
-      </c>
       <c r="D121" t="str">
-        <v>precarizacao do trabalho docente</v>
+        <v>ferramentas do moodle</v>
       </c>
       <c r="E121" t="str">
-        <v/>
+        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>ensino</v>
+        <v>videoanalise</v>
       </c>
       <c r="B122" t="str">
-        <v>apreizagem</v>
+        <v>tracker</v>
       </c>
       <c r="C122" t="str">
-        <v>apreizagem invertida</v>
+        <v>experiencia virtual</v>
       </c>
       <c r="D122" t="str">
-        <v>sala de aula invertida</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E122" t="str">
         <v/>
@@ -2479,50 +2479,50 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>ensino superior</v>
+        <v>moodle</v>
       </c>
       <c r="B123" t="str">
-        <v>pratica pedagogica</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C123" t="str">
-        <v>ambiente virtual de apreizagem</v>
+        <v>educacao mediada por tecnologias digitais</v>
       </c>
       <c r="D123" t="str">
-        <v>percepcao de professores</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E123" t="str">
-        <v>percepcao de estudantes</v>
+        <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>covid19</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="B124" t="str">
-        <v>curso online</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C124" t="str">
-        <v>educacao</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D124" t="str">
-        <v>sujeitos do campo</v>
+        <v>licenciatura</v>
       </c>
       <c r="E124" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>jogos digitais</v>
+        <v>audiovisual</v>
       </c>
       <c r="B125" t="str">
-        <v>wordwall</v>
+        <v>educacao</v>
       </c>
       <c r="C125" t="str">
-        <v>ensino e apreizagem</v>
+        <v>tecnologia</v>
       </c>
       <c r="D125" t="str">
-        <v>percepcao docente</v>
+        <v/>
       </c>
       <c r="E125" t="str">
         <v/>
@@ -2530,67 +2530,67 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>mediacao pedagogica</v>
+        <v>educacao matematica</v>
       </c>
       <c r="B126" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>genero</v>
       </c>
       <c r="C126" t="str">
-        <v>educacao inclusiva</v>
+        <v>geometria</v>
       </c>
       <c r="D126" t="str">
-        <v>siemia</v>
+        <v>representatividade</v>
       </c>
       <c r="E126" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>tecnologia</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>ensino</v>
+        <v>tecnologia</v>
       </c>
       <c r="B127" t="str">
-        <v>docente</v>
+        <v>ateimento educacional especializado aee</v>
       </c>
       <c r="C127" t="str">
-        <v>tdic</v>
+        <v>sala de recurso multifuncional</v>
       </c>
       <c r="D127" t="str">
-        <v>formacao</v>
+        <v/>
       </c>
       <c r="E127" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>apreizagem mediada</v>
+        <v>ensino</v>
       </c>
       <c r="B128" t="str">
-        <v>formacao de professore</v>
+        <v>apreizagem</v>
       </c>
       <c r="C128" t="str">
-        <v>letramento digital</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D128" t="str">
-        <v/>
+        <v>atlas</v>
       </c>
       <c r="E128" t="str">
-        <v/>
+        <v>quimica</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>praticas pedagogicas</v>
+        <v>redes sociais</v>
       </c>
       <c r="B129" t="str">
-        <v>educacao basica</v>
+        <v>engajamento</v>
       </c>
       <c r="C129" t="str">
-        <v>ensino remoto</v>
+        <v>apreizagem</v>
       </c>
       <c r="D129" t="str">
-        <v>residencia pedagogica</v>
+        <v/>
       </c>
       <c r="E129" t="str">
         <v/>
@@ -2598,50 +2598,50 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>educacao a distancia</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B130" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>avaliacao de programas</v>
       </c>
       <c r="C130" t="str">
-        <v>plataforma moodle</v>
+        <v>tecnologias educacionaisdigitais</v>
       </c>
       <c r="D130" t="str">
-        <v>formacao continuada de docentes</v>
+        <v/>
       </c>
       <c r="E130" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>docencia</v>
+        <v>whatsapp</v>
       </c>
       <c r="B131" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino</v>
       </c>
       <c r="C131" t="str">
-        <v>gestao da sala de aula</v>
+        <v>apreizagem</v>
       </c>
       <c r="D131" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E131" t="str">
-        <v>ensino presencial</v>
+        <v/>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>competencias</v>
+        <v>blog</v>
       </c>
       <c r="B132" t="str">
-        <v>jornada</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C132" t="str">
-        <v>ambiente remoto</v>
+        <v>estrategia didatica</v>
       </c>
       <c r="D132" t="str">
-        <v>tecnologias</v>
+        <v>mediacao</v>
       </c>
       <c r="E132" t="str">
         <v/>
@@ -2649,33 +2649,33 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>pedagogia</v>
+        <v>design</v>
       </c>
       <c r="B133" t="str">
-        <v>letramento midiatico</v>
+        <v>qualificacao profissional</v>
       </c>
       <c r="C133" t="str">
-        <v>identidades</v>
+        <v>educacao ambienta</v>
       </c>
       <c r="D133" t="str">
-        <v>epresentacoes sociais</v>
+        <v/>
       </c>
       <c r="E133" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>tecnologias de informacao e comunicacao tics</v>
+        <v>educacao</v>
       </c>
       <c r="B134" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologia</v>
       </c>
       <c r="C134" t="str">
-        <v>docentes</v>
+        <v>competencias midiaticas e em informacao</v>
       </c>
       <c r="D134" t="str">
-        <v>contabilidade</v>
+        <v/>
       </c>
       <c r="E134" t="str">
         <v/>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>tpack</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="B135" t="str">
-        <v>formacao de professores de linguas</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C135" t="str">
-        <v>portugues como lingua adicional</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="D135" t="str">
-        <v/>
+        <v>ferramentas digitais</v>
       </c>
       <c r="E135" t="str">
         <v/>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="B136" t="str">
-        <v>planejamento didatico</v>
+        <v>apreizagem</v>
       </c>
       <c r="C136" t="str">
-        <v>desempenho academico</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D136" t="str">
         <v/>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>teletrabalho</v>
+        <v>educacao superior</v>
       </c>
       <c r="B137" t="str">
-        <v>jornada de trabalho</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C137" t="str">
-        <v>idademidia</v>
+        <v>cultura maker</v>
       </c>
       <c r="D137" t="str">
-        <v>culturadigital</v>
+        <v>podcast</v>
       </c>
       <c r="E137" t="str">
         <v/>
@@ -2734,16 +2734,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>ensino remoto</v>
+        <v>anormalidades craniofaciais</v>
       </c>
       <c r="B138" t="str">
-        <v>tecnologia</v>
+        <v>curadoria de dados</v>
       </c>
       <c r="C138" t="str">
-        <v>professor</v>
+        <v>rede social</v>
       </c>
       <c r="D138" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E138" t="str">
         <v/>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>ensino remoto</v>
+        <v>gamificacao</v>
       </c>
       <c r="B139" t="str">
-        <v>avaliacao</v>
+        <v>metodologias de ensino</v>
       </c>
       <c r="C139" t="str">
-        <v>paemia</v>
+        <v>jogo</v>
       </c>
       <c r="D139" t="str">
-        <v/>
+        <v>ciencias ambientais</v>
       </c>
       <c r="E139" t="str">
         <v/>
@@ -2768,64 +2768,64 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>docencia</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B140" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C140" t="str">
-        <v>ensino superior</v>
+        <v>jogo eletronico</v>
       </c>
       <c r="D140" t="str">
-        <v>especializacao</v>
+        <v>lixo toxico</v>
       </c>
       <c r="E140" t="str">
-        <v>comunidades de pratica</v>
+        <v>tabela periodica</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>ensino de linguas</v>
+        <v>direitos autorais</v>
       </c>
       <c r="B141" t="str">
-        <v>formacao de professores</v>
+        <v>internet</v>
       </c>
       <c r="C141" t="str">
-        <v>tecnologias digitais</v>
+        <v>plagio</v>
       </c>
       <c r="D141" t="str">
-        <v/>
+        <v>material didatico</v>
       </c>
       <c r="E141" t="str">
-        <v/>
+        <v>trabalho academico</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>calculadoras eletronicas</v>
+        <v>material didatico</v>
       </c>
       <c r="B142" t="str">
-        <v>educacao matematica</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="C142" t="str">
-        <v>estudos cts</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D142" t="str">
-        <v>controversia controlada</v>
+        <v>compartilhamento</v>
       </c>
       <c r="E142" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>estrategia pedagogica</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>raple</v>
       </c>
       <c r="B143" t="str">
-        <v>professor</v>
+        <v>repositorios</v>
       </c>
       <c r="C143" t="str">
-        <v>paemia</v>
+        <v>planos de aula</v>
       </c>
       <c r="D143" t="str">
         <v/>
@@ -2836,16 +2836,16 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>jogos digitais</v>
+        <v>wifi</v>
       </c>
       <c r="B144" t="str">
-        <v>educacao matematica</v>
+        <v>iot</v>
       </c>
       <c r="C144" t="str">
-        <v>formacao de professores</v>
+        <v>internet das coisas</v>
       </c>
       <c r="D144" t="str">
-        <v>relato de experiencia</v>
+        <v/>
       </c>
       <c r="E144" t="str">
         <v/>
@@ -2853,16 +2853,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>parasitologia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B145" t="str">
-        <v>materiais didaticos</v>
+        <v>posgraduacao</v>
       </c>
       <c r="C145" t="str">
-        <v>instrumento de avaliacao</v>
+        <v>covid19</v>
       </c>
       <c r="D145" t="str">
-        <v>avaliacao de materiais didaticos online</v>
+        <v>bleed learning</v>
       </c>
       <c r="E145" t="str">
         <v>ensino</v>
@@ -2870,50 +2870,50 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>docencia universitaria</v>
+        <v>enriquecimento curricular online</v>
       </c>
       <c r="B146" t="str">
-        <v>inteligencia artificial</v>
+        <v>aplicativo para celular</v>
       </c>
       <c r="C146" t="str">
-        <v>automacao</v>
+        <v>personalizacao do ensino</v>
       </c>
       <c r="D146" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E146" t="str">
-        <v>algoritimo</v>
+        <v/>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>vulnerabilidades</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B147" t="str">
-        <v>escolas paulistas</v>
+        <v>tecnologia</v>
       </c>
       <c r="C147" t="str">
-        <v>desigualdades socioeconomicas</v>
+        <v>saude</v>
       </c>
       <c r="D147" t="str">
-        <v>tecnologias</v>
+        <v>educacao online</v>
       </c>
       <c r="E147" t="str">
-        <v/>
+        <v>territorialidade</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>adolescencia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B148" t="str">
-        <v>apreizagem por projeto</v>
+        <v>formacao docente</v>
       </c>
       <c r="C148" t="str">
-        <v>jogo psicoeducativo</v>
+        <v>tdic</v>
       </c>
       <c r="D148" t="str">
-        <v>psicologia</v>
+        <v/>
       </c>
       <c r="E148" t="str">
         <v/>
@@ -2921,33 +2921,33 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>ensino remoto</v>
+        <v>gamificacao</v>
       </c>
       <c r="B149" t="str">
-        <v>internet</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C149" t="str">
-        <v>tecnologia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D149" t="str">
-        <v>ferramentas do moodle</v>
+        <v/>
       </c>
       <c r="E149" t="str">
-        <v>materiais didaticos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>videoanalise</v>
+        <v>historia da matematica</v>
       </c>
       <c r="B150" t="str">
-        <v>tracker</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C150" t="str">
-        <v>experiencia virtual</v>
+        <v>minicurso</v>
       </c>
       <c r="D150" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E150" t="str">
         <v/>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>moodle</v>
+        <v>educacao em saude</v>
       </c>
       <c r="B151" t="str">
-        <v>sequencia didatica</v>
+        <v>jogos serios</v>
       </c>
       <c r="C151" t="str">
-        <v>educacao mediada por tecnologias digitais</v>
+        <v>emergencia</v>
       </c>
       <c r="D151" t="str">
-        <v>educacao a distancia</v>
+        <v>cardiologia</v>
       </c>
       <c r="E151" t="str">
         <v/>
@@ -2972,64 +2972,64 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>sequencia didatica</v>
+        <v>interatividade</v>
       </c>
       <c r="B152" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C152" t="str">
-        <v>ensino de ciencias</v>
+        <v>youtube</v>
       </c>
       <c r="D152" t="str">
-        <v>licenciatura</v>
+        <v>mediacao</v>
       </c>
       <c r="E152" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audiovisual</v>
+        <v>colonialismo digital</v>
       </c>
       <c r="B153" t="str">
-        <v>educacao</v>
+        <v>educacao online</v>
       </c>
       <c r="C153" t="str">
-        <v>tecnologia</v>
+        <v>letramentos</v>
       </c>
       <c r="D153" t="str">
-        <v/>
+        <v>ensin osuperior</v>
       </c>
       <c r="E153" t="str">
-        <v/>
+        <v>decolonialidade digital</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>educacao matematica</v>
+        <v>jogo</v>
       </c>
       <c r="B154" t="str">
-        <v>genero</v>
+        <v>ensino</v>
       </c>
       <c r="C154" t="str">
-        <v>geometria</v>
+        <v>apreizagem</v>
       </c>
       <c r="D154" t="str">
-        <v>representatividade</v>
+        <v>digital</v>
       </c>
       <c r="E154" t="str">
-        <v>tecnologia</v>
+        <v>ambiente virtual</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>tecnologia</v>
+        <v>laboratorios remotos</v>
       </c>
       <c r="B155" t="str">
-        <v>ateimento educacional especializado aee</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C155" t="str">
-        <v>sala de recurso multifuncional</v>
+        <v>divulgacao ciefica</v>
       </c>
       <c r="D155" t="str">
         <v/>
@@ -3040,30 +3040,30 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>ensino</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B156" t="str">
-        <v>apreizagem</v>
+        <v>trilhas de apreizagem</v>
       </c>
       <c r="C156" t="str">
-        <v>tecnologias digitais</v>
+        <v>autoria</v>
       </c>
       <c r="D156" t="str">
-        <v>atlas</v>
+        <v/>
       </c>
       <c r="E156" t="str">
-        <v>quimica</v>
+        <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>redes sociais</v>
+        <v>tutor</v>
       </c>
       <c r="B157" t="str">
-        <v>engajamento</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C157" t="str">
-        <v>apreizagem</v>
+        <v>paemia da covid19</v>
       </c>
       <c r="D157" t="str">
         <v/>
@@ -3074,16 +3074,16 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>metaavaliacao</v>
+        <v>educacao</v>
       </c>
       <c r="B158" t="str">
-        <v>avaliacao de programas</v>
+        <v>comunicacao</v>
       </c>
       <c r="C158" t="str">
-        <v>tecnologias educacionaisdigitais</v>
+        <v>audiovisual</v>
       </c>
       <c r="D158" t="str">
-        <v/>
+        <v>roteiro</v>
       </c>
       <c r="E158" t="str">
         <v/>
@@ -3091,16 +3091,16 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>whatsapp</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B159" t="str">
-        <v>ensino</v>
+        <v>disciplinas regulares</v>
       </c>
       <c r="C159" t="str">
-        <v>apreizagem</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D159" t="str">
-        <v/>
+        <v>presencialidade</v>
       </c>
       <c r="E159" t="str">
         <v/>
@@ -3108,16 +3108,16 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>blog</v>
+        <v>ambiente virtual</v>
       </c>
       <c r="B160" t="str">
-        <v>educacao hibrida</v>
+        <v>moodle</v>
       </c>
       <c r="C160" t="str">
-        <v>estrategia didatica</v>
+        <v>educacao basica</v>
       </c>
       <c r="D160" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E160" t="str">
         <v/>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>design</v>
+        <v>bleed learning</v>
       </c>
       <c r="B161" t="str">
-        <v>qualificacao profissional</v>
+        <v>soft skills</v>
       </c>
       <c r="C161" t="str">
-        <v>educacao ambienta</v>
+        <v>educacao gerencial</v>
       </c>
       <c r="D161" t="str">
         <v/>
@@ -3142,16 +3142,16 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>educacao</v>
+        <v>docencia</v>
       </c>
       <c r="B162" t="str">
-        <v>tecnologia</v>
+        <v>educacao digital</v>
       </c>
       <c r="C162" t="str">
-        <v>competencias midiaticas e em informacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D162" t="str">
-        <v/>
+        <v>uneb</v>
       </c>
       <c r="E162" t="str">
         <v/>
@@ -3159,50 +3159,50 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>design instrucional</v>
       </c>
       <c r="B163" t="str">
-        <v>formacao continuada</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C163" t="str">
-        <v>recursos educacionais</v>
+        <v>ensino superior</v>
       </c>
       <c r="D163" t="str">
-        <v>ferramentas digitais</v>
+        <v>ensino a distancia e digital</v>
       </c>
       <c r="E163" t="str">
-        <v/>
+        <v>microcredenciais</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>evasao no ensino superior</v>
+        <v>acentuacao grafica</v>
       </c>
       <c r="B164" t="str">
         <v>apreizagem</v>
       </c>
       <c r="C164" t="str">
-        <v>plataforma moodle</v>
+        <v>dificuldades</v>
       </c>
       <c r="D164" t="str">
-        <v/>
+        <v>motivacao</v>
       </c>
       <c r="E164" t="str">
-        <v/>
+        <v>metodologia ativa kahoot recursos digitais</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>educacao superior</v>
+        <v>avaliacao inovadora</v>
       </c>
       <c r="B165" t="str">
-        <v>apreizagem ativa</v>
+        <v>software de avaliacao qualitativa</v>
       </c>
       <c r="C165" t="str">
-        <v>cultura maker</v>
+        <v>feedback de avaliacao</v>
       </c>
       <c r="D165" t="str">
-        <v>podcast</v>
+        <v>percurso de apreizagem personalizada</v>
       </c>
       <c r="E165" t="str">
         <v/>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>anormalidades craniofaciais</v>
+        <v>mooc</v>
       </c>
       <c r="B166" t="str">
-        <v>curadoria de dados</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="C166" t="str">
-        <v>rede social</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D166" t="str">
         <v/>
@@ -3227,16 +3227,16 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>gamificacao</v>
+        <v>kahoot</v>
       </c>
       <c r="B167" t="str">
-        <v>metodologias de ensino</v>
+        <v>paemia</v>
       </c>
       <c r="C167" t="str">
-        <v>jogo</v>
+        <v>covid19</v>
       </c>
       <c r="D167" t="str">
-        <v>ciencias ambientais</v>
+        <v>motivacao</v>
       </c>
       <c r="E167" t="str">
         <v/>
@@ -3244,64 +3244,64 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>ensino de quimica</v>
+        <v>ensino medio</v>
       </c>
       <c r="B168" t="str">
-        <v>material didatico digital</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C168" t="str">
-        <v>jogo eletronico</v>
+        <v>generos digitais</v>
       </c>
       <c r="D168" t="str">
-        <v>lixo toxico</v>
+        <v>lingua portuguesa</v>
       </c>
       <c r="E168" t="str">
-        <v>tabela periodica</v>
+        <v/>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>direitos autorais</v>
+        <v>alfabetizacao</v>
       </c>
       <c r="B169" t="str">
-        <v>internet</v>
+        <v>letramento</v>
       </c>
       <c r="C169" t="str">
-        <v>plagio</v>
+        <v>autismo</v>
       </c>
       <c r="D169" t="str">
-        <v>material didatico</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="E169" t="str">
-        <v>trabalho academico</v>
+        <v/>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>material didatico</v>
+        <v>moodle</v>
       </c>
       <c r="B170" t="str">
-        <v>recursos educacionais</v>
+        <v>efl</v>
       </c>
       <c r="C170" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>textbook</v>
       </c>
       <c r="D170" t="str">
-        <v>compartilhamento</v>
+        <v/>
       </c>
       <c r="E170" t="str">
-        <v>estrategia pedagogica</v>
+        <v/>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>raple</v>
+        <v>evasao</v>
       </c>
       <c r="B171" t="str">
-        <v>repositorios</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C171" t="str">
-        <v>planos de aula</v>
+        <v>ferramenta de software</v>
       </c>
       <c r="D171" t="str">
         <v/>
@@ -3312,47 +3312,47 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>wifi</v>
+        <v>materiais</v>
       </c>
       <c r="B172" t="str">
-        <v>iot</v>
+        <v>atividades</v>
       </c>
       <c r="C172" t="str">
-        <v>internet das coisas</v>
+        <v>midias</v>
       </c>
       <c r="D172" t="str">
-        <v/>
+        <v>ead</v>
       </c>
       <c r="E172" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>metodologias ativas</v>
+        <v>revisao de escopo</v>
       </c>
       <c r="B173" t="str">
-        <v>posgraduacao</v>
+        <v>jogos digitais</v>
       </c>
       <c r="C173" t="str">
-        <v>covid19</v>
+        <v>midias</v>
       </c>
       <c r="D173" t="str">
-        <v>bleed learning</v>
+        <v>paemia</v>
       </c>
       <c r="E173" t="str">
-        <v>ensino</v>
+        <v>praticas pedagogicas</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>enriquecimento curricular online</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="B174" t="str">
-        <v>aplicativo para celular</v>
+        <v>educacao infantil</v>
       </c>
       <c r="C174" t="str">
-        <v>personalizacao do ensino</v>
+        <v>scratchjr</v>
       </c>
       <c r="D174" t="str">
         <v/>
@@ -3363,33 +3363,33 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>educacao a distancia</v>
+        <v>multimodalidade</v>
       </c>
       <c r="B175" t="str">
-        <v>tecnologia</v>
+        <v>videos com conteudo matematico</v>
       </c>
       <c r="C175" t="str">
-        <v>saude</v>
+        <v>livro didatico</v>
       </c>
       <c r="D175" t="str">
-        <v>educacao online</v>
+        <v/>
       </c>
       <c r="E175" t="str">
-        <v>territorialidade</v>
+        <v/>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>leitura</v>
       </c>
       <c r="B176" t="str">
-        <v>formacao docente</v>
+        <v>escrita</v>
       </c>
       <c r="C176" t="str">
-        <v>tdic</v>
+        <v>habilidades matematicas</v>
       </c>
       <c r="D176" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E176" t="str">
         <v/>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>gamificacao</v>
+        <v>planejamento na ead</v>
       </c>
       <c r="B177" t="str">
-        <v>ensino de ciencias</v>
+        <v>estrategias pedagogicas</v>
       </c>
       <c r="C177" t="str">
-        <v>metodologias ativas</v>
+        <v>moodle no ensino presencial</v>
       </c>
       <c r="D177" t="str">
         <v/>
@@ -3414,13 +3414,13 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>historia da matematica</v>
+        <v>realidade aumentada</v>
       </c>
       <c r="B178" t="str">
-        <v>sequencia didatica</v>
+        <v>geografia</v>
       </c>
       <c r="C178" t="str">
-        <v>minicurso</v>
+        <v>educacao</v>
       </c>
       <c r="D178" t="str">
         <v/>
@@ -3431,33 +3431,33 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>educacao em saude</v>
+        <v>ensino</v>
       </c>
       <c r="B179" t="str">
-        <v>jogos serios</v>
+        <v>apreizagem</v>
       </c>
       <c r="C179" t="str">
-        <v>emergencia</v>
+        <v>ferramentas</v>
       </c>
       <c r="D179" t="str">
-        <v>cardiologia</v>
+        <v>programacao</v>
       </c>
       <c r="E179" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>interatividade</v>
+        <v>ila</v>
       </c>
       <c r="B180" t="str">
-        <v>tecnologia</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C180" t="str">
-        <v>youtube</v>
+        <v>diretrizes</v>
       </c>
       <c r="D180" t="str">
-        <v>mediacao</v>
+        <v>ead</v>
       </c>
       <c r="E180" t="str">
         <v/>
@@ -3465,64 +3465,64 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>colonialismo digital</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="B181" t="str">
-        <v>educacao online</v>
+        <v>ciencia fisica</v>
       </c>
       <c r="C181" t="str">
-        <v>letramentos</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D181" t="str">
-        <v>ensin osuperior</v>
+        <v>tecnologia no ensino</v>
       </c>
       <c r="E181" t="str">
-        <v>decolonialidade digital</v>
+        <v>podcast de ciencias</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>jogo</v>
+        <v>kahoot</v>
       </c>
       <c r="B182" t="str">
-        <v>ensino</v>
+        <v>gamificacao</v>
       </c>
       <c r="C182" t="str">
-        <v>apreizagem</v>
+        <v>jogos digitais</v>
       </c>
       <c r="D182" t="str">
-        <v>digital</v>
+        <v/>
       </c>
       <c r="E182" t="str">
-        <v>ambiente virtual</v>
+        <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>laboratorios remotos</v>
+        <v>biodiesel</v>
       </c>
       <c r="B183" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="C183" t="str">
-        <v>divulgacao ciefica</v>
+        <v>eja</v>
       </c>
       <c r="D183" t="str">
-        <v/>
+        <v>games</v>
       </c>
       <c r="E183" t="str">
-        <v/>
+        <v>phet</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>educacao a distancia</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B184" t="str">
-        <v>trilhas de apreizagem</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C184" t="str">
-        <v>autoria</v>
+        <v>oficinas</v>
       </c>
       <c r="D184" t="str">
         <v/>
@@ -3533,16 +3533,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>tutor</v>
+        <v>maker</v>
       </c>
       <c r="B185" t="str">
-        <v>educacao a distancia</v>
+        <v>robotica</v>
       </c>
       <c r="C185" t="str">
-        <v>paemia da covid19</v>
+        <v>criatividade</v>
       </c>
       <c r="D185" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E185" t="str">
         <v/>
@@ -3550,33 +3550,33 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>educacao</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B186" t="str">
-        <v>comunicacao</v>
+        <v>fake news</v>
       </c>
       <c r="C186" t="str">
-        <v>audiovisual</v>
+        <v>vacina</v>
       </c>
       <c r="D186" t="str">
-        <v>roteiro</v>
+        <v>educacao midiatica</v>
       </c>
       <c r="E186" t="str">
-        <v/>
+        <v>ensino fuamental</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>educacao a distancia</v>
+        <v>metodologiaativa</v>
       </c>
       <c r="B187" t="str">
-        <v>disciplinas regulares</v>
+        <v>processosdeensinoe apreizagem</v>
       </c>
       <c r="C187" t="str">
-        <v>metodologias ativas</v>
+        <v>trabalho em equipe</v>
       </c>
       <c r="D187" t="str">
-        <v>presencialidade</v>
+        <v>team based learning</v>
       </c>
       <c r="E187" t="str">
         <v/>
@@ -3584,13 +3584,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>ambiente virtual</v>
+        <v>educacao</v>
       </c>
       <c r="B188" t="str">
-        <v>moodle</v>
+        <v>tecnologia</v>
       </c>
       <c r="C188" t="str">
-        <v>educacao basica</v>
+        <v>producoes filmicas</v>
       </c>
       <c r="D188" t="str">
         <v/>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>bleed learning</v>
+        <v>technology</v>
       </c>
       <c r="B189" t="str">
-        <v>soft skills</v>
+        <v>education</v>
       </c>
       <c r="C189" t="str">
-        <v>educacao gerencial</v>
+        <v>deaf</v>
       </c>
       <c r="D189" t="str">
         <v/>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>docencia</v>
+        <v>psicologia social</v>
       </c>
       <c r="B190" t="str">
-        <v>educacao digital</v>
+        <v>recursos didaticos audiovisuais</v>
       </c>
       <c r="C190" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>video educacional</v>
       </c>
       <c r="D190" t="str">
-        <v>uneb</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E190" t="str">
         <v/>
@@ -3635,50 +3635,50 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>design instrucional</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B191" t="str">
-        <v>formacao de professores</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="C191" t="str">
-        <v>ensino superior</v>
+        <v>escolas do campo</v>
       </c>
       <c r="D191" t="str">
-        <v>ensino a distancia e digital</v>
+        <v/>
       </c>
       <c r="E191" t="str">
-        <v>microcredenciais</v>
+        <v/>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>acentuacao grafica</v>
+        <v>portal educativo</v>
       </c>
       <c r="B192" t="str">
-        <v>apreizagem</v>
+        <v>teste de usabilidade</v>
       </c>
       <c r="C192" t="str">
-        <v>dificuldades</v>
+        <v>ensino medio</v>
       </c>
       <c r="D192" t="str">
-        <v>motivacao</v>
+        <v/>
       </c>
       <c r="E192" t="str">
-        <v>metodologia ativa kahoot recursos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>avaliacao inovadora</v>
+        <v>design thinking</v>
       </c>
       <c r="B193" t="str">
-        <v>software de avaliacao qualitativa</v>
+        <v>apreizagem</v>
       </c>
       <c r="C193" t="str">
-        <v>feedback de avaliacao</v>
+        <v>algoritmos</v>
       </c>
       <c r="D193" t="str">
-        <v>percurso de apreizagem personalizada</v>
+        <v>nocode</v>
       </c>
       <c r="E193" t="str">
         <v/>
@@ -3686,13 +3686,13 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>mooc</v>
+        <v>apreizagem baseada em projetos</v>
       </c>
       <c r="B194" t="str">
-        <v>sala de aula invertida</v>
+        <v>scrum</v>
       </c>
       <c r="C194" t="str">
-        <v>tecnologias educacionais</v>
+        <v>multidisciplinalidade e tecnologias emergentes</v>
       </c>
       <c r="D194" t="str">
         <v/>
@@ -3703,50 +3703,50 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>kahoot</v>
+        <v>whatsapp</v>
       </c>
       <c r="B195" t="str">
-        <v>paemia</v>
+        <v>estado da arte</v>
       </c>
       <c r="C195" t="str">
-        <v>covid19</v>
+        <v>tdic</v>
       </c>
       <c r="D195" t="str">
-        <v>motivacao</v>
+        <v>ferramenta pedagogica</v>
       </c>
       <c r="E195" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>ensino medio</v>
+        <v>cenarios de apreizagem interativos</v>
       </c>
       <c r="B196" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>cia</v>
       </c>
       <c r="C196" t="str">
-        <v>generos digitais</v>
+        <v>interacoes</v>
       </c>
       <c r="D196" t="str">
-        <v>lingua portuguesa</v>
+        <v>entropia</v>
       </c>
       <c r="E196" t="str">
-        <v/>
+        <v>aula virtual</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>alfabetizacao</v>
+        <v>tdic</v>
       </c>
       <c r="B197" t="str">
-        <v>letramento</v>
+        <v>ensino</v>
       </c>
       <c r="C197" t="str">
-        <v>autismo</v>
+        <v>climatologia</v>
       </c>
       <c r="D197" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v/>
       </c>
       <c r="E197" t="str">
         <v/>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>moodle</v>
+        <v>gamificacao</v>
       </c>
       <c r="B198" t="str">
-        <v>efl</v>
+        <v>ensino</v>
       </c>
       <c r="C198" t="str">
-        <v>textbook</v>
+        <v>eletricidade</v>
       </c>
       <c r="D198" t="str">
-        <v/>
+        <v>palavrascruzadas</v>
       </c>
       <c r="E198" t="str">
         <v/>
@@ -3771,16 +3771,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>evasao</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B199" t="str">
-        <v>educacao a distancia</v>
+        <v>lingua inglesa</v>
       </c>
       <c r="C199" t="str">
-        <v>ferramenta de software</v>
+        <v>curso e3d</v>
       </c>
       <c r="D199" t="str">
-        <v/>
+        <v>recursos multimodais</v>
       </c>
       <c r="E199" t="str">
         <v/>
@@ -3788,50 +3788,50 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>materiais</v>
+        <v>ensino de botanica</v>
       </c>
       <c r="B200" t="str">
-        <v>atividades</v>
+        <v>tic</v>
       </c>
       <c r="C200" t="str">
-        <v>midias</v>
+        <v>botanica e tecnologia</v>
       </c>
       <c r="D200" t="str">
-        <v>ead</v>
+        <v>morfologia vegetal</v>
       </c>
       <c r="E200" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>revisao de escopo</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B201" t="str">
-        <v>jogos digitais</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C201" t="str">
-        <v>midias</v>
+        <v>metodologia do ensino</v>
       </c>
       <c r="D201" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E201" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>pensamento computacional</v>
+        <v>plataformas interativas</v>
       </c>
       <c r="B202" t="str">
-        <v>educacao infantil</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C202" t="str">
-        <v>scratchjr</v>
+        <v>edpuzzle</v>
       </c>
       <c r="D202" t="str">
-        <v/>
+        <v>mentimeter</v>
       </c>
       <c r="E202" t="str">
         <v/>
@@ -3839,13 +3839,13 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>multimodalidade</v>
+        <v>enfermagem</v>
       </c>
       <c r="B203" t="str">
-        <v>videos com conteudo matematico</v>
+        <v>covid19</v>
       </c>
       <c r="C203" t="str">
-        <v>livro didatico</v>
+        <v>tecnologia de informacao</v>
       </c>
       <c r="D203" t="str">
         <v/>
@@ -3856,16 +3856,16 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>leitura</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B204" t="str">
-        <v>escrita</v>
+        <v>institucionalizacao da educacao a distancia</v>
       </c>
       <c r="C204" t="str">
-        <v>habilidades matematicas</v>
+        <v>politicas institucionais de educacao a distancia</v>
       </c>
       <c r="D204" t="str">
-        <v>ensino remoto</v>
+        <v>politicas publicas</v>
       </c>
       <c r="E204" t="str">
         <v/>
@@ -3873,16 +3873,16 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>planejamento na ead</v>
+        <v>avaliacao in loco virtual</v>
       </c>
       <c r="B205" t="str">
-        <v>estrategias pedagogicas</v>
+        <v>sinaes</v>
       </c>
       <c r="C205" t="str">
-        <v>moodle no ensino presencial</v>
+        <v>legislacao</v>
       </c>
       <c r="D205" t="str">
-        <v/>
+        <v>paemiada covid 19</v>
       </c>
       <c r="E205" t="str">
         <v/>
@@ -3890,16 +3890,16 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>realidade aumentada</v>
+        <v>teoria critica</v>
       </c>
       <c r="B206" t="str">
-        <v>geografia</v>
+        <v>neoliberalismo</v>
       </c>
       <c r="C206" t="str">
+        <v>plataformizacao</v>
+      </c>
+      <c r="D206" t="str">
         <v>educacao</v>
-      </c>
-      <c r="D206" t="str">
-        <v/>
       </c>
       <c r="E206" t="str">
         <v/>
@@ -3907,33 +3907,33 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>ensino</v>
+        <v>gestao escolar</v>
       </c>
       <c r="B207" t="str">
-        <v>apreizagem</v>
+        <v>demaas sociais</v>
       </c>
       <c r="C207" t="str">
-        <v>ferramentas</v>
+        <v>tecnologias</v>
       </c>
       <c r="D207" t="str">
-        <v>programacao</v>
+        <v>formacao integral</v>
       </c>
       <c r="E207" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>ila</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B208" t="str">
-        <v>material didatico digital</v>
+        <v>regiao centrooeste</v>
       </c>
       <c r="C208" t="str">
-        <v>diretrizes</v>
+        <v>matriculasna educacao superior a distancia</v>
       </c>
       <c r="D208" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E208" t="str">
         <v/>
@@ -3941,33 +3941,33 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>ensino de fisica</v>
+        <v>educacao adistancia</v>
       </c>
       <c r="B209" t="str">
-        <v>ciencia fisica</v>
+        <v>proformacao</v>
       </c>
       <c r="C209" t="str">
-        <v>ensino remoto</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D209" t="str">
-        <v>tecnologia no ensino</v>
+        <v>educacao basica</v>
       </c>
       <c r="E209" t="str">
-        <v>podcast de ciencias</v>
+        <v/>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>kahoot</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B210" t="str">
-        <v>gamificacao</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C210" t="str">
-        <v>jogos digitais</v>
+        <v>iissociabilidade entre ensino</v>
       </c>
       <c r="D210" t="str">
-        <v/>
+        <v>pesquisa e extensao</v>
       </c>
       <c r="E210" t="str">
         <v/>
@@ -3975,30 +3975,30 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>biodiesel</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="B211" t="str">
-        <v>ensino de quimica</v>
+        <v>design centrado no usuario</v>
       </c>
       <c r="C211" t="str">
-        <v>eja</v>
+        <v>servico de apoio pedagogico</v>
       </c>
       <c r="D211" t="str">
-        <v>games</v>
+        <v/>
       </c>
       <c r="E211" t="str">
-        <v>phet</v>
+        <v/>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>robotica educacional</v>
+        <v>educacao presencial</v>
       </c>
       <c r="B212" t="str">
-        <v>apreizagem ativa</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C212" t="str">
-        <v>oficinas</v>
+        <v>desempenho</v>
       </c>
       <c r="D212" t="str">
         <v/>
@@ -4009,16 +4009,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>maker</v>
+        <v>evasao na educacao superior</v>
       </c>
       <c r="B213" t="str">
-        <v>robotica</v>
+        <v>paemia covid19</v>
       </c>
       <c r="C213" t="str">
-        <v>criatividade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D213" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E213" t="str">
         <v/>
@@ -4026,33 +4026,33 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>ensino de ciencias</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B214" t="str">
-        <v>fake news</v>
+        <v>ensino superior</v>
       </c>
       <c r="C214" t="str">
-        <v>vacina</v>
+        <v>egressos</v>
       </c>
       <c r="D214" t="str">
-        <v>educacao midiatica</v>
+        <v>polo uab</v>
       </c>
       <c r="E214" t="str">
-        <v>ensino fuamental</v>
+        <v/>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>metodologiaativa</v>
+        <v>biblioteca digital</v>
       </c>
       <c r="B215" t="str">
-        <v>processosdeensinoe apreizagem</v>
+        <v>bibliografia basica e complementar</v>
       </c>
       <c r="C215" t="str">
-        <v>trabalho em equipe</v>
+        <v>formacao e desenvolvimento de acervo</v>
       </c>
       <c r="D215" t="str">
-        <v>team based learning</v>
+        <v/>
       </c>
       <c r="E215" t="str">
         <v/>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>educacao</v>
+        <v>historico da educacao a distancia</v>
       </c>
       <c r="B216" t="str">
-        <v>tecnologia</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C216" t="str">
-        <v>producoes filmicas</v>
+        <v>educacao profissional a distancia</v>
       </c>
       <c r="D216" t="str">
         <v/>
@@ -4077,13 +4077,13 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>technology</v>
+        <v>capitalismo de vigilancia</v>
       </c>
       <c r="B217" t="str">
-        <v>education</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C217" t="str">
-        <v>deaf</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D217" t="str">
         <v/>
@@ -4094,30 +4094,30 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>psicologia social</v>
+        <v>paemia</v>
       </c>
       <c r="B218" t="str">
-        <v>recursos didaticos audiovisuais</v>
+        <v>distanciamento social</v>
       </c>
       <c r="C218" t="str">
-        <v>video educacional</v>
+        <v>gestao escolar</v>
       </c>
       <c r="D218" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias</v>
       </c>
       <c r="E218" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>ensino hibrido</v>
+        <v>educacao corporativa</v>
       </c>
       <c r="B219" t="str">
-        <v>ensinoapreizagem</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C219" t="str">
-        <v>escolas do campo</v>
+        <v>marinha do brasil</v>
       </c>
       <c r="D219" t="str">
         <v/>
@@ -4128,16 +4128,16 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>portal educativo</v>
+        <v>mercado de trabalho</v>
       </c>
       <c r="B220" t="str">
-        <v>teste de usabilidade</v>
+        <v>pratica profissional</v>
       </c>
       <c r="C220" t="str">
-        <v>ensino medio</v>
+        <v>seguranca no trabalho</v>
       </c>
       <c r="D220" t="str">
-        <v/>
+        <v>vocacao regional</v>
       </c>
       <c r="E220" t="str">
         <v/>
@@ -4145,16 +4145,16 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>design thinking</v>
+        <v>ensino basico</v>
       </c>
       <c r="B221" t="str">
-        <v>apreizagem</v>
+        <v>ensino remotoemergencia</v>
       </c>
       <c r="C221" t="str">
-        <v>algoritmos</v>
+        <v>covid19</v>
       </c>
       <c r="D221" t="str">
-        <v>nocode</v>
+        <v>tic</v>
       </c>
       <c r="E221" t="str">
         <v/>
@@ -4162,13 +4162,13 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>apreizagem baseada em projetos</v>
+        <v>formacao de profissionais da educacao</v>
       </c>
       <c r="B222" t="str">
-        <v>scrum</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C222" t="str">
-        <v>multidisciplinalidade e tecnologias emergentes</v>
+        <v>tdic</v>
       </c>
       <c r="D222" t="str">
         <v/>
@@ -4179,47 +4179,47 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>whatsapp</v>
+        <v>gestao educacional</v>
       </c>
       <c r="B223" t="str">
-        <v>estado da arte</v>
+        <v>ead</v>
       </c>
       <c r="C223" t="str">
-        <v>tdic</v>
+        <v>educacao e tecnologia</v>
       </c>
       <c r="D223" t="str">
-        <v>ferramenta pedagogica</v>
+        <v>atuacao profissional</v>
       </c>
       <c r="E223" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>cenarios de apreizagem interativos</v>
+        <v>gestao democratica</v>
       </c>
       <c r="B224" t="str">
-        <v>cia</v>
+        <v>eleicao para diretora</v>
       </c>
       <c r="C224" t="str">
-        <v>interacoes</v>
+        <v>lei complementar n 1096</v>
       </c>
       <c r="D224" t="str">
-        <v>entropia</v>
+        <v/>
       </c>
       <c r="E224" t="str">
-        <v>aula virtual</v>
+        <v/>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>tdic</v>
+        <v>gestao na educacao</v>
       </c>
       <c r="B225" t="str">
-        <v>ensino</v>
+        <v>planejamento estrategico</v>
       </c>
       <c r="C225" t="str">
-        <v>climatologia</v>
+        <v>instituicao de ensino</v>
       </c>
       <c r="D225" t="str">
         <v/>
@@ -4230,33 +4230,33 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>gamificacao</v>
+        <v>googledrive</v>
       </c>
       <c r="B226" t="str">
-        <v>ensino</v>
+        <v>organizacao pedagogica</v>
       </c>
       <c r="C226" t="str">
-        <v>eletricidade</v>
+        <v>educacao basica</v>
       </c>
       <c r="D226" t="str">
-        <v>palavrascruzadas</v>
+        <v>sistema municipal publico de ensino</v>
       </c>
       <c r="E226" t="str">
-        <v/>
+        <v>gestao educacional</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>ensino a distancia</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B227" t="str">
-        <v>lingua inglesa</v>
+        <v>educacao superior</v>
       </c>
       <c r="C227" t="str">
-        <v>curso e3d</v>
+        <v>inclusao digital</v>
       </c>
       <c r="D227" t="str">
-        <v>recursos multimodais</v>
+        <v/>
       </c>
       <c r="E227" t="str">
         <v/>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>ensino de botanica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B228" t="str">
-        <v>tic</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C228" t="str">
-        <v>botanica e tecnologia</v>
+        <v>bibliometria</v>
       </c>
       <c r="D228" t="str">
-        <v>morfologia vegetal</v>
+        <v>universidade aberta do brasil</v>
       </c>
       <c r="E228" t="str">
         <v/>
@@ -4281,13 +4281,13 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>ensino de quimica</v>
+        <v>educacao maker</v>
       </c>
       <c r="B229" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>prototipagem</v>
       </c>
       <c r="C229" t="str">
-        <v>metodologia do ensino</v>
+        <v>ensino superior</v>
       </c>
       <c r="D229" t="str">
         <v/>
@@ -4298,16 +4298,16 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>plataformas interativas</v>
+        <v>politica de assistencia estudantil</v>
       </c>
       <c r="B230" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>direito a educacao</v>
       </c>
       <c r="C230" t="str">
-        <v>edpuzzle</v>
+        <v>modelo de formacao</v>
       </c>
       <c r="D230" t="str">
-        <v>mentimeter</v>
+        <v/>
       </c>
       <c r="E230" t="str">
         <v/>
@@ -4315,33 +4315,33 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>enfermagem</v>
+        <v>tecnologia</v>
       </c>
       <c r="B231" t="str">
-        <v>covid19</v>
+        <v>educacao</v>
       </c>
       <c r="C231" t="str">
-        <v>tecnologia de informacao</v>
+        <v>trabalho</v>
       </c>
       <c r="D231" t="str">
-        <v/>
+        <v>napp academy</v>
       </c>
       <c r="E231" t="str">
-        <v/>
+        <v>carencia</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="B232" t="str">
-        <v>institucionalizacao da educacao a distancia</v>
+        <v>tecnologia de informacao e comunicacao</v>
       </c>
       <c r="C232" t="str">
-        <v>politicas institucionais de educacao a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D232" t="str">
-        <v>politicas publicas</v>
+        <v>praticaspedagogicas</v>
       </c>
       <c r="E232" t="str">
         <v/>
@@ -4349,16 +4349,16 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>avaliacao in loco virtual</v>
+        <v>permanencia</v>
       </c>
       <c r="B233" t="str">
-        <v>sinaes</v>
+        <v>ensino superior</v>
       </c>
       <c r="C233" t="str">
-        <v>legislacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="D233" t="str">
-        <v>paemiada covid 19</v>
+        <v>gestao</v>
       </c>
       <c r="E233" t="str">
         <v/>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>teoria critica</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B234" t="str">
-        <v>neoliberalismo</v>
+        <v>educacao superior</v>
       </c>
       <c r="C234" t="str">
-        <v>plataformizacao</v>
+        <v>gestao de processo</v>
       </c>
       <c r="D234" t="str">
-        <v>educacao</v>
+        <v>inclusao digital</v>
       </c>
       <c r="E234" t="str">
         <v/>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>gestao escolar</v>
+        <v>aluno com deficiencia</v>
       </c>
       <c r="B235" t="str">
-        <v>demaas sociais</v>
+        <v>ensino superior</v>
       </c>
       <c r="C235" t="str">
-        <v>tecnologias</v>
+        <v>inclusao</v>
       </c>
       <c r="D235" t="str">
-        <v>formacao integral</v>
+        <v/>
       </c>
       <c r="E235" t="str">
         <v/>
@@ -4403,13 +4403,13 @@
         <v>educacao a distancia</v>
       </c>
       <c r="B236" t="str">
-        <v>regiao centrooeste</v>
+        <v>estrategia de retencao educacional</v>
       </c>
       <c r="C236" t="str">
-        <v>matriculasna educacao superior a distancia</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="D236" t="str">
-        <v/>
+        <v>fatores criticos de sucesso</v>
       </c>
       <c r="E236" t="str">
         <v/>
@@ -4417,16 +4417,16 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>educacao adistancia</v>
+        <v>novo ensino medio</v>
       </c>
       <c r="B237" t="str">
-        <v>proformacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="C237" t="str">
-        <v>formacao de professores</v>
+        <v>profissao docente</v>
       </c>
       <c r="D237" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E237" t="str">
         <v/>
@@ -4437,13 +4437,13 @@
         <v>educacao a distancia</v>
       </c>
       <c r="B238" t="str">
-        <v>institucionalizacao</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C238" t="str">
-        <v>iissociabilidade entre ensino</v>
+        <v>rede federal de educacao profissional e tecnologica</v>
       </c>
       <c r="D238" t="str">
-        <v>pesquisa e extensao</v>
+        <v>conif</v>
       </c>
       <c r="E238" t="str">
         <v/>
@@ -4451,16 +4451,16 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>sistema publico municipal</v>
       </c>
       <c r="B239" t="str">
-        <v>design centrado no usuario</v>
+        <v>tdic</v>
       </c>
       <c r="C239" t="str">
-        <v>servico de apoio pedagogico</v>
+        <v>equidade</v>
       </c>
       <c r="D239" t="str">
-        <v/>
+        <v>politicas educacionais</v>
       </c>
       <c r="E239" t="str">
         <v/>
@@ -4468,13 +4468,13 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>educacao presencial</v>
+        <v>tecnologia e educacao</v>
       </c>
       <c r="B240" t="str">
-        <v>educacao a distancia</v>
+        <v>legislacao educacional</v>
       </c>
       <c r="C240" t="str">
-        <v>desempenho</v>
+        <v>tecnologias digitais no ensino</v>
       </c>
       <c r="D240" t="str">
         <v/>
@@ -4485,33 +4485,33 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>evasao na educacao superior</v>
+        <v>plano de intervencao</v>
       </c>
       <c r="B241" t="str">
-        <v>paemia covid19</v>
+        <v>base nacional comum curricular e parametros curriculares nacionais</v>
       </c>
       <c r="C241" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
       </c>
       <c r="D241" t="str">
-        <v/>
+        <v>ensino medio</v>
       </c>
       <c r="E241" t="str">
-        <v/>
+        <v>gestao educacional integrada</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B242" t="str">
-        <v>ensino superior</v>
+        <v>retorno presencial</v>
       </c>
       <c r="C242" t="str">
-        <v>egressos</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D242" t="str">
-        <v>polo uab</v>
+        <v/>
       </c>
       <c r="E242" t="str">
         <v/>
@@ -4519,30 +4519,30 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>biblioteca digital</v>
+        <v>educacao</v>
       </c>
       <c r="B243" t="str">
-        <v>bibliografia basica e complementar</v>
+        <v>tecnologia</v>
       </c>
       <c r="C243" t="str">
-        <v>formacao e desenvolvimento de acervo</v>
+        <v>pensamento critico</v>
       </c>
       <c r="D243" t="str">
-        <v/>
+        <v>revisao narrativa</v>
       </c>
       <c r="E243" t="str">
-        <v/>
+        <v>neil selwyn</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>historico da educacao a distancia</v>
+        <v>algebra nos anos iniciais</v>
       </c>
       <c r="B244" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C244" t="str">
-        <v>educacao profissional a distancia</v>
+        <v>tics</v>
       </c>
       <c r="D244" t="str">
         <v/>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>capitalismo de vigilancia</v>
+        <v>formacao inicial de professores</v>
       </c>
       <c r="B245" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="C245" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologiaseducacionais</v>
       </c>
       <c r="D245" t="str">
         <v/>
@@ -4570,33 +4570,33 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>paemia</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B246" t="str">
-        <v>distanciamento social</v>
+        <v>feedback</v>
       </c>
       <c r="C246" t="str">
-        <v>gestao escolar</v>
+        <v>regulacao</v>
       </c>
       <c r="D246" t="str">
-        <v>tecnologias</v>
+        <v>autorregulacao</v>
       </c>
       <c r="E246" t="str">
-        <v>ensino apreizagem</v>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>educacao corporativa</v>
+        <v>ensino de fisicaciencias</v>
       </c>
       <c r="B247" t="str">
-        <v>formacao continuada</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C247" t="str">
-        <v>marinha do brasil</v>
+        <v>paemia</v>
       </c>
       <c r="D247" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E247" t="str">
         <v/>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>mercado de trabalho</v>
+        <v>processo de ensino e apreizagem</v>
       </c>
       <c r="B248" t="str">
-        <v>pratica profissional</v>
+        <v>cultura digital</v>
       </c>
       <c r="C248" t="str">
-        <v>seguranca no trabalho</v>
+        <v>educacao superior</v>
       </c>
       <c r="D248" t="str">
-        <v>vocacao regional</v>
+        <v>tecnologia</v>
       </c>
       <c r="E248" t="str">
         <v/>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>ensino basico</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B249" t="str">
-        <v>ensino remotoemergencia</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="C249" t="str">
-        <v>covid19</v>
+        <v>politicas publicas</v>
       </c>
       <c r="D249" t="str">
-        <v>tic</v>
+        <v>educacao basica</v>
       </c>
       <c r="E249" t="str">
         <v/>
@@ -4638,33 +4638,33 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>formacao de profissionais da educacao</v>
+        <v>transdisciplinaridade</v>
       </c>
       <c r="B250" t="str">
-        <v>formacao continuada</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C250" t="str">
-        <v>tdic</v>
+        <v>multidisciplinaridade</v>
       </c>
       <c r="D250" t="str">
-        <v/>
+        <v>transversalidade</v>
       </c>
       <c r="E250" t="str">
-        <v/>
+        <v>ensino basico</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>gestao educacional</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B251" t="str">
-        <v>ead</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C251" t="str">
-        <v>educacao e tecnologia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D251" t="str">
-        <v>atuacao profissional</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="E251" t="str">
         <v/>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>gestao democratica</v>
+        <v>paemia</v>
       </c>
       <c r="B252" t="str">
-        <v>eleicao para diretora</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C252" t="str">
-        <v>lei complementar n 1096</v>
+        <v>educacao remota</v>
       </c>
       <c r="D252" t="str">
-        <v/>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="E252" t="str">
         <v/>
@@ -4689,16 +4689,16 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>gestao na educacao</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B253" t="str">
-        <v>planejamento estrategico</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C253" t="str">
-        <v>instituicao de ensino</v>
+        <v>brasil</v>
       </c>
       <c r="D253" t="str">
-        <v/>
+        <v>portugal</v>
       </c>
       <c r="E253" t="str">
         <v/>
@@ -4706,50 +4706,50 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>googledrive</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B254" t="str">
-        <v>organizacao pedagogica</v>
+        <v>metodologias</v>
       </c>
       <c r="C254" t="str">
-        <v>educacao basica</v>
+        <v>tecnologias</v>
       </c>
       <c r="D254" t="str">
-        <v>sistema municipal publico de ensino</v>
+        <v/>
       </c>
       <c r="E254" t="str">
-        <v>gestao educacional</v>
+        <v/>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>politicas publicas</v>
+        <v>sociologia da ciencia</v>
       </c>
       <c r="B255" t="str">
-        <v>educacao superior</v>
+        <v>cientometria</v>
       </c>
       <c r="C255" t="str">
-        <v>inclusao digital</v>
+        <v>educacao</v>
       </c>
       <c r="D255" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
       <c r="E255" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>educacao a distancia</v>
+        <v>identidade docente</v>
       </c>
       <c r="B256" t="str">
-        <v>institucionalizacao</v>
+        <v>formacao docente</v>
       </c>
       <c r="C256" t="str">
-        <v>bibliometria</v>
+        <v>licenciatura em educacao a distancia</v>
       </c>
       <c r="D256" t="str">
-        <v>universidade aberta do brasil</v>
+        <v/>
       </c>
       <c r="E256" t="str">
         <v/>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>educacao maker</v>
+        <v>anais do eneq</v>
       </c>
       <c r="B257" t="str">
-        <v>prototipagem</v>
+        <v>educacao quimica</v>
       </c>
       <c r="C257" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D257" t="str">
         <v/>
@@ -4774,16 +4774,16 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>politica de assistencia estudantil</v>
+        <v>ensino superior</v>
       </c>
       <c r="B258" t="str">
-        <v>direito a educacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C258" t="str">
-        <v>modelo de formacao</v>
+        <v>bleed learning</v>
       </c>
       <c r="D258" t="str">
-        <v/>
+        <v>bleed learning</v>
       </c>
       <c r="E258" t="str">
         <v/>
@@ -4791,33 +4791,33 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>tecnologia</v>
+        <v>paulo freir</v>
       </c>
       <c r="B259" t="str">
-        <v>educacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C259" t="str">
-        <v>trabalho</v>
+        <v>tdic</v>
       </c>
       <c r="D259" t="str">
-        <v>napp academy</v>
+        <v>educacao a distanci</v>
       </c>
       <c r="E259" t="str">
-        <v>carencia</v>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>conhecimento</v>
       </c>
       <c r="B260" t="str">
-        <v>tecnologia de informacao e comunicacao</v>
+        <v>metodologia</v>
       </c>
       <c r="C260" t="str">
-        <v>ensino hibrido</v>
+        <v>pesquisa</v>
       </c>
       <c r="D260" t="str">
-        <v>praticaspedagogicas</v>
+        <v/>
       </c>
       <c r="E260" t="str">
         <v/>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>permanencia</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="B261" t="str">
-        <v>ensino superior</v>
+        <v>pesquisador</v>
       </c>
       <c r="C261" t="str">
-        <v>tecnologia</v>
+        <v>stricto sensu</v>
       </c>
       <c r="D261" t="str">
-        <v>gestao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E261" t="str">
         <v/>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>politicas publicas</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B262" t="str">
-        <v>educacao superior</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C262" t="str">
-        <v>gestao de processo</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D262" t="str">
-        <v>inclusao digital</v>
+        <v/>
       </c>
       <c r="E262" t="str">
         <v/>
@@ -4859,33 +4859,33 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>aluno com deficiencia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B263" t="str">
+        <v>ensino hibrido</v>
+      </c>
+      <c r="C263" t="str">
         <v>ensino superior</v>
       </c>
-      <c r="C263" t="str">
-        <v>inclusao</v>
-      </c>
       <c r="D263" t="str">
-        <v/>
+        <v>transformacao digital</v>
       </c>
       <c r="E263" t="str">
-        <v/>
+        <v>subjetividade</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B264" t="str">
-        <v>estrategia de retencao educacional</v>
+        <v>tecnologia</v>
       </c>
       <c r="C264" t="str">
-        <v>evasao no ensino superior</v>
+        <v>ctsctsa</v>
       </c>
       <c r="D264" t="str">
-        <v>fatores criticos de sucesso</v>
+        <v/>
       </c>
       <c r="E264" t="str">
         <v/>
@@ -4893,13 +4893,13 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>novo ensino medio</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B265" t="str">
-        <v>tecnologias</v>
+        <v>tdic</v>
       </c>
       <c r="C265" t="str">
-        <v>profissao docente</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="D265" t="str">
         <v/>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>educacao a distancia</v>
+        <v>defensoria publica do estado tocantins</v>
       </c>
       <c r="B266" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>youtube</v>
       </c>
       <c r="C266" t="str">
-        <v>rede federal de educacao profissional e tecnologica</v>
+        <v>capacitacao</v>
       </c>
       <c r="D266" t="str">
-        <v>conif</v>
+        <v/>
       </c>
       <c r="E266" t="str">
         <v/>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>sistema publico municipal</v>
+        <v>arquivo pessoal</v>
       </c>
       <c r="B267" t="str">
-        <v>tdic</v>
+        <v>arquivo epistolar</v>
       </c>
       <c r="C267" t="str">
-        <v>equidade</v>
+        <v>acervo literario</v>
       </c>
       <c r="D267" t="str">
-        <v>politicas educacionais</v>
+        <v/>
       </c>
       <c r="E267" t="str">
         <v/>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>tecnologia e educacao</v>
+        <v>radio</v>
       </c>
       <c r="B268" t="str">
-        <v>legislacao educacional</v>
+        <v>musica</v>
       </c>
       <c r="C268" t="str">
-        <v>tecnologias digitais no ensino</v>
+        <v>educacao e midiana paemia</v>
       </c>
       <c r="D268" t="str">
         <v/>
@@ -4961,33 +4961,33 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>plano de intervencao</v>
+        <v>linguagem cinematografica</v>
       </c>
       <c r="B269" t="str">
-        <v>base nacional comum curricular e parametros curriculares nacionais</v>
+        <v>ludicidade</v>
       </c>
       <c r="C269" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
+        <v>biologia</v>
       </c>
       <c r="D269" t="str">
-        <v>ensino medio</v>
+        <v/>
       </c>
       <c r="E269" t="str">
-        <v>gestao educacional integrada</v>
+        <v/>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B270" t="str">
-        <v>retorno presencial</v>
+        <v>museus virtuais</v>
       </c>
       <c r="C270" t="str">
-        <v>tecnologias digitais</v>
+        <v>tdcis</v>
       </c>
       <c r="D270" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
       <c r="E270" t="str">
         <v/>
@@ -4995,30 +4995,30 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>educacao</v>
+        <v>oficina</v>
       </c>
       <c r="B271" t="str">
-        <v>tecnologia</v>
+        <v>partilha do sensivel</v>
       </c>
       <c r="C271" t="str">
-        <v>pensamento critico</v>
+        <v>escrita criativa</v>
       </c>
       <c r="D271" t="str">
-        <v>revisao narrativa</v>
+        <v>fotografia</v>
       </c>
       <c r="E271" t="str">
-        <v>neil selwyn</v>
+        <v>apropriacao</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>algebra nos anos iniciais</v>
+        <v>arte musical</v>
       </c>
       <c r="B272" t="str">
-        <v>formacao continuada de professores</v>
+        <v>cultura e saberes</v>
       </c>
       <c r="C272" t="str">
-        <v>tics</v>
+        <v>infancia</v>
       </c>
       <c r="D272" t="str">
         <v/>
@@ -5029,16 +5029,16 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>formacao inicial de professores</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B273" t="str">
-        <v>ensino de fisica</v>
+        <v>design para experiencia</v>
       </c>
       <c r="C273" t="str">
-        <v>tecnologiaseducacionais</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="D273" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
       <c r="E273" t="str">
         <v/>
@@ -5046,16 +5046,16 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>avaliacao formativa</v>
+        <v>acessibilidade digital</v>
       </c>
       <c r="B274" t="str">
-        <v>feedback</v>
+        <v>inclusao</v>
       </c>
       <c r="C274" t="str">
-        <v>regulacao</v>
+        <v>surdo</v>
       </c>
       <c r="D274" t="str">
-        <v>autorregulacao</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="E274" t="str">
         <v>educacao a distancia</v>
@@ -5063,16 +5063,16 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>ensino de fisicaciencias</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="B275" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C275" t="str">
-        <v>paemia</v>
+        <v>ere</v>
       </c>
       <c r="D275" t="str">
-        <v>tecnologias</v>
+        <v>napnee</v>
       </c>
       <c r="E275" t="str">
         <v/>
@@ -5080,16 +5080,16 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>processo de ensino e apreizagem</v>
+        <v>inclusao</v>
       </c>
       <c r="B276" t="str">
-        <v>cultura digital</v>
+        <v>autismo</v>
       </c>
       <c r="C276" t="str">
-        <v>educacao superior</v>
+        <v>teacch</v>
       </c>
       <c r="D276" t="str">
-        <v>tecnologia</v>
+        <v>abcautismo</v>
       </c>
       <c r="E276" t="str">
         <v/>
@@ -5097,16 +5097,16 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>tecnologia educacional</v>
+        <v>apreizagem</v>
       </c>
       <c r="B277" t="str">
-        <v>inovacao educacional</v>
+        <v>deficiencia</v>
       </c>
       <c r="C277" t="str">
-        <v>politicas publicas</v>
+        <v>educacao superior</v>
       </c>
       <c r="D277" t="str">
-        <v>educacao basica</v>
+        <v>inclusao</v>
       </c>
       <c r="E277" t="str">
         <v/>
@@ -5114,33 +5114,33 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>transdisciplinaridade</v>
+        <v>tdic</v>
       </c>
       <c r="B278" t="str">
-        <v>interdisciplinaridade</v>
+        <v>educacao especia</v>
       </c>
       <c r="C278" t="str">
-        <v>multidisciplinaridade</v>
+        <v>linguagem escrita</v>
       </c>
       <c r="D278" t="str">
-        <v>transversalidade</v>
+        <v/>
       </c>
       <c r="E278" t="str">
-        <v>ensino basico</v>
+        <v/>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>ensino hibrido</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B279" t="str">
-        <v>metodologias ativas</v>
+        <v>inclusaode alunos com deficiencia</v>
       </c>
       <c r="C279" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino superior</v>
       </c>
       <c r="D279" t="str">
-        <v>ensinoapreizagem</v>
+        <v/>
       </c>
       <c r="E279" t="str">
         <v/>
@@ -5148,16 +5148,16 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>paemia</v>
+        <v>deficiencia intelectual</v>
       </c>
       <c r="B280" t="str">
-        <v>educacao hibrida</v>
+        <v>guia digital</v>
       </c>
       <c r="C280" t="str">
-        <v>educacao remota</v>
+        <v>avaliacao</v>
       </c>
       <c r="D280" t="str">
-        <v>tecnologias na educacao</v>
+        <v/>
       </c>
       <c r="E280" t="str">
         <v/>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>educacao hibrida</v>
+        <v>alunos com deficiencias</v>
       </c>
       <c r="B281" t="str">
-        <v>educacao a distancia</v>
+        <v>apreizagem</v>
       </c>
       <c r="C281" t="str">
-        <v>brasil</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D281" t="str">
-        <v>portugal</v>
+        <v>metodologia</v>
       </c>
       <c r="E281" t="str">
         <v/>
@@ -5182,47 +5182,47 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>ensino hibrido</v>
+        <v>movimento devia</v>
       </c>
       <c r="B282" t="str">
-        <v>metodologias</v>
+        <v>arte surda</v>
       </c>
       <c r="C282" t="str">
-        <v>tecnologias</v>
+        <v>extensaoead</v>
       </c>
       <c r="D282" t="str">
-        <v/>
+        <v>moocs acessiveis em libras</v>
       </c>
       <c r="E282" t="str">
-        <v/>
+        <v>lingua brasileira de sinais</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>sociologia da ciencia</v>
+        <v>material digital acessivel</v>
       </c>
       <c r="B283" t="str">
-        <v>cientometria</v>
+        <v>educacao digital inclusiva</v>
       </c>
       <c r="C283" t="str">
-        <v>educacao</v>
+        <v>inclusao no ensino superior</v>
       </c>
       <c r="D283" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
       <c r="E283" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>identidade docente</v>
+        <v>educacao especial</v>
       </c>
       <c r="B284" t="str">
-        <v>formacao docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C284" t="str">
-        <v>licenciatura em educacao a distancia</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D284" t="str">
         <v/>
@@ -5233,13 +5233,13 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>anais do eneq</v>
+        <v>educacao</v>
       </c>
       <c r="B285" t="str">
-        <v>educacao quimica</v>
+        <v>inclusao</v>
       </c>
       <c r="C285" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D285" t="str">
         <v/>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>ensino superior</v>
+        <v>autismo</v>
       </c>
       <c r="B286" t="str">
-        <v>ensino superior</v>
+        <v>modelo social de deficiencia</v>
       </c>
       <c r="C286" t="str">
-        <v>bleed learning</v>
+        <v>interatividade na educacao</v>
       </c>
       <c r="D286" t="str">
-        <v>bleed learning</v>
+        <v/>
       </c>
       <c r="E286" t="str">
         <v/>
@@ -5267,33 +5267,33 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>paulo freir</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B287" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao especial</v>
       </c>
       <c r="C287" t="str">
-        <v>tdic</v>
+        <v>inclusao</v>
       </c>
       <c r="D287" t="str">
-        <v>educacao a distanci</v>
+        <v>covid19</v>
       </c>
       <c r="E287" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>conhecimento</v>
+        <v>tecnologias digitais da informacao e da comunicacao</v>
       </c>
       <c r="B288" t="str">
-        <v>metodologia</v>
+        <v>tdics</v>
       </c>
       <c r="C288" t="str">
-        <v>pesquisa</v>
+        <v>acessibilidade</v>
       </c>
       <c r="D288" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E288" t="str">
         <v/>
@@ -5301,16 +5301,16 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>politicas educacionais</v>
+        <v>ensino de libras</v>
       </c>
       <c r="B289" t="str">
-        <v>pesquisador</v>
+        <v>objetos digitais de apreizagem</v>
       </c>
       <c r="C289" t="str">
-        <v>stricto sensu</v>
+        <v>professores em formacao</v>
       </c>
       <c r="D289" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E289" t="str">
         <v/>
@@ -5318,16 +5318,16 @@
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>ensino hibrido</v>
+        <v>sinalario</v>
       </c>
       <c r="B290" t="str">
-        <v>metodologias ativas</v>
+        <v>libras</v>
       </c>
       <c r="C290" t="str">
-        <v>metodologias ativas</v>
+        <v>robotica</v>
       </c>
       <c r="D290" t="str">
-        <v/>
+        <v>inclusao</v>
       </c>
       <c r="E290" t="str">
         <v/>
@@ -5335,30 +5335,30 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>ensino remoto</v>
+        <v>historia em quadrinho</v>
       </c>
       <c r="B291" t="str">
-        <v>ensino hibrido</v>
+        <v>reglete</v>
       </c>
       <c r="C291" t="str">
-        <v>ensino superior</v>
+        <v>braille</v>
       </c>
       <c r="D291" t="str">
-        <v>transformacao digital</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="E291" t="str">
-        <v>subjetividade</v>
+        <v>modelo atomico</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>ensino de ciencias</v>
+        <v>ensino superior</v>
       </c>
       <c r="B292" t="str">
-        <v>tecnologia</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="C292" t="str">
-        <v>ctsctsa</v>
+        <v>desenho universal para apreizagem</v>
       </c>
       <c r="D292" t="str">
         <v/>
@@ -5369,13 +5369,13 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B293" t="str">
-        <v>tdic</v>
+        <v>inclusao de alunos com deficiencia</v>
       </c>
       <c r="C293" t="str">
-        <v>tecnologias na educacao</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D293" t="str">
         <v/>
@@ -5386,33 +5386,33 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>defensoria publica do estado tocantins</v>
+        <v>inclusao</v>
       </c>
       <c r="B294" t="str">
-        <v>youtube</v>
+        <v>libras</v>
       </c>
       <c r="C294" t="str">
-        <v>capacitacao</v>
+        <v>quimica</v>
       </c>
       <c r="D294" t="str">
-        <v/>
+        <v>tabela periodica</v>
       </c>
       <c r="E294" t="str">
-        <v/>
+        <v>tecnologia digitais</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>arquivo pessoal</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="B295" t="str">
-        <v>arquivo epistolar</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="C295" t="str">
-        <v>acervo literario</v>
+        <v>biologia</v>
       </c>
       <c r="D295" t="str">
-        <v/>
+        <v>ead</v>
       </c>
       <c r="E295" t="str">
         <v/>
@@ -5420,16 +5420,16 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>radio</v>
+        <v>vigilancia digital controversia cientifica</v>
       </c>
       <c r="B296" t="str">
-        <v>musica</v>
+        <v>ducacao nao presencial de emergencia</v>
       </c>
       <c r="C296" t="str">
-        <v>educacao e midiana paemia</v>
+        <v>ciencia</v>
       </c>
       <c r="D296" t="str">
-        <v/>
+        <v>tecnologia e sociedade cts</v>
       </c>
       <c r="E296" t="str">
         <v/>
@@ -5437,16 +5437,16 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>linguagem cinematografica</v>
+        <v>ensino superior militar</v>
       </c>
       <c r="B297" t="str">
-        <v>ludicidade</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C297" t="str">
-        <v>biologia</v>
+        <v>escola naval</v>
       </c>
       <c r="D297" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E297" t="str">
         <v/>
@@ -5454,101 +5454,101 @@
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>tecnologias digitais</v>
+        <v>cartapessoal</v>
       </c>
       <c r="B298" t="str">
-        <v>museus virtuais</v>
+        <v>leitura</v>
       </c>
       <c r="C298" t="str">
-        <v>tdcis</v>
+        <v>escrita</v>
       </c>
       <c r="D298" t="str">
-        <v>ensino apreizagem</v>
+        <v>ensino fuamental i</v>
       </c>
       <c r="E298" t="str">
-        <v/>
+        <v>letramento</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>oficina</v>
+        <v>apreizagem</v>
       </c>
       <c r="B299" t="str">
-        <v>partilha do sensivel</v>
+        <v>quarta revolucao iustrial</v>
       </c>
       <c r="C299" t="str">
-        <v>escrita criativa</v>
+        <v>afetividade</v>
       </c>
       <c r="D299" t="str">
-        <v>fotografia</v>
+        <v>humanidade</v>
       </c>
       <c r="E299" t="str">
-        <v>apropriacao</v>
+        <v/>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>arte musical</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B300" t="str">
-        <v>cultura e saberes</v>
+        <v>ambientes virtuais de apreizagem ava</v>
       </c>
       <c r="C300" t="str">
-        <v>infancia</v>
+        <v>resiliencia</v>
       </c>
       <c r="D300" t="str">
-        <v/>
+        <v>equidade</v>
       </c>
       <c r="E300" t="str">
-        <v/>
+        <v>offline</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>acessibilidade</v>
+        <v>lesson study</v>
       </c>
       <c r="B301" t="str">
-        <v>design para experiencia</v>
+        <v>autoeficacia</v>
       </c>
       <c r="C301" t="str">
-        <v>pessoa com deficiencia</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="D301" t="str">
-        <v>docencia</v>
+        <v>apreizagem colaborativa</v>
       </c>
       <c r="E301" t="str">
-        <v/>
+        <v>revisao sistematica da literatura</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>acessibilidade digital</v>
+        <v>pibid</v>
       </c>
       <c r="B302" t="str">
-        <v>inclusao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C302" t="str">
-        <v>surdo</v>
+        <v>ciencias biologicas</v>
       </c>
       <c r="D302" t="str">
-        <v>pessoa com deficiencia</v>
+        <v/>
       </c>
       <c r="E302" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>educacao inclusiva</v>
+        <v>danca e tecnologia</v>
       </c>
       <c r="B303" t="str">
-        <v>tecnologias digitais</v>
+        <v>ambiencia de interacao digital</v>
       </c>
       <c r="C303" t="str">
-        <v>ere</v>
+        <v>arte interativa digital</v>
       </c>
       <c r="D303" t="str">
-        <v>napnee</v>
+        <v>produsage</v>
       </c>
       <c r="E303" t="str">
         <v/>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>inclusao</v>
+        <v>desenvolvimento cognitivo</v>
       </c>
       <c r="B304" t="str">
-        <v>autismo</v>
+        <v>cognicao numerica</v>
       </c>
       <c r="C304" t="str">
-        <v>teacch</v>
+        <v>senso numerico</v>
       </c>
       <c r="D304" t="str">
-        <v>abcautismo</v>
+        <v/>
       </c>
       <c r="E304" t="str">
         <v/>
@@ -5573,16 +5573,16 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>apreizagem</v>
+        <v>direitos humanos</v>
       </c>
       <c r="B305" t="str">
-        <v>deficiencia</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C305" t="str">
-        <v>educacao superior</v>
+        <v>utilizacao de midias</v>
       </c>
       <c r="D305" t="str">
-        <v>inclusao</v>
+        <v>ensino critico</v>
       </c>
       <c r="E305" t="str">
         <v/>
@@ -5590,13 +5590,13 @@
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>tdic</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B306" t="str">
-        <v>educacao especia</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="C306" t="str">
-        <v>linguagem escrita</v>
+        <v>graduacao em pedagogia ead</v>
       </c>
       <c r="D306" t="str">
         <v/>
@@ -5607,13 +5607,13 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>acessibilidade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B307" t="str">
-        <v>inclusaode alunos com deficiencia</v>
+        <v>ensino superior</v>
       </c>
       <c r="C307" t="str">
-        <v>ensino superior</v>
+        <v>construcao identitaria</v>
       </c>
       <c r="D307" t="str">
         <v/>
@@ -5624,16 +5624,16 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>deficiencia intelectual</v>
+        <v>agentes comunitarios de saude</v>
       </c>
       <c r="B308" t="str">
-        <v>guia digital</v>
+        <v>anormalidades congenitas</v>
       </c>
       <c r="C308" t="str">
-        <v>avaliacao</v>
+        <v>capacitacao em servico</v>
       </c>
       <c r="D308" t="str">
-        <v/>
+        <v>saude da familia</v>
       </c>
       <c r="E308" t="str">
         <v/>
@@ -5641,16 +5641,16 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>alunos com deficiencias</v>
+        <v>netativismo</v>
       </c>
       <c r="B309" t="str">
-        <v>apreizagem</v>
+        <v>processos formativos</v>
       </c>
       <c r="C309" t="str">
-        <v>educacao inclusiva</v>
+        <v>empoderamento freireano</v>
       </c>
       <c r="D309" t="str">
-        <v>metodologia</v>
+        <v/>
       </c>
       <c r="E309" t="str">
         <v/>
@@ -5658,47 +5658,47 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>movimento devia</v>
+        <v>inovacao</v>
       </c>
       <c r="B310" t="str">
-        <v>arte surda</v>
+        <v>robotica educativa</v>
       </c>
       <c r="C310" t="str">
-        <v>extensaoead</v>
+        <v>apreizagem</v>
       </c>
       <c r="D310" t="str">
-        <v>moocs acessiveis em libras</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E310" t="str">
-        <v>lingua brasileira de sinais</v>
+        <v/>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>material digital acessivel</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B311" t="str">
-        <v>educacao digital inclusiva</v>
+        <v>design para a educacao</v>
       </c>
       <c r="C311" t="str">
-        <v>inclusao no ensino superior</v>
+        <v>capacitacao</v>
       </c>
       <c r="D311" t="str">
-        <v/>
+        <v>ludificacao</v>
       </c>
       <c r="E311" t="str">
-        <v/>
+        <v>gamificacao</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>educacao especial</v>
+        <v>educacao a distancia centrode educacao aberta e a distancia</v>
       </c>
       <c r="B312" t="str">
-        <v>formacao de professores</v>
+        <v>programa universidade aberta do brasil</v>
       </c>
       <c r="C312" t="str">
-        <v>tecnologia assistiva</v>
+        <v>ensino superior</v>
       </c>
       <c r="D312" t="str">
         <v/>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>educacao</v>
+        <v>educacao tradicional</v>
       </c>
       <c r="B313" t="str">
-        <v>inclusao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C313" t="str">
-        <v>ensino hibrido</v>
+        <v>retomada da apreizagem</v>
       </c>
       <c r="D313" t="str">
         <v/>
@@ -5726,16 +5726,16 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>autismo</v>
+        <v>letramento digital</v>
       </c>
       <c r="B314" t="str">
-        <v>modelo social de deficiencia</v>
+        <v>letramento</v>
       </c>
       <c r="C314" t="str">
-        <v>interatividade na educacao</v>
+        <v>educacao</v>
       </c>
       <c r="D314" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
       <c r="E314" t="str">
         <v/>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>ensino remoto</v>
+        <v>violencia</v>
       </c>
       <c r="B315" t="str">
-        <v>educacao especial</v>
+        <v>notificacao</v>
       </c>
       <c r="C315" t="str">
-        <v>inclusao</v>
+        <v>estudantes de medicina</v>
       </c>
       <c r="D315" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E315" t="str">
         <v/>
@@ -5760,16 +5760,16 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao</v>
+        <v>cursos abertos</v>
       </c>
       <c r="B316" t="str">
-        <v>tdics</v>
+        <v>educacao digital</v>
       </c>
       <c r="C316" t="str">
-        <v>acessibilidade</v>
+        <v>ods</v>
       </c>
       <c r="D316" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E316" t="str">
         <v/>
@@ -5777,13 +5777,13 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>ensino de libras</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B317" t="str">
-        <v>objetos digitais de apreizagem</v>
+        <v>ecnologias digitais da informacao e comunicacao tdic</v>
       </c>
       <c r="C317" t="str">
-        <v>professores em formacao</v>
+        <v>ensino remoto emergencial ere</v>
       </c>
       <c r="D317" t="str">
         <v/>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>sinalario</v>
+        <v>mapeamento</v>
       </c>
       <c r="B318" t="str">
-        <v>libras</v>
+        <v>cursos online</v>
       </c>
       <c r="C318" t="str">
-        <v>robotica</v>
+        <v>equipe</v>
       </c>
       <c r="D318" t="str">
-        <v>inclusao</v>
+        <v/>
       </c>
       <c r="E318" t="str">
         <v/>
@@ -5811,30 +5811,30 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>historia em quadrinho</v>
+        <v>pedagogia empresarial</v>
       </c>
       <c r="B319" t="str">
-        <v>reglete</v>
+        <v>pedagogo empresarial</v>
       </c>
       <c r="C319" t="str">
-        <v>braille</v>
+        <v>treinamento e desenvolvimento</v>
       </c>
       <c r="D319" t="str">
-        <v>educacao inclusiva</v>
+        <v/>
       </c>
       <c r="E319" t="str">
-        <v>modelo atomico</v>
+        <v/>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>ensino superior</v>
+        <v>educacao superior</v>
       </c>
       <c r="B320" t="str">
-        <v>tecnologia assistiva</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C320" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>covid19</v>
       </c>
       <c r="D320" t="str">
         <v/>
@@ -5845,13 +5845,13 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao musical online</v>
       </c>
       <c r="B321" t="str">
-        <v>inclusao de alunos com deficiencia</v>
+        <v>pratica de conjunto online</v>
       </c>
       <c r="C321" t="str">
-        <v>tecnologia assistiva</v>
+        <v>musica e sustentabilidade</v>
       </c>
       <c r="D321" t="str">
         <v/>
@@ -5862,50 +5862,50 @@
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>inclusao</v>
+        <v>psicoterapia online</v>
       </c>
       <c r="B322" t="str">
-        <v>libras</v>
+        <v>alianca e vinculo terapeuticos</v>
       </c>
       <c r="C322" t="str">
-        <v>quimica</v>
+        <v>ateimento online</v>
       </c>
       <c r="D322" t="str">
-        <v>tabela periodica</v>
+        <v>covid19</v>
       </c>
       <c r="E322" t="str">
-        <v>tecnologia digitais</v>
+        <v/>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>formacao profissional em saude</v>
       </c>
       <c r="B323" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C323" t="str">
-        <v>biologia</v>
+        <v>sistema unico de saude</v>
       </c>
       <c r="D323" t="str">
-        <v>ead</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="E323" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>vigilancia digital controversia cientifica</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="B324" t="str">
-        <v>ducacao nao presencial de emergencia</v>
+        <v>cultura maker</v>
       </c>
       <c r="C324" t="str">
-        <v>ciencia</v>
+        <v>fanzines</v>
       </c>
       <c r="D324" t="str">
-        <v>tecnologia e sociedade cts</v>
+        <v>educacao</v>
       </c>
       <c r="E324" t="str">
         <v/>
@@ -5913,50 +5913,50 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>ensino superior militar</v>
+        <v>residencia tecnic</v>
       </c>
       <c r="B325" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>inovacao</v>
       </c>
       <c r="C325" t="str">
-        <v>escola naval</v>
+        <v>transformacao digital</v>
       </c>
       <c r="D325" t="str">
-        <v>paemia covid19</v>
+        <v>egov</v>
       </c>
       <c r="E325" t="str">
-        <v/>
+        <v>design instrucional</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>cartapessoal</v>
+        <v>cancer</v>
       </c>
       <c r="B326" t="str">
-        <v>leitura</v>
+        <v>game</v>
       </c>
       <c r="C326" t="str">
-        <v>escrita</v>
+        <v>sexualidade</v>
       </c>
       <c r="D326" t="str">
-        <v>ensino fuamental i</v>
+        <v/>
       </c>
       <c r="E326" t="str">
-        <v>letramento</v>
+        <v/>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>apreizagem</v>
+        <v>educacao</v>
       </c>
       <c r="B327" t="str">
-        <v>quarta revolucao iustrial</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C327" t="str">
-        <v>afetividade</v>
+        <v>curriculo</v>
       </c>
       <c r="D327" t="str">
-        <v>humanidade</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E327" t="str">
         <v/>
@@ -5964,50 +5964,50 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>inclusao digital</v>
+        <v>curriculo subjetivo</v>
       </c>
       <c r="B328" t="str">
-        <v>ambientes virtuais de apreizagem ava</v>
+        <v>paradigma da apreizagem</v>
       </c>
       <c r="C328" t="str">
-        <v>resiliencia</v>
+        <v>tutorias</v>
       </c>
       <c r="D328" t="str">
-        <v>equidade</v>
+        <v/>
       </c>
       <c r="E328" t="str">
-        <v>offline</v>
+        <v/>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>lesson study</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B329" t="str">
-        <v>autoeficacia</v>
+        <v>inclusao digital</v>
       </c>
       <c r="C329" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>ead</v>
       </c>
       <c r="D329" t="str">
-        <v>apreizagem colaborativa</v>
+        <v>inovacao</v>
       </c>
       <c r="E329" t="str">
-        <v>revisao sistematica da literatura</v>
+        <v/>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>pibid</v>
+        <v>ensino superior</v>
       </c>
       <c r="B330" t="str">
-        <v>formacao de professores</v>
+        <v>universidades publicas</v>
       </c>
       <c r="C330" t="str">
-        <v>ciencias biologicas</v>
+        <v>pospaemia</v>
       </c>
       <c r="D330" t="str">
-        <v/>
+        <v>resiliencia organizacional</v>
       </c>
       <c r="E330" t="str">
         <v/>
@@ -6015,16 +6015,16 @@
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>danca e tecnologia</v>
+        <v>memoria</v>
       </c>
       <c r="B331" t="str">
-        <v>ambiencia de interacao digital</v>
+        <v>tdic</v>
       </c>
       <c r="C331" t="str">
-        <v>arte interativa digital</v>
+        <v>neurociencia</v>
       </c>
       <c r="D331" t="str">
-        <v>produsage</v>
+        <v>apreizagem</v>
       </c>
       <c r="E331" t="str">
         <v/>
@@ -6032,16 +6032,16 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>desenvolvimento cognitivo</v>
+        <v>ensino medio</v>
       </c>
       <c r="B332" t="str">
-        <v>cognicao numerica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C332" t="str">
-        <v>senso numerico</v>
+        <v>desigualdade educacional</v>
       </c>
       <c r="D332" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
       <c r="E332" t="str">
         <v/>
@@ -6049,16 +6049,16 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>direitos humanos</v>
+        <v>caracteristica</v>
       </c>
       <c r="B333" t="str">
-        <v>interdisciplinaridade</v>
+        <v>estudante</v>
       </c>
       <c r="C333" t="str">
-        <v>utilizacao de midias</v>
+        <v>licenciatura</v>
       </c>
       <c r="D333" t="str">
-        <v>ensino critico</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="E333" t="str">
         <v/>
@@ -6066,33 +6066,33 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino superior</v>
       </c>
       <c r="B334" t="str">
-        <v>ensino e apreizagem</v>
+        <v>trilha de apreizagem</v>
       </c>
       <c r="C334" t="str">
-        <v>graduacao em pedagogia ead</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="D334" t="str">
-        <v/>
+        <v>feedback</v>
       </c>
       <c r="E334" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>educacao a distancia</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B335" t="str">
-        <v>ensino superior</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C335" t="str">
-        <v>construcao identitaria</v>
+        <v>educacao infantil</v>
       </c>
       <c r="D335" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E335" t="str">
         <v/>
@@ -6100,16 +6100,16 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>agentes comunitarios de saude</v>
+        <v>metodologias ativas de apreizagem</v>
       </c>
       <c r="B336" t="str">
-        <v>anormalidades congenitas</v>
+        <v>administracao publica</v>
       </c>
       <c r="C336" t="str">
-        <v>capacitacao em servico</v>
+        <v>tdics</v>
       </c>
       <c r="D336" t="str">
-        <v>saude da familia</v>
+        <v/>
       </c>
       <c r="E336" t="str">
         <v/>
@@ -6117,16 +6117,16 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>netativismo</v>
+        <v>escola</v>
       </c>
       <c r="B337" t="str">
-        <v>processos formativos</v>
+        <v>leitura</v>
       </c>
       <c r="C337" t="str">
-        <v>empoderamento freireano</v>
+        <v>escrita</v>
       </c>
       <c r="D337" t="str">
-        <v/>
+        <v>tecnologias hipertextuais</v>
       </c>
       <c r="E337" t="str">
         <v/>
@@ -6134,16 +6134,16 @@
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>inovacao</v>
+        <v>ensino remoto emergencia</v>
       </c>
       <c r="B338" t="str">
-        <v>robotica educativa</v>
+        <v>biologia atividades praticas</v>
       </c>
       <c r="C338" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="D338" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E338" t="str">
         <v/>
@@ -6151,47 +6151,47 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>ensino e apreizagem</v>
+        <v>avaliacao</v>
       </c>
       <c r="B339" t="str">
-        <v>design para a educacao</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C339" t="str">
-        <v>capacitacao</v>
+        <v>cultura digital</v>
       </c>
       <c r="D339" t="str">
-        <v>ludificacao</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E339" t="str">
-        <v>gamificacao</v>
+        <v/>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>educacao a distancia centrode educacao aberta e a distancia</v>
+        <v>educacao</v>
       </c>
       <c r="B340" t="str">
-        <v>programa universidade aberta do brasil</v>
+        <v>comunicacao</v>
       </c>
       <c r="C340" t="str">
-        <v>ensino superior</v>
+        <v>midias sociais</v>
       </c>
       <c r="D340" t="str">
-        <v/>
+        <v>publicidade</v>
       </c>
       <c r="E340" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>educacao tradicional</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B341" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="C341" t="str">
-        <v>retomada da apreizagem</v>
+        <v>paemia</v>
       </c>
       <c r="D341" t="str">
         <v/>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>letramento digital</v>
+        <v>apreizagem</v>
       </c>
       <c r="B342" t="str">
-        <v>letramento</v>
+        <v>gamificacao</v>
       </c>
       <c r="C342" t="str">
-        <v>educacao</v>
+        <v>este de progresso</v>
       </c>
       <c r="D342" t="str">
-        <v>cultura digital</v>
+        <v>educacao medica</v>
       </c>
       <c r="E342" t="str">
         <v/>
@@ -6219,13 +6219,13 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>violencia</v>
+        <v>ecologia da apreizagem</v>
       </c>
       <c r="B343" t="str">
-        <v>notificacao</v>
+        <v>cultura digital</v>
       </c>
       <c r="C343" t="str">
-        <v>estudantes de medicina</v>
+        <v>processos de apreizagem</v>
       </c>
       <c r="D343" t="str">
         <v/>
@@ -6236,13 +6236,13 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>cursos abertos</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B344" t="str">
-        <v>educacao digital</v>
+        <v>podcast de ciencias</v>
       </c>
       <c r="C344" t="str">
-        <v>ods</v>
+        <v>apreizagem</v>
       </c>
       <c r="D344" t="str">
         <v/>
@@ -6253,13 +6253,13 @@
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>multiletramentos</v>
+        <v>educacao</v>
       </c>
       <c r="B345" t="str">
-        <v>ecnologias digitais da informacao e comunicacao tdic</v>
+        <v>tecnologia</v>
       </c>
       <c r="C345" t="str">
-        <v>ensino remoto emergencial ere</v>
+        <v>digital</v>
       </c>
       <c r="D345" t="str">
         <v/>
@@ -6270,13 +6270,13 @@
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>mapeamento</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B346" t="str">
-        <v>cursos online</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C346" t="str">
-        <v>equipe</v>
+        <v>qualidade na educacao superior</v>
       </c>
       <c r="D346" t="str">
         <v/>
@@ -6287,13 +6287,13 @@
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>pedagogia empresarial</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B347" t="str">
-        <v>pedagogo empresarial</v>
+        <v>avaliacao de tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C347" t="str">
-        <v>treinamento e desenvolvimento</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="D347" t="str">
         <v/>
@@ -6304,13 +6304,13 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>educacao superior</v>
+        <v>metaverso</v>
       </c>
       <c r="B348" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>ensino fuamental</v>
       </c>
       <c r="C348" t="str">
-        <v>covid19</v>
+        <v>ciencia humanas</v>
       </c>
       <c r="D348" t="str">
         <v/>
@@ -6321,33 +6321,33 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>educacao musical online</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B349" t="str">
-        <v>pratica de conjunto online</v>
+        <v>alfabetizacao cientifica</v>
       </c>
       <c r="C349" t="str">
-        <v>musica e sustentabilidade</v>
+        <v>ensino de geografia</v>
       </c>
       <c r="D349" t="str">
-        <v/>
+        <v>apreizagem baseada na resolucao de problemas</v>
       </c>
       <c r="E349" t="str">
-        <v/>
+        <v>web 20</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>psicoterapia online</v>
+        <v>gamificacao</v>
       </c>
       <c r="B350" t="str">
-        <v>alianca e vinculo terapeuticos</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="C350" t="str">
-        <v>ateimento online</v>
+        <v>apreizagem de leitura</v>
       </c>
       <c r="D350" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E350" t="str">
         <v/>
@@ -6355,33 +6355,33 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>formacao profissional em saude</v>
+        <v>tdics</v>
       </c>
       <c r="B351" t="str">
-        <v>educacao a distancia</v>
+        <v>colegio de aplicacao</v>
       </c>
       <c r="C351" t="str">
-        <v>sistema unico de saude</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D351" t="str">
-        <v>materiais didaticos</v>
+        <v>paemia</v>
       </c>
       <c r="E351" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>metodologia ativa</v>
+        <v>orientador educacional</v>
       </c>
       <c r="B352" t="str">
-        <v>cultura maker</v>
+        <v>tecnologias</v>
       </c>
       <c r="C352" t="str">
-        <v>fanzines</v>
+        <v>covid19</v>
       </c>
       <c r="D352" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E352" t="str">
         <v/>
@@ -6389,30 +6389,30 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>residencia tecnic</v>
+        <v>educacao digital</v>
       </c>
       <c r="B353" t="str">
-        <v>inovacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C353" t="str">
-        <v>transformacao digital</v>
+        <v>paemia</v>
       </c>
       <c r="D353" t="str">
-        <v>egov</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E353" t="str">
-        <v>design instrucional</v>
+        <v>ead</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>cancer</v>
+        <v>ateimento educacional especializado</v>
       </c>
       <c r="B354" t="str">
-        <v>game</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C354" t="str">
-        <v>sexualidade</v>
+        <v>transtorno do espectro do autismo</v>
       </c>
       <c r="D354" t="str">
         <v/>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>educacao</v>
+        <v>alimentos organicos</v>
       </c>
       <c r="B355" t="str">
-        <v>tecnologias digitais</v>
+        <v>eletiva</v>
       </c>
       <c r="C355" t="str">
-        <v>curriculo</v>
+        <v>historia em quadrinhos</v>
       </c>
       <c r="D355" t="str">
-        <v>educacao hibrida</v>
+        <v/>
       </c>
       <c r="E355" t="str">
         <v/>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>curriculo subjetivo</v>
+        <v>discente</v>
       </c>
       <c r="B356" t="str">
-        <v>paradigma da apreizagem</v>
+        <v>ensino superior</v>
       </c>
       <c r="C356" t="str">
-        <v>tutorias</v>
+        <v>protagonismo</v>
       </c>
       <c r="D356" t="str">
-        <v/>
+        <v>tdics</v>
       </c>
       <c r="E356" t="str">
         <v/>
@@ -6457,16 +6457,16 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>ensino hibrido</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B357" t="str">
-        <v>inclusao digital</v>
+        <v>revista digital</v>
       </c>
       <c r="C357" t="str">
-        <v>ead</v>
+        <v>cultura digital</v>
       </c>
       <c r="D357" t="str">
-        <v>inovacao</v>
+        <v>protagonismo do estudante</v>
       </c>
       <c r="E357" t="str">
         <v/>
@@ -6474,16 +6474,16 @@
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>ensino superior</v>
+        <v>steam</v>
       </c>
       <c r="B358" t="str">
-        <v>universidades publicas</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C358" t="str">
-        <v>pospaemia</v>
+        <v>ensino</v>
       </c>
       <c r="D358" t="str">
-        <v>resiliencia organizacional</v>
+        <v/>
       </c>
       <c r="E358" t="str">
         <v/>
@@ -6491,16 +6491,16 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>memoria</v>
+        <v>tdic</v>
       </c>
       <c r="B359" t="str">
-        <v>tdic</v>
+        <v>professores de ingles</v>
       </c>
       <c r="C359" t="str">
-        <v>neurociencia</v>
+        <v>apreizagem emingles</v>
       </c>
       <c r="D359" t="str">
-        <v>apreizagem</v>
+        <v>ufpa</v>
       </c>
       <c r="E359" t="str">
         <v/>
@@ -6508,16 +6508,16 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>ensino medio</v>
+        <v>precalculo</v>
       </c>
       <c r="B360" t="str">
-        <v>ensino remoto</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="C360" t="str">
-        <v>desigualdade educacional</v>
+        <v>transicao terciaria</v>
       </c>
       <c r="D360" t="str">
-        <v>cultura digital</v>
+        <v>covid19</v>
       </c>
       <c r="E360" t="str">
         <v/>
@@ -6525,50 +6525,50 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>caracteristica</v>
+        <v>smartphone</v>
       </c>
       <c r="B361" t="str">
-        <v>estudante</v>
+        <v>lingua inglesa li</v>
       </c>
       <c r="C361" t="str">
-        <v>licenciatura</v>
+        <v>educacao de jovens e adultos eja</v>
       </c>
       <c r="D361" t="str">
-        <v>ensino e apreizagem</v>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="E361" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>ensino superior</v>
+        <v>ensino medio</v>
       </c>
       <c r="B362" t="str">
-        <v>trilha de apreizagem</v>
+        <v>avaliacao educacional</v>
       </c>
       <c r="C362" t="str">
-        <v>sala de aula invertida</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="D362" t="str">
-        <v>feedback</v>
+        <v>ncc</v>
       </c>
       <c r="E362" t="str">
-        <v>formacao de professores</v>
+        <v>tdic</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>estagio supervisionado</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B363" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>praticas hibridas de ensino</v>
       </c>
       <c r="C363" t="str">
-        <v>educacao infantil</v>
+        <v>pospaemia</v>
       </c>
       <c r="D363" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E363" t="str">
         <v/>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>metodologias ativas de apreizagem</v>
+        <v>ead</v>
       </c>
       <c r="B364" t="str">
-        <v>administracao publica</v>
+        <v>educacao basica</v>
       </c>
       <c r="C364" t="str">
-        <v>tdics</v>
+        <v>professores</v>
       </c>
       <c r="D364" t="str">
         <v/>
@@ -6593,16 +6593,16 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>escola</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B365" t="str">
-        <v>leitura</v>
+        <v>olimpiadas cientificas</v>
       </c>
       <c r="C365" t="str">
-        <v>escrita</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D365" t="str">
-        <v>tecnologias hipertextuais</v>
+        <v/>
       </c>
       <c r="E365" t="str">
         <v/>
@@ -6610,16 +6610,16 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>ensino remoto emergencia</v>
+        <v>professores iniciantes</v>
       </c>
       <c r="B366" t="str">
-        <v>biologia atividades praticas</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C366" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
       <c r="D366" t="str">
-        <v/>
+        <v>conhecimento tecnologico e pedagogico do conteudo</v>
       </c>
       <c r="E366" t="str">
         <v/>
@@ -6627,262 +6627,24 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>avaliacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B367" t="str">
-        <v>educacao hibrida</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="C367" t="str">
-        <v>cultura digital</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D367" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E367" t="str">
         <v/>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="B368" t="str">
-        <v>comunicacao</v>
-      </c>
-      <c r="C368" t="str">
-        <v>midias sociais</v>
-      </c>
-      <c r="D368" t="str">
-        <v>publicidade</v>
-      </c>
-      <c r="E368" t="str">
-        <v>tecnologias</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="str">
-        <v>ensino de quimica</v>
-      </c>
-      <c r="B369" t="str">
-        <v>tdic</v>
-      </c>
-      <c r="C369" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="D369" t="str">
-        <v/>
-      </c>
-      <c r="E369" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="str">
-        <v>apreizagem</v>
-      </c>
-      <c r="B370" t="str">
-        <v>gamificacao</v>
-      </c>
-      <c r="C370" t="str">
-        <v>este de progresso</v>
-      </c>
-      <c r="D370" t="str">
-        <v>educacao medica</v>
-      </c>
-      <c r="E370" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="str">
-        <v>ecologia da apreizagem</v>
-      </c>
-      <c r="B371" t="str">
-        <v>cultura digital</v>
-      </c>
-      <c r="C371" t="str">
-        <v>processos de apreizagem</v>
-      </c>
-      <c r="D371" t="str">
-        <v/>
-      </c>
-      <c r="E371" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="str">
-        <v>ensino hibrido</v>
-      </c>
-      <c r="B372" t="str">
-        <v>podcast de ciencias</v>
-      </c>
-      <c r="C372" t="str">
-        <v>apreizagem</v>
-      </c>
-      <c r="D372" t="str">
-        <v/>
-      </c>
-      <c r="E372" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="str">
-        <v>educacao</v>
-      </c>
-      <c r="B373" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="C373" t="str">
-        <v>digital</v>
-      </c>
-      <c r="D373" t="str">
-        <v/>
-      </c>
-      <c r="E373" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="str">
-        <v>formacao de professores</v>
-      </c>
-      <c r="B374" t="str">
-        <v>ensino remoto emergencial</v>
-      </c>
-      <c r="C374" t="str">
-        <v>qualidade na educacao superior</v>
-      </c>
-      <c r="D374" t="str">
-        <v/>
-      </c>
-      <c r="E374" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="str">
-        <v>metaavaliacao</v>
-      </c>
-      <c r="B375" t="str">
-        <v>avaliacao de tecnologia da informacao e comunicacao</v>
-      </c>
-      <c r="C375" t="str">
-        <v>jogos eletronicos</v>
-      </c>
-      <c r="D375" t="str">
-        <v/>
-      </c>
-      <c r="E375" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="str">
-        <v>metaverso</v>
-      </c>
-      <c r="B376" t="str">
-        <v>ensino fuamental</v>
-      </c>
-      <c r="C376" t="str">
-        <v>ciencia humanas</v>
-      </c>
-      <c r="D376" t="str">
-        <v/>
-      </c>
-      <c r="E376" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="str">
-        <v>multiletramentos</v>
-      </c>
-      <c r="B377" t="str">
-        <v>alfabetizacao cientifica</v>
-      </c>
-      <c r="C377" t="str">
-        <v>ensino de geografia</v>
-      </c>
-      <c r="D377" t="str">
-        <v>apreizagem baseada na resolucao de problemas</v>
-      </c>
-      <c r="E377" t="str">
-        <v>web 20</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="str">
-        <v>gamificacao</v>
-      </c>
-      <c r="B378" t="str">
-        <v>objeto de leitura gamificado</v>
-      </c>
-      <c r="C378" t="str">
-        <v>apreizagem de leitura</v>
-      </c>
-      <c r="D378" t="str">
-        <v/>
-      </c>
-      <c r="E378" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="str">
-        <v>tdics</v>
-      </c>
-      <c r="B379" t="str">
-        <v>colegio de aplicacao</v>
-      </c>
-      <c r="C379" t="str">
-        <v>ensino remoto emergencial</v>
-      </c>
-      <c r="D379" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="E379" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="str">
-        <v>orientador educacional</v>
-      </c>
-      <c r="B380" t="str">
-        <v>tecnologias</v>
-      </c>
-      <c r="C380" t="str">
-        <v>covid19</v>
-      </c>
-      <c r="D380" t="str">
-        <v/>
-      </c>
-      <c r="E380" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="str">
-        <v>educacao digital</v>
-      </c>
-      <c r="B381" t="str">
-        <v>tecnologia</v>
-      </c>
-      <c r="C381" t="str">
-        <v>paemia</v>
-      </c>
-      <c r="D381" t="str">
-        <v>ensino remoto</v>
-      </c>
-      <c r="E381" t="str">
-        <v>ead</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E381"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E367"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/2024-04-10T22:42:49.xlsx
+++ b/uploads/2024-04-10T22:42:49.xlsx
@@ -422,16 +422,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>robotica educacional</v>
+        <v>insurgencias</v>
       </c>
       <c r="B2" t="str">
-        <v>narrativa</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C2" t="str">
-        <v>curriculo de tecnologia</v>
+        <v>docencia no ensino superior</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -439,16 +439,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ensino</v>
+        <v>educacao</v>
       </c>
       <c r="B3" t="str">
-        <v>metodologias ativas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C3" t="str">
-        <v>pratica pedagogica</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D3" t="str">
-        <v>sala de aula invertida</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -456,33 +456,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>educacao escolar</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="B4" t="str">
-        <v>sala de aula virtual</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C4" t="str">
-        <v>ensino remoto e ensino hibrido</v>
+        <v>audiovisual</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>educacao fisica</v>
+        <v>microbiologia</v>
       </c>
       <c r="B5" t="str">
-        <v>praticas corporais</v>
+        <v>ensino</v>
       </c>
       <c r="C5" t="str">
-        <v>presencial</v>
+        <v>tecnologia</v>
       </c>
       <c r="D5" t="str">
-        <v>a distancia</v>
+        <v>jogos</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -490,16 +490,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>insurgencias</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B6" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>competencias digitais</v>
       </c>
       <c r="C6" t="str">
-        <v>docencia no ensino superior</v>
+        <v>educacao basica</v>
       </c>
       <c r="D6" t="str">
-        <v>educacao a distancia</v>
+        <v>covid19</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -507,50 +507,50 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>educacao</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B7" t="str">
-        <v>ensino remoto</v>
+        <v>professores</v>
       </c>
       <c r="C7" t="str">
-        <v>ensino hibrido</v>
+        <v>selfie for teachers</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>tecnologia digital</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B8" t="str">
-        <v>formacao de professores</v>
+        <v>avaliacao</v>
       </c>
       <c r="C8" t="str">
-        <v>audiovisual</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D8" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>microbiologia</v>
+        <v>avaliacao de estagio</v>
       </c>
       <c r="B9" t="str">
-        <v>ensino</v>
+        <v>processo pedagogico</v>
       </c>
       <c r="C9" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D9" t="str">
-        <v>jogos</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -558,16 +558,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>formacao de professores</v>
+        <v>bitmoji</v>
       </c>
       <c r="B10" t="str">
-        <v>competencias digitais</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C10" t="str">
-        <v>educacao basica</v>
+        <v>praticas de ensino</v>
       </c>
       <c r="D10" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -575,50 +575,50 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>competencias digitais</v>
+        <v>processo avaliativo</v>
       </c>
       <c r="B11" t="str">
-        <v>professores</v>
+        <v>engenharia</v>
       </c>
       <c r="C11" t="str">
-        <v>selfie for teachers</v>
+        <v>projeto integrador</v>
       </c>
       <c r="D11" t="str">
-        <v>educacao basica</v>
+        <v>paemia</v>
       </c>
       <c r="E11" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>google meet</v>
       </c>
       <c r="B12" t="str">
-        <v>avaliacao</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="C12" t="str">
-        <v>curso de pedagogia</v>
+        <v>paemia</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>avaliacao de estagio</v>
+        <v>tdic</v>
       </c>
       <c r="B13" t="str">
-        <v>processo pedagogico</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C13" t="str">
-        <v>tecnologias educacionais</v>
+        <v>frequencia escolar</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -626,13 +626,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>bitmoji</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B14" t="str">
-        <v>ferramentas digitais</v>
+        <v>recurso tecnologico</v>
       </c>
       <c r="C14" t="str">
-        <v>praticas de ensino</v>
+        <v>formacao continuada</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -643,16 +643,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>processo avaliativo</v>
+        <v>apreizagem da docencia</v>
       </c>
       <c r="B15" t="str">
-        <v>engenharia</v>
+        <v>professor iniciante</v>
       </c>
       <c r="C15" t="str">
-        <v>projeto integrador</v>
+        <v>mentoria</v>
       </c>
       <c r="D15" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -660,50 +660,50 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>google meet</v>
+        <v>revisao de literatura</v>
       </c>
       <c r="B16" t="str">
-        <v>relato de experiencia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C16" t="str">
-        <v>paemia</v>
+        <v>formacao de professor</v>
       </c>
       <c r="D16" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>tdic</v>
+        <v>cultura digital</v>
       </c>
       <c r="B17" t="str">
-        <v>ensino remoto</v>
+        <v>educacao</v>
       </c>
       <c r="C17" t="str">
-        <v>frequencia escolar</v>
+        <v>paemia</v>
       </c>
       <c r="D17" t="str">
-        <v>educacao basica</v>
+        <v>fazer pedagogico</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>educacao profissional</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>tecnologia educacional</v>
+        <v>comunicacao</v>
       </c>
       <c r="B18" t="str">
-        <v>recurso tecnologico</v>
+        <v>cultura digital</v>
       </c>
       <c r="C18" t="str">
-        <v>formacao continuada</v>
+        <v>educacao</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
       <c r="E18" t="str">
         <v/>
@@ -711,13 +711,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>apreizagem da docencia</v>
+        <v>processos educativos hibridos</v>
       </c>
       <c r="B19" t="str">
-        <v>professor iniciante</v>
+        <v>formacao docente</v>
       </c>
       <c r="C19" t="str">
-        <v>mentoria</v>
+        <v>avaliacao</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -728,16 +728,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>revisao de literatura</v>
+        <v>discentesdocentes</v>
       </c>
       <c r="B20" t="str">
-        <v>tecnologias digitais</v>
+        <v>cibercultura</v>
       </c>
       <c r="C20" t="str">
-        <v>formacao de professor</v>
+        <v>paemia</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>periferia</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -745,33 +745,33 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>cultura digital</v>
+        <v>pedagogia das competencias</v>
       </c>
       <c r="B21" t="str">
-        <v>educacao</v>
+        <v>formacao docente</v>
       </c>
       <c r="C21" t="str">
-        <v>paemia</v>
+        <v>semiformacao</v>
       </c>
       <c r="D21" t="str">
-        <v>fazer pedagogico</v>
+        <v>racionalidade tecnologica instrumental</v>
       </c>
       <c r="E21" t="str">
-        <v>educacao profissional</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>comunicacao</v>
+        <v>educacao</v>
       </c>
       <c r="B22" t="str">
-        <v>cultura digital</v>
+        <v>docente</v>
       </c>
       <c r="C22" t="str">
-        <v>educacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="D22" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -779,13 +779,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>processos educativos hibridos</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B23" t="str">
-        <v>formacao docente</v>
+        <v>atividades remotas</v>
       </c>
       <c r="C23" t="str">
-        <v>avaliacao</v>
+        <v>formacao academica</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -796,16 +796,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>discentesdocentes</v>
+        <v>tecnologia de comunicacao</v>
       </c>
       <c r="B24" t="str">
-        <v>cibercultura</v>
+        <v>perguntas</v>
       </c>
       <c r="C24" t="str">
-        <v>paemia</v>
+        <v>apreizagem</v>
       </c>
       <c r="D24" t="str">
-        <v>periferia</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -813,16 +813,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>pedagogia das competencias</v>
+        <v>atividade colaborativa</v>
       </c>
       <c r="B25" t="str">
-        <v>formacao docente</v>
+        <v>design de colaboracao</v>
       </c>
       <c r="C25" t="str">
-        <v>semiformacao</v>
+        <v>abordagens do design</v>
       </c>
       <c r="D25" t="str">
-        <v>racionalidade tecnologica instrumental</v>
+        <v>modelo addie</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -830,30 +830,30 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>educacao</v>
+        <v>reescrita</v>
       </c>
       <c r="B26" t="str">
-        <v>docente</v>
+        <v>docencia</v>
       </c>
       <c r="C26" t="str">
-        <v>tecnologia</v>
+        <v>anos finais do ensino fuamental</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>dissertativo argumentativo</v>
       </c>
       <c r="E26" t="str">
-        <v/>
+        <v>enem</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>estagio supervisionado</v>
+        <v>jogo da onca</v>
       </c>
       <c r="B27" t="str">
-        <v>atividades remotas</v>
+        <v>lei 11645</v>
       </c>
       <c r="C27" t="str">
-        <v>formacao academica</v>
+        <v>cultura iigena</v>
       </c>
       <c r="D27" t="str">
         <v/>
@@ -864,13 +864,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>tecnologia de comunicacao</v>
+        <v>educacao 40 design educacional</v>
       </c>
       <c r="B28" t="str">
-        <v>perguntas</v>
+        <v>modelo addie</v>
       </c>
       <c r="C28" t="str">
-        <v>apreizagem</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -881,16 +881,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>atividade colaborativa</v>
+        <v>covid19</v>
       </c>
       <c r="B29" t="str">
-        <v>design de colaboracao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C29" t="str">
-        <v>abordagens do design</v>
+        <v>professores</v>
       </c>
       <c r="D29" t="str">
-        <v>modelo addie</v>
+        <v>experiencias</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -898,30 +898,30 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>reescrita</v>
+        <v>curriculo</v>
       </c>
       <c r="B30" t="str">
-        <v>docencia</v>
+        <v>design curricular</v>
       </c>
       <c r="C30" t="str">
-        <v>anos finais do ensino fuamental</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D30" t="str">
-        <v>dissertativo argumentativo</v>
+        <v>bleedlearning</v>
       </c>
       <c r="E30" t="str">
-        <v>enem</v>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>jogo da onca</v>
+        <v>capacitacao de professores</v>
       </c>
       <c r="B31" t="str">
-        <v>lei 11645</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C31" t="str">
-        <v>cultura iigena</v>
+        <v>etsus</v>
       </c>
       <c r="D31" t="str">
         <v/>
@@ -932,13 +932,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>educacao 40 design educacional</v>
+        <v>cultura escolarizante</v>
       </c>
       <c r="B32" t="str">
-        <v>modelo addie</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C32" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -949,16 +949,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>covid19</v>
+        <v>ensino superior</v>
       </c>
       <c r="B33" t="str">
-        <v>educacao a distancia</v>
+        <v>odontologia</v>
       </c>
       <c r="C33" t="str">
-        <v>professores</v>
+        <v>paemia</v>
       </c>
       <c r="D33" t="str">
-        <v>experiencias</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -966,33 +966,33 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>curriculo</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B34" t="str">
-        <v>design curricular</v>
+        <v>tdic</v>
       </c>
       <c r="C34" t="str">
-        <v>educacao a distancia</v>
+        <v>aulas sincronas</v>
       </c>
       <c r="D34" t="str">
-        <v>bleedlearning</v>
+        <v>ensino superior</v>
       </c>
       <c r="E34" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>capacitacao de professores</v>
+        <v>ensino para a criatividade</v>
       </c>
       <c r="B35" t="str">
-        <v>educacao a distancia</v>
+        <v>internacionalidade</v>
       </c>
       <c r="C35" t="str">
-        <v>etsus</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>pensamento criativo</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>cultura escolarizante</v>
+        <v>reflexao</v>
       </c>
       <c r="B36" t="str">
-        <v>ensino hibrido</v>
+        <v>epistemologia</v>
       </c>
       <c r="C36" t="str">
-        <v>metodologias ativas</v>
+        <v>pratica docente</v>
       </c>
       <c r="D36" t="str">
         <v/>
@@ -1020,13 +1020,13 @@
         <v>ensino superior</v>
       </c>
       <c r="B37" t="str">
-        <v>odontologia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C37" t="str">
-        <v>paemia</v>
+        <v>formacao inicial</v>
       </c>
       <c r="D37" t="str">
-        <v>educacao hibrida</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>ensino hibrido</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B38" t="str">
-        <v>tdic</v>
+        <v>covid19</v>
       </c>
       <c r="C38" t="str">
-        <v>aulas sincronas</v>
+        <v>ensino online emergencial</v>
       </c>
       <c r="D38" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>ensino para a criatividade</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B39" t="str">
-        <v>internacionalidade</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C39" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino superior</v>
       </c>
       <c r="D39" t="str">
-        <v>pensamento criativo</v>
+        <v/>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1068,16 +1068,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>reflexao</v>
+        <v>museus virtuais</v>
       </c>
       <c r="B40" t="str">
-        <v>epistemologia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C40" t="str">
-        <v>pratica docente</v>
+        <v>ensino de historia</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>estagio supervisionado</v>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -1085,16 +1085,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>ensino superior</v>
+        <v>ensino nao presencia</v>
       </c>
       <c r="B41" t="str">
-        <v>ensino remoto</v>
+        <v>cursinho popular</v>
       </c>
       <c r="C41" t="str">
-        <v>formacao inicial</v>
+        <v>acesso ao ensino superior</v>
       </c>
       <c r="D41" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E41" t="str">
         <v/>
@@ -1102,16 +1102,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>estagio supervisionado</v>
+        <v>tpack</v>
       </c>
       <c r="B42" t="str">
-        <v>covid19</v>
+        <v>docencia virtual</v>
       </c>
       <c r="C42" t="str">
-        <v>ensino online emergencial</v>
+        <v>tdic</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>profissionalizacao docente</v>
       </c>
       <c r="E42" t="str">
         <v/>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>formacao continuada</v>
+        <v>design thinking</v>
       </c>
       <c r="B43" t="str">
-        <v>ferramentas digitais</v>
+        <v>teacher training</v>
       </c>
       <c r="C43" t="str">
-        <v>ensino superior</v>
+        <v>digital technologies</v>
       </c>
       <c r="D43" t="str">
         <v/>
@@ -1136,16 +1136,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>museus virtuais</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B44" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="C44" t="str">
-        <v>ensino de historia</v>
+        <v>competencias digitais</v>
       </c>
       <c r="D44" t="str">
-        <v>estagio supervisionado</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <v/>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ensino nao presencia</v>
+        <v>figura</v>
       </c>
       <c r="B45" t="str">
-        <v>cursinho popular</v>
+        <v>figuras geometricas</v>
       </c>
       <c r="C45" t="str">
-        <v>acesso ao ensino superior</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
       <c r="D45" t="str">
         <v/>
@@ -1170,33 +1170,33 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>tpack</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B46" t="str">
-        <v>docencia virtual</v>
+        <v>educacao ambiental</v>
       </c>
       <c r="C46" t="str">
-        <v>tdic</v>
+        <v>educacao basica</v>
       </c>
       <c r="D46" t="str">
-        <v>profissionalizacao docente</v>
+        <v>revisao sistematica</v>
       </c>
       <c r="E46" t="str">
-        <v/>
+        <v>metodologias de ensino</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>design thinking</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B47" t="str">
-        <v>teacher training</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C47" t="str">
-        <v>digital technologies</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E47" t="str">
         <v/>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>avaliacao formativa</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B48" t="str">
-        <v>tecnologias educacionais</v>
+        <v>tdic</v>
       </c>
       <c r="C48" t="str">
-        <v>competencias digitais</v>
+        <v>quimica</v>
       </c>
       <c r="D48" t="str">
         <v/>
@@ -1221,16 +1221,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>figura</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B49" t="str">
-        <v>figuras geometricas</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C49" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D49" t="str">
-        <v/>
+        <v>pospaemia</v>
       </c>
       <c r="E49" t="str">
         <v/>
@@ -1238,33 +1238,33 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>formacao continuada de professores</v>
+        <v>inovacao</v>
       </c>
       <c r="B50" t="str">
-        <v>educacao ambiental</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C50" t="str">
-        <v>educacao basica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D50" t="str">
-        <v>revisao sistematica</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>metodologias de ensino</v>
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>educacao infantil</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B51" t="str">
-        <v>formacao continuada</v>
+        <v>tpack</v>
       </c>
       <c r="C51" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="D51" t="str">
-        <v>paemia</v>
+        <v>professor reflexivo</v>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>formacao de professores</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B52" t="str">
-        <v>tdic</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C52" t="str">
-        <v>quimica</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D52" t="str">
         <v/>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>formacao de professores</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="B53" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologias da informacao e da comunicacao</v>
       </c>
       <c r="C53" t="str">
-        <v>curso de pedagogia</v>
+        <v>cursos de licenciaturas</v>
       </c>
       <c r="D53" t="str">
-        <v>pospaemia</v>
+        <v>percepcao discente</v>
       </c>
       <c r="E53" t="str">
         <v/>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>inovacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B54" t="str">
-        <v>tecnologias digitais</v>
+        <v>pedagogia</v>
       </c>
       <c r="C54" t="str">
-        <v>formacao de professores</v>
+        <v>juri simulado</v>
       </c>
       <c r="D54" t="str">
         <v/>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>formacao de professores</v>
+        <v>digital literacy</v>
       </c>
       <c r="B55" t="str">
-        <v>tpack</v>
+        <v>remote teaching</v>
       </c>
       <c r="C55" t="str">
-        <v>tdic</v>
+        <v>dict</v>
       </c>
       <c r="D55" t="str">
-        <v>professor reflexivo</v>
+        <v/>
       </c>
       <c r="E55" t="str">
         <v/>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>educacao infantil</v>
+        <v>formacao docente</v>
       </c>
       <c r="B56" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>pratica docente</v>
       </c>
       <c r="C56" t="str">
-        <v>praticas pedagogicas</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D56" t="str">
         <v/>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>inovacao educacional</v>
+        <v>estilos de apreizagem</v>
       </c>
       <c r="B57" t="str">
-        <v>tecnologias da informacao e da comunicacao</v>
+        <v>modelo de kolb</v>
       </c>
       <c r="C57" t="str">
-        <v>cursos de licenciaturas</v>
+        <v>aplicacao web</v>
       </c>
       <c r="D57" t="str">
-        <v>percepcao discente</v>
+        <v/>
       </c>
       <c r="E57" t="str">
         <v/>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>educacao a distancia</v>
+        <v>tdics</v>
       </c>
       <c r="B58" t="str">
-        <v>pedagogia</v>
+        <v>formacao docente</v>
       </c>
       <c r="C58" t="str">
-        <v>juri simulado</v>
+        <v>praticapedagogicahibrida</v>
       </c>
       <c r="D58" t="str">
         <v/>
@@ -1391,30 +1391,30 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>digital literacy</v>
+        <v>engajamento</v>
       </c>
       <c r="B59" t="str">
-        <v>remote teaching</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C59" t="str">
-        <v>dict</v>
+        <v>formacao docente</v>
       </c>
       <c r="D59" t="str">
-        <v/>
+        <v>mediacao docente diferenciada</v>
       </c>
       <c r="E59" t="str">
-        <v/>
+        <v>apreizagem virtual</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>formacao docente</v>
+        <v>metodologias ativas e criativas</v>
       </c>
       <c r="B60" t="str">
-        <v>pratica docente</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C60" t="str">
-        <v>tecnologias digitais</v>
+        <v>formacao pedagogica</v>
       </c>
       <c r="D60" t="str">
         <v/>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>estilos de apreizagem</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B61" t="str">
-        <v>modelo de kolb</v>
+        <v>ensino superior</v>
       </c>
       <c r="C61" t="str">
-        <v>aplicacao web</v>
+        <v>nsino remoto</v>
       </c>
       <c r="D61" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>tdics</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B62" t="str">
-        <v>formacao docente</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C62" t="str">
-        <v>praticapedagogicahibrida</v>
+        <v>multiletramentos</v>
       </c>
       <c r="D62" t="str">
         <v/>
@@ -1459,30 +1459,30 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>engajamento</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="B63" t="str">
-        <v>ensino hibrido</v>
+        <v>sistema de recomeacao</v>
       </c>
       <c r="C63" t="str">
-        <v>formacao docente</v>
+        <v>producao textua</v>
       </c>
       <c r="D63" t="str">
-        <v>mediacao docente diferenciada</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>apreizagem virtual</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>metodologias ativas e criativas</v>
+        <v>idosos</v>
       </c>
       <c r="B64" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino coletivo de violao</v>
       </c>
       <c r="C64" t="str">
-        <v>formacao pedagogica</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="D64" t="str">
         <v/>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>metodologias ativas</v>
+        <v>narrativas digitais</v>
       </c>
       <c r="B65" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C65" t="str">
-        <v>nsino remoto</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D65" t="str">
-        <v>covid19</v>
+        <v>formacao docente</v>
       </c>
       <c r="E65" t="str">
         <v/>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>formacao continuada</v>
+        <v>competencia digital</v>
       </c>
       <c r="B66" t="str">
-        <v>tecnologias digitais</v>
+        <v>tdic</v>
       </c>
       <c r="C66" t="str">
-        <v>multiletramentos</v>
+        <v>digicompedu</v>
       </c>
       <c r="D66" t="str">
-        <v/>
+        <v>ensino superior tecnologico</v>
       </c>
       <c r="E66" t="str">
         <v/>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>modelo pedagogico</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B67" t="str">
-        <v>sistema de recomeacao</v>
+        <v>covid19</v>
       </c>
       <c r="C67" t="str">
-        <v>producao textua</v>
+        <v>professores de ciencias</v>
       </c>
       <c r="D67" t="str">
-        <v/>
+        <v>adaptacao</v>
       </c>
       <c r="E67" t="str">
         <v/>
@@ -1544,33 +1544,33 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>idosos</v>
+        <v>pratica da leitura</v>
       </c>
       <c r="B68" t="str">
-        <v>ensino coletivo de violao</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C68" t="str">
-        <v>tecnologia digital</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="D68" t="str">
-        <v/>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="E68" t="str">
-        <v/>
+        <v>transposicao didatica</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>narrativas digitais</v>
+        <v>atividade docente</v>
       </c>
       <c r="B69" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C69" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="D69" t="str">
-        <v>formacao docente</v>
+        <v>dramaticas de uso de si</v>
       </c>
       <c r="E69" t="str">
         <v/>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>competencia digital</v>
+        <v>ensino de instrumentos de teclado</v>
       </c>
       <c r="B70" t="str">
-        <v>tdic</v>
+        <v>licenciatura em musica</v>
       </c>
       <c r="C70" t="str">
-        <v>digicompedu</v>
+        <v>ensino nao presencial emergencial enpe</v>
       </c>
       <c r="D70" t="str">
-        <v>ensino superior tecnologico</v>
+        <v>ambiente virtual de apreizagem ava</v>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>ensino remoto</v>
+        <v>paemia</v>
       </c>
       <c r="B71" t="str">
-        <v>covid19</v>
+        <v>estagio nao presencia</v>
       </c>
       <c r="C71" t="str">
-        <v>professores de ciencias</v>
+        <v>atuacao docente</v>
       </c>
       <c r="D71" t="str">
-        <v>adaptacao</v>
+        <v>experiencias formativas</v>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -1612,33 +1612,33 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>pratica da leitura</v>
+        <v>ensino</v>
       </c>
       <c r="B72" t="str">
-        <v>ensino hibrido</v>
+        <v>objetos de apreizagem</v>
       </c>
       <c r="C72" t="str">
-        <v>metodologia ativa</v>
+        <v>professores</v>
       </c>
       <c r="D72" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v/>
       </c>
       <c r="E72" t="str">
-        <v>transposicao didatica</v>
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>atividade docente</v>
+        <v>formacao docente</v>
       </c>
       <c r="B73" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino musical escolar</v>
       </c>
       <c r="C73" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D73" t="str">
-        <v>dramaticas de uso de si</v>
+        <v>paemia de covid19</v>
       </c>
       <c r="E73" t="str">
         <v/>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>ensino de instrumentos de teclado</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B74" t="str">
-        <v>licenciatura em musica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C74" t="str">
-        <v>ensino nao presencial emergencial enpe</v>
+        <v>uso das tdic</v>
       </c>
       <c r="D74" t="str">
-        <v>ambiente virtual de apreizagem ava</v>
+        <v/>
       </c>
       <c r="E74" t="str">
         <v/>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>paemia</v>
+        <v>tecnologia</v>
       </c>
       <c r="B75" t="str">
-        <v>estagio nao presencia</v>
+        <v>pratica docente</v>
       </c>
       <c r="C75" t="str">
-        <v>atuacao docente</v>
+        <v>nativos digitais</v>
       </c>
       <c r="D75" t="str">
-        <v>experiencias formativas</v>
+        <v/>
       </c>
       <c r="E75" t="str">
         <v/>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>ensino</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B76" t="str">
-        <v>objetos de apreizagem</v>
+        <v>normativas</v>
       </c>
       <c r="C76" t="str">
-        <v>professores</v>
+        <v>covid19</v>
       </c>
       <c r="D76" t="str">
-        <v/>
+        <v>ensino hibrido</v>
       </c>
       <c r="E76" t="str">
         <v/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>formacao docente</v>
+        <v>tecnologia</v>
       </c>
       <c r="B77" t="str">
-        <v>ensino musical escolar</v>
+        <v>educacao</v>
       </c>
       <c r="C77" t="str">
-        <v>ensino remoto</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D77" t="str">
-        <v>paemia de covid19</v>
+        <v/>
       </c>
       <c r="E77" t="str">
         <v/>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>educacao hibrida</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B78" t="str">
-        <v>formacao de professores</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C78" t="str">
-        <v>uso das tdic</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="D78" t="str">
         <v/>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>tecnologia</v>
+        <v>desenho didatico</v>
       </c>
       <c r="B79" t="str">
-        <v>pratica docente</v>
+        <v>iagacao online</v>
       </c>
       <c r="C79" t="str">
-        <v>nativos digitais</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D79" t="str">
-        <v/>
+        <v>pesquisaformacao</v>
       </c>
       <c r="E79" t="str">
         <v/>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>educacao infantil</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="B80" t="str">
-        <v>normativas</v>
+        <v>professores</v>
       </c>
       <c r="C80" t="str">
-        <v>covid19</v>
+        <v>tecnologia</v>
       </c>
       <c r="D80" t="str">
-        <v>ensino hibrido</v>
+        <v/>
       </c>
       <c r="E80" t="str">
         <v/>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>tecnologia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B81" t="str">
-        <v>educacao</v>
+        <v>planejamento</v>
       </c>
       <c r="C81" t="str">
-        <v>trabalho docente</v>
+        <v>pratica docente</v>
       </c>
       <c r="D81" t="str">
         <v/>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>formacao de professores</v>
+        <v>inovacao pedagogica</v>
       </c>
       <c r="B82" t="str">
-        <v>ensino de ciencias</v>
+        <v>plataformizacao</v>
       </c>
       <c r="C82" t="str">
-        <v>pensamento computacional</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D82" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E82" t="str">
         <v/>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>desenho didatico</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B83" t="str">
-        <v>iagacao online</v>
+        <v>fluencia tecnologicopedagogica</v>
       </c>
       <c r="C83" t="str">
-        <v>praticas pedagogicas</v>
+        <v>covid19</v>
       </c>
       <c r="D83" t="str">
-        <v>pesquisaformacao</v>
+        <v/>
       </c>
       <c r="E83" t="str">
         <v/>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>ensinoapreizagem</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B84" t="str">
-        <v>professores</v>
+        <v>presencas na ead</v>
       </c>
       <c r="C84" t="str">
-        <v>tecnologia</v>
+        <v>portfolios de apreizagens</v>
       </c>
       <c r="D84" t="str">
         <v/>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>formacao de professores</v>
+        <v>tdic</v>
       </c>
       <c r="B85" t="str">
-        <v>planejamento</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C85" t="str">
-        <v>pratica docente</v>
+        <v>argumentacao</v>
       </c>
       <c r="D85" t="str">
-        <v/>
+        <v>interacoes discursivas</v>
       </c>
       <c r="E85" t="str">
         <v/>
@@ -1850,16 +1850,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>inovacao pedagogica</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B86" t="str">
-        <v>plataformizacao</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="C86" t="str">
-        <v>trabalho docente</v>
+        <v>conhecimentos pedagogicos e tecnologicos</v>
       </c>
       <c r="D86" t="str">
-        <v>paemia covid19</v>
+        <v>uefined</v>
       </c>
       <c r="E86" t="str">
         <v/>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>formacao continuada de professores</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B87" t="str">
-        <v>fluencia tecnologicopedagogica</v>
+        <v>programa residencia pedagogica</v>
       </c>
       <c r="C87" t="str">
-        <v>covid19</v>
+        <v>tecnologias digitais de ensino</v>
       </c>
       <c r="D87" t="str">
         <v/>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B88" t="str">
-        <v>presencas na ead</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C88" t="str">
-        <v>portfolios de apreizagens</v>
+        <v>educacao basica</v>
       </c>
       <c r="D88" t="str">
         <v/>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>tdic</v>
+        <v>trabalho docente</v>
       </c>
       <c r="B89" t="str">
-        <v>praticas pedagogicas</v>
+        <v>tecnologia</v>
       </c>
       <c r="C89" t="str">
-        <v>argumentacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D89" t="str">
-        <v>interacoes discursivas</v>
+        <v>precarizacao do trabalho docente</v>
       </c>
       <c r="E89" t="str">
         <v/>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino</v>
       </c>
       <c r="B90" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="C90" t="str">
-        <v>conhecimentos pedagogicos e tecnologicos</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="D90" t="str">
-        <v>uefined</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E90" t="str">
         <v/>
@@ -1935,33 +1935,33 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>formacao de professores</v>
+        <v>ensino superior</v>
       </c>
       <c r="B91" t="str">
-        <v>programa residencia pedagogica</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="C91" t="str">
-        <v>tecnologias digitais de ensino</v>
+        <v>ambiente virtual de apreizagem</v>
       </c>
       <c r="D91" t="str">
-        <v/>
+        <v>percepcao de professores</v>
       </c>
       <c r="E91" t="str">
-        <v/>
+        <v>percepcao de estudantes</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>ensino hibrido</v>
+        <v>covid19</v>
       </c>
       <c r="B92" t="str">
-        <v>formacao de professores</v>
+        <v>curso online</v>
       </c>
       <c r="C92" t="str">
-        <v>educacao basica</v>
+        <v>educacao</v>
       </c>
       <c r="D92" t="str">
-        <v/>
+        <v>sujeitos do campo</v>
       </c>
       <c r="E92" t="str">
         <v/>
@@ -1969,16 +1969,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>trabalho docente</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B93" t="str">
-        <v>tecnologia</v>
+        <v>wordwall</v>
       </c>
       <c r="C93" t="str">
-        <v>formacao de professores</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="D93" t="str">
-        <v>precarizacao do trabalho docente</v>
+        <v>percepcao docente</v>
       </c>
       <c r="E93" t="str">
         <v/>
@@ -1986,50 +1986,50 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>ensino</v>
+        <v>mediacao pedagogica</v>
       </c>
       <c r="B94" t="str">
-        <v>apreizagem</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="C94" t="str">
-        <v>apreizagem invertida</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D94" t="str">
-        <v>sala de aula invertida</v>
+        <v>siemia</v>
       </c>
       <c r="E94" t="str">
-        <v/>
+        <v>desenho universal para apreizagem</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>ensino superior</v>
+        <v>ensino</v>
       </c>
       <c r="B95" t="str">
-        <v>pratica pedagogica</v>
+        <v>docente</v>
       </c>
       <c r="C95" t="str">
-        <v>ambiente virtual de apreizagem</v>
+        <v>tdic</v>
       </c>
       <c r="D95" t="str">
-        <v>percepcao de professores</v>
+        <v>formacao</v>
       </c>
       <c r="E95" t="str">
-        <v>percepcao de estudantes</v>
+        <v>covid19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>covid19</v>
+        <v>apreizagem mediada</v>
       </c>
       <c r="B96" t="str">
-        <v>curso online</v>
+        <v>formacao de professore</v>
       </c>
       <c r="C96" t="str">
-        <v>educacao</v>
+        <v>letramento digital</v>
       </c>
       <c r="D96" t="str">
-        <v>sujeitos do campo</v>
+        <v/>
       </c>
       <c r="E96" t="str">
         <v/>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>jogos digitais</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="B97" t="str">
-        <v>wordwall</v>
+        <v>educacao basica</v>
       </c>
       <c r="C97" t="str">
-        <v>ensino e apreizagem</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D97" t="str">
-        <v>percepcao docente</v>
+        <v>residencia pedagogica</v>
       </c>
       <c r="E97" t="str">
         <v/>
@@ -2054,50 +2054,50 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>mediacao pedagogica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B98" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C98" t="str">
-        <v>educacao inclusiva</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D98" t="str">
-        <v>siemia</v>
+        <v>formacao continuada de docentes</v>
       </c>
       <c r="E98" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>ensino superior</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ensino</v>
+        <v>docencia</v>
       </c>
       <c r="B99" t="str">
-        <v>docente</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C99" t="str">
-        <v>tdic</v>
+        <v>gestao da sala de aula</v>
       </c>
       <c r="D99" t="str">
-        <v>formacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E99" t="str">
-        <v>covid19</v>
+        <v>ensino presencial</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>apreizagem mediada</v>
+        <v>competencias</v>
       </c>
       <c r="B100" t="str">
-        <v>formacao de professore</v>
+        <v>jornada</v>
       </c>
       <c r="C100" t="str">
-        <v>letramento digital</v>
+        <v>ambiente remoto</v>
       </c>
       <c r="D100" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E100" t="str">
         <v/>
@@ -2105,67 +2105,67 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>praticas pedagogicas</v>
+        <v>pedagogia</v>
       </c>
       <c r="B101" t="str">
-        <v>educacao basica</v>
+        <v>letramento midiatico</v>
       </c>
       <c r="C101" t="str">
-        <v>ensino remoto</v>
+        <v>identidades</v>
       </c>
       <c r="D101" t="str">
-        <v>residencia pedagogica</v>
+        <v>epresentacoes sociais</v>
       </c>
       <c r="E101" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias de informacao e comunicacao tics</v>
       </c>
       <c r="B102" t="str">
         <v>ensino remoto emergencial</v>
       </c>
       <c r="C102" t="str">
-        <v>plataforma moodle</v>
+        <v>docentes</v>
       </c>
       <c r="D102" t="str">
-        <v>formacao continuada de docentes</v>
+        <v>contabilidade</v>
       </c>
       <c r="E102" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>docencia</v>
+        <v>tpack</v>
       </c>
       <c r="B103" t="str">
-        <v>praticas pedagogicas</v>
+        <v>formacao de professores de linguas</v>
       </c>
       <c r="C103" t="str">
-        <v>gestao da sala de aula</v>
+        <v>portugues como lingua adicional</v>
       </c>
       <c r="D103" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E103" t="str">
-        <v>ensino presencial</v>
+        <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>competencias</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B104" t="str">
-        <v>jornada</v>
+        <v>planejamento didatico</v>
       </c>
       <c r="C104" t="str">
-        <v>ambiente remoto</v>
+        <v>desempenho academico</v>
       </c>
       <c r="D104" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E104" t="str">
         <v/>
@@ -2173,33 +2173,33 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>pedagogia</v>
+        <v>teletrabalho</v>
       </c>
       <c r="B105" t="str">
-        <v>letramento midiatico</v>
+        <v>jornada de trabalho</v>
       </c>
       <c r="C105" t="str">
-        <v>identidades</v>
+        <v>idademidia</v>
       </c>
       <c r="D105" t="str">
-        <v>epresentacoes sociais</v>
+        <v>culturadigital</v>
       </c>
       <c r="E105" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>tecnologias de informacao e comunicacao tics</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B106" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologia</v>
       </c>
       <c r="C106" t="str">
-        <v>docentes</v>
+        <v>professor</v>
       </c>
       <c r="D106" t="str">
-        <v>contabilidade</v>
+        <v>educacao basica</v>
       </c>
       <c r="E106" t="str">
         <v/>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>tpack</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B107" t="str">
-        <v>formacao de professores de linguas</v>
+        <v>avaliacao</v>
       </c>
       <c r="C107" t="str">
-        <v>portugues como lingua adicional</v>
+        <v>paemia</v>
       </c>
       <c r="D107" t="str">
         <v/>
@@ -2224,33 +2224,33 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>docencia</v>
       </c>
       <c r="B108" t="str">
-        <v>planejamento didatico</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="C108" t="str">
-        <v>desempenho academico</v>
+        <v>ensino superior</v>
       </c>
       <c r="D108" t="str">
-        <v/>
+        <v>especializacao</v>
       </c>
       <c r="E108" t="str">
-        <v/>
+        <v>comunidades de pratica</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>teletrabalho</v>
+        <v>ensino de linguas</v>
       </c>
       <c r="B109" t="str">
-        <v>jornada de trabalho</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C109" t="str">
-        <v>idademidia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D109" t="str">
-        <v>culturadigital</v>
+        <v/>
       </c>
       <c r="E109" t="str">
         <v/>
@@ -2258,27 +2258,27 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>ensino remoto</v>
+        <v>calculadoras eletronicas</v>
       </c>
       <c r="B110" t="str">
-        <v>tecnologia</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C110" t="str">
-        <v>professor</v>
+        <v>estudos cts</v>
       </c>
       <c r="D110" t="str">
-        <v>educacao basica</v>
+        <v>controversia controlada</v>
       </c>
       <c r="E110" t="str">
-        <v/>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="B111" t="str">
-        <v>avaliacao</v>
+        <v>professor</v>
       </c>
       <c r="C111" t="str">
         <v>paemia</v>
@@ -2292,67 +2292,67 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>docencia</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B112" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C112" t="str">
-        <v>ensino superior</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D112" t="str">
-        <v>especializacao</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="E112" t="str">
-        <v>comunidades de pratica</v>
+        <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>ensino de linguas</v>
+        <v>parasitologia</v>
       </c>
       <c r="B113" t="str">
-        <v>formacao de professores</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="C113" t="str">
-        <v>tecnologias digitais</v>
+        <v>instrumento de avaliacao</v>
       </c>
       <c r="D113" t="str">
-        <v/>
+        <v>avaliacao de materiais didaticos online</v>
       </c>
       <c r="E113" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>calculadoras eletronicas</v>
+        <v>docencia universitaria</v>
       </c>
       <c r="B114" t="str">
-        <v>educacao matematica</v>
+        <v>inteligencia artificial</v>
       </c>
       <c r="C114" t="str">
-        <v>estudos cts</v>
+        <v>automacao</v>
       </c>
       <c r="D114" t="str">
-        <v>controversia controlada</v>
+        <v>educacao</v>
       </c>
       <c r="E114" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>algoritimo</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>vulnerabilidades</v>
       </c>
       <c r="B115" t="str">
-        <v>professor</v>
+        <v>escolas paulistas</v>
       </c>
       <c r="C115" t="str">
-        <v>paemia</v>
+        <v>desigualdades socioeconomicas</v>
       </c>
       <c r="D115" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E115" t="str">
         <v/>
@@ -2360,16 +2360,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>jogos digitais</v>
+        <v>adolescencia</v>
       </c>
       <c r="B116" t="str">
-        <v>educacao matematica</v>
+        <v>apreizagem por projeto</v>
       </c>
       <c r="C116" t="str">
-        <v>formacao de professores</v>
+        <v>jogo psicoeducativo</v>
       </c>
       <c r="D116" t="str">
-        <v>relato de experiencia</v>
+        <v>psicologia</v>
       </c>
       <c r="E116" t="str">
         <v/>
@@ -2377,50 +2377,50 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>parasitologia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B117" t="str">
-        <v>materiais didaticos</v>
+        <v>internet</v>
       </c>
       <c r="C117" t="str">
-        <v>instrumento de avaliacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="D117" t="str">
-        <v>avaliacao de materiais didaticos online</v>
+        <v>ferramentas do moodle</v>
       </c>
       <c r="E117" t="str">
-        <v>ensino</v>
+        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>docencia universitaria</v>
+        <v>videoanalise</v>
       </c>
       <c r="B118" t="str">
-        <v>inteligencia artificial</v>
+        <v>tracker</v>
       </c>
       <c r="C118" t="str">
-        <v>automacao</v>
+        <v>experiencia virtual</v>
       </c>
       <c r="D118" t="str">
-        <v>educacao</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E118" t="str">
-        <v>algoritimo</v>
+        <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>vulnerabilidades</v>
+        <v>moodle</v>
       </c>
       <c r="B119" t="str">
-        <v>escolas paulistas</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C119" t="str">
-        <v>desigualdades socioeconomicas</v>
+        <v>educacao mediada por tecnologias digitais</v>
       </c>
       <c r="D119" t="str">
-        <v>tecnologias</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E119" t="str">
         <v/>
@@ -2428,67 +2428,67 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>adolescencia</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="B120" t="str">
-        <v>apreizagem por projeto</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C120" t="str">
-        <v>jogo psicoeducativo</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D120" t="str">
-        <v>psicologia</v>
+        <v>licenciatura</v>
       </c>
       <c r="E120" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>ensino remoto</v>
+        <v>audiovisual</v>
       </c>
       <c r="B121" t="str">
-        <v>internet</v>
+        <v>educacao</v>
       </c>
       <c r="C121" t="str">
         <v>tecnologia</v>
       </c>
       <c r="D121" t="str">
-        <v>ferramentas do moodle</v>
+        <v/>
       </c>
       <c r="E121" t="str">
-        <v>materiais didaticos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>videoanalise</v>
+        <v>educacao matematica</v>
       </c>
       <c r="B122" t="str">
-        <v>tracker</v>
+        <v>genero</v>
       </c>
       <c r="C122" t="str">
-        <v>experiencia virtual</v>
+        <v>geometria</v>
       </c>
       <c r="D122" t="str">
-        <v>ensino de fisica</v>
+        <v>representatividade</v>
       </c>
       <c r="E122" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>moodle</v>
+        <v>tecnologia</v>
       </c>
       <c r="B123" t="str">
-        <v>sequencia didatica</v>
+        <v>ateimento educacional especializado aee</v>
       </c>
       <c r="C123" t="str">
-        <v>educacao mediada por tecnologias digitais</v>
+        <v>sala de recurso multifuncional</v>
       </c>
       <c r="D123" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E123" t="str">
         <v/>
@@ -2496,30 +2496,30 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>sequencia didatica</v>
+        <v>ensino</v>
       </c>
       <c r="B124" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="C124" t="str">
-        <v>ensino de ciencias</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D124" t="str">
-        <v>licenciatura</v>
+        <v>atlas</v>
       </c>
       <c r="E124" t="str">
-        <v>paemia</v>
+        <v>quimica</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audiovisual</v>
+        <v>redes sociais</v>
       </c>
       <c r="B125" t="str">
-        <v>educacao</v>
+        <v>engajamento</v>
       </c>
       <c r="C125" t="str">
-        <v>tecnologia</v>
+        <v>apreizagem</v>
       </c>
       <c r="D125" t="str">
         <v/>
@@ -2530,30 +2530,30 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>educacao matematica</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B126" t="str">
-        <v>genero</v>
+        <v>avaliacao de programas</v>
       </c>
       <c r="C126" t="str">
-        <v>geometria</v>
+        <v>tecnologias educacionaisdigitais</v>
       </c>
       <c r="D126" t="str">
-        <v>representatividade</v>
+        <v/>
       </c>
       <c r="E126" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>tecnologia</v>
+        <v>whatsapp</v>
       </c>
       <c r="B127" t="str">
-        <v>ateimento educacional especializado aee</v>
+        <v>ensino</v>
       </c>
       <c r="C127" t="str">
-        <v>sala de recurso multifuncional</v>
+        <v>apreizagem</v>
       </c>
       <c r="D127" t="str">
         <v/>
@@ -2564,30 +2564,30 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>ensino</v>
+        <v>blog</v>
       </c>
       <c r="B128" t="str">
-        <v>apreizagem</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C128" t="str">
-        <v>tecnologias digitais</v>
+        <v>estrategia didatica</v>
       </c>
       <c r="D128" t="str">
-        <v>atlas</v>
+        <v>mediacao</v>
       </c>
       <c r="E128" t="str">
-        <v>quimica</v>
+        <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>redes sociais</v>
+        <v>design</v>
       </c>
       <c r="B129" t="str">
-        <v>engajamento</v>
+        <v>qualificacao profissional</v>
       </c>
       <c r="C129" t="str">
-        <v>apreizagem</v>
+        <v>educacao ambienta</v>
       </c>
       <c r="D129" t="str">
         <v/>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>metaavaliacao</v>
+        <v>educacao</v>
       </c>
       <c r="B130" t="str">
-        <v>avaliacao de programas</v>
+        <v>tecnologia</v>
       </c>
       <c r="C130" t="str">
-        <v>tecnologias educacionaisdigitais</v>
+        <v>competencias midiaticas e em informacao</v>
       </c>
       <c r="D130" t="str">
         <v/>
@@ -2615,16 +2615,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>whatsapp</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="B131" t="str">
-        <v>ensino</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C131" t="str">
-        <v>apreizagem</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="D131" t="str">
-        <v/>
+        <v>ferramentas digitais</v>
       </c>
       <c r="E131" t="str">
         <v/>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>blog</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="B132" t="str">
-        <v>educacao hibrida</v>
+        <v>apreizagem</v>
       </c>
       <c r="C132" t="str">
-        <v>estrategia didatica</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D132" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E132" t="str">
         <v/>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>design</v>
+        <v>educacao superior</v>
       </c>
       <c r="B133" t="str">
-        <v>qualificacao profissional</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C133" t="str">
-        <v>educacao ambienta</v>
+        <v>cultura maker</v>
       </c>
       <c r="D133" t="str">
-        <v/>
+        <v>podcast</v>
       </c>
       <c r="E133" t="str">
         <v/>
@@ -2666,13 +2666,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>educacao</v>
+        <v>anormalidades craniofaciais</v>
       </c>
       <c r="B134" t="str">
-        <v>tecnologia</v>
+        <v>curadoria de dados</v>
       </c>
       <c r="C134" t="str">
-        <v>competencias midiaticas e em informacao</v>
+        <v>rede social</v>
       </c>
       <c r="D134" t="str">
         <v/>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>gamificacao</v>
       </c>
       <c r="B135" t="str">
-        <v>formacao continuada</v>
+        <v>metodologias de ensino</v>
       </c>
       <c r="C135" t="str">
-        <v>recursos educacionais</v>
+        <v>jogo</v>
       </c>
       <c r="D135" t="str">
-        <v>ferramentas digitais</v>
+        <v>ciencias ambientais</v>
       </c>
       <c r="E135" t="str">
         <v/>
@@ -2700,67 +2700,67 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>evasao no ensino superior</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B136" t="str">
-        <v>apreizagem</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C136" t="str">
-        <v>plataforma moodle</v>
+        <v>jogo eletronico</v>
       </c>
       <c r="D136" t="str">
-        <v/>
+        <v>lixo toxico</v>
       </c>
       <c r="E136" t="str">
-        <v/>
+        <v>tabela periodica</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>educacao superior</v>
+        <v>direitos autorais</v>
       </c>
       <c r="B137" t="str">
-        <v>apreizagem ativa</v>
+        <v>internet</v>
       </c>
       <c r="C137" t="str">
-        <v>cultura maker</v>
+        <v>plagio</v>
       </c>
       <c r="D137" t="str">
-        <v>podcast</v>
+        <v>material didatico</v>
       </c>
       <c r="E137" t="str">
-        <v/>
+        <v>trabalho academico</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>anormalidades craniofaciais</v>
+        <v>material didatico</v>
       </c>
       <c r="B138" t="str">
-        <v>curadoria de dados</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="C138" t="str">
-        <v>rede social</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D138" t="str">
-        <v/>
+        <v>compartilhamento</v>
       </c>
       <c r="E138" t="str">
-        <v/>
+        <v>estrategia pedagogica</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>gamificacao</v>
+        <v>raple</v>
       </c>
       <c r="B139" t="str">
-        <v>metodologias de ensino</v>
+        <v>repositorios</v>
       </c>
       <c r="C139" t="str">
-        <v>jogo</v>
+        <v>planos de aula</v>
       </c>
       <c r="D139" t="str">
-        <v>ciencias ambientais</v>
+        <v/>
       </c>
       <c r="E139" t="str">
         <v/>
@@ -2768,81 +2768,81 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>ensino de quimica</v>
+        <v>wifi</v>
       </c>
       <c r="B140" t="str">
-        <v>material didatico digital</v>
+        <v>iot</v>
       </c>
       <c r="C140" t="str">
-        <v>jogo eletronico</v>
+        <v>internet das coisas</v>
       </c>
       <c r="D140" t="str">
-        <v>lixo toxico</v>
+        <v/>
       </c>
       <c r="E140" t="str">
-        <v>tabela periodica</v>
+        <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>direitos autorais</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B141" t="str">
-        <v>internet</v>
+        <v>posgraduacao</v>
       </c>
       <c r="C141" t="str">
-        <v>plagio</v>
+        <v>covid19</v>
       </c>
       <c r="D141" t="str">
-        <v>material didatico</v>
+        <v>bleed learning</v>
       </c>
       <c r="E141" t="str">
-        <v>trabalho academico</v>
+        <v>ensino</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>material didatico</v>
+        <v>enriquecimento curricular online</v>
       </c>
       <c r="B142" t="str">
-        <v>recursos educacionais</v>
+        <v>aplicativo para celular</v>
       </c>
       <c r="C142" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>personalizacao do ensino</v>
       </c>
       <c r="D142" t="str">
-        <v>compartilhamento</v>
+        <v/>
       </c>
       <c r="E142" t="str">
-        <v>estrategia pedagogica</v>
+        <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>raple</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B143" t="str">
-        <v>repositorios</v>
+        <v>tecnologia</v>
       </c>
       <c r="C143" t="str">
-        <v>planos de aula</v>
+        <v>saude</v>
       </c>
       <c r="D143" t="str">
-        <v/>
+        <v>educacao online</v>
       </c>
       <c r="E143" t="str">
-        <v/>
+        <v>territorialidade</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>wifi</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B144" t="str">
-        <v>iot</v>
+        <v>formacao docente</v>
       </c>
       <c r="C144" t="str">
-        <v>internet das coisas</v>
+        <v>tdic</v>
       </c>
       <c r="D144" t="str">
         <v/>
@@ -2853,30 +2853,30 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
+        <v>gamificacao</v>
+      </c>
+      <c r="B145" t="str">
+        <v>ensino de ciencias</v>
+      </c>
+      <c r="C145" t="str">
         <v>metodologias ativas</v>
       </c>
-      <c r="B145" t="str">
-        <v>posgraduacao</v>
-      </c>
-      <c r="C145" t="str">
-        <v>covid19</v>
-      </c>
       <c r="D145" t="str">
-        <v>bleed learning</v>
+        <v/>
       </c>
       <c r="E145" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>enriquecimento curricular online</v>
+        <v>historia da matematica</v>
       </c>
       <c r="B146" t="str">
-        <v>aplicativo para celular</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C146" t="str">
-        <v>personalizacao do ensino</v>
+        <v>minicurso</v>
       </c>
       <c r="D146" t="str">
         <v/>
@@ -2887,33 +2887,33 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao em saude</v>
       </c>
       <c r="B147" t="str">
-        <v>tecnologia</v>
+        <v>jogos serios</v>
       </c>
       <c r="C147" t="str">
-        <v>saude</v>
+        <v>emergencia</v>
       </c>
       <c r="D147" t="str">
-        <v>educacao online</v>
+        <v>cardiologia</v>
       </c>
       <c r="E147" t="str">
-        <v>territorialidade</v>
+        <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>interatividade</v>
       </c>
       <c r="B148" t="str">
-        <v>formacao docente</v>
+        <v>tecnologia</v>
       </c>
       <c r="C148" t="str">
-        <v>tdic</v>
+        <v>youtube</v>
       </c>
       <c r="D148" t="str">
-        <v/>
+        <v>mediacao</v>
       </c>
       <c r="E148" t="str">
         <v/>
@@ -2921,50 +2921,50 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>gamificacao</v>
+        <v>colonialismo digital</v>
       </c>
       <c r="B149" t="str">
-        <v>ensino de ciencias</v>
+        <v>educacao online</v>
       </c>
       <c r="C149" t="str">
-        <v>metodologias ativas</v>
+        <v>letramentos</v>
       </c>
       <c r="D149" t="str">
-        <v/>
+        <v>ensin osuperior</v>
       </c>
       <c r="E149" t="str">
-        <v/>
+        <v>decolonialidade digital</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>historia da matematica</v>
+        <v>jogo</v>
       </c>
       <c r="B150" t="str">
-        <v>sequencia didatica</v>
+        <v>ensino</v>
       </c>
       <c r="C150" t="str">
-        <v>minicurso</v>
+        <v>apreizagem</v>
       </c>
       <c r="D150" t="str">
-        <v/>
+        <v>digital</v>
       </c>
       <c r="E150" t="str">
-        <v/>
+        <v>ambiente virtual</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>educacao em saude</v>
+        <v>laboratorios remotos</v>
       </c>
       <c r="B151" t="str">
-        <v>jogos serios</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C151" t="str">
-        <v>emergencia</v>
+        <v>divulgacao ciefica</v>
       </c>
       <c r="D151" t="str">
-        <v>cardiologia</v>
+        <v/>
       </c>
       <c r="E151" t="str">
         <v/>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>interatividade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B152" t="str">
-        <v>tecnologia</v>
+        <v>trilhas de apreizagem</v>
       </c>
       <c r="C152" t="str">
-        <v>youtube</v>
+        <v>autoria</v>
       </c>
       <c r="D152" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E152" t="str">
         <v/>
@@ -2989,50 +2989,50 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>colonialismo digital</v>
+        <v>tutor</v>
       </c>
       <c r="B153" t="str">
-        <v>educacao online</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C153" t="str">
-        <v>letramentos</v>
+        <v>paemia da covid19</v>
       </c>
       <c r="D153" t="str">
-        <v>ensin osuperior</v>
+        <v/>
       </c>
       <c r="E153" t="str">
-        <v>decolonialidade digital</v>
+        <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>jogo</v>
+        <v>educacao</v>
       </c>
       <c r="B154" t="str">
-        <v>ensino</v>
+        <v>comunicacao</v>
       </c>
       <c r="C154" t="str">
-        <v>apreizagem</v>
+        <v>audiovisual</v>
       </c>
       <c r="D154" t="str">
-        <v>digital</v>
+        <v>roteiro</v>
       </c>
       <c r="E154" t="str">
-        <v>ambiente virtual</v>
+        <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>laboratorios remotos</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B155" t="str">
-        <v>educacao a distancia</v>
+        <v>disciplinas regulares</v>
       </c>
       <c r="C155" t="str">
-        <v>divulgacao ciefica</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D155" t="str">
-        <v/>
+        <v>presencialidade</v>
       </c>
       <c r="E155" t="str">
         <v/>
@@ -3040,13 +3040,13 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>educacao a distancia</v>
+        <v>ambiente virtual</v>
       </c>
       <c r="B156" t="str">
-        <v>trilhas de apreizagem</v>
+        <v>moodle</v>
       </c>
       <c r="C156" t="str">
-        <v>autoria</v>
+        <v>educacao basica</v>
       </c>
       <c r="D156" t="str">
         <v/>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>tutor</v>
+        <v>bleed learning</v>
       </c>
       <c r="B157" t="str">
-        <v>educacao a distancia</v>
+        <v>soft skills</v>
       </c>
       <c r="C157" t="str">
-        <v>paemia da covid19</v>
+        <v>educacao gerencial</v>
       </c>
       <c r="D157" t="str">
         <v/>
@@ -3074,16 +3074,16 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>educacao</v>
+        <v>docencia</v>
       </c>
       <c r="B158" t="str">
-        <v>comunicacao</v>
+        <v>educacao digital</v>
       </c>
       <c r="C158" t="str">
-        <v>audiovisual</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D158" t="str">
-        <v>roteiro</v>
+        <v>uneb</v>
       </c>
       <c r="E158" t="str">
         <v/>
@@ -3091,50 +3091,50 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>educacao a distancia</v>
+        <v>design instrucional</v>
       </c>
       <c r="B159" t="str">
-        <v>disciplinas regulares</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C159" t="str">
-        <v>metodologias ativas</v>
+        <v>ensino superior</v>
       </c>
       <c r="D159" t="str">
-        <v>presencialidade</v>
+        <v>ensino a distancia e digital</v>
       </c>
       <c r="E159" t="str">
-        <v/>
+        <v>microcredenciais</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>ambiente virtual</v>
+        <v>acentuacao grafica</v>
       </c>
       <c r="B160" t="str">
-        <v>moodle</v>
+        <v>apreizagem</v>
       </c>
       <c r="C160" t="str">
-        <v>educacao basica</v>
+        <v>dificuldades</v>
       </c>
       <c r="D160" t="str">
-        <v/>
+        <v>motivacao</v>
       </c>
       <c r="E160" t="str">
-        <v/>
+        <v>metodologia ativa kahoot recursos digitais</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>bleed learning</v>
+        <v>avaliacao inovadora</v>
       </c>
       <c r="B161" t="str">
-        <v>soft skills</v>
+        <v>software de avaliacao qualitativa</v>
       </c>
       <c r="C161" t="str">
-        <v>educacao gerencial</v>
+        <v>feedback de avaliacao</v>
       </c>
       <c r="D161" t="str">
-        <v/>
+        <v>percurso de apreizagem personalizada</v>
       </c>
       <c r="E161" t="str">
         <v/>
@@ -3142,16 +3142,16 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>docencia</v>
+        <v>mooc</v>
       </c>
       <c r="B162" t="str">
-        <v>educacao digital</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="C162" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D162" t="str">
-        <v>uneb</v>
+        <v/>
       </c>
       <c r="E162" t="str">
         <v/>
@@ -3159,50 +3159,50 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>design instrucional</v>
+        <v>kahoot</v>
       </c>
       <c r="B163" t="str">
-        <v>formacao de professores</v>
+        <v>paemia</v>
       </c>
       <c r="C163" t="str">
-        <v>ensino superior</v>
+        <v>covid19</v>
       </c>
       <c r="D163" t="str">
-        <v>ensino a distancia e digital</v>
+        <v>motivacao</v>
       </c>
       <c r="E163" t="str">
-        <v>microcredenciais</v>
+        <v/>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>acentuacao grafica</v>
+        <v>ensino medio</v>
       </c>
       <c r="B164" t="str">
-        <v>apreizagem</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C164" t="str">
-        <v>dificuldades</v>
+        <v>generos digitais</v>
       </c>
       <c r="D164" t="str">
-        <v>motivacao</v>
+        <v>lingua portuguesa</v>
       </c>
       <c r="E164" t="str">
-        <v>metodologia ativa kahoot recursos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>avaliacao inovadora</v>
+        <v>alfabetizacao</v>
       </c>
       <c r="B165" t="str">
-        <v>software de avaliacao qualitativa</v>
+        <v>letramento</v>
       </c>
       <c r="C165" t="str">
-        <v>feedback de avaliacao</v>
+        <v>autismo</v>
       </c>
       <c r="D165" t="str">
-        <v>percurso de apreizagem personalizada</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="E165" t="str">
         <v/>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>mooc</v>
+        <v>moodle</v>
       </c>
       <c r="B166" t="str">
-        <v>sala de aula invertida</v>
+        <v>efl</v>
       </c>
       <c r="C166" t="str">
-        <v>tecnologias educacionais</v>
+        <v>textbook</v>
       </c>
       <c r="D166" t="str">
         <v/>
@@ -3227,16 +3227,16 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>kahoot</v>
+        <v>evasao</v>
       </c>
       <c r="B167" t="str">
-        <v>paemia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C167" t="str">
-        <v>covid19</v>
+        <v>ferramenta de software</v>
       </c>
       <c r="D167" t="str">
-        <v>motivacao</v>
+        <v/>
       </c>
       <c r="E167" t="str">
         <v/>
@@ -3244,47 +3244,47 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>ensino medio</v>
+        <v>materiais</v>
       </c>
       <c r="B168" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>atividades</v>
       </c>
       <c r="C168" t="str">
-        <v>generos digitais</v>
+        <v>midias</v>
       </c>
       <c r="D168" t="str">
-        <v>lingua portuguesa</v>
+        <v>ead</v>
       </c>
       <c r="E168" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>alfabetizacao</v>
+        <v>revisao de escopo</v>
       </c>
       <c r="B169" t="str">
-        <v>letramento</v>
+        <v>jogos digitais</v>
       </c>
       <c r="C169" t="str">
-        <v>autismo</v>
+        <v>midias</v>
       </c>
       <c r="D169" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>paemia</v>
       </c>
       <c r="E169" t="str">
-        <v/>
+        <v>praticas pedagogicas</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>moodle</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="B170" t="str">
-        <v>efl</v>
+        <v>educacao infantil</v>
       </c>
       <c r="C170" t="str">
-        <v>textbook</v>
+        <v>scratchjr</v>
       </c>
       <c r="D170" t="str">
         <v/>
@@ -3295,13 +3295,13 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>evasao</v>
+        <v>multimodalidade</v>
       </c>
       <c r="B171" t="str">
-        <v>educacao a distancia</v>
+        <v>videos com conteudo matematico</v>
       </c>
       <c r="C171" t="str">
-        <v>ferramenta de software</v>
+        <v>livro didatico</v>
       </c>
       <c r="D171" t="str">
         <v/>
@@ -3312,47 +3312,47 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>materiais</v>
+        <v>leitura</v>
       </c>
       <c r="B172" t="str">
-        <v>atividades</v>
+        <v>escrita</v>
       </c>
       <c r="C172" t="str">
-        <v>midias</v>
+        <v>habilidades matematicas</v>
       </c>
       <c r="D172" t="str">
-        <v>ead</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E172" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>revisao de escopo</v>
+        <v>planejamento na ead</v>
       </c>
       <c r="B173" t="str">
-        <v>jogos digitais</v>
+        <v>estrategias pedagogicas</v>
       </c>
       <c r="C173" t="str">
-        <v>midias</v>
+        <v>moodle no ensino presencial</v>
       </c>
       <c r="D173" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E173" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>pensamento computacional</v>
+        <v>realidade aumentada</v>
       </c>
       <c r="B174" t="str">
-        <v>educacao infantil</v>
+        <v>geografia</v>
       </c>
       <c r="C174" t="str">
-        <v>scratchjr</v>
+        <v>educacao</v>
       </c>
       <c r="D174" t="str">
         <v/>
@@ -3363,33 +3363,33 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>multimodalidade</v>
+        <v>ensino</v>
       </c>
       <c r="B175" t="str">
-        <v>videos com conteudo matematico</v>
+        <v>apreizagem</v>
       </c>
       <c r="C175" t="str">
-        <v>livro didatico</v>
+        <v>ferramentas</v>
       </c>
       <c r="D175" t="str">
-        <v/>
+        <v>programacao</v>
       </c>
       <c r="E175" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>leitura</v>
+        <v>ila</v>
       </c>
       <c r="B176" t="str">
-        <v>escrita</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C176" t="str">
-        <v>habilidades matematicas</v>
+        <v>diretrizes</v>
       </c>
       <c r="D176" t="str">
-        <v>ensino remoto</v>
+        <v>ead</v>
       </c>
       <c r="E176" t="str">
         <v/>
@@ -3397,30 +3397,30 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>planejamento na ead</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="B177" t="str">
-        <v>estrategias pedagogicas</v>
+        <v>ciencia fisica</v>
       </c>
       <c r="C177" t="str">
-        <v>moodle no ensino presencial</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D177" t="str">
-        <v/>
+        <v>tecnologia no ensino</v>
       </c>
       <c r="E177" t="str">
-        <v/>
+        <v>podcast de ciencias</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>realidade aumentada</v>
+        <v>kahoot</v>
       </c>
       <c r="B178" t="str">
-        <v>geografia</v>
+        <v>gamificacao</v>
       </c>
       <c r="C178" t="str">
-        <v>educacao</v>
+        <v>jogos digitais</v>
       </c>
       <c r="D178" t="str">
         <v/>
@@ -3431,33 +3431,33 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>ensino</v>
+        <v>biodiesel</v>
       </c>
       <c r="B179" t="str">
-        <v>apreizagem</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="C179" t="str">
-        <v>ferramentas</v>
+        <v>eja</v>
       </c>
       <c r="D179" t="str">
-        <v>programacao</v>
+        <v>games</v>
       </c>
       <c r="E179" t="str">
-        <v>educacao basica</v>
+        <v>phet</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>ila</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B180" t="str">
-        <v>material didatico digital</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C180" t="str">
-        <v>diretrizes</v>
+        <v>oficinas</v>
       </c>
       <c r="D180" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E180" t="str">
         <v/>
@@ -3465,64 +3465,64 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>ensino de fisica</v>
+        <v>maker</v>
       </c>
       <c r="B181" t="str">
-        <v>ciencia fisica</v>
+        <v>robotica</v>
       </c>
       <c r="C181" t="str">
-        <v>ensino remoto</v>
+        <v>criatividade</v>
       </c>
       <c r="D181" t="str">
-        <v>tecnologia no ensino</v>
+        <v>educacao</v>
       </c>
       <c r="E181" t="str">
-        <v>podcast de ciencias</v>
+        <v/>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>kahoot</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B182" t="str">
-        <v>gamificacao</v>
+        <v>fake news</v>
       </c>
       <c r="C182" t="str">
-        <v>jogos digitais</v>
+        <v>vacina</v>
       </c>
       <c r="D182" t="str">
-        <v/>
+        <v>educacao midiatica</v>
       </c>
       <c r="E182" t="str">
-        <v/>
+        <v>ensino fuamental</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>biodiesel</v>
+        <v>metodologiaativa</v>
       </c>
       <c r="B183" t="str">
-        <v>ensino de quimica</v>
+        <v>processosdeensinoe apreizagem</v>
       </c>
       <c r="C183" t="str">
-        <v>eja</v>
+        <v>trabalho em equipe</v>
       </c>
       <c r="D183" t="str">
-        <v>games</v>
+        <v>team based learning</v>
       </c>
       <c r="E183" t="str">
-        <v>phet</v>
+        <v/>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>robotica educacional</v>
+        <v>educacao</v>
       </c>
       <c r="B184" t="str">
-        <v>apreizagem ativa</v>
+        <v>tecnologia</v>
       </c>
       <c r="C184" t="str">
-        <v>oficinas</v>
+        <v>producoes filmicas</v>
       </c>
       <c r="D184" t="str">
         <v/>
@@ -3533,16 +3533,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>maker</v>
+        <v>technology</v>
       </c>
       <c r="B185" t="str">
-        <v>robotica</v>
+        <v>education</v>
       </c>
       <c r="C185" t="str">
-        <v>criatividade</v>
+        <v>deaf</v>
       </c>
       <c r="D185" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E185" t="str">
         <v/>
@@ -3550,33 +3550,33 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>ensino de ciencias</v>
+        <v>psicologia social</v>
       </c>
       <c r="B186" t="str">
-        <v>fake news</v>
+        <v>recursos didaticos audiovisuais</v>
       </c>
       <c r="C186" t="str">
-        <v>vacina</v>
+        <v>video educacional</v>
       </c>
       <c r="D186" t="str">
-        <v>educacao midiatica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E186" t="str">
-        <v>ensino fuamental</v>
+        <v/>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>metodologiaativa</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B187" t="str">
-        <v>processosdeensinoe apreizagem</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="C187" t="str">
-        <v>trabalho em equipe</v>
+        <v>escolas do campo</v>
       </c>
       <c r="D187" t="str">
-        <v>team based learning</v>
+        <v/>
       </c>
       <c r="E187" t="str">
         <v/>
@@ -3584,13 +3584,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>educacao</v>
+        <v>portal educativo</v>
       </c>
       <c r="B188" t="str">
-        <v>tecnologia</v>
+        <v>teste de usabilidade</v>
       </c>
       <c r="C188" t="str">
-        <v>producoes filmicas</v>
+        <v>ensino medio</v>
       </c>
       <c r="D188" t="str">
         <v/>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>technology</v>
+        <v>design thinking</v>
       </c>
       <c r="B189" t="str">
-        <v>education</v>
+        <v>apreizagem</v>
       </c>
       <c r="C189" t="str">
-        <v>deaf</v>
+        <v>algoritmos</v>
       </c>
       <c r="D189" t="str">
-        <v/>
+        <v>nocode</v>
       </c>
       <c r="E189" t="str">
         <v/>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>psicologia social</v>
+        <v>apreizagem baseada em projetos</v>
       </c>
       <c r="B190" t="str">
-        <v>recursos didaticos audiovisuais</v>
+        <v>scrum</v>
       </c>
       <c r="C190" t="str">
-        <v>video educacional</v>
+        <v>multidisciplinalidade e tecnologias emergentes</v>
       </c>
       <c r="D190" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E190" t="str">
         <v/>
@@ -3635,50 +3635,50 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>ensino hibrido</v>
+        <v>whatsapp</v>
       </c>
       <c r="B191" t="str">
-        <v>ensinoapreizagem</v>
+        <v>estado da arte</v>
       </c>
       <c r="C191" t="str">
-        <v>escolas do campo</v>
+        <v>tdic</v>
       </c>
       <c r="D191" t="str">
-        <v/>
+        <v>ferramenta pedagogica</v>
       </c>
       <c r="E191" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>portal educativo</v>
+        <v>cenarios de apreizagem interativos</v>
       </c>
       <c r="B192" t="str">
-        <v>teste de usabilidade</v>
+        <v>cia</v>
       </c>
       <c r="C192" t="str">
-        <v>ensino medio</v>
+        <v>interacoes</v>
       </c>
       <c r="D192" t="str">
-        <v/>
+        <v>entropia</v>
       </c>
       <c r="E192" t="str">
-        <v/>
+        <v>aula virtual</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>design thinking</v>
+        <v>tdic</v>
       </c>
       <c r="B193" t="str">
-        <v>apreizagem</v>
+        <v>ensino</v>
       </c>
       <c r="C193" t="str">
-        <v>algoritmos</v>
+        <v>climatologia</v>
       </c>
       <c r="D193" t="str">
-        <v>nocode</v>
+        <v/>
       </c>
       <c r="E193" t="str">
         <v/>
@@ -3686,16 +3686,16 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>apreizagem baseada em projetos</v>
+        <v>gamificacao</v>
       </c>
       <c r="B194" t="str">
-        <v>scrum</v>
+        <v>ensino</v>
       </c>
       <c r="C194" t="str">
-        <v>multidisciplinalidade e tecnologias emergentes</v>
+        <v>eletricidade</v>
       </c>
       <c r="D194" t="str">
-        <v/>
+        <v>palavrascruzadas</v>
       </c>
       <c r="E194" t="str">
         <v/>
@@ -3703,47 +3703,47 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>whatsapp</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B195" t="str">
-        <v>estado da arte</v>
+        <v>lingua inglesa</v>
       </c>
       <c r="C195" t="str">
-        <v>tdic</v>
+        <v>curso e3d</v>
       </c>
       <c r="D195" t="str">
-        <v>ferramenta pedagogica</v>
+        <v>recursos multimodais</v>
       </c>
       <c r="E195" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>cenarios de apreizagem interativos</v>
+        <v>ensino de botanica</v>
       </c>
       <c r="B196" t="str">
-        <v>cia</v>
+        <v>tic</v>
       </c>
       <c r="C196" t="str">
-        <v>interacoes</v>
+        <v>botanica e tecnologia</v>
       </c>
       <c r="D196" t="str">
-        <v>entropia</v>
+        <v>morfologia vegetal</v>
       </c>
       <c r="E196" t="str">
-        <v>aula virtual</v>
+        <v/>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>tdic</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B197" t="str">
-        <v>ensino</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C197" t="str">
-        <v>climatologia</v>
+        <v>metodologia do ensino</v>
       </c>
       <c r="D197" t="str">
         <v/>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>gamificacao</v>
+        <v>plataformas interativas</v>
       </c>
       <c r="B198" t="str">
-        <v>ensino</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C198" t="str">
-        <v>eletricidade</v>
+        <v>edpuzzle</v>
       </c>
       <c r="D198" t="str">
-        <v>palavrascruzadas</v>
+        <v>mentimeter</v>
       </c>
       <c r="E198" t="str">
         <v/>
@@ -3771,16 +3771,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>ensino a distancia</v>
+        <v>enfermagem</v>
       </c>
       <c r="B199" t="str">
-        <v>lingua inglesa</v>
+        <v>covid19</v>
       </c>
       <c r="C199" t="str">
-        <v>curso e3d</v>
+        <v>tecnologia de informacao</v>
       </c>
       <c r="D199" t="str">
-        <v>recursos multimodais</v>
+        <v/>
       </c>
       <c r="E199" t="str">
         <v/>
@@ -3788,16 +3788,16 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>ensino de botanica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B200" t="str">
-        <v>tic</v>
+        <v>institucionalizacao da educacao a distancia</v>
       </c>
       <c r="C200" t="str">
-        <v>botanica e tecnologia</v>
+        <v>politicas institucionais de educacao a distancia</v>
       </c>
       <c r="D200" t="str">
-        <v>morfologia vegetal</v>
+        <v>politicas publicas</v>
       </c>
       <c r="E200" t="str">
         <v/>
@@ -3805,16 +3805,16 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>ensino de quimica</v>
+        <v>avaliacao in loco virtual</v>
       </c>
       <c r="B201" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>sinaes</v>
       </c>
       <c r="C201" t="str">
-        <v>metodologia do ensino</v>
+        <v>legislacao</v>
       </c>
       <c r="D201" t="str">
-        <v/>
+        <v>paemiada covid 19</v>
       </c>
       <c r="E201" t="str">
         <v/>
@@ -3822,16 +3822,16 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>plataformas interativas</v>
+        <v>teoria critica</v>
       </c>
       <c r="B202" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>neoliberalismo</v>
       </c>
       <c r="C202" t="str">
-        <v>edpuzzle</v>
+        <v>plataformizacao</v>
       </c>
       <c r="D202" t="str">
-        <v>mentimeter</v>
+        <v>educacao</v>
       </c>
       <c r="E202" t="str">
         <v/>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>enfermagem</v>
+        <v>gestao escolar</v>
       </c>
       <c r="B203" t="str">
-        <v>covid19</v>
+        <v>demaas sociais</v>
       </c>
       <c r="C203" t="str">
-        <v>tecnologia de informacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="D203" t="str">
-        <v/>
+        <v>formacao integral</v>
       </c>
       <c r="E203" t="str">
         <v/>
@@ -3859,13 +3859,13 @@
         <v>educacao a distancia</v>
       </c>
       <c r="B204" t="str">
-        <v>institucionalizacao da educacao a distancia</v>
+        <v>regiao centrooeste</v>
       </c>
       <c r="C204" t="str">
-        <v>politicas institucionais de educacao a distancia</v>
+        <v>matriculasna educacao superior a distancia</v>
       </c>
       <c r="D204" t="str">
-        <v>politicas publicas</v>
+        <v/>
       </c>
       <c r="E204" t="str">
         <v/>
@@ -3873,16 +3873,16 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>avaliacao in loco virtual</v>
+        <v>educacao adistancia</v>
       </c>
       <c r="B205" t="str">
-        <v>sinaes</v>
+        <v>proformacao</v>
       </c>
       <c r="C205" t="str">
-        <v>legislacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D205" t="str">
-        <v>paemiada covid 19</v>
+        <v>educacao basica</v>
       </c>
       <c r="E205" t="str">
         <v/>
@@ -3890,16 +3890,16 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>teoria critica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B206" t="str">
-        <v>neoliberalismo</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C206" t="str">
-        <v>plataformizacao</v>
+        <v>iissociabilidade entre ensino</v>
       </c>
       <c r="D206" t="str">
-        <v>educacao</v>
+        <v>pesquisa e extensao</v>
       </c>
       <c r="E206" t="str">
         <v/>
@@ -3907,16 +3907,16 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>gestao escolar</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="B207" t="str">
-        <v>demaas sociais</v>
+        <v>design centrado no usuario</v>
       </c>
       <c r="C207" t="str">
-        <v>tecnologias</v>
+        <v>servico de apoio pedagogico</v>
       </c>
       <c r="D207" t="str">
-        <v>formacao integral</v>
+        <v/>
       </c>
       <c r="E207" t="str">
         <v/>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
+        <v>educacao presencial</v>
+      </c>
+      <c r="B208" t="str">
         <v>educacao a distancia</v>
       </c>
-      <c r="B208" t="str">
-        <v>regiao centrooeste</v>
-      </c>
       <c r="C208" t="str">
-        <v>matriculasna educacao superior a distancia</v>
+        <v>desempenho</v>
       </c>
       <c r="D208" t="str">
         <v/>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>educacao adistancia</v>
+        <v>evasao na educacao superior</v>
       </c>
       <c r="B209" t="str">
-        <v>proformacao</v>
+        <v>paemia covid19</v>
       </c>
       <c r="C209" t="str">
-        <v>formacao de professores</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D209" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E209" t="str">
         <v/>
@@ -3961,13 +3961,13 @@
         <v>educacao a distancia</v>
       </c>
       <c r="B210" t="str">
-        <v>institucionalizacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C210" t="str">
-        <v>iissociabilidade entre ensino</v>
+        <v>egressos</v>
       </c>
       <c r="D210" t="str">
-        <v>pesquisa e extensao</v>
+        <v>polo uab</v>
       </c>
       <c r="E210" t="str">
         <v/>
@@ -3975,13 +3975,13 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>biblioteca digital</v>
       </c>
       <c r="B211" t="str">
-        <v>design centrado no usuario</v>
+        <v>bibliografia basica e complementar</v>
       </c>
       <c r="C211" t="str">
-        <v>servico de apoio pedagogico</v>
+        <v>formacao e desenvolvimento de acervo</v>
       </c>
       <c r="D211" t="str">
         <v/>
@@ -3992,13 +3992,13 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>educacao presencial</v>
+        <v>historico da educacao a distancia</v>
       </c>
       <c r="B212" t="str">
-        <v>educacao a distancia</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C212" t="str">
-        <v>desempenho</v>
+        <v>educacao profissional a distancia</v>
       </c>
       <c r="D212" t="str">
         <v/>
@@ -4009,13 +4009,13 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>evasao na educacao superior</v>
+        <v>capitalismo de vigilancia</v>
       </c>
       <c r="B213" t="str">
-        <v>paemia covid19</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C213" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D213" t="str">
         <v/>
@@ -4026,30 +4026,30 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>educacao a distancia</v>
+        <v>paemia</v>
       </c>
       <c r="B214" t="str">
-        <v>ensino superior</v>
+        <v>distanciamento social</v>
       </c>
       <c r="C214" t="str">
-        <v>egressos</v>
+        <v>gestao escolar</v>
       </c>
       <c r="D214" t="str">
-        <v>polo uab</v>
+        <v>tecnologias</v>
       </c>
       <c r="E214" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>biblioteca digital</v>
+        <v>educacao corporativa</v>
       </c>
       <c r="B215" t="str">
-        <v>bibliografia basica e complementar</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C215" t="str">
-        <v>formacao e desenvolvimento de acervo</v>
+        <v>marinha do brasil</v>
       </c>
       <c r="D215" t="str">
         <v/>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>historico da educacao a distancia</v>
+        <v>mercado de trabalho</v>
       </c>
       <c r="B216" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>pratica profissional</v>
       </c>
       <c r="C216" t="str">
-        <v>educacao profissional a distancia</v>
+        <v>seguranca no trabalho</v>
       </c>
       <c r="D216" t="str">
-        <v/>
+        <v>vocacao regional</v>
       </c>
       <c r="E216" t="str">
         <v/>
@@ -4077,16 +4077,16 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>capitalismo de vigilancia</v>
+        <v>ensino basico</v>
       </c>
       <c r="B217" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino remotoemergencia</v>
       </c>
       <c r="C217" t="str">
-        <v>ensino remoto</v>
+        <v>covid19</v>
       </c>
       <c r="D217" t="str">
-        <v/>
+        <v>tic</v>
       </c>
       <c r="E217" t="str">
         <v/>
@@ -4094,33 +4094,33 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>paemia</v>
+        <v>formacao de profissionais da educacao</v>
       </c>
       <c r="B218" t="str">
-        <v>distanciamento social</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C218" t="str">
-        <v>gestao escolar</v>
+        <v>tdic</v>
       </c>
       <c r="D218" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
       <c r="E218" t="str">
-        <v>ensino apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>educacao corporativa</v>
+        <v>gestao educacional</v>
       </c>
       <c r="B219" t="str">
-        <v>formacao continuada</v>
+        <v>ead</v>
       </c>
       <c r="C219" t="str">
-        <v>marinha do brasil</v>
+        <v>educacao e tecnologia</v>
       </c>
       <c r="D219" t="str">
-        <v/>
+        <v>atuacao profissional</v>
       </c>
       <c r="E219" t="str">
         <v/>
@@ -4128,16 +4128,16 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>mercado de trabalho</v>
+        <v>gestao democratica</v>
       </c>
       <c r="B220" t="str">
-        <v>pratica profissional</v>
+        <v>eleicao para diretora</v>
       </c>
       <c r="C220" t="str">
-        <v>seguranca no trabalho</v>
+        <v>lei complementar n 1096</v>
       </c>
       <c r="D220" t="str">
-        <v>vocacao regional</v>
+        <v/>
       </c>
       <c r="E220" t="str">
         <v/>
@@ -4145,16 +4145,16 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>ensino basico</v>
+        <v>gestao na educacao</v>
       </c>
       <c r="B221" t="str">
-        <v>ensino remotoemergencia</v>
+        <v>planejamento estrategico</v>
       </c>
       <c r="C221" t="str">
-        <v>covid19</v>
+        <v>instituicao de ensino</v>
       </c>
       <c r="D221" t="str">
-        <v>tic</v>
+        <v/>
       </c>
       <c r="E221" t="str">
         <v/>
@@ -4162,33 +4162,33 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>formacao de profissionais da educacao</v>
+        <v>googledrive</v>
       </c>
       <c r="B222" t="str">
-        <v>formacao continuada</v>
+        <v>organizacao pedagogica</v>
       </c>
       <c r="C222" t="str">
-        <v>tdic</v>
+        <v>educacao basica</v>
       </c>
       <c r="D222" t="str">
-        <v/>
+        <v>sistema municipal publico de ensino</v>
       </c>
       <c r="E222" t="str">
-        <v/>
+        <v>gestao educacional</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>gestao educacional</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B223" t="str">
-        <v>ead</v>
+        <v>educacao superior</v>
       </c>
       <c r="C223" t="str">
-        <v>educacao e tecnologia</v>
+        <v>inclusao digital</v>
       </c>
       <c r="D223" t="str">
-        <v>atuacao profissional</v>
+        <v/>
       </c>
       <c r="E223" t="str">
         <v/>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>gestao democratica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B224" t="str">
-        <v>eleicao para diretora</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C224" t="str">
-        <v>lei complementar n 1096</v>
+        <v>bibliometria</v>
       </c>
       <c r="D224" t="str">
-        <v/>
+        <v>universidade aberta do brasil</v>
       </c>
       <c r="E224" t="str">
         <v/>
@@ -4213,13 +4213,13 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>gestao na educacao</v>
+        <v>educacao maker</v>
       </c>
       <c r="B225" t="str">
-        <v>planejamento estrategico</v>
+        <v>prototipagem</v>
       </c>
       <c r="C225" t="str">
-        <v>instituicao de ensino</v>
+        <v>ensino superior</v>
       </c>
       <c r="D225" t="str">
         <v/>
@@ -4230,50 +4230,50 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>googledrive</v>
+        <v>politica de assistencia estudantil</v>
       </c>
       <c r="B226" t="str">
-        <v>organizacao pedagogica</v>
+        <v>direito a educacao</v>
       </c>
       <c r="C226" t="str">
-        <v>educacao basica</v>
+        <v>modelo de formacao</v>
       </c>
       <c r="D226" t="str">
-        <v>sistema municipal publico de ensino</v>
+        <v/>
       </c>
       <c r="E226" t="str">
-        <v>gestao educacional</v>
+        <v/>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>politicas publicas</v>
+        <v>tecnologia</v>
       </c>
       <c r="B227" t="str">
-        <v>educacao superior</v>
+        <v>educacao</v>
       </c>
       <c r="C227" t="str">
-        <v>inclusao digital</v>
+        <v>trabalho</v>
       </c>
       <c r="D227" t="str">
-        <v/>
+        <v>napp academy</v>
       </c>
       <c r="E227" t="str">
-        <v/>
+        <v>carencia</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="B228" t="str">
-        <v>institucionalizacao</v>
+        <v>tecnologia de informacao e comunicacao</v>
       </c>
       <c r="C228" t="str">
-        <v>bibliometria</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D228" t="str">
-        <v>universidade aberta do brasil</v>
+        <v>praticaspedagogicas</v>
       </c>
       <c r="E228" t="str">
         <v/>
@@ -4281,16 +4281,16 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>educacao maker</v>
+        <v>permanencia</v>
       </c>
       <c r="B229" t="str">
-        <v>prototipagem</v>
+        <v>ensino superior</v>
       </c>
       <c r="C229" t="str">
-        <v>ensino superior</v>
+        <v>tecnologia</v>
       </c>
       <c r="D229" t="str">
-        <v/>
+        <v>gestao</v>
       </c>
       <c r="E229" t="str">
         <v/>
@@ -4298,16 +4298,16 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>politica de assistencia estudantil</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B230" t="str">
-        <v>direito a educacao</v>
+        <v>educacao superior</v>
       </c>
       <c r="C230" t="str">
-        <v>modelo de formacao</v>
+        <v>gestao de processo</v>
       </c>
       <c r="D230" t="str">
-        <v/>
+        <v>inclusao digital</v>
       </c>
       <c r="E230" t="str">
         <v/>
@@ -4315,33 +4315,33 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>tecnologia</v>
+        <v>aluno com deficiencia</v>
       </c>
       <c r="B231" t="str">
-        <v>educacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C231" t="str">
-        <v>trabalho</v>
+        <v>inclusao</v>
       </c>
       <c r="D231" t="str">
-        <v>napp academy</v>
+        <v/>
       </c>
       <c r="E231" t="str">
-        <v>carencia</v>
+        <v/>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B232" t="str">
-        <v>tecnologia de informacao e comunicacao</v>
+        <v>estrategia de retencao educacional</v>
       </c>
       <c r="C232" t="str">
-        <v>ensino hibrido</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="D232" t="str">
-        <v>praticaspedagogicas</v>
+        <v>fatores criticos de sucesso</v>
       </c>
       <c r="E232" t="str">
         <v/>
@@ -4349,16 +4349,16 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>permanencia</v>
+        <v>novo ensino medio</v>
       </c>
       <c r="B233" t="str">
-        <v>ensino superior</v>
+        <v>tecnologias</v>
       </c>
       <c r="C233" t="str">
-        <v>tecnologia</v>
+        <v>profissao docente</v>
       </c>
       <c r="D233" t="str">
-        <v>gestao</v>
+        <v/>
       </c>
       <c r="E233" t="str">
         <v/>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>politicas publicas</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B234" t="str">
-        <v>educacao superior</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C234" t="str">
-        <v>gestao de processo</v>
+        <v>rede federal de educacao profissional e tecnologica</v>
       </c>
       <c r="D234" t="str">
-        <v>inclusao digital</v>
+        <v>conif</v>
       </c>
       <c r="E234" t="str">
         <v/>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>aluno com deficiencia</v>
+        <v>sistema publico municipal</v>
       </c>
       <c r="B235" t="str">
-        <v>ensino superior</v>
+        <v>tdic</v>
       </c>
       <c r="C235" t="str">
-        <v>inclusao</v>
+        <v>equidade</v>
       </c>
       <c r="D235" t="str">
-        <v/>
+        <v>politicas educacionais</v>
       </c>
       <c r="E235" t="str">
         <v/>
@@ -4400,16 +4400,16 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologia e educacao</v>
       </c>
       <c r="B236" t="str">
-        <v>estrategia de retencao educacional</v>
+        <v>legislacao educacional</v>
       </c>
       <c r="C236" t="str">
-        <v>evasao no ensino superior</v>
+        <v>tecnologias digitais no ensino</v>
       </c>
       <c r="D236" t="str">
-        <v>fatores criticos de sucesso</v>
+        <v/>
       </c>
       <c r="E236" t="str">
         <v/>
@@ -4417,33 +4417,33 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>novo ensino medio</v>
+        <v>plano de intervencao</v>
       </c>
       <c r="B237" t="str">
-        <v>tecnologias</v>
+        <v>base nacional comum curricular e parametros curriculares nacionais</v>
       </c>
       <c r="C237" t="str">
-        <v>profissao docente</v>
+        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
       </c>
       <c r="D237" t="str">
-        <v/>
+        <v>ensino medio</v>
       </c>
       <c r="E237" t="str">
-        <v/>
+        <v>gestao educacional integrada</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B238" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>retorno presencial</v>
       </c>
       <c r="C238" t="str">
-        <v>rede federal de educacao profissional e tecnologica</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D238" t="str">
-        <v>conif</v>
+        <v/>
       </c>
       <c r="E238" t="str">
         <v/>
@@ -4451,30 +4451,30 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>sistema publico municipal</v>
+        <v>educacao</v>
       </c>
       <c r="B239" t="str">
-        <v>tdic</v>
+        <v>tecnologia</v>
       </c>
       <c r="C239" t="str">
-        <v>equidade</v>
+        <v>pensamento critico</v>
       </c>
       <c r="D239" t="str">
-        <v>politicas educacionais</v>
+        <v>revisao narrativa</v>
       </c>
       <c r="E239" t="str">
-        <v/>
+        <v>neil selwyn</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>tecnologia e educacao</v>
+        <v>algebra nos anos iniciais</v>
       </c>
       <c r="B240" t="str">
-        <v>legislacao educacional</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C240" t="str">
-        <v>tecnologias digitais no ensino</v>
+        <v>tics</v>
       </c>
       <c r="D240" t="str">
         <v/>
@@ -4485,67 +4485,67 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>plano de intervencao</v>
+        <v>formacao inicial de professores</v>
       </c>
       <c r="B241" t="str">
-        <v>base nacional comum curricular e parametros curriculares nacionais</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="C241" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
+        <v>tecnologiaseducacionais</v>
       </c>
       <c r="D241" t="str">
-        <v>ensino medio</v>
+        <v/>
       </c>
       <c r="E241" t="str">
-        <v>gestao educacional integrada</v>
+        <v/>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B242" t="str">
-        <v>retorno presencial</v>
+        <v>feedback</v>
       </c>
       <c r="C242" t="str">
-        <v>tecnologias digitais</v>
+        <v>regulacao</v>
       </c>
       <c r="D242" t="str">
-        <v/>
+        <v>autorregulacao</v>
       </c>
       <c r="E242" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>educacao</v>
+        <v>ensino de fisicaciencias</v>
       </c>
       <c r="B243" t="str">
-        <v>tecnologia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C243" t="str">
-        <v>pensamento critico</v>
+        <v>paemia</v>
       </c>
       <c r="D243" t="str">
-        <v>revisao narrativa</v>
+        <v>tecnologias</v>
       </c>
       <c r="E243" t="str">
-        <v>neil selwyn</v>
+        <v/>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>algebra nos anos iniciais</v>
+        <v>processo de ensino e apreizagem</v>
       </c>
       <c r="B244" t="str">
-        <v>formacao continuada de professores</v>
+        <v>cultura digital</v>
       </c>
       <c r="C244" t="str">
-        <v>tics</v>
+        <v>educacao superior</v>
       </c>
       <c r="D244" t="str">
-        <v/>
+        <v>tecnologia</v>
       </c>
       <c r="E244" t="str">
         <v/>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>formacao inicial de professores</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B245" t="str">
-        <v>ensino de fisica</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="C245" t="str">
-        <v>tecnologiaseducacionais</v>
+        <v>politicas publicas</v>
       </c>
       <c r="D245" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E245" t="str">
         <v/>
@@ -4570,33 +4570,33 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>avaliacao formativa</v>
+        <v>transdisciplinaridade</v>
       </c>
       <c r="B246" t="str">
-        <v>feedback</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C246" t="str">
-        <v>regulacao</v>
+        <v>multidisciplinaridade</v>
       </c>
       <c r="D246" t="str">
-        <v>autorregulacao</v>
+        <v>transversalidade</v>
       </c>
       <c r="E246" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino basico</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>ensino de fisicaciencias</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B247" t="str">
-        <v>ensino remoto</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C247" t="str">
-        <v>paemia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D247" t="str">
-        <v>tecnologias</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="E247" t="str">
         <v/>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>processo de ensino e apreizagem</v>
+        <v>paemia</v>
       </c>
       <c r="B248" t="str">
-        <v>cultura digital</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C248" t="str">
-        <v>educacao superior</v>
+        <v>educacao remota</v>
       </c>
       <c r="D248" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="E248" t="str">
         <v/>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>tecnologia educacional</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B249" t="str">
-        <v>inovacao educacional</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C249" t="str">
-        <v>politicas publicas</v>
+        <v>brasil</v>
       </c>
       <c r="D249" t="str">
-        <v>educacao basica</v>
+        <v>portugal</v>
       </c>
       <c r="E249" t="str">
         <v/>
@@ -4638,50 +4638,50 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>transdisciplinaridade</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B250" t="str">
-        <v>interdisciplinaridade</v>
+        <v>metodologias</v>
       </c>
       <c r="C250" t="str">
-        <v>multidisciplinaridade</v>
+        <v>tecnologias</v>
       </c>
       <c r="D250" t="str">
-        <v>transversalidade</v>
+        <v/>
       </c>
       <c r="E250" t="str">
-        <v>ensino basico</v>
+        <v/>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>ensino hibrido</v>
+        <v>sociologia da ciencia</v>
       </c>
       <c r="B251" t="str">
-        <v>metodologias ativas</v>
+        <v>cientometria</v>
       </c>
       <c r="C251" t="str">
+        <v>educacao</v>
+      </c>
+      <c r="D251" t="str">
+        <v>formacao de professores</v>
+      </c>
+      <c r="E251" t="str">
         <v>tecnologias digitais</v>
-      </c>
-      <c r="D251" t="str">
-        <v>ensinoapreizagem</v>
-      </c>
-      <c r="E251" t="str">
-        <v/>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>paemia</v>
+        <v>identidade docente</v>
       </c>
       <c r="B252" t="str">
-        <v>educacao hibrida</v>
+        <v>formacao docente</v>
       </c>
       <c r="C252" t="str">
-        <v>educacao remota</v>
+        <v>licenciatura em educacao a distancia</v>
       </c>
       <c r="D252" t="str">
-        <v>tecnologias na educacao</v>
+        <v/>
       </c>
       <c r="E252" t="str">
         <v/>
@@ -4689,16 +4689,16 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>educacao hibrida</v>
+        <v>anais do eneq</v>
       </c>
       <c r="B253" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao quimica</v>
       </c>
       <c r="C253" t="str">
-        <v>brasil</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D253" t="str">
-        <v>portugal</v>
+        <v/>
       </c>
       <c r="E253" t="str">
         <v/>
@@ -4706,16 +4706,16 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino superior</v>
       </c>
       <c r="B254" t="str">
-        <v>metodologias</v>
+        <v>ensino superior</v>
       </c>
       <c r="C254" t="str">
-        <v>tecnologias</v>
+        <v>bleed learning</v>
       </c>
       <c r="D254" t="str">
-        <v/>
+        <v>bleed learning</v>
       </c>
       <c r="E254" t="str">
         <v/>
@@ -4723,30 +4723,30 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>sociologia da ciencia</v>
+        <v>paulo freir</v>
       </c>
       <c r="B255" t="str">
-        <v>cientometria</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C255" t="str">
-        <v>educacao</v>
+        <v>tdic</v>
       </c>
       <c r="D255" t="str">
-        <v>formacao de professores</v>
+        <v>educacao a distanci</v>
       </c>
       <c r="E255" t="str">
-        <v>tecnologias digitais</v>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>identidade docente</v>
+        <v>conhecimento</v>
       </c>
       <c r="B256" t="str">
-        <v>formacao docente</v>
+        <v>metodologia</v>
       </c>
       <c r="C256" t="str">
-        <v>licenciatura em educacao a distancia</v>
+        <v>pesquisa</v>
       </c>
       <c r="D256" t="str">
         <v/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>anais do eneq</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="B257" t="str">
-        <v>educacao quimica</v>
+        <v>pesquisador</v>
       </c>
       <c r="C257" t="str">
-        <v>tecnologias digitais</v>
+        <v>stricto sensu</v>
       </c>
       <c r="D257" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E257" t="str">
         <v/>
@@ -4774,16 +4774,16 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>ensino superior</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B258" t="str">
-        <v>ensino superior</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C258" t="str">
-        <v>bleed learning</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D258" t="str">
-        <v>bleed learning</v>
+        <v/>
       </c>
       <c r="E258" t="str">
         <v/>
@@ -4791,30 +4791,30 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>paulo freir</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B259" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C259" t="str">
-        <v>tdic</v>
+        <v>ensino superior</v>
       </c>
       <c r="D259" t="str">
-        <v>educacao a distanci</v>
+        <v>transformacao digital</v>
       </c>
       <c r="E259" t="str">
-        <v>cultura digital</v>
+        <v>subjetividade</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>conhecimento</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B260" t="str">
-        <v>metodologia</v>
+        <v>tecnologia</v>
       </c>
       <c r="C260" t="str">
-        <v>pesquisa</v>
+        <v>ctsctsa</v>
       </c>
       <c r="D260" t="str">
         <v/>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>politicas educacionais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B261" t="str">
-        <v>pesquisador</v>
+        <v>tdic</v>
       </c>
       <c r="C261" t="str">
-        <v>stricto sensu</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="D261" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E261" t="str">
         <v/>
@@ -4842,13 +4842,13 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>ensino hibrido</v>
+        <v>defensoria publica do estado tocantins</v>
       </c>
       <c r="B262" t="str">
-        <v>metodologias ativas</v>
+        <v>youtube</v>
       </c>
       <c r="C262" t="str">
-        <v>metodologias ativas</v>
+        <v>capacitacao</v>
       </c>
       <c r="D262" t="str">
         <v/>
@@ -4859,30 +4859,30 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>ensino remoto</v>
+        <v>arquivo pessoal</v>
       </c>
       <c r="B263" t="str">
-        <v>ensino hibrido</v>
+        <v>arquivo epistolar</v>
       </c>
       <c r="C263" t="str">
-        <v>ensino superior</v>
+        <v>acervo literario</v>
       </c>
       <c r="D263" t="str">
-        <v>transformacao digital</v>
+        <v/>
       </c>
       <c r="E263" t="str">
-        <v>subjetividade</v>
+        <v/>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>ensino de ciencias</v>
+        <v>radio</v>
       </c>
       <c r="B264" t="str">
-        <v>tecnologia</v>
+        <v>musica</v>
       </c>
       <c r="C264" t="str">
-        <v>ctsctsa</v>
+        <v>educacao e midiana paemia</v>
       </c>
       <c r="D264" t="str">
         <v/>
@@ -4893,13 +4893,13 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>educacao a distancia</v>
+        <v>linguagem cinematografica</v>
       </c>
       <c r="B265" t="str">
-        <v>tdic</v>
+        <v>ludicidade</v>
       </c>
       <c r="C265" t="str">
-        <v>tecnologias na educacao</v>
+        <v>biologia</v>
       </c>
       <c r="D265" t="str">
         <v/>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>defensoria publica do estado tocantins</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B266" t="str">
-        <v>youtube</v>
+        <v>museus virtuais</v>
       </c>
       <c r="C266" t="str">
-        <v>capacitacao</v>
+        <v>tdcis</v>
       </c>
       <c r="D266" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
       <c r="E266" t="str">
         <v/>
@@ -4927,30 +4927,30 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>arquivo pessoal</v>
+        <v>oficina</v>
       </c>
       <c r="B267" t="str">
-        <v>arquivo epistolar</v>
+        <v>partilha do sensivel</v>
       </c>
       <c r="C267" t="str">
-        <v>acervo literario</v>
+        <v>escrita criativa</v>
       </c>
       <c r="D267" t="str">
-        <v/>
+        <v>fotografia</v>
       </c>
       <c r="E267" t="str">
-        <v/>
+        <v>apropriacao</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>radio</v>
+        <v>arte musical</v>
       </c>
       <c r="B268" t="str">
-        <v>musica</v>
+        <v>cultura e saberes</v>
       </c>
       <c r="C268" t="str">
-        <v>educacao e midiana paemia</v>
+        <v>infancia</v>
       </c>
       <c r="D268" t="str">
         <v/>
@@ -4961,16 +4961,16 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>linguagem cinematografica</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B269" t="str">
-        <v>ludicidade</v>
+        <v>design para experiencia</v>
       </c>
       <c r="C269" t="str">
-        <v>biologia</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="D269" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
       <c r="E269" t="str">
         <v/>
@@ -4978,50 +4978,50 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>tecnologias digitais</v>
+        <v>acessibilidade digital</v>
       </c>
       <c r="B270" t="str">
-        <v>museus virtuais</v>
+        <v>inclusao</v>
       </c>
       <c r="C270" t="str">
-        <v>tdcis</v>
+        <v>surdo</v>
       </c>
       <c r="D270" t="str">
-        <v>ensino apreizagem</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="E270" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>oficina</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="B271" t="str">
-        <v>partilha do sensivel</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C271" t="str">
-        <v>escrita criativa</v>
+        <v>ere</v>
       </c>
       <c r="D271" t="str">
-        <v>fotografia</v>
+        <v>napnee</v>
       </c>
       <c r="E271" t="str">
-        <v>apropriacao</v>
+        <v/>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>arte musical</v>
+        <v>inclusao</v>
       </c>
       <c r="B272" t="str">
-        <v>cultura e saberes</v>
+        <v>autismo</v>
       </c>
       <c r="C272" t="str">
-        <v>infancia</v>
+        <v>teacch</v>
       </c>
       <c r="D272" t="str">
-        <v/>
+        <v>abcautismo</v>
       </c>
       <c r="E272" t="str">
         <v/>
@@ -5029,16 +5029,16 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>acessibilidade</v>
+        <v>apreizagem</v>
       </c>
       <c r="B273" t="str">
-        <v>design para experiencia</v>
+        <v>deficiencia</v>
       </c>
       <c r="C273" t="str">
-        <v>pessoa com deficiencia</v>
+        <v>educacao superior</v>
       </c>
       <c r="D273" t="str">
-        <v>docencia</v>
+        <v>inclusao</v>
       </c>
       <c r="E273" t="str">
         <v/>
@@ -5046,33 +5046,33 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>acessibilidade digital</v>
+        <v>tdic</v>
       </c>
       <c r="B274" t="str">
-        <v>inclusao</v>
+        <v>educacao especia</v>
       </c>
       <c r="C274" t="str">
-        <v>surdo</v>
+        <v>linguagem escrita</v>
       </c>
       <c r="D274" t="str">
-        <v>pessoa com deficiencia</v>
+        <v/>
       </c>
       <c r="E274" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>educacao inclusiva</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B275" t="str">
-        <v>tecnologias digitais</v>
+        <v>inclusaode alunos com deficiencia</v>
       </c>
       <c r="C275" t="str">
-        <v>ere</v>
+        <v>ensino superior</v>
       </c>
       <c r="D275" t="str">
-        <v>napnee</v>
+        <v/>
       </c>
       <c r="E275" t="str">
         <v/>
@@ -5080,16 +5080,16 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>inclusao</v>
+        <v>deficiencia intelectual</v>
       </c>
       <c r="B276" t="str">
-        <v>autismo</v>
+        <v>guia digital</v>
       </c>
       <c r="C276" t="str">
-        <v>teacch</v>
+        <v>avaliacao</v>
       </c>
       <c r="D276" t="str">
-        <v>abcautismo</v>
+        <v/>
       </c>
       <c r="E276" t="str">
         <v/>
@@ -5097,16 +5097,16 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
+        <v>alunos com deficiencias</v>
+      </c>
+      <c r="B277" t="str">
         <v>apreizagem</v>
       </c>
-      <c r="B277" t="str">
-        <v>deficiencia</v>
-      </c>
       <c r="C277" t="str">
-        <v>educacao superior</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D277" t="str">
-        <v>inclusao</v>
+        <v>metodologia</v>
       </c>
       <c r="E277" t="str">
         <v/>
@@ -5114,30 +5114,30 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>tdic</v>
+        <v>movimento devia</v>
       </c>
       <c r="B278" t="str">
-        <v>educacao especia</v>
+        <v>arte surda</v>
       </c>
       <c r="C278" t="str">
-        <v>linguagem escrita</v>
+        <v>extensaoead</v>
       </c>
       <c r="D278" t="str">
-        <v/>
+        <v>moocs acessiveis em libras</v>
       </c>
       <c r="E278" t="str">
-        <v/>
+        <v>lingua brasileira de sinais</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>acessibilidade</v>
+        <v>material digital acessivel</v>
       </c>
       <c r="B279" t="str">
-        <v>inclusaode alunos com deficiencia</v>
+        <v>educacao digital inclusiva</v>
       </c>
       <c r="C279" t="str">
-        <v>ensino superior</v>
+        <v>inclusao no ensino superior</v>
       </c>
       <c r="D279" t="str">
         <v/>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>deficiencia intelectual</v>
+        <v>educacao especial</v>
       </c>
       <c r="B280" t="str">
-        <v>guia digital</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C280" t="str">
-        <v>avaliacao</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D280" t="str">
         <v/>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>alunos com deficiencias</v>
+        <v>educacao</v>
       </c>
       <c r="B281" t="str">
-        <v>apreizagem</v>
+        <v>inclusao</v>
       </c>
       <c r="C281" t="str">
-        <v>educacao inclusiva</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D281" t="str">
-        <v>metodologia</v>
+        <v/>
       </c>
       <c r="E281" t="str">
         <v/>
@@ -5182,33 +5182,33 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>movimento devia</v>
+        <v>autismo</v>
       </c>
       <c r="B282" t="str">
-        <v>arte surda</v>
+        <v>modelo social de deficiencia</v>
       </c>
       <c r="C282" t="str">
-        <v>extensaoead</v>
+        <v>interatividade na educacao</v>
       </c>
       <c r="D282" t="str">
-        <v>moocs acessiveis em libras</v>
+        <v/>
       </c>
       <c r="E282" t="str">
-        <v>lingua brasileira de sinais</v>
+        <v/>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>material digital acessivel</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B283" t="str">
-        <v>educacao digital inclusiva</v>
+        <v>educacao especial</v>
       </c>
       <c r="C283" t="str">
-        <v>inclusao no ensino superior</v>
+        <v>inclusao</v>
       </c>
       <c r="D283" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E283" t="str">
         <v/>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>educacao especial</v>
+        <v>tecnologias digitais da informacao e da comunicacao</v>
       </c>
       <c r="B284" t="str">
-        <v>formacao de professores</v>
+        <v>tdics</v>
       </c>
       <c r="C284" t="str">
-        <v>tecnologia assistiva</v>
+        <v>acessibilidade</v>
       </c>
       <c r="D284" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E284" t="str">
         <v/>
@@ -5233,13 +5233,13 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>educacao</v>
+        <v>ensino de libras</v>
       </c>
       <c r="B285" t="str">
-        <v>inclusao</v>
+        <v>objetos digitais de apreizagem</v>
       </c>
       <c r="C285" t="str">
-        <v>ensino hibrido</v>
+        <v>professores em formacao</v>
       </c>
       <c r="D285" t="str">
         <v/>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>autismo</v>
+        <v>sinalario</v>
       </c>
       <c r="B286" t="str">
-        <v>modelo social de deficiencia</v>
+        <v>libras</v>
       </c>
       <c r="C286" t="str">
-        <v>interatividade na educacao</v>
+        <v>robotica</v>
       </c>
       <c r="D286" t="str">
-        <v/>
+        <v>inclusao</v>
       </c>
       <c r="E286" t="str">
         <v/>
@@ -5267,33 +5267,33 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>ensino remoto</v>
+        <v>historia em quadrinho</v>
       </c>
       <c r="B287" t="str">
-        <v>educacao especial</v>
+        <v>reglete</v>
       </c>
       <c r="C287" t="str">
-        <v>inclusao</v>
+        <v>braille</v>
       </c>
       <c r="D287" t="str">
-        <v>covid19</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="E287" t="str">
-        <v/>
+        <v>modelo atomico</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="B288" t="str">
-        <v>tdics</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="C288" t="str">
-        <v>acessibilidade</v>
+        <v>desenho universal para apreizagem</v>
       </c>
       <c r="D288" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E288" t="str">
         <v/>
@@ -5301,13 +5301,13 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>ensino de libras</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B289" t="str">
-        <v>objetos digitais de apreizagem</v>
+        <v>inclusao de alunos com deficiencia</v>
       </c>
       <c r="C289" t="str">
-        <v>professores em formacao</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D289" t="str">
         <v/>
@@ -5318,50 +5318,50 @@
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>sinalario</v>
+        <v>inclusao</v>
       </c>
       <c r="B290" t="str">
         <v>libras</v>
       </c>
       <c r="C290" t="str">
-        <v>robotica</v>
+        <v>quimica</v>
       </c>
       <c r="D290" t="str">
-        <v>inclusao</v>
+        <v>tabela periodica</v>
       </c>
       <c r="E290" t="str">
-        <v/>
+        <v>tecnologia digitais</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>historia em quadrinho</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="B291" t="str">
-        <v>reglete</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="C291" t="str">
-        <v>braille</v>
+        <v>biologia</v>
       </c>
       <c r="D291" t="str">
-        <v>educacao inclusiva</v>
+        <v>ead</v>
       </c>
       <c r="E291" t="str">
-        <v>modelo atomico</v>
+        <v/>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>ensino superior</v>
+        <v>vigilancia digital controversia cientifica</v>
       </c>
       <c r="B292" t="str">
-        <v>tecnologia assistiva</v>
+        <v>ducacao nao presencial de emergencia</v>
       </c>
       <c r="C292" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>ciencia</v>
       </c>
       <c r="D292" t="str">
-        <v/>
+        <v>tecnologia e sociedade cts</v>
       </c>
       <c r="E292" t="str">
         <v/>
@@ -5369,16 +5369,16 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino superior militar</v>
       </c>
       <c r="B293" t="str">
-        <v>inclusao de alunos com deficiencia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C293" t="str">
-        <v>tecnologia assistiva</v>
+        <v>escola naval</v>
       </c>
       <c r="D293" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E293" t="str">
         <v/>
@@ -5386,33 +5386,33 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>inclusao</v>
+        <v>cartapessoal</v>
       </c>
       <c r="B294" t="str">
-        <v>libras</v>
+        <v>leitura</v>
       </c>
       <c r="C294" t="str">
-        <v>quimica</v>
+        <v>escrita</v>
       </c>
       <c r="D294" t="str">
-        <v>tabela periodica</v>
+        <v>ensino fuamental i</v>
       </c>
       <c r="E294" t="str">
-        <v>tecnologia digitais</v>
+        <v>letramento</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>apreizagem</v>
       </c>
       <c r="B295" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>quarta revolucao iustrial</v>
       </c>
       <c r="C295" t="str">
-        <v>biologia</v>
+        <v>afetividade</v>
       </c>
       <c r="D295" t="str">
-        <v>ead</v>
+        <v>humanidade</v>
       </c>
       <c r="E295" t="str">
         <v/>
@@ -5420,67 +5420,67 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>vigilancia digital controversia cientifica</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B296" t="str">
-        <v>ducacao nao presencial de emergencia</v>
+        <v>ambientes virtuais de apreizagem ava</v>
       </c>
       <c r="C296" t="str">
-        <v>ciencia</v>
+        <v>resiliencia</v>
       </c>
       <c r="D296" t="str">
-        <v>tecnologia e sociedade cts</v>
+        <v>equidade</v>
       </c>
       <c r="E296" t="str">
-        <v/>
+        <v>offline</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>ensino superior militar</v>
+        <v>lesson study</v>
       </c>
       <c r="B297" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>autoeficacia</v>
       </c>
       <c r="C297" t="str">
-        <v>escola naval</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="D297" t="str">
-        <v>paemia covid19</v>
+        <v>apreizagem colaborativa</v>
       </c>
       <c r="E297" t="str">
-        <v/>
+        <v>revisao sistematica da literatura</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>cartapessoal</v>
+        <v>pibid</v>
       </c>
       <c r="B298" t="str">
-        <v>leitura</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C298" t="str">
-        <v>escrita</v>
+        <v>ciencias biologicas</v>
       </c>
       <c r="D298" t="str">
-        <v>ensino fuamental i</v>
+        <v/>
       </c>
       <c r="E298" t="str">
-        <v>letramento</v>
+        <v/>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>apreizagem</v>
+        <v>danca e tecnologia</v>
       </c>
       <c r="B299" t="str">
-        <v>quarta revolucao iustrial</v>
+        <v>ambiencia de interacao digital</v>
       </c>
       <c r="C299" t="str">
-        <v>afetividade</v>
+        <v>arte interativa digital</v>
       </c>
       <c r="D299" t="str">
-        <v>humanidade</v>
+        <v>produsage</v>
       </c>
       <c r="E299" t="str">
         <v/>
@@ -5488,47 +5488,47 @@
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>inclusao digital</v>
+        <v>desenvolvimento cognitivo</v>
       </c>
       <c r="B300" t="str">
-        <v>ambientes virtuais de apreizagem ava</v>
+        <v>cognicao numerica</v>
       </c>
       <c r="C300" t="str">
-        <v>resiliencia</v>
+        <v>senso numerico</v>
       </c>
       <c r="D300" t="str">
-        <v>equidade</v>
+        <v/>
       </c>
       <c r="E300" t="str">
-        <v>offline</v>
+        <v/>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>lesson study</v>
+        <v>direitos humanos</v>
       </c>
       <c r="B301" t="str">
-        <v>autoeficacia</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C301" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>utilizacao de midias</v>
       </c>
       <c r="D301" t="str">
-        <v>apreizagem colaborativa</v>
+        <v>ensino critico</v>
       </c>
       <c r="E301" t="str">
-        <v>revisao sistematica da literatura</v>
+        <v/>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>pibid</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B302" t="str">
-        <v>formacao de professores</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="C302" t="str">
-        <v>ciencias biologicas</v>
+        <v>graduacao em pedagogia ead</v>
       </c>
       <c r="D302" t="str">
         <v/>
@@ -5539,16 +5539,16 @@
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>danca e tecnologia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B303" t="str">
-        <v>ambiencia de interacao digital</v>
+        <v>ensino superior</v>
       </c>
       <c r="C303" t="str">
-        <v>arte interativa digital</v>
+        <v>construcao identitaria</v>
       </c>
       <c r="D303" t="str">
-        <v>produsage</v>
+        <v/>
       </c>
       <c r="E303" t="str">
         <v/>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>desenvolvimento cognitivo</v>
+        <v>agentes comunitarios de saude</v>
       </c>
       <c r="B304" t="str">
-        <v>cognicao numerica</v>
+        <v>anormalidades congenitas</v>
       </c>
       <c r="C304" t="str">
-        <v>senso numerico</v>
+        <v>capacitacao em servico</v>
       </c>
       <c r="D304" t="str">
-        <v/>
+        <v>saude da familia</v>
       </c>
       <c r="E304" t="str">
         <v/>
@@ -5573,16 +5573,16 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>direitos humanos</v>
+        <v>netativismo</v>
       </c>
       <c r="B305" t="str">
-        <v>interdisciplinaridade</v>
+        <v>processos formativos</v>
       </c>
       <c r="C305" t="str">
-        <v>utilizacao de midias</v>
+        <v>empoderamento freireano</v>
       </c>
       <c r="D305" t="str">
-        <v>ensino critico</v>
+        <v/>
       </c>
       <c r="E305" t="str">
         <v/>
@@ -5590,16 +5590,16 @@
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>educacao a distancia</v>
+        <v>inovacao</v>
       </c>
       <c r="B306" t="str">
-        <v>ensino e apreizagem</v>
+        <v>robotica educativa</v>
       </c>
       <c r="C306" t="str">
-        <v>graduacao em pedagogia ead</v>
+        <v>apreizagem</v>
       </c>
       <c r="D306" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E306" t="str">
         <v/>
@@ -5607,33 +5607,33 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B307" t="str">
-        <v>ensino superior</v>
+        <v>design para a educacao</v>
       </c>
       <c r="C307" t="str">
-        <v>construcao identitaria</v>
+        <v>capacitacao</v>
       </c>
       <c r="D307" t="str">
-        <v/>
+        <v>ludificacao</v>
       </c>
       <c r="E307" t="str">
-        <v/>
+        <v>gamificacao</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>agentes comunitarios de saude</v>
+        <v>educacao a distancia centrode educacao aberta e a distancia</v>
       </c>
       <c r="B308" t="str">
-        <v>anormalidades congenitas</v>
+        <v>programa universidade aberta do brasil</v>
       </c>
       <c r="C308" t="str">
-        <v>capacitacao em servico</v>
+        <v>ensino superior</v>
       </c>
       <c r="D308" t="str">
-        <v>saude da familia</v>
+        <v/>
       </c>
       <c r="E308" t="str">
         <v/>
@@ -5641,13 +5641,13 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>netativismo</v>
+        <v>educacao tradicional</v>
       </c>
       <c r="B309" t="str">
-        <v>processos formativos</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C309" t="str">
-        <v>empoderamento freireano</v>
+        <v>retomada da apreizagem</v>
       </c>
       <c r="D309" t="str">
         <v/>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>inovacao</v>
+        <v>letramento digital</v>
       </c>
       <c r="B310" t="str">
-        <v>robotica educativa</v>
+        <v>letramento</v>
       </c>
       <c r="C310" t="str">
-        <v>apreizagem</v>
+        <v>educacao</v>
       </c>
       <c r="D310" t="str">
-        <v>tecnologias digitais</v>
+        <v>cultura digital</v>
       </c>
       <c r="E310" t="str">
         <v/>
@@ -5675,30 +5675,30 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>ensino e apreizagem</v>
+        <v>violencia</v>
       </c>
       <c r="B311" t="str">
-        <v>design para a educacao</v>
+        <v>notificacao</v>
       </c>
       <c r="C311" t="str">
-        <v>capacitacao</v>
+        <v>estudantes de medicina</v>
       </c>
       <c r="D311" t="str">
-        <v>ludificacao</v>
+        <v/>
       </c>
       <c r="E311" t="str">
-        <v>gamificacao</v>
+        <v/>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>educacao a distancia centrode educacao aberta e a distancia</v>
+        <v>cursos abertos</v>
       </c>
       <c r="B312" t="str">
-        <v>programa universidade aberta do brasil</v>
+        <v>educacao digital</v>
       </c>
       <c r="C312" t="str">
-        <v>ensino superior</v>
+        <v>ods</v>
       </c>
       <c r="D312" t="str">
         <v/>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>educacao tradicional</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B313" t="str">
-        <v>ensino remoto</v>
+        <v>ecnologias digitais da informacao e comunicacao tdic</v>
       </c>
       <c r="C313" t="str">
-        <v>retomada da apreizagem</v>
+        <v>ensino remoto emergencial ere</v>
       </c>
       <c r="D313" t="str">
         <v/>
@@ -5726,16 +5726,16 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>letramento digital</v>
+        <v>mapeamento</v>
       </c>
       <c r="B314" t="str">
-        <v>letramento</v>
+        <v>cursos online</v>
       </c>
       <c r="C314" t="str">
-        <v>educacao</v>
+        <v>equipe</v>
       </c>
       <c r="D314" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
       <c r="E314" t="str">
         <v/>
@@ -5743,13 +5743,13 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>violencia</v>
+        <v>pedagogia empresarial</v>
       </c>
       <c r="B315" t="str">
-        <v>notificacao</v>
+        <v>pedagogo empresarial</v>
       </c>
       <c r="C315" t="str">
-        <v>estudantes de medicina</v>
+        <v>treinamento e desenvolvimento</v>
       </c>
       <c r="D315" t="str">
         <v/>
@@ -5760,13 +5760,13 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>cursos abertos</v>
+        <v>educacao superior</v>
       </c>
       <c r="B316" t="str">
-        <v>educacao digital</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C316" t="str">
-        <v>ods</v>
+        <v>covid19</v>
       </c>
       <c r="D316" t="str">
         <v/>
@@ -5777,13 +5777,13 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>multiletramentos</v>
+        <v>educacao musical online</v>
       </c>
       <c r="B317" t="str">
-        <v>ecnologias digitais da informacao e comunicacao tdic</v>
+        <v>pratica de conjunto online</v>
       </c>
       <c r="C317" t="str">
-        <v>ensino remoto emergencial ere</v>
+        <v>musica e sustentabilidade</v>
       </c>
       <c r="D317" t="str">
         <v/>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>mapeamento</v>
+        <v>psicoterapia online</v>
       </c>
       <c r="B318" t="str">
-        <v>cursos online</v>
+        <v>alianca e vinculo terapeuticos</v>
       </c>
       <c r="C318" t="str">
-        <v>equipe</v>
+        <v>ateimento online</v>
       </c>
       <c r="D318" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E318" t="str">
         <v/>
@@ -5811,33 +5811,33 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>pedagogia empresarial</v>
+        <v>formacao profissional em saude</v>
       </c>
       <c r="B319" t="str">
-        <v>pedagogo empresarial</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C319" t="str">
-        <v>treinamento e desenvolvimento</v>
+        <v>sistema unico de saude</v>
       </c>
       <c r="D319" t="str">
-        <v/>
+        <v>materiais didaticos</v>
       </c>
       <c r="E319" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>educacao superior</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="B320" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>cultura maker</v>
       </c>
       <c r="C320" t="str">
-        <v>covid19</v>
+        <v>fanzines</v>
       </c>
       <c r="D320" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E320" t="str">
         <v/>
@@ -5845,33 +5845,33 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>educacao musical online</v>
+        <v>residencia tecnic</v>
       </c>
       <c r="B321" t="str">
-        <v>pratica de conjunto online</v>
+        <v>inovacao</v>
       </c>
       <c r="C321" t="str">
-        <v>musica e sustentabilidade</v>
+        <v>transformacao digital</v>
       </c>
       <c r="D321" t="str">
-        <v/>
+        <v>egov</v>
       </c>
       <c r="E321" t="str">
-        <v/>
+        <v>design instrucional</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>psicoterapia online</v>
+        <v>cancer</v>
       </c>
       <c r="B322" t="str">
-        <v>alianca e vinculo terapeuticos</v>
+        <v>game</v>
       </c>
       <c r="C322" t="str">
-        <v>ateimento online</v>
+        <v>sexualidade</v>
       </c>
       <c r="D322" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E322" t="str">
         <v/>
@@ -5879,33 +5879,33 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>formacao profissional em saude</v>
+        <v>educacao</v>
       </c>
       <c r="B323" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C323" t="str">
-        <v>sistema unico de saude</v>
+        <v>curriculo</v>
       </c>
       <c r="D323" t="str">
-        <v>materiais didaticos</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E323" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>metodologia ativa</v>
+        <v>curriculo subjetivo</v>
       </c>
       <c r="B324" t="str">
-        <v>cultura maker</v>
+        <v>paradigma da apreizagem</v>
       </c>
       <c r="C324" t="str">
-        <v>fanzines</v>
+        <v>tutorias</v>
       </c>
       <c r="D324" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E324" t="str">
         <v/>
@@ -5913,33 +5913,33 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>residencia tecnic</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B325" t="str">
+        <v>inclusao digital</v>
+      </c>
+      <c r="C325" t="str">
+        <v>ead</v>
+      </c>
+      <c r="D325" t="str">
         <v>inovacao</v>
       </c>
-      <c r="C325" t="str">
-        <v>transformacao digital</v>
-      </c>
-      <c r="D325" t="str">
-        <v>egov</v>
-      </c>
       <c r="E325" t="str">
-        <v>design instrucional</v>
+        <v/>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>cancer</v>
+        <v>ensino superior</v>
       </c>
       <c r="B326" t="str">
-        <v>game</v>
+        <v>universidades publicas</v>
       </c>
       <c r="C326" t="str">
-        <v>sexualidade</v>
+        <v>pospaemia</v>
       </c>
       <c r="D326" t="str">
-        <v/>
+        <v>resiliencia organizacional</v>
       </c>
       <c r="E326" t="str">
         <v/>
@@ -5947,16 +5947,16 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>educacao</v>
+        <v>memoria</v>
       </c>
       <c r="B327" t="str">
-        <v>tecnologias digitais</v>
+        <v>tdic</v>
       </c>
       <c r="C327" t="str">
-        <v>curriculo</v>
+        <v>neurociencia</v>
       </c>
       <c r="D327" t="str">
-        <v>educacao hibrida</v>
+        <v>apreizagem</v>
       </c>
       <c r="E327" t="str">
         <v/>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>curriculo subjetivo</v>
+        <v>ensino medio</v>
       </c>
       <c r="B328" t="str">
-        <v>paradigma da apreizagem</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C328" t="str">
-        <v>tutorias</v>
+        <v>desigualdade educacional</v>
       </c>
       <c r="D328" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
       <c r="E328" t="str">
         <v/>
@@ -5981,16 +5981,16 @@
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>ensino hibrido</v>
+        <v>caracteristica</v>
       </c>
       <c r="B329" t="str">
-        <v>inclusao digital</v>
+        <v>estudante</v>
       </c>
       <c r="C329" t="str">
-        <v>ead</v>
+        <v>licenciatura</v>
       </c>
       <c r="D329" t="str">
-        <v>inovacao</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="E329" t="str">
         <v/>
@@ -6001,30 +6001,30 @@
         <v>ensino superior</v>
       </c>
       <c r="B330" t="str">
-        <v>universidades publicas</v>
+        <v>trilha de apreizagem</v>
       </c>
       <c r="C330" t="str">
-        <v>pospaemia</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="D330" t="str">
-        <v>resiliencia organizacional</v>
+        <v>feedback</v>
       </c>
       <c r="E330" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>memoria</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B331" t="str">
-        <v>tdic</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C331" t="str">
-        <v>neurociencia</v>
+        <v>educacao infantil</v>
       </c>
       <c r="D331" t="str">
-        <v>apreizagem</v>
+        <v>tecnologias</v>
       </c>
       <c r="E331" t="str">
         <v/>
@@ -6032,16 +6032,16 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>ensino medio</v>
+        <v>metodologias ativas de apreizagem</v>
       </c>
       <c r="B332" t="str">
-        <v>ensino remoto</v>
+        <v>administracao publica</v>
       </c>
       <c r="C332" t="str">
-        <v>desigualdade educacional</v>
+        <v>tdics</v>
       </c>
       <c r="D332" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
       <c r="E332" t="str">
         <v/>
@@ -6049,16 +6049,16 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>caracteristica</v>
+        <v>escola</v>
       </c>
       <c r="B333" t="str">
-        <v>estudante</v>
+        <v>leitura</v>
       </c>
       <c r="C333" t="str">
-        <v>licenciatura</v>
+        <v>escrita</v>
       </c>
       <c r="D333" t="str">
-        <v>ensino e apreizagem</v>
+        <v>tecnologias hipertextuais</v>
       </c>
       <c r="E333" t="str">
         <v/>
@@ -6066,33 +6066,33 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>ensino superior</v>
+        <v>ensino remoto emergencia</v>
       </c>
       <c r="B334" t="str">
-        <v>trilha de apreizagem</v>
+        <v>biologia atividades praticas</v>
       </c>
       <c r="C334" t="str">
-        <v>sala de aula invertida</v>
+        <v/>
       </c>
       <c r="D334" t="str">
-        <v>feedback</v>
+        <v/>
       </c>
       <c r="E334" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>estagio supervisionado</v>
+        <v>avaliacao</v>
       </c>
       <c r="B335" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C335" t="str">
-        <v>educacao infantil</v>
+        <v>cultura digital</v>
       </c>
       <c r="D335" t="str">
-        <v>tecnologias</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E335" t="str">
         <v/>
@@ -6100,33 +6100,33 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>metodologias ativas de apreizagem</v>
+        <v>educacao</v>
       </c>
       <c r="B336" t="str">
-        <v>administracao publica</v>
+        <v>comunicacao</v>
       </c>
       <c r="C336" t="str">
-        <v>tdics</v>
+        <v>midias sociais</v>
       </c>
       <c r="D336" t="str">
-        <v/>
+        <v>publicidade</v>
       </c>
       <c r="E336" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>escola</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B337" t="str">
-        <v>leitura</v>
+        <v>tdic</v>
       </c>
       <c r="C337" t="str">
-        <v>escrita</v>
+        <v>paemia</v>
       </c>
       <c r="D337" t="str">
-        <v>tecnologias hipertextuais</v>
+        <v/>
       </c>
       <c r="E337" t="str">
         <v/>
@@ -6134,16 +6134,16 @@
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>ensino remoto emergencia</v>
+        <v>apreizagem</v>
       </c>
       <c r="B338" t="str">
-        <v>biologia atividades praticas</v>
+        <v>gamificacao</v>
       </c>
       <c r="C338" t="str">
-        <v/>
+        <v>este de progresso</v>
       </c>
       <c r="D338" t="str">
-        <v/>
+        <v>educacao medica</v>
       </c>
       <c r="E338" t="str">
         <v/>
@@ -6151,16 +6151,16 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>avaliacao</v>
+        <v>ecologia da apreizagem</v>
       </c>
       <c r="B339" t="str">
-        <v>educacao hibrida</v>
+        <v>cultura digital</v>
       </c>
       <c r="C339" t="str">
-        <v>cultura digital</v>
+        <v>processos de apreizagem</v>
       </c>
       <c r="D339" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E339" t="str">
         <v/>
@@ -6168,30 +6168,30 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>educacao</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B340" t="str">
-        <v>comunicacao</v>
+        <v>podcast de ciencias</v>
       </c>
       <c r="C340" t="str">
-        <v>midias sociais</v>
+        <v>apreizagem</v>
       </c>
       <c r="D340" t="str">
-        <v>publicidade</v>
+        <v/>
       </c>
       <c r="E340" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>ensino de quimica</v>
+        <v>educacao</v>
       </c>
       <c r="B341" t="str">
-        <v>tdic</v>
+        <v>tecnologia</v>
       </c>
       <c r="C341" t="str">
-        <v>paemia</v>
+        <v>digital</v>
       </c>
       <c r="D341" t="str">
         <v/>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>apreizagem</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B342" t="str">
-        <v>gamificacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C342" t="str">
-        <v>este de progresso</v>
+        <v>qualidade na educacao superior</v>
       </c>
       <c r="D342" t="str">
-        <v>educacao medica</v>
+        <v/>
       </c>
       <c r="E342" t="str">
         <v/>
@@ -6219,13 +6219,13 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>ecologia da apreizagem</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B343" t="str">
-        <v>cultura digital</v>
+        <v>avaliacao de tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C343" t="str">
-        <v>processos de apreizagem</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="D343" t="str">
         <v/>
@@ -6236,13 +6236,13 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>ensino hibrido</v>
+        <v>metaverso</v>
       </c>
       <c r="B344" t="str">
-        <v>podcast de ciencias</v>
+        <v>ensino fuamental</v>
       </c>
       <c r="C344" t="str">
-        <v>apreizagem</v>
+        <v>ciencia humanas</v>
       </c>
       <c r="D344" t="str">
         <v/>
@@ -6253,30 +6253,30 @@
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>educacao</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B345" t="str">
-        <v>tecnologia</v>
+        <v>alfabetizacao cientifica</v>
       </c>
       <c r="C345" t="str">
-        <v>digital</v>
+        <v>ensino de geografia</v>
       </c>
       <c r="D345" t="str">
-        <v/>
+        <v>apreizagem baseada na resolucao de problemas</v>
       </c>
       <c r="E345" t="str">
-        <v/>
+        <v>web 20</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>formacao de professores</v>
+        <v>gamificacao</v>
       </c>
       <c r="B346" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="C346" t="str">
-        <v>qualidade na educacao superior</v>
+        <v>apreizagem de leitura</v>
       </c>
       <c r="D346" t="str">
         <v/>
@@ -6287,16 +6287,16 @@
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>metaavaliacao</v>
+        <v>tdics</v>
       </c>
       <c r="B347" t="str">
-        <v>avaliacao de tecnologia da informacao e comunicacao</v>
+        <v>colegio de aplicacao</v>
       </c>
       <c r="C347" t="str">
-        <v>jogos eletronicos</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D347" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E347" t="str">
         <v/>
@@ -6304,13 +6304,13 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>metaverso</v>
+        <v>orientador educacional</v>
       </c>
       <c r="B348" t="str">
-        <v>ensino fuamental</v>
+        <v>tecnologias</v>
       </c>
       <c r="C348" t="str">
-        <v>ciencia humanas</v>
+        <v>covid19</v>
       </c>
       <c r="D348" t="str">
         <v/>
@@ -6321,30 +6321,30 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>multiletramentos</v>
+        <v>educacao digital</v>
       </c>
       <c r="B349" t="str">
-        <v>alfabetizacao cientifica</v>
+        <v>tecnologia</v>
       </c>
       <c r="C349" t="str">
-        <v>ensino de geografia</v>
+        <v>paemia</v>
       </c>
       <c r="D349" t="str">
-        <v>apreizagem baseada na resolucao de problemas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E349" t="str">
-        <v>web 20</v>
+        <v>ead</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>gamificacao</v>
+        <v>ateimento educacional especializado</v>
       </c>
       <c r="B350" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C350" t="str">
-        <v>apreizagem de leitura</v>
+        <v>transtorno do espectro do autismo</v>
       </c>
       <c r="D350" t="str">
         <v/>
@@ -6355,16 +6355,16 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>tdics</v>
+        <v>alimentos organicos</v>
       </c>
       <c r="B351" t="str">
-        <v>colegio de aplicacao</v>
+        <v>eletiva</v>
       </c>
       <c r="C351" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>historia em quadrinhos</v>
       </c>
       <c r="D351" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E351" t="str">
         <v/>
@@ -6372,16 +6372,16 @@
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>orientador educacional</v>
+        <v>discente</v>
       </c>
       <c r="B352" t="str">
-        <v>tecnologias</v>
+        <v>ensino superior</v>
       </c>
       <c r="C352" t="str">
-        <v>covid19</v>
+        <v>protagonismo</v>
       </c>
       <c r="D352" t="str">
-        <v/>
+        <v>tdics</v>
       </c>
       <c r="E352" t="str">
         <v/>
@@ -6389,30 +6389,30 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>educacao digital</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B353" t="str">
-        <v>tecnologia</v>
+        <v>revista digital</v>
       </c>
       <c r="C353" t="str">
-        <v>paemia</v>
+        <v>cultura digital</v>
       </c>
       <c r="D353" t="str">
-        <v>ensino remoto</v>
+        <v>protagonismo do estudante</v>
       </c>
       <c r="E353" t="str">
-        <v>ead</v>
+        <v/>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>ateimento educacional especializado</v>
+        <v>steam</v>
       </c>
       <c r="B354" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C354" t="str">
-        <v>transtorno do espectro do autismo</v>
+        <v>ensino</v>
       </c>
       <c r="D354" t="str">
         <v/>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>alimentos organicos</v>
+        <v>tdic</v>
       </c>
       <c r="B355" t="str">
-        <v>eletiva</v>
+        <v>professores de ingles</v>
       </c>
       <c r="C355" t="str">
-        <v>historia em quadrinhos</v>
+        <v>apreizagem emingles</v>
       </c>
       <c r="D355" t="str">
-        <v/>
+        <v>ufpa</v>
       </c>
       <c r="E355" t="str">
         <v/>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>discente</v>
+        <v>precalculo</v>
       </c>
       <c r="B356" t="str">
-        <v>ensino superior</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="C356" t="str">
-        <v>protagonismo</v>
+        <v>transicao terciaria</v>
       </c>
       <c r="D356" t="str">
-        <v>tdics</v>
+        <v>covid19</v>
       </c>
       <c r="E356" t="str">
         <v/>
@@ -6457,50 +6457,50 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>tecnologia educacional</v>
+        <v>smartphone</v>
       </c>
       <c r="B357" t="str">
-        <v>revista digital</v>
+        <v>lingua inglesa li</v>
       </c>
       <c r="C357" t="str">
-        <v>cultura digital</v>
+        <v>educacao de jovens e adultos eja</v>
       </c>
       <c r="D357" t="str">
-        <v>protagonismo do estudante</v>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="E357" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>steam</v>
+        <v>ensino medio</v>
       </c>
       <c r="B358" t="str">
-        <v>metodologias ativas</v>
+        <v>avaliacao educacional</v>
       </c>
       <c r="C358" t="str">
-        <v>ensino</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="D358" t="str">
-        <v/>
+        <v>ncc</v>
       </c>
       <c r="E358" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>tdic</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B359" t="str">
-        <v>professores de ingles</v>
+        <v>praticas hibridas de ensino</v>
       </c>
       <c r="C359" t="str">
-        <v>apreizagem emingles</v>
+        <v>pospaemia</v>
       </c>
       <c r="D359" t="str">
-        <v>ufpa</v>
+        <v/>
       </c>
       <c r="E359" t="str">
         <v/>
@@ -6508,16 +6508,16 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>precalculo</v>
+        <v>ead</v>
       </c>
       <c r="B360" t="str">
-        <v>ensino a distancia</v>
+        <v>educacao basica</v>
       </c>
       <c r="C360" t="str">
-        <v>transicao terciaria</v>
+        <v>professores</v>
       </c>
       <c r="D360" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E360" t="str">
         <v/>
@@ -6525,47 +6525,47 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>smartphone</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B361" t="str">
-        <v>lingua inglesa li</v>
+        <v>olimpiadas cientificas</v>
       </c>
       <c r="C361" t="str">
-        <v>educacao de jovens e adultos eja</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D361" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v/>
       </c>
       <c r="E361" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>ensino medio</v>
+        <v>professores iniciantes</v>
       </c>
       <c r="B362" t="str">
-        <v>avaliacao educacional</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C362" t="str">
-        <v>avaliacao formativa</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D362" t="str">
-        <v>ncc</v>
+        <v>conhecimento tecnologico e pedagogico do conteudo</v>
       </c>
       <c r="E362" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>ensino remoto</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B363" t="str">
-        <v>praticas hibridas de ensino</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="C363" t="str">
-        <v>pospaemia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D363" t="str">
         <v/>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>ead</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B364" t="str">
-        <v>educacao basica</v>
+        <v>narrativa</v>
       </c>
       <c r="C364" t="str">
-        <v>professores</v>
+        <v>curriculo de tecnologia</v>
       </c>
       <c r="D364" t="str">
         <v/>
@@ -6593,16 +6593,16 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>formacao de professores</v>
+        <v>ensino</v>
       </c>
       <c r="B365" t="str">
-        <v>olimpiadas cientificas</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C365" t="str">
-        <v>ensino de ciencias</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="D365" t="str">
-        <v/>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E365" t="str">
         <v/>
@@ -6610,16 +6610,16 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>professores iniciantes</v>
+        <v>educacao escolar</v>
       </c>
       <c r="B366" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>sala de aula virtual</v>
       </c>
       <c r="C366" t="str">
-        <v>formacao de professores</v>
+        <v>ensino remoto e ensino hibrido</v>
       </c>
       <c r="D366" t="str">
-        <v>conhecimento tecnologico e pedagogico do conteudo</v>
+        <v/>
       </c>
       <c r="E366" t="str">
         <v/>
@@ -6627,16 +6627,16 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>formacao de professores</v>
+        <v>educacao fisica</v>
       </c>
       <c r="B367" t="str">
-        <v>apreizagem invertida</v>
+        <v>praticas corporais</v>
       </c>
       <c r="C367" t="str">
-        <v>metodologias ativas</v>
+        <v>presencial</v>
       </c>
       <c r="D367" t="str">
-        <v/>
+        <v>a distancia</v>
       </c>
       <c r="E367" t="str">
         <v/>

--- a/uploads/2024-04-10T22:42:49.xlsx
+++ b/uploads/2024-04-10T22:42:49.xlsx
@@ -422,30 +422,30 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>insurgencias</v>
+        <v>competencias digitais</v>
       </c>
       <c r="B2" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>professores</v>
       </c>
       <c r="C2" t="str">
-        <v>docencia no ensino superior</v>
+        <v>selfie for teachers</v>
       </c>
       <c r="D2" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao basica</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>educacao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B3" t="str">
-        <v>ensino remoto</v>
+        <v>avaliacao</v>
       </c>
       <c r="C3" t="str">
-        <v>ensino hibrido</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -456,33 +456,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>tecnologia digital</v>
+        <v>avaliacao de estagio</v>
       </c>
       <c r="B4" t="str">
-        <v>formacao de professores</v>
+        <v>processo pedagogico</v>
       </c>
       <c r="C4" t="str">
-        <v>audiovisual</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D4" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>microbiologia</v>
+        <v>bitmoji</v>
       </c>
       <c r="B5" t="str">
-        <v>ensino</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C5" t="str">
-        <v>tecnologia</v>
+        <v>praticas de ensino</v>
       </c>
       <c r="D5" t="str">
-        <v>jogos</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -490,16 +490,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>formacao de professores</v>
+        <v>processo avaliativo</v>
       </c>
       <c r="B6" t="str">
-        <v>competencias digitais</v>
+        <v>engenharia</v>
       </c>
       <c r="C6" t="str">
-        <v>educacao basica</v>
+        <v>projeto integrador</v>
       </c>
       <c r="D6" t="str">
-        <v>covid19</v>
+        <v>paemia</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -507,33 +507,33 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>competencias digitais</v>
+        <v>google meet</v>
       </c>
       <c r="B7" t="str">
-        <v>professores</v>
+        <v>relato de experiencia</v>
       </c>
       <c r="C7" t="str">
-        <v>selfie for teachers</v>
+        <v>paemia</v>
       </c>
       <c r="D7" t="str">
-        <v>educacao basica</v>
+        <v>ensino remoto</v>
       </c>
       <c r="E7" t="str">
-        <v>tdic</v>
+        <v>docencia</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>tdic</v>
       </c>
       <c r="B8" t="str">
-        <v>avaliacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C8" t="str">
-        <v>curso de pedagogia</v>
+        <v>frequencia escolar</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -541,13 +541,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>avaliacao de estagio</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B9" t="str">
-        <v>processo pedagogico</v>
+        <v>recurso tecnologico</v>
       </c>
       <c r="C9" t="str">
-        <v>tecnologias educacionais</v>
+        <v>formacao continuada</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -558,13 +558,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>bitmoji</v>
+        <v>apreizagem da docencia</v>
       </c>
       <c r="B10" t="str">
-        <v>ferramentas digitais</v>
+        <v>professor iniciante</v>
       </c>
       <c r="C10" t="str">
-        <v>praticas de ensino</v>
+        <v>mentoria</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -575,16 +575,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>processo avaliativo</v>
+        <v>revisao de literatura</v>
       </c>
       <c r="B11" t="str">
-        <v>engenharia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C11" t="str">
-        <v>projeto integrador</v>
+        <v>formacao de professor</v>
       </c>
       <c r="D11" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -592,33 +592,33 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>google meet</v>
+        <v>cultura digital</v>
       </c>
       <c r="B12" t="str">
-        <v>relato de experiencia</v>
+        <v>educacao</v>
       </c>
       <c r="C12" t="str">
         <v>paemia</v>
       </c>
       <c r="D12" t="str">
-        <v>ensino remoto</v>
+        <v>fazer pedagogico</v>
       </c>
       <c r="E12" t="str">
-        <v>docencia</v>
+        <v>educacao profissional</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>tdic</v>
+        <v>comunicacao</v>
       </c>
       <c r="B13" t="str">
-        <v>ensino remoto</v>
+        <v>cultura digital</v>
       </c>
       <c r="C13" t="str">
-        <v>frequencia escolar</v>
+        <v>educacao</v>
       </c>
       <c r="D13" t="str">
-        <v>educacao basica</v>
+        <v>tecnologia</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -626,13 +626,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>tecnologia educacional</v>
+        <v>processos educativos hibridos</v>
       </c>
       <c r="B14" t="str">
-        <v>recurso tecnologico</v>
+        <v>formacao docente</v>
       </c>
       <c r="C14" t="str">
-        <v>formacao continuada</v>
+        <v>avaliacao</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -643,16 +643,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>apreizagem da docencia</v>
+        <v>discentesdocentes</v>
       </c>
       <c r="B15" t="str">
-        <v>professor iniciante</v>
+        <v>cibercultura</v>
       </c>
       <c r="C15" t="str">
-        <v>mentoria</v>
+        <v>paemia</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>periferia</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -660,16 +660,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>revisao de literatura</v>
+        <v>pedagogia das competencias</v>
       </c>
       <c r="B16" t="str">
-        <v>tecnologias digitais</v>
+        <v>formacao docente</v>
       </c>
       <c r="C16" t="str">
-        <v>formacao de professor</v>
+        <v>semiformacao</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>racionalidade tecnologica instrumental</v>
       </c>
       <c r="E16" t="str">
         <v/>
@@ -677,33 +677,33 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>cultura digital</v>
+        <v>educacao</v>
       </c>
       <c r="B17" t="str">
-        <v>educacao</v>
+        <v>docente</v>
       </c>
       <c r="C17" t="str">
-        <v>paemia</v>
+        <v>tecnologia</v>
       </c>
       <c r="D17" t="str">
-        <v>fazer pedagogico</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>educacao profissional</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>comunicacao</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B18" t="str">
-        <v>cultura digital</v>
+        <v>atividades remotas</v>
       </c>
       <c r="C18" t="str">
-        <v>educacao</v>
+        <v>formacao academica</v>
       </c>
       <c r="D18" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
       <c r="E18" t="str">
         <v/>
@@ -711,13 +711,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>processos educativos hibridos</v>
+        <v>tecnologia de comunicacao</v>
       </c>
       <c r="B19" t="str">
-        <v>formacao docente</v>
+        <v>perguntas</v>
       </c>
       <c r="C19" t="str">
-        <v>avaliacao</v>
+        <v>apreizagem</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -728,16 +728,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>discentesdocentes</v>
+        <v>atividade colaborativa</v>
       </c>
       <c r="B20" t="str">
-        <v>cibercultura</v>
+        <v>design de colaboracao</v>
       </c>
       <c r="C20" t="str">
-        <v>paemia</v>
+        <v>abordagens do design</v>
       </c>
       <c r="D20" t="str">
-        <v>periferia</v>
+        <v>modelo addie</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -745,30 +745,30 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>pedagogia das competencias</v>
+        <v>reescrita</v>
       </c>
       <c r="B21" t="str">
-        <v>formacao docente</v>
+        <v>docencia</v>
       </c>
       <c r="C21" t="str">
-        <v>semiformacao</v>
+        <v>anos finais do ensino fuamental</v>
       </c>
       <c r="D21" t="str">
-        <v>racionalidade tecnologica instrumental</v>
+        <v>dissertativo argumentativo</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>enem</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>educacao</v>
+        <v>jogo da onca</v>
       </c>
       <c r="B22" t="str">
-        <v>docente</v>
+        <v>lei 11645</v>
       </c>
       <c r="C22" t="str">
-        <v>tecnologia</v>
+        <v>cultura iigena</v>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -779,13 +779,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>estagio supervisionado</v>
+        <v>educacao 40 design educacional</v>
       </c>
       <c r="B23" t="str">
-        <v>atividades remotas</v>
+        <v>modelo addie</v>
       </c>
       <c r="C23" t="str">
-        <v>formacao academica</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -796,16 +796,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>tecnologia de comunicacao</v>
+        <v>covid19</v>
       </c>
       <c r="B24" t="str">
-        <v>perguntas</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C24" t="str">
-        <v>apreizagem</v>
+        <v>professores</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>experiencias</v>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -813,47 +813,47 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>atividade colaborativa</v>
+        <v>curriculo</v>
       </c>
       <c r="B25" t="str">
-        <v>design de colaboracao</v>
+        <v>design curricular</v>
       </c>
       <c r="C25" t="str">
-        <v>abordagens do design</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="D25" t="str">
-        <v>modelo addie</v>
+        <v>bleedlearning</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>reescrita</v>
+        <v>capacitacao de professores</v>
       </c>
       <c r="B26" t="str">
-        <v>docencia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C26" t="str">
-        <v>anos finais do ensino fuamental</v>
+        <v>etsus</v>
       </c>
       <c r="D26" t="str">
-        <v>dissertativo argumentativo</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>enem</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>jogo da onca</v>
+        <v>cultura escolarizante</v>
       </c>
       <c r="B27" t="str">
-        <v>lei 11645</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C27" t="str">
-        <v>cultura iigena</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D27" t="str">
         <v/>
@@ -864,16 +864,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>educacao 40 design educacional</v>
+        <v>ensino superior</v>
       </c>
       <c r="B28" t="str">
-        <v>modelo addie</v>
+        <v>odontologia</v>
       </c>
       <c r="C28" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>paemia</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>educacao hibrida</v>
       </c>
       <c r="E28" t="str">
         <v/>
@@ -881,16 +881,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>covid19</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B29" t="str">
-        <v>educacao a distancia</v>
+        <v>tdic</v>
       </c>
       <c r="C29" t="str">
-        <v>professores</v>
+        <v>aulas sincronas</v>
       </c>
       <c r="D29" t="str">
-        <v>experiencias</v>
+        <v>ensino superior</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -898,30 +898,30 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>curriculo</v>
+        <v>ensino para a criatividade</v>
       </c>
       <c r="B30" t="str">
-        <v>design curricular</v>
+        <v>internacionalidade</v>
       </c>
       <c r="C30" t="str">
-        <v>educacao a distancia</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D30" t="str">
-        <v>bleedlearning</v>
+        <v>pensamento criativo</v>
       </c>
       <c r="E30" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>capacitacao de professores</v>
+        <v>reflexao</v>
       </c>
       <c r="B31" t="str">
-        <v>educacao a distancia</v>
+        <v>epistemologia</v>
       </c>
       <c r="C31" t="str">
-        <v>etsus</v>
+        <v>pratica docente</v>
       </c>
       <c r="D31" t="str">
         <v/>
@@ -932,16 +932,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>cultura escolarizante</v>
+        <v>ensino superior</v>
       </c>
       <c r="B32" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C32" t="str">
-        <v>metodologias ativas</v>
+        <v>formacao inicial</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E32" t="str">
         <v/>
@@ -949,16 +949,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>ensino superior</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B33" t="str">
-        <v>odontologia</v>
+        <v>covid19</v>
       </c>
       <c r="C33" t="str">
-        <v>paemia</v>
+        <v>ensino online emergencial</v>
       </c>
       <c r="D33" t="str">
-        <v>educacao hibrida</v>
+        <v/>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -966,16 +966,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>ensino hibrido</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B34" t="str">
-        <v>tdic</v>
+        <v>ferramentas digitais</v>
       </c>
       <c r="C34" t="str">
-        <v>aulas sincronas</v>
+        <v>ensino superior</v>
       </c>
       <c r="D34" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -983,16 +983,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>ensino para a criatividade</v>
+        <v>museus virtuais</v>
       </c>
       <c r="B35" t="str">
-        <v>internacionalidade</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C35" t="str">
-        <v>praticas pedagogicas</v>
+        <v>ensino de historia</v>
       </c>
       <c r="D35" t="str">
-        <v>pensamento criativo</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>reflexao</v>
+        <v>ensino nao presencia</v>
       </c>
       <c r="B36" t="str">
-        <v>epistemologia</v>
+        <v>cursinho popular</v>
       </c>
       <c r="C36" t="str">
-        <v>pratica docente</v>
+        <v>acesso ao ensino superior</v>
       </c>
       <c r="D36" t="str">
         <v/>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ensino superior</v>
+        <v>tpack</v>
       </c>
       <c r="B37" t="str">
-        <v>ensino remoto</v>
+        <v>docencia virtual</v>
       </c>
       <c r="C37" t="str">
-        <v>formacao inicial</v>
+        <v>tdic</v>
       </c>
       <c r="D37" t="str">
-        <v>tecnologias digitais</v>
+        <v>profissionalizacao docente</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>estagio supervisionado</v>
+        <v>design thinking</v>
       </c>
       <c r="B38" t="str">
-        <v>covid19</v>
+        <v>teacher training</v>
       </c>
       <c r="C38" t="str">
-        <v>ensino online emergencial</v>
+        <v>digital technologies</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>formacao continuada</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B39" t="str">
-        <v>ferramentas digitais</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="C39" t="str">
-        <v>ensino superior</v>
+        <v>competencias digitais</v>
       </c>
       <c r="D39" t="str">
         <v/>
@@ -1068,16 +1068,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>museus virtuais</v>
+        <v>figura</v>
       </c>
       <c r="B40" t="str">
-        <v>educacao a distancia</v>
+        <v>figuras geometricas</v>
       </c>
       <c r="C40" t="str">
-        <v>ensino de historia</v>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
       <c r="D40" t="str">
-        <v>estagio supervisionado</v>
+        <v/>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -1085,33 +1085,33 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>ensino nao presencia</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B41" t="str">
-        <v>cursinho popular</v>
+        <v>educacao ambiental</v>
       </c>
       <c r="C41" t="str">
-        <v>acesso ao ensino superior</v>
+        <v>educacao basica</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>revisao sistematica</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>metodologias de ensino</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>tpack</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B42" t="str">
-        <v>docencia virtual</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C42" t="str">
-        <v>tdic</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D42" t="str">
-        <v>profissionalizacao docente</v>
+        <v>paemia</v>
       </c>
       <c r="E42" t="str">
         <v/>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>design thinking</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B43" t="str">
-        <v>teacher training</v>
+        <v>tdic</v>
       </c>
       <c r="C43" t="str">
-        <v>digital technologies</v>
+        <v>quimica</v>
       </c>
       <c r="D43" t="str">
         <v/>
@@ -1136,16 +1136,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>avaliacao formativa</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B44" t="str">
-        <v>tecnologias educacionais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C44" t="str">
-        <v>competencias digitais</v>
+        <v>curso de pedagogia</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>pospaemia</v>
       </c>
       <c r="E44" t="str">
         <v/>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>figura</v>
+        <v>inovacao</v>
       </c>
       <c r="B45" t="str">
-        <v>figuras geometricas</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C45" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D45" t="str">
         <v/>
@@ -1170,19 +1170,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>formacao continuada de professores</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B46" t="str">
-        <v>educacao ambiental</v>
+        <v>tpack</v>
       </c>
       <c r="C46" t="str">
-        <v>educacao basica</v>
+        <v>tdic</v>
       </c>
       <c r="D46" t="str">
-        <v>revisao sistematica</v>
+        <v>professor reflexivo</v>
       </c>
       <c r="E46" t="str">
-        <v>metodologias de ensino</v>
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -1190,13 +1190,13 @@
         <v>educacao infantil</v>
       </c>
       <c r="B47" t="str">
-        <v>formacao continuada</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C47" t="str">
-        <v>ensino remoto</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D47" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E47" t="str">
         <v/>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>formacao de professores</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="B48" t="str">
-        <v>tdic</v>
+        <v>tecnologias da informacao e da comunicacao</v>
       </c>
       <c r="C48" t="str">
-        <v>quimica</v>
+        <v>cursos de licenciaturas</v>
       </c>
       <c r="D48" t="str">
-        <v/>
+        <v>percepcao discente</v>
       </c>
       <c r="E48" t="str">
         <v/>
@@ -1221,16 +1221,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>formacao de professores</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B49" t="str">
-        <v>tecnologias digitais</v>
+        <v>pedagogia</v>
       </c>
       <c r="C49" t="str">
-        <v>curso de pedagogia</v>
+        <v>juri simulado</v>
       </c>
       <c r="D49" t="str">
-        <v>pospaemia</v>
+        <v/>
       </c>
       <c r="E49" t="str">
         <v/>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>inovacao</v>
+        <v>digital literacy</v>
       </c>
       <c r="B50" t="str">
-        <v>tecnologias digitais</v>
+        <v>remote teaching</v>
       </c>
       <c r="C50" t="str">
-        <v>formacao de professores</v>
+        <v>dict</v>
       </c>
       <c r="D50" t="str">
         <v/>
@@ -1255,16 +1255,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>formacao de professores</v>
+        <v>formacao docente</v>
       </c>
       <c r="B51" t="str">
-        <v>tpack</v>
+        <v>pratica docente</v>
       </c>
       <c r="C51" t="str">
-        <v>tdic</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D51" t="str">
-        <v>professor reflexivo</v>
+        <v/>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>educacao infantil</v>
+        <v>estilos de apreizagem</v>
       </c>
       <c r="B52" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>modelo de kolb</v>
       </c>
       <c r="C52" t="str">
-        <v>praticas pedagogicas</v>
+        <v>aplicacao web</v>
       </c>
       <c r="D52" t="str">
         <v/>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>inovacao educacional</v>
+        <v>tdics</v>
       </c>
       <c r="B53" t="str">
-        <v>tecnologias da informacao e da comunicacao</v>
+        <v>formacao docente</v>
       </c>
       <c r="C53" t="str">
-        <v>cursos de licenciaturas</v>
+        <v>praticapedagogicahibrida</v>
       </c>
       <c r="D53" t="str">
-        <v>percepcao discente</v>
+        <v/>
       </c>
       <c r="E53" t="str">
         <v/>
@@ -1306,30 +1306,30 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>educacao a distancia</v>
+        <v>engajamento</v>
       </c>
       <c r="B54" t="str">
-        <v>pedagogia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C54" t="str">
-        <v>juri simulado</v>
+        <v>formacao docente</v>
       </c>
       <c r="D54" t="str">
-        <v/>
+        <v>mediacao docente diferenciada</v>
       </c>
       <c r="E54" t="str">
-        <v/>
+        <v>apreizagem virtual</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>digital literacy</v>
+        <v>metodologias ativas e criativas</v>
       </c>
       <c r="B55" t="str">
-        <v>remote teaching</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C55" t="str">
-        <v>dict</v>
+        <v>formacao pedagogica</v>
       </c>
       <c r="D55" t="str">
         <v/>
@@ -1340,16 +1340,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>formacao docente</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B56" t="str">
-        <v>pratica docente</v>
+        <v>ensino superior</v>
       </c>
       <c r="C56" t="str">
-        <v>tecnologias digitais</v>
+        <v>nsino remoto</v>
       </c>
       <c r="D56" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E56" t="str">
         <v/>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>estilos de apreizagem</v>
+        <v>formacao continuada</v>
       </c>
       <c r="B57" t="str">
-        <v>modelo de kolb</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C57" t="str">
-        <v>aplicacao web</v>
+        <v>multiletramentos</v>
       </c>
       <c r="D57" t="str">
         <v/>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>tdics</v>
+        <v>modelo pedagogico</v>
       </c>
       <c r="B58" t="str">
-        <v>formacao docente</v>
+        <v>sistema de recomeacao</v>
       </c>
       <c r="C58" t="str">
-        <v>praticapedagogicahibrida</v>
+        <v>producao textua</v>
       </c>
       <c r="D58" t="str">
         <v/>
@@ -1391,33 +1391,33 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>engajamento</v>
+        <v>idosos</v>
       </c>
       <c r="B59" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino coletivo de violao</v>
       </c>
       <c r="C59" t="str">
-        <v>formacao docente</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="D59" t="str">
-        <v>mediacao docente diferenciada</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>apreizagem virtual</v>
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>metodologias ativas e criativas</v>
+        <v>narrativas digitais</v>
       </c>
       <c r="B60" t="str">
+        <v>tecnologias digitais</v>
+      </c>
+      <c r="C60" t="str">
         <v>educacao a distancia</v>
       </c>
-      <c r="C60" t="str">
-        <v>formacao pedagogica</v>
-      </c>
       <c r="D60" t="str">
-        <v/>
+        <v>formacao docente</v>
       </c>
       <c r="E60" t="str">
         <v/>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>metodologias ativas</v>
+        <v>competencia digital</v>
       </c>
       <c r="B61" t="str">
-        <v>ensino superior</v>
+        <v>tdic</v>
       </c>
       <c r="C61" t="str">
-        <v>nsino remoto</v>
+        <v>digicompedu</v>
       </c>
       <c r="D61" t="str">
-        <v>covid19</v>
+        <v>ensino superior tecnologico</v>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -1442,16 +1442,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>formacao continuada</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B62" t="str">
-        <v>tecnologias digitais</v>
+        <v>covid19</v>
       </c>
       <c r="C62" t="str">
-        <v>multiletramentos</v>
+        <v>professores de ciencias</v>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>adaptacao</v>
       </c>
       <c r="E62" t="str">
         <v/>
@@ -1459,33 +1459,33 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>modelo pedagogico</v>
+        <v>pratica da leitura</v>
       </c>
       <c r="B63" t="str">
-        <v>sistema de recomeacao</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="C63" t="str">
-        <v>producao textua</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="D63" t="str">
-        <v/>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="E63" t="str">
-        <v/>
+        <v>transposicao didatica</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>idosos</v>
+        <v>atividade docente</v>
       </c>
       <c r="B64" t="str">
-        <v>ensino coletivo de violao</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C64" t="str">
-        <v>tecnologia digital</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="D64" t="str">
-        <v/>
+        <v>dramaticas de uso de si</v>
       </c>
       <c r="E64" t="str">
         <v/>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>narrativas digitais</v>
+        <v>ensino de instrumentos de teclado</v>
       </c>
       <c r="B65" t="str">
-        <v>tecnologias digitais</v>
+        <v>licenciatura em musica</v>
       </c>
       <c r="C65" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino nao presencial emergencial enpe</v>
       </c>
       <c r="D65" t="str">
-        <v>formacao docente</v>
+        <v>ambiente virtual de apreizagem ava</v>
       </c>
       <c r="E65" t="str">
         <v/>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>competencia digital</v>
+        <v>paemia</v>
       </c>
       <c r="B66" t="str">
-        <v>tdic</v>
+        <v>estagio nao presencia</v>
       </c>
       <c r="C66" t="str">
-        <v>digicompedu</v>
+        <v>atuacao docente</v>
       </c>
       <c r="D66" t="str">
-        <v>ensino superior tecnologico</v>
+        <v>experiencias formativas</v>
       </c>
       <c r="E66" t="str">
         <v/>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>ensino remoto</v>
+        <v>ensino</v>
       </c>
       <c r="B67" t="str">
-        <v>covid19</v>
+        <v>objetos de apreizagem</v>
       </c>
       <c r="C67" t="str">
-        <v>professores de ciencias</v>
+        <v>professores</v>
       </c>
       <c r="D67" t="str">
-        <v>adaptacao</v>
+        <v/>
       </c>
       <c r="E67" t="str">
         <v/>
@@ -1544,33 +1544,33 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>pratica da leitura</v>
+        <v>formacao docente</v>
       </c>
       <c r="B68" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino musical escolar</v>
       </c>
       <c r="C68" t="str">
-        <v>metodologia ativa</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D68" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>paemia de covid19</v>
       </c>
       <c r="E68" t="str">
-        <v>transposicao didatica</v>
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>atividade docente</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B69" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C69" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>uso das tdic</v>
       </c>
       <c r="D69" t="str">
-        <v>dramaticas de uso de si</v>
+        <v/>
       </c>
       <c r="E69" t="str">
         <v/>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ensino de instrumentos de teclado</v>
+        <v>tecnologia</v>
       </c>
       <c r="B70" t="str">
-        <v>licenciatura em musica</v>
+        <v>pratica docente</v>
       </c>
       <c r="C70" t="str">
-        <v>ensino nao presencial emergencial enpe</v>
+        <v>nativos digitais</v>
       </c>
       <c r="D70" t="str">
-        <v>ambiente virtual de apreizagem ava</v>
+        <v/>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>paemia</v>
+        <v>educacao infantil</v>
       </c>
       <c r="B71" t="str">
-        <v>estagio nao presencia</v>
+        <v>normativas</v>
       </c>
       <c r="C71" t="str">
-        <v>atuacao docente</v>
+        <v>covid19</v>
       </c>
       <c r="D71" t="str">
-        <v>experiencias formativas</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>ensino</v>
+        <v>tecnologia</v>
       </c>
       <c r="B72" t="str">
-        <v>objetos de apreizagem</v>
+        <v>educacao</v>
       </c>
       <c r="C72" t="str">
-        <v>professores</v>
+        <v>trabalho docente</v>
       </c>
       <c r="D72" t="str">
         <v/>
@@ -1629,16 +1629,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>formacao docente</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B73" t="str">
-        <v>ensino musical escolar</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C73" t="str">
-        <v>ensino remoto</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="D73" t="str">
-        <v>paemia de covid19</v>
+        <v/>
       </c>
       <c r="E73" t="str">
         <v/>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>educacao hibrida</v>
+        <v>desenho didatico</v>
       </c>
       <c r="B74" t="str">
-        <v>formacao de professores</v>
+        <v>iagacao online</v>
       </c>
       <c r="C74" t="str">
-        <v>uso das tdic</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="D74" t="str">
-        <v/>
+        <v>pesquisaformacao</v>
       </c>
       <c r="E74" t="str">
         <v/>
@@ -1663,13 +1663,13 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
+        <v>ensinoapreizagem</v>
+      </c>
+      <c r="B75" t="str">
+        <v>professores</v>
+      </c>
+      <c r="C75" t="str">
         <v>tecnologia</v>
-      </c>
-      <c r="B75" t="str">
-        <v>pratica docente</v>
-      </c>
-      <c r="C75" t="str">
-        <v>nativos digitais</v>
       </c>
       <c r="D75" t="str">
         <v/>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>educacao infantil</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B76" t="str">
-        <v>normativas</v>
+        <v>planejamento</v>
       </c>
       <c r="C76" t="str">
-        <v>covid19</v>
+        <v>pratica docente</v>
       </c>
       <c r="D76" t="str">
-        <v>ensino hibrido</v>
+        <v/>
       </c>
       <c r="E76" t="str">
         <v/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>tecnologia</v>
+        <v>inovacao pedagogica</v>
       </c>
       <c r="B77" t="str">
-        <v>educacao</v>
+        <v>plataformizacao</v>
       </c>
       <c r="C77" t="str">
         <v>trabalho docente</v>
       </c>
       <c r="D77" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E77" t="str">
         <v/>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>formacao de professores</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B78" t="str">
-        <v>ensino de ciencias</v>
+        <v>fluencia tecnologicopedagogica</v>
       </c>
       <c r="C78" t="str">
-        <v>pensamento computacional</v>
+        <v>covid19</v>
       </c>
       <c r="D78" t="str">
         <v/>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>desenho didatico</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B79" t="str">
-        <v>iagacao online</v>
+        <v>presencas na ead</v>
       </c>
       <c r="C79" t="str">
-        <v>praticas pedagogicas</v>
+        <v>portfolios de apreizagens</v>
       </c>
       <c r="D79" t="str">
-        <v>pesquisaformacao</v>
+        <v/>
       </c>
       <c r="E79" t="str">
         <v/>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>ensinoapreizagem</v>
+        <v>tdic</v>
       </c>
       <c r="B80" t="str">
-        <v>professores</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C80" t="str">
-        <v>tecnologia</v>
+        <v>argumentacao</v>
       </c>
       <c r="D80" t="str">
-        <v/>
+        <v>interacoes discursivas</v>
       </c>
       <c r="E80" t="str">
         <v/>
@@ -1765,16 +1765,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>formacao de professores</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="B81" t="str">
-        <v>planejamento</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="C81" t="str">
-        <v>pratica docente</v>
+        <v>conhecimentos pedagogicos e tecnologicos</v>
       </c>
       <c r="D81" t="str">
-        <v/>
+        <v>uefined</v>
       </c>
       <c r="E81" t="str">
         <v/>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>inovacao pedagogica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B82" t="str">
-        <v>plataformizacao</v>
+        <v>programa residencia pedagogica</v>
       </c>
       <c r="C82" t="str">
-        <v>trabalho docente</v>
+        <v>tecnologias digitais de ensino</v>
       </c>
       <c r="D82" t="str">
-        <v>paemia covid19</v>
+        <v/>
       </c>
       <c r="E82" t="str">
         <v/>
@@ -1799,13 +1799,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B83" t="str">
-        <v>fluencia tecnologicopedagogica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C83" t="str">
-        <v>covid19</v>
+        <v>educacao basica</v>
       </c>
       <c r="D83" t="str">
         <v/>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>educacao a distancia</v>
+        <v>trabalho docente</v>
       </c>
       <c r="B84" t="str">
-        <v>presencas na ead</v>
+        <v>tecnologia</v>
       </c>
       <c r="C84" t="str">
-        <v>portfolios de apreizagens</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>precarizacao do trabalho docente</v>
       </c>
       <c r="E84" t="str">
         <v/>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>tdic</v>
+        <v>ensino</v>
       </c>
       <c r="B85" t="str">
-        <v>praticas pedagogicas</v>
+        <v>apreizagem</v>
       </c>
       <c r="C85" t="str">
-        <v>argumentacao</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="D85" t="str">
-        <v>interacoes discursivas</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E85" t="str">
         <v/>
@@ -1850,33 +1850,33 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>formacao continuada de professores</v>
+        <v>ensino superior</v>
       </c>
       <c r="B86" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="C86" t="str">
-        <v>conhecimentos pedagogicos e tecnologicos</v>
+        <v>ambiente virtual de apreizagem</v>
       </c>
       <c r="D86" t="str">
-        <v>uefined</v>
+        <v>percepcao de professores</v>
       </c>
       <c r="E86" t="str">
-        <v/>
+        <v>percepcao de estudantes</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>formacao de professores</v>
+        <v>covid19</v>
       </c>
       <c r="B87" t="str">
-        <v>programa residencia pedagogica</v>
+        <v>curso online</v>
       </c>
       <c r="C87" t="str">
-        <v>tecnologias digitais de ensino</v>
+        <v>educacao</v>
       </c>
       <c r="D87" t="str">
-        <v/>
+        <v>sujeitos do campo</v>
       </c>
       <c r="E87" t="str">
         <v/>
@@ -1884,16 +1884,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>ensino hibrido</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B88" t="str">
-        <v>formacao de professores</v>
+        <v>wordwall</v>
       </c>
       <c r="C88" t="str">
-        <v>educacao basica</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="D88" t="str">
-        <v/>
+        <v>percepcao docente</v>
       </c>
       <c r="E88" t="str">
         <v/>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>trabalho docente</v>
+        <v>mediacao pedagogica</v>
       </c>
       <c r="B89" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias da informacao e comunicacao</v>
       </c>
       <c r="C89" t="str">
-        <v>formacao de professores</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D89" t="str">
-        <v>precarizacao do trabalho docente</v>
+        <v>siemia</v>
       </c>
       <c r="E89" t="str">
-        <v/>
+        <v>desenho universal para apreizagem</v>
       </c>
     </row>
     <row r="90">
@@ -1921,47 +1921,47 @@
         <v>ensino</v>
       </c>
       <c r="B90" t="str">
-        <v>apreizagem</v>
+        <v>docente</v>
       </c>
       <c r="C90" t="str">
-        <v>apreizagem invertida</v>
+        <v>tdic</v>
       </c>
       <c r="D90" t="str">
-        <v>sala de aula invertida</v>
+        <v>formacao</v>
       </c>
       <c r="E90" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>ensino superior</v>
+        <v>apreizagem mediada</v>
       </c>
       <c r="B91" t="str">
-        <v>pratica pedagogica</v>
+        <v>formacao de professore</v>
       </c>
       <c r="C91" t="str">
-        <v>ambiente virtual de apreizagem</v>
+        <v>letramento digital</v>
       </c>
       <c r="D91" t="str">
-        <v>percepcao de professores</v>
+        <v/>
       </c>
       <c r="E91" t="str">
-        <v>percepcao de estudantes</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>covid19</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="B92" t="str">
-        <v>curso online</v>
+        <v>educacao basica</v>
       </c>
       <c r="C92" t="str">
-        <v>educacao</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D92" t="str">
-        <v>sujeitos do campo</v>
+        <v>residencia pedagogica</v>
       </c>
       <c r="E92" t="str">
         <v/>
@@ -1969,84 +1969,84 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>jogos digitais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B93" t="str">
-        <v>wordwall</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C93" t="str">
-        <v>ensino e apreizagem</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D93" t="str">
-        <v>percepcao docente</v>
+        <v>formacao continuada de docentes</v>
       </c>
       <c r="E93" t="str">
-        <v/>
+        <v>ensino superior</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>mediacao pedagogica</v>
+        <v>docencia</v>
       </c>
       <c r="B94" t="str">
-        <v>tecnologias da informacao e comunicacao</v>
+        <v>praticas pedagogicas</v>
       </c>
       <c r="C94" t="str">
-        <v>educacao inclusiva</v>
+        <v>gestao da sala de aula</v>
       </c>
       <c r="D94" t="str">
-        <v>siemia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E94" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>ensino presencial</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>ensino</v>
+        <v>competencias</v>
       </c>
       <c r="B95" t="str">
-        <v>docente</v>
+        <v>jornada</v>
       </c>
       <c r="C95" t="str">
-        <v>tdic</v>
+        <v>ambiente remoto</v>
       </c>
       <c r="D95" t="str">
-        <v>formacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="E95" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>apreizagem mediada</v>
+        <v>pedagogia</v>
       </c>
       <c r="B96" t="str">
-        <v>formacao de professore</v>
+        <v>letramento midiatico</v>
       </c>
       <c r="C96" t="str">
-        <v>letramento digital</v>
+        <v>identidades</v>
       </c>
       <c r="D96" t="str">
-        <v/>
+        <v>epresentacoes sociais</v>
       </c>
       <c r="E96" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>praticas pedagogicas</v>
+        <v>tecnologias de informacao e comunicacao tics</v>
       </c>
       <c r="B97" t="str">
-        <v>educacao basica</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C97" t="str">
-        <v>ensino remoto</v>
+        <v>docentes</v>
       </c>
       <c r="D97" t="str">
-        <v>residencia pedagogica</v>
+        <v>contabilidade</v>
       </c>
       <c r="E97" t="str">
         <v/>
@@ -2054,50 +2054,50 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>educacao a distancia</v>
+        <v>tpack</v>
       </c>
       <c r="B98" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>formacao de professores de linguas</v>
       </c>
       <c r="C98" t="str">
-        <v>plataforma moodle</v>
+        <v>portugues como lingua adicional</v>
       </c>
       <c r="D98" t="str">
-        <v>formacao continuada de docentes</v>
+        <v/>
       </c>
       <c r="E98" t="str">
-        <v>ensino superior</v>
+        <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>docencia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B99" t="str">
-        <v>praticas pedagogicas</v>
+        <v>planejamento didatico</v>
       </c>
       <c r="C99" t="str">
-        <v>gestao da sala de aula</v>
+        <v>desempenho academico</v>
       </c>
       <c r="D99" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E99" t="str">
-        <v>ensino presencial</v>
+        <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>competencias</v>
+        <v>teletrabalho</v>
       </c>
       <c r="B100" t="str">
-        <v>jornada</v>
+        <v>jornada de trabalho</v>
       </c>
       <c r="C100" t="str">
-        <v>ambiente remoto</v>
+        <v>idademidia</v>
       </c>
       <c r="D100" t="str">
-        <v>tecnologias</v>
+        <v>culturadigital</v>
       </c>
       <c r="E100" t="str">
         <v/>
@@ -2105,33 +2105,33 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>pedagogia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B101" t="str">
-        <v>letramento midiatico</v>
+        <v>tecnologia</v>
       </c>
       <c r="C101" t="str">
-        <v>identidades</v>
+        <v>professor</v>
       </c>
       <c r="D101" t="str">
-        <v>epresentacoes sociais</v>
+        <v>educacao basica</v>
       </c>
       <c r="E101" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>tecnologias de informacao e comunicacao tics</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B102" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>avaliacao</v>
       </c>
       <c r="C102" t="str">
-        <v>docentes</v>
+        <v>paemia</v>
       </c>
       <c r="D102" t="str">
-        <v>contabilidade</v>
+        <v/>
       </c>
       <c r="E102" t="str">
         <v/>
@@ -2139,30 +2139,30 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>tpack</v>
+        <v>docencia</v>
       </c>
       <c r="B103" t="str">
-        <v>formacao de professores de linguas</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="C103" t="str">
-        <v>portugues como lingua adicional</v>
+        <v>ensino superior</v>
       </c>
       <c r="D103" t="str">
-        <v/>
+        <v>especializacao</v>
       </c>
       <c r="E103" t="str">
-        <v/>
+        <v>comunidades de pratica</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino de linguas</v>
       </c>
       <c r="B104" t="str">
-        <v>planejamento didatico</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C104" t="str">
-        <v>desempenho academico</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D104" t="str">
         <v/>
@@ -2173,33 +2173,33 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>teletrabalho</v>
+        <v>calculadoras eletronicas</v>
       </c>
       <c r="B105" t="str">
-        <v>jornada de trabalho</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C105" t="str">
-        <v>idademidia</v>
+        <v>estudos cts</v>
       </c>
       <c r="D105" t="str">
-        <v>culturadigital</v>
+        <v>controversia controlada</v>
       </c>
       <c r="E105" t="str">
-        <v/>
+        <v>tecnologias digitais de informacao e comunicacao</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="B106" t="str">
-        <v>tecnologia</v>
+        <v>professor</v>
       </c>
       <c r="C106" t="str">
-        <v>professor</v>
+        <v>paemia</v>
       </c>
       <c r="D106" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E106" t="str">
         <v/>
@@ -2207,16 +2207,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>ensino remoto</v>
+        <v>jogos digitais</v>
       </c>
       <c r="B107" t="str">
-        <v>avaliacao</v>
+        <v>educacao matematica</v>
       </c>
       <c r="C107" t="str">
-        <v>paemia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D107" t="str">
-        <v/>
+        <v>relato de experiencia</v>
       </c>
       <c r="E107" t="str">
         <v/>
@@ -2224,67 +2224,67 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>docencia</v>
+        <v>parasitologia</v>
       </c>
       <c r="B108" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>materiais didaticos</v>
       </c>
       <c r="C108" t="str">
-        <v>ensino superior</v>
+        <v>instrumento de avaliacao</v>
       </c>
       <c r="D108" t="str">
-        <v>especializacao</v>
+        <v>avaliacao de materiais didaticos online</v>
       </c>
       <c r="E108" t="str">
-        <v>comunidades de pratica</v>
+        <v>ensino</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>ensino de linguas</v>
+        <v>docencia universitaria</v>
       </c>
       <c r="B109" t="str">
-        <v>formacao de professores</v>
+        <v>inteligencia artificial</v>
       </c>
       <c r="C109" t="str">
-        <v>tecnologias digitais</v>
+        <v>automacao</v>
       </c>
       <c r="D109" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E109" t="str">
-        <v/>
+        <v>algoritimo</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>calculadoras eletronicas</v>
+        <v>vulnerabilidades</v>
       </c>
       <c r="B110" t="str">
-        <v>educacao matematica</v>
+        <v>escolas paulistas</v>
       </c>
       <c r="C110" t="str">
-        <v>estudos cts</v>
+        <v>desigualdades socioeconomicas</v>
       </c>
       <c r="D110" t="str">
-        <v>controversia controlada</v>
+        <v>tecnologias</v>
       </c>
       <c r="E110" t="str">
-        <v>tecnologias digitais de informacao e comunicacao</v>
+        <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>adolescencia</v>
       </c>
       <c r="B111" t="str">
-        <v>professor</v>
+        <v>apreizagem por projeto</v>
       </c>
       <c r="C111" t="str">
-        <v>paemia</v>
+        <v>jogo psicoeducativo</v>
       </c>
       <c r="D111" t="str">
-        <v/>
+        <v>psicologia</v>
       </c>
       <c r="E111" t="str">
         <v/>
@@ -2292,84 +2292,84 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>jogos digitais</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B112" t="str">
-        <v>educacao matematica</v>
+        <v>internet</v>
       </c>
       <c r="C112" t="str">
-        <v>formacao de professores</v>
+        <v>tecnologia</v>
       </c>
       <c r="D112" t="str">
-        <v>relato de experiencia</v>
+        <v>ferramentas do moodle</v>
       </c>
       <c r="E112" t="str">
-        <v/>
+        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>parasitologia</v>
+        <v>videoanalise</v>
       </c>
       <c r="B113" t="str">
-        <v>materiais didaticos</v>
+        <v>tracker</v>
       </c>
       <c r="C113" t="str">
-        <v>instrumento de avaliacao</v>
+        <v>experiencia virtual</v>
       </c>
       <c r="D113" t="str">
-        <v>avaliacao de materiais didaticos online</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E113" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>docencia universitaria</v>
+        <v>moodle</v>
       </c>
       <c r="B114" t="str">
-        <v>inteligencia artificial</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C114" t="str">
-        <v>automacao</v>
+        <v>educacao mediada por tecnologias digitais</v>
       </c>
       <c r="D114" t="str">
-        <v>educacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E114" t="str">
-        <v>algoritimo</v>
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>vulnerabilidades</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="B115" t="str">
-        <v>escolas paulistas</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C115" t="str">
-        <v>desigualdades socioeconomicas</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D115" t="str">
-        <v>tecnologias</v>
+        <v>licenciatura</v>
       </c>
       <c r="E115" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>adolescencia</v>
+        <v>audiovisual</v>
       </c>
       <c r="B116" t="str">
-        <v>apreizagem por projeto</v>
+        <v>educacao</v>
       </c>
       <c r="C116" t="str">
-        <v>jogo psicoeducativo</v>
+        <v>tecnologia</v>
       </c>
       <c r="D116" t="str">
-        <v>psicologia</v>
+        <v/>
       </c>
       <c r="E116" t="str">
         <v/>
@@ -2377,33 +2377,33 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>ensino remoto</v>
+        <v>educacao matematica</v>
       </c>
       <c r="B117" t="str">
-        <v>internet</v>
+        <v>genero</v>
       </c>
       <c r="C117" t="str">
+        <v>geometria</v>
+      </c>
+      <c r="D117" t="str">
+        <v>representatividade</v>
+      </c>
+      <c r="E117" t="str">
         <v>tecnologia</v>
-      </c>
-      <c r="D117" t="str">
-        <v>ferramentas do moodle</v>
-      </c>
-      <c r="E117" t="str">
-        <v>materiais didaticos digitais</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>videoanalise</v>
+        <v>tecnologia</v>
       </c>
       <c r="B118" t="str">
-        <v>tracker</v>
+        <v>ateimento educacional especializado aee</v>
       </c>
       <c r="C118" t="str">
-        <v>experiencia virtual</v>
+        <v>sala de recurso multifuncional</v>
       </c>
       <c r="D118" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E118" t="str">
         <v/>
@@ -2411,47 +2411,47 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>moodle</v>
+        <v>ensino</v>
       </c>
       <c r="B119" t="str">
-        <v>sequencia didatica</v>
+        <v>apreizagem</v>
       </c>
       <c r="C119" t="str">
-        <v>educacao mediada por tecnologias digitais</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D119" t="str">
-        <v>educacao a distancia</v>
+        <v>atlas</v>
       </c>
       <c r="E119" t="str">
-        <v/>
+        <v>quimica</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>sequencia didatica</v>
+        <v>redes sociais</v>
       </c>
       <c r="B120" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>engajamento</v>
       </c>
       <c r="C120" t="str">
-        <v>ensino de ciencias</v>
+        <v>apreizagem</v>
       </c>
       <c r="D120" t="str">
-        <v>licenciatura</v>
+        <v/>
       </c>
       <c r="E120" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audiovisual</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B121" t="str">
-        <v>educacao</v>
+        <v>avaliacao de programas</v>
       </c>
       <c r="C121" t="str">
-        <v>tecnologia</v>
+        <v>tecnologias educacionaisdigitais</v>
       </c>
       <c r="D121" t="str">
         <v/>
@@ -2462,33 +2462,33 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>educacao matematica</v>
+        <v>whatsapp</v>
       </c>
       <c r="B122" t="str">
-        <v>genero</v>
+        <v>ensino</v>
       </c>
       <c r="C122" t="str">
-        <v>geometria</v>
+        <v>apreizagem</v>
       </c>
       <c r="D122" t="str">
-        <v>representatividade</v>
+        <v/>
       </c>
       <c r="E122" t="str">
-        <v>tecnologia</v>
+        <v/>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>tecnologia</v>
+        <v>blog</v>
       </c>
       <c r="B123" t="str">
-        <v>ateimento educacional especializado aee</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C123" t="str">
-        <v>sala de recurso multifuncional</v>
+        <v>estrategia didatica</v>
       </c>
       <c r="D123" t="str">
-        <v/>
+        <v>mediacao</v>
       </c>
       <c r="E123" t="str">
         <v/>
@@ -2496,30 +2496,30 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>ensino</v>
+        <v>design</v>
       </c>
       <c r="B124" t="str">
-        <v>apreizagem</v>
+        <v>qualificacao profissional</v>
       </c>
       <c r="C124" t="str">
-        <v>tecnologias digitais</v>
+        <v>educacao ambienta</v>
       </c>
       <c r="D124" t="str">
-        <v>atlas</v>
+        <v/>
       </c>
       <c r="E124" t="str">
-        <v>quimica</v>
+        <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>redes sociais</v>
+        <v>educacao</v>
       </c>
       <c r="B125" t="str">
-        <v>engajamento</v>
+        <v>tecnologia</v>
       </c>
       <c r="C125" t="str">
-        <v>apreizagem</v>
+        <v>competencias midiaticas e em informacao</v>
       </c>
       <c r="D125" t="str">
         <v/>
@@ -2530,16 +2530,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>metaavaliacao</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="B126" t="str">
-        <v>avaliacao de programas</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C126" t="str">
-        <v>tecnologias educacionaisdigitais</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="D126" t="str">
-        <v/>
+        <v>ferramentas digitais</v>
       </c>
       <c r="E126" t="str">
         <v/>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>whatsapp</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="B127" t="str">
-        <v>ensino</v>
+        <v>apreizagem</v>
       </c>
       <c r="C127" t="str">
-        <v>apreizagem</v>
+        <v>plataforma moodle</v>
       </c>
       <c r="D127" t="str">
         <v/>
@@ -2564,16 +2564,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>blog</v>
+        <v>educacao superior</v>
       </c>
       <c r="B128" t="str">
-        <v>educacao hibrida</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C128" t="str">
-        <v>estrategia didatica</v>
+        <v>cultura maker</v>
       </c>
       <c r="D128" t="str">
-        <v>mediacao</v>
+        <v>podcast</v>
       </c>
       <c r="E128" t="str">
         <v/>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>design</v>
+        <v>anormalidades craniofaciais</v>
       </c>
       <c r="B129" t="str">
-        <v>qualificacao profissional</v>
+        <v>curadoria de dados</v>
       </c>
       <c r="C129" t="str">
-        <v>educacao ambienta</v>
+        <v>rede social</v>
       </c>
       <c r="D129" t="str">
         <v/>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>educacao</v>
+        <v>gamificacao</v>
       </c>
       <c r="B130" t="str">
-        <v>tecnologia</v>
+        <v>metodologias de ensino</v>
       </c>
       <c r="C130" t="str">
-        <v>competencias midiaticas e em informacao</v>
+        <v>jogo</v>
       </c>
       <c r="D130" t="str">
-        <v/>
+        <v>ciencias ambientais</v>
       </c>
       <c r="E130" t="str">
         <v/>
@@ -2615,64 +2615,64 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B131" t="str">
-        <v>formacao continuada</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C131" t="str">
-        <v>recursos educacionais</v>
+        <v>jogo eletronico</v>
       </c>
       <c r="D131" t="str">
-        <v>ferramentas digitais</v>
+        <v>lixo toxico</v>
       </c>
       <c r="E131" t="str">
-        <v/>
+        <v>tabela periodica</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>evasao no ensino superior</v>
+        <v>direitos autorais</v>
       </c>
       <c r="B132" t="str">
-        <v>apreizagem</v>
+        <v>internet</v>
       </c>
       <c r="C132" t="str">
-        <v>plataforma moodle</v>
+        <v>plagio</v>
       </c>
       <c r="D132" t="str">
-        <v/>
+        <v>material didatico</v>
       </c>
       <c r="E132" t="str">
-        <v/>
+        <v>trabalho academico</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>educacao superior</v>
+        <v>material didatico</v>
       </c>
       <c r="B133" t="str">
-        <v>apreizagem ativa</v>
+        <v>recursos educacionais</v>
       </c>
       <c r="C133" t="str">
-        <v>cultura maker</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D133" t="str">
-        <v>podcast</v>
+        <v>compartilhamento</v>
       </c>
       <c r="E133" t="str">
-        <v/>
+        <v>estrategia pedagogica</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>anormalidades craniofaciais</v>
+        <v>raple</v>
       </c>
       <c r="B134" t="str">
-        <v>curadoria de dados</v>
+        <v>repositorios</v>
       </c>
       <c r="C134" t="str">
-        <v>rede social</v>
+        <v>planos de aula</v>
       </c>
       <c r="D134" t="str">
         <v/>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>gamificacao</v>
+        <v>wifi</v>
       </c>
       <c r="B135" t="str">
-        <v>metodologias de ensino</v>
+        <v>iot</v>
       </c>
       <c r="C135" t="str">
-        <v>jogo</v>
+        <v>internet das coisas</v>
       </c>
       <c r="D135" t="str">
-        <v>ciencias ambientais</v>
+        <v/>
       </c>
       <c r="E135" t="str">
         <v/>
@@ -2700,64 +2700,64 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>ensino de quimica</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="B136" t="str">
-        <v>material didatico digital</v>
+        <v>posgraduacao</v>
       </c>
       <c r="C136" t="str">
-        <v>jogo eletronico</v>
+        <v>covid19</v>
       </c>
       <c r="D136" t="str">
-        <v>lixo toxico</v>
+        <v>bleed learning</v>
       </c>
       <c r="E136" t="str">
-        <v>tabela periodica</v>
+        <v>ensino</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>direitos autorais</v>
+        <v>enriquecimento curricular online</v>
       </c>
       <c r="B137" t="str">
-        <v>internet</v>
+        <v>aplicativo para celular</v>
       </c>
       <c r="C137" t="str">
-        <v>plagio</v>
+        <v>personalizacao do ensino</v>
       </c>
       <c r="D137" t="str">
-        <v>material didatico</v>
+        <v/>
       </c>
       <c r="E137" t="str">
-        <v>trabalho academico</v>
+        <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>material didatico</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B138" t="str">
-        <v>recursos educacionais</v>
+        <v>tecnologia</v>
       </c>
       <c r="C138" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>saude</v>
       </c>
       <c r="D138" t="str">
-        <v>compartilhamento</v>
+        <v>educacao online</v>
       </c>
       <c r="E138" t="str">
-        <v>estrategia pedagogica</v>
+        <v>territorialidade</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>raple</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B139" t="str">
-        <v>repositorios</v>
+        <v>formacao docente</v>
       </c>
       <c r="C139" t="str">
-        <v>planos de aula</v>
+        <v>tdic</v>
       </c>
       <c r="D139" t="str">
         <v/>
@@ -2768,13 +2768,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>wifi</v>
+        <v>gamificacao</v>
       </c>
       <c r="B140" t="str">
-        <v>iot</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="C140" t="str">
-        <v>internet das coisas</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D140" t="str">
         <v/>
@@ -2785,33 +2785,33 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>metodologias ativas</v>
+        <v>historia da matematica</v>
       </c>
       <c r="B141" t="str">
-        <v>posgraduacao</v>
+        <v>sequencia didatica</v>
       </c>
       <c r="C141" t="str">
-        <v>covid19</v>
+        <v>minicurso</v>
       </c>
       <c r="D141" t="str">
-        <v>bleed learning</v>
+        <v/>
       </c>
       <c r="E141" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>enriquecimento curricular online</v>
+        <v>educacao em saude</v>
       </c>
       <c r="B142" t="str">
-        <v>aplicativo para celular</v>
+        <v>jogos serios</v>
       </c>
       <c r="C142" t="str">
-        <v>personalizacao do ensino</v>
+        <v>emergencia</v>
       </c>
       <c r="D142" t="str">
-        <v/>
+        <v>cardiologia</v>
       </c>
       <c r="E142" t="str">
         <v/>
@@ -2819,64 +2819,64 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>educacao a distancia</v>
+        <v>interatividade</v>
       </c>
       <c r="B143" t="str">
         <v>tecnologia</v>
       </c>
       <c r="C143" t="str">
-        <v>saude</v>
+        <v>youtube</v>
       </c>
       <c r="D143" t="str">
-        <v>educacao online</v>
+        <v>mediacao</v>
       </c>
       <c r="E143" t="str">
-        <v>territorialidade</v>
+        <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>colonialismo digital</v>
       </c>
       <c r="B144" t="str">
-        <v>formacao docente</v>
+        <v>educacao online</v>
       </c>
       <c r="C144" t="str">
-        <v>tdic</v>
+        <v>letramentos</v>
       </c>
       <c r="D144" t="str">
-        <v/>
+        <v>ensin osuperior</v>
       </c>
       <c r="E144" t="str">
-        <v/>
+        <v>decolonialidade digital</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>gamificacao</v>
+        <v>jogo</v>
       </c>
       <c r="B145" t="str">
-        <v>ensino de ciencias</v>
+        <v>ensino</v>
       </c>
       <c r="C145" t="str">
-        <v>metodologias ativas</v>
+        <v>apreizagem</v>
       </c>
       <c r="D145" t="str">
-        <v/>
+        <v>digital</v>
       </c>
       <c r="E145" t="str">
-        <v/>
+        <v>ambiente virtual</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>historia da matematica</v>
+        <v>laboratorios remotos</v>
       </c>
       <c r="B146" t="str">
-        <v>sequencia didatica</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C146" t="str">
-        <v>minicurso</v>
+        <v>divulgacao ciefica</v>
       </c>
       <c r="D146" t="str">
         <v/>
@@ -2887,16 +2887,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>educacao em saude</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B147" t="str">
-        <v>jogos serios</v>
+        <v>trilhas de apreizagem</v>
       </c>
       <c r="C147" t="str">
-        <v>emergencia</v>
+        <v>autoria</v>
       </c>
       <c r="D147" t="str">
-        <v>cardiologia</v>
+        <v/>
       </c>
       <c r="E147" t="str">
         <v/>
@@ -2904,16 +2904,16 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>interatividade</v>
+        <v>tutor</v>
       </c>
       <c r="B148" t="str">
-        <v>tecnologia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C148" t="str">
-        <v>youtube</v>
+        <v>paemia da covid19</v>
       </c>
       <c r="D148" t="str">
-        <v>mediacao</v>
+        <v/>
       </c>
       <c r="E148" t="str">
         <v/>
@@ -2921,47 +2921,47 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>colonialismo digital</v>
+        <v>educacao</v>
       </c>
       <c r="B149" t="str">
-        <v>educacao online</v>
+        <v>comunicacao</v>
       </c>
       <c r="C149" t="str">
-        <v>letramentos</v>
+        <v>audiovisual</v>
       </c>
       <c r="D149" t="str">
-        <v>ensin osuperior</v>
+        <v>roteiro</v>
       </c>
       <c r="E149" t="str">
-        <v>decolonialidade digital</v>
+        <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>jogo</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B150" t="str">
-        <v>ensino</v>
+        <v>disciplinas regulares</v>
       </c>
       <c r="C150" t="str">
-        <v>apreizagem</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D150" t="str">
-        <v>digital</v>
+        <v>presencialidade</v>
       </c>
       <c r="E150" t="str">
-        <v>ambiente virtual</v>
+        <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>laboratorios remotos</v>
+        <v>ambiente virtual</v>
       </c>
       <c r="B151" t="str">
-        <v>educacao a distancia</v>
+        <v>moodle</v>
       </c>
       <c r="C151" t="str">
-        <v>divulgacao ciefica</v>
+        <v>educacao basica</v>
       </c>
       <c r="D151" t="str">
         <v/>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>educacao a distancia</v>
+        <v>bleed learning</v>
       </c>
       <c r="B152" t="str">
-        <v>trilhas de apreizagem</v>
+        <v>soft skills</v>
       </c>
       <c r="C152" t="str">
-        <v>autoria</v>
+        <v>educacao gerencial</v>
       </c>
       <c r="D152" t="str">
         <v/>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>tutor</v>
+        <v>docencia</v>
       </c>
       <c r="B153" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao digital</v>
       </c>
       <c r="C153" t="str">
-        <v>paemia da covid19</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="D153" t="str">
-        <v/>
+        <v>uneb</v>
       </c>
       <c r="E153" t="str">
         <v/>
@@ -3006,50 +3006,50 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>educacao</v>
+        <v>design instrucional</v>
       </c>
       <c r="B154" t="str">
-        <v>comunicacao</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C154" t="str">
-        <v>audiovisual</v>
+        <v>ensino superior</v>
       </c>
       <c r="D154" t="str">
-        <v>roteiro</v>
+        <v>ensino a distancia e digital</v>
       </c>
       <c r="E154" t="str">
-        <v/>
+        <v>microcredenciais</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>educacao a distancia</v>
+        <v>acentuacao grafica</v>
       </c>
       <c r="B155" t="str">
-        <v>disciplinas regulares</v>
+        <v>apreizagem</v>
       </c>
       <c r="C155" t="str">
-        <v>metodologias ativas</v>
+        <v>dificuldades</v>
       </c>
       <c r="D155" t="str">
-        <v>presencialidade</v>
+        <v>motivacao</v>
       </c>
       <c r="E155" t="str">
-        <v/>
+        <v>metodologia ativa kahoot recursos digitais</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>ambiente virtual</v>
+        <v>avaliacao inovadora</v>
       </c>
       <c r="B156" t="str">
-        <v>moodle</v>
+        <v>software de avaliacao qualitativa</v>
       </c>
       <c r="C156" t="str">
-        <v>educacao basica</v>
+        <v>feedback de avaliacao</v>
       </c>
       <c r="D156" t="str">
-        <v/>
+        <v>percurso de apreizagem personalizada</v>
       </c>
       <c r="E156" t="str">
         <v/>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>bleed learning</v>
+        <v>mooc</v>
       </c>
       <c r="B157" t="str">
-        <v>soft skills</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="C157" t="str">
-        <v>educacao gerencial</v>
+        <v>tecnologias educacionais</v>
       </c>
       <c r="D157" t="str">
         <v/>
@@ -3074,16 +3074,16 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>docencia</v>
+        <v>kahoot</v>
       </c>
       <c r="B158" t="str">
-        <v>educacao digital</v>
+        <v>paemia</v>
       </c>
       <c r="C158" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>covid19</v>
       </c>
       <c r="D158" t="str">
-        <v>uneb</v>
+        <v>motivacao</v>
       </c>
       <c r="E158" t="str">
         <v/>
@@ -3091,50 +3091,50 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>design instrucional</v>
+        <v>ensino medio</v>
       </c>
       <c r="B159" t="str">
-        <v>formacao de professores</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C159" t="str">
-        <v>ensino superior</v>
+        <v>generos digitais</v>
       </c>
       <c r="D159" t="str">
-        <v>ensino a distancia e digital</v>
+        <v>lingua portuguesa</v>
       </c>
       <c r="E159" t="str">
-        <v>microcredenciais</v>
+        <v/>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>acentuacao grafica</v>
+        <v>alfabetizacao</v>
       </c>
       <c r="B160" t="str">
-        <v>apreizagem</v>
+        <v>letramento</v>
       </c>
       <c r="C160" t="str">
-        <v>dificuldades</v>
+        <v>autismo</v>
       </c>
       <c r="D160" t="str">
-        <v>motivacao</v>
+        <v>tecnologias de informacao e comunicacao</v>
       </c>
       <c r="E160" t="str">
-        <v>metodologia ativa kahoot recursos digitais</v>
+        <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>avaliacao inovadora</v>
+        <v>moodle</v>
       </c>
       <c r="B161" t="str">
-        <v>software de avaliacao qualitativa</v>
+        <v>efl</v>
       </c>
       <c r="C161" t="str">
-        <v>feedback de avaliacao</v>
+        <v>textbook</v>
       </c>
       <c r="D161" t="str">
-        <v>percurso de apreizagem personalizada</v>
+        <v/>
       </c>
       <c r="E161" t="str">
         <v/>
@@ -3142,13 +3142,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>mooc</v>
+        <v>evasao</v>
       </c>
       <c r="B162" t="str">
-        <v>sala de aula invertida</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C162" t="str">
-        <v>tecnologias educacionais</v>
+        <v>ferramenta de software</v>
       </c>
       <c r="D162" t="str">
         <v/>
@@ -3159,50 +3159,50 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>kahoot</v>
+        <v>materiais</v>
       </c>
       <c r="B163" t="str">
-        <v>paemia</v>
+        <v>atividades</v>
       </c>
       <c r="C163" t="str">
-        <v>covid19</v>
+        <v>midias</v>
       </c>
       <c r="D163" t="str">
-        <v>motivacao</v>
+        <v>ead</v>
       </c>
       <c r="E163" t="str">
-        <v/>
+        <v>curso online</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>ensino medio</v>
+        <v>revisao de escopo</v>
       </c>
       <c r="B164" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>jogos digitais</v>
       </c>
       <c r="C164" t="str">
-        <v>generos digitais</v>
+        <v>midias</v>
       </c>
       <c r="D164" t="str">
-        <v>lingua portuguesa</v>
+        <v>paemia</v>
       </c>
       <c r="E164" t="str">
-        <v/>
+        <v>praticas pedagogicas</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>alfabetizacao</v>
+        <v>pensamento computacional</v>
       </c>
       <c r="B165" t="str">
-        <v>letramento</v>
+        <v>educacao infantil</v>
       </c>
       <c r="C165" t="str">
-        <v>autismo</v>
+        <v>scratchjr</v>
       </c>
       <c r="D165" t="str">
-        <v>tecnologias de informacao e comunicacao</v>
+        <v/>
       </c>
       <c r="E165" t="str">
         <v/>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>moodle</v>
+        <v>multimodalidade</v>
       </c>
       <c r="B166" t="str">
-        <v>efl</v>
+        <v>videos com conteudo matematico</v>
       </c>
       <c r="C166" t="str">
-        <v>textbook</v>
+        <v>livro didatico</v>
       </c>
       <c r="D166" t="str">
         <v/>
@@ -3227,16 +3227,16 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>evasao</v>
+        <v>leitura</v>
       </c>
       <c r="B167" t="str">
-        <v>educacao a distancia</v>
+        <v>escrita</v>
       </c>
       <c r="C167" t="str">
-        <v>ferramenta de software</v>
+        <v>habilidades matematicas</v>
       </c>
       <c r="D167" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E167" t="str">
         <v/>
@@ -3244,67 +3244,67 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>materiais</v>
+        <v>planejamento na ead</v>
       </c>
       <c r="B168" t="str">
-        <v>atividades</v>
+        <v>estrategias pedagogicas</v>
       </c>
       <c r="C168" t="str">
-        <v>midias</v>
+        <v>moodle no ensino presencial</v>
       </c>
       <c r="D168" t="str">
-        <v>ead</v>
+        <v/>
       </c>
       <c r="E168" t="str">
-        <v>curso online</v>
+        <v/>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>revisao de escopo</v>
+        <v>realidade aumentada</v>
       </c>
       <c r="B169" t="str">
-        <v>jogos digitais</v>
+        <v>geografia</v>
       </c>
       <c r="C169" t="str">
-        <v>midias</v>
+        <v>educacao</v>
       </c>
       <c r="D169" t="str">
-        <v>paemia</v>
+        <v/>
       </c>
       <c r="E169" t="str">
-        <v>praticas pedagogicas</v>
+        <v/>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>pensamento computacional</v>
+        <v>ensino</v>
       </c>
       <c r="B170" t="str">
-        <v>educacao infantil</v>
+        <v>apreizagem</v>
       </c>
       <c r="C170" t="str">
-        <v>scratchjr</v>
+        <v>ferramentas</v>
       </c>
       <c r="D170" t="str">
-        <v/>
+        <v>programacao</v>
       </c>
       <c r="E170" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>multimodalidade</v>
+        <v>ila</v>
       </c>
       <c r="B171" t="str">
-        <v>videos com conteudo matematico</v>
+        <v>material didatico digital</v>
       </c>
       <c r="C171" t="str">
-        <v>livro didatico</v>
+        <v>diretrizes</v>
       </c>
       <c r="D171" t="str">
-        <v/>
+        <v>ead</v>
       </c>
       <c r="E171" t="str">
         <v/>
@@ -3312,30 +3312,30 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>leitura</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="B172" t="str">
-        <v>escrita</v>
+        <v>ciencia fisica</v>
       </c>
       <c r="C172" t="str">
-        <v>habilidades matematicas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D172" t="str">
-        <v>ensino remoto</v>
+        <v>tecnologia no ensino</v>
       </c>
       <c r="E172" t="str">
-        <v/>
+        <v>podcast de ciencias</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>planejamento na ead</v>
+        <v>kahoot</v>
       </c>
       <c r="B173" t="str">
-        <v>estrategias pedagogicas</v>
+        <v>gamificacao</v>
       </c>
       <c r="C173" t="str">
-        <v>moodle no ensino presencial</v>
+        <v>jogos digitais</v>
       </c>
       <c r="D173" t="str">
         <v/>
@@ -3346,50 +3346,50 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>realidade aumentada</v>
+        <v>biodiesel</v>
       </c>
       <c r="B174" t="str">
-        <v>geografia</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="C174" t="str">
-        <v>educacao</v>
+        <v>eja</v>
       </c>
       <c r="D174" t="str">
-        <v/>
+        <v>games</v>
       </c>
       <c r="E174" t="str">
-        <v/>
+        <v>phet</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>ensino</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B175" t="str">
-        <v>apreizagem</v>
+        <v>apreizagem ativa</v>
       </c>
       <c r="C175" t="str">
-        <v>ferramentas</v>
+        <v>oficinas</v>
       </c>
       <c r="D175" t="str">
-        <v>programacao</v>
+        <v/>
       </c>
       <c r="E175" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>ila</v>
+        <v>maker</v>
       </c>
       <c r="B176" t="str">
-        <v>material didatico digital</v>
+        <v>robotica</v>
       </c>
       <c r="C176" t="str">
-        <v>diretrizes</v>
+        <v>criatividade</v>
       </c>
       <c r="D176" t="str">
-        <v>ead</v>
+        <v>educacao</v>
       </c>
       <c r="E176" t="str">
         <v/>
@@ -3397,33 +3397,33 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>ensino de fisica</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B177" t="str">
-        <v>ciencia fisica</v>
+        <v>fake news</v>
       </c>
       <c r="C177" t="str">
-        <v>ensino remoto</v>
+        <v>vacina</v>
       </c>
       <c r="D177" t="str">
-        <v>tecnologia no ensino</v>
+        <v>educacao midiatica</v>
       </c>
       <c r="E177" t="str">
-        <v>podcast de ciencias</v>
+        <v>ensino fuamental</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>kahoot</v>
+        <v>metodologiaativa</v>
       </c>
       <c r="B178" t="str">
-        <v>gamificacao</v>
+        <v>processosdeensinoe apreizagem</v>
       </c>
       <c r="C178" t="str">
-        <v>jogos digitais</v>
+        <v>trabalho em equipe</v>
       </c>
       <c r="D178" t="str">
-        <v/>
+        <v>team based learning</v>
       </c>
       <c r="E178" t="str">
         <v/>
@@ -3431,30 +3431,30 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>biodiesel</v>
+        <v>educacao</v>
       </c>
       <c r="B179" t="str">
-        <v>ensino de quimica</v>
+        <v>tecnologia</v>
       </c>
       <c r="C179" t="str">
-        <v>eja</v>
+        <v>producoes filmicas</v>
       </c>
       <c r="D179" t="str">
-        <v>games</v>
+        <v/>
       </c>
       <c r="E179" t="str">
-        <v>phet</v>
+        <v/>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>robotica educacional</v>
+        <v>technology</v>
       </c>
       <c r="B180" t="str">
-        <v>apreizagem ativa</v>
+        <v>education</v>
       </c>
       <c r="C180" t="str">
-        <v>oficinas</v>
+        <v>deaf</v>
       </c>
       <c r="D180" t="str">
         <v/>
@@ -3465,16 +3465,16 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>maker</v>
+        <v>psicologia social</v>
       </c>
       <c r="B181" t="str">
-        <v>robotica</v>
+        <v>recursos didaticos audiovisuais</v>
       </c>
       <c r="C181" t="str">
-        <v>criatividade</v>
+        <v>video educacional</v>
       </c>
       <c r="D181" t="str">
-        <v>educacao</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="E181" t="str">
         <v/>
@@ -3482,33 +3482,33 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>ensino de ciencias</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B182" t="str">
-        <v>fake news</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="C182" t="str">
-        <v>vacina</v>
+        <v>escolas do campo</v>
       </c>
       <c r="D182" t="str">
-        <v>educacao midiatica</v>
+        <v/>
       </c>
       <c r="E182" t="str">
-        <v>ensino fuamental</v>
+        <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>metodologiaativa</v>
+        <v>portal educativo</v>
       </c>
       <c r="B183" t="str">
-        <v>processosdeensinoe apreizagem</v>
+        <v>teste de usabilidade</v>
       </c>
       <c r="C183" t="str">
-        <v>trabalho em equipe</v>
+        <v>ensino medio</v>
       </c>
       <c r="D183" t="str">
-        <v>team based learning</v>
+        <v/>
       </c>
       <c r="E183" t="str">
         <v/>
@@ -3516,16 +3516,16 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>educacao</v>
+        <v>design thinking</v>
       </c>
       <c r="B184" t="str">
-        <v>tecnologia</v>
+        <v>apreizagem</v>
       </c>
       <c r="C184" t="str">
-        <v>producoes filmicas</v>
+        <v>algoritmos</v>
       </c>
       <c r="D184" t="str">
-        <v/>
+        <v>nocode</v>
       </c>
       <c r="E184" t="str">
         <v/>
@@ -3533,13 +3533,13 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>technology</v>
+        <v>apreizagem baseada em projetos</v>
       </c>
       <c r="B185" t="str">
-        <v>education</v>
+        <v>scrum</v>
       </c>
       <c r="C185" t="str">
-        <v>deaf</v>
+        <v>multidisciplinalidade e tecnologias emergentes</v>
       </c>
       <c r="D185" t="str">
         <v/>
@@ -3550,47 +3550,47 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>psicologia social</v>
+        <v>whatsapp</v>
       </c>
       <c r="B186" t="str">
-        <v>recursos didaticos audiovisuais</v>
+        <v>estado da arte</v>
       </c>
       <c r="C186" t="str">
-        <v>video educacional</v>
+        <v>tdic</v>
       </c>
       <c r="D186" t="str">
-        <v>educacao a distancia</v>
+        <v>ferramenta pedagogica</v>
       </c>
       <c r="E186" t="str">
-        <v/>
+        <v>ensino</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>ensino hibrido</v>
+        <v>cenarios de apreizagem interativos</v>
       </c>
       <c r="B187" t="str">
-        <v>ensinoapreizagem</v>
+        <v>cia</v>
       </c>
       <c r="C187" t="str">
-        <v>escolas do campo</v>
+        <v>interacoes</v>
       </c>
       <c r="D187" t="str">
-        <v/>
+        <v>entropia</v>
       </c>
       <c r="E187" t="str">
-        <v/>
+        <v>aula virtual</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>portal educativo</v>
+        <v>tdic</v>
       </c>
       <c r="B188" t="str">
-        <v>teste de usabilidade</v>
+        <v>ensino</v>
       </c>
       <c r="C188" t="str">
-        <v>ensino medio</v>
+        <v>climatologia</v>
       </c>
       <c r="D188" t="str">
         <v/>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>design thinking</v>
+        <v>gamificacao</v>
       </c>
       <c r="B189" t="str">
-        <v>apreizagem</v>
+        <v>ensino</v>
       </c>
       <c r="C189" t="str">
-        <v>algoritmos</v>
+        <v>eletricidade</v>
       </c>
       <c r="D189" t="str">
-        <v>nocode</v>
+        <v>palavrascruzadas</v>
       </c>
       <c r="E189" t="str">
         <v/>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>apreizagem baseada em projetos</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="B190" t="str">
-        <v>scrum</v>
+        <v>lingua inglesa</v>
       </c>
       <c r="C190" t="str">
-        <v>multidisciplinalidade e tecnologias emergentes</v>
+        <v>curso e3d</v>
       </c>
       <c r="D190" t="str">
-        <v/>
+        <v>recursos multimodais</v>
       </c>
       <c r="E190" t="str">
         <v/>
@@ -3635,50 +3635,50 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>whatsapp</v>
+        <v>ensino de botanica</v>
       </c>
       <c r="B191" t="str">
-        <v>estado da arte</v>
+        <v>tic</v>
       </c>
       <c r="C191" t="str">
-        <v>tdic</v>
+        <v>botanica e tecnologia</v>
       </c>
       <c r="D191" t="str">
-        <v>ferramenta pedagogica</v>
+        <v>morfologia vegetal</v>
       </c>
       <c r="E191" t="str">
-        <v>ensino</v>
+        <v/>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>cenarios de apreizagem interativos</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B192" t="str">
-        <v>cia</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C192" t="str">
-        <v>interacoes</v>
+        <v>metodologia do ensino</v>
       </c>
       <c r="D192" t="str">
-        <v>entropia</v>
+        <v/>
       </c>
       <c r="E192" t="str">
-        <v>aula virtual</v>
+        <v/>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>tdic</v>
+        <v>plataformas interativas</v>
       </c>
       <c r="B193" t="str">
-        <v>ensino</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C193" t="str">
-        <v>climatologia</v>
+        <v>edpuzzle</v>
       </c>
       <c r="D193" t="str">
-        <v/>
+        <v>mentimeter</v>
       </c>
       <c r="E193" t="str">
         <v/>
@@ -3686,16 +3686,16 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>gamificacao</v>
+        <v>enfermagem</v>
       </c>
       <c r="B194" t="str">
-        <v>ensino</v>
+        <v>covid19</v>
       </c>
       <c r="C194" t="str">
-        <v>eletricidade</v>
+        <v>tecnologia de informacao</v>
       </c>
       <c r="D194" t="str">
-        <v>palavrascruzadas</v>
+        <v/>
       </c>
       <c r="E194" t="str">
         <v/>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>ensino a distancia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B195" t="str">
-        <v>lingua inglesa</v>
+        <v>institucionalizacao da educacao a distancia</v>
       </c>
       <c r="C195" t="str">
-        <v>curso e3d</v>
+        <v>politicas institucionais de educacao a distancia</v>
       </c>
       <c r="D195" t="str">
-        <v>recursos multimodais</v>
+        <v>politicas publicas</v>
       </c>
       <c r="E195" t="str">
         <v/>
@@ -3720,16 +3720,16 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>ensino de botanica</v>
+        <v>avaliacao in loco virtual</v>
       </c>
       <c r="B196" t="str">
-        <v>tic</v>
+        <v>sinaes</v>
       </c>
       <c r="C196" t="str">
-        <v>botanica e tecnologia</v>
+        <v>legislacao</v>
       </c>
       <c r="D196" t="str">
-        <v>morfologia vegetal</v>
+        <v>paemiada covid 19</v>
       </c>
       <c r="E196" t="str">
         <v/>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>ensino de quimica</v>
+        <v>teoria critica</v>
       </c>
       <c r="B197" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>neoliberalismo</v>
       </c>
       <c r="C197" t="str">
-        <v>metodologia do ensino</v>
+        <v>plataformizacao</v>
       </c>
       <c r="D197" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E197" t="str">
         <v/>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>plataformas interativas</v>
+        <v>gestao escolar</v>
       </c>
       <c r="B198" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>demaas sociais</v>
       </c>
       <c r="C198" t="str">
-        <v>edpuzzle</v>
+        <v>tecnologias</v>
       </c>
       <c r="D198" t="str">
-        <v>mentimeter</v>
+        <v>formacao integral</v>
       </c>
       <c r="E198" t="str">
         <v/>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>enfermagem</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B199" t="str">
-        <v>covid19</v>
+        <v>regiao centrooeste</v>
       </c>
       <c r="C199" t="str">
-        <v>tecnologia de informacao</v>
+        <v>matriculasna educacao superior a distancia</v>
       </c>
       <c r="D199" t="str">
         <v/>
@@ -3788,16 +3788,16 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao adistancia</v>
       </c>
       <c r="B200" t="str">
-        <v>institucionalizacao da educacao a distancia</v>
+        <v>proformacao</v>
       </c>
       <c r="C200" t="str">
-        <v>politicas institucionais de educacao a distancia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D200" t="str">
-        <v>politicas publicas</v>
+        <v>educacao basica</v>
       </c>
       <c r="E200" t="str">
         <v/>
@@ -3805,16 +3805,16 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>avaliacao in loco virtual</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B201" t="str">
-        <v>sinaes</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C201" t="str">
-        <v>legislacao</v>
+        <v>iissociabilidade entre ensino</v>
       </c>
       <c r="D201" t="str">
-        <v>paemiada covid 19</v>
+        <v>pesquisa e extensao</v>
       </c>
       <c r="E201" t="str">
         <v/>
@@ -3822,16 +3822,16 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>teoria critica</v>
+        <v>ambientes virtuais de apreizagem</v>
       </c>
       <c r="B202" t="str">
-        <v>neoliberalismo</v>
+        <v>design centrado no usuario</v>
       </c>
       <c r="C202" t="str">
-        <v>plataformizacao</v>
+        <v>servico de apoio pedagogico</v>
       </c>
       <c r="D202" t="str">
-        <v>educacao</v>
+        <v/>
       </c>
       <c r="E202" t="str">
         <v/>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>gestao escolar</v>
+        <v>educacao presencial</v>
       </c>
       <c r="B203" t="str">
-        <v>demaas sociais</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C203" t="str">
-        <v>tecnologias</v>
+        <v>desempenho</v>
       </c>
       <c r="D203" t="str">
-        <v>formacao integral</v>
+        <v/>
       </c>
       <c r="E203" t="str">
         <v/>
@@ -3856,13 +3856,13 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
+        <v>evasao na educacao superior</v>
+      </c>
+      <c r="B204" t="str">
+        <v>paemia covid19</v>
+      </c>
+      <c r="C204" t="str">
         <v>educacao a distancia</v>
-      </c>
-      <c r="B204" t="str">
-        <v>regiao centrooeste</v>
-      </c>
-      <c r="C204" t="str">
-        <v>matriculasna educacao superior a distancia</v>
       </c>
       <c r="D204" t="str">
         <v/>
@@ -3873,16 +3873,16 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>educacao adistancia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B205" t="str">
-        <v>proformacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C205" t="str">
-        <v>formacao de professores</v>
+        <v>egressos</v>
       </c>
       <c r="D205" t="str">
-        <v>educacao basica</v>
+        <v>polo uab</v>
       </c>
       <c r="E205" t="str">
         <v/>
@@ -3890,16 +3890,16 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>educacao a distancia</v>
+        <v>biblioteca digital</v>
       </c>
       <c r="B206" t="str">
-        <v>institucionalizacao</v>
+        <v>bibliografia basica e complementar</v>
       </c>
       <c r="C206" t="str">
-        <v>iissociabilidade entre ensino</v>
+        <v>formacao e desenvolvimento de acervo</v>
       </c>
       <c r="D206" t="str">
-        <v>pesquisa e extensao</v>
+        <v/>
       </c>
       <c r="E206" t="str">
         <v/>
@@ -3907,13 +3907,13 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>ambientes virtuais de apreizagem</v>
+        <v>historico da educacao a distancia</v>
       </c>
       <c r="B207" t="str">
-        <v>design centrado no usuario</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C207" t="str">
-        <v>servico de apoio pedagogico</v>
+        <v>educacao profissional a distancia</v>
       </c>
       <c r="D207" t="str">
         <v/>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>educacao presencial</v>
+        <v>capitalismo de vigilancia</v>
       </c>
       <c r="B208" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C208" t="str">
-        <v>desempenho</v>
+        <v>ensino remoto</v>
       </c>
       <c r="D208" t="str">
         <v/>
@@ -3941,33 +3941,33 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>evasao na educacao superior</v>
+        <v>paemia</v>
       </c>
       <c r="B209" t="str">
-        <v>paemia covid19</v>
+        <v>distanciamento social</v>
       </c>
       <c r="C209" t="str">
-        <v>educacao a distancia</v>
+        <v>gestao escolar</v>
       </c>
       <c r="D209" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E209" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao corporativa</v>
       </c>
       <c r="B210" t="str">
-        <v>ensino superior</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C210" t="str">
-        <v>egressos</v>
+        <v>marinha do brasil</v>
       </c>
       <c r="D210" t="str">
-        <v>polo uab</v>
+        <v/>
       </c>
       <c r="E210" t="str">
         <v/>
@@ -3975,16 +3975,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>biblioteca digital</v>
+        <v>mercado de trabalho</v>
       </c>
       <c r="B211" t="str">
-        <v>bibliografia basica e complementar</v>
+        <v>pratica profissional</v>
       </c>
       <c r="C211" t="str">
-        <v>formacao e desenvolvimento de acervo</v>
+        <v>seguranca no trabalho</v>
       </c>
       <c r="D211" t="str">
-        <v/>
+        <v>vocacao regional</v>
       </c>
       <c r="E211" t="str">
         <v/>
@@ -3992,16 +3992,16 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>historico da educacao a distancia</v>
+        <v>ensino basico</v>
       </c>
       <c r="B212" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>ensino remotoemergencia</v>
       </c>
       <c r="C212" t="str">
-        <v>educacao profissional a distancia</v>
+        <v>covid19</v>
       </c>
       <c r="D212" t="str">
-        <v/>
+        <v>tic</v>
       </c>
       <c r="E212" t="str">
         <v/>
@@ -4009,13 +4009,13 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>capitalismo de vigilancia</v>
+        <v>formacao de profissionais da educacao</v>
       </c>
       <c r="B213" t="str">
-        <v>tecnologias digitais</v>
+        <v>formacao continuada</v>
       </c>
       <c r="C213" t="str">
-        <v>ensino remoto</v>
+        <v>tdic</v>
       </c>
       <c r="D213" t="str">
         <v/>
@@ -4026,30 +4026,30 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>paemia</v>
+        <v>gestao educacional</v>
       </c>
       <c r="B214" t="str">
-        <v>distanciamento social</v>
+        <v>ead</v>
       </c>
       <c r="C214" t="str">
-        <v>gestao escolar</v>
+        <v>educacao e tecnologia</v>
       </c>
       <c r="D214" t="str">
-        <v>tecnologias</v>
+        <v>atuacao profissional</v>
       </c>
       <c r="E214" t="str">
-        <v>ensino apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>educacao corporativa</v>
+        <v>gestao democratica</v>
       </c>
       <c r="B215" t="str">
-        <v>formacao continuada</v>
+        <v>eleicao para diretora</v>
       </c>
       <c r="C215" t="str">
-        <v>marinha do brasil</v>
+        <v>lei complementar n 1096</v>
       </c>
       <c r="D215" t="str">
         <v/>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>mercado de trabalho</v>
+        <v>gestao na educacao</v>
       </c>
       <c r="B216" t="str">
-        <v>pratica profissional</v>
+        <v>planejamento estrategico</v>
       </c>
       <c r="C216" t="str">
-        <v>seguranca no trabalho</v>
+        <v>instituicao de ensino</v>
       </c>
       <c r="D216" t="str">
-        <v>vocacao regional</v>
+        <v/>
       </c>
       <c r="E216" t="str">
         <v/>
@@ -4077,30 +4077,30 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>ensino basico</v>
+        <v>googledrive</v>
       </c>
       <c r="B217" t="str">
-        <v>ensino remotoemergencia</v>
+        <v>organizacao pedagogica</v>
       </c>
       <c r="C217" t="str">
-        <v>covid19</v>
+        <v>educacao basica</v>
       </c>
       <c r="D217" t="str">
-        <v>tic</v>
+        <v>sistema municipal publico de ensino</v>
       </c>
       <c r="E217" t="str">
-        <v/>
+        <v>gestao educacional</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>formacao de profissionais da educacao</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B218" t="str">
-        <v>formacao continuada</v>
+        <v>educacao superior</v>
       </c>
       <c r="C218" t="str">
-        <v>tdic</v>
+        <v>inclusao digital</v>
       </c>
       <c r="D218" t="str">
         <v/>
@@ -4111,16 +4111,16 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>gestao educacional</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B219" t="str">
-        <v>ead</v>
+        <v>institucionalizacao</v>
       </c>
       <c r="C219" t="str">
-        <v>educacao e tecnologia</v>
+        <v>bibliometria</v>
       </c>
       <c r="D219" t="str">
-        <v>atuacao profissional</v>
+        <v>universidade aberta do brasil</v>
       </c>
       <c r="E219" t="str">
         <v/>
@@ -4128,13 +4128,13 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>gestao democratica</v>
+        <v>educacao maker</v>
       </c>
       <c r="B220" t="str">
-        <v>eleicao para diretora</v>
+        <v>prototipagem</v>
       </c>
       <c r="C220" t="str">
-        <v>lei complementar n 1096</v>
+        <v>ensino superior</v>
       </c>
       <c r="D220" t="str">
         <v/>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>gestao na educacao</v>
+        <v>politica de assistencia estudantil</v>
       </c>
       <c r="B221" t="str">
-        <v>planejamento estrategico</v>
+        <v>direito a educacao</v>
       </c>
       <c r="C221" t="str">
-        <v>instituicao de ensino</v>
+        <v>modelo de formacao</v>
       </c>
       <c r="D221" t="str">
         <v/>
@@ -4162,33 +4162,33 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>googledrive</v>
+        <v>tecnologia</v>
       </c>
       <c r="B222" t="str">
-        <v>organizacao pedagogica</v>
+        <v>educacao</v>
       </c>
       <c r="C222" t="str">
-        <v>educacao basica</v>
+        <v>trabalho</v>
       </c>
       <c r="D222" t="str">
-        <v>sistema municipal publico de ensino</v>
+        <v>napp academy</v>
       </c>
       <c r="E222" t="str">
-        <v>gestao educacional</v>
+        <v>carencia</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>politicas publicas</v>
+        <v>educacao profissional e tecnologica</v>
       </c>
       <c r="B223" t="str">
-        <v>educacao superior</v>
+        <v>tecnologia de informacao e comunicacao</v>
       </c>
       <c r="C223" t="str">
-        <v>inclusao digital</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D223" t="str">
-        <v/>
+        <v>praticaspedagogicas</v>
       </c>
       <c r="E223" t="str">
         <v/>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>educacao a distancia</v>
+        <v>permanencia</v>
       </c>
       <c r="B224" t="str">
-        <v>institucionalizacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C224" t="str">
-        <v>bibliometria</v>
+        <v>tecnologia</v>
       </c>
       <c r="D224" t="str">
-        <v>universidade aberta do brasil</v>
+        <v>gestao</v>
       </c>
       <c r="E224" t="str">
         <v/>
@@ -4213,16 +4213,16 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>educacao maker</v>
+        <v>politicas publicas</v>
       </c>
       <c r="B225" t="str">
-        <v>prototipagem</v>
+        <v>educacao superior</v>
       </c>
       <c r="C225" t="str">
-        <v>ensino superior</v>
+        <v>gestao de processo</v>
       </c>
       <c r="D225" t="str">
-        <v/>
+        <v>inclusao digital</v>
       </c>
       <c r="E225" t="str">
         <v/>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>politica de assistencia estudantil</v>
+        <v>aluno com deficiencia</v>
       </c>
       <c r="B226" t="str">
-        <v>direito a educacao</v>
+        <v>ensino superior</v>
       </c>
       <c r="C226" t="str">
-        <v>modelo de formacao</v>
+        <v>inclusao</v>
       </c>
       <c r="D226" t="str">
         <v/>
@@ -4247,33 +4247,33 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>tecnologia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B227" t="str">
-        <v>educacao</v>
+        <v>estrategia de retencao educacional</v>
       </c>
       <c r="C227" t="str">
-        <v>trabalho</v>
+        <v>evasao no ensino superior</v>
       </c>
       <c r="D227" t="str">
-        <v>napp academy</v>
+        <v>fatores criticos de sucesso</v>
       </c>
       <c r="E227" t="str">
-        <v>carencia</v>
+        <v/>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>educacao profissional e tecnologica</v>
+        <v>novo ensino medio</v>
       </c>
       <c r="B228" t="str">
-        <v>tecnologia de informacao e comunicacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="C228" t="str">
-        <v>ensino hibrido</v>
+        <v>profissao docente</v>
       </c>
       <c r="D228" t="str">
-        <v>praticaspedagogicas</v>
+        <v/>
       </c>
       <c r="E228" t="str">
         <v/>
@@ -4281,16 +4281,16 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>permanencia</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B229" t="str">
-        <v>ensino superior</v>
+        <v>institucionalizacao da ead</v>
       </c>
       <c r="C229" t="str">
-        <v>tecnologia</v>
+        <v>rede federal de educacao profissional e tecnologica</v>
       </c>
       <c r="D229" t="str">
-        <v>gestao</v>
+        <v>conif</v>
       </c>
       <c r="E229" t="str">
         <v/>
@@ -4298,16 +4298,16 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>politicas publicas</v>
+        <v>sistema publico municipal</v>
       </c>
       <c r="B230" t="str">
-        <v>educacao superior</v>
+        <v>tdic</v>
       </c>
       <c r="C230" t="str">
-        <v>gestao de processo</v>
+        <v>equidade</v>
       </c>
       <c r="D230" t="str">
-        <v>inclusao digital</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="E230" t="str">
         <v/>
@@ -4315,13 +4315,13 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>aluno com deficiencia</v>
+        <v>tecnologia e educacao</v>
       </c>
       <c r="B231" t="str">
-        <v>ensino superior</v>
+        <v>legislacao educacional</v>
       </c>
       <c r="C231" t="str">
-        <v>inclusao</v>
+        <v>tecnologias digitais no ensino</v>
       </c>
       <c r="D231" t="str">
         <v/>
@@ -4332,30 +4332,30 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>educacao a distancia</v>
+        <v>plano de intervencao</v>
       </c>
       <c r="B232" t="str">
-        <v>estrategia de retencao educacional</v>
+        <v>base nacional comum curricular e parametros curriculares nacionais</v>
       </c>
       <c r="C232" t="str">
-        <v>evasao no ensino superior</v>
+        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
       </c>
       <c r="D232" t="str">
-        <v>fatores criticos de sucesso</v>
+        <v>ensino medio</v>
       </c>
       <c r="E232" t="str">
-        <v/>
+        <v>gestao educacional integrada</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>novo ensino medio</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="B233" t="str">
-        <v>tecnologias</v>
+        <v>retorno presencial</v>
       </c>
       <c r="C233" t="str">
-        <v>profissao docente</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D233" t="str">
         <v/>
@@ -4366,33 +4366,33 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao</v>
       </c>
       <c r="B234" t="str">
-        <v>institucionalizacao da ead</v>
+        <v>tecnologia</v>
       </c>
       <c r="C234" t="str">
-        <v>rede federal de educacao profissional e tecnologica</v>
+        <v>pensamento critico</v>
       </c>
       <c r="D234" t="str">
-        <v>conif</v>
+        <v>revisao narrativa</v>
       </c>
       <c r="E234" t="str">
-        <v/>
+        <v>neil selwyn</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>sistema publico municipal</v>
+        <v>algebra nos anos iniciais</v>
       </c>
       <c r="B235" t="str">
-        <v>tdic</v>
+        <v>formacao continuada de professores</v>
       </c>
       <c r="C235" t="str">
-        <v>equidade</v>
+        <v>tics</v>
       </c>
       <c r="D235" t="str">
-        <v>politicas educacionais</v>
+        <v/>
       </c>
       <c r="E235" t="str">
         <v/>
@@ -4400,13 +4400,13 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>tecnologia e educacao</v>
+        <v>formacao inicial de professores</v>
       </c>
       <c r="B236" t="str">
-        <v>legislacao educacional</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="C236" t="str">
-        <v>tecnologias digitais no ensino</v>
+        <v>tecnologiaseducacionais</v>
       </c>
       <c r="D236" t="str">
         <v/>
@@ -4417,33 +4417,33 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>plano de intervencao</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="B237" t="str">
-        <v>base nacional comum curricular e parametros curriculares nacionais</v>
+        <v>feedback</v>
       </c>
       <c r="C237" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao na educacao</v>
+        <v>regulacao</v>
       </c>
       <c r="D237" t="str">
-        <v>ensino medio</v>
+        <v>autorregulacao</v>
       </c>
       <c r="E237" t="str">
-        <v>gestao educacional integrada</v>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>ensino de fisicaciencias</v>
       </c>
       <c r="B238" t="str">
-        <v>retorno presencial</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C238" t="str">
-        <v>tecnologias digitais</v>
+        <v>paemia</v>
       </c>
       <c r="D238" t="str">
-        <v/>
+        <v>tecnologias</v>
       </c>
       <c r="E238" t="str">
         <v/>
@@ -4451,33 +4451,33 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>educacao</v>
+        <v>processo de ensino e apreizagem</v>
       </c>
       <c r="B239" t="str">
+        <v>cultura digital</v>
+      </c>
+      <c r="C239" t="str">
+        <v>educacao superior</v>
+      </c>
+      <c r="D239" t="str">
         <v>tecnologia</v>
       </c>
-      <c r="C239" t="str">
-        <v>pensamento critico</v>
-      </c>
-      <c r="D239" t="str">
-        <v>revisao narrativa</v>
-      </c>
       <c r="E239" t="str">
-        <v>neil selwyn</v>
+        <v/>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>algebra nos anos iniciais</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B240" t="str">
-        <v>formacao continuada de professores</v>
+        <v>inovacao educacional</v>
       </c>
       <c r="C240" t="str">
-        <v>tics</v>
+        <v>politicas publicas</v>
       </c>
       <c r="D240" t="str">
-        <v/>
+        <v>educacao basica</v>
       </c>
       <c r="E240" t="str">
         <v/>
@@ -4485,50 +4485,50 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>formacao inicial de professores</v>
+        <v>transdisciplinaridade</v>
       </c>
       <c r="B241" t="str">
-        <v>ensino de fisica</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C241" t="str">
-        <v>tecnologiaseducacionais</v>
+        <v>multidisciplinaridade</v>
       </c>
       <c r="D241" t="str">
-        <v/>
+        <v>transversalidade</v>
       </c>
       <c r="E241" t="str">
-        <v/>
+        <v>ensino basico</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>avaliacao formativa</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B242" t="str">
-        <v>feedback</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C242" t="str">
-        <v>regulacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D242" t="str">
-        <v>autorregulacao</v>
+        <v>ensinoapreizagem</v>
       </c>
       <c r="E242" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>ensino de fisicaciencias</v>
+        <v>paemia</v>
       </c>
       <c r="B243" t="str">
-        <v>ensino remoto</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C243" t="str">
-        <v>paemia</v>
+        <v>educacao remota</v>
       </c>
       <c r="D243" t="str">
-        <v>tecnologias</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="E243" t="str">
         <v/>
@@ -4536,16 +4536,16 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>processo de ensino e apreizagem</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="B244" t="str">
-        <v>cultura digital</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C244" t="str">
-        <v>educacao superior</v>
+        <v>brasil</v>
       </c>
       <c r="D244" t="str">
-        <v>tecnologia</v>
+        <v>portugal</v>
       </c>
       <c r="E244" t="str">
         <v/>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>tecnologia educacional</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B245" t="str">
-        <v>inovacao educacional</v>
+        <v>metodologias</v>
       </c>
       <c r="C245" t="str">
-        <v>politicas publicas</v>
+        <v>tecnologias</v>
       </c>
       <c r="D245" t="str">
-        <v>educacao basica</v>
+        <v/>
       </c>
       <c r="E245" t="str">
         <v/>
@@ -4570,33 +4570,33 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>transdisciplinaridade</v>
+        <v>sociologia da ciencia</v>
       </c>
       <c r="B246" t="str">
-        <v>interdisciplinaridade</v>
+        <v>cientometria</v>
       </c>
       <c r="C246" t="str">
-        <v>multidisciplinaridade</v>
+        <v>educacao</v>
       </c>
       <c r="D246" t="str">
-        <v>transversalidade</v>
+        <v>formacao de professores</v>
       </c>
       <c r="E246" t="str">
-        <v>ensino basico</v>
+        <v>tecnologias digitais</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>ensino hibrido</v>
+        <v>identidade docente</v>
       </c>
       <c r="B247" t="str">
-        <v>metodologias ativas</v>
+        <v>formacao docente</v>
       </c>
       <c r="C247" t="str">
-        <v>tecnologias digitais</v>
+        <v>licenciatura em educacao a distancia</v>
       </c>
       <c r="D247" t="str">
-        <v>ensinoapreizagem</v>
+        <v/>
       </c>
       <c r="E247" t="str">
         <v/>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>paemia</v>
+        <v>anais do eneq</v>
       </c>
       <c r="B248" t="str">
-        <v>educacao hibrida</v>
+        <v>educacao quimica</v>
       </c>
       <c r="C248" t="str">
-        <v>educacao remota</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="D248" t="str">
-        <v>tecnologias na educacao</v>
+        <v/>
       </c>
       <c r="E248" t="str">
         <v/>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>educacao hibrida</v>
+        <v>ensino superior</v>
       </c>
       <c r="B249" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino superior</v>
       </c>
       <c r="C249" t="str">
-        <v>brasil</v>
+        <v>bleed learning</v>
       </c>
       <c r="D249" t="str">
-        <v>portugal</v>
+        <v>bleed learning</v>
       </c>
       <c r="E249" t="str">
         <v/>
@@ -4638,50 +4638,50 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>ensino hibrido</v>
+        <v>paulo freir</v>
       </c>
       <c r="B250" t="str">
-        <v>metodologias</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C250" t="str">
-        <v>tecnologias</v>
+        <v>tdic</v>
       </c>
       <c r="D250" t="str">
-        <v/>
+        <v>educacao a distanci</v>
       </c>
       <c r="E250" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>sociologia da ciencia</v>
+        <v>conhecimento</v>
       </c>
       <c r="B251" t="str">
-        <v>cientometria</v>
+        <v>metodologia</v>
       </c>
       <c r="C251" t="str">
-        <v>educacao</v>
+        <v>pesquisa</v>
       </c>
       <c r="D251" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
       <c r="E251" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>identidade docente</v>
+        <v>politicas educacionais</v>
       </c>
       <c r="B252" t="str">
-        <v>formacao docente</v>
+        <v>pesquisador</v>
       </c>
       <c r="C252" t="str">
-        <v>licenciatura em educacao a distancia</v>
+        <v>stricto sensu</v>
       </c>
       <c r="D252" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E252" t="str">
         <v/>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>anais do eneq</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B253" t="str">
-        <v>educacao quimica</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C253" t="str">
-        <v>tecnologias digitais</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D253" t="str">
         <v/>
@@ -4706,47 +4706,47 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
+        <v>ensino remoto</v>
+      </c>
+      <c r="B254" t="str">
+        <v>ensino hibrido</v>
+      </c>
+      <c r="C254" t="str">
         <v>ensino superior</v>
       </c>
-      <c r="B254" t="str">
-        <v>ensino superior</v>
-      </c>
-      <c r="C254" t="str">
-        <v>bleed learning</v>
-      </c>
       <c r="D254" t="str">
-        <v>bleed learning</v>
+        <v>transformacao digital</v>
       </c>
       <c r="E254" t="str">
-        <v/>
+        <v>subjetividade</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>paulo freir</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="B255" t="str">
-        <v>tecnologias digitais</v>
+        <v>tecnologia</v>
       </c>
       <c r="C255" t="str">
-        <v>tdic</v>
+        <v>ctsctsa</v>
       </c>
       <c r="D255" t="str">
-        <v>educacao a distanci</v>
+        <v/>
       </c>
       <c r="E255" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>conhecimento</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B256" t="str">
-        <v>metodologia</v>
+        <v>tdic</v>
       </c>
       <c r="C256" t="str">
-        <v>pesquisa</v>
+        <v>tecnologias na educacao</v>
       </c>
       <c r="D256" t="str">
         <v/>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>politicas educacionais</v>
+        <v>defensoria publica do estado tocantins</v>
       </c>
       <c r="B257" t="str">
-        <v>pesquisador</v>
+        <v>youtube</v>
       </c>
       <c r="C257" t="str">
-        <v>stricto sensu</v>
+        <v>capacitacao</v>
       </c>
       <c r="D257" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E257" t="str">
         <v/>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>ensino hibrido</v>
+        <v>arquivo pessoal</v>
       </c>
       <c r="B258" t="str">
-        <v>metodologias ativas</v>
+        <v>arquivo epistolar</v>
       </c>
       <c r="C258" t="str">
-        <v>metodologias ativas</v>
+        <v>acervo literario</v>
       </c>
       <c r="D258" t="str">
         <v/>
@@ -4791,30 +4791,30 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>ensino remoto</v>
+        <v>radio</v>
       </c>
       <c r="B259" t="str">
-        <v>ensino hibrido</v>
+        <v>musica</v>
       </c>
       <c r="C259" t="str">
-        <v>ensino superior</v>
+        <v>educacao e midiana paemia</v>
       </c>
       <c r="D259" t="str">
-        <v>transformacao digital</v>
+        <v/>
       </c>
       <c r="E259" t="str">
-        <v>subjetividade</v>
+        <v/>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>ensino de ciencias</v>
+        <v>linguagem cinematografica</v>
       </c>
       <c r="B260" t="str">
-        <v>tecnologia</v>
+        <v>ludicidade</v>
       </c>
       <c r="C260" t="str">
-        <v>ctsctsa</v>
+        <v>biologia</v>
       </c>
       <c r="D260" t="str">
         <v/>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>educacao a distancia</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B261" t="str">
-        <v>tdic</v>
+        <v>museus virtuais</v>
       </c>
       <c r="C261" t="str">
-        <v>tecnologias na educacao</v>
+        <v>tdcis</v>
       </c>
       <c r="D261" t="str">
-        <v/>
+        <v>ensino apreizagem</v>
       </c>
       <c r="E261" t="str">
         <v/>
@@ -4842,30 +4842,30 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>defensoria publica do estado tocantins</v>
+        <v>oficina</v>
       </c>
       <c r="B262" t="str">
-        <v>youtube</v>
+        <v>partilha do sensivel</v>
       </c>
       <c r="C262" t="str">
-        <v>capacitacao</v>
+        <v>escrita criativa</v>
       </c>
       <c r="D262" t="str">
-        <v/>
+        <v>fotografia</v>
       </c>
       <c r="E262" t="str">
-        <v/>
+        <v>apropriacao</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>arquivo pessoal</v>
+        <v>arte musical</v>
       </c>
       <c r="B263" t="str">
-        <v>arquivo epistolar</v>
+        <v>cultura e saberes</v>
       </c>
       <c r="C263" t="str">
-        <v>acervo literario</v>
+        <v>infancia</v>
       </c>
       <c r="D263" t="str">
         <v/>
@@ -4876,16 +4876,16 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>radio</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B264" t="str">
-        <v>musica</v>
+        <v>design para experiencia</v>
       </c>
       <c r="C264" t="str">
-        <v>educacao e midiana paemia</v>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="D264" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
       <c r="E264" t="str">
         <v/>
@@ -4893,33 +4893,33 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>linguagem cinematografica</v>
+        <v>acessibilidade digital</v>
       </c>
       <c r="B265" t="str">
-        <v>ludicidade</v>
+        <v>inclusao</v>
       </c>
       <c r="C265" t="str">
-        <v>biologia</v>
+        <v>surdo</v>
       </c>
       <c r="D265" t="str">
-        <v/>
+        <v>pessoa com deficiencia</v>
       </c>
       <c r="E265" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
+        <v>educacao inclusiva</v>
+      </c>
+      <c r="B266" t="str">
         <v>tecnologias digitais</v>
       </c>
-      <c r="B266" t="str">
-        <v>museus virtuais</v>
-      </c>
       <c r="C266" t="str">
-        <v>tdcis</v>
+        <v>ere</v>
       </c>
       <c r="D266" t="str">
-        <v>ensino apreizagem</v>
+        <v>napnee</v>
       </c>
       <c r="E266" t="str">
         <v/>
@@ -4927,33 +4927,33 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>oficina</v>
+        <v>inclusao</v>
       </c>
       <c r="B267" t="str">
-        <v>partilha do sensivel</v>
+        <v>autismo</v>
       </c>
       <c r="C267" t="str">
-        <v>escrita criativa</v>
+        <v>teacch</v>
       </c>
       <c r="D267" t="str">
-        <v>fotografia</v>
+        <v>abcautismo</v>
       </c>
       <c r="E267" t="str">
-        <v>apropriacao</v>
+        <v/>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>arte musical</v>
+        <v>apreizagem</v>
       </c>
       <c r="B268" t="str">
-        <v>cultura e saberes</v>
+        <v>deficiencia</v>
       </c>
       <c r="C268" t="str">
-        <v>infancia</v>
+        <v>educacao superior</v>
       </c>
       <c r="D268" t="str">
-        <v/>
+        <v>inclusao</v>
       </c>
       <c r="E268" t="str">
         <v/>
@@ -4961,16 +4961,16 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>acessibilidade</v>
+        <v>tdic</v>
       </c>
       <c r="B269" t="str">
-        <v>design para experiencia</v>
+        <v>educacao especia</v>
       </c>
       <c r="C269" t="str">
-        <v>pessoa com deficiencia</v>
+        <v>linguagem escrita</v>
       </c>
       <c r="D269" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
       <c r="E269" t="str">
         <v/>
@@ -4978,33 +4978,33 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>acessibilidade digital</v>
+        <v>acessibilidade</v>
       </c>
       <c r="B270" t="str">
-        <v>inclusao</v>
+        <v>inclusaode alunos com deficiencia</v>
       </c>
       <c r="C270" t="str">
-        <v>surdo</v>
+        <v>ensino superior</v>
       </c>
       <c r="D270" t="str">
-        <v>pessoa com deficiencia</v>
+        <v/>
       </c>
       <c r="E270" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>educacao inclusiva</v>
+        <v>deficiencia intelectual</v>
       </c>
       <c r="B271" t="str">
-        <v>tecnologias digitais</v>
+        <v>guia digital</v>
       </c>
       <c r="C271" t="str">
-        <v>ere</v>
+        <v>avaliacao</v>
       </c>
       <c r="D271" t="str">
-        <v>napnee</v>
+        <v/>
       </c>
       <c r="E271" t="str">
         <v/>
@@ -5012,16 +5012,16 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>inclusao</v>
+        <v>alunos com deficiencias</v>
       </c>
       <c r="B272" t="str">
-        <v>autismo</v>
+        <v>apreizagem</v>
       </c>
       <c r="C272" t="str">
-        <v>teacch</v>
+        <v>educacao inclusiva</v>
       </c>
       <c r="D272" t="str">
-        <v>abcautismo</v>
+        <v>metodologia</v>
       </c>
       <c r="E272" t="str">
         <v/>
@@ -5029,30 +5029,30 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>apreizagem</v>
+        <v>movimento devia</v>
       </c>
       <c r="B273" t="str">
-        <v>deficiencia</v>
+        <v>arte surda</v>
       </c>
       <c r="C273" t="str">
-        <v>educacao superior</v>
+        <v>extensaoead</v>
       </c>
       <c r="D273" t="str">
-        <v>inclusao</v>
+        <v>moocs acessiveis em libras</v>
       </c>
       <c r="E273" t="str">
-        <v/>
+        <v>lingua brasileira de sinais</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>tdic</v>
+        <v>material digital acessivel</v>
       </c>
       <c r="B274" t="str">
-        <v>educacao especia</v>
+        <v>educacao digital inclusiva</v>
       </c>
       <c r="C274" t="str">
-        <v>linguagem escrita</v>
+        <v>inclusao no ensino superior</v>
       </c>
       <c r="D274" t="str">
         <v/>
@@ -5063,13 +5063,13 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>acessibilidade</v>
+        <v>educacao especial</v>
       </c>
       <c r="B275" t="str">
-        <v>inclusaode alunos com deficiencia</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C275" t="str">
-        <v>ensino superior</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D275" t="str">
         <v/>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>deficiencia intelectual</v>
+        <v>educacao</v>
       </c>
       <c r="B276" t="str">
-        <v>guia digital</v>
+        <v>inclusao</v>
       </c>
       <c r="C276" t="str">
-        <v>avaliacao</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D276" t="str">
         <v/>
@@ -5097,16 +5097,16 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>alunos com deficiencias</v>
+        <v>autismo</v>
       </c>
       <c r="B277" t="str">
-        <v>apreizagem</v>
+        <v>modelo social de deficiencia</v>
       </c>
       <c r="C277" t="str">
-        <v>educacao inclusiva</v>
+        <v>interatividade na educacao</v>
       </c>
       <c r="D277" t="str">
-        <v>metodologia</v>
+        <v/>
       </c>
       <c r="E277" t="str">
         <v/>
@@ -5114,33 +5114,33 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>movimento devia</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B278" t="str">
-        <v>arte surda</v>
+        <v>educacao especial</v>
       </c>
       <c r="C278" t="str">
-        <v>extensaoead</v>
+        <v>inclusao</v>
       </c>
       <c r="D278" t="str">
-        <v>moocs acessiveis em libras</v>
+        <v>covid19</v>
       </c>
       <c r="E278" t="str">
-        <v>lingua brasileira de sinais</v>
+        <v/>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>material digital acessivel</v>
+        <v>tecnologias digitais da informacao e da comunicacao</v>
       </c>
       <c r="B279" t="str">
-        <v>educacao digital inclusiva</v>
+        <v>tdics</v>
       </c>
       <c r="C279" t="str">
-        <v>inclusao no ensino superior</v>
+        <v>acessibilidade</v>
       </c>
       <c r="D279" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E279" t="str">
         <v/>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>educacao especial</v>
+        <v>ensino de libras</v>
       </c>
       <c r="B280" t="str">
-        <v>formacao de professores</v>
+        <v>objetos digitais de apreizagem</v>
       </c>
       <c r="C280" t="str">
-        <v>tecnologia assistiva</v>
+        <v>professores em formacao</v>
       </c>
       <c r="D280" t="str">
         <v/>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>educacao</v>
+        <v>sinalario</v>
       </c>
       <c r="B281" t="str">
+        <v>libras</v>
+      </c>
+      <c r="C281" t="str">
+        <v>robotica</v>
+      </c>
+      <c r="D281" t="str">
         <v>inclusao</v>
-      </c>
-      <c r="C281" t="str">
-        <v>ensino hibrido</v>
-      </c>
-      <c r="D281" t="str">
-        <v/>
       </c>
       <c r="E281" t="str">
         <v/>
@@ -5182,33 +5182,33 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>autismo</v>
+        <v>historia em quadrinho</v>
       </c>
       <c r="B282" t="str">
-        <v>modelo social de deficiencia</v>
+        <v>reglete</v>
       </c>
       <c r="C282" t="str">
-        <v>interatividade na educacao</v>
+        <v>braille</v>
       </c>
       <c r="D282" t="str">
-        <v/>
+        <v>educacao inclusiva</v>
       </c>
       <c r="E282" t="str">
-        <v/>
+        <v>modelo atomico</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>ensino remoto</v>
+        <v>ensino superior</v>
       </c>
       <c r="B283" t="str">
-        <v>educacao especial</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="C283" t="str">
-        <v>inclusao</v>
+        <v>desenho universal para apreizagem</v>
       </c>
       <c r="D283" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E283" t="str">
         <v/>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>tecnologias digitais da informacao e da comunicacao</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="B284" t="str">
-        <v>tdics</v>
+        <v>inclusao de alunos com deficiencia</v>
       </c>
       <c r="C284" t="str">
-        <v>acessibilidade</v>
+        <v>tecnologia assistiva</v>
       </c>
       <c r="D284" t="str">
-        <v>educacao a distancia</v>
+        <v/>
       </c>
       <c r="E284" t="str">
         <v/>
@@ -5233,33 +5233,33 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>ensino de libras</v>
+        <v>inclusao</v>
       </c>
       <c r="B285" t="str">
-        <v>objetos digitais de apreizagem</v>
+        <v>libras</v>
       </c>
       <c r="C285" t="str">
-        <v>professores em formacao</v>
+        <v>quimica</v>
       </c>
       <c r="D285" t="str">
-        <v/>
+        <v>tabela periodica</v>
       </c>
       <c r="E285" t="str">
-        <v/>
+        <v>tecnologia digitais</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>sinalario</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="B286" t="str">
-        <v>libras</v>
+        <v>curricularizacao da extensao</v>
       </c>
       <c r="C286" t="str">
-        <v>robotica</v>
+        <v>biologia</v>
       </c>
       <c r="D286" t="str">
-        <v>inclusao</v>
+        <v>ead</v>
       </c>
       <c r="E286" t="str">
         <v/>
@@ -5267,33 +5267,33 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>historia em quadrinho</v>
+        <v>vigilancia digital controversia cientifica</v>
       </c>
       <c r="B287" t="str">
-        <v>reglete</v>
+        <v>ducacao nao presencial de emergencia</v>
       </c>
       <c r="C287" t="str">
-        <v>braille</v>
+        <v>ciencia</v>
       </c>
       <c r="D287" t="str">
-        <v>educacao inclusiva</v>
+        <v>tecnologia e sociedade cts</v>
       </c>
       <c r="E287" t="str">
-        <v>modelo atomico</v>
+        <v/>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>ensino superior</v>
+        <v>ensino superior militar</v>
       </c>
       <c r="B288" t="str">
-        <v>tecnologia assistiva</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C288" t="str">
-        <v>desenho universal para apreizagem</v>
+        <v>escola naval</v>
       </c>
       <c r="D288" t="str">
-        <v/>
+        <v>paemia covid19</v>
       </c>
       <c r="E288" t="str">
         <v/>
@@ -5301,84 +5301,84 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>tecnologias digitais</v>
+        <v>cartapessoal</v>
       </c>
       <c r="B289" t="str">
-        <v>inclusao de alunos com deficiencia</v>
+        <v>leitura</v>
       </c>
       <c r="C289" t="str">
-        <v>tecnologia assistiva</v>
+        <v>escrita</v>
       </c>
       <c r="D289" t="str">
-        <v/>
+        <v>ensino fuamental i</v>
       </c>
       <c r="E289" t="str">
-        <v/>
+        <v>letramento</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>inclusao</v>
+        <v>apreizagem</v>
       </c>
       <c r="B290" t="str">
-        <v>libras</v>
+        <v>quarta revolucao iustrial</v>
       </c>
       <c r="C290" t="str">
-        <v>quimica</v>
+        <v>afetividade</v>
       </c>
       <c r="D290" t="str">
-        <v>tabela periodica</v>
+        <v>humanidade</v>
       </c>
       <c r="E290" t="str">
-        <v>tecnologia digitais</v>
+        <v/>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>inclusao digital</v>
       </c>
       <c r="B291" t="str">
-        <v>curricularizacao da extensao</v>
+        <v>ambientes virtuais de apreizagem ava</v>
       </c>
       <c r="C291" t="str">
-        <v>biologia</v>
+        <v>resiliencia</v>
       </c>
       <c r="D291" t="str">
-        <v>ead</v>
+        <v>equidade</v>
       </c>
       <c r="E291" t="str">
-        <v/>
+        <v>offline</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>vigilancia digital controversia cientifica</v>
+        <v>lesson study</v>
       </c>
       <c r="B292" t="str">
-        <v>ducacao nao presencial de emergencia</v>
+        <v>autoeficacia</v>
       </c>
       <c r="C292" t="str">
-        <v>ciencia</v>
+        <v>desenvolvimento profissional docente</v>
       </c>
       <c r="D292" t="str">
-        <v>tecnologia e sociedade cts</v>
+        <v>apreizagem colaborativa</v>
       </c>
       <c r="E292" t="str">
-        <v/>
+        <v>revisao sistematica da literatura</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>ensino superior militar</v>
+        <v>pibid</v>
       </c>
       <c r="B293" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C293" t="str">
-        <v>escola naval</v>
+        <v>ciencias biologicas</v>
       </c>
       <c r="D293" t="str">
-        <v>paemia covid19</v>
+        <v/>
       </c>
       <c r="E293" t="str">
         <v/>
@@ -5386,33 +5386,33 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>cartapessoal</v>
+        <v>danca e tecnologia</v>
       </c>
       <c r="B294" t="str">
-        <v>leitura</v>
+        <v>ambiencia de interacao digital</v>
       </c>
       <c r="C294" t="str">
-        <v>escrita</v>
+        <v>arte interativa digital</v>
       </c>
       <c r="D294" t="str">
-        <v>ensino fuamental i</v>
+        <v>produsage</v>
       </c>
       <c r="E294" t="str">
-        <v>letramento</v>
+        <v/>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>apreizagem</v>
+        <v>desenvolvimento cognitivo</v>
       </c>
       <c r="B295" t="str">
-        <v>quarta revolucao iustrial</v>
+        <v>cognicao numerica</v>
       </c>
       <c r="C295" t="str">
-        <v>afetividade</v>
+        <v>senso numerico</v>
       </c>
       <c r="D295" t="str">
-        <v>humanidade</v>
+        <v/>
       </c>
       <c r="E295" t="str">
         <v/>
@@ -5420,47 +5420,47 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>inclusao digital</v>
+        <v>direitos humanos</v>
       </c>
       <c r="B296" t="str">
-        <v>ambientes virtuais de apreizagem ava</v>
+        <v>interdisciplinaridade</v>
       </c>
       <c r="C296" t="str">
-        <v>resiliencia</v>
+        <v>utilizacao de midias</v>
       </c>
       <c r="D296" t="str">
-        <v>equidade</v>
+        <v>ensino critico</v>
       </c>
       <c r="E296" t="str">
-        <v>offline</v>
+        <v/>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>lesson study</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B297" t="str">
-        <v>autoeficacia</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="C297" t="str">
-        <v>desenvolvimento profissional docente</v>
+        <v>graduacao em pedagogia ead</v>
       </c>
       <c r="D297" t="str">
-        <v>apreizagem colaborativa</v>
+        <v/>
       </c>
       <c r="E297" t="str">
-        <v>revisao sistematica da literatura</v>
+        <v/>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>pibid</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="B298" t="str">
-        <v>formacao de professores</v>
+        <v>ensino superior</v>
       </c>
       <c r="C298" t="str">
-        <v>ciencias biologicas</v>
+        <v>construcao identitaria</v>
       </c>
       <c r="D298" t="str">
         <v/>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>danca e tecnologia</v>
+        <v>agentes comunitarios de saude</v>
       </c>
       <c r="B299" t="str">
-        <v>ambiencia de interacao digital</v>
+        <v>anormalidades congenitas</v>
       </c>
       <c r="C299" t="str">
-        <v>arte interativa digital</v>
+        <v>capacitacao em servico</v>
       </c>
       <c r="D299" t="str">
-        <v>produsage</v>
+        <v>saude da familia</v>
       </c>
       <c r="E299" t="str">
         <v/>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>desenvolvimento cognitivo</v>
+        <v>netativismo</v>
       </c>
       <c r="B300" t="str">
-        <v>cognicao numerica</v>
+        <v>processos formativos</v>
       </c>
       <c r="C300" t="str">
-        <v>senso numerico</v>
+        <v>empoderamento freireano</v>
       </c>
       <c r="D300" t="str">
         <v/>
@@ -5505,16 +5505,16 @@
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>direitos humanos</v>
+        <v>inovacao</v>
       </c>
       <c r="B301" t="str">
-        <v>interdisciplinaridade</v>
+        <v>robotica educativa</v>
       </c>
       <c r="C301" t="str">
-        <v>utilizacao de midias</v>
+        <v>apreizagem</v>
       </c>
       <c r="D301" t="str">
-        <v>ensino critico</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="E301" t="str">
         <v/>
@@ -5522,30 +5522,30 @@
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>educacao a distancia</v>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="B302" t="str">
-        <v>ensino e apreizagem</v>
+        <v>design para a educacao</v>
       </c>
       <c r="C302" t="str">
-        <v>graduacao em pedagogia ead</v>
+        <v>capacitacao</v>
       </c>
       <c r="D302" t="str">
-        <v/>
+        <v>ludificacao</v>
       </c>
       <c r="E302" t="str">
-        <v/>
+        <v>gamificacao</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>educacao a distancia</v>
+        <v>educacao a distancia centrode educacao aberta e a distancia</v>
       </c>
       <c r="B303" t="str">
+        <v>programa universidade aberta do brasil</v>
+      </c>
+      <c r="C303" t="str">
         <v>ensino superior</v>
-      </c>
-      <c r="C303" t="str">
-        <v>construcao identitaria</v>
       </c>
       <c r="D303" t="str">
         <v/>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>agentes comunitarios de saude</v>
+        <v>educacao tradicional</v>
       </c>
       <c r="B304" t="str">
-        <v>anormalidades congenitas</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C304" t="str">
-        <v>capacitacao em servico</v>
+        <v>retomada da apreizagem</v>
       </c>
       <c r="D304" t="str">
-        <v>saude da familia</v>
+        <v/>
       </c>
       <c r="E304" t="str">
         <v/>
@@ -5573,16 +5573,16 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>netativismo</v>
+        <v>letramento digital</v>
       </c>
       <c r="B305" t="str">
-        <v>processos formativos</v>
+        <v>letramento</v>
       </c>
       <c r="C305" t="str">
-        <v>empoderamento freireano</v>
+        <v>educacao</v>
       </c>
       <c r="D305" t="str">
-        <v/>
+        <v>cultura digital</v>
       </c>
       <c r="E305" t="str">
         <v/>
@@ -5590,16 +5590,16 @@
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>inovacao</v>
+        <v>violencia</v>
       </c>
       <c r="B306" t="str">
-        <v>robotica educativa</v>
+        <v>notificacao</v>
       </c>
       <c r="C306" t="str">
-        <v>apreizagem</v>
+        <v>estudantes de medicina</v>
       </c>
       <c r="D306" t="str">
-        <v>tecnologias digitais</v>
+        <v/>
       </c>
       <c r="E306" t="str">
         <v/>
@@ -5607,30 +5607,30 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>ensino e apreizagem</v>
+        <v>cursos abertos</v>
       </c>
       <c r="B307" t="str">
-        <v>design para a educacao</v>
+        <v>educacao digital</v>
       </c>
       <c r="C307" t="str">
-        <v>capacitacao</v>
+        <v>ods</v>
       </c>
       <c r="D307" t="str">
-        <v>ludificacao</v>
+        <v/>
       </c>
       <c r="E307" t="str">
-        <v>gamificacao</v>
+        <v/>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>educacao a distancia centrode educacao aberta e a distancia</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B308" t="str">
-        <v>programa universidade aberta do brasil</v>
+        <v>ecnologias digitais da informacao e comunicacao tdic</v>
       </c>
       <c r="C308" t="str">
-        <v>ensino superior</v>
+        <v>ensino remoto emergencial ere</v>
       </c>
       <c r="D308" t="str">
         <v/>
@@ -5641,13 +5641,13 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>educacao tradicional</v>
+        <v>mapeamento</v>
       </c>
       <c r="B309" t="str">
-        <v>ensino remoto</v>
+        <v>cursos online</v>
       </c>
       <c r="C309" t="str">
-        <v>retomada da apreizagem</v>
+        <v>equipe</v>
       </c>
       <c r="D309" t="str">
         <v/>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>letramento digital</v>
+        <v>pedagogia empresarial</v>
       </c>
       <c r="B310" t="str">
-        <v>letramento</v>
+        <v>pedagogo empresarial</v>
       </c>
       <c r="C310" t="str">
-        <v>educacao</v>
+        <v>treinamento e desenvolvimento</v>
       </c>
       <c r="D310" t="str">
-        <v>cultura digital</v>
+        <v/>
       </c>
       <c r="E310" t="str">
         <v/>
@@ -5675,13 +5675,13 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>violencia</v>
+        <v>educacao superior</v>
       </c>
       <c r="B311" t="str">
-        <v>notificacao</v>
+        <v>tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C311" t="str">
-        <v>estudantes de medicina</v>
+        <v>covid19</v>
       </c>
       <c r="D311" t="str">
         <v/>
@@ -5692,13 +5692,13 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>cursos abertos</v>
+        <v>educacao musical online</v>
       </c>
       <c r="B312" t="str">
-        <v>educacao digital</v>
+        <v>pratica de conjunto online</v>
       </c>
       <c r="C312" t="str">
-        <v>ods</v>
+        <v>musica e sustentabilidade</v>
       </c>
       <c r="D312" t="str">
         <v/>
@@ -5709,16 +5709,16 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>multiletramentos</v>
+        <v>psicoterapia online</v>
       </c>
       <c r="B313" t="str">
-        <v>ecnologias digitais da informacao e comunicacao tdic</v>
+        <v>alianca e vinculo terapeuticos</v>
       </c>
       <c r="C313" t="str">
-        <v>ensino remoto emergencial ere</v>
+        <v>ateimento online</v>
       </c>
       <c r="D313" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E313" t="str">
         <v/>
@@ -5726,33 +5726,33 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>mapeamento</v>
+        <v>formacao profissional em saude</v>
       </c>
       <c r="B314" t="str">
-        <v>cursos online</v>
+        <v>educacao a distancia</v>
       </c>
       <c r="C314" t="str">
-        <v>equipe</v>
+        <v>sistema unico de saude</v>
       </c>
       <c r="D314" t="str">
-        <v/>
+        <v>materiais didaticos</v>
       </c>
       <c r="E314" t="str">
-        <v/>
+        <v>docencia</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>pedagogia empresarial</v>
+        <v>metodologia ativa</v>
       </c>
       <c r="B315" t="str">
-        <v>pedagogo empresarial</v>
+        <v>cultura maker</v>
       </c>
       <c r="C315" t="str">
-        <v>treinamento e desenvolvimento</v>
+        <v>fanzines</v>
       </c>
       <c r="D315" t="str">
-        <v/>
+        <v>educacao</v>
       </c>
       <c r="E315" t="str">
         <v/>
@@ -5760,30 +5760,30 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>educacao superior</v>
+        <v>residencia tecnic</v>
       </c>
       <c r="B316" t="str">
-        <v>tecnologia da informacao e comunicacao</v>
+        <v>inovacao</v>
       </c>
       <c r="C316" t="str">
-        <v>covid19</v>
+        <v>transformacao digital</v>
       </c>
       <c r="D316" t="str">
-        <v/>
+        <v>egov</v>
       </c>
       <c r="E316" t="str">
-        <v/>
+        <v>design instrucional</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>educacao musical online</v>
+        <v>cancer</v>
       </c>
       <c r="B317" t="str">
-        <v>pratica de conjunto online</v>
+        <v>game</v>
       </c>
       <c r="C317" t="str">
-        <v>musica e sustentabilidade</v>
+        <v>sexualidade</v>
       </c>
       <c r="D317" t="str">
         <v/>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>psicoterapia online</v>
+        <v>educacao</v>
       </c>
       <c r="B318" t="str">
-        <v>alianca e vinculo terapeuticos</v>
+        <v>tecnologias digitais</v>
       </c>
       <c r="C318" t="str">
-        <v>ateimento online</v>
+        <v>curriculo</v>
       </c>
       <c r="D318" t="str">
-        <v>covid19</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="E318" t="str">
         <v/>
@@ -5811,33 +5811,33 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>formacao profissional em saude</v>
+        <v>curriculo subjetivo</v>
       </c>
       <c r="B319" t="str">
-        <v>educacao a distancia</v>
+        <v>paradigma da apreizagem</v>
       </c>
       <c r="C319" t="str">
-        <v>sistema unico de saude</v>
+        <v>tutorias</v>
       </c>
       <c r="D319" t="str">
-        <v>materiais didaticos</v>
+        <v/>
       </c>
       <c r="E319" t="str">
-        <v>docencia</v>
+        <v/>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>metodologia ativa</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B320" t="str">
-        <v>cultura maker</v>
+        <v>inclusao digital</v>
       </c>
       <c r="C320" t="str">
-        <v>fanzines</v>
+        <v>ead</v>
       </c>
       <c r="D320" t="str">
-        <v>educacao</v>
+        <v>inovacao</v>
       </c>
       <c r="E320" t="str">
         <v/>
@@ -5845,33 +5845,33 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>residencia tecnic</v>
+        <v>ensino superior</v>
       </c>
       <c r="B321" t="str">
-        <v>inovacao</v>
+        <v>universidades publicas</v>
       </c>
       <c r="C321" t="str">
-        <v>transformacao digital</v>
+        <v>pospaemia</v>
       </c>
       <c r="D321" t="str">
-        <v>egov</v>
+        <v>resiliencia organizacional</v>
       </c>
       <c r="E321" t="str">
-        <v>design instrucional</v>
+        <v/>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>cancer</v>
+        <v>memoria</v>
       </c>
       <c r="B322" t="str">
-        <v>game</v>
+        <v>tdic</v>
       </c>
       <c r="C322" t="str">
-        <v>sexualidade</v>
+        <v>neurociencia</v>
       </c>
       <c r="D322" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
       <c r="E322" t="str">
         <v/>
@@ -5879,16 +5879,16 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>educacao</v>
+        <v>ensino medio</v>
       </c>
       <c r="B323" t="str">
-        <v>tecnologias digitais</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C323" t="str">
-        <v>curriculo</v>
+        <v>desigualdade educacional</v>
       </c>
       <c r="D323" t="str">
-        <v>educacao hibrida</v>
+        <v>cultura digital</v>
       </c>
       <c r="E323" t="str">
         <v/>
@@ -5896,16 +5896,16 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>curriculo subjetivo</v>
+        <v>caracteristica</v>
       </c>
       <c r="B324" t="str">
-        <v>paradigma da apreizagem</v>
+        <v>estudante</v>
       </c>
       <c r="C324" t="str">
-        <v>tutorias</v>
+        <v>licenciatura</v>
       </c>
       <c r="D324" t="str">
-        <v/>
+        <v>ensino e apreizagem</v>
       </c>
       <c r="E324" t="str">
         <v/>
@@ -5913,33 +5913,33 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>ensino hibrido</v>
+        <v>ensino superior</v>
       </c>
       <c r="B325" t="str">
-        <v>inclusao digital</v>
+        <v>trilha de apreizagem</v>
       </c>
       <c r="C325" t="str">
-        <v>ead</v>
+        <v>sala de aula invertida</v>
       </c>
       <c r="D325" t="str">
-        <v>inovacao</v>
+        <v>feedback</v>
       </c>
       <c r="E325" t="str">
-        <v/>
+        <v>formacao de professores</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>ensino superior</v>
+        <v>estagio supervisionado</v>
       </c>
       <c r="B326" t="str">
-        <v>universidades publicas</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C326" t="str">
-        <v>pospaemia</v>
+        <v>educacao infantil</v>
       </c>
       <c r="D326" t="str">
-        <v>resiliencia organizacional</v>
+        <v>tecnologias</v>
       </c>
       <c r="E326" t="str">
         <v/>
@@ -5947,16 +5947,16 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>memoria</v>
+        <v>metodologias ativas de apreizagem</v>
       </c>
       <c r="B327" t="str">
-        <v>tdic</v>
+        <v>administracao publica</v>
       </c>
       <c r="C327" t="str">
-        <v>neurociencia</v>
+        <v>tdics</v>
       </c>
       <c r="D327" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
       <c r="E327" t="str">
         <v/>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>ensino medio</v>
+        <v>escola</v>
       </c>
       <c r="B328" t="str">
-        <v>ensino remoto</v>
+        <v>leitura</v>
       </c>
       <c r="C328" t="str">
-        <v>desigualdade educacional</v>
+        <v>escrita</v>
       </c>
       <c r="D328" t="str">
-        <v>cultura digital</v>
+        <v>tecnologias hipertextuais</v>
       </c>
       <c r="E328" t="str">
         <v/>
@@ -5981,16 +5981,16 @@
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>caracteristica</v>
+        <v>ensino remoto emergencia</v>
       </c>
       <c r="B329" t="str">
-        <v>estudante</v>
+        <v>biologia atividades praticas</v>
       </c>
       <c r="C329" t="str">
-        <v>licenciatura</v>
+        <v/>
       </c>
       <c r="D329" t="str">
-        <v>ensino e apreizagem</v>
+        <v/>
       </c>
       <c r="E329" t="str">
         <v/>
@@ -5998,47 +5998,47 @@
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>ensino superior</v>
+        <v>avaliacao</v>
       </c>
       <c r="B330" t="str">
-        <v>trilha de apreizagem</v>
+        <v>educacao hibrida</v>
       </c>
       <c r="C330" t="str">
-        <v>sala de aula invertida</v>
+        <v>cultura digital</v>
       </c>
       <c r="D330" t="str">
-        <v>feedback</v>
+        <v>ensino de fisica</v>
       </c>
       <c r="E330" t="str">
-        <v>formacao de professores</v>
+        <v/>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>estagio supervisionado</v>
+        <v>educacao</v>
       </c>
       <c r="B331" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>comunicacao</v>
       </c>
       <c r="C331" t="str">
-        <v>educacao infantil</v>
+        <v>midias sociais</v>
       </c>
       <c r="D331" t="str">
+        <v>publicidade</v>
+      </c>
+      <c r="E331" t="str">
         <v>tecnologias</v>
-      </c>
-      <c r="E331" t="str">
-        <v/>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>metodologias ativas de apreizagem</v>
+        <v>ensino de quimica</v>
       </c>
       <c r="B332" t="str">
-        <v>administracao publica</v>
+        <v>tdic</v>
       </c>
       <c r="C332" t="str">
-        <v>tdics</v>
+        <v>paemia</v>
       </c>
       <c r="D332" t="str">
         <v/>
@@ -6049,16 +6049,16 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>escola</v>
+        <v>apreizagem</v>
       </c>
       <c r="B333" t="str">
-        <v>leitura</v>
+        <v>gamificacao</v>
       </c>
       <c r="C333" t="str">
-        <v>escrita</v>
+        <v>este de progresso</v>
       </c>
       <c r="D333" t="str">
-        <v>tecnologias hipertextuais</v>
+        <v>educacao medica</v>
       </c>
       <c r="E333" t="str">
         <v/>
@@ -6066,13 +6066,13 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>ensino remoto emergencia</v>
+        <v>ecologia da apreizagem</v>
       </c>
       <c r="B334" t="str">
-        <v>biologia atividades praticas</v>
+        <v>cultura digital</v>
       </c>
       <c r="C334" t="str">
-        <v/>
+        <v>processos de apreizagem</v>
       </c>
       <c r="D334" t="str">
         <v/>
@@ -6083,16 +6083,16 @@
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>avaliacao</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="B335" t="str">
-        <v>educacao hibrida</v>
+        <v>podcast de ciencias</v>
       </c>
       <c r="C335" t="str">
-        <v>cultura digital</v>
+        <v>apreizagem</v>
       </c>
       <c r="D335" t="str">
-        <v>ensino de fisica</v>
+        <v/>
       </c>
       <c r="E335" t="str">
         <v/>
@@ -6103,27 +6103,27 @@
         <v>educacao</v>
       </c>
       <c r="B336" t="str">
-        <v>comunicacao</v>
+        <v>tecnologia</v>
       </c>
       <c r="C336" t="str">
-        <v>midias sociais</v>
+        <v>digital</v>
       </c>
       <c r="D336" t="str">
-        <v>publicidade</v>
+        <v/>
       </c>
       <c r="E336" t="str">
-        <v>tecnologias</v>
+        <v/>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>ensino de quimica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B337" t="str">
-        <v>tdic</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C337" t="str">
-        <v>paemia</v>
+        <v>qualidade na educacao superior</v>
       </c>
       <c r="D337" t="str">
         <v/>
@@ -6134,16 +6134,16 @@
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>apreizagem</v>
+        <v>metaavaliacao</v>
       </c>
       <c r="B338" t="str">
-        <v>gamificacao</v>
+        <v>avaliacao de tecnologia da informacao e comunicacao</v>
       </c>
       <c r="C338" t="str">
-        <v>este de progresso</v>
+        <v>jogos eletronicos</v>
       </c>
       <c r="D338" t="str">
-        <v>educacao medica</v>
+        <v/>
       </c>
       <c r="E338" t="str">
         <v/>
@@ -6151,13 +6151,13 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>ecologia da apreizagem</v>
+        <v>metaverso</v>
       </c>
       <c r="B339" t="str">
-        <v>cultura digital</v>
+        <v>ensino fuamental</v>
       </c>
       <c r="C339" t="str">
-        <v>processos de apreizagem</v>
+        <v>ciencia humanas</v>
       </c>
       <c r="D339" t="str">
         <v/>
@@ -6168,30 +6168,30 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>ensino hibrido</v>
+        <v>multiletramentos</v>
       </c>
       <c r="B340" t="str">
-        <v>podcast de ciencias</v>
+        <v>alfabetizacao cientifica</v>
       </c>
       <c r="C340" t="str">
-        <v>apreizagem</v>
+        <v>ensino de geografia</v>
       </c>
       <c r="D340" t="str">
-        <v/>
+        <v>apreizagem baseada na resolucao de problemas</v>
       </c>
       <c r="E340" t="str">
-        <v/>
+        <v>web 20</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>educacao</v>
+        <v>gamificacao</v>
       </c>
       <c r="B341" t="str">
-        <v>tecnologia</v>
+        <v>objeto de leitura gamificado</v>
       </c>
       <c r="C341" t="str">
-        <v>digital</v>
+        <v>apreizagem de leitura</v>
       </c>
       <c r="D341" t="str">
         <v/>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>formacao de professores</v>
+        <v>tdics</v>
       </c>
       <c r="B342" t="str">
+        <v>colegio de aplicacao</v>
+      </c>
+      <c r="C342" t="str">
         <v>ensino remoto emergencial</v>
       </c>
-      <c r="C342" t="str">
-        <v>qualidade na educacao superior</v>
-      </c>
       <c r="D342" t="str">
-        <v/>
+        <v>paemia</v>
       </c>
       <c r="E342" t="str">
         <v/>
@@ -6219,13 +6219,13 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>metaavaliacao</v>
+        <v>orientador educacional</v>
       </c>
       <c r="B343" t="str">
-        <v>avaliacao de tecnologia da informacao e comunicacao</v>
+        <v>tecnologias</v>
       </c>
       <c r="C343" t="str">
-        <v>jogos eletronicos</v>
+        <v>covid19</v>
       </c>
       <c r="D343" t="str">
         <v/>
@@ -6236,47 +6236,47 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>metaverso</v>
+        <v>educacao digital</v>
       </c>
       <c r="B344" t="str">
-        <v>ensino fuamental</v>
+        <v>tecnologia</v>
       </c>
       <c r="C344" t="str">
-        <v>ciencia humanas</v>
+        <v>paemia</v>
       </c>
       <c r="D344" t="str">
-        <v/>
+        <v>ensino remoto</v>
       </c>
       <c r="E344" t="str">
-        <v/>
+        <v>ead</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>multiletramentos</v>
+        <v>ateimento educacional especializado</v>
       </c>
       <c r="B345" t="str">
-        <v>alfabetizacao cientifica</v>
+        <v>tecnologias digitais da informacao e comunicacao</v>
       </c>
       <c r="C345" t="str">
-        <v>ensino de geografia</v>
+        <v>transtorno do espectro do autismo</v>
       </c>
       <c r="D345" t="str">
-        <v>apreizagem baseada na resolucao de problemas</v>
+        <v/>
       </c>
       <c r="E345" t="str">
-        <v>web 20</v>
+        <v/>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>gamificacao</v>
+        <v>alimentos organicos</v>
       </c>
       <c r="B346" t="str">
-        <v>objeto de leitura gamificado</v>
+        <v>eletiva</v>
       </c>
       <c r="C346" t="str">
-        <v>apreizagem de leitura</v>
+        <v>historia em quadrinhos</v>
       </c>
       <c r="D346" t="str">
         <v/>
@@ -6287,16 +6287,16 @@
     </row>
     <row r="347">
       <c r="A347" t="str">
+        <v>discente</v>
+      </c>
+      <c r="B347" t="str">
+        <v>ensino superior</v>
+      </c>
+      <c r="C347" t="str">
+        <v>protagonismo</v>
+      </c>
+      <c r="D347" t="str">
         <v>tdics</v>
-      </c>
-      <c r="B347" t="str">
-        <v>colegio de aplicacao</v>
-      </c>
-      <c r="C347" t="str">
-        <v>ensino remoto emergencial</v>
-      </c>
-      <c r="D347" t="str">
-        <v>paemia</v>
       </c>
       <c r="E347" t="str">
         <v/>
@@ -6304,16 +6304,16 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>orientador educacional</v>
+        <v>tecnologia educacional</v>
       </c>
       <c r="B348" t="str">
-        <v>tecnologias</v>
+        <v>revista digital</v>
       </c>
       <c r="C348" t="str">
-        <v>covid19</v>
+        <v>cultura digital</v>
       </c>
       <c r="D348" t="str">
-        <v/>
+        <v>protagonismo do estudante</v>
       </c>
       <c r="E348" t="str">
         <v/>
@@ -6321,33 +6321,33 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>educacao digital</v>
+        <v>steam</v>
       </c>
       <c r="B349" t="str">
-        <v>tecnologia</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C349" t="str">
-        <v>paemia</v>
+        <v>ensino</v>
       </c>
       <c r="D349" t="str">
-        <v>ensino remoto</v>
+        <v/>
       </c>
       <c r="E349" t="str">
-        <v>ead</v>
+        <v/>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>ateimento educacional especializado</v>
+        <v>tdic</v>
       </c>
       <c r="B350" t="str">
-        <v>tecnologias digitais da informacao e comunicacao</v>
+        <v>professores de ingles</v>
       </c>
       <c r="C350" t="str">
-        <v>transtorno do espectro do autismo</v>
+        <v>apreizagem emingles</v>
       </c>
       <c r="D350" t="str">
-        <v/>
+        <v>ufpa</v>
       </c>
       <c r="E350" t="str">
         <v/>
@@ -6355,16 +6355,16 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>alimentos organicos</v>
+        <v>precalculo</v>
       </c>
       <c r="B351" t="str">
-        <v>eletiva</v>
+        <v>ensino a distancia</v>
       </c>
       <c r="C351" t="str">
-        <v>historia em quadrinhos</v>
+        <v>transicao terciaria</v>
       </c>
       <c r="D351" t="str">
-        <v/>
+        <v>covid19</v>
       </c>
       <c r="E351" t="str">
         <v/>
@@ -6372,47 +6372,47 @@
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>discente</v>
+        <v>smartphone</v>
       </c>
       <c r="B352" t="str">
-        <v>ensino superior</v>
+        <v>lingua inglesa li</v>
       </c>
       <c r="C352" t="str">
-        <v>protagonismo</v>
+        <v>educacao de jovens e adultos eja</v>
       </c>
       <c r="D352" t="str">
-        <v>tdics</v>
+        <v>tecnologia digital de informacao e comunicacao tdic</v>
       </c>
       <c r="E352" t="str">
-        <v/>
+        <v>apreizagem</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>tecnologia educacional</v>
+        <v>ensino medio</v>
       </c>
       <c r="B353" t="str">
-        <v>revista digital</v>
+        <v>avaliacao educacional</v>
       </c>
       <c r="C353" t="str">
-        <v>cultura digital</v>
+        <v>avaliacao formativa</v>
       </c>
       <c r="D353" t="str">
-        <v>protagonismo do estudante</v>
+        <v>ncc</v>
       </c>
       <c r="E353" t="str">
-        <v/>
+        <v>tdic</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>steam</v>
+        <v>ensino remoto</v>
       </c>
       <c r="B354" t="str">
-        <v>metodologias ativas</v>
+        <v>praticas hibridas de ensino</v>
       </c>
       <c r="C354" t="str">
-        <v>ensino</v>
+        <v>pospaemia</v>
       </c>
       <c r="D354" t="str">
         <v/>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>tdic</v>
+        <v>ead</v>
       </c>
       <c r="B355" t="str">
-        <v>professores de ingles</v>
+        <v>educacao basica</v>
       </c>
       <c r="C355" t="str">
-        <v>apreizagem emingles</v>
+        <v>professores</v>
       </c>
       <c r="D355" t="str">
-        <v>ufpa</v>
+        <v/>
       </c>
       <c r="E355" t="str">
         <v/>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>precalculo</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B356" t="str">
-        <v>ensino a distancia</v>
+        <v>olimpiadas cientificas</v>
       </c>
       <c r="C356" t="str">
-        <v>transicao terciaria</v>
+        <v>ensino de ciencias</v>
       </c>
       <c r="D356" t="str">
-        <v>covid19</v>
+        <v/>
       </c>
       <c r="E356" t="str">
         <v/>
@@ -6457,47 +6457,47 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>smartphone</v>
+        <v>professores iniciantes</v>
       </c>
       <c r="B357" t="str">
-        <v>lingua inglesa li</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C357" t="str">
-        <v>educacao de jovens e adultos eja</v>
+        <v>formacao de professores</v>
       </c>
       <c r="D357" t="str">
-        <v>tecnologia digital de informacao e comunicacao tdic</v>
+        <v>conhecimento tecnologico e pedagogico do conteudo</v>
       </c>
       <c r="E357" t="str">
-        <v>apreizagem</v>
+        <v/>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>ensino medio</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B358" t="str">
-        <v>avaliacao educacional</v>
+        <v>apreizagem invertida</v>
       </c>
       <c r="C358" t="str">
-        <v>avaliacao formativa</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="D358" t="str">
-        <v>ncc</v>
+        <v/>
       </c>
       <c r="E358" t="str">
-        <v>tdic</v>
+        <v/>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>ensino remoto</v>
+        <v>robotica educacional</v>
       </c>
       <c r="B359" t="str">
-        <v>praticas hibridas de ensino</v>
+        <v>narrativa</v>
       </c>
       <c r="C359" t="str">
-        <v>pospaemia</v>
+        <v>curriculo de tecnologia</v>
       </c>
       <c r="D359" t="str">
         <v/>
@@ -6508,16 +6508,16 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>ead</v>
+        <v>ensino</v>
       </c>
       <c r="B360" t="str">
-        <v>educacao basica</v>
+        <v>metodologias ativas</v>
       </c>
       <c r="C360" t="str">
-        <v>professores</v>
+        <v>pratica pedagogica</v>
       </c>
       <c r="D360" t="str">
-        <v/>
+        <v>sala de aula invertida</v>
       </c>
       <c r="E360" t="str">
         <v/>
@@ -6525,13 +6525,13 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>formacao de professores</v>
+        <v>educacao escolar</v>
       </c>
       <c r="B361" t="str">
-        <v>olimpiadas cientificas</v>
+        <v>sala de aula virtual</v>
       </c>
       <c r="C361" t="str">
-        <v>ensino de ciencias</v>
+        <v>ensino remoto e ensino hibrido</v>
       </c>
       <c r="D361" t="str">
         <v/>
@@ -6542,16 +6542,16 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>professores iniciantes</v>
+        <v>educacao fisica</v>
       </c>
       <c r="B362" t="str">
-        <v>ensino remoto emergencial</v>
+        <v>praticas corporais</v>
       </c>
       <c r="C362" t="str">
-        <v>formacao de professores</v>
+        <v>presencial</v>
       </c>
       <c r="D362" t="str">
-        <v>conhecimento tecnologico e pedagogico do conteudo</v>
+        <v>a distancia</v>
       </c>
       <c r="E362" t="str">
         <v/>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>formacao de professores</v>
+        <v>insurgencias</v>
       </c>
       <c r="B363" t="str">
-        <v>apreizagem invertida</v>
+        <v>ensino remoto emergencial</v>
       </c>
       <c r="C363" t="str">
-        <v>metodologias ativas</v>
+        <v>docencia no ensino superior</v>
       </c>
       <c r="D363" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
       <c r="E363" t="str">
         <v/>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>robotica educacional</v>
+        <v>educacao</v>
       </c>
       <c r="B364" t="str">
-        <v>narrativa</v>
+        <v>ensino remoto</v>
       </c>
       <c r="C364" t="str">
-        <v>curriculo de tecnologia</v>
+        <v>ensino hibrido</v>
       </c>
       <c r="D364" t="str">
         <v/>
@@ -6593,33 +6593,33 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>ensino</v>
+        <v>tecnologia digital</v>
       </c>
       <c r="B365" t="str">
-        <v>metodologias ativas</v>
+        <v>formacao de professores</v>
       </c>
       <c r="C365" t="str">
-        <v>pratica pedagogica</v>
+        <v>audiovisual</v>
       </c>
       <c r="D365" t="str">
-        <v>sala de aula invertida</v>
+        <v>educacao basica</v>
       </c>
       <c r="E365" t="str">
-        <v/>
+        <v>educacao a distancia</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>educacao escolar</v>
+        <v>microbiologia</v>
       </c>
       <c r="B366" t="str">
-        <v>sala de aula virtual</v>
+        <v>ensino</v>
       </c>
       <c r="C366" t="str">
-        <v>ensino remoto e ensino hibrido</v>
+        <v>tecnologia</v>
       </c>
       <c r="D366" t="str">
-        <v/>
+        <v>jogos</v>
       </c>
       <c r="E366" t="str">
         <v/>
@@ -6627,16 +6627,16 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>educacao fisica</v>
+        <v>formacao de professores</v>
       </c>
       <c r="B367" t="str">
-        <v>praticas corporais</v>
+        <v>competencias digitais</v>
       </c>
       <c r="C367" t="str">
-        <v>presencial</v>
+        <v>educacao basica</v>
       </c>
       <c r="D367" t="str">
-        <v>a distancia</v>
+        <v>covid19</v>
       </c>
       <c r="E367" t="str">
         <v/>
